--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="9683" tabRatio="603" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="9683" tabRatio="603" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7409" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7562" uniqueCount="1365">
   <si>
     <t>Description</t>
   </si>
@@ -3499,9 +3499,6 @@
     <t>Numbers copied from original source (csv) to Excel spreadsheet</t>
   </si>
   <si>
-    <t>1_F_Ag_Silver_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>mining, metal industries, manufacturing, use phase, waste management</t>
   </si>
   <si>
@@ -3571,27 +3568,18 @@
     <t>YSTAFDB_flows13</t>
   </si>
   <si>
-    <t>1_F_Al_Aluminium_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>Al (Aluminum)</t>
   </si>
   <si>
     <t>Cr (Chromium)</t>
   </si>
   <si>
-    <t>1_F_Cr_Chromium_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>Chromium</t>
   </si>
   <si>
     <t>Cu (Copper)</t>
   </si>
   <si>
-    <t>1_F_Cu_Copper_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>Copper</t>
   </si>
   <si>
@@ -3619,15 +3607,6 @@
     <t>copper flows, copper cycle, from Yale stocks and flows database</t>
   </si>
   <si>
-    <t>1_F_Fe_Iron_YSTAFDB_v1.0</t>
-  </si>
-  <si>
-    <t>1_F_Ni_Nickel_YSTAFDB_v1.0</t>
-  </si>
-  <si>
-    <t>1_F_P_Phosphorus_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
@@ -3667,9 +3646,6 @@
     <t>Pb (Lead)</t>
   </si>
   <si>
-    <t>1_F_Pb_Lead_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>lead flows, lead cycle, from Yale stocks and flows database</t>
   </si>
   <si>
@@ -3694,15 +3670,9 @@
     <t>Se (Selenium)</t>
   </si>
   <si>
-    <t>1_F_Se_Selenium_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>Stainless steel (General stainless steel alloy)</t>
   </si>
   <si>
-    <t>1_F_stainless_steel_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>Selenium</t>
   </si>
   <si>
@@ -3730,12 +3700,6 @@
     <t>Te (Tellurium)</t>
   </si>
   <si>
-    <t>1_F_Te_Tellurium_YSTAFDB_v1.0</t>
-  </si>
-  <si>
-    <t>1_F_Zn_Zinc_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>Zn (Zinc)</t>
   </si>
   <si>
@@ -3757,27 +3721,15 @@
     <t>Zinc</t>
   </si>
   <si>
-    <t>1_F_Minor_Elements_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>1994, 2000, 2010</t>
   </si>
   <si>
-    <t>Co (Cobalt), non-metal, W (Tungsten), Ga (Gallium), Ge (Germanium), Re (Rhenium), Pt (Platinum), La (Lanthanum), Ce (Cerium), Pr (Praseodymium), Nd (Neodymium), Sm (Samarium), Eu (Europium), Gd (Gadolinium), Tb (Terbium), Dy (Dysprosium), Y (Yttrium), Ho (Holmium), Er (Erbium), Tm (Thulium), Yb (Ytterbium), Lu (Lutetium), Pd (Palladium), Rh (Rhodium), Ru (Ruthenium), Ir (Iridium), Cs (Caesium)</t>
-  </si>
-  <si>
     <t>minor metal flows, minor metal cycles, from Yale stocks and flows database</t>
   </si>
   <si>
-    <t>YSTAFDB, MFA, metal cycle, material, resource, Co (Cobalt), non-metal, W (Tungsten), Ga (Gallium), Ge (Germanium), Re (Rhenium), Pt (Platinum), La (Lanthanum), Ce (Cerium), Pr (Praseodymium), Nd (Neodymium), Sm (Samarium), Eu (Europium), Gd (Gadolinium), Tb (Terbium), Dy (Dysprosium), Y (Yttrium), Ho (Holmium), Er (Erbium), Tm (Thulium), Yb (Ytterbium), Lu (Lutetium), Pd (Palladium), Rh (Rhodium), Ru (Ruthenium), Ir (Iridium), Cs (Caesium)</t>
-  </si>
-  <si>
     <t>YSTAFDB_stocks1</t>
   </si>
   <si>
-    <t>2_S_Al_Aluminium_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>environment, metal industries, manufacturing, use phase, waste management</t>
   </si>
   <si>
@@ -3805,9 +3757,6 @@
     <t>[Layer] of [data type] of [aspect1] in [aspect4] in [aspect3] in [aspect2] is [Value].</t>
   </si>
   <si>
-    <t>2_S_Cu_Copper_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>1929-2012</t>
   </si>
   <si>
@@ -3829,51 +3778,30 @@
     <t>copper stocks, copper cycle, from Yale stocks and flows database</t>
   </si>
   <si>
-    <t>2_S_Fe_Iron_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>1800-2012</t>
   </si>
   <si>
     <t>iron stocks, iron cycle, from Yale stocks and flows database</t>
   </si>
   <si>
-    <t>2_S_P_Phosphorus_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>phosphorus</t>
   </si>
   <si>
     <t>phosphorus stocks, phosphorus cycle, from Yale stocks and flows database</t>
   </si>
   <si>
-    <t>2_S_Zn_Zinc_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>1947-2012</t>
   </si>
   <si>
     <t>zinc stocks, zinc cycle, from Yale stocks and flows database</t>
   </si>
   <si>
-    <t>2_S_Minor_Elements_YSTAFDB_v1.0</t>
-  </si>
-  <si>
     <t>minor metal stocks, minor metal cycles, from Yale stocks and flows database</t>
   </si>
   <si>
     <t>W (Tungsten), Pb (Lead), Cr (Chromium), Co (Cobalt), Sb (Antimony), Cd (Cadmium), Au (Gold), Mg (Magnesium), Mn (Manganese), Hg (Mercury), Mo (Molybdenum), Ni (Nickel), Pd (Palladium), Pt (Platinum), Rh (Rhodium), Ag (Silver), Stainless steel (General stainless steel alloy), Steel, Sn (Tin), Ti (Titanium), non-metal, Ga (Gallium), Ge (Germanium), Re (Rhenium), La (Lanthanum), Ce (Cerium), Pr (Praseodymium), Nd (Neodymium), Sm (Samarium), Eu (Europium), Gd (Gadolinium), Tb (Terbium), Dy (Dysprosium), Y (Yttrium), Ho (Holmium), Er (Erbium), Tm (Thulium), Yb (Ytterbium), Lu (Lutetium), Li (Lithium), Be (Beryllium), B (Boron), Sc (Scandium), V (Vanadium), As (Arsenic), Se (Selenium), Sr (Strontium), Zr (Zirconium), Nb (Niobium), Ru (Ruthenium), In (Indium), Te (Tellurium), Hf (Hafnium), Ta (Tantalum), Ir (Iridium), Tl (Thallium), Bi (Bismuth), Cs (Caesium)</t>
   </si>
   <si>
-    <t>2_DS_All_Elements_YSTAFDB_v1.0</t>
-  </si>
-  <si>
-    <t>Ag (Silver), Co (Cobalt), Cu (Copper), Zn (Zinc), Al (Aluminum), non-metal, Pb (Lead), W (Tungsten), Ga (Gallium), Ge (Germanium), Re (Rhenium), Cr (Chromium), Pt (Platinum), La (Lanthanum), Ce (Cerium), Pr (Praseodymium), Nd (Neodymium), Sm (Samarium), Eu (Europium), Gd (Gadolinium), Tb (Terbium), Dy (Dysprosium), Y (Yttrium), Se (Selenium), Te (Tellurium), Cs (Caesium), Fe (Iron), Stainless steel (General stainless steel alloy), Ni (Nickel)</t>
-  </si>
-  <si>
-    <t>YSTAFDB, MFA, metal cycle, material, resource, stock changes, Ag (Silver), Co (Cobalt), Cu (Copper), Zn (Zinc), Al (Aluminum), non-metal, Pb (Lead), W (Tungsten), Ga (Gallium), Ge (Germanium), Re (Rhenium), Cr (Chromium), Pt (Platinum), La (Lanthanum), Ce (Cerium), Pr (Praseodymium), Nd (Neodymium), Sm (Samarium), Eu (Europium), Gd (Gadolinium), Tb (Terbium), Dy (Dysprosium), Y (Yttrium), Se (Selenium), Te (Tellurium), Cs (Caesium), Fe (Iron), Stainless steel (General stainless steel alloy), Ni (Nickel)</t>
-  </si>
-  <si>
     <t>YSTAFDB, MFA, metal cycle, material, resource, aluminium, stocks</t>
   </si>
   <si>
@@ -3889,9 +3817,6 @@
     <t>YSTAFDB, MFA, metal cycle, material, resource, zinc, stocks</t>
   </si>
   <si>
-    <t>YSTAFDB, MFA, metal cycle, material, resource, stocks, minor elements, minor metals, W (Tungsten), Pb (Lead), Cr (Chromium), Co (Cobalt), Sb (Antimony), Cd (Cadmium), Au (Gold), Mg (Magnesium), Mn (Manganese), Hg (Mercury), Mo (Molybdenum), Ni (Nickel), Pd (Palladium), Pt (Platinum), Rh (Rhodium), Ag (Silver), Stainless steel (General stainless steel alloy), Steel, Sn (Tin), Ti (Titanium), non-metal, Ga (Gallium), Ge (Germanium), Re (Rhenium), La (Lanthanum), Ce (Cerium), Pr (Praseodymium), Nd (Neodymium), Sm (Samarium), Eu (Europium), Gd (Gadolinium), Tb (Terbium), Dy (Dysprosium), Y (Yttrium), Ho (Holmium), Er (Erbium), Tm (Thulium), Yb (Ytterbium), Lu (Lutetium), Li (Lithium), Be (Beryllium), B (Boron), Sc (Scandium), V (Vanadium), As (Arsenic), Se (Selenium), Sr (Strontium), Zr (Zirconium), Nb (Niobium), Ru (Ruthenium), In (Indium), Te (Tellurium), Hf (Hafnium), Ta (Tantalum), Ir (Iridium), Tl (Thallium), Bi (Bismuth), Cs (Caesium)</t>
-  </si>
-  <si>
     <t>YSTAFDB_stockchanges</t>
   </si>
   <si>
@@ -4058,6 +3983,141 @@
   </si>
   <si>
     <t>DOI: 10.1016/j.ecolecon.2018.09.010</t>
+  </si>
+  <si>
+    <t>1_F_Ag_Silver_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_Al_Aluminium_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_Cr_Chromium_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_Cu_Copper_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_Fe_Iron_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_Ni_Nickel_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_P_Phosphorus_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_Pb_Lead_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_Se_Selenium_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_stainless_steel_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_Te_Tellurium_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_Zn_Zinc_YSTAFDB</t>
+  </si>
+  <si>
+    <t>1_F_Minor_Elements_YSTAFDB</t>
+  </si>
+  <si>
+    <t>2_S_Al_Aluminium_YSTAFDB</t>
+  </si>
+  <si>
+    <t>2_S_Cu_Copper_YSTAFDB</t>
+  </si>
+  <si>
+    <t>2_S_Fe_Iron_YSTAFDB</t>
+  </si>
+  <si>
+    <t>2_S_P_Phosphorus_YSTAFDB</t>
+  </si>
+  <si>
+    <t>2_S_Zn_Zinc_YSTAFDB</t>
+  </si>
+  <si>
+    <t>2_S_Minor_Elements_YSTAFDB</t>
+  </si>
+  <si>
+    <t>2_DS_All_Elements_YSTAFDB</t>
+  </si>
+  <si>
+    <t>YSTAFDB_flows14</t>
+  </si>
+  <si>
+    <t>1_F_Cs_Caesium_YSTAFDB</t>
+  </si>
+  <si>
+    <t>Caesium</t>
+  </si>
+  <si>
+    <t>Radioactivity</t>
+  </si>
+  <si>
+    <t>1986-2000</t>
+  </si>
+  <si>
+    <t>Single country</t>
+  </si>
+  <si>
+    <t>caesium flows, caesium cycle, from Yale stocks and flows database</t>
+  </si>
+  <si>
+    <t>YSTAFDB, MFA, metal cycle, material, resource, caesium</t>
+  </si>
+  <si>
+    <t>Cs (Caesium)</t>
+  </si>
+  <si>
+    <t>YSTAFDB_stocks7</t>
+  </si>
+  <si>
+    <t>YSTAFDB_stockchanges_caesium</t>
+  </si>
+  <si>
+    <t>2_DS_Cs_Caesium_YSTAFDB</t>
+  </si>
+  <si>
+    <t>YSTAFDB, MFA, metal cycle, material, resource, caesium, stocks</t>
+  </si>
+  <si>
+    <t>caesium stocks, caesium cycle, from Yale stocks and flows database</t>
+  </si>
+  <si>
+    <t>YSTAFDB, MFA, metal cycle, material, resource, stock changes, Cs (Caesium)</t>
+  </si>
+  <si>
+    <t>caesium stock changes, net added, withdrawn, and deposited, from Yale stocks and flows database</t>
+  </si>
+  <si>
+    <t>2_S_Cs_Caesium_YSTAFDB</t>
+  </si>
+  <si>
+    <t>Co (Cobalt), non-metal, W (Tungsten), Ga (Gallium), Ge (Germanium), Re (Rhenium), Pt (Platinum), La (Lanthanum), Ce (Cerium), Pr (Praseodymium), Nd (Neodymium), Sm (Samarium), Eu (Europium), Gd (Gadolinium), Tb (Terbium), Dy (Dysprosium), Y (Yttrium), Ho (Holmium), Er (Erbium), Tm (Thulium), Yb (Ytterbium), Lu (Lutetium), Pd (Palladium), Rh (Rhodium), Ru (Ruthenium), Ir (Iridium)</t>
+  </si>
+  <si>
+    <t>Ag (Silver), Co (Cobalt), Cu (Copper), Zn (Zinc), Al (Aluminum), non-metal, Pb (Lead), W (Tungsten), Ga (Gallium), Ge (Germanium), Re (Rhenium), Cr (Chromium), Pt (Platinum), La (Lanthanum), Ce (Cerium), Pr (Praseodymium), Nd (Neodymium), Sm (Samarium), Eu (Europium), Gd (Gadolinium), Tb (Terbium), Dy (Dysprosium), Y (Yttrium), Se (Selenium), Te (Tellurium), Fe (Iron), Stainless steel (General stainless steel alloy), Ni (Nickel)</t>
+  </si>
+  <si>
+    <t>Co, non-metal, W, Ga, Ge, Re, Pt, La, Ce, Pr, Nd, Sm, Eu, Gd, Tb, Dy, Y, Ho, Er, Tm, Yb, Lu, Pd, Rh, Ru, Ir</t>
+  </si>
+  <si>
+    <t>W, Pb, Cr, Co, Sb, Cd, Au, Mg, Mn, Hg, Mo, Ni, Pd, Pt, Rh, Ag, Stainless steel, Steel, Sn, Ti, non-metal, Ga, Ge, Re, La, Ce, Pr, Nd, Sm, Eu, Gd, Tb, Dy, Y, Ho, Er, Tm, Yb, Lu, Li, Be, B, Sc, V, As, Se, Sr, Zr, Nb, Ru, In, Te, Hf, Ta, Ir, Tl, Bi</t>
+  </si>
+  <si>
+    <t>Ag, Co, Cu, Zn, Al, non-metal, Pb, W, Ga, Ge, Re, Cr, Pt, La, Ce, Pr, Nd, Sm, Eu, Gd, Tb, Dy, Y, Se, Te, Fe, Stainless steel, Ni</t>
+  </si>
+  <si>
+    <t>YSTAFDB, MFA, metal cycle, material, resource, Co, non-metal, W, Ga, Ge, Re, Pt, La, Ce, Pr, Nd, Sm, Eu, Gd, Tb, Dy, Y, Ho, Er, Tm, Yb, Lu, Pd, Rh, Ru, Ir</t>
+  </si>
+  <si>
+    <t>YSTAFDB, MFA, metal cycle, material, resource, stock changes, Ag, Co, Cu, Zn, Al, non-metal, Pb, W, Ga, Ge, Re, Cr, Pt, La, Ce, Pr, Nd, Sm, Eu, Gd, Tb, Dy, Y, Se, Te, Fe, Stainless steel, Ni</t>
+  </si>
+  <si>
+    <t>YSTAFDB, MFA, metal cycle, material, resource, stocks, minor elements, minor metals</t>
   </si>
 </sst>
 </file>
@@ -4656,6 +4716,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4721,22 +4797,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5065,7 +5125,7 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="154" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5082,7 +5142,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="146"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -5097,7 +5157,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -5108,7 +5168,7 @@
       <c r="F6" s="52"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="147"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -5117,7 +5177,7 @@
       <c r="F7" s="52"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="147"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -5126,7 +5186,7 @@
       <c r="F8" s="52"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="147"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -5135,7 +5195,7 @@
       <c r="F9" s="52"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="147"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -5144,7 +5204,7 @@
       <c r="F10" s="52"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="147"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -5153,7 +5213,7 @@
       <c r="F11" s="52"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="147"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -5162,7 +5222,7 @@
       <c r="F12" s="52"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="147"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -5171,7 +5231,7 @@
       <c r="F13" s="52"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="147"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -5180,7 +5240,7 @@
       <c r="F14" s="52"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="147"/>
+      <c r="B15" s="155"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -5189,7 +5249,7 @@
       <c r="F15" s="52"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="147"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -5198,7 +5258,7 @@
       <c r="F16" s="52"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="147"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -5207,7 +5267,7 @@
       <c r="F17" s="52"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="147"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -5216,7 +5276,7 @@
       <c r="F18" s="52"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="156" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -5229,7 +5289,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="148"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -5244,7 +5304,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="148"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -5255,7 +5315,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="149" t="s">
+      <c r="B22" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -5270,7 +5330,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="149"/>
+      <c r="B23" s="157"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -5279,7 +5339,7 @@
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="149"/>
+      <c r="B24" s="157"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -5288,7 +5348,7 @@
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="149"/>
+      <c r="B25" s="157"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -5299,7 +5359,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="149"/>
+      <c r="B26" s="157"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -5310,7 +5370,7 @@
       <c r="F26" s="52"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="149"/>
+      <c r="B27" s="157"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -5319,7 +5379,7 @@
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="2:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -5336,7 +5396,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="150"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -5351,7 +5411,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="143" t="s">
+      <c r="B30" s="151" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -5362,7 +5422,7 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="144"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -5371,7 +5431,7 @@
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="145"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -5396,7 +5456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -5447,27 +5507,27 @@
       <c r="I3" s="82" t="s">
         <v>1009</v>
       </c>
-      <c r="J3" s="165" t="s">
-        <v>1308</v>
+      <c r="J3" s="143" t="s">
+        <v>1283</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>1309</v>
+        <v>1284</v>
       </c>
       <c r="L3" s="82" t="s">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="M3" s="82" t="s">
-        <v>1311</v>
+        <v>1286</v>
       </c>
       <c r="N3" s="82" t="s">
         <v>1138</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>1294</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="159" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -5491,7 +5551,7 @@
       <c r="I4" s="52">
         <v>5</v>
       </c>
-      <c r="J4" s="166">
+      <c r="J4" s="144">
         <v>6</v>
       </c>
       <c r="K4" s="121">
@@ -5511,7 +5571,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="152"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -5533,23 +5593,23 @@
       <c r="I5" s="118" t="s">
         <v>1010</v>
       </c>
-      <c r="J5" s="167" t="s">
-        <v>1312</v>
+      <c r="J5" s="145" t="s">
+        <v>1287</v>
       </c>
       <c r="K5" s="118" t="s">
-        <v>1313</v>
+        <v>1288</v>
       </c>
       <c r="L5" s="118" t="s">
-        <v>1314</v>
+        <v>1289</v>
       </c>
       <c r="M5" s="118" t="s">
-        <v>1315</v>
+        <v>1290</v>
       </c>
       <c r="N5" s="118" t="s">
         <v>1150</v>
       </c>
       <c r="O5" s="118" t="s">
-        <v>1298</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
@@ -5573,7 +5633,7 @@
       <c r="I6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="166" t="s">
+      <c r="J6" s="144" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="19" t="s">
@@ -5615,7 +5675,7 @@
       <c r="I7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="166" t="s">
+      <c r="J7" s="144" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="52" t="s">
@@ -5635,7 +5695,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -5657,27 +5717,27 @@
       <c r="I8" s="119" t="s">
         <v>1011</v>
       </c>
-      <c r="J8" s="166" t="s">
-        <v>1316</v>
-      </c>
-      <c r="K8" s="167" t="s">
-        <v>1317</v>
+      <c r="J8" s="144" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K8" s="145" t="s">
+        <v>1292</v>
       </c>
       <c r="L8" s="121" t="s">
-        <v>1318</v>
+        <v>1293</v>
       </c>
       <c r="M8" s="121" t="s">
-        <v>1316</v>
+        <v>1291</v>
       </c>
       <c r="N8" s="119" t="s">
         <v>1140</v>
       </c>
       <c r="O8" s="121" t="s">
-        <v>1299</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="147"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -5697,27 +5757,27 @@
       <c r="I9" s="119" t="s">
         <v>1012</v>
       </c>
-      <c r="J9" s="166" t="s">
-        <v>1319</v>
-      </c>
-      <c r="K9" s="167" t="s">
-        <v>1320</v>
+      <c r="J9" s="144" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K9" s="145" t="s">
+        <v>1295</v>
       </c>
       <c r="L9" s="121" t="s">
-        <v>1321</v>
+        <v>1296</v>
       </c>
       <c r="M9" s="121" t="s">
-        <v>1319</v>
+        <v>1294</v>
       </c>
       <c r="N9" s="119" t="s">
         <v>1139</v>
       </c>
       <c r="O9" s="121" t="s">
-        <v>1299</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="147"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -5757,7 +5817,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="147"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -5777,7 +5837,7 @@
       <c r="I11" s="120" t="s">
         <v>779</v>
       </c>
-      <c r="J11" s="168" t="s">
+      <c r="J11" s="146" t="s">
         <v>626</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -5797,7 +5857,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="147"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -5817,8 +5877,8 @@
       <c r="I12" s="120" t="s">
         <v>1014</v>
       </c>
-      <c r="J12" s="168" t="s">
-        <v>1322</v>
+      <c r="J12" s="146" t="s">
+        <v>1297</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>14</v>
@@ -5827,17 +5887,17 @@
         <v>14</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>1322</v>
+        <v>1297</v>
       </c>
       <c r="N12" s="120" t="s">
         <v>1141</v>
       </c>
       <c r="O12" s="121" t="s">
-        <v>1300</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="147"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -5857,7 +5917,7 @@
       <c r="I13" s="120" t="s">
         <v>779</v>
       </c>
-      <c r="J13" s="168" t="s">
+      <c r="J13" s="146" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="20" t="s">
@@ -5873,11 +5933,11 @@
         <v>11</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>1301</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="147"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -5897,11 +5957,11 @@
       <c r="I14" s="120" t="s">
         <v>1015</v>
       </c>
-      <c r="J14" s="168" t="s">
+      <c r="J14" s="146" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>1323</v>
+        <v>1298</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>16</v>
@@ -5913,11 +5973,11 @@
         <v>11</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>1301</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="147"/>
+      <c r="B15" s="155"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -5937,8 +5997,8 @@
       <c r="I15" s="120" t="s">
         <v>1016</v>
       </c>
-      <c r="J15" s="168" t="s">
-        <v>1324</v>
+      <c r="J15" s="146" t="s">
+        <v>1299</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>17</v>
@@ -5947,7 +6007,7 @@
         <v>17</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>1324</v>
+        <v>1299</v>
       </c>
       <c r="N15" s="120" t="s">
         <v>1142</v>
@@ -5957,7 +6017,7 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="147"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -5977,8 +6037,8 @@
       <c r="I16" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="168" t="s">
-        <v>1325</v>
+      <c r="J16" s="146" t="s">
+        <v>1300</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>18</v>
@@ -5987,17 +6047,17 @@
         <v>18</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>1326</v>
+        <v>1301</v>
       </c>
       <c r="N16" s="120" t="s">
         <v>1143</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>1302</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="147"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -6018,7 +6078,7 @@
         <v>740</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>1327</v>
+        <v>1302</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>19</v>
@@ -6037,7 +6097,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="147"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -6058,7 +6118,7 @@
         <v>1017</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>1328</v>
+        <v>1303</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>99</v>
@@ -6077,7 +6137,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="147"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -6097,27 +6157,27 @@
       <c r="I19" s="119" t="s">
         <v>1018</v>
       </c>
-      <c r="J19" s="168" t="s">
+      <c r="J19" s="146" t="s">
         <v>86</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>1329</v>
+        <v>1304</v>
       </c>
       <c r="L19" s="20">
         <v>2008</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>1330</v>
+        <v>1305</v>
       </c>
       <c r="N19" s="119" t="s">
         <v>1145</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>1303</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="147"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -6137,10 +6197,10 @@
       <c r="I20" s="120" t="s">
         <v>311</v>
       </c>
-      <c r="J20" s="168" t="s">
+      <c r="J20" s="146" t="s">
         <v>1146</v>
       </c>
-      <c r="K20" s="168" t="s">
+      <c r="K20" s="146" t="s">
         <v>1146</v>
       </c>
       <c r="L20" s="20" t="s">
@@ -6153,11 +6213,11 @@
         <v>1146</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>1304</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="156" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -6180,26 +6240,26 @@
         <v>1019</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>1331</v>
+        <v>1306</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>1332</v>
+        <v>1307</v>
       </c>
       <c r="L21" s="20" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>1333</v>
+        <v>1308</v>
       </c>
       <c r="N21" s="120" t="s">
         <v>1147</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>1305</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="148"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -6222,26 +6282,26 @@
         <v>1020</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>1334</v>
+        <v>1309</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>1335</v>
+        <v>1310</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>23</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>1336</v>
+        <v>1311</v>
       </c>
       <c r="N22" s="120" t="s">
         <v>1148</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>1306</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="148"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
@@ -6265,10 +6325,10 @@
         <v>11</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>1337</v>
+        <v>1312</v>
       </c>
       <c r="L23" s="118" t="s">
-        <v>1338</v>
+        <v>1313</v>
       </c>
       <c r="M23" s="19" t="s">
         <v>11</v>
@@ -6277,11 +6337,11 @@
         <v>11</v>
       </c>
       <c r="O23" s="118" t="s">
-        <v>1297</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="148"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -6321,7 +6381,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="157" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -6352,7 +6412,7 @@
       <c r="L25" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="M25" s="169" t="s">
+      <c r="M25" s="147" t="s">
         <v>206</v>
       </c>
       <c r="N25" s="19" t="s">
@@ -6363,7 +6423,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B26" s="149"/>
+      <c r="B26" s="157"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -6403,7 +6463,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B27" s="149"/>
+      <c r="B27" s="157"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -6424,26 +6484,26 @@
         <v>1022</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>1339</v>
+        <v>1314</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>1340</v>
+        <v>1315</v>
       </c>
       <c r="L27" s="20" t="s">
         <v>287</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>1341</v>
+        <v>1316</v>
       </c>
       <c r="N27" s="137" t="s">
         <v>1149</v>
       </c>
       <c r="O27" s="118" t="s">
-        <v>1296</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B28" s="149"/>
+      <c r="B28" s="157"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -6479,11 +6539,11 @@
         <v>1152</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>1295</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="149"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -6504,26 +6564,26 @@
         <v>11</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1342</v>
+        <v>1317</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>1343</v>
+        <v>1318</v>
       </c>
       <c r="L29" s="20" t="s">
         <v>28</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>1344</v>
+        <v>1319</v>
       </c>
       <c r="N29" s="138" t="s">
         <v>1153</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>1295</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="149"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -6543,27 +6603,27 @@
       <c r="I30" s="120" t="s">
         <v>1036</v>
       </c>
-      <c r="J30" s="170" t="s">
-        <v>1342</v>
+      <c r="J30" s="148" t="s">
+        <v>1317</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>1343</v>
+        <v>1318</v>
       </c>
       <c r="L30" s="20" t="s">
         <v>29</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>1344</v>
+        <v>1319</v>
       </c>
       <c r="N30" s="138" t="s">
         <v>1154</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>1295</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="31" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="150" t="s">
+      <c r="B31" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -6587,7 +6647,7 @@
       <c r="I31" s="123">
         <v>43348</v>
       </c>
-      <c r="J31" s="171">
+      <c r="J31" s="149">
         <v>43390</v>
       </c>
       <c r="K31" s="142">
@@ -6607,7 +6667,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B32" s="153"/>
+      <c r="B32" s="161"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -6629,7 +6689,7 @@
       <c r="I32" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="172" t="s">
+      <c r="J32" s="150" t="s">
         <v>30</v>
       </c>
       <c r="K32" s="21" t="s">
@@ -6649,7 +6709,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B33" s="143" t="s">
+      <c r="B33" s="151" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -6669,7 +6729,7 @@
       <c r="O33" s="57"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B34" s="144"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -6687,7 +6747,7 @@
       <c r="O34" s="52"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B35" s="145"/>
+      <c r="B35" s="153"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -7239,7 +7299,7 @@
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="164" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -7453,7 +7513,7 @@
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="157"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -7875,7 +7935,7 @@
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="166" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -8087,7 +8147,7 @@
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="158"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -8299,7 +8359,7 @@
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="158"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -8511,7 +8571,7 @@
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="158"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -8723,7 +8783,7 @@
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="167" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -8935,7 +8995,7 @@
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="160"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -9145,7 +9205,7 @@
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="160"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -9355,7 +9415,7 @@
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="160"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -9565,7 +9625,7 @@
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="160"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -9775,7 +9835,7 @@
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="160"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -9985,7 +10045,7 @@
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="160"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -10195,7 +10255,7 @@
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="160"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -10405,7 +10465,7 @@
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="160"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -10615,7 +10675,7 @@
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="160"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -10825,7 +10885,7 @@
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="169" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -11031,7 +11091,7 @@
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="161"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -11243,7 +11303,7 @@
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="161"/>
+      <c r="B23" s="169"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -11455,7 +11515,7 @@
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="161"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -11667,7 +11727,7 @@
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="161"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -11877,7 +11937,7 @@
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="170" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -12091,7 +12151,7 @@
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -12303,7 +12363,7 @@
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="162"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -12513,7 +12573,7 @@
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -12723,7 +12783,7 @@
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -12933,7 +12993,7 @@
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="162"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -13143,7 +13203,7 @@
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="162"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -13353,7 +13413,7 @@
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="162"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -13563,7 +13623,7 @@
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="162"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -13773,7 +13833,7 @@
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="162"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -13983,7 +14043,7 @@
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="162"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -14193,7 +14253,7 @@
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="162"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -14403,7 +14463,7 @@
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="162"/>
+      <c r="B38" s="170"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -14613,7 +14673,7 @@
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="162"/>
+      <c r="B39" s="170"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -14823,7 +14883,7 @@
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="162"/>
+      <c r="B40" s="170"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -15033,7 +15093,7 @@
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="162"/>
+      <c r="B41" s="170"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -15243,7 +15303,7 @@
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="162"/>
+      <c r="B42" s="170"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -15453,7 +15513,7 @@
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="162"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -15663,7 +15723,7 @@
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="162"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -15873,7 +15933,7 @@
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="162"/>
+      <c r="B45" s="170"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -16083,7 +16143,7 @@
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="162"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -16293,7 +16353,7 @@
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="162"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -16503,7 +16563,7 @@
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="162"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -16713,7 +16773,7 @@
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="162"/>
+      <c r="B49" s="170"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -16923,7 +16983,7 @@
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="162"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -17135,7 +17195,7 @@
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="162"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -17347,7 +17407,7 @@
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="162"/>
+      <c r="B52" s="170"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -17559,7 +17619,7 @@
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="163" t="s">
+      <c r="B53" s="171" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -17773,7 +17833,7 @@
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="163"/>
+      <c r="B54" s="171"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -17985,7 +18045,7 @@
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="163"/>
+      <c r="B55" s="171"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -18197,7 +18257,7 @@
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -18407,7 +18467,7 @@
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="163"/>
+      <c r="B57" s="171"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -18619,7 +18679,7 @@
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="163"/>
+      <c r="B58" s="171"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -18829,7 +18889,7 @@
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="163"/>
+      <c r="B59" s="171"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -19041,7 +19101,7 @@
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="163"/>
+      <c r="B60" s="171"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -19253,7 +19313,7 @@
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="164" t="s">
+      <c r="B61" s="172" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -19465,7 +19525,7 @@
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="164"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -19677,7 +19737,7 @@
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="164"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -19889,7 +19949,7 @@
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="164"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -20101,7 +20161,7 @@
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="164"/>
+      <c r="B65" s="172"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -20151,7 +20211,7 @@
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="164"/>
+      <c r="B66" s="172"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -20201,7 +20261,7 @@
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -20253,7 +20313,7 @@
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="154" t="s">
+      <c r="B68" s="162" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -20283,7 +20343,7 @@
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="154"/>
+      <c r="B69" s="162"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -20310,7 +20370,7 @@
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="154"/>
+      <c r="B70" s="162"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -20336,7 +20396,7 @@
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="154"/>
+      <c r="B71" s="162"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -20362,7 +20422,7 @@
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="155"/>
+      <c r="B72" s="163"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -20818,7 +20878,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="164" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -20987,7 +21047,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="157"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -21319,7 +21379,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="166" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -21486,7 +21546,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="158"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -21653,7 +21713,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="158"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -21820,7 +21880,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="158"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -21987,7 +22047,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="167" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -22154,7 +22214,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="160"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -22319,7 +22379,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="160"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -22484,7 +22544,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="160"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -22649,7 +22709,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="160"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -22814,7 +22874,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="160"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -22979,7 +23039,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="160"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -23144,7 +23204,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="160"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -23309,7 +23369,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="160"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -23474,7 +23534,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="160"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -23639,7 +23699,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="169" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -23847,7 +23907,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="161"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -24055,7 +24115,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="161"/>
+      <c r="B23" s="169"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -24222,7 +24282,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="161"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -24389,7 +24449,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="161"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -24554,7 +24614,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="170" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -24723,7 +24783,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="162"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -24890,7 +24950,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="162"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -25055,7 +25115,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="162"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -25220,7 +25280,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="162"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -25385,7 +25445,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="162"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -25550,7 +25610,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="162"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -25715,7 +25775,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="162"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -25880,7 +25940,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="162"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -26045,7 +26105,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="162"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -26210,7 +26270,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="162"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -26375,7 +26435,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="162"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -26540,7 +26600,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="162"/>
+      <c r="B38" s="170"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -26705,7 +26765,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="162"/>
+      <c r="B39" s="170"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -26870,7 +26930,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="162"/>
+      <c r="B40" s="170"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -27035,7 +27095,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="162"/>
+      <c r="B41" s="170"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -27200,7 +27260,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="162"/>
+      <c r="B42" s="170"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -27365,7 +27425,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="162"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -27530,7 +27590,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="162"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -27695,7 +27755,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="162"/>
+      <c r="B45" s="170"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -27860,7 +27920,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="162"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -28025,7 +28085,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="162"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -28190,7 +28250,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="162"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -28355,7 +28415,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="162"/>
+      <c r="B49" s="170"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -28520,7 +28580,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="162"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -28687,7 +28747,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="162"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -28854,7 +28914,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="162"/>
+      <c r="B52" s="170"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -29021,7 +29081,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="163" t="s">
+      <c r="B53" s="171" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -29190,7 +29250,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="163"/>
+      <c r="B54" s="171"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -29357,7 +29417,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="163"/>
+      <c r="B55" s="171"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -29524,7 +29584,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="163"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -29689,7 +29749,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="163"/>
+      <c r="B57" s="171"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -29856,7 +29916,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B58" s="163"/>
+      <c r="B58" s="171"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -30021,7 +30081,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="163"/>
+      <c r="B59" s="171"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -30188,7 +30248,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B60" s="163"/>
+      <c r="B60" s="171"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -30355,7 +30415,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="164" t="s">
+      <c r="B61" s="172" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -30522,7 +30582,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="164"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -30689,7 +30749,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="164"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -30856,7 +30916,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="164"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -31023,7 +31083,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="164"/>
+      <c r="B65" s="172"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -31040,7 +31100,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="164"/>
+      <c r="B66" s="172"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -31059,7 +31119,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -31078,7 +31138,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B68" s="154" t="s">
+      <c r="B68" s="162" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -31088,7 +31148,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B69" s="154"/>
+      <c r="B69" s="162"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -31096,7 +31156,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="154"/>
+      <c r="B70" s="162"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -31104,7 +31164,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="154"/>
+      <c r="B71" s="162"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -31116,7 +31176,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B72" s="155"/>
+      <c r="B72" s="163"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -31491,13 +31551,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X72"/>
+  <dimension ref="B1:AA72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -31505,18 +31565,31 @@
     <col min="2" max="2" width="11.53125" style="105"/>
     <col min="3" max="3" width="21.46484375" style="105" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="105" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="105" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" style="105" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.53125" customWidth="1"/>
     <col min="8" max="8" width="19.1328125" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="15.73046875" customWidth="1"/>
+    <col min="11" max="11" width="13.73046875" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" customWidth="1"/>
+    <col min="13" max="14" width="16.265625" customWidth="1"/>
+    <col min="15" max="15" width="13.9296875" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
     <col min="17" max="17" width="28.1328125" customWidth="1"/>
-    <col min="18" max="18" width="32" style="105" customWidth="1"/>
-    <col min="19" max="19" width="16.1328125" style="105" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" style="105" customWidth="1"/>
-    <col min="21" max="21" width="16.53125" style="105" customWidth="1"/>
-    <col min="22" max="22" width="15.796875" style="105" customWidth="1"/>
-    <col min="23" max="24" width="17.1328125" style="105" customWidth="1"/>
+    <col min="18" max="18" width="44.06640625" style="105" customWidth="1"/>
+    <col min="19" max="19" width="32" style="105" customWidth="1"/>
+    <col min="20" max="20" width="16.1328125" style="105" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" style="105" customWidth="1"/>
+    <col min="22" max="22" width="16.53125" style="105" customWidth="1"/>
+    <col min="23" max="23" width="15.796875" style="105" customWidth="1"/>
+    <col min="24" max="24" width="17.1328125" style="105" customWidth="1"/>
+    <col min="25" max="25" width="35.53125" style="105" customWidth="1"/>
+    <col min="26" max="26" width="25.86328125" style="105" customWidth="1"/>
+    <col min="27" max="27" width="35.796875" style="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.35">
       <c r="E1" s="105" t="s">
         <v>694</v>
       </c>
@@ -31577,23 +31650,34 @@
       <c r="X1" s="105" t="s">
         <v>694</v>
       </c>
+      <c r="Y1" s="105" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z1" s="105" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA1" s="105" t="s">
+        <v>694</v>
+      </c>
     </row>
-    <row r="2" spans="2:24" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="5"/>
-      <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -31605,65 +31689,74 @@
         <v>1155</v>
       </c>
       <c r="F3" s="36" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>1170</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="36" t="s">
         <v>1171</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="36" t="s">
         <v>1172</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="J3" s="36" t="s">
         <v>1173</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="K3" s="36" t="s">
         <v>1174</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>1175</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>1176</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>1177</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="O3" s="36" t="s">
         <v>1178</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="P3" s="36" t="s">
         <v>1179</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="Q3" s="36" t="s">
         <v>1180</v>
       </c>
-      <c r="Q3" s="36" t="s">
-        <v>1181</v>
-      </c>
       <c r="R3" s="36" t="s">
+        <v>1340</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>1234</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>1245</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>1246</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>1247</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>1248</v>
+      </c>
+      <c r="X3" s="36" t="s">
         <v>1249</v>
       </c>
-      <c r="S3" s="36" t="s">
-        <v>1262</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>1263</v>
-      </c>
-      <c r="U3" s="36" t="s">
+      <c r="Y3" s="36" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Z3" s="36" t="s">
         <v>1264</v>
       </c>
-      <c r="V3" s="36" t="s">
-        <v>1265</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>1266</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>1289</v>
+      <c r="AA3" s="36" t="s">
+        <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="156" t="s">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B4" s="164" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -31732,9 +31825,18 @@
       <c r="X4" s="12" t="s">
         <v>500</v>
       </c>
+      <c r="Y4" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="5" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="157"/>
+    <row r="5" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="165"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -31742,67 +31844,76 @@
         <v>442</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1158</v>
+        <v>1320</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1182</v>
+        <v>1321</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1185</v>
+        <v>1322</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1188</v>
+        <v>1323</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1198</v>
+        <v>1324</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1199</v>
+        <v>1325</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1200</v>
+        <v>1326</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1214</v>
+        <v>1327</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1223</v>
+        <v>1328</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1225</v>
+        <v>1329</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1235</v>
+        <v>1330</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1236</v>
+        <v>1331</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1244</v>
+        <v>1332</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1250</v>
+        <v>1341</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>1260</v>
+        <v>1333</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>1268</v>
+        <v>1334</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>1271</v>
+        <v>1335</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>1274</v>
+        <v>1336</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>1280</v>
+        <v>1338</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>1351</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B6" s="59"/>
       <c r="C6" s="54" t="s">
         <v>457</v>
@@ -31868,9 +31979,18 @@
       <c r="X6" s="2" t="s">
         <v>1151</v>
       </c>
+      <c r="Y6" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>1151</v>
+      </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="158" t="s">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B7" s="166" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -31937,9 +32057,18 @@
       <c r="X7" s="105">
         <v>10</v>
       </c>
+      <c r="Y7" s="105">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="105">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="105">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="158"/>
+    <row r="8" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="166"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -31986,7 +32115,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>2</v>
@@ -32006,9 +32135,18 @@
       <c r="X8" s="1">
         <v>2</v>
       </c>
+      <c r="Y8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="158"/>
+    <row r="9" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="166"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -32055,7 +32193,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>187</v>
@@ -32073,11 +32211,20 @@
         <v>187</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>1307</v>
+        <v>187</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>1282</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="158"/>
+    <row r="10" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="166"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -32124,7 +32271,7 @@
         <v>12</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>12</v>
+        <v>1343</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>12</v>
@@ -32144,9 +32291,18 @@
       <c r="X10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y10" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>1343</v>
+      </c>
     </row>
-    <row r="11" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="159" t="s">
+    <row r="11" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="167" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -32213,344 +32369,398 @@
       <c r="X11" s="2" t="s">
         <v>779</v>
       </c>
+      <c r="Y11" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>779</v>
+      </c>
     </row>
-    <row r="12" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="160"/>
+    <row r="12" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="168"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>1251</v>
+        <v>1158</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>1251</v>
+        <v>1235</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>1235</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="160"/>
+    <row r="13" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="168"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>1159</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="160"/>
+    <row r="14" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="168"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>1159</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="160"/>
+    <row r="15" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="168"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>1227</v>
-      </c>
       <c r="O15" s="2" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>1246</v>
+        <v>1359</v>
       </c>
       <c r="R15" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>1189</v>
-      </c>
       <c r="T15" s="2" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>1272</v>
+        <v>1194</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>1243</v>
+        <v>1253</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>1279</v>
+        <v>1231</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>1281</v>
+        <v>1360</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>1342</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="160"/>
+    <row r="16" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="168"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>1227</v>
-      </c>
       <c r="O16" s="2" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>1246</v>
+        <v>1359</v>
       </c>
       <c r="R16" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>1189</v>
-      </c>
       <c r="T16" s="2" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>1272</v>
+        <v>1194</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>1243</v>
+        <v>1253</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>1279</v>
+        <v>1231</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>1281</v>
+        <v>1360</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>1342</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="160"/>
+    <row r="17" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="168"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -32559,7 +32769,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>19</v>
@@ -32595,7 +32805,7 @@
         <v>19</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>19</v>
@@ -32615,210 +32825,246 @@
       <c r="X17" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="Y17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="18" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="160"/>
+    <row r="18" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="168"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>1252</v>
+        <v>1345</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>1254</v>
+        <v>1236</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>1252</v>
+        <v>1236</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>1345</v>
       </c>
     </row>
-    <row r="19" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="160"/>
+    <row r="19" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="168"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="G19" s="2">
         <v>2000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="J19" s="2">
         <v>2000</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="N19" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>1232</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>1245</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>86</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>1255</v>
+        <v>1344</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>1261</v>
+        <v>1239</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>1269</v>
+        <v>1244</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>1219</v>
+        <v>1251</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>1275</v>
+        <v>1211</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>1255</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>1255</v>
+        <v>1239</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="160"/>
+    <row r="20" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="168"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>1220</v>
+        <v>1212</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>1212</v>
       </c>
     </row>
-    <row r="21" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="161" t="s">
+    <row r="21" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="169" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -32826,68 +33072,77 @@
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>1215</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="R21" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>1278</v>
-      </c>
       <c r="X21" s="1" t="s">
-        <v>1290</v>
+        <v>1257</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>1355</v>
       </c>
     </row>
-    <row r="22" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="161"/>
+    <row r="22" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="169"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -32895,68 +33150,77 @@
         <v>442</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>1212</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>1216</v>
-      </c>
       <c r="M22" s="2" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>1248</v>
+        <v>1362</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>1283</v>
+        <v>1347</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1284</v>
+        <v>1259</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>1285</v>
+        <v>1260</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>1286</v>
+        <v>1261</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>1287</v>
+        <v>1262</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>1288</v>
+        <v>1263</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>1282</v>
+        <v>1364</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>1354</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="161"/>
+    <row r="23" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="169"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -33023,97 +33287,172 @@
       <c r="X23" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="Y23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B24" s="161"/>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B24" s="169"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
+      <c r="E24" s="105">
+        <v>1</v>
+      </c>
+      <c r="F24" s="105">
+        <v>1</v>
+      </c>
+      <c r="G24" s="105">
+        <v>1</v>
+      </c>
+      <c r="H24" s="105">
+        <v>1</v>
+      </c>
+      <c r="I24" s="105">
+        <v>1</v>
+      </c>
+      <c r="J24" s="105">
+        <v>1</v>
+      </c>
+      <c r="K24" s="105">
+        <v>1</v>
+      </c>
+      <c r="L24" s="105">
+        <v>1</v>
+      </c>
+      <c r="M24" s="105">
+        <v>1</v>
+      </c>
+      <c r="N24" s="105">
+        <v>1</v>
+      </c>
+      <c r="O24" s="105">
+        <v>1</v>
+      </c>
+      <c r="P24" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="105">
+        <v>1</v>
+      </c>
+      <c r="R24" s="105">
+        <v>1</v>
+      </c>
+      <c r="S24" s="105">
+        <v>1</v>
+      </c>
+      <c r="T24" s="105">
+        <v>1</v>
+      </c>
+      <c r="U24" s="105">
+        <v>1</v>
+      </c>
+      <c r="V24" s="105">
+        <v>1</v>
+      </c>
+      <c r="W24" s="105">
+        <v>1</v>
+      </c>
+      <c r="X24" s="105">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="105">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="105">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="105">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="2:24" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="161"/>
+    <row r="25" spans="2:27" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B25" s="169"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>1187</v>
-      </c>
       <c r="I25" s="6" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="K25" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>1206</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>1213</v>
-      </c>
       <c r="M25" s="6" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="N25" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O25" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>1234</v>
-      </c>
       <c r="P25" s="6" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>1246</v>
+        <v>1357</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>1183</v>
+        <v>1348</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>1204</v>
+        <v>1184</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>1237</v>
+        <v>1199</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>1279</v>
+        <v>1225</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>1281</v>
+        <v>1258</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>1348</v>
       </c>
     </row>
-    <row r="26" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="162" t="s">
+    <row r="26" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="170" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -33182,9 +33521,18 @@
       <c r="X26" s="38" t="s">
         <v>1033</v>
       </c>
+      <c r="Y26" s="38" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Z26" s="38" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AA26" s="38" t="s">
+        <v>1033</v>
+      </c>
     </row>
-    <row r="27" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="162"/>
+    <row r="27" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="170"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -33251,9 +33599,18 @@
       <c r="X27" s="38">
         <v>38</v>
       </c>
+      <c r="Y27" s="38">
+        <v>38</v>
+      </c>
+      <c r="Z27" s="38">
+        <v>38</v>
+      </c>
+      <c r="AA27" s="38">
+        <v>38</v>
+      </c>
     </row>
-    <row r="28" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="162"/>
+    <row r="28" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="170"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -33298,7 +33655,7 @@
         <v>696</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="S28" s="38" t="s">
         <v>702</v>
@@ -33318,9 +33675,18 @@
       <c r="X28" s="38" t="s">
         <v>702</v>
       </c>
+      <c r="Y28" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="Z28" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="AA28" s="38" t="s">
+        <v>702</v>
+      </c>
     </row>
-    <row r="29" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="162"/>
+    <row r="29" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="170"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -33365,7 +33731,7 @@
         <v>46</v>
       </c>
       <c r="R29" s="38">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S29" s="38">
         <v>44</v>
@@ -33385,9 +33751,18 @@
       <c r="X29" s="38">
         <v>44</v>
       </c>
+      <c r="Y29" s="38">
+        <v>44</v>
+      </c>
+      <c r="Z29" s="38">
+        <v>44</v>
+      </c>
+      <c r="AA29" s="38">
+        <v>44</v>
+      </c>
     </row>
-    <row r="30" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="162"/>
+    <row r="30" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="170"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -33431,8 +33806,8 @@
       <c r="Q30" s="38" t="s">
         <v>702</v>
       </c>
-      <c r="R30" s="1" t="s">
-        <v>698</v>
+      <c r="R30" s="38" t="s">
+        <v>702</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>698</v>
@@ -33452,9 +33827,18 @@
       <c r="X30" s="1" t="s">
         <v>698</v>
       </c>
+      <c r="Y30" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="31" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="162"/>
+    <row r="31" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="170"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -33498,8 +33882,8 @@
       <c r="Q31" s="38">
         <v>44</v>
       </c>
-      <c r="R31" s="1">
-        <v>45</v>
+      <c r="R31" s="38">
+        <v>44</v>
       </c>
       <c r="S31" s="1">
         <v>45</v>
@@ -33519,9 +33903,18 @@
       <c r="X31" s="1">
         <v>45</v>
       </c>
+      <c r="Y31" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>45</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>45</v>
+      </c>
     </row>
-    <row r="32" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="162"/>
+    <row r="32" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="170"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -33565,8 +33958,8 @@
       <c r="Q32" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="R32" s="38" t="s">
-        <v>697</v>
+      <c r="R32" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="S32" s="38" t="s">
         <v>697</v>
@@ -33586,9 +33979,18 @@
       <c r="X32" s="38" t="s">
         <v>697</v>
       </c>
+      <c r="Y32" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z32" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA32" s="38" t="s">
+        <v>697</v>
+      </c>
     </row>
-    <row r="33" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="162"/>
+    <row r="33" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="170"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -33632,8 +34034,8 @@
       <c r="Q33" s="1">
         <v>45</v>
       </c>
-      <c r="R33" s="38">
-        <v>47</v>
+      <c r="R33" s="1">
+        <v>45</v>
       </c>
       <c r="S33" s="38">
         <v>47</v>
@@ -33653,9 +34055,18 @@
       <c r="X33" s="38">
         <v>47</v>
       </c>
+      <c r="Y33" s="38">
+        <v>47</v>
+      </c>
+      <c r="Z33" s="38">
+        <v>47</v>
+      </c>
+      <c r="AA33" s="38">
+        <v>47</v>
+      </c>
     </row>
-    <row r="34" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="162"/>
+    <row r="34" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="170"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -33699,8 +34110,8 @@
       <c r="Q34" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="R34" s="38" t="s">
-        <v>11</v>
+      <c r="R34" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="S34" s="38" t="s">
         <v>11</v>
@@ -33718,11 +34129,20 @@
         <v>11</v>
       </c>
       <c r="X34" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y34" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z34" s="38" t="s">
         <v>1034</v>
       </c>
+      <c r="AA34" s="38" t="s">
+        <v>1034</v>
+      </c>
     </row>
-    <row r="35" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="162"/>
+    <row r="35" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="170"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -33766,8 +34186,8 @@
       <c r="Q35" s="1">
         <v>45</v>
       </c>
-      <c r="R35" s="38" t="s">
-        <v>11</v>
+      <c r="R35" s="1">
+        <v>45</v>
       </c>
       <c r="S35" s="38" t="s">
         <v>11</v>
@@ -33784,12 +34204,21 @@
       <c r="W35" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="X35" s="38">
+      <c r="X35" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y35" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z35" s="38">
         <v>48</v>
       </c>
+      <c r="AA35" s="38">
+        <v>48</v>
+      </c>
     </row>
-    <row r="36" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="162"/>
+    <row r="36" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="170"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -33834,7 +34263,7 @@
         <v>699</v>
       </c>
       <c r="R36" s="38" t="s">
-        <v>11</v>
+        <v>699</v>
       </c>
       <c r="S36" s="38" t="s">
         <v>11</v>
@@ -33854,9 +34283,18 @@
       <c r="X36" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y36" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z36" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA36" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="162"/>
+    <row r="37" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="170"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -33900,8 +34338,8 @@
       <c r="Q37" s="38">
         <v>47</v>
       </c>
-      <c r="R37" s="38" t="s">
-        <v>11</v>
+      <c r="R37" s="38">
+        <v>47</v>
       </c>
       <c r="S37" s="38" t="s">
         <v>11</v>
@@ -33921,9 +34359,18 @@
       <c r="X37" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y37" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z37" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA37" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="162"/>
+    <row r="38" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="170"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -33968,7 +34415,7 @@
         <v>700</v>
       </c>
       <c r="R38" s="38" t="s">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="S38" s="38" t="s">
         <v>11</v>
@@ -33988,9 +34435,18 @@
       <c r="X38" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y38" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z38" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA38" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="39" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="162"/>
+    <row r="39" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="170"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -34034,8 +34490,8 @@
       <c r="Q39" s="38">
         <v>47</v>
       </c>
-      <c r="R39" s="38" t="s">
-        <v>11</v>
+      <c r="R39" s="38">
+        <v>47</v>
       </c>
       <c r="S39" s="38" t="s">
         <v>11</v>
@@ -34055,9 +34511,18 @@
       <c r="X39" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y39" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z39" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA39" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="162"/>
+    <row r="40" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="170"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -34122,9 +34587,18 @@
       <c r="X40" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y40" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z40" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA40" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="162"/>
+    <row r="41" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="170"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -34189,9 +34663,18 @@
       <c r="X41" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA41" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="162"/>
+    <row r="42" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="170"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -34256,9 +34739,18 @@
       <c r="X42" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y42" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z42" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA42" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="162"/>
+    <row r="43" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="170"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -34323,9 +34815,18 @@
       <c r="X43" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y43" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z43" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA43" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="162"/>
+    <row r="44" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="170"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -34390,9 +34891,18 @@
       <c r="X44" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y44" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z44" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA44" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="162"/>
+    <row r="45" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="170"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -34457,9 +34967,18 @@
       <c r="X45" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y45" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z45" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA45" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="162"/>
+    <row r="46" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="170"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -34524,9 +35043,18 @@
       <c r="X46" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y46" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z46" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA46" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="162"/>
+    <row r="47" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="170"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -34591,9 +35119,18 @@
       <c r="X47" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y47" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z47" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA47" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="162"/>
+    <row r="48" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="170"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -34658,9 +35195,18 @@
       <c r="X48" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y48" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z48" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA48" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="162"/>
+    <row r="49" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="170"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -34725,9 +35271,18 @@
       <c r="X49" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="Y49" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z49" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA49" s="38" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="162"/>
+    <row r="50" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="170"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -34735,68 +35290,77 @@
         <v>442</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>1257</v>
+        <v>1166</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>1291</v>
+        <v>1241</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>1266</v>
       </c>
     </row>
-    <row r="51" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="162"/>
+    <row r="51" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="170"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -34804,68 +35368,77 @@
         <v>442</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>1258</v>
+        <v>1167</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>1292</v>
+        <v>1242</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>1267</v>
       </c>
     </row>
-    <row r="52" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="162"/>
+    <row r="52" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="170"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -34873,68 +35446,77 @@
         <v>442</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>1259</v>
+        <v>1168</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>1293</v>
+        <v>1243</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>1268</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B53" s="163" t="s">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B53" s="171" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -35003,9 +35585,18 @@
       <c r="X53" s="105" t="s">
         <v>860</v>
       </c>
+      <c r="Y53" s="105" t="s">
+        <v>860</v>
+      </c>
+      <c r="Z53" s="105" t="s">
+        <v>860</v>
+      </c>
+      <c r="AA53" s="105" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="54" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="163"/>
+    <row r="54" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="171"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -35072,9 +35663,18 @@
       <c r="X54" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="Y54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA54" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="55" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="163"/>
+    <row r="55" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B55" s="171"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -35141,9 +35741,18 @@
       <c r="X55" s="5" t="s">
         <v>1149</v>
       </c>
+      <c r="Y55" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>1149</v>
+      </c>
     </row>
-    <row r="56" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="163"/>
+    <row r="56" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B56" s="171"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -35208,9 +35817,18 @@
       <c r="X56" s="3" t="s">
         <v>1152</v>
       </c>
+      <c r="Y56" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Z56" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>1152</v>
+      </c>
     </row>
-    <row r="57" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="163"/>
+    <row r="57" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="171"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -35277,9 +35895,18 @@
       <c r="X57" s="2" t="s">
         <v>1156</v>
       </c>
+      <c r="Y57" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>1156</v>
+      </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B58" s="163"/>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B58" s="171"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -35344,9 +35971,18 @@
       <c r="X58" s="90" t="s">
         <v>1153</v>
       </c>
+      <c r="Y58" s="90" t="s">
+        <v>1153</v>
+      </c>
+      <c r="Z58" s="90" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AA58" s="90" t="s">
+        <v>1153</v>
+      </c>
     </row>
-    <row r="59" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="163"/>
+    <row r="59" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B59" s="171"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -35413,9 +36049,18 @@
       <c r="X59" s="5" t="s">
         <v>1154</v>
       </c>
+      <c r="Y59" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Z59" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AA59" s="5" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B60" s="163"/>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B60" s="171"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -35482,9 +36127,18 @@
       <c r="X60" s="12">
         <v>1</v>
       </c>
+      <c r="Y60" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="164" t="s">
+    <row r="61" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="172" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -35551,9 +36205,18 @@
       <c r="X61" s="9">
         <v>43629</v>
       </c>
+      <c r="Y61" s="9">
+        <v>43629</v>
+      </c>
+      <c r="Z61" s="9">
+        <v>43629</v>
+      </c>
+      <c r="AA61" s="9">
+        <v>43629</v>
+      </c>
     </row>
-    <row r="62" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="164"/>
+    <row r="62" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B62" s="172"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -35620,9 +36283,18 @@
       <c r="X62" s="9">
         <v>43629</v>
       </c>
+      <c r="Y62" s="9">
+        <v>43629</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>43629</v>
+      </c>
+      <c r="AA62" s="9">
+        <v>43629</v>
+      </c>
     </row>
-    <row r="63" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="164"/>
+    <row r="63" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="172"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -35689,9 +36361,18 @@
       <c r="X63" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="Y63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="64" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="164"/>
+    <row r="64" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="172"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -35758,9 +36439,18 @@
       <c r="X64" s="2" t="s">
         <v>1157</v>
       </c>
+      <c r="Y64" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>1157</v>
+      </c>
     </row>
-    <row r="65" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="164"/>
+    <row r="65" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="172"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -35785,9 +36475,12 @@
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
     </row>
-    <row r="66" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="164"/>
+    <row r="66" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="172"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -35812,9 +36505,12 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
     </row>
-    <row r="67" spans="2:24" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="164"/>
+    <row r="67" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B67" s="172"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -35839,9 +36535,12 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B68" s="154" t="s">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B68" s="162" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -35861,8 +36560,8 @@
       <c r="P68" s="105"/>
       <c r="Q68" s="105"/>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B69" s="154"/>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B69" s="162"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -35880,8 +36579,8 @@
       <c r="P69" s="105"/>
       <c r="Q69" s="105"/>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B70" s="154"/>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B70" s="162"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -35899,8 +36598,8 @@
       <c r="P70" s="105"/>
       <c r="Q70" s="105"/>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B71" s="154"/>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B71" s="162"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -35918,8 +36617,8 @@
       <c r="P71" s="105"/>
       <c r="Q71" s="105"/>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B72" s="155"/>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B72" s="163"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="9683" tabRatio="603" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="9683" tabRatio="603"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7562" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7598" uniqueCount="1384">
   <si>
     <t>Description</t>
   </si>
@@ -4118,6 +4118,63 @@
   </si>
   <si>
     <t>YSTAFDB, MFA, metal cycle, material, resource, stocks, minor elements, minor metals</t>
+  </si>
+  <si>
+    <t>RECC-Global_v2_4</t>
+  </si>
+  <si>
+    <t>RECC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource efficiency; dynamic MFA; </t>
+  </si>
+  <si>
+    <t>https://cie.research.yale.edu/research/resource-efficiency-climate-change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECC = Resource Efficiency and Climate Change mitigation </t>
+  </si>
+  <si>
+    <t>The Group of Seven (G7) member countries requested that the International Resource Panel conduct an assessment of the potential contribution of Resource Efficiency to Climate Change mitigation (RECC). The RECC model and database was developed for that purpose, and the main quantitative results are archived here.</t>
+  </si>
+  <si>
+    <t>stocks, flows</t>
+  </si>
+  <si>
+    <t>whole economy, with focus on material production, use phase, and waste management</t>
+  </si>
+  <si>
+    <t>processes relevant for materials, economy-wide</t>
+  </si>
+  <si>
+    <t>residential buildings, non-residential buildings, passenger vehicles, other vehicles, infrastructure, industry assets, appliances</t>
+  </si>
+  <si>
+    <t>13 residential building, 24 non-residential building, and 6 passenger vehicle types</t>
+  </si>
+  <si>
+    <t>13 material groups: construction grade steel, automotive steel, stainless steel, cast iron, wrought Al, cast Al, copper electric grade, plastics, cement, wood and wood products, zinc, concrete, concrete aggregates</t>
+  </si>
+  <si>
+    <t>materials and material groups whose production is relevant for GHG emissions</t>
+  </si>
+  <si>
+    <t>20 countries and world regions</t>
+  </si>
+  <si>
+    <t>2016-2060</t>
+  </si>
+  <si>
+    <t>Future material cycle data and energy and GHG extensions for end-use sectors under different socioeconomic, climate policy, and resource efficiency scenarios</t>
+  </si>
+  <si>
+    <t>resource efficiency; dynamic MFA; steel; aluminium; cement;</t>
+  </si>
+  <si>
+    <t>ODYM_RECC_SysDef_v2_4.png</t>
+  </si>
+  <si>
+    <t>DOI XXX (Nat Comms)</t>
   </si>
 </sst>
 </file>
@@ -4240,7 +4297,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4292,6 +4349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4478,7 +4541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4798,6 +4861,8 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5087,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5120,7 +5185,9 @@
       <c r="F3" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="39" t="s">
+        <v>1366</v>
+      </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
@@ -5140,6 +5207,9 @@
       <c r="F4" s="57">
         <v>2</v>
       </c>
+      <c r="G4" s="57">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="154"/>
@@ -5155,6 +5225,9 @@
       <c r="F5" s="119" t="s">
         <v>1132</v>
       </c>
+      <c r="G5" s="119" t="s">
+        <v>1366</v>
+      </c>
     </row>
     <row r="6" spans="2:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="155" t="s">
@@ -5166,6 +5239,7 @@
       <c r="D6" s="26"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="155"/>
@@ -5175,6 +5249,7 @@
       <c r="D7" s="26"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="155"/>
@@ -5184,6 +5259,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="155"/>
@@ -5193,6 +5269,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="155"/>
@@ -5202,6 +5279,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="52"/>
       <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="155"/>
@@ -5211,6 +5289,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="155"/>
@@ -5220,6 +5299,7 @@
       <c r="D12" s="24"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="155"/>
@@ -5229,6 +5309,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="52"/>
       <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="155"/>
@@ -5238,6 +5319,7 @@
       <c r="D14" s="24"/>
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="155"/>
@@ -5247,6 +5329,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="52"/>
       <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="155"/>
@@ -5256,8 +5339,9 @@
       <c r="D16" s="25"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="155"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
@@ -5265,8 +5349,9 @@
       <c r="D17" s="25"/>
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="155"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
@@ -5274,8 +5359,9 @@
       <c r="D18" s="25"/>
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="156" t="s">
         <v>0</v>
       </c>
@@ -5287,8 +5373,11 @@
       <c r="F19" s="119" t="s">
         <v>1006</v>
       </c>
+      <c r="G19" s="119" t="s">
+        <v>1370</v>
+      </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="156"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
@@ -5302,8 +5391,11 @@
       <c r="F20" s="119" t="s">
         <v>1007</v>
       </c>
+      <c r="G20" s="119" t="s">
+        <v>1367</v>
+      </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="156"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
@@ -5313,8 +5405,11 @@
       <c r="F21" s="119" t="s">
         <v>1008</v>
       </c>
+      <c r="G21" s="119" t="s">
+        <v>1369</v>
+      </c>
     </row>
-    <row r="22" spans="2:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="157" t="s">
         <v>8</v>
       </c>
@@ -5328,8 +5423,11 @@
       <c r="F22" s="52" t="s">
         <v>860</v>
       </c>
+      <c r="G22" s="52" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="157"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
@@ -5337,8 +5435,9 @@
       <c r="D23" s="25"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="157"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
@@ -5346,8 +5445,9 @@
       <c r="D24" s="24"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="157"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
@@ -5357,8 +5457,11 @@
       <c r="F25" s="52" t="s">
         <v>1005</v>
       </c>
+      <c r="G25" s="90" t="s">
+        <v>1368</v>
+      </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="157"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
@@ -5368,8 +5471,9 @@
         <v>208</v>
       </c>
       <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="157"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
@@ -5377,8 +5481,9 @@
       <c r="D27" s="24"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
     </row>
-    <row r="28" spans="2:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="158" t="s">
         <v>9</v>
       </c>
@@ -5394,8 +5499,11 @@
       <c r="F28" s="123">
         <v>43347</v>
       </c>
+      <c r="G28" s="123">
+        <v>44404</v>
+      </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="158"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
@@ -5409,8 +5517,11 @@
       <c r="F29" s="124" t="s">
         <v>30</v>
       </c>
+      <c r="G29" s="124" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="151" t="s">
         <v>185</v>
       </c>
@@ -5420,8 +5531,9 @@
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="152"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
@@ -5429,8 +5541,9 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="153"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
@@ -5438,6 +5551,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5454,13 +5568,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O39"/>
+  <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5475,16 +5589,17 @@
     <col min="11" max="13" width="10.6640625" style="105"/>
     <col min="14" max="14" width="64.53125" customWidth="1"/>
     <col min="15" max="15" width="55.53125" customWidth="1"/>
+    <col min="16" max="16" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>184</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="32"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -5525,8 +5640,11 @@
       <c r="O3" s="39" t="s">
         <v>1269</v>
       </c>
+      <c r="P3" s="173" t="s">
+        <v>1365</v>
+      </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="159" t="s">
         <v>2</v>
       </c>
@@ -5569,8 +5687,11 @@
       <c r="O4" s="141">
         <v>11</v>
       </c>
+      <c r="P4" s="141">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="160"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
@@ -5611,8 +5732,11 @@
       <c r="O5" s="118" t="s">
         <v>1273</v>
       </c>
+      <c r="P5" t="s">
+        <v>1365</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="33"/>
       <c r="C6" s="54" t="s">
         <v>453</v>
@@ -5651,8 +5775,11 @@
       <c r="O6" s="135" t="s">
         <v>1151</v>
       </c>
+      <c r="P6" t="s">
+        <v>1151</v>
+      </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
@@ -5693,8 +5820,11 @@
       <c r="O7" s="121" t="s">
         <v>11</v>
       </c>
+      <c r="P7" t="s">
+        <v>1366</v>
+      </c>
     </row>
-    <row r="8" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="155" t="s">
         <v>6</v>
       </c>
@@ -5735,8 +5865,11 @@
       <c r="O8" s="121" t="s">
         <v>1274</v>
       </c>
+      <c r="P8" t="s">
+        <v>1371</v>
+      </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="155"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
@@ -5775,8 +5908,11 @@
       <c r="O9" s="121" t="s">
         <v>1274</v>
       </c>
+      <c r="P9" s="105" t="s">
+        <v>1371</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="155"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
@@ -5815,8 +5951,11 @@
       <c r="O10" s="121" t="s">
         <v>1013</v>
       </c>
+      <c r="P10" t="s">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="11" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B11" s="155"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
@@ -5855,8 +5994,11 @@
       <c r="O11" s="121" t="s">
         <v>779</v>
       </c>
+      <c r="P11" t="s">
+        <v>1372</v>
+      </c>
     </row>
-    <row r="12" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B12" s="155"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
@@ -5895,8 +6037,11 @@
       <c r="O12" s="121" t="s">
         <v>1275</v>
       </c>
+      <c r="P12" t="s">
+        <v>1373</v>
+      </c>
     </row>
-    <row r="13" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B13" s="155"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
@@ -5935,8 +6080,11 @@
       <c r="O13" s="20" t="s">
         <v>1276</v>
       </c>
+      <c r="P13" t="s">
+        <v>1374</v>
+      </c>
     </row>
-    <row r="14" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B14" s="155"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
@@ -5975,8 +6123,11 @@
       <c r="O14" s="20" t="s">
         <v>1276</v>
       </c>
+      <c r="P14" t="s">
+        <v>1375</v>
+      </c>
     </row>
-    <row r="15" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B15" s="155"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
@@ -6015,8 +6166,11 @@
       <c r="O15" s="20" t="s">
         <v>565</v>
       </c>
+      <c r="P15" t="s">
+        <v>1377</v>
+      </c>
     </row>
-    <row r="16" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B16" s="155"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
@@ -6055,8 +6209,11 @@
       <c r="O16" s="20" t="s">
         <v>1277</v>
       </c>
+      <c r="P16" s="105" t="s">
+        <v>1376</v>
+      </c>
     </row>
-    <row r="17" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B17" s="155"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
@@ -6095,8 +6252,11 @@
       <c r="O17" s="20" t="s">
         <v>188</v>
       </c>
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="18" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B18" s="155"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
@@ -6135,8 +6295,11 @@
       <c r="O18" s="20" t="s">
         <v>568</v>
       </c>
+      <c r="P18" t="s">
+        <v>1378</v>
+      </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="155"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
@@ -6175,8 +6338,11 @@
       <c r="O19" s="20" t="s">
         <v>1278</v>
       </c>
+      <c r="P19" t="s">
+        <v>1379</v>
+      </c>
     </row>
-    <row r="20" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B20" s="155"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
@@ -6215,8 +6381,11 @@
       <c r="O20" s="20" t="s">
         <v>1279</v>
       </c>
+      <c r="P20" t="s">
+        <v>1279</v>
+      </c>
     </row>
-    <row r="21" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B21" s="156" t="s">
         <v>0</v>
       </c>
@@ -6257,8 +6426,11 @@
       <c r="O21" s="20" t="s">
         <v>1280</v>
       </c>
+      <c r="P21" t="s">
+        <v>1380</v>
+      </c>
     </row>
-    <row r="22" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B22" s="156"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
@@ -6299,8 +6471,11 @@
       <c r="O22" s="20" t="s">
         <v>1281</v>
       </c>
+      <c r="P22" t="s">
+        <v>1381</v>
+      </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" s="156"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
@@ -6339,8 +6514,11 @@
       <c r="O23" s="118" t="s">
         <v>1272</v>
       </c>
+      <c r="P23" t="s">
+        <v>1382</v>
+      </c>
     </row>
-    <row r="24" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B24" s="156"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
@@ -6379,8 +6557,11 @@
       <c r="O24" s="140" t="s">
         <v>11</v>
       </c>
+      <c r="P24" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="25" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="157" t="s">
         <v>8</v>
       </c>
@@ -6421,8 +6602,11 @@
       <c r="O25" s="19" t="s">
         <v>860</v>
       </c>
+      <c r="P25" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" s="157"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
@@ -6461,8 +6645,11 @@
       <c r="O26" s="20" t="s">
         <v>857</v>
       </c>
+      <c r="P26" t="s">
+        <v>857</v>
+      </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="157"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
@@ -6501,8 +6688,11 @@
       <c r="O27" s="118" t="s">
         <v>1271</v>
       </c>
+      <c r="P27" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="157"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
@@ -6541,8 +6731,11 @@
       <c r="O28" s="20" t="s">
         <v>1270</v>
       </c>
+      <c r="P28" s="174" t="s">
+        <v>1383</v>
+      </c>
     </row>
-    <row r="29" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B29" s="157"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
@@ -6581,8 +6774,11 @@
       <c r="O29" s="20" t="s">
         <v>1270</v>
       </c>
+      <c r="P29" s="174" t="s">
+        <v>1383</v>
+      </c>
     </row>
-    <row r="30" spans="2:15" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B30" s="157"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
@@ -6621,8 +6817,11 @@
       <c r="O30" s="20" t="s">
         <v>1270</v>
       </c>
+      <c r="P30" s="174" t="s">
+        <v>1383</v>
+      </c>
     </row>
-    <row r="31" spans="2:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="158" t="s">
         <v>9</v>
       </c>
@@ -6665,8 +6864,11 @@
       <c r="O31" s="142">
         <v>43779</v>
       </c>
+      <c r="P31" s="142">
+        <v>44404</v>
+      </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="161"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
@@ -6705,6 +6907,9 @@
         <v>30</v>
       </c>
       <c r="O32" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -31553,7 +31758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="9683" tabRatio="603"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="9683" tabRatio="603" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7598" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="1504">
   <si>
     <t>Description</t>
   </si>
@@ -3406,9 +3406,6 @@
     <t>3_MC_Steel_DRCSCC_2005</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Global_steel_cycle_146_regions_1900_2008</t>
   </si>
   <si>
@@ -4171,10 +4168,373 @@
     <t>resource efficiency; dynamic MFA; steel; aluminium; cement;</t>
   </si>
   <si>
-    <t>ODYM_RECC_SysDef_v2_4.png</t>
-  </si>
-  <si>
-    <t>DOI XXX (Nat Comms)</t>
+    <t>https://doi.org/10.1038/s41467-021-25300-4</t>
+  </si>
+  <si>
+    <t>RECC-Global_v2_5</t>
+  </si>
+  <si>
+    <t>residential buildings, non-residential buildings, passenger vehicles</t>
+  </si>
+  <si>
+    <t>RECC-Global_v2_6</t>
+  </si>
+  <si>
+    <t>27 EU countries, plus another 12 countries and world regions</t>
+  </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
+  <si>
+    <t>Tbd. (update will follow)</t>
+  </si>
+  <si>
+    <t>7_CT_ISO_Regions_to_RECC_v2.4_Regions</t>
+  </si>
+  <si>
+    <t>correspondence_table</t>
+  </si>
+  <si>
+    <t>Correspondence</t>
+  </si>
+  <si>
+    <t>noe</t>
+  </si>
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>single country</t>
+  </si>
+  <si>
+    <t>Mapping between the ISO singly country and the RECC movel v2.4 9 EU27+UK countries/regions classifications.</t>
+  </si>
+  <si>
+    <t>ISO 3166; RECC; regions;</t>
+  </si>
+  <si>
+    <t>Used for aggregating and disaggregating RECC model results.</t>
+  </si>
+  <si>
+    <t>Value(r1,r2)</t>
+  </si>
+  <si>
+    <t>r1 corresponds to r2.</t>
+  </si>
+  <si>
+    <t>[aspect1] corresponds to [aspect2]. [Value] and [layer] carry no meaning.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.4671643</t>
+  </si>
+  <si>
+    <t>Excel table</t>
+  </si>
+  <si>
+    <t>Correspondence_properties = {"symmetric" : True, "class1_all" : False,  "class2_all" : False, "one_to_one" : False, "one_to_n" : False, "n_to_one": False}</t>
+  </si>
+  <si>
+    <t>3_MC_Buildings_China_Zhang_2022</t>
+  </si>
+  <si>
+    <t>as published</t>
+  </si>
+  <si>
+    <t>3 end use sectors</t>
+  </si>
+  <si>
+    <t>Residential, public, and industrial buildings</t>
+  </si>
+  <si>
+    <t>Three buildings types, four age-cohort ranges for China</t>
+  </si>
+  <si>
+    <t>6 materials</t>
+  </si>
+  <si>
+    <t>1900-2020</t>
+  </si>
+  <si>
+    <t>four age-cohort ranges</t>
+  </si>
+  <si>
+    <t>Material content of residential, industrial, and public buildings in China, compiled by Zhang et al., DOI 10.1111/jiec.13332.</t>
+  </si>
+  <si>
+    <t>material; material content; residential buildings; urban; China; industrial buildings; public buildings;</t>
+  </si>
+  <si>
+    <t>Value(r,T,c,m)</t>
+  </si>
+  <si>
+    <t>Residential buildings, China, in age-cohort after 2000, have a construction steel content of 42.9 kg/m2.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 4] in [Aspect 2] in [Aspect 1] built in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>© by the International Society for Industrial Ecology</t>
+  </si>
+  <si>
+    <t>Ruirui Zhang</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/jiec.13332</t>
+  </si>
+  <si>
+    <t>2_P_RECC_Population_SSP_32R_V2.2</t>
+  </si>
+  <si>
+    <t>V2.2</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>9 EU countries and regions</t>
+  </si>
+  <si>
+    <t>2015-2060</t>
+  </si>
+  <si>
+    <t>future population for the EU in 6 countries and 3 regions, by scenario, from RECC v2.4 model database</t>
+  </si>
+  <si>
+    <t>population; future; scenario; EU;</t>
+  </si>
+  <si>
+    <t>Scenario models</t>
+  </si>
+  <si>
+    <t>Value(t,r,S)</t>
+  </si>
+  <si>
+    <t>Population of France in 2050 for SSP1 scenario is 70,608998 million.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 2] in [Aspect 1] for [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>Numbers extracted from RECC v2.4 database</t>
+  </si>
+  <si>
+    <t>2022 update</t>
+  </si>
+  <si>
+    <t>upload complete</t>
+  </si>
+  <si>
+    <t>tbd.</t>
+  </si>
+  <si>
+    <t>2_IUS_ResidentlBldngs_RECCv2.4</t>
+  </si>
+  <si>
+    <t>v2.4</t>
+  </si>
+  <si>
+    <t>Constructed floor area</t>
+  </si>
+  <si>
+    <t>aggregate residential building stock</t>
+  </si>
+  <si>
+    <t>RECC v2.4 model input data for the residential building stock (useful floor area), by region. Constructed floor area is a term created by the EU HotMaps project to indicate the total built floor area, which is relevant for the material content.</t>
+  </si>
+  <si>
+    <t>residential building stock; RECC; in-use stock;</t>
+  </si>
+  <si>
+    <t>end-use sector</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>Value(t,r,U,p,S,v)</t>
+  </si>
+  <si>
+    <t>In-use stock of residential buildings in Global region in use phase for LED scenario for Baseline Strategy for 2040 is 237486.4 km².</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 2] in [Aspect 3] in [Aspect 1] for [Aspect 4] for [Aspect 5] in [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.4698619</t>
+  </si>
+  <si>
+    <t>2022-11-16</t>
+  </si>
+  <si>
+    <t>Numbers copied from original sources (excel spreadsheet) with script ODYM_RECC_Export_IEDC.py</t>
+  </si>
+  <si>
+    <t>1_F_Function_passenger_vehicles_RECCv2.4</t>
+  </si>
+  <si>
+    <t>by end-use sector: passenger vehicles in use</t>
+  </si>
+  <si>
+    <t>one aggregate fleet-wide indicator</t>
+  </si>
+  <si>
+    <t>20 countries and regions</t>
+  </si>
+  <si>
+    <t>Function, measured in passenger-km, provided by the passenger vehicle fleet in different scenarios.</t>
+  </si>
+  <si>
+    <t>passenger kilometers; person kilometers; passenger vehicles; service; function</t>
+  </si>
+  <si>
+    <t>Dataset UUID: eb5b84f4-b288-46ef-a3cc-eeb9737dbfb0, copy of RECCv2.4 database parameter 1_F_Function_Future_V1.2</t>
+  </si>
+  <si>
+    <t>Value(V,U,r,t,S)</t>
+  </si>
+  <si>
+    <t>Service layer of flow of passenger-km from passenger vehicles in USA in 2020 for SSP1 scenario are 21493,89 pkm/person/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 1] from [Aspect 2] in [Aspect 3] in [Aspect 4] for [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>2022-11-13</t>
+  </si>
+  <si>
+    <t>1_F_GHG_Emissions_GCP_2020</t>
+  </si>
+  <si>
+    <t>economy-wide</t>
+  </si>
+  <si>
+    <t>economy as one aggregated process</t>
+  </si>
+  <si>
+    <t>231 countries and regions</t>
+  </si>
+  <si>
+    <t>1959-2020</t>
+  </si>
+  <si>
+    <t>Fossil CO2 emissions by country (territorial), compiled by the Global Carbon Project, in mass of carbon per year.</t>
+  </si>
+  <si>
+    <t>CO2; fossil; Global Carbon Project;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All values in million tonnes of carbon per year. For values in million tonnes of CO2 per year, multiply the values below by 3.664. Source: Global Carbon Project. (2020). Supplemental data of Global Carbon Budget 2020 (Version 1.0). Global Carbon Project. https://doi.org/10.18160/gcp-2020 </t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>Value(X,o,d,t,r)</t>
+  </si>
+  <si>
+    <t>Mass of flow of GWP100, fossil carbon emissions in India from all (entire economy) to natural environment in 1985 are 108,61156444392 MtC/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 2] from [Aspect 3] to [Aspect 4] for [Aspect 5] in [Aspect 1] is [Value].</t>
+  </si>
+  <si>
+    <t>Pierre Friedlingstein @ Global Carbon Project</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.18160/GCP-2020</t>
+  </si>
+  <si>
+    <t>1_F_MaterialProduction_RECCv2.4</t>
+  </si>
+  <si>
+    <t>material production</t>
+  </si>
+  <si>
+    <t>primary and secondary production by material</t>
+  </si>
+  <si>
+    <t>six major materials</t>
+  </si>
+  <si>
+    <t>steel, cement, aluminium, copper, plastics, wood</t>
+  </si>
+  <si>
+    <t>RECC v2.4 model results for material production for demand in certain region, primary and secondary, for low-carbon energy supply system.</t>
+  </si>
+  <si>
+    <t>material production; primary material production; secondary material production; recycling;</t>
+  </si>
+  <si>
+    <t>Data transfer file generated with export script from recc model committ aa3e824 and config file Export_Define_RECC_v2.4_archive_2022_11_13.xlsx.</t>
+  </si>
+  <si>
+    <t>Value(t,r,m,U,o,d,S,v)</t>
+  </si>
+  <si>
+    <t>Mass of flow of steel in India for passenger vehicles from primary production to manufacturing for SSP2 for FYI_FSD_EoL_MSU_RUS_LTE in 2030 is 9.73905 Mt/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 2] in [Aspect 1] for [Aspect 3] from [Aspect 4] to [Aspect 5] for [Aspect 6] for [Aspect 7] in [Aspect 8] is [Value].</t>
+  </si>
+  <si>
+    <t>1_F_GHG_BySector_RECCv2.4</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>major industrial and end-use processes</t>
+  </si>
+  <si>
+    <t>all products per end-use sector</t>
+  </si>
+  <si>
+    <t>13 for residential buildings, 24 for non-residential buildings, 6 vehicle drive technologies</t>
+  </si>
+  <si>
+    <t>RECC v2.4 model results for system-wide and use-phase GHG emissions by end-use sector, for low-carbon energy supply system</t>
+  </si>
+  <si>
+    <t>GHG emissions; GHG emissions by end-use sector;</t>
+  </si>
+  <si>
+    <t>Value(t,X,r,U,o,d,S,v)</t>
+  </si>
+  <si>
+    <t>Mass of flow of GWP100 in India for passenger vehicles from use phase to natural environment for LED for FYI_FSD_EoL_MSU_RUS_LTE in 2025 is 41.8045 Mt/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 2] for [Aspect 3] from [Aspect 4] to [Aspect 5] for [Aspect 6] for [Aspect 7] in [Aspect 1] in [Aspect 8] is [Value].</t>
+  </si>
+  <si>
+    <t>1_F_MaterialFlows_RECCv2.4</t>
+  </si>
+  <si>
+    <t>material fabrication scrap, end-of-life flows, and re-use</t>
+  </si>
+  <si>
+    <t>RECC v2.4 model results for material fabrication scrap, end-of-life flows, and re-use, for low-carbon energy supply system.</t>
+  </si>
+  <si>
+    <t>material fabrication scrap; end-of-life flows; re-use</t>
+  </si>
+  <si>
+    <t>Value(t,r,m,g,U,o,d,S,v)</t>
+  </si>
+  <si>
+    <t>Mass of flow of wrought aluminium in products for re-use in Global South for passenger vehicles and residential buildings from use phase to use phase for SSP2 for Baseline in 2030 is 0.3964609 Mt/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 2] in [Aspect 3] in [Aspect 1] for [Aspect 4] from [Aspect 5] to [Aspect 6] for [Aspect 7] for [Aspect 8] in [Aspect 9] is [Value].</t>
+  </si>
+  <si>
+    <t>RECC_SysDef_Model_v2_4.png</t>
+  </si>
+  <si>
+    <t>RECC_SysDef_Model_v2_5.png</t>
   </si>
 </sst>
 </file>
@@ -4297,7 +4657,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4355,6 +4715,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4541,7 +4913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4795,6 +5167,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4861,8 +5250,6 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5152,8 +5539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5180,19 +5567,19 @@
         <v>182</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>193</v>
+        <v>1386</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>194</v>
+        <v>1387</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="165" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5212,7 +5599,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="154"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -5220,17 +5607,17 @@
         <v>442</v>
       </c>
       <c r="E5" s="118" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F5" s="119" t="s">
         <v>1131</v>
       </c>
-      <c r="F5" s="119" t="s">
-        <v>1132</v>
-      </c>
       <c r="G5" s="119" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="166" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -5242,7 +5629,7 @@
       <c r="G6" s="52"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="155"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -5252,7 +5639,7 @@
       <c r="G7" s="52"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="155"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -5262,7 +5649,7 @@
       <c r="G8" s="52"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="155"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -5272,7 +5659,7 @@
       <c r="G9" s="52"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="155"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -5282,7 +5669,7 @@
       <c r="G10" s="52"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="155"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -5292,7 +5679,7 @@
       <c r="G11" s="52"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="155"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -5302,7 +5689,7 @@
       <c r="G12" s="52"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="155"/>
+      <c r="B13" s="166"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -5312,7 +5699,7 @@
       <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="155"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -5322,7 +5709,7 @@
       <c r="G14" s="52"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="155"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -5332,7 +5719,7 @@
       <c r="G15" s="52"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="155"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -5342,7 +5729,7 @@
       <c r="G16" s="52"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="155"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -5352,7 +5739,7 @@
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="155"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -5362,7 +5749,7 @@
       <c r="G18" s="52"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="167" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -5374,11 +5761,11 @@
         <v>1006</v>
       </c>
       <c r="G19" s="119" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="156"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -5392,11 +5779,11 @@
         <v>1007</v>
       </c>
       <c r="G20" s="119" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="156"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -5406,11 +5793,11 @@
         <v>1008</v>
       </c>
       <c r="G21" s="119" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="168" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -5428,7 +5815,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="157"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -5438,7 +5825,7 @@
       <c r="G23" s="52"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="157"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -5448,7 +5835,7 @@
       <c r="G24" s="52"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="157"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -5458,11 +5845,11 @@
         <v>1005</v>
       </c>
       <c r="G25" s="90" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="157"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -5474,7 +5861,7 @@
       <c r="G26" s="52"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="157"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -5484,7 +5871,7 @@
       <c r="G27" s="52"/>
     </row>
     <row r="28" spans="2:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="169" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -5504,7 +5891,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="158"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -5522,7 +5909,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="151" t="s">
+      <c r="B30" s="162" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -5534,7 +5921,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="152"/>
+      <c r="B31" s="163"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -5544,7 +5931,7 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="153"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -5568,13 +5955,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P39"/>
+  <dimension ref="B2:R39"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5590,16 +5977,18 @@
     <col min="14" max="14" width="64.53125" customWidth="1"/>
     <col min="15" max="15" width="55.53125" customWidth="1"/>
     <col min="16" max="16" width="38.6640625" customWidth="1"/>
+    <col min="17" max="17" width="37.19921875" customWidth="1"/>
+    <col min="18" max="18" width="39.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>184</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:16" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="32"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -5623,29 +6012,35 @@
         <v>1009</v>
       </c>
       <c r="J3" s="143" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K3" s="82" t="s">
         <v>1283</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="L3" s="82" t="s">
         <v>1284</v>
       </c>
-      <c r="L3" s="82" t="s">
+      <c r="M3" s="82" t="s">
         <v>1285</v>
       </c>
-      <c r="M3" s="82" t="s">
-        <v>1286</v>
-      </c>
       <c r="N3" s="82" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>1269</v>
-      </c>
-      <c r="P3" s="173" t="s">
-        <v>1365</v>
+        <v>1268</v>
+      </c>
+      <c r="P3" s="82" t="s">
+        <v>1364</v>
+      </c>
+      <c r="Q3" s="82" t="s">
+        <v>1382</v>
+      </c>
+      <c r="R3" s="82" t="s">
+        <v>1384</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" s="159" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="170" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -5690,9 +6085,15 @@
       <c r="P4" s="141">
         <v>12</v>
       </c>
+      <c r="Q4" s="141">
+        <v>13</v>
+      </c>
+      <c r="R4" s="141">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B5" s="160"/>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="171"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -5700,10 +6101,10 @@
         <v>442</v>
       </c>
       <c r="E5" s="118" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F5" s="127" t="s">
         <v>1128</v>
-      </c>
-      <c r="F5" s="127" t="s">
-        <v>1129</v>
       </c>
       <c r="G5" s="119" t="s">
         <v>1004</v>
@@ -5715,28 +6116,34 @@
         <v>1010</v>
       </c>
       <c r="J5" s="145" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K5" s="118" t="s">
         <v>1287</v>
       </c>
-      <c r="K5" s="118" t="s">
+      <c r="L5" s="118" t="s">
         <v>1288</v>
       </c>
-      <c r="L5" s="118" t="s">
+      <c r="M5" s="118" t="s">
         <v>1289</v>
       </c>
-      <c r="M5" s="118" t="s">
-        <v>1290</v>
-      </c>
       <c r="N5" s="118" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="O5" s="118" t="s">
-        <v>1273</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1365</v>
+        <v>1272</v>
+      </c>
+      <c r="P5" s="146" t="s">
+        <v>1364</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>1382</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>1384</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="33"/>
       <c r="C6" s="54" t="s">
         <v>453</v>
@@ -5770,16 +6177,22 @@
         <v>11</v>
       </c>
       <c r="N6" s="135" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O6" s="135" t="s">
-        <v>1151</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1151</v>
+        <v>1150</v>
+      </c>
+      <c r="P6" s="146" t="s">
+        <v>1150</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>1150</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
@@ -5788,14 +6201,14 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="52" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>1131</v>
       </c>
-      <c r="F7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>1132</v>
-      </c>
       <c r="H7" s="35" t="s">
         <v>11</v>
       </c>
@@ -5806,7 +6219,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="52" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="L7" s="121" t="s">
         <v>11</v>
@@ -5820,12 +6233,18 @@
       <c r="O7" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="P7" t="s">
-        <v>1366</v>
+      <c r="P7" s="146" t="s">
+        <v>1365</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>1365</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="155" t="s">
+    <row r="8" spans="2:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="166" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -5848,29 +6267,35 @@
         <v>1011</v>
       </c>
       <c r="J8" s="144" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K8" s="145" t="s">
         <v>1291</v>
       </c>
-      <c r="K8" s="145" t="s">
+      <c r="L8" s="121" t="s">
         <v>1292</v>
       </c>
-      <c r="L8" s="121" t="s">
-        <v>1293</v>
-      </c>
       <c r="M8" s="121" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="N8" s="119" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="O8" s="121" t="s">
-        <v>1274</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1371</v>
+        <v>1273</v>
+      </c>
+      <c r="P8" s="146" t="s">
+        <v>1370</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>1370</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>1370</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="155"/>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="166"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -5891,29 +6316,35 @@
         <v>1012</v>
       </c>
       <c r="J9" s="144" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K9" s="145" t="s">
         <v>1294</v>
       </c>
-      <c r="K9" s="145" t="s">
+      <c r="L9" s="121" t="s">
         <v>1295</v>
       </c>
-      <c r="L9" s="121" t="s">
-        <v>1296</v>
-      </c>
       <c r="M9" s="121" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="N9" s="119" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="O9" s="121" t="s">
-        <v>1274</v>
-      </c>
-      <c r="P9" s="105" t="s">
-        <v>1371</v>
+        <v>1273</v>
+      </c>
+      <c r="P9" s="146" t="s">
+        <v>1370</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>1370</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>1370</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B10" s="155"/>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="166"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -5951,12 +6382,18 @@
       <c r="O10" s="121" t="s">
         <v>1013</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="146" t="s">
         <v>1013</v>
       </c>
+      <c r="Q10" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="11" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="155"/>
+    <row r="11" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="166"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -5994,12 +6431,18 @@
       <c r="O11" s="121" t="s">
         <v>779</v>
       </c>
-      <c r="P11" t="s">
-        <v>1372</v>
+      <c r="P11" s="146" t="s">
+        <v>1371</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>1371</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>1371</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="155"/>
+    <row r="12" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="166"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -6020,7 +6463,7 @@
         <v>1014</v>
       </c>
       <c r="J12" s="146" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>14</v>
@@ -6029,20 +6472,26 @@
         <v>14</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="N12" s="120" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="O12" s="121" t="s">
-        <v>1275</v>
-      </c>
-      <c r="P12" t="s">
-        <v>1373</v>
+        <v>1274</v>
+      </c>
+      <c r="P12" s="146" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>1372</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>1372</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="155"/>
+    <row r="13" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="166"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -6078,14 +6527,20 @@
         <v>11</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>1276</v>
-      </c>
-      <c r="P13" t="s">
-        <v>1374</v>
+        <v>1275</v>
+      </c>
+      <c r="P13" s="146" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>1383</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>1383</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="155"/>
+    <row r="14" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="166"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -6109,7 +6564,7 @@
         <v>11</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>16</v>
@@ -6121,14 +6576,20 @@
         <v>11</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>1276</v>
-      </c>
-      <c r="P14" t="s">
-        <v>1375</v>
+        <v>1275</v>
+      </c>
+      <c r="P14" s="146" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>1374</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="155"/>
+    <row r="15" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="166"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -6149,7 +6610,7 @@
         <v>1016</v>
       </c>
       <c r="J15" s="146" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>17</v>
@@ -6158,20 +6619,26 @@
         <v>17</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N15" s="120" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="O15" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="P15" t="s">
-        <v>1377</v>
+      <c r="P15" s="146" t="s">
+        <v>1376</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>1376</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>1376</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="155"/>
+    <row r="16" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="166"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -6192,7 +6659,7 @@
         <v>44</v>
       </c>
       <c r="J16" s="146" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>18</v>
@@ -6201,20 +6668,26 @@
         <v>18</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="N16" s="120" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>1277</v>
-      </c>
-      <c r="P16" s="105" t="s">
-        <v>1376</v>
+        <v>1276</v>
+      </c>
+      <c r="P16" s="146" t="s">
+        <v>1375</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>1375</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>1375</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="155"/>
+    <row r="17" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="166"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -6235,7 +6708,7 @@
         <v>740</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>19</v>
@@ -6252,12 +6725,18 @@
       <c r="O17" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="146" t="s">
         <v>19</v>
       </c>
+      <c r="Q17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="18" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="155"/>
+    <row r="18" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="166"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -6278,7 +6757,7 @@
         <v>1017</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>99</v>
@@ -6290,17 +6769,23 @@
         <v>20</v>
       </c>
       <c r="N18" s="120" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="O18" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="P18" t="s">
-        <v>1378</v>
+      <c r="P18" s="146" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>1377</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>1385</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="155"/>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="166"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -6324,26 +6809,32 @@
         <v>86</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L19" s="20">
         <v>2008</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="N19" s="119" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>1278</v>
-      </c>
-      <c r="P19" t="s">
-        <v>1379</v>
+        <v>1277</v>
+      </c>
+      <c r="P19" s="146" t="s">
+        <v>1378</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>1378</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>1378</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="155"/>
+    <row r="20" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="166"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -6364,29 +6855,35 @@
         <v>311</v>
       </c>
       <c r="J20" s="146" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="K20" s="146" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="L20" s="20" t="s">
         <v>311</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N20" s="120" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>1279</v>
-      </c>
-      <c r="P20" t="s">
-        <v>1279</v>
+        <v>1278</v>
+      </c>
+      <c r="P20" s="146" t="s">
+        <v>1278</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>1278</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>1278</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="156" t="s">
+    <row r="21" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="167" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -6409,29 +6906,35 @@
         <v>1019</v>
       </c>
       <c r="J21" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K21" s="19" t="s">
         <v>1306</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>1307</v>
       </c>
       <c r="L21" s="20" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="N21" s="120" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>1280</v>
-      </c>
-      <c r="P21" t="s">
-        <v>1380</v>
+        <v>1279</v>
+      </c>
+      <c r="P21" s="146" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>1379</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>1379</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="156"/>
+    <row r="22" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="167"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -6454,35 +6957,41 @@
         <v>1020</v>
       </c>
       <c r="J22" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K22" s="19" t="s">
         <v>1309</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>1310</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>23</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="N22" s="120" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>1281</v>
-      </c>
-      <c r="P22" t="s">
-        <v>1381</v>
+        <v>1280</v>
+      </c>
+      <c r="P22" s="146" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>1380</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>1380</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B23" s="156"/>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B23" s="167"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="118" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>11</v>
@@ -6500,11 +7009,11 @@
         <v>11</v>
       </c>
       <c r="K23" s="19" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L23" s="118" t="s">
         <v>1312</v>
       </c>
-      <c r="L23" s="118" t="s">
-        <v>1313</v>
-      </c>
       <c r="M23" s="19" t="s">
         <v>11</v>
       </c>
@@ -6512,14 +7021,20 @@
         <v>11</v>
       </c>
       <c r="O23" s="118" t="s">
-        <v>1272</v>
-      </c>
-      <c r="P23" t="s">
-        <v>1382</v>
+        <v>1271</v>
+      </c>
+      <c r="P23" s="146" t="s">
+        <v>1502</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>1503</v>
+      </c>
+      <c r="R23" s="154" t="s">
+        <v>1388</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="156"/>
+    <row r="24" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="167"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -6557,12 +7072,18 @@
       <c r="O24" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="146" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="157" t="s">
+    <row r="25" spans="2:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="168" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -6602,12 +7123,18 @@
       <c r="O25" s="19" t="s">
         <v>860</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="146" t="s">
         <v>860</v>
       </c>
+      <c r="Q25" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B26" s="157"/>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B26" s="168"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -6645,12 +7172,18 @@
       <c r="O26" s="20" t="s">
         <v>857</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="146" t="s">
         <v>857</v>
       </c>
+      <c r="Q26" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>857</v>
+      </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B27" s="157"/>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B27" s="168"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -6671,29 +7204,35 @@
         <v>1022</v>
       </c>
       <c r="J27" s="13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K27" s="20" t="s">
         <v>1314</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>1315</v>
       </c>
       <c r="L27" s="20" t="s">
         <v>287</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="N27" s="137" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O27" s="118" t="s">
-        <v>1271</v>
-      </c>
-      <c r="P27" t="s">
+        <v>1270</v>
+      </c>
+      <c r="P27" s="146" t="s">
         <v>40</v>
       </c>
+      <c r="Q27" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B28" s="157"/>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B28" s="168"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -6726,17 +7265,23 @@
         <v>11</v>
       </c>
       <c r="N28" s="137" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>1270</v>
-      </c>
-      <c r="P28" s="174" t="s">
-        <v>1383</v>
+        <v>1269</v>
+      </c>
+      <c r="P28" s="153" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q28" s="154" t="s">
+        <v>1388</v>
+      </c>
+      <c r="R28" s="154" t="s">
+        <v>1388</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="157"/>
+    <row r="29" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="168"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -6757,29 +7302,35 @@
         <v>11</v>
       </c>
       <c r="J29" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K29" s="20" t="s">
         <v>1317</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>1318</v>
       </c>
       <c r="L29" s="20" t="s">
         <v>28</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="N29" s="138" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>1270</v>
-      </c>
-      <c r="P29" s="174" t="s">
-        <v>1383</v>
+        <v>1269</v>
+      </c>
+      <c r="P29" s="153" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q29" s="154" t="s">
+        <v>1388</v>
+      </c>
+      <c r="R29" s="154" t="s">
+        <v>1388</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="157"/>
+    <row r="30" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="168"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -6800,29 +7351,35 @@
         <v>1036</v>
       </c>
       <c r="J30" s="148" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K30" s="20" t="s">
         <v>1317</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>1318</v>
       </c>
       <c r="L30" s="20" t="s">
         <v>29</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="N30" s="138" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>1270</v>
-      </c>
-      <c r="P30" s="174" t="s">
-        <v>1383</v>
+        <v>1269</v>
+      </c>
+      <c r="P30" s="153" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q30" s="154" t="s">
+        <v>1388</v>
+      </c>
+      <c r="R30" s="154" t="s">
+        <v>1388</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="158" t="s">
+    <row r="31" spans="2:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="169" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -6867,9 +7424,15 @@
       <c r="P31" s="142">
         <v>44404</v>
       </c>
+      <c r="Q31" s="142">
+        <v>44871</v>
+      </c>
+      <c r="R31" s="142">
+        <v>44871</v>
+      </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B32" s="161"/>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B32" s="172"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -6909,12 +7472,18 @@
       <c r="O32" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="146" t="s">
         <v>30</v>
       </c>
+      <c r="Q32" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B33" s="151" t="s">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B33" s="162" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -6932,9 +7501,12 @@
       <c r="M33" s="22"/>
       <c r="N33" s="57"/>
       <c r="O33" s="57"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="29"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B34" s="152"/>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B34" s="163"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -6950,9 +7522,12 @@
       <c r="M34" s="20"/>
       <c r="N34" s="52"/>
       <c r="O34" s="52"/>
+      <c r="P34" s="146"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="29"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B35" s="153"/>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B35" s="164"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -6968,8 +7543,11 @@
       <c r="M35" s="21"/>
       <c r="N35" s="124"/>
       <c r="O35" s="124"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="30"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="I39" s="12"/>
     </row>
   </sheetData>
@@ -6990,13 +7568,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT74"/>
+  <dimension ref="A1:DA74"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="BF6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="BK6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53:B60"/>
+      <selection pane="bottomRight" activeCell="BR7" sqref="BR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -7057,7 +7635,7 @@
     <col min="70" max="16384" width="11.53125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:78" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -7256,13 +7834,35 @@
       <c r="BQ1" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="BR1" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS1" s="105"/>
-      <c r="BT1" s="105"/>
+      <c r="BR1" s="156" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BS1" s="156" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BT1" s="156" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BU1" s="156" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BV1" s="156" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BW1" s="156" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BX1" s="155" t="s">
+        <v>1434</v>
+      </c>
+      <c r="BY1" s="155" t="s">
+        <v>1434</v>
+      </c>
+      <c r="BZ1" s="155" t="s">
+        <v>1434</v>
+      </c>
     </row>
-    <row r="2" spans="1:72" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -7286,12 +7886,34 @@
       <c r="BP2" s="105"/>
       <c r="BQ2" s="105"/>
       <c r="BR2" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS2" s="105"/>
-      <c r="BT2" s="105"/>
+        <v>1432</v>
+      </c>
+      <c r="BS2" s="117" t="s">
+        <v>1432</v>
+      </c>
+      <c r="BT2" s="117" t="s">
+        <v>1432</v>
+      </c>
+      <c r="BU2" s="117" t="s">
+        <v>1432</v>
+      </c>
+      <c r="BV2" s="117" t="s">
+        <v>1432</v>
+      </c>
+      <c r="BW2" s="117" t="s">
+        <v>1432</v>
+      </c>
+      <c r="BX2" s="117" t="s">
+        <v>1432</v>
+      </c>
+      <c r="BY2" s="117" t="s">
+        <v>1432</v>
+      </c>
+      <c r="BZ2" s="117" t="s">
+        <v>1432</v>
+      </c>
     </row>
-    <row r="3" spans="1:72" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:78" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -7494,17 +8116,39 @@
       <c r="BQ3" s="36" t="s">
         <v>1113</v>
       </c>
-      <c r="BR3" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS3" s="105"/>
-      <c r="BT3" s="105"/>
+      <c r="BR3" s="117">
+        <v>300</v>
+      </c>
+      <c r="BS3" s="117">
+        <v>301</v>
+      </c>
+      <c r="BT3" s="105">
+        <v>302</v>
+      </c>
+      <c r="BU3" s="117">
+        <v>303</v>
+      </c>
+      <c r="BV3" s="105">
+        <v>304</v>
+      </c>
+      <c r="BW3" s="117">
+        <v>305</v>
+      </c>
+      <c r="BX3" s="105">
+        <v>306</v>
+      </c>
+      <c r="BY3" s="117">
+        <v>307</v>
+      </c>
+      <c r="BZ3" s="105">
+        <v>308</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="175" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -7708,17 +8352,39 @@
       <c r="BQ4" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="BR4" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS4" s="105"/>
-      <c r="BT4" s="105"/>
+      <c r="BR4" s="117">
+        <v>300</v>
+      </c>
+      <c r="BS4" s="117">
+        <v>301</v>
+      </c>
+      <c r="BT4" s="105">
+        <v>302</v>
+      </c>
+      <c r="BU4" s="117">
+        <v>303</v>
+      </c>
+      <c r="BV4" s="105">
+        <v>304</v>
+      </c>
+      <c r="BW4" s="117">
+        <v>305</v>
+      </c>
+      <c r="BX4" s="105">
+        <v>306</v>
+      </c>
+      <c r="BY4" s="117">
+        <v>307</v>
+      </c>
+      <c r="BZ4" s="105">
+        <v>308</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="165"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -7921,12 +8587,34 @@
         <v>1078</v>
       </c>
       <c r="BR5" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS5" s="105"/>
-      <c r="BT5" s="105"/>
+        <v>1389</v>
+      </c>
+      <c r="BS5" s="105" t="s">
+        <v>1404</v>
+      </c>
+      <c r="BT5" s="105" t="s">
+        <v>1420</v>
+      </c>
+      <c r="BU5" s="115" t="s">
+        <v>1435</v>
+      </c>
+      <c r="BV5" s="115" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BW5" s="115" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BX5" s="115" t="s">
+        <v>1474</v>
+      </c>
+      <c r="BY5" s="115" t="s">
+        <v>1485</v>
+      </c>
+      <c r="BZ5" s="115" t="s">
+        <v>1495</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -8131,16 +8819,38 @@
         <v>1023</v>
       </c>
       <c r="BR6" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS6" s="105"/>
-      <c r="BT6" s="105"/>
+        <v>1150</v>
+      </c>
+      <c r="BS6" s="105" t="s">
+        <v>1405</v>
+      </c>
+      <c r="BT6" s="105" t="s">
+        <v>1421</v>
+      </c>
+      <c r="BU6" s="115" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BV6" s="115" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BW6" s="105" t="s">
+        <v>1405</v>
+      </c>
+      <c r="BX6" s="115" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BY6" s="115" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BZ6" s="115" t="s">
+        <v>1436</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="177" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -8343,16 +9053,38 @@
         <v>5</v>
       </c>
       <c r="BR7" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS7" s="105"/>
-      <c r="BT7" s="105"/>
+        <v>845</v>
+      </c>
+      <c r="BS7" s="105" t="s">
+        <v>845</v>
+      </c>
+      <c r="BT7" s="105">
+        <v>12</v>
+      </c>
+      <c r="BU7" s="115">
+        <v>12</v>
+      </c>
+      <c r="BV7" s="115">
+        <v>12</v>
+      </c>
+      <c r="BW7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="BX7" s="115">
+        <v>12</v>
+      </c>
+      <c r="BY7" s="115">
+        <v>12</v>
+      </c>
+      <c r="BZ7" s="115">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="166"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -8554,17 +9286,39 @@
       <c r="BQ8" s="110">
         <v>1</v>
       </c>
-      <c r="BR8" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS8" s="105"/>
-      <c r="BT8" s="105"/>
+      <c r="BR8" s="117">
+        <v>7</v>
+      </c>
+      <c r="BS8" s="105">
+        <v>3</v>
+      </c>
+      <c r="BT8" s="105">
+        <v>2</v>
+      </c>
+      <c r="BU8" s="115">
+        <v>2</v>
+      </c>
+      <c r="BV8" s="115">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="115">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="115">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="115">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="115">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="166"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -8767,16 +9521,38 @@
         <v>1024</v>
       </c>
       <c r="BR9" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS9" s="105"/>
-      <c r="BT9" s="105"/>
+        <v>1390</v>
+      </c>
+      <c r="BS9" s="105" t="s">
+        <v>846</v>
+      </c>
+      <c r="BT9" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU9" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV9" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW9" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX9" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ9" s="115" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="166"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -8979,16 +9755,38 @@
         <v>1025</v>
       </c>
       <c r="BR10" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS10" s="105"/>
-      <c r="BT10" s="105"/>
+        <v>1391</v>
+      </c>
+      <c r="BS10" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT10" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU10" s="115" t="s">
+        <v>1437</v>
+      </c>
+      <c r="BV10" s="115" t="s">
+        <v>412</v>
+      </c>
+      <c r="BW10" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX10" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="BY10" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ10" s="115" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:78" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="178" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -9191,16 +9989,38 @@
         <v>1079</v>
       </c>
       <c r="BR11" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS11" s="105"/>
-      <c r="BT11" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS11" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="BT11" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="BV11" s="115" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BW11" s="115" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BX11" s="115" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BY11" s="115" t="s">
+        <v>1486</v>
+      </c>
+      <c r="BZ11" s="115" t="s">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="168"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -9401,16 +10221,38 @@
         <v>1026</v>
       </c>
       <c r="BR12" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS12" s="105"/>
-      <c r="BT12" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS12" s="105" t="s">
+        <v>1406</v>
+      </c>
+      <c r="BT12" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU12" s="115" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BV12" s="115" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BW12" s="115" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BX12" s="115" t="s">
+        <v>1476</v>
+      </c>
+      <c r="BY12" s="115" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BZ12" s="115" t="s">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="168"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -9611,16 +10453,38 @@
         <v>1027</v>
       </c>
       <c r="BR13" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS13" s="105"/>
-      <c r="BT13" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS13" s="105" t="s">
+        <v>1407</v>
+      </c>
+      <c r="BT13" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU13" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV13" s="115" t="s">
+        <v>816</v>
+      </c>
+      <c r="BW13" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX13" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY13" s="115" t="s">
+        <v>1488</v>
+      </c>
+      <c r="BZ13" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -9821,16 +10685,38 @@
         <v>1061</v>
       </c>
       <c r="BR14" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS14" s="105"/>
-      <c r="BT14" s="105"/>
+        <v>1392</v>
+      </c>
+      <c r="BS14" s="105" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BT14" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU14" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV14" s="115" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BW14" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX14" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY14" s="115" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BZ14" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="168"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -10031,16 +10917,38 @@
         <v>1080</v>
       </c>
       <c r="BR15" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS15" s="105"/>
-      <c r="BT15" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS15" s="105" t="s">
+        <v>347</v>
+      </c>
+      <c r="BT15" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX15" s="115" t="s">
+        <v>1477</v>
+      </c>
+      <c r="BY15" s="115" t="s">
+        <v>1477</v>
+      </c>
+      <c r="BZ15" s="115" t="s">
+        <v>1477</v>
+      </c>
     </row>
-    <row r="16" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="168"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -10241,16 +11149,38 @@
         <v>18</v>
       </c>
       <c r="BR16" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS16" s="105"/>
-      <c r="BT16" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS16" s="105" t="s">
+        <v>1409</v>
+      </c>
+      <c r="BT16" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX16" s="115" t="s">
+        <v>1478</v>
+      </c>
+      <c r="BY16" s="115" t="s">
+        <v>1478</v>
+      </c>
+      <c r="BZ16" s="115" t="s">
+        <v>1478</v>
+      </c>
     </row>
-    <row r="17" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="168"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -10451,16 +11381,38 @@
         <v>1029</v>
       </c>
       <c r="BR17" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS17" s="105"/>
-      <c r="BT17" s="105"/>
+        <v>1393</v>
+      </c>
+      <c r="BS17" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT17" s="105" t="s">
+        <v>1422</v>
+      </c>
+      <c r="BU17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ17" s="115" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="18" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="168"/>
+      <c r="B18" s="179"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -10661,16 +11613,38 @@
         <v>1030</v>
       </c>
       <c r="BR18" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS18" s="105"/>
-      <c r="BT18" s="105"/>
+        <v>1394</v>
+      </c>
+      <c r="BS18" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT18" s="105" t="s">
+        <v>1423</v>
+      </c>
+      <c r="BU18" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="BV18" s="115" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BW18" s="115" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BX18" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="BY18" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ18" s="115" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="19" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="168"/>
+      <c r="B19" s="179"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -10871,16 +11845,38 @@
         <v>1081</v>
       </c>
       <c r="BR19" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS19" s="105"/>
-      <c r="BT19" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS19" s="105" t="s">
+        <v>1410</v>
+      </c>
+      <c r="BT19" s="105" t="s">
+        <v>1424</v>
+      </c>
+      <c r="BU19" s="115" t="s">
+        <v>1378</v>
+      </c>
+      <c r="BV19" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="BW19" s="115" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BX19" s="115" t="s">
+        <v>1378</v>
+      </c>
+      <c r="BY19" s="115" t="s">
+        <v>1378</v>
+      </c>
+      <c r="BZ19" s="115" t="s">
+        <v>1378</v>
+      </c>
     </row>
-    <row r="20" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="168"/>
+      <c r="B20" s="179"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -11081,16 +12077,38 @@
         <v>311</v>
       </c>
       <c r="BR20" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS20" s="105"/>
-      <c r="BT20" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS20" s="105" t="s">
+        <v>1411</v>
+      </c>
+      <c r="BT20" s="105" t="s">
+        <v>343</v>
+      </c>
+      <c r="BU20" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="BV20" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="BW20" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="BX20" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="BY20" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="BZ20" s="115" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="21" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="180" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -11287,16 +12305,38 @@
         <v>1082</v>
       </c>
       <c r="BR21" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS21" s="105"/>
-      <c r="BT21" s="105"/>
+        <v>1395</v>
+      </c>
+      <c r="BS21" s="105" t="s">
+        <v>1412</v>
+      </c>
+      <c r="BT21" s="105" t="s">
+        <v>1425</v>
+      </c>
+      <c r="BU21" s="115" t="s">
+        <v>1439</v>
+      </c>
+      <c r="BV21" s="115" t="s">
+        <v>1453</v>
+      </c>
+      <c r="BW21" s="115" t="s">
+        <v>1465</v>
+      </c>
+      <c r="BX21" s="115" t="s">
+        <v>1479</v>
+      </c>
+      <c r="BY21" s="115" t="s">
+        <v>1490</v>
+      </c>
+      <c r="BZ21" s="115" t="s">
+        <v>1497</v>
+      </c>
     </row>
-    <row r="22" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="169"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -11499,16 +12539,38 @@
         <v>1083</v>
       </c>
       <c r="BR22" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS22" s="105"/>
-      <c r="BT22" s="105"/>
+        <v>1396</v>
+      </c>
+      <c r="BS22" s="105" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BT22" s="105" t="s">
+        <v>1426</v>
+      </c>
+      <c r="BU22" s="115" t="s">
+        <v>1440</v>
+      </c>
+      <c r="BV22" s="115" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BW22" s="115" t="s">
+        <v>1466</v>
+      </c>
+      <c r="BX22" s="115" t="s">
+        <v>1480</v>
+      </c>
+      <c r="BY22" s="115" t="s">
+        <v>1491</v>
+      </c>
+      <c r="BZ22" s="115" t="s">
+        <v>1498</v>
+      </c>
     </row>
-    <row r="23" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="169"/>
+      <c r="B23" s="180"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -11711,16 +12773,38 @@
         <v>848</v>
       </c>
       <c r="BR23" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS23" s="105"/>
-      <c r="BT23" s="105"/>
+        <v>24</v>
+      </c>
+      <c r="BS23" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT23" s="105" t="s">
+        <v>1427</v>
+      </c>
+      <c r="BU23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV23" s="115" t="s">
+        <v>634</v>
+      </c>
+      <c r="BW23" s="115" t="s">
+        <v>634</v>
+      </c>
+      <c r="BX23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ23" s="115" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="169"/>
+      <c r="B24" s="180"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -11922,17 +13006,39 @@
       <c r="BQ24" s="105">
         <v>0</v>
       </c>
-      <c r="BR24" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS24" s="105"/>
-      <c r="BT24" s="105"/>
+      <c r="BR24" s="117">
+        <v>0</v>
+      </c>
+      <c r="BS24" s="105">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="105">
+        <v>1242</v>
+      </c>
+      <c r="BU24" s="157">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="69">
+        <v>0</v>
+      </c>
+      <c r="BW24" s="69">
+        <v>0</v>
+      </c>
+      <c r="BX24" s="157">
+        <v>0</v>
+      </c>
+      <c r="BY24" s="157">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="157">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:72" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="169"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -12055,7 +13161,7 @@
         <v>11</v>
       </c>
       <c r="AR25" s="99" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AS25" s="99" t="s">
         <v>11</v>
@@ -12133,16 +13239,38 @@
         <v>1084</v>
       </c>
       <c r="BR25" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS25" s="105"/>
-      <c r="BT25" s="105"/>
+        <v>1397</v>
+      </c>
+      <c r="BS25" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT25" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU25" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV25" s="115" t="s">
+        <v>1455</v>
+      </c>
+      <c r="BW25" s="115" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BX25" s="115" t="s">
+        <v>1481</v>
+      </c>
+      <c r="BY25" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ25" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="26" spans="1:72" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:78" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="181" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -12347,16 +13475,38 @@
         <v>1033</v>
       </c>
       <c r="BR26" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS26" s="105"/>
-      <c r="BT26" s="105"/>
+        <v>804</v>
+      </c>
+      <c r="BS26" s="105" t="s">
+        <v>698</v>
+      </c>
+      <c r="BT26" s="105" t="s">
+        <v>702</v>
+      </c>
+      <c r="BU26" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="BV26" s="161" t="s">
+        <v>853</v>
+      </c>
+      <c r="BW26" s="161" t="s">
+        <v>702</v>
+      </c>
+      <c r="BX26" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="BY26" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="BZ26" s="115" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="27" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="170"/>
+      <c r="B27" s="181"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -12558,17 +13708,39 @@
       <c r="BQ27" s="66">
         <v>17</v>
       </c>
-      <c r="BR27" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS27" s="105"/>
-      <c r="BT27" s="105"/>
+      <c r="BR27" s="117">
+        <v>2</v>
+      </c>
+      <c r="BS27" s="105">
+        <v>2</v>
+      </c>
+      <c r="BT27" s="105">
+        <v>3</v>
+      </c>
+      <c r="BU27" s="115">
+        <v>77</v>
+      </c>
+      <c r="BV27" s="161">
+        <v>12</v>
+      </c>
+      <c r="BW27" s="161">
+        <v>3</v>
+      </c>
+      <c r="BX27" s="115">
+        <v>77</v>
+      </c>
+      <c r="BY27" s="115">
+        <v>77</v>
+      </c>
+      <c r="BZ27" s="115">
+        <v>77</v>
+      </c>
     </row>
-    <row r="28" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="170"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -12769,16 +13941,38 @@
         <v>1087</v>
       </c>
       <c r="BR28" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS28" s="105"/>
-      <c r="BT28" s="105"/>
+        <v>805</v>
+      </c>
+      <c r="BS28" s="105" t="s">
+        <v>851</v>
+      </c>
+      <c r="BT28" s="105" t="s">
+        <v>698</v>
+      </c>
+      <c r="BU28" s="115" t="s">
+        <v>1441</v>
+      </c>
+      <c r="BV28" s="161" t="s">
+        <v>1441</v>
+      </c>
+      <c r="BW28" s="161" t="s">
+        <v>1468</v>
+      </c>
+      <c r="BX28" s="115" t="s">
+        <v>849</v>
+      </c>
+      <c r="BY28" s="115" t="s">
+        <v>1468</v>
+      </c>
+      <c r="BZ28" s="115" t="s">
+        <v>849</v>
+      </c>
     </row>
-    <row r="29" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="170"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -12978,17 +14172,39 @@
       <c r="BQ29" s="35">
         <v>18</v>
       </c>
-      <c r="BR29" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS29" s="105"/>
-      <c r="BT29" s="105"/>
+      <c r="BR29" s="117">
+        <v>77</v>
+      </c>
+      <c r="BS29" s="105">
+        <v>13</v>
+      </c>
+      <c r="BT29" s="105">
+        <v>77</v>
+      </c>
+      <c r="BU29" s="115">
+        <v>7</v>
+      </c>
+      <c r="BV29" s="161">
+        <v>7</v>
+      </c>
+      <c r="BW29" s="161">
+        <v>79</v>
+      </c>
+      <c r="BX29" s="115">
+        <v>4</v>
+      </c>
+      <c r="BY29" s="115">
+        <v>79</v>
+      </c>
+      <c r="BZ29" s="115">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="170"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -13189,16 +14405,38 @@
         <v>699</v>
       </c>
       <c r="BR30" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS30" s="105"/>
-      <c r="BT30" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS30" s="105" t="s">
+        <v>704</v>
+      </c>
+      <c r="BT30" s="105" t="s">
+        <v>703</v>
+      </c>
+      <c r="BU30" s="115" t="s">
+        <v>697</v>
+      </c>
+      <c r="BV30" s="161" t="s">
+        <v>698</v>
+      </c>
+      <c r="BW30" s="161" t="s">
+        <v>699</v>
+      </c>
+      <c r="BX30" s="115" t="s">
+        <v>1441</v>
+      </c>
+      <c r="BY30" s="115" t="s">
+        <v>1441</v>
+      </c>
+      <c r="BZ30" s="115" t="s">
+        <v>696</v>
+      </c>
     </row>
-    <row r="31" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="170"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -13399,16 +14637,38 @@
         <v>21</v>
       </c>
       <c r="BR31" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS31" s="105"/>
-      <c r="BT31" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS31" s="105">
+        <v>14</v>
+      </c>
+      <c r="BT31" s="105">
+        <v>8</v>
+      </c>
+      <c r="BU31" s="115">
+        <v>6</v>
+      </c>
+      <c r="BV31" s="161">
+        <v>77</v>
+      </c>
+      <c r="BW31" s="161">
+        <v>6</v>
+      </c>
+      <c r="BX31" s="115">
+        <v>7</v>
+      </c>
+      <c r="BY31" s="115">
+        <v>7</v>
+      </c>
+      <c r="BZ31" s="115">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="170"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -13486,7 +14746,7 @@
         <v>698</v>
       </c>
       <c r="AC32" s="66" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AD32" s="66" t="s">
         <v>851</v>
@@ -13609,16 +14869,38 @@
         <v>700</v>
       </c>
       <c r="BR32" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS32" s="105"/>
-      <c r="BT32" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS32" s="105" t="s">
+        <v>849</v>
+      </c>
+      <c r="BT32" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU32" s="115" t="s">
+        <v>703</v>
+      </c>
+      <c r="BV32" s="161" t="s">
+        <v>702</v>
+      </c>
+      <c r="BW32" s="161" t="s">
+        <v>700</v>
+      </c>
+      <c r="BX32" s="115" t="s">
+        <v>699</v>
+      </c>
+      <c r="BY32" s="115" t="s">
+        <v>699</v>
+      </c>
+      <c r="BZ32" s="115" t="s">
+        <v>1441</v>
+      </c>
     </row>
-    <row r="33" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="170"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -13819,16 +15101,38 @@
         <v>21</v>
       </c>
       <c r="BR33" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS33" s="105"/>
-      <c r="BT33" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS33" s="105">
+        <v>4</v>
+      </c>
+      <c r="BT33" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU33" s="115">
+        <v>8</v>
+      </c>
+      <c r="BV33" s="161">
+        <v>3</v>
+      </c>
+      <c r="BW33" s="161">
+        <v>6</v>
+      </c>
+      <c r="BX33" s="115">
+        <v>6</v>
+      </c>
+      <c r="BY33" s="115">
+        <v>6</v>
+      </c>
+      <c r="BZ33" s="115">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="170"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -13903,7 +15207,7 @@
         <v>702</v>
       </c>
       <c r="AB34" s="66" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AC34" s="66" t="s">
         <v>11</v>
@@ -14029,16 +15333,38 @@
         <v>698</v>
       </c>
       <c r="BR34" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS34" s="105"/>
-      <c r="BT34" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS34" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT34" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU34" s="115" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BV34" s="161" t="s">
+        <v>703</v>
+      </c>
+      <c r="BW34" s="161" t="s">
+        <v>698</v>
+      </c>
+      <c r="BX34" s="115" t="s">
+        <v>700</v>
+      </c>
+      <c r="BY34" s="115" t="s">
+        <v>700</v>
+      </c>
+      <c r="BZ34" s="115" t="s">
+        <v>699</v>
+      </c>
     </row>
-    <row r="35" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="170"/>
+      <c r="B35" s="181"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -14239,16 +15565,38 @@
         <v>2</v>
       </c>
       <c r="BR35" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS35" s="105"/>
-      <c r="BT35" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS35" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT35" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU35" s="115">
+        <v>78</v>
+      </c>
+      <c r="BV35" s="161">
+        <v>8</v>
+      </c>
+      <c r="BW35" s="161">
+        <v>2</v>
+      </c>
+      <c r="BX35" s="115">
+        <v>6</v>
+      </c>
+      <c r="BY35" s="115">
+        <v>6</v>
+      </c>
+      <c r="BZ35" s="115">
+        <v>6</v>
+      </c>
     </row>
-    <row r="36" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="170"/>
+      <c r="B36" s="181"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -14449,16 +15797,38 @@
         <v>702</v>
       </c>
       <c r="BR36" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS36" s="105"/>
-      <c r="BT36" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS36" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT36" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU36" s="115" t="s">
+        <v>702</v>
+      </c>
+      <c r="BV36" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW36" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX36" s="115" t="s">
+        <v>703</v>
+      </c>
+      <c r="BY36" s="115" t="s">
+        <v>703</v>
+      </c>
+      <c r="BZ36" s="115" t="s">
+        <v>700</v>
+      </c>
     </row>
-    <row r="37" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="170"/>
+      <c r="B37" s="181"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -14659,16 +16029,38 @@
         <v>14</v>
       </c>
       <c r="BR37" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS37" s="105"/>
-      <c r="BT37" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS37" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT37" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU37" s="115">
+        <v>3</v>
+      </c>
+      <c r="BV37" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW37" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX37" s="115">
+        <v>8</v>
+      </c>
+      <c r="BY37" s="115">
+        <v>8</v>
+      </c>
+      <c r="BZ37" s="115">
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="170"/>
+      <c r="B38" s="181"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -14869,16 +16261,38 @@
         <v>1034</v>
       </c>
       <c r="BR38" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS38" s="105"/>
-      <c r="BT38" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS38" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT38" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV38" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW38" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX38" s="115" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BY38" s="115" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BZ38" s="115" t="s">
+        <v>703</v>
+      </c>
     </row>
-    <row r="39" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="170"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -15079,16 +16493,38 @@
         <v>20</v>
       </c>
       <c r="BR39" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS39" s="105"/>
-      <c r="BT39" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS39" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT39" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV39" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW39" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX39" s="115">
+        <v>78</v>
+      </c>
+      <c r="BY39" s="115">
+        <v>78</v>
+      </c>
+      <c r="BZ39" s="115">
+        <v>8</v>
+      </c>
     </row>
-    <row r="40" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="170"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -15289,16 +16725,38 @@
         <v>11</v>
       </c>
       <c r="BR40" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS40" s="105"/>
-      <c r="BT40" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS40" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT40" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV40" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW40" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX40" s="115" t="s">
+        <v>702</v>
+      </c>
+      <c r="BY40" s="115" t="s">
+        <v>702</v>
+      </c>
+      <c r="BZ40" s="115" t="s">
+        <v>1442</v>
+      </c>
     </row>
-    <row r="41" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="170"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -15499,16 +16957,38 @@
         <v>11</v>
       </c>
       <c r="BR41" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS41" s="105"/>
-      <c r="BT41" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS41" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT41" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV41" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW41" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX41" s="115">
+        <v>3</v>
+      </c>
+      <c r="BY41" s="115">
+        <v>3</v>
+      </c>
+      <c r="BZ41" s="115">
+        <v>78</v>
+      </c>
     </row>
-    <row r="42" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="170"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -15709,16 +17189,38 @@
         <v>11</v>
       </c>
       <c r="BR42" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS42" s="105"/>
-      <c r="BT42" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS42" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT42" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV42" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW42" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ42" s="115" t="s">
+        <v>702</v>
+      </c>
     </row>
-    <row r="43" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="170"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -15919,16 +17421,38 @@
         <v>11</v>
       </c>
       <c r="BR43" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS43" s="105"/>
-      <c r="BT43" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS43" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT43" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV43" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW43" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ43" s="115">
+        <v>3</v>
+      </c>
     </row>
-    <row r="44" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="170"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -16129,16 +17653,38 @@
         <v>11</v>
       </c>
       <c r="BR44" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS44" s="105"/>
-      <c r="BT44" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS44" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT44" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV44" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW44" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ44" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="170"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -16339,16 +17885,38 @@
         <v>11</v>
       </c>
       <c r="BR45" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS45" s="105"/>
-      <c r="BT45" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS45" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT45" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV45" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW45" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ45" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="170"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -16549,16 +18117,38 @@
         <v>11</v>
       </c>
       <c r="BR46" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS46" s="105"/>
-      <c r="BT46" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS46" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT46" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV46" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW46" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ46" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="170"/>
+      <c r="B47" s="181"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -16759,16 +18349,38 @@
         <v>11</v>
       </c>
       <c r="BR47" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS47" s="105"/>
-      <c r="BT47" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS47" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT47" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV47" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW47" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ47" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="170"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -16969,16 +18581,38 @@
         <v>11</v>
       </c>
       <c r="BR48" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS48" s="105"/>
-      <c r="BT48" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS48" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT48" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV48" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW48" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ48" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:72" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="170"/>
+      <c r="B49" s="181"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -17179,16 +18813,38 @@
         <v>11</v>
       </c>
       <c r="BR49" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS49" s="105"/>
-      <c r="BT49" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="BS49" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT49" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV49" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW49" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ49" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="170"/>
+      <c r="B50" s="181"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -17265,10 +18921,10 @@
         <v>334</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AD50" s="2" t="s">
         <v>378</v>
@@ -17391,16 +19047,38 @@
         <v>1088</v>
       </c>
       <c r="BR50" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS50" s="105"/>
-      <c r="BT50" s="105"/>
+        <v>1398</v>
+      </c>
+      <c r="BS50" s="105" t="s">
+        <v>1414</v>
+      </c>
+      <c r="BT50" s="105" t="s">
+        <v>1428</v>
+      </c>
+      <c r="BU50" s="115" t="s">
+        <v>1443</v>
+      </c>
+      <c r="BV50" s="115" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BW50" s="115" t="s">
+        <v>1469</v>
+      </c>
+      <c r="BX50" s="115" t="s">
+        <v>1482</v>
+      </c>
+      <c r="BY50" s="115" t="s">
+        <v>1492</v>
+      </c>
+      <c r="BZ50" s="115" t="s">
+        <v>1499</v>
+      </c>
     </row>
-    <row r="51" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="170"/>
+      <c r="B51" s="181"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -17603,16 +19281,38 @@
         <v>1044</v>
       </c>
       <c r="BR51" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS51" s="105"/>
-      <c r="BT51" s="105"/>
+        <v>1399</v>
+      </c>
+      <c r="BS51" s="105" t="s">
+        <v>1415</v>
+      </c>
+      <c r="BT51" s="105" t="s">
+        <v>1429</v>
+      </c>
+      <c r="BU51" s="115" t="s">
+        <v>1444</v>
+      </c>
+      <c r="BV51" s="115" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BW51" s="115" t="s">
+        <v>1470</v>
+      </c>
+      <c r="BX51" s="115" t="s">
+        <v>1483</v>
+      </c>
+      <c r="BY51" s="115" t="s">
+        <v>1493</v>
+      </c>
+      <c r="BZ51" s="115" t="s">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="52" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="170"/>
+      <c r="B52" s="181"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -17815,16 +19515,38 @@
         <v>1045</v>
       </c>
       <c r="BR52" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS52" s="105"/>
-      <c r="BT52" s="105"/>
+        <v>1400</v>
+      </c>
+      <c r="BS52" s="105" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BT52" s="105" t="s">
+        <v>1430</v>
+      </c>
+      <c r="BU52" s="115" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BV52" s="115" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BW52" s="115" t="s">
+        <v>1471</v>
+      </c>
+      <c r="BX52" s="115" t="s">
+        <v>1484</v>
+      </c>
+      <c r="BY52" s="115" t="s">
+        <v>1494</v>
+      </c>
+      <c r="BZ52" s="115" t="s">
+        <v>1501</v>
+      </c>
     </row>
-    <row r="53" spans="1:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:78" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="171" t="s">
+      <c r="B53" s="182" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -18029,16 +19751,38 @@
         <v>861</v>
       </c>
       <c r="BR53" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS53" s="105"/>
-      <c r="BT53" s="105"/>
+        <v>206</v>
+      </c>
+      <c r="BS53" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT53" s="105" t="s">
+        <v>860</v>
+      </c>
+      <c r="BU53" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV53" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="BW53" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX53" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="BY53" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ53" s="157" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="54" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="171"/>
+      <c r="B54" s="182"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -18067,7 +19811,7 @@
         <v>858</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>858</v>
@@ -18103,13 +19847,13 @@
         <v>858</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AA54" s="2" t="s">
         <v>858</v>
@@ -18241,16 +19985,38 @@
         <v>1042</v>
       </c>
       <c r="BR54" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS54" s="105"/>
-      <c r="BT54" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="BS54" s="105" t="s">
+        <v>1417</v>
+      </c>
+      <c r="BT54" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW54" s="115" t="s">
+        <v>728</v>
+      </c>
+      <c r="BX54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="BZ54" s="115" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="55" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="171"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -18453,16 +20219,38 @@
         <v>1038</v>
       </c>
       <c r="BR55" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS55" s="105"/>
-      <c r="BT55" s="105"/>
+        <v>30</v>
+      </c>
+      <c r="BS55" s="105" t="s">
+        <v>1418</v>
+      </c>
+      <c r="BT55" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="BU55" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV55" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW55" s="115" t="s">
+        <v>1472</v>
+      </c>
+      <c r="BX55" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="BY55" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ55" s="115" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="56" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -18663,16 +20451,38 @@
         <v>1085</v>
       </c>
       <c r="BR56" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS56" s="105"/>
-      <c r="BT56" s="105"/>
+        <v>1401</v>
+      </c>
+      <c r="BS56" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT56" s="105" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BU56" s="158" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BV56" s="158" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BW56" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX56" s="158" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BY56" s="158" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BZ56" s="158" t="s">
+        <v>1446</v>
+      </c>
     </row>
-    <row r="57" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="171"/>
+      <c r="B57" s="182"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -18875,16 +20685,38 @@
         <v>1040</v>
       </c>
       <c r="BR57" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS57" s="105"/>
-      <c r="BT57" s="105"/>
+        <v>1402</v>
+      </c>
+      <c r="BS57" s="105" t="s">
+        <v>855</v>
+      </c>
+      <c r="BT57" s="105" t="s">
+        <v>1402</v>
+      </c>
+      <c r="BU57" s="115" t="s">
+        <v>855</v>
+      </c>
+      <c r="BV57" s="115" t="s">
+        <v>855</v>
+      </c>
+      <c r="BW57" s="115" t="s">
+        <v>1402</v>
+      </c>
+      <c r="BX57" s="115" t="s">
+        <v>855</v>
+      </c>
+      <c r="BY57" s="115" t="s">
+        <v>855</v>
+      </c>
+      <c r="BZ57" s="115" t="s">
+        <v>855</v>
+      </c>
     </row>
-    <row r="58" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="171"/>
+      <c r="B58" s="182"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -19085,16 +20917,38 @@
         <v>1086</v>
       </c>
       <c r="BR58" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS58" s="105"/>
-      <c r="BT58" s="105"/>
+        <v>1381</v>
+      </c>
+      <c r="BS58" s="105" t="s">
+        <v>1419</v>
+      </c>
+      <c r="BT58" s="105" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BU58" s="158" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BV58" s="158" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BW58" s="115" t="s">
+        <v>1473</v>
+      </c>
+      <c r="BX58" s="158" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BY58" s="158" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BZ58" s="158" t="s">
+        <v>1381</v>
+      </c>
     </row>
-    <row r="59" spans="1:72" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="171"/>
+      <c r="B59" s="182"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -19297,16 +21151,38 @@
         <v>1035</v>
       </c>
       <c r="BR59" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS59" s="105"/>
-      <c r="BT59" s="105"/>
+        <v>1401</v>
+      </c>
+      <c r="BS59" s="105" t="s">
+        <v>1419</v>
+      </c>
+      <c r="BT59" s="105" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BU59" s="158" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BV59" s="158" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BW59" s="115" t="s">
+        <v>1473</v>
+      </c>
+      <c r="BX59" s="158" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BY59" s="158" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BZ59" s="158" t="s">
+        <v>1381</v>
+      </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="171"/>
+      <c r="B60" s="182"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -19508,17 +21384,39 @@
       <c r="BQ60" s="37">
         <v>1</v>
       </c>
-      <c r="BR60" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS60" s="105"/>
-      <c r="BT60" s="105"/>
+      <c r="BR60" s="117">
+        <v>1</v>
+      </c>
+      <c r="BS60" s="105">
+        <v>1</v>
+      </c>
+      <c r="BT60" s="105">
+        <v>1</v>
+      </c>
+      <c r="BU60" s="65">
+        <v>1</v>
+      </c>
+      <c r="BV60" s="65">
+        <v>1</v>
+      </c>
+      <c r="BW60" s="65">
+        <v>1</v>
+      </c>
+      <c r="BX60" s="65">
+        <v>1</v>
+      </c>
+      <c r="BY60" s="65">
+        <v>1</v>
+      </c>
+      <c r="BZ60" s="65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:78" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="172" t="s">
+      <c r="B61" s="183" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -19720,17 +21618,39 @@
       <c r="BQ61" s="9">
         <v>43348</v>
       </c>
-      <c r="BR61" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS61" s="105"/>
-      <c r="BT61" s="105"/>
+      <c r="BR61" s="9">
+        <v>44871</v>
+      </c>
+      <c r="BS61" s="9">
+        <v>44870</v>
+      </c>
+      <c r="BT61" s="9">
+        <v>44871</v>
+      </c>
+      <c r="BU61" s="159" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BV61" s="159" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BW61" s="159">
+        <v>44871</v>
+      </c>
+      <c r="BX61" s="159" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BY61" s="159" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BZ61" s="159" t="s">
+        <v>1447</v>
+      </c>
     </row>
-    <row r="62" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="172"/>
+      <c r="B62" s="183"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -19932,17 +21852,39 @@
       <c r="BQ62" s="9">
         <v>43348</v>
       </c>
-      <c r="BR62" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS62" s="105"/>
-      <c r="BT62" s="105"/>
+      <c r="BR62" s="9">
+        <v>44871</v>
+      </c>
+      <c r="BS62" s="9">
+        <v>44870</v>
+      </c>
+      <c r="BT62" s="9">
+        <v>44871</v>
+      </c>
+      <c r="BU62" s="159" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BV62" s="159" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BW62" s="159">
+        <v>44871</v>
+      </c>
+      <c r="BX62" s="159" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BY62" s="159" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BZ62" s="159" t="s">
+        <v>1447</v>
+      </c>
     </row>
-    <row r="63" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="172"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -20145,16 +22087,38 @@
         <v>1090</v>
       </c>
       <c r="BR63" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS63" s="105"/>
-      <c r="BT63" s="105"/>
+        <v>30</v>
+      </c>
+      <c r="BS63" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT63" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="BU63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="BX63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="BY63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ63" s="115" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="64" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="172"/>
+      <c r="B64" s="183"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -20357,16 +22321,38 @@
         <v>1041</v>
       </c>
       <c r="BR64" s="117" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BS64" s="105"/>
-      <c r="BT64" s="105"/>
+        <v>112</v>
+      </c>
+      <c r="BS64" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT64" s="105" t="s">
+        <v>1431</v>
+      </c>
+      <c r="BU64" s="115" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BV64" s="115" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BW64" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX64" s="115" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BY64" s="115" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BZ64" s="115" t="s">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="65" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:105" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="172"/>
+      <c r="B65" s="183"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -20411,12 +22397,18 @@
       <c r="BR65" s="105"/>
       <c r="BS65" s="105"/>
       <c r="BT65" s="105"/>
+      <c r="BU65" s="158"/>
+      <c r="BV65" s="158"/>
+      <c r="BW65" s="158"/>
+      <c r="BX65" s="158"/>
+      <c r="BY65" s="158"/>
+      <c r="BZ65" s="158"/>
     </row>
-    <row r="66" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:105" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="172"/>
+      <c r="B66" s="183"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -20461,12 +22453,18 @@
       <c r="BR66" s="105"/>
       <c r="BS66" s="105"/>
       <c r="BT66" s="105"/>
+      <c r="BU66" s="158"/>
+      <c r="BV66" s="158"/>
+      <c r="BW66" s="158"/>
+      <c r="BX66" s="158"/>
+      <c r="BY66" s="158"/>
+      <c r="BZ66" s="158"/>
     </row>
-    <row r="67" spans="1:72" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:105" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="183"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -20513,12 +22511,18 @@
       <c r="BR67" s="105"/>
       <c r="BS67" s="105"/>
       <c r="BT67" s="105"/>
+      <c r="BU67" s="158"/>
+      <c r="BV67" s="158"/>
+      <c r="BW67" s="158"/>
+      <c r="BX67" s="158"/>
+      <c r="BY67" s="158"/>
+      <c r="BZ67" s="158"/>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="162" t="s">
+      <c r="B68" s="173" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -20540,15 +22544,23 @@
       <c r="BO68" s="105"/>
       <c r="BP68" s="105"/>
       <c r="BQ68" s="105"/>
-      <c r="BR68" s="105"/>
+      <c r="BR68" s="105" t="s">
+        <v>1403</v>
+      </c>
       <c r="BS68" s="105"/>
       <c r="BT68" s="105"/>
+      <c r="BU68" s="158"/>
+      <c r="BV68" s="158"/>
+      <c r="BW68" s="158"/>
+      <c r="BX68" s="158"/>
+      <c r="BY68" s="158"/>
+      <c r="BZ68" s="158"/>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="162"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -20570,12 +22582,18 @@
       <c r="BR69" s="105"/>
       <c r="BS69" s="105"/>
       <c r="BT69" s="105"/>
+      <c r="BU69" s="158"/>
+      <c r="BV69" s="158"/>
+      <c r="BW69" s="158"/>
+      <c r="BX69" s="158"/>
+      <c r="BY69" s="158"/>
+      <c r="BZ69" s="158"/>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="162"/>
+      <c r="B70" s="173"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -20596,12 +22614,18 @@
       <c r="BR70" s="105"/>
       <c r="BS70" s="105"/>
       <c r="BT70" s="105"/>
+      <c r="BU70" s="158"/>
+      <c r="BV70" s="158"/>
+      <c r="BW70" s="158"/>
+      <c r="BX70" s="158"/>
+      <c r="BY70" s="158"/>
+      <c r="BZ70" s="158"/>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="162"/>
+      <c r="B71" s="173"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -20622,12 +22646,18 @@
       <c r="BR71" s="105"/>
       <c r="BS71" s="105"/>
       <c r="BT71" s="105"/>
+      <c r="BU71" s="158"/>
+      <c r="BV71" s="158"/>
+      <c r="BW71" s="158"/>
+      <c r="BX71" s="158"/>
+      <c r="BY71" s="158"/>
+      <c r="BZ71" s="158"/>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="163"/>
+      <c r="B72" s="174"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -20648,8 +22678,14 @@
       <c r="BR72" s="105"/>
       <c r="BS72" s="105"/>
       <c r="BT72" s="105"/>
+      <c r="BU72" s="160"/>
+      <c r="BV72" s="160"/>
+      <c r="BW72" s="160"/>
+      <c r="BX72" s="160"/>
+      <c r="BY72" s="160"/>
+      <c r="BZ72" s="160"/>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:105" x14ac:dyDescent="0.35">
       <c r="U73" s="12"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="49"/>
@@ -20665,54 +22701,188 @@
       <c r="BR73" s="105"/>
       <c r="BS73" s="105"/>
       <c r="BT73" s="105"/>
+      <c r="BV73" s="90"/>
+      <c r="BW73" s="90"/>
+      <c r="BX73" s="90"/>
+      <c r="BY73" s="90"/>
+      <c r="BZ73" s="90"/>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
-      <c r="AF74" s="12"/>
-      <c r="AG74" s="12"/>
-      <c r="AH74" s="12"/>
-      <c r="AI74" s="12"/>
-      <c r="AJ74" s="12"/>
-      <c r="AK74" s="12"/>
-      <c r="AL74" s="12"/>
-      <c r="AM74" s="12"/>
-      <c r="AN74" s="12"/>
-      <c r="AO74" s="12"/>
-      <c r="AP74" s="12"/>
-      <c r="AQ74" s="12"/>
-      <c r="AR74" s="12"/>
-      <c r="AS74" s="12"/>
-      <c r="AT74" s="12"/>
-      <c r="AU74" s="12"/>
-      <c r="AV74" s="12"/>
-      <c r="AW74" s="12"/>
-      <c r="BA74" s="12"/>
-      <c r="BB74" s="12"/>
+    <row r="74" spans="1:105" x14ac:dyDescent="0.35">
+      <c r="A74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="105"/>
+      <c r="O74" s="105"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="105"/>
+      <c r="R74" s="105"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="105"/>
+      <c r="U74" s="105"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="105"/>
+      <c r="X74" s="105"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="105"/>
+      <c r="AA74" s="105"/>
+      <c r="AB74" s="37"/>
+      <c r="AC74" s="105"/>
+      <c r="AD74" s="105"/>
+      <c r="AE74" s="37"/>
+      <c r="AF74" s="105"/>
+      <c r="AG74" s="105"/>
+      <c r="AH74" s="37"/>
+      <c r="AI74" s="105"/>
+      <c r="AJ74" s="105"/>
+      <c r="AK74" s="37"/>
+      <c r="AL74" s="105"/>
+      <c r="AM74" s="105"/>
+      <c r="AN74" s="37"/>
+      <c r="AO74" s="105"/>
+      <c r="AP74" s="105"/>
+      <c r="AQ74" s="37"/>
+      <c r="AR74" s="105"/>
+      <c r="AS74" s="105"/>
+      <c r="AT74" s="37"/>
+      <c r="AU74" s="105"/>
+      <c r="AV74" s="105"/>
+      <c r="AW74" s="37"/>
+      <c r="AX74" s="105"/>
+      <c r="AY74" s="105"/>
+      <c r="AZ74" s="37"/>
+      <c r="BA74" s="105"/>
+      <c r="BB74" s="105"/>
+      <c r="BC74" s="37"/>
+      <c r="BD74" s="105"/>
+      <c r="BE74" s="105"/>
+      <c r="BF74" s="37"/>
+      <c r="BG74" s="105"/>
+      <c r="BH74" s="105"/>
+      <c r="BI74" s="37"/>
+      <c r="BJ74" s="105"/>
+      <c r="BK74" s="105"/>
+      <c r="BL74" s="37"/>
+      <c r="BM74" s="105"/>
+      <c r="BN74" s="105"/>
+      <c r="BO74" s="37"/>
+      <c r="BP74" s="105"/>
+      <c r="BQ74" s="105"/>
+      <c r="BR74" s="37">
+        <v>65</v>
+      </c>
+      <c r="BS74" s="105">
+        <v>66</v>
+      </c>
+      <c r="BT74" s="105">
+        <v>67</v>
+      </c>
+      <c r="BU74" s="37">
+        <v>68</v>
+      </c>
+      <c r="BV74" s="37">
+        <v>69</v>
+      </c>
+      <c r="BW74" s="105">
+        <v>70</v>
+      </c>
+      <c r="BX74" s="37">
+        <v>71</v>
+      </c>
+      <c r="BY74" s="105">
+        <v>72</v>
+      </c>
+      <c r="BZ74" s="105">
+        <v>73</v>
+      </c>
+      <c r="CA74" s="37">
+        <v>74</v>
+      </c>
+      <c r="CB74" s="105">
+        <v>75</v>
+      </c>
+      <c r="CC74" s="105">
+        <v>76</v>
+      </c>
+      <c r="CD74" s="37">
+        <v>77</v>
+      </c>
+      <c r="CE74" s="105">
+        <v>78</v>
+      </c>
+      <c r="CF74" s="105">
+        <v>79</v>
+      </c>
+      <c r="CG74" s="37">
+        <v>80</v>
+      </c>
+      <c r="CH74" s="105">
+        <v>81</v>
+      </c>
+      <c r="CI74" s="105">
+        <v>82</v>
+      </c>
+      <c r="CJ74" s="37">
+        <v>83</v>
+      </c>
+      <c r="CK74" s="105">
+        <v>84</v>
+      </c>
+      <c r="CL74" s="105">
+        <v>85</v>
+      </c>
+      <c r="CM74" s="37">
+        <v>86</v>
+      </c>
+      <c r="CN74" s="105">
+        <v>87</v>
+      </c>
+      <c r="CO74" s="105">
+        <v>88</v>
+      </c>
+      <c r="CP74" s="37">
+        <v>89</v>
+      </c>
+      <c r="CQ74" s="37">
+        <v>90</v>
+      </c>
+      <c r="CR74" s="105">
+        <v>91</v>
+      </c>
+      <c r="CS74" s="105">
+        <v>92</v>
+      </c>
+      <c r="CT74" s="37">
+        <v>93</v>
+      </c>
+      <c r="CU74" s="105">
+        <v>94</v>
+      </c>
+      <c r="CV74" s="105">
+        <v>95</v>
+      </c>
+      <c r="CW74" s="37">
+        <v>96</v>
+      </c>
+      <c r="CX74" s="105">
+        <v>97</v>
+      </c>
+      <c r="CY74" s="105">
+        <v>98</v>
+      </c>
+      <c r="CZ74" s="37">
+        <v>99</v>
+      </c>
+      <c r="DA74" s="105">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21083,7 +23253,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="175" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -21252,7 +23422,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="165"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -21584,7 +23754,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="177" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -21751,7 +23921,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="166"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -21918,7 +24088,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="166"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -22085,7 +24255,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="166"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -22252,7 +24422,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="178" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -22419,7 +24589,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="168"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -22584,7 +24754,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="168"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -22749,7 +24919,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="168"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -22914,7 +25084,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="168"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -23079,7 +25249,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="168"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -23244,7 +25414,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="168"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -23409,7 +25579,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="168"/>
+      <c r="B18" s="179"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -23574,7 +25744,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="168"/>
+      <c r="B19" s="179"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -23739,7 +25909,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="168"/>
+      <c r="B20" s="179"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -23904,7 +26074,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="180" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -24112,7 +26282,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="169"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -24320,7 +26490,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="169"/>
+      <c r="B23" s="180"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -24487,7 +26657,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="169"/>
+      <c r="B24" s="180"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -24654,7 +26824,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="169"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -24819,7 +26989,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="181" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -24988,7 +27158,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="170"/>
+      <c r="B27" s="181"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -25155,7 +27325,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="170"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -25320,7 +27490,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="170"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -25485,7 +27655,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="170"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -25650,7 +27820,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="170"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -25815,7 +27985,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="170"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -25980,7 +28150,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="170"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -26145,7 +28315,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="170"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -26310,7 +28480,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="170"/>
+      <c r="B35" s="181"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -26475,7 +28645,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="170"/>
+      <c r="B36" s="181"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -26640,7 +28810,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="170"/>
+      <c r="B37" s="181"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -26805,7 +28975,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="170"/>
+      <c r="B38" s="181"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -26970,7 +29140,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="170"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -27135,7 +29305,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="170"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -27300,7 +29470,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="170"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -27465,7 +29635,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="170"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -27630,7 +29800,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="170"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -27795,7 +29965,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="170"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -27960,7 +30130,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="170"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -28125,7 +30295,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="170"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -28290,7 +30460,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="170"/>
+      <c r="B47" s="181"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -28455,7 +30625,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="170"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -28620,7 +30790,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="170"/>
+      <c r="B49" s="181"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -28785,7 +30955,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="170"/>
+      <c r="B50" s="181"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -28952,7 +31122,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="170"/>
+      <c r="B51" s="181"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -29119,7 +31289,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="170"/>
+      <c r="B52" s="181"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -29286,7 +31456,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="171" t="s">
+      <c r="B53" s="182" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -29455,7 +31625,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="171"/>
+      <c r="B54" s="182"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -29622,7 +31792,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="171"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -29789,7 +31959,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="171"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -29954,7 +32124,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="171"/>
+      <c r="B57" s="182"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -30121,7 +32291,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B58" s="171"/>
+      <c r="B58" s="182"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -30286,7 +32456,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="171"/>
+      <c r="B59" s="182"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -30453,7 +32623,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B60" s="171"/>
+      <c r="B60" s="182"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -30620,7 +32790,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="172" t="s">
+      <c r="B61" s="183" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -30787,7 +32957,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="172"/>
+      <c r="B62" s="183"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -30954,7 +33124,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="172"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -31121,7 +33291,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="172"/>
+      <c r="B64" s="183"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -31288,7 +33458,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="172"/>
+      <c r="B65" s="183"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -31305,7 +33475,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="172"/>
+      <c r="B66" s="183"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -31324,7 +33494,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="172"/>
+      <c r="B67" s="183"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -31343,7 +33513,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B68" s="162" t="s">
+      <c r="B68" s="173" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -31353,7 +33523,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B69" s="162"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -31361,7 +33531,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="162"/>
+      <c r="B70" s="173"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -31369,7 +33539,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="162"/>
+      <c r="B71" s="173"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -31381,7 +33551,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B72" s="163"/>
+      <c r="B72" s="174"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -31759,7 +33929,7 @@
   <dimension ref="B1:AA72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
@@ -31891,77 +34061,77 @@
         <v>182</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F3" s="36" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>1169</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="36" t="s">
         <v>1170</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="36" t="s">
         <v>1171</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="J3" s="36" t="s">
         <v>1172</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="K3" s="36" t="s">
         <v>1173</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>1174</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>1175</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>1176</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="O3" s="36" t="s">
         <v>1177</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="P3" s="36" t="s">
         <v>1178</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="Q3" s="36" t="s">
         <v>1179</v>
       </c>
-      <c r="Q3" s="36" t="s">
-        <v>1180</v>
-      </c>
       <c r="R3" s="36" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="S3" s="36" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="T3" s="36" t="s">
+        <v>1244</v>
+      </c>
+      <c r="U3" s="36" t="s">
         <v>1245</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="V3" s="36" t="s">
         <v>1246</v>
       </c>
-      <c r="V3" s="36" t="s">
+      <c r="W3" s="36" t="s">
         <v>1247</v>
       </c>
-      <c r="W3" s="36" t="s">
+      <c r="X3" s="36" t="s">
         <v>1248</v>
       </c>
-      <c r="X3" s="36" t="s">
-        <v>1249</v>
-      </c>
       <c r="Y3" s="36" t="s">
+        <v>1348</v>
+      </c>
+      <c r="Z3" s="36" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AA3" s="36" t="s">
         <v>1349</v>
-      </c>
-      <c r="Z3" s="36" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AA3" s="36" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="175" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -32041,7 +34211,7 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="165"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -32049,73 +34219,73 @@
         <v>442</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>1339</v>
-      </c>
       <c r="AA5" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
@@ -32125,77 +34295,77 @@
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="177" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -32273,7 +34443,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="166"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -32351,7 +34521,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="166"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -32422,14 +34592,14 @@
         <v>187</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="10" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="166"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -32476,7 +34646,7 @@
         <v>12</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>12</v>
@@ -32497,17 +34667,17 @@
         <v>12</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="178" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -32585,387 +34755,387 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="168"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="13" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="168"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="168"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="15" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="168"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>1196</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>1217</v>
-      </c>
       <c r="O15" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>1231</v>
-      </c>
       <c r="Q15" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>122</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="X15" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Z15" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="Y15" s="2" t="s">
-        <v>1342</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>1361</v>
-      </c>
       <c r="AA15" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="168"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>1196</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>1217</v>
-      </c>
       <c r="O16" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>1231</v>
-      </c>
       <c r="Q16" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>122</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="X16" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Z16" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="Y16" s="2" t="s">
-        <v>1342</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>1361</v>
-      </c>
       <c r="AA16" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="17" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="168"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -32974,7 +35144,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>19</v>
@@ -33041,235 +35211,235 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="168"/>
+      <c r="B18" s="179"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>1238</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="19" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="168"/>
+      <c r="B19" s="179"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G19" s="2">
         <v>2000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J19" s="2">
         <v>2000</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="N19" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>1223</v>
-      </c>
       <c r="P19" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>86</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Y19" s="2">
         <v>2000</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AA19" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="20" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="168"/>
+      <c r="B20" s="179"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="21" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="180" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -33277,77 +35447,77 @@
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="W21" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>1257</v>
-      </c>
       <c r="Y21" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="22" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="169"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -33355,77 +35525,77 @@
         <v>442</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>1192</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M22" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>1220</v>
-      </c>
       <c r="O22" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>1228</v>
-      </c>
       <c r="Q22" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Z22" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>1347</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>1259</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>1262</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>1363</v>
-      </c>
       <c r="AA22" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="23" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="169"/>
+      <c r="B23" s="180"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -33503,7 +35673,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B24" s="169"/>
+      <c r="B24" s="180"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -33581,83 +35751,83 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="169"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>1181</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>1182</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I25" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>1199</v>
-      </c>
       <c r="L25" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M25" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>1214</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>1215</v>
-      </c>
       <c r="O25" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="P25" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="P25" s="6" t="s">
-        <v>1225</v>
-      </c>
       <c r="Q25" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="Z25" s="6" t="s">
         <v>1357</v>
       </c>
-      <c r="R25" s="6" t="s">
-        <v>1348</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>1181</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>1184</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>1197</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>1199</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>1258</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>1348</v>
-      </c>
-      <c r="Z25" s="6" t="s">
-        <v>1358</v>
-      </c>
       <c r="AA25" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="26" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="181" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -33737,7 +35907,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="170"/>
+      <c r="B27" s="181"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -33815,7 +35985,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="170"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -33891,7 +36061,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="170"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -33967,7 +36137,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="170"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -34043,7 +36213,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="170"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -34119,7 +36289,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="170"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -34195,7 +36365,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="170"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -34271,7 +36441,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="170"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -34347,7 +36517,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="170"/>
+      <c r="B35" s="181"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -34423,7 +36593,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="170"/>
+      <c r="B36" s="181"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -34499,7 +36669,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="170"/>
+      <c r="B37" s="181"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -34575,7 +36745,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="170"/>
+      <c r="B38" s="181"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -34651,7 +36821,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="170"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -34727,7 +36897,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="170"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -34803,7 +36973,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="170"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -34879,7 +37049,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="170"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -34955,7 +37125,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="170"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -35031,7 +37201,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="170"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -35107,7 +37277,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="170"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -35183,7 +37353,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="170"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -35259,7 +37429,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="170"/>
+      <c r="B47" s="181"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -35335,7 +37505,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="170"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -35411,7 +37581,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="170"/>
+      <c r="B49" s="181"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -35487,7 +37657,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="170"/>
+      <c r="B50" s="181"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -35495,77 +37665,77 @@
         <v>442</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="51" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="170"/>
+      <c r="B51" s="181"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -35573,77 +37743,77 @@
         <v>442</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="52" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="170"/>
+      <c r="B52" s="181"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -35651,77 +37821,77 @@
         <v>442</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B53" s="171" t="s">
+      <c r="B53" s="182" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -35801,7 +37971,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="171"/>
+      <c r="B54" s="182"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -35879,7 +38049,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="171"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -35887,153 +38057,153 @@
         <v>442</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="T55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="X55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Y55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Z55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AA55" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="56" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="171"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Z56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AA56" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="57" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="171"/>
+      <c r="B57" s="182"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -36041,153 +38211,153 @@
         <v>442</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B58" s="171"/>
+      <c r="B58" s="182"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="K58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="L58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="M58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="N58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="O58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Q58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="R58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="S58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="U58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="W58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="X58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Y58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Z58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AA58" s="90" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="59" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="171"/>
+      <c r="B59" s="182"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -36195,77 +38365,77 @@
         <v>442</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Z59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AA59" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B60" s="171"/>
+      <c r="B60" s="182"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -36343,7 +38513,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="172" t="s">
+      <c r="B61" s="183" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -36421,7 +38591,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="172"/>
+      <c r="B62" s="183"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -36499,7 +38669,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="172"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -36577,7 +38747,7 @@
       </c>
     </row>
     <row r="64" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="172"/>
+      <c r="B64" s="183"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -36585,77 +38755,77 @@
         <v>442</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="65" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="172"/>
+      <c r="B65" s="183"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -36685,7 +38855,7 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="172"/>
+      <c r="B66" s="183"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -36715,7 +38885,7 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="172"/>
+      <c r="B67" s="183"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -36745,7 +38915,7 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B68" s="162" t="s">
+      <c r="B68" s="173" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -36766,7 +38936,7 @@
       <c r="Q68" s="105"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B69" s="162"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -36785,7 +38955,7 @@
       <c r="Q69" s="105"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B70" s="162"/>
+      <c r="B70" s="173"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -36804,7 +38974,7 @@
       <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B71" s="162"/>
+      <c r="B71" s="173"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -36823,7 +38993,7 @@
       <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B72" s="163"/>
+      <c r="B72" s="174"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8130" uniqueCount="1543">
   <si>
     <t>Description</t>
   </si>
@@ -4327,9 +4327,6 @@
     <t>upload complete</t>
   </si>
   <si>
-    <t>tbd.</t>
-  </si>
-  <si>
     <t>2_IUS_ResidentlBldngs_RECCv2.4</t>
   </si>
   <si>
@@ -4535,6 +4532,126 @@
   </si>
   <si>
     <t>RECC_SysDef_Model_v2_5.png</t>
+  </si>
+  <si>
+    <t>Our World in Data</t>
+  </si>
+  <si>
+    <t>Our World in Data (OWID) is a scientific online publication that focuses on large global problems such as poverty, disease, hunger, climate change, war, existential risks, and inequality.</t>
+  </si>
+  <si>
+    <t>OWID</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/</t>
+  </si>
+  <si>
+    <t>OWID = Our World in Data</t>
+  </si>
+  <si>
+    <t>energy; economics; poverty; disease; hunger; climate change; war; existential risks; inequality;</t>
+  </si>
+  <si>
+    <t>OWID_Energy</t>
+  </si>
+  <si>
+    <t>EUROSTAT_CE_Indicators</t>
+  </si>
+  <si>
+    <t>EUROSTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ec.europa.eu/eurostat/web/main/data/database </t>
+  </si>
+  <si>
+    <t>Eurostat ('European Statistical Office'; DG ESTAT) is the main provider of statistical information to the institutions of the European Union (EU).</t>
+  </si>
+  <si>
+    <t>EU; statistics;</t>
+  </si>
+  <si>
+    <t>Eurostat = 'European Statistical Office'</t>
+  </si>
+  <si>
+    <t>one aggregate process/supply chain</t>
+  </si>
+  <si>
+    <t>225 countries</t>
+  </si>
+  <si>
+    <t>2000-2022</t>
+  </si>
+  <si>
+    <t>flows, stocks, shares, env. indicators</t>
+  </si>
+  <si>
+    <t>energy, mass, capacity, shares</t>
+  </si>
+  <si>
+    <t>energy flows, capacity stocks, market shares, env. indicators</t>
+  </si>
+  <si>
+    <t>Energy system</t>
+  </si>
+  <si>
+    <t>Electricity, primary energy</t>
+  </si>
+  <si>
+    <t>different resolution levels, from aggregate to specific technology</t>
+  </si>
+  <si>
+    <t>OWID energy statistics</t>
+  </si>
+  <si>
+    <t>energy; electricity; renewables; capacity;</t>
+  </si>
+  <si>
+    <t>Hannah Ritchie, Max Roser and Pablo Rosado</t>
+  </si>
+  <si>
+    <t>Hannah Ritchie, Max Roser and Pablo Rosado (2022) - "Energy". Published online at OurWorldInData.org. Retrieved from: 'https://ourworldindata.org/energy' [Online Resource]</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/energy</t>
+  </si>
+  <si>
+    <t>all EU member states, EFTA, UK, and membership candidates</t>
+  </si>
+  <si>
+    <t>EU, Europe</t>
+  </si>
+  <si>
+    <t>per capita flows, trade flows, recycling rates and shares</t>
+  </si>
+  <si>
+    <t>flows, shares, general ratios</t>
+  </si>
+  <si>
+    <t>aggregate economy, municipal sources of waste, households</t>
+  </si>
+  <si>
+    <t>waste, total, packaging, plastic packaging</t>
+  </si>
+  <si>
+    <t>waste materials</t>
+  </si>
+  <si>
+    <t>EUROSTAT key circular economy indicators (selected)</t>
+  </si>
+  <si>
+    <t>waste; circular economy; EUROSTAT; packaging waste; municipal waste; plastic waste;</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/web/circular-economy/database</t>
+  </si>
+  <si>
+    <t>Eurostat Circular Economy Database</t>
+  </si>
+  <si>
+    <t>© European Union</t>
+  </si>
+  <si>
+    <t>entire industry, waste management</t>
   </si>
 </sst>
 </file>
@@ -4657,7 +4774,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4715,12 +4832,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4913,7 +5024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5171,8 +5282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5184,6 +5294,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5540,7 +5656,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5549,6 +5665,7 @@
     <col min="4" max="4" width="33" style="51" customWidth="1"/>
     <col min="5" max="5" width="61" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="13.15" x14ac:dyDescent="0.4">
@@ -5575,11 +5692,15 @@
       <c r="G3" s="39" t="s">
         <v>1365</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="161" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I3" s="161" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="170" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5597,9 +5718,15 @@
       <c r="G4" s="57">
         <v>3</v>
       </c>
+      <c r="H4" s="57">
+        <v>4</v>
+      </c>
+      <c r="I4" s="57">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="165"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -5615,9 +5742,15 @@
       <c r="G5" s="119" t="s">
         <v>1365</v>
       </c>
+      <c r="H5" s="119" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I5" s="119" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="6" spans="2:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="171" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -5627,9 +5760,11 @@
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="166"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -5637,9 +5772,11 @@
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="166"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -5647,9 +5784,11 @@
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="166"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -5657,9 +5796,11 @@
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="166"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -5667,9 +5808,11 @@
       <c r="E10" s="52"/>
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="166"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -5677,9 +5820,11 @@
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="166"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -5687,9 +5832,11 @@
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="166"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -5697,9 +5844,11 @@
       <c r="E13" s="52"/>
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="166"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -5707,9 +5856,11 @@
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="166"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -5717,9 +5868,11 @@
       <c r="E15" s="52"/>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="166"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -5727,9 +5880,11 @@
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="166"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="171"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -5737,9 +5892,11 @@
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="166"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="171"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -5747,9 +5904,11 @@
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="167" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="172" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -5763,9 +5922,15 @@
       <c r="G19" s="119" t="s">
         <v>1369</v>
       </c>
+      <c r="H19" s="119" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I19" s="119" t="s">
+        <v>1513</v>
+      </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="167"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="172"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -5781,9 +5946,15 @@
       <c r="G20" s="119" t="s">
         <v>1366</v>
       </c>
+      <c r="H20" s="119" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I20" s="119" t="s">
+        <v>1514</v>
+      </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="167"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="172"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -5795,9 +5966,15 @@
       <c r="G21" s="119" t="s">
         <v>1368</v>
       </c>
+      <c r="H21" s="119" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I21" s="119" t="s">
+        <v>1515</v>
+      </c>
     </row>
-    <row r="22" spans="2:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="168" t="s">
+    <row r="22" spans="2:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="173" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -5813,9 +5990,15 @@
       <c r="G22" s="52" t="s">
         <v>860</v>
       </c>
+      <c r="H22" s="119" t="s">
+        <v>861</v>
+      </c>
+      <c r="I22" s="119" t="s">
+        <v>861</v>
+      </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="168"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="173"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -5823,9 +6006,11 @@
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="168"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="173"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -5833,9 +6018,11 @@
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="168"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="173"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -5847,9 +6034,15 @@
       <c r="G25" s="90" t="s">
         <v>1367</v>
       </c>
+      <c r="H25" s="90" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I25" s="90" t="s">
+        <v>1512</v>
+      </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="168"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="173"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -5859,9 +6052,11 @@
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="168"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="173"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -5869,9 +6064,11 @@
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
     </row>
-    <row r="28" spans="2:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="169" t="s">
+    <row r="28" spans="2:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="174" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -5889,9 +6086,15 @@
       <c r="G28" s="123">
         <v>44404</v>
       </c>
+      <c r="H28" s="123">
+        <v>45144</v>
+      </c>
+      <c r="I28" s="123">
+        <v>45144</v>
+      </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="169"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="174"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -5907,9 +6110,15 @@
       <c r="G29" s="124" t="s">
         <v>30</v>
       </c>
+      <c r="H29" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="124" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="162" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="167" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -5919,9 +6128,11 @@
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="163"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="168"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -5929,9 +6140,11 @@
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="164"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="169"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -5939,6 +6152,8 @@
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5955,13 +6170,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R39"/>
+  <dimension ref="B2:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5979,16 +6194,18 @@
     <col min="16" max="16" width="38.6640625" customWidth="1"/>
     <col min="17" max="17" width="37.19921875" customWidth="1"/>
     <col min="18" max="18" width="39.265625" customWidth="1"/>
+    <col min="19" max="19" width="37.3984375" customWidth="1"/>
+    <col min="20" max="20" width="34.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>184</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="32"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -6038,9 +6255,15 @@
       <c r="R3" s="82" t="s">
         <v>1384</v>
       </c>
+      <c r="S3" s="163" t="s">
+        <v>1509</v>
+      </c>
+      <c r="T3" s="163" t="s">
+        <v>1510</v>
+      </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="170" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="175" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -6091,9 +6314,15 @@
       <c r="R4" s="141">
         <v>14</v>
       </c>
+      <c r="S4" s="141">
+        <v>15</v>
+      </c>
+      <c r="T4" s="141">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="171"/>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B5" s="176"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -6142,8 +6371,14 @@
       <c r="R5" s="29" t="s">
         <v>1384</v>
       </c>
+      <c r="S5" s="164" t="s">
+        <v>1509</v>
+      </c>
+      <c r="T5" s="164" t="s">
+        <v>1510</v>
+      </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="33"/>
       <c r="C6" s="54" t="s">
         <v>453</v>
@@ -6191,8 +6426,14 @@
       <c r="R6" s="29" t="s">
         <v>1150</v>
       </c>
+      <c r="S6" s="164" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T6" s="164" t="s">
+        <v>1150</v>
+      </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
@@ -6242,9 +6483,15 @@
       <c r="R7" s="29" t="s">
         <v>1365</v>
       </c>
+      <c r="S7" s="40" t="s">
+        <v>1505</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>1511</v>
+      </c>
     </row>
-    <row r="8" spans="2:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="166" t="s">
+    <row r="8" spans="2:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="171" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -6293,9 +6540,15 @@
       <c r="R8" s="29" t="s">
         <v>1370</v>
       </c>
+      <c r="S8" s="40" t="s">
+        <v>1519</v>
+      </c>
+      <c r="T8" s="164" t="s">
+        <v>1533</v>
+      </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="166"/>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="171"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -6342,9 +6595,15 @@
       <c r="R9" s="29" t="s">
         <v>1370</v>
       </c>
+      <c r="S9" s="40" t="s">
+        <v>1521</v>
+      </c>
+      <c r="T9" s="164" t="s">
+        <v>1532</v>
+      </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="166"/>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="171"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -6391,9 +6650,15 @@
       <c r="R10" s="29" t="s">
         <v>1013</v>
       </c>
+      <c r="S10" s="40" t="s">
+        <v>1520</v>
+      </c>
+      <c r="T10" s="164" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="11" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="166"/>
+    <row r="11" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="171"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -6440,9 +6705,15 @@
       <c r="R11" s="29" t="s">
         <v>1371</v>
       </c>
+      <c r="S11" s="40" t="s">
+        <v>1522</v>
+      </c>
+      <c r="T11" s="164" t="s">
+        <v>1542</v>
+      </c>
     </row>
-    <row r="12" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="166"/>
+    <row r="12" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="171"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -6489,9 +6760,15 @@
       <c r="R12" s="29" t="s">
         <v>1372</v>
       </c>
+      <c r="S12" s="164" t="s">
+        <v>1516</v>
+      </c>
+      <c r="T12" s="164" t="s">
+        <v>1534</v>
+      </c>
     </row>
-    <row r="13" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="166"/>
+    <row r="13" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="171"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -6538,9 +6815,15 @@
       <c r="R13" s="29" t="s">
         <v>1383</v>
       </c>
+      <c r="S13" s="40" t="s">
+        <v>1523</v>
+      </c>
+      <c r="T13" s="164" t="s">
+        <v>1094</v>
+      </c>
     </row>
-    <row r="14" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="166"/>
+    <row r="14" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="171"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -6587,9 +6870,15 @@
       <c r="R14" s="29" t="s">
         <v>1374</v>
       </c>
+      <c r="S14" s="40" t="s">
+        <v>1524</v>
+      </c>
+      <c r="T14" s="164" t="s">
+        <v>1535</v>
+      </c>
     </row>
-    <row r="15" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="166"/>
+    <row r="15" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="171"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -6636,9 +6925,15 @@
       <c r="R15" s="29" t="s">
         <v>1376</v>
       </c>
+      <c r="S15" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="164" t="s">
+        <v>1536</v>
+      </c>
     </row>
-    <row r="16" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="166"/>
+    <row r="16" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="171"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -6685,9 +6980,15 @@
       <c r="R16" s="29" t="s">
         <v>1375</v>
       </c>
+      <c r="S16" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="164" t="s">
+        <v>1535</v>
+      </c>
     </row>
-    <row r="17" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="166"/>
+    <row r="17" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="171"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -6734,9 +7035,15 @@
       <c r="R17" s="29" t="s">
         <v>19</v>
       </c>
+      <c r="S17" s="164" t="s">
+        <v>819</v>
+      </c>
+      <c r="T17" s="164" t="s">
+        <v>1531</v>
+      </c>
     </row>
-    <row r="18" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="166"/>
+    <row r="18" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="171"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -6783,9 +7090,15 @@
       <c r="R18" s="29" t="s">
         <v>1385</v>
       </c>
+      <c r="S18" s="164" t="s">
+        <v>1517</v>
+      </c>
+      <c r="T18" s="164" t="s">
+        <v>1530</v>
+      </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B19" s="166"/>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B19" s="171"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -6832,9 +7145,15 @@
       <c r="R19" s="29" t="s">
         <v>1378</v>
       </c>
+      <c r="S19" s="164" t="s">
+        <v>1518</v>
+      </c>
+      <c r="T19" s="164" t="s">
+        <v>1518</v>
+      </c>
     </row>
-    <row r="20" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="166"/>
+    <row r="20" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="171"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -6881,9 +7200,15 @@
       <c r="R20" s="29" t="s">
         <v>1278</v>
       </c>
+      <c r="S20" s="29" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T20" s="164" t="s">
+        <v>1278</v>
+      </c>
     </row>
-    <row r="21" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="167" t="s">
+    <row r="21" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="172" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -6932,9 +7257,15 @@
       <c r="R21" s="29" t="s">
         <v>1379</v>
       </c>
+      <c r="S21" s="40" t="s">
+        <v>1525</v>
+      </c>
+      <c r="T21" s="164" t="s">
+        <v>1537</v>
+      </c>
     </row>
-    <row r="22" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="167"/>
+    <row r="22" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="172"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -6983,9 +7314,15 @@
       <c r="R22" s="29" t="s">
         <v>1380</v>
       </c>
+      <c r="S22" s="40" t="s">
+        <v>1526</v>
+      </c>
+      <c r="T22" s="164" t="s">
+        <v>1538</v>
+      </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B23" s="167"/>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B23" s="172"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
@@ -7024,17 +7361,23 @@
         <v>1271</v>
       </c>
       <c r="P23" s="146" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Q23" s="162" t="s">
         <v>1502</v>
-      </c>
-      <c r="Q23" s="24" t="s">
-        <v>1503</v>
       </c>
       <c r="R23" s="154" t="s">
         <v>1388</v>
       </c>
+      <c r="S23" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="T23" s="164" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="24" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="167"/>
+    <row r="24" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="172"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -7081,9 +7424,15 @@
       <c r="R24" s="29" t="s">
         <v>11</v>
       </c>
+      <c r="S24" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="T24" s="164" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="25" spans="2:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="168" t="s">
+    <row r="25" spans="2:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="173" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -7132,9 +7481,15 @@
       <c r="R25" s="29" t="s">
         <v>860</v>
       </c>
+      <c r="S25" s="40" t="s">
+        <v>861</v>
+      </c>
+      <c r="T25" s="40" t="s">
+        <v>861</v>
+      </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B26" s="168"/>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B26" s="173"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -7181,9 +7536,15 @@
       <c r="R26" s="29" t="s">
         <v>857</v>
       </c>
+      <c r="S26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="164" t="s">
+        <v>1541</v>
+      </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B27" s="168"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B27" s="173"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -7230,9 +7591,15 @@
       <c r="R27" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="S27" s="40" t="s">
+        <v>1527</v>
+      </c>
+      <c r="T27" s="164" t="s">
+        <v>1511</v>
+      </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B28" s="168"/>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B28" s="173"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -7279,9 +7646,15 @@
       <c r="R28" s="154" t="s">
         <v>1388</v>
       </c>
+      <c r="S28" s="90" t="s">
+        <v>1529</v>
+      </c>
+      <c r="T28" s="90" t="s">
+        <v>1539</v>
+      </c>
     </row>
-    <row r="29" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="168"/>
+    <row r="29" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="173"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -7328,9 +7701,15 @@
       <c r="R29" s="154" t="s">
         <v>1388</v>
       </c>
+      <c r="S29" s="90" t="s">
+        <v>1529</v>
+      </c>
+      <c r="T29" s="62" t="s">
+        <v>1539</v>
+      </c>
     </row>
-    <row r="30" spans="2:18" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="168"/>
+    <row r="30" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="173"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -7377,9 +7756,15 @@
       <c r="R30" s="154" t="s">
         <v>1388</v>
       </c>
+      <c r="S30" s="62" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T30" s="62" t="s">
+        <v>1540</v>
+      </c>
     </row>
-    <row r="31" spans="2:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="169" t="s">
+    <row r="31" spans="2:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="174" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -7430,9 +7815,15 @@
       <c r="R31" s="142">
         <v>44871</v>
       </c>
+      <c r="S31" s="165">
+        <v>45144</v>
+      </c>
+      <c r="T31" s="165">
+        <v>45164</v>
+      </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B32" s="172"/>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B32" s="177"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -7481,9 +7872,15 @@
       <c r="R32" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="S32" s="164" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="164" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B33" s="162" t="s">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B33" s="167" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -7504,9 +7901,11 @@
       <c r="P33" s="146"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="29"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B34" s="163"/>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B34" s="168"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -7525,9 +7924,11 @@
       <c r="P34" s="146"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="29"/>
+      <c r="S34" s="164"/>
+      <c r="T34" s="164"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B35" s="164"/>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B35" s="169"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -7546,8 +7947,10 @@
       <c r="P35" s="151"/>
       <c r="Q35" s="152"/>
       <c r="R35" s="30"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="166"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I39" s="12"/>
     </row>
   </sheetData>
@@ -7571,10 +7974,10 @@
   <dimension ref="A1:DA74"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="BK6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="BM6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BR7" sqref="BR7"/>
+      <selection pane="bottomRight" activeCell="CB5" sqref="CB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -7834,32 +8237,32 @@
       <c r="BQ1" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="BR1" s="156" t="s">
+      <c r="BR1" s="155" t="s">
         <v>1433</v>
       </c>
-      <c r="BS1" s="156" t="s">
+      <c r="BS1" s="155" t="s">
         <v>1433</v>
       </c>
-      <c r="BT1" s="156" t="s">
+      <c r="BT1" s="155" t="s">
         <v>1433</v>
       </c>
-      <c r="BU1" s="156" t="s">
+      <c r="BU1" s="155" t="s">
         <v>1433</v>
       </c>
-      <c r="BV1" s="156" t="s">
+      <c r="BV1" s="155" t="s">
         <v>1433</v>
       </c>
-      <c r="BW1" s="156" t="s">
+      <c r="BW1" s="155" t="s">
         <v>1433</v>
       </c>
       <c r="BX1" s="155" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="BY1" s="155" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="BZ1" s="155" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
@@ -8148,7 +8551,7 @@
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="180" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -8384,7 +8787,7 @@
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="176"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -8596,22 +8999,22 @@
         <v>1420</v>
       </c>
       <c r="BU5" s="115" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="BV5" s="115" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="BW5" s="115" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="BX5" s="115" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="BY5" s="115" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="BZ5" s="115" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
@@ -8828,29 +9231,29 @@
         <v>1421</v>
       </c>
       <c r="BU6" s="115" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="BV6" s="115" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="BW6" s="105" t="s">
         <v>1405</v>
       </c>
       <c r="BX6" s="115" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="BY6" s="115" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="BZ6" s="115" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="7" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="182" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -9084,7 +9487,7 @@
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="177"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -9318,7 +9721,7 @@
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -9552,7 +9955,7 @@
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -9764,7 +10167,7 @@
         <v>4</v>
       </c>
       <c r="BU10" s="115" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="BV10" s="115" t="s">
         <v>412</v>
@@ -9786,7 +10189,7 @@
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="183" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -10001,26 +10404,26 @@
         <v>782</v>
       </c>
       <c r="BV11" s="115" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="BW11" s="115" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="BX11" s="115" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="BY11" s="115" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="BZ11" s="115" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="12" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="179"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -10230,29 +10633,29 @@
         <v>11</v>
       </c>
       <c r="BU12" s="115" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="BV12" s="115" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="BW12" s="115" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="BX12" s="115" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="BY12" s="115" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="BZ12" s="115" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="179"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -10474,7 +10877,7 @@
         <v>11</v>
       </c>
       <c r="BY13" s="115" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="BZ13" s="115" t="s">
         <v>11</v>
@@ -10484,7 +10887,7 @@
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="179"/>
+      <c r="B14" s="184"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -10697,7 +11100,7 @@
         <v>11</v>
       </c>
       <c r="BV14" s="115" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="BW14" s="115" t="s">
         <v>11</v>
@@ -10706,7 +11109,7 @@
         <v>11</v>
       </c>
       <c r="BY14" s="115" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="BZ14" s="115" t="s">
         <v>11</v>
@@ -10716,7 +11119,7 @@
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="179"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -10935,20 +11338,20 @@
         <v>11</v>
       </c>
       <c r="BX15" s="115" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="BY15" s="115" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="BZ15" s="115" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="16" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="179"/>
+      <c r="B16" s="184"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -11167,20 +11570,20 @@
         <v>11</v>
       </c>
       <c r="BX16" s="115" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="BY16" s="115" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="BZ16" s="115" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="17" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="179"/>
+      <c r="B17" s="184"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -11412,7 +11815,7 @@
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="179"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -11625,10 +12028,10 @@
         <v>129</v>
       </c>
       <c r="BV18" s="115" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="BW18" s="115" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="BX18" s="115" t="s">
         <v>129</v>
@@ -11644,7 +12047,7 @@
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="179"/>
+      <c r="B19" s="184"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -11860,7 +12263,7 @@
         <v>130</v>
       </c>
       <c r="BW19" s="115" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="BX19" s="115" t="s">
         <v>1378</v>
@@ -11876,7 +12279,7 @@
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="179"/>
+      <c r="B20" s="184"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -12108,7 +12511,7 @@
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="185" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -12314,29 +12717,29 @@
         <v>1425</v>
       </c>
       <c r="BU21" s="115" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="BV21" s="115" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="BW21" s="115" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="BX21" s="115" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="BY21" s="115" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="BZ21" s="115" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="22" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="180"/>
+      <c r="B22" s="185"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -12548,29 +12951,29 @@
         <v>1426</v>
       </c>
       <c r="BU22" s="115" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="BV22" s="115" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="BW22" s="115" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="BX22" s="115" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="BY22" s="115" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="BZ22" s="115" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="23" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="180"/>
+      <c r="B23" s="185"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -12804,7 +13207,7 @@
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="180"/>
+      <c r="B24" s="185"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -13015,7 +13418,7 @@
       <c r="BT24" s="105">
         <v>1242</v>
       </c>
-      <c r="BU24" s="157">
+      <c r="BU24" s="156">
         <v>0</v>
       </c>
       <c r="BV24" s="69">
@@ -13024,13 +13427,13 @@
       <c r="BW24" s="69">
         <v>0</v>
       </c>
-      <c r="BX24" s="157">
+      <c r="BX24" s="156">
         <v>0</v>
       </c>
-      <c r="BY24" s="157">
+      <c r="BY24" s="156">
         <v>0</v>
       </c>
-      <c r="BZ24" s="157">
+      <c r="BZ24" s="156">
         <v>0</v>
       </c>
     </row>
@@ -13038,7 +13441,7 @@
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="180"/>
+      <c r="B25" s="185"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -13251,13 +13654,13 @@
         <v>11</v>
       </c>
       <c r="BV25" s="115" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="BW25" s="115" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="BX25" s="115" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="BY25" s="115" t="s">
         <v>11</v>
@@ -13270,7 +13673,7 @@
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="186" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -13486,10 +13889,10 @@
       <c r="BU26" s="115" t="s">
         <v>698</v>
       </c>
-      <c r="BV26" s="161" t="s">
+      <c r="BV26" s="160" t="s">
         <v>853</v>
       </c>
-      <c r="BW26" s="161" t="s">
+      <c r="BW26" s="160" t="s">
         <v>702</v>
       </c>
       <c r="BX26" s="115" t="s">
@@ -13506,7 +13909,7 @@
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="181"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -13720,10 +14123,10 @@
       <c r="BU27" s="115">
         <v>77</v>
       </c>
-      <c r="BV27" s="161">
+      <c r="BV27" s="160">
         <v>12</v>
       </c>
-      <c r="BW27" s="161">
+      <c r="BW27" s="160">
         <v>3</v>
       </c>
       <c r="BX27" s="115">
@@ -13740,7 +14143,7 @@
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="181"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -13950,19 +14353,19 @@
         <v>698</v>
       </c>
       <c r="BU28" s="115" t="s">
-        <v>1441</v>
-      </c>
-      <c r="BV28" s="161" t="s">
-        <v>1441</v>
-      </c>
-      <c r="BW28" s="161" t="s">
-        <v>1468</v>
+        <v>1440</v>
+      </c>
+      <c r="BV28" s="160" t="s">
+        <v>1440</v>
+      </c>
+      <c r="BW28" s="160" t="s">
+        <v>1467</v>
       </c>
       <c r="BX28" s="115" t="s">
         <v>849</v>
       </c>
       <c r="BY28" s="115" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="BZ28" s="115" t="s">
         <v>849</v>
@@ -13972,7 +14375,7 @@
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="181"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -14184,10 +14587,10 @@
       <c r="BU29" s="115">
         <v>7</v>
       </c>
-      <c r="BV29" s="161">
+      <c r="BV29" s="160">
         <v>7</v>
       </c>
-      <c r="BW29" s="161">
+      <c r="BW29" s="160">
         <v>79</v>
       </c>
       <c r="BX29" s="115">
@@ -14204,7 +14607,7 @@
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="181"/>
+      <c r="B30" s="186"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -14416,17 +14819,17 @@
       <c r="BU30" s="115" t="s">
         <v>697</v>
       </c>
-      <c r="BV30" s="161" t="s">
+      <c r="BV30" s="160" t="s">
         <v>698</v>
       </c>
-      <c r="BW30" s="161" t="s">
+      <c r="BW30" s="160" t="s">
         <v>699</v>
       </c>
       <c r="BX30" s="115" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="BY30" s="115" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="BZ30" s="115" t="s">
         <v>696</v>
@@ -14436,7 +14839,7 @@
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="181"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -14648,10 +15051,10 @@
       <c r="BU31" s="115">
         <v>6</v>
       </c>
-      <c r="BV31" s="161">
+      <c r="BV31" s="160">
         <v>77</v>
       </c>
-      <c r="BW31" s="161">
+      <c r="BW31" s="160">
         <v>6</v>
       </c>
       <c r="BX31" s="115">
@@ -14668,7 +15071,7 @@
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="181"/>
+      <c r="B32" s="186"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -14880,10 +15283,10 @@
       <c r="BU32" s="115" t="s">
         <v>703</v>
       </c>
-      <c r="BV32" s="161" t="s">
+      <c r="BV32" s="160" t="s">
         <v>702</v>
       </c>
-      <c r="BW32" s="161" t="s">
+      <c r="BW32" s="160" t="s">
         <v>700</v>
       </c>
       <c r="BX32" s="115" t="s">
@@ -14893,14 +15296,14 @@
         <v>699</v>
       </c>
       <c r="BZ32" s="115" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="33" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="181"/>
+      <c r="B33" s="186"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -15112,10 +15515,10 @@
       <c r="BU33" s="115">
         <v>8</v>
       </c>
-      <c r="BV33" s="161">
+      <c r="BV33" s="160">
         <v>3</v>
       </c>
-      <c r="BW33" s="161">
+      <c r="BW33" s="160">
         <v>6</v>
       </c>
       <c r="BX33" s="115">
@@ -15132,7 +15535,7 @@
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="181"/>
+      <c r="B34" s="186"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -15342,12 +15745,12 @@
         <v>11</v>
       </c>
       <c r="BU34" s="115" t="s">
-        <v>1442</v>
-      </c>
-      <c r="BV34" s="161" t="s">
+        <v>1441</v>
+      </c>
+      <c r="BV34" s="160" t="s">
         <v>703</v>
       </c>
-      <c r="BW34" s="161" t="s">
+      <c r="BW34" s="160" t="s">
         <v>698</v>
       </c>
       <c r="BX34" s="115" t="s">
@@ -15364,7 +15767,7 @@
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="181"/>
+      <c r="B35" s="186"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -15576,10 +15979,10 @@
       <c r="BU35" s="115">
         <v>78</v>
       </c>
-      <c r="BV35" s="161">
+      <c r="BV35" s="160">
         <v>8</v>
       </c>
-      <c r="BW35" s="161">
+      <c r="BW35" s="160">
         <v>2</v>
       </c>
       <c r="BX35" s="115">
@@ -15596,7 +15999,7 @@
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="181"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -15808,10 +16211,10 @@
       <c r="BU36" s="115" t="s">
         <v>702</v>
       </c>
-      <c r="BV36" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW36" s="161" t="s">
+      <c r="BV36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW36" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX36" s="115" t="s">
@@ -15828,7 +16231,7 @@
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="181"/>
+      <c r="B37" s="186"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -16040,10 +16443,10 @@
       <c r="BU37" s="115">
         <v>3</v>
       </c>
-      <c r="BV37" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW37" s="161" t="s">
+      <c r="BV37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW37" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX37" s="115">
@@ -16060,7 +16463,7 @@
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="181"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -16272,17 +16675,17 @@
       <c r="BU38" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV38" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW38" s="161" t="s">
+      <c r="BV38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW38" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX38" s="115" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="BY38" s="115" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="BZ38" s="115" t="s">
         <v>703</v>
@@ -16292,7 +16695,7 @@
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="181"/>
+      <c r="B39" s="186"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -16504,10 +16907,10 @@
       <c r="BU39" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV39" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW39" s="161" t="s">
+      <c r="BV39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW39" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX39" s="115">
@@ -16524,7 +16927,7 @@
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="181"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -16736,10 +17139,10 @@
       <c r="BU40" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV40" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW40" s="161" t="s">
+      <c r="BV40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW40" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX40" s="115" t="s">
@@ -16749,14 +17152,14 @@
         <v>702</v>
       </c>
       <c r="BZ40" s="115" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="41" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="181"/>
+      <c r="B41" s="186"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -16968,10 +17371,10 @@
       <c r="BU41" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV41" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW41" s="161" t="s">
+      <c r="BV41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW41" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX41" s="115">
@@ -16988,7 +17391,7 @@
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="181"/>
+      <c r="B42" s="186"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -17200,10 +17603,10 @@
       <c r="BU42" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV42" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW42" s="161" t="s">
+      <c r="BV42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW42" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX42" s="115" t="s">
@@ -17220,7 +17623,7 @@
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="181"/>
+      <c r="B43" s="186"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -17432,10 +17835,10 @@
       <c r="BU43" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV43" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW43" s="161" t="s">
+      <c r="BV43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW43" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX43" s="115" t="s">
@@ -17452,7 +17855,7 @@
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="181"/>
+      <c r="B44" s="186"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -17664,10 +18067,10 @@
       <c r="BU44" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV44" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW44" s="161" t="s">
+      <c r="BV44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW44" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX44" s="115" t="s">
@@ -17684,7 +18087,7 @@
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="181"/>
+      <c r="B45" s="186"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -17896,10 +18299,10 @@
       <c r="BU45" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV45" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW45" s="161" t="s">
+      <c r="BV45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW45" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX45" s="115" t="s">
@@ -17916,7 +18319,7 @@
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="181"/>
+      <c r="B46" s="186"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -18128,10 +18531,10 @@
       <c r="BU46" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV46" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW46" s="161" t="s">
+      <c r="BV46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW46" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX46" s="115" t="s">
@@ -18148,7 +18551,7 @@
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="181"/>
+      <c r="B47" s="186"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -18360,10 +18763,10 @@
       <c r="BU47" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV47" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW47" s="161" t="s">
+      <c r="BV47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW47" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX47" s="115" t="s">
@@ -18380,7 +18783,7 @@
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="181"/>
+      <c r="B48" s="186"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -18592,10 +18995,10 @@
       <c r="BU48" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV48" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW48" s="161" t="s">
+      <c r="BV48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW48" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX48" s="115" t="s">
@@ -18612,7 +19015,7 @@
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="181"/>
+      <c r="B49" s="186"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -18824,10 +19227,10 @@
       <c r="BU49" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BV49" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW49" s="161" t="s">
+      <c r="BV49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW49" s="160" t="s">
         <v>11</v>
       </c>
       <c r="BX49" s="115" t="s">
@@ -18844,7 +19247,7 @@
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="181"/>
+      <c r="B50" s="186"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -19056,29 +19459,29 @@
         <v>1428</v>
       </c>
       <c r="BU50" s="115" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="BV50" s="115" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="BW50" s="115" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="BX50" s="115" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="BY50" s="115" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="BZ50" s="115" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="51" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="181"/>
+      <c r="B51" s="186"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -19290,29 +19693,29 @@
         <v>1429</v>
       </c>
       <c r="BU51" s="115" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="BV51" s="115" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="BW51" s="115" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="BX51" s="115" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="BY51" s="115" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="BZ51" s="115" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="52" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="181"/>
+      <c r="B52" s="186"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -19524,29 +19927,29 @@
         <v>1430</v>
       </c>
       <c r="BU52" s="115" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="BV52" s="115" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="BW52" s="115" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="BX52" s="115" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="BY52" s="115" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="BZ52" s="115" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="53" spans="1:78" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="182" t="s">
+      <c r="B53" s="187" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -19759,22 +20162,22 @@
       <c r="BT53" s="105" t="s">
         <v>860</v>
       </c>
-      <c r="BU53" s="157" t="s">
+      <c r="BU53" s="156" t="s">
         <v>206</v>
       </c>
-      <c r="BV53" s="157" t="s">
+      <c r="BV53" s="156" t="s">
         <v>206</v>
       </c>
       <c r="BW53" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="BX53" s="157" t="s">
+      <c r="BX53" s="156" t="s">
         <v>206</v>
       </c>
-      <c r="BY53" s="157" t="s">
+      <c r="BY53" s="156" t="s">
         <v>206</v>
       </c>
-      <c r="BZ53" s="157" t="s">
+      <c r="BZ53" s="156" t="s">
         <v>206</v>
       </c>
     </row>
@@ -19782,7 +20185,7 @@
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="182"/>
+      <c r="B54" s="187"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -20016,7 +20419,7 @@
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="182"/>
+      <c r="B55" s="187"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -20234,7 +20637,7 @@
         <v>30</v>
       </c>
       <c r="BW55" s="115" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="BX55" s="115" t="s">
         <v>30</v>
@@ -20250,7 +20653,7 @@
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="182"/>
+      <c r="B56" s="187"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -20459,30 +20862,30 @@
       <c r="BT56" s="105" t="s">
         <v>1401</v>
       </c>
-      <c r="BU56" s="158" t="s">
-        <v>1446</v>
-      </c>
-      <c r="BV56" s="158" t="s">
-        <v>1446</v>
+      <c r="BU56" s="157" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BV56" s="157" t="s">
+        <v>1445</v>
       </c>
       <c r="BW56" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="BX56" s="158" t="s">
-        <v>1446</v>
-      </c>
-      <c r="BY56" s="158" t="s">
-        <v>1446</v>
-      </c>
-      <c r="BZ56" s="158" t="s">
-        <v>1446</v>
+      <c r="BX56" s="157" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BY56" s="157" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BZ56" s="157" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="57" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="182"/>
+      <c r="B57" s="187"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -20716,7 +21119,7 @@
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="182"/>
+      <c r="B58" s="187"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -20925,22 +21328,22 @@
       <c r="BT58" s="105" t="s">
         <v>1381</v>
       </c>
-      <c r="BU58" s="158" t="s">
+      <c r="BU58" s="157" t="s">
         <v>1381</v>
       </c>
-      <c r="BV58" s="158" t="s">
+      <c r="BV58" s="157" t="s">
         <v>1381</v>
       </c>
       <c r="BW58" s="115" t="s">
-        <v>1473</v>
-      </c>
-      <c r="BX58" s="158" t="s">
+        <v>1472</v>
+      </c>
+      <c r="BX58" s="157" t="s">
         <v>1381</v>
       </c>
-      <c r="BY58" s="158" t="s">
+      <c r="BY58" s="157" t="s">
         <v>1381</v>
       </c>
-      <c r="BZ58" s="158" t="s">
+      <c r="BZ58" s="157" t="s">
         <v>1381</v>
       </c>
     </row>
@@ -20948,7 +21351,7 @@
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="182"/>
+      <c r="B59" s="187"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -21159,22 +21562,22 @@
       <c r="BT59" s="105" t="s">
         <v>1401</v>
       </c>
-      <c r="BU59" s="158" t="s">
+      <c r="BU59" s="157" t="s">
         <v>1381</v>
       </c>
-      <c r="BV59" s="158" t="s">
+      <c r="BV59" s="157" t="s">
         <v>1381</v>
       </c>
       <c r="BW59" s="115" t="s">
-        <v>1473</v>
-      </c>
-      <c r="BX59" s="158" t="s">
+        <v>1472</v>
+      </c>
+      <c r="BX59" s="157" t="s">
         <v>1381</v>
       </c>
-      <c r="BY59" s="158" t="s">
+      <c r="BY59" s="157" t="s">
         <v>1381</v>
       </c>
-      <c r="BZ59" s="158" t="s">
+      <c r="BZ59" s="157" t="s">
         <v>1381</v>
       </c>
     </row>
@@ -21182,7 +21585,7 @@
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="182"/>
+      <c r="B60" s="187"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -21416,7 +21819,7 @@
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="183" t="s">
+      <c r="B61" s="188" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -21627,30 +22030,30 @@
       <c r="BT61" s="9">
         <v>44871</v>
       </c>
-      <c r="BU61" s="159" t="s">
-        <v>1447</v>
-      </c>
-      <c r="BV61" s="159" t="s">
-        <v>1459</v>
-      </c>
-      <c r="BW61" s="159">
+      <c r="BU61" s="158" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BV61" s="158" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BW61" s="158">
         <v>44871</v>
       </c>
-      <c r="BX61" s="159" t="s">
-        <v>1459</v>
-      </c>
-      <c r="BY61" s="159" t="s">
-        <v>1447</v>
-      </c>
-      <c r="BZ61" s="159" t="s">
-        <v>1447</v>
+      <c r="BX61" s="158" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BY61" s="158" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BZ61" s="158" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="62" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="183"/>
+      <c r="B62" s="188"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -21861,30 +22264,30 @@
       <c r="BT62" s="9">
         <v>44871</v>
       </c>
-      <c r="BU62" s="159" t="s">
-        <v>1447</v>
-      </c>
-      <c r="BV62" s="159" t="s">
-        <v>1459</v>
-      </c>
-      <c r="BW62" s="159">
+      <c r="BU62" s="158" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BV62" s="158" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BW62" s="158">
         <v>44871</v>
       </c>
-      <c r="BX62" s="159" t="s">
-        <v>1459</v>
-      </c>
-      <c r="BY62" s="159" t="s">
-        <v>1447</v>
-      </c>
-      <c r="BZ62" s="159" t="s">
-        <v>1447</v>
+      <c r="BX62" s="158" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BY62" s="158" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BZ62" s="158" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="63" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="183"/>
+      <c r="B63" s="188"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -22118,7 +22521,7 @@
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="183"/>
+      <c r="B64" s="188"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -22330,29 +22733,29 @@
         <v>1431</v>
       </c>
       <c r="BU64" s="115" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="BV64" s="115" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="BW64" s="115" t="s">
         <v>72</v>
       </c>
       <c r="BX64" s="115" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="BY64" s="115" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="BZ64" s="115" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="65" spans="1:105" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="183"/>
+      <c r="B65" s="188"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -22397,18 +22800,18 @@
       <c r="BR65" s="105"/>
       <c r="BS65" s="105"/>
       <c r="BT65" s="105"/>
-      <c r="BU65" s="158"/>
-      <c r="BV65" s="158"/>
-      <c r="BW65" s="158"/>
-      <c r="BX65" s="158"/>
-      <c r="BY65" s="158"/>
-      <c r="BZ65" s="158"/>
+      <c r="BU65" s="157"/>
+      <c r="BV65" s="157"/>
+      <c r="BW65" s="157"/>
+      <c r="BX65" s="157"/>
+      <c r="BY65" s="157"/>
+      <c r="BZ65" s="157"/>
     </row>
     <row r="66" spans="1:105" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="183"/>
+      <c r="B66" s="188"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -22453,18 +22856,18 @@
       <c r="BR66" s="105"/>
       <c r="BS66" s="105"/>
       <c r="BT66" s="105"/>
-      <c r="BU66" s="158"/>
-      <c r="BV66" s="158"/>
-      <c r="BW66" s="158"/>
-      <c r="BX66" s="158"/>
-      <c r="BY66" s="158"/>
-      <c r="BZ66" s="158"/>
+      <c r="BU66" s="157"/>
+      <c r="BV66" s="157"/>
+      <c r="BW66" s="157"/>
+      <c r="BX66" s="157"/>
+      <c r="BY66" s="157"/>
+      <c r="BZ66" s="157"/>
     </row>
     <row r="67" spans="1:105" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="183"/>
+      <c r="B67" s="188"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -22511,18 +22914,18 @@
       <c r="BR67" s="105"/>
       <c r="BS67" s="105"/>
       <c r="BT67" s="105"/>
-      <c r="BU67" s="158"/>
-      <c r="BV67" s="158"/>
-      <c r="BW67" s="158"/>
-      <c r="BX67" s="158"/>
-      <c r="BY67" s="158"/>
-      <c r="BZ67" s="158"/>
+      <c r="BU67" s="157"/>
+      <c r="BV67" s="157"/>
+      <c r="BW67" s="157"/>
+      <c r="BX67" s="157"/>
+      <c r="BY67" s="157"/>
+      <c r="BZ67" s="157"/>
     </row>
     <row r="68" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="173" t="s">
+      <c r="B68" s="178" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -22549,18 +22952,18 @@
       </c>
       <c r="BS68" s="105"/>
       <c r="BT68" s="105"/>
-      <c r="BU68" s="158"/>
-      <c r="BV68" s="158"/>
-      <c r="BW68" s="158"/>
-      <c r="BX68" s="158"/>
-      <c r="BY68" s="158"/>
-      <c r="BZ68" s="158"/>
+      <c r="BU68" s="157"/>
+      <c r="BV68" s="157"/>
+      <c r="BW68" s="157"/>
+      <c r="BX68" s="157"/>
+      <c r="BY68" s="157"/>
+      <c r="BZ68" s="157"/>
     </row>
     <row r="69" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="173"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -22582,18 +22985,18 @@
       <c r="BR69" s="105"/>
       <c r="BS69" s="105"/>
       <c r="BT69" s="105"/>
-      <c r="BU69" s="158"/>
-      <c r="BV69" s="158"/>
-      <c r="BW69" s="158"/>
-      <c r="BX69" s="158"/>
-      <c r="BY69" s="158"/>
-      <c r="BZ69" s="158"/>
+      <c r="BU69" s="157"/>
+      <c r="BV69" s="157"/>
+      <c r="BW69" s="157"/>
+      <c r="BX69" s="157"/>
+      <c r="BY69" s="157"/>
+      <c r="BZ69" s="157"/>
     </row>
     <row r="70" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="173"/>
+      <c r="B70" s="178"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -22614,18 +23017,18 @@
       <c r="BR70" s="105"/>
       <c r="BS70" s="105"/>
       <c r="BT70" s="105"/>
-      <c r="BU70" s="158"/>
-      <c r="BV70" s="158"/>
-      <c r="BW70" s="158"/>
-      <c r="BX70" s="158"/>
-      <c r="BY70" s="158"/>
-      <c r="BZ70" s="158"/>
+      <c r="BU70" s="157"/>
+      <c r="BV70" s="157"/>
+      <c r="BW70" s="157"/>
+      <c r="BX70" s="157"/>
+      <c r="BY70" s="157"/>
+      <c r="BZ70" s="157"/>
     </row>
     <row r="71" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="173"/>
+      <c r="B71" s="178"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -22646,18 +23049,18 @@
       <c r="BR71" s="105"/>
       <c r="BS71" s="105"/>
       <c r="BT71" s="105"/>
-      <c r="BU71" s="158"/>
-      <c r="BV71" s="158"/>
-      <c r="BW71" s="158"/>
-      <c r="BX71" s="158"/>
-      <c r="BY71" s="158"/>
-      <c r="BZ71" s="158"/>
+      <c r="BU71" s="157"/>
+      <c r="BV71" s="157"/>
+      <c r="BW71" s="157"/>
+      <c r="BX71" s="157"/>
+      <c r="BY71" s="157"/>
+      <c r="BZ71" s="157"/>
     </row>
     <row r="72" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="174"/>
+      <c r="B72" s="179"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -22678,12 +23081,12 @@
       <c r="BR72" s="105"/>
       <c r="BS72" s="105"/>
       <c r="BT72" s="105"/>
-      <c r="BU72" s="160"/>
-      <c r="BV72" s="160"/>
-      <c r="BW72" s="160"/>
-      <c r="BX72" s="160"/>
-      <c r="BY72" s="160"/>
-      <c r="BZ72" s="160"/>
+      <c r="BU72" s="159"/>
+      <c r="BV72" s="159"/>
+      <c r="BW72" s="159"/>
+      <c r="BX72" s="159"/>
+      <c r="BY72" s="159"/>
+      <c r="BZ72" s="159"/>
     </row>
     <row r="73" spans="1:105" x14ac:dyDescent="0.35">
       <c r="U73" s="12"/>
@@ -23253,7 +23656,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="180" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -23422,7 +23825,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="176"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -23754,7 +24157,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="182" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -23921,7 +24324,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="177"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -24088,7 +24491,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="177"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -24255,7 +24658,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -24422,7 +24825,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="183" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -24589,7 +24992,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="179"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -24754,7 +25157,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="179"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -24919,7 +25322,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="179"/>
+      <c r="B14" s="184"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -25084,7 +25487,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="179"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -25249,7 +25652,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="179"/>
+      <c r="B16" s="184"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -25414,7 +25817,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="179"/>
+      <c r="B17" s="184"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -25579,7 +25982,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="179"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -25744,7 +26147,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="179"/>
+      <c r="B19" s="184"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -25909,7 +26312,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="179"/>
+      <c r="B20" s="184"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -26074,7 +26477,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="185" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -26282,7 +26685,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="180"/>
+      <c r="B22" s="185"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -26490,7 +26893,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="180"/>
+      <c r="B23" s="185"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -26657,7 +27060,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="180"/>
+      <c r="B24" s="185"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -26824,7 +27227,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="180"/>
+      <c r="B25" s="185"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -26989,7 +27392,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="186" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -27158,7 +27561,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="181"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -27325,7 +27728,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="181"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -27490,7 +27893,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="181"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -27655,7 +28058,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="181"/>
+      <c r="B30" s="186"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -27820,7 +28223,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="181"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -27985,7 +28388,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="181"/>
+      <c r="B32" s="186"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -28150,7 +28553,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="181"/>
+      <c r="B33" s="186"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -28315,7 +28718,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="181"/>
+      <c r="B34" s="186"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -28480,7 +28883,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="181"/>
+      <c r="B35" s="186"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -28645,7 +29048,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="181"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -28810,7 +29213,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="181"/>
+      <c r="B37" s="186"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -28975,7 +29378,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="181"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -29140,7 +29543,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="181"/>
+      <c r="B39" s="186"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -29305,7 +29708,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="181"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -29470,7 +29873,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="181"/>
+      <c r="B41" s="186"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -29635,7 +30038,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="181"/>
+      <c r="B42" s="186"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -29800,7 +30203,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="181"/>
+      <c r="B43" s="186"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -29965,7 +30368,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="181"/>
+      <c r="B44" s="186"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -30130,7 +30533,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="181"/>
+      <c r="B45" s="186"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -30295,7 +30698,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="181"/>
+      <c r="B46" s="186"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -30460,7 +30863,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="181"/>
+      <c r="B47" s="186"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -30625,7 +31028,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="181"/>
+      <c r="B48" s="186"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -30790,7 +31193,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="181"/>
+      <c r="B49" s="186"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -30955,7 +31358,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="181"/>
+      <c r="B50" s="186"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -31122,7 +31525,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="181"/>
+      <c r="B51" s="186"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -31289,7 +31692,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="181"/>
+      <c r="B52" s="186"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -31456,7 +31859,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="182" t="s">
+      <c r="B53" s="187" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -31625,7 +32028,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="182"/>
+      <c r="B54" s="187"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -31792,7 +32195,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="182"/>
+      <c r="B55" s="187"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -31959,7 +32362,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="182"/>
+      <c r="B56" s="187"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -32124,7 +32527,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="182"/>
+      <c r="B57" s="187"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -32291,7 +32694,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B58" s="182"/>
+      <c r="B58" s="187"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -32456,7 +32859,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="182"/>
+      <c r="B59" s="187"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -32623,7 +33026,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B60" s="182"/>
+      <c r="B60" s="187"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -32790,7 +33193,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="183" t="s">
+      <c r="B61" s="188" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -32957,7 +33360,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="183"/>
+      <c r="B62" s="188"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -33124,7 +33527,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="183"/>
+      <c r="B63" s="188"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -33291,7 +33694,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="183"/>
+      <c r="B64" s="188"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -33458,7 +33861,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="183"/>
+      <c r="B65" s="188"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -33475,7 +33878,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="183"/>
+      <c r="B66" s="188"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -33494,7 +33897,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="183"/>
+      <c r="B67" s="188"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -33513,7 +33916,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B68" s="173" t="s">
+      <c r="B68" s="178" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -33523,7 +33926,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B69" s="173"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -33531,7 +33934,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="173"/>
+      <c r="B70" s="178"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -33539,7 +33942,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="173"/>
+      <c r="B71" s="178"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -33551,7 +33954,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B72" s="174"/>
+      <c r="B72" s="179"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -33929,10 +34332,10 @@
   <dimension ref="B1:AA72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="R28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="R90" sqref="R90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -34131,7 +34534,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="180" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -34211,7 +34614,7 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="176"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -34365,7 +34768,7 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="182" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -34443,7 +34846,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="177"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -34521,7 +34924,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="177"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -34599,7 +35002,7 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -34677,7 +35080,7 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="183" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -34755,7 +35158,7 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="179"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -34831,7 +35234,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="179"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -34907,7 +35310,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="179"/>
+      <c r="B14" s="184"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -34983,7 +35386,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="179"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -35059,7 +35462,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="179"/>
+      <c r="B16" s="184"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -35135,7 +35538,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="179"/>
+      <c r="B17" s="184"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -35211,7 +35614,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="179"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -35287,7 +35690,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="179"/>
+      <c r="B19" s="184"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -35363,7 +35766,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="179"/>
+      <c r="B20" s="184"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -35439,7 +35842,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="185" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -35517,7 +35920,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="180"/>
+      <c r="B22" s="185"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -35595,7 +35998,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="180"/>
+      <c r="B23" s="185"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -35673,7 +36076,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B24" s="180"/>
+      <c r="B24" s="185"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -35751,7 +36154,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="180"/>
+      <c r="B25" s="185"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -35827,7 +36230,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="186" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -35907,7 +36310,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="181"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -35985,7 +36388,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="181"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -36061,7 +36464,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="181"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -36137,7 +36540,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="181"/>
+      <c r="B30" s="186"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -36213,7 +36616,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="181"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -36289,7 +36692,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="181"/>
+      <c r="B32" s="186"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -36365,7 +36768,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="181"/>
+      <c r="B33" s="186"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -36441,7 +36844,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="181"/>
+      <c r="B34" s="186"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -36517,7 +36920,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="181"/>
+      <c r="B35" s="186"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -36593,7 +36996,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="181"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -36669,7 +37072,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="181"/>
+      <c r="B37" s="186"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -36745,7 +37148,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="181"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -36821,7 +37224,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="181"/>
+      <c r="B39" s="186"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -36897,7 +37300,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="181"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -36973,7 +37376,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="181"/>
+      <c r="B41" s="186"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -37049,7 +37452,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="181"/>
+      <c r="B42" s="186"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -37125,7 +37528,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="181"/>
+      <c r="B43" s="186"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -37201,7 +37604,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="181"/>
+      <c r="B44" s="186"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -37277,7 +37680,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="181"/>
+      <c r="B45" s="186"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -37353,7 +37756,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="181"/>
+      <c r="B46" s="186"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -37429,7 +37832,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="181"/>
+      <c r="B47" s="186"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -37505,7 +37908,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="181"/>
+      <c r="B48" s="186"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -37581,7 +37984,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="181"/>
+      <c r="B49" s="186"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -37657,7 +38060,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="181"/>
+      <c r="B50" s="186"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -37735,7 +38138,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="181"/>
+      <c r="B51" s="186"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -37813,7 +38216,7 @@
       </c>
     </row>
     <row r="52" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="181"/>
+      <c r="B52" s="186"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -37891,7 +38294,7 @@
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B53" s="182" t="s">
+      <c r="B53" s="187" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -37971,7 +38374,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="182"/>
+      <c r="B54" s="187"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -38049,7 +38452,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="182"/>
+      <c r="B55" s="187"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -38127,7 +38530,7 @@
       </c>
     </row>
     <row r="56" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="182"/>
+      <c r="B56" s="187"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -38203,7 +38606,7 @@
       </c>
     </row>
     <row r="57" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="182"/>
+      <c r="B57" s="187"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -38281,7 +38684,7 @@
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B58" s="182"/>
+      <c r="B58" s="187"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -38357,7 +38760,7 @@
       </c>
     </row>
     <row r="59" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="182"/>
+      <c r="B59" s="187"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -38435,7 +38838,7 @@
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B60" s="182"/>
+      <c r="B60" s="187"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -38513,7 +38916,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="183" t="s">
+      <c r="B61" s="188" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -38591,7 +38994,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="183"/>
+      <c r="B62" s="188"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -38669,7 +39072,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="183"/>
+      <c r="B63" s="188"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -38747,7 +39150,7 @@
       </c>
     </row>
     <row r="64" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="183"/>
+      <c r="B64" s="188"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -38825,7 +39228,7 @@
       </c>
     </row>
     <row r="65" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="183"/>
+      <c r="B65" s="188"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -38855,7 +39258,7 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="183"/>
+      <c r="B66" s="188"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -38885,7 +39288,7 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="183"/>
+      <c r="B67" s="188"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -38915,7 +39318,7 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B68" s="173" t="s">
+      <c r="B68" s="178" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -38936,7 +39339,7 @@
       <c r="Q68" s="105"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B69" s="173"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -38955,7 +39358,7 @@
       <c r="Q69" s="105"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B70" s="173"/>
+      <c r="B70" s="178"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -38974,7 +39377,7 @@
       <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B71" s="173"/>
+      <c r="B71" s="178"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -38993,7 +39396,7 @@
       <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B72" s="174"/>
+      <c r="B72" s="179"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8130" uniqueCount="1543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8158" uniqueCount="1558">
   <si>
     <t>Description</t>
   </si>
@@ -4652,6 +4652,51 @@
   </si>
   <si>
     <t>entire industry, waste management</t>
+  </si>
+  <si>
+    <t>Meng_PNAS_2023_Global_Plastics_Pathways_Process_Data</t>
+  </si>
+  <si>
+    <t>unit process inventories, process parameters, yield factors</t>
+  </si>
+  <si>
+    <t>plastic monomer production processes</t>
+  </si>
+  <si>
+    <t>process inventories for ethylene, propylene, and butadiene</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.221829412</t>
+  </si>
+  <si>
+    <t>Fanran MENG</t>
+  </si>
+  <si>
+    <t>ethylene, propylene, and butadiene</t>
+  </si>
+  <si>
+    <t>2020-2080</t>
+  </si>
+  <si>
+    <t>GNU General Public License v3.0</t>
+  </si>
+  <si>
+    <t>mass, energy, monetary, lifetime, capacity</t>
+  </si>
+  <si>
+    <t>unit process inventories, process parameters, yield factors for ethylene, propylene, and butadiene</t>
+  </si>
+  <si>
+    <t>ethylene; propylene; butadiene; unit process inventories; process parameters; yield factors</t>
+  </si>
+  <si>
+    <t>dataset contains more technologies (ammonia, urea, benzene, etc.) but only the major plastic monomers where converted</t>
+  </si>
+  <si>
+    <t>intensive process properties, extensive process properties</t>
+  </si>
+  <si>
+    <t>one representative value, constant time series</t>
   </si>
 </sst>
 </file>
@@ -5024,7 +5069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5366,6 +5411,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -6170,13 +6219,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T39"/>
+  <dimension ref="B2:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -6196,16 +6245,17 @@
     <col min="18" max="18" width="39.265625" customWidth="1"/>
     <col min="19" max="19" width="37.3984375" customWidth="1"/>
     <col min="20" max="20" width="34.53125" customWidth="1"/>
+    <col min="21" max="21" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>184</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="32"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -6261,8 +6311,11 @@
       <c r="T3" s="163" t="s">
         <v>1510</v>
       </c>
+      <c r="U3" s="163" t="s">
+        <v>1543</v>
+      </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="175" t="s">
         <v>2</v>
       </c>
@@ -6320,8 +6373,11 @@
       <c r="T4" s="141">
         <v>16</v>
       </c>
+      <c r="U4" s="141">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="176"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
@@ -6374,11 +6430,14 @@
       <c r="S5" s="164" t="s">
         <v>1509</v>
       </c>
-      <c r="T5" s="164" t="s">
+      <c r="T5" s="190" t="s">
         <v>1510</v>
       </c>
+      <c r="U5" s="190" t="s">
+        <v>1543</v>
+      </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="33"/>
       <c r="C6" s="54" t="s">
         <v>453</v>
@@ -6429,11 +6488,14 @@
       <c r="S6" s="164" t="s">
         <v>1150</v>
       </c>
-      <c r="T6" s="164" t="s">
+      <c r="T6" s="190" t="s">
         <v>1150</v>
       </c>
+      <c r="U6" s="190" t="s">
+        <v>1150</v>
+      </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
@@ -6486,11 +6548,14 @@
       <c r="S7" s="40" t="s">
         <v>1505</v>
       </c>
-      <c r="T7" s="40" t="s">
+      <c r="T7" s="23" t="s">
         <v>1511</v>
       </c>
+      <c r="U7" s="23" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="2:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="171" t="s">
         <v>6</v>
       </c>
@@ -6543,11 +6608,14 @@
       <c r="S8" s="40" t="s">
         <v>1519</v>
       </c>
-      <c r="T8" s="164" t="s">
+      <c r="T8" s="190" t="s">
         <v>1533</v>
       </c>
+      <c r="U8" s="190" t="s">
+        <v>1556</v>
+      </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="171"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
@@ -6598,11 +6666,14 @@
       <c r="S9" s="40" t="s">
         <v>1521</v>
       </c>
-      <c r="T9" s="164" t="s">
+      <c r="T9" s="190" t="s">
         <v>1532</v>
       </c>
+      <c r="U9" s="190" t="s">
+        <v>1544</v>
+      </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="171"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
@@ -6653,11 +6724,14 @@
       <c r="S10" s="40" t="s">
         <v>1520</v>
       </c>
-      <c r="T10" s="164" t="s">
+      <c r="T10" s="190" t="s">
         <v>199</v>
       </c>
+      <c r="U10" s="190" t="s">
+        <v>1552</v>
+      </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B11" s="171"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
@@ -6708,11 +6782,14 @@
       <c r="S11" s="40" t="s">
         <v>1522</v>
       </c>
-      <c r="T11" s="164" t="s">
+      <c r="T11" s="190" t="s">
         <v>1542</v>
       </c>
+      <c r="U11" s="190" t="s">
+        <v>1545</v>
+      </c>
     </row>
-    <row r="12" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B12" s="171"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
@@ -6763,11 +6840,14 @@
       <c r="S12" s="164" t="s">
         <v>1516</v>
       </c>
-      <c r="T12" s="164" t="s">
+      <c r="T12" s="190" t="s">
         <v>1534</v>
       </c>
+      <c r="U12" s="190" t="s">
+        <v>1546</v>
+      </c>
     </row>
-    <row r="13" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B13" s="171"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
@@ -6818,11 +6898,14 @@
       <c r="S13" s="40" t="s">
         <v>1523</v>
       </c>
-      <c r="T13" s="164" t="s">
+      <c r="T13" s="190" t="s">
         <v>1094</v>
       </c>
+      <c r="U13" s="190" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B14" s="171"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
@@ -6873,11 +6956,14 @@
       <c r="S14" s="40" t="s">
         <v>1524</v>
       </c>
-      <c r="T14" s="164" t="s">
+      <c r="T14" s="190" t="s">
         <v>1535</v>
       </c>
+      <c r="U14" s="190" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B15" s="171"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
@@ -6928,11 +7014,14 @@
       <c r="S15" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="164" t="s">
+      <c r="T15" s="190" t="s">
         <v>1536</v>
       </c>
+      <c r="U15" s="190" t="s">
+        <v>1545</v>
+      </c>
     </row>
-    <row r="16" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B16" s="171"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
@@ -6983,11 +7072,14 @@
       <c r="S16" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="164" t="s">
+      <c r="T16" s="190" t="s">
         <v>1535</v>
       </c>
+      <c r="U16" s="190" t="s">
+        <v>1549</v>
+      </c>
     </row>
-    <row r="17" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B17" s="171"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
@@ -7038,11 +7130,14 @@
       <c r="S17" s="164" t="s">
         <v>819</v>
       </c>
-      <c r="T17" s="164" t="s">
+      <c r="T17" s="190" t="s">
         <v>1531</v>
       </c>
+      <c r="U17" s="190" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="18" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B18" s="171"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
@@ -7093,11 +7188,14 @@
       <c r="S18" s="164" t="s">
         <v>1517</v>
       </c>
-      <c r="T18" s="164" t="s">
+      <c r="T18" s="190" t="s">
         <v>1530</v>
       </c>
+      <c r="U18" s="190" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="171"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
@@ -7148,11 +7246,14 @@
       <c r="S19" s="164" t="s">
         <v>1518</v>
       </c>
-      <c r="T19" s="164" t="s">
+      <c r="T19" s="190" t="s">
         <v>1518</v>
       </c>
+      <c r="U19" s="190" t="s">
+        <v>1550</v>
+      </c>
     </row>
-    <row r="20" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B20" s="171"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
@@ -7203,11 +7304,14 @@
       <c r="S20" s="29" t="s">
         <v>1278</v>
       </c>
-      <c r="T20" s="164" t="s">
+      <c r="T20" s="190" t="s">
         <v>1278</v>
       </c>
+      <c r="U20" s="190" t="s">
+        <v>1557</v>
+      </c>
     </row>
-    <row r="21" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B21" s="172" t="s">
         <v>0</v>
       </c>
@@ -7260,11 +7364,14 @@
       <c r="S21" s="40" t="s">
         <v>1525</v>
       </c>
-      <c r="T21" s="164" t="s">
+      <c r="T21" s="190" t="s">
         <v>1537</v>
       </c>
+      <c r="U21" s="190" t="s">
+        <v>1553</v>
+      </c>
     </row>
-    <row r="22" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B22" s="172"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
@@ -7317,11 +7424,14 @@
       <c r="S22" s="40" t="s">
         <v>1526</v>
       </c>
-      <c r="T22" s="164" t="s">
+      <c r="T22" s="190" t="s">
         <v>1538</v>
       </c>
+      <c r="U22" s="190" t="s">
+        <v>1554</v>
+      </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="172"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
@@ -7369,14 +7479,17 @@
       <c r="R23" s="154" t="s">
         <v>1388</v>
       </c>
-      <c r="S23" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="T23" s="164" t="s">
+      <c r="S23" s="189" t="s">
+        <v>11</v>
+      </c>
+      <c r="T23" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23" s="190" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B24" s="172"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
@@ -7427,11 +7540,14 @@
       <c r="S24" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="T24" s="164" t="s">
-        <v>11</v>
+      <c r="T24" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="U24" s="190" t="s">
+        <v>1555</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="173" t="s">
         <v>8</v>
       </c>
@@ -7484,11 +7600,14 @@
       <c r="S25" s="40" t="s">
         <v>861</v>
       </c>
-      <c r="T25" s="40" t="s">
+      <c r="T25" s="23" t="s">
         <v>861</v>
       </c>
+      <c r="U25" s="23" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="173"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
@@ -7539,11 +7658,14 @@
       <c r="S26" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="T26" s="164" t="s">
+      <c r="T26" s="190" t="s">
         <v>1541</v>
       </c>
+      <c r="U26" s="190" t="s">
+        <v>1551</v>
+      </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="173"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
@@ -7594,11 +7716,14 @@
       <c r="S27" s="40" t="s">
         <v>1527</v>
       </c>
-      <c r="T27" s="164" t="s">
+      <c r="T27" s="190" t="s">
         <v>1511</v>
       </c>
+      <c r="U27" s="190" t="s">
+        <v>1548</v>
+      </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="173"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
@@ -7646,14 +7771,17 @@
       <c r="R28" s="154" t="s">
         <v>1388</v>
       </c>
-      <c r="S28" s="90" t="s">
+      <c r="S28" s="157" t="s">
         <v>1529</v>
       </c>
-      <c r="T28" s="90" t="s">
+      <c r="T28" s="47" t="s">
         <v>1539</v>
       </c>
+      <c r="U28" s="47" t="s">
+        <v>1547</v>
+      </c>
     </row>
-    <row r="29" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B29" s="173"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
@@ -7701,14 +7829,17 @@
       <c r="R29" s="154" t="s">
         <v>1388</v>
       </c>
-      <c r="S29" s="90" t="s">
+      <c r="S29" s="157" t="s">
         <v>1529</v>
       </c>
-      <c r="T29" s="62" t="s">
+      <c r="T29" s="191" t="s">
         <v>1539</v>
       </c>
+      <c r="U29" s="47" t="s">
+        <v>1547</v>
+      </c>
     </row>
-    <row r="30" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B30" s="173"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
@@ -7756,14 +7887,17 @@
       <c r="R30" s="154" t="s">
         <v>1388</v>
       </c>
-      <c r="S30" s="62" t="s">
+      <c r="S30" s="189" t="s">
         <v>1528</v>
       </c>
-      <c r="T30" s="62" t="s">
+      <c r="T30" s="191" t="s">
         <v>1540</v>
       </c>
+      <c r="U30" s="47" t="s">
+        <v>1547</v>
+      </c>
     </row>
-    <row r="31" spans="2:20" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="174" t="s">
         <v>9</v>
       </c>
@@ -7821,8 +7955,11 @@
       <c r="T31" s="165">
         <v>45164</v>
       </c>
+      <c r="U31" s="165">
+        <v>45182</v>
+      </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="177"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
@@ -7875,11 +8012,14 @@
       <c r="S32" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="T32" s="164" t="s">
+      <c r="T32" s="190" t="s">
         <v>30</v>
       </c>
+      <c r="U32" s="190" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B33" s="167" t="s">
         <v>185</v>
       </c>
@@ -7902,9 +8042,10 @@
       <c r="Q33" s="24"/>
       <c r="R33" s="29"/>
       <c r="S33" s="164"/>
-      <c r="T33" s="164"/>
+      <c r="T33" s="190"/>
+      <c r="U33" s="190"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="168"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
@@ -7925,9 +8066,10 @@
       <c r="Q34" s="24"/>
       <c r="R34" s="29"/>
       <c r="S34" s="164"/>
-      <c r="T34" s="164"/>
+      <c r="T34" s="190"/>
+      <c r="U34" s="190"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B35" s="169"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
@@ -7948,9 +8090,10 @@
       <c r="Q35" s="152"/>
       <c r="R35" s="30"/>
       <c r="S35" s="166"/>
-      <c r="T35" s="166"/>
+      <c r="T35" s="192"/>
+      <c r="U35" s="192"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="I39" s="12"/>
     </row>
   </sheetData>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="9683" tabRatio="603" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="9683" tabRatio="603" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8158" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9356" uniqueCount="1836">
   <si>
     <t>Description</t>
   </si>
@@ -4697,6 +4697,840 @@
   </si>
   <si>
     <t>one representative value, constant time series</t>
+  </si>
+  <si>
+    <t>4_PY_MaterialCycle_Yield_Charpentier_Poncelet_2022</t>
+  </si>
+  <si>
+    <t>Major material cycle steps</t>
+  </si>
+  <si>
+    <t>3 processes: material production, manufacturing, and remelting</t>
+  </si>
+  <si>
+    <t>all products</t>
+  </si>
+  <si>
+    <t>none (all)</t>
+  </si>
+  <si>
+    <t>61 chemical elements</t>
+  </si>
+  <si>
+    <t>base and technology metals</t>
+  </si>
+  <si>
+    <t>2010-2020</t>
+  </si>
+  <si>
+    <t>Table of production yield, manufacturing yield, manufacturing scrap recovery, and remelting yield for 61 metals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production yield; recovery; fabrication scrap; new scrap; prompt scrap; manufacturing scrap; yield loss; fabrication yield; remelting yield; </t>
+  </si>
+  <si>
+    <t>Value(e,m1,m2,p,t,r)</t>
+  </si>
+  <si>
+    <t>The mass ratio of yield coefficient for La (lanthanum) in refined material converted into manufactured goods in manufacturing for 2010-2020 in global regin is 85.83%.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 1] in [Aspect 2] converted into [Aspect 3] in [Aspect 4] in [Aspect 5] in [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>Alexandre Charpentier Poncelet</t>
+  </si>
+  <si>
+    <t>xlsx, table</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/s41893-022-00895-8</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original source (xlsx) to Excel spreadsheet and reformatted</t>
+  </si>
+  <si>
+    <t>2023 update</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>1_F_Domestic_Extraction_Wiedmann_2015</t>
+  </si>
+  <si>
+    <t>entire industrial system</t>
+  </si>
+  <si>
+    <t>one aggregate process (national economy)</t>
+  </si>
+  <si>
+    <t>raw materials</t>
+  </si>
+  <si>
+    <t>four standard raw material groups, plus the aggregate</t>
+  </si>
+  <si>
+    <t>186 countries</t>
+  </si>
+  <si>
+    <t>annual value</t>
+  </si>
+  <si>
+    <t>Domestic extraction (DE) of raw materials for processing or trade, by country, for 2008. All values in dry mass.</t>
+  </si>
+  <si>
+    <t>raw materials; domestic extraction; material flow accounting; biomass; fossil fuels; non-metallic minerals; construction minerals; metal ores;</t>
+  </si>
+  <si>
+    <t>Result of academic IOA work</t>
+  </si>
+  <si>
+    <t>All values in dry mass.</t>
+  </si>
+  <si>
+    <t>Value(t,r,o,d,m)</t>
+  </si>
+  <si>
+    <t>Mass of flow of fossil fuels from natural environment to entire economy in Vietnam in 2008 was 60.868 Mt/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Data Type] of [Aspect 5] from [Aspect 3] to [Aspect 4] in [Aspect 1] in [Aspect 2] is [Value].</t>
+  </si>
+  <si>
+    <t>Thomas O. Wiedman</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/doi/suppl/10.1073/pnas.1220362110/suppl_file/sd01.xlsx</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>The Material Footprint of Nations, by Wiedmann, Schandl, Lenzen, Moran, Suh, West &amp; Kanemoto. www.pnas.org/cgi/doi/10.1073/pnas.1220362110</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.1220362110</t>
+  </si>
+  <si>
+    <t>Numbers copied from paper supplement (xlsx) to Excel upload template</t>
+  </si>
+  <si>
+    <t>2_IUS_Buildings_Infrastructure_Haberl_2021</t>
+  </si>
+  <si>
+    <t>Buildings and infrastructure</t>
+  </si>
+  <si>
+    <t>25 building and infrastructure types</t>
+  </si>
+  <si>
+    <t>13 materials</t>
+  </si>
+  <si>
+    <t>Germany, Austria</t>
+  </si>
+  <si>
+    <t>Material stocks in buildings and infrastructure in Germany and Austria, compiled for Haberl et al. (2021). Values for 2017/2018, reference year chosen: 2017.</t>
+  </si>
+  <si>
+    <t>material; material stock; in-use stock; residential buildings; Germany; Austria; roads; railways; buildings; infrastructure</t>
+  </si>
+  <si>
+    <t>Value(r,t,p,m)</t>
+  </si>
+  <si>
+    <t>The in-use stock of iron/steel in motorway bridge excl. road surface in Germany in 2017 was 2.88 Tg (Mt).</t>
+  </si>
+  <si>
+    <t>[Layer] measuring [data type] of [Aspect 4] in [Aspect 3] in [Aspect 1] in [Aspect 2] is [Value].</t>
+  </si>
+  <si>
+    <t>Helmut Haberl</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.est.0c05642</t>
+  </si>
+  <si>
+    <t>xlsx spreadsheet</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original source (xlsx supplement) to Excel spreadsheet</t>
+  </si>
+  <si>
+    <t>1_F_Renewable_Electricity_Generation_OWID_2023</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Electricity generation</t>
+  </si>
+  <si>
+    <t>four main technologies and technology groups</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>one aggregate commodity group</t>
+  </si>
+  <si>
+    <t>238 countries</t>
+  </si>
+  <si>
+    <t>1965-2022</t>
+  </si>
+  <si>
+    <t>Electricity generation from modern renewable sources</t>
+  </si>
+  <si>
+    <t>electricity; electricity generation; renwable electricity;</t>
+  </si>
+  <si>
+    <t>Value(n,t,r,o,d)</t>
+  </si>
+  <si>
+    <t>Flow of electricity from electricity generation with solar PV to electricity market in USA in 2016 was 54.87 TWh/yr.</t>
+  </si>
+  <si>
+    <t>[data type] of [data layer] of [Aspect 5] from [Aspect 3] to [Aspect 4] in [Aspect 1] in [Aspect 2] is [Value].</t>
+  </si>
+  <si>
+    <t>Hannah Ritchie</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/modern-renewable-prod</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>Main source: Ember's dataset contains yearly electricity generation, capacity, emissions, import and demand data for over 200 geographies. Data is collected from multi-country datasets (EIA, Eurostat, BP, UN) as well as national sources (e.g China data from the National Bureau of Statistics). You can find more about Ember's methodology in this document: https://ember-climate.org/app/uploads/2022/07/Ember-Electricity-Data-Methodology.pdf</t>
+  </si>
+  <si>
+    <t>Numbers copied from csv file to Excel upload template</t>
+  </si>
+  <si>
+    <t>3_MC_Buildings_Netherlands_Sprecher_2021</t>
+  </si>
+  <si>
+    <t>2 end use sectors</t>
+  </si>
+  <si>
+    <t>Residential and utility buildings</t>
+  </si>
+  <si>
+    <t>Two buildings types, five age-cohort ranges for the Netherlands</t>
+  </si>
+  <si>
+    <t>14 materials</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>before 1945 - after 2000</t>
+  </si>
+  <si>
+    <t>five age-cohort ranges</t>
+  </si>
+  <si>
+    <t>Material content of residential and utility buildings in the Netherlands, compiled by Sprecher et al. (2021), DOI https://doi.org/10.1111/jiec.13143. Data are from sheet "Overall MI per age cohort" of the supplement.</t>
+  </si>
+  <si>
+    <t>material; material content; residential buildings; utility buildings; the Netherlands</t>
+  </si>
+  <si>
+    <t>Unit is kg/m², not t/m². Data are reported for some of the age-cohort ranges only.</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>Value(r,T,c,k,m)</t>
+  </si>
+  <si>
+    <t>Residential buildings, high-rise, the Netherlands, in age-cohort 1971-2000, have a brick content of 245.8 kg/m2 for building components and structure.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 5] in [Aspect 4] in [Aspect 2] in [Aspect 1] built in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>Benjamin Sprecher</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jiec.13143</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original source (xlsx) to Excel spreadsheet</t>
+  </si>
+  <si>
+    <t>3_SHA_EndUseShares_61Metals_Charpetier_Poncelet_2012</t>
+  </si>
+  <si>
+    <t>one aggregate use phase process</t>
+  </si>
+  <si>
+    <t>ca. 4-12 sectors per metal, 41 different application fields in total.</t>
+  </si>
+  <si>
+    <t>61 metals</t>
+  </si>
+  <si>
+    <t>Value(T,c,e)</t>
+  </si>
+  <si>
+    <t>End-use share of magnesium in construction in time period 2010-2020 is 17%.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 3] of [Aspect 2] going into end use [Aspect 1] is [Value].</t>
+  </si>
+  <si>
+    <t>6_IMI_Material_Footprint_Wiedmann_2015</t>
+  </si>
+  <si>
+    <t>Impact indicators</t>
+  </si>
+  <si>
+    <t>Material footprint, raw material equivalents of imports and exports, by country, for 2008. All values in dry mass.</t>
+  </si>
+  <si>
+    <t>raw materials; material footprint; MF; RME; RMI; raw material equivalent; raw material input; material flow accounting; biomass; fossil fuels; non-metallic minerals; construction minerals; metal ores;</t>
+  </si>
+  <si>
+    <t>impact_indicator</t>
+  </si>
+  <si>
+    <t>Value(I,t,r,m)</t>
+  </si>
+  <si>
+    <t>Mass of material footprint for metal ores for Canada in 2008 was 216.789 Mt/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] for [Aspect 3] for [Aspect 4] in [Aspect 2] in [Aspect 1] is [Value].</t>
+  </si>
+  <si>
+    <t>6_PCS_Metals_Watari_2021</t>
+  </si>
+  <si>
+    <t>six chemical elements</t>
+  </si>
+  <si>
+    <t>Fe, Al, Cu, Pn, Zn, Ni</t>
+  </si>
+  <si>
+    <t>222 countries</t>
+  </si>
+  <si>
+    <t>1970-2010</t>
+  </si>
+  <si>
+    <t>Per capita in-use stock of six different chemical elements, 1970-2010, by region, from Watari and Yokoi (2021).</t>
+  </si>
+  <si>
+    <t>in-use stock; dynamic MFA; iron; aluminium; copper; zinc; lead; nickel;</t>
+  </si>
+  <si>
+    <t>Value(r,e,t)</t>
+  </si>
+  <si>
+    <t>Per capita in-use stock of copper, 1999, in Japan, was 134.42 kg/cap.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 2] in [Aspect 1] in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>Takuma Watari</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.resourpol.2020.101968</t>
+  </si>
+  <si>
+    <t>dataset entry does not exist yet, need to figure out how to create the custom classification</t>
+  </si>
+  <si>
+    <t>6_MIP_EUROSTAT_circular_material_use_rate</t>
+  </si>
+  <si>
+    <t>update_24-01-2023</t>
+  </si>
+  <si>
+    <t>Misc_intensive</t>
+  </si>
+  <si>
+    <t>entire economy</t>
+  </si>
+  <si>
+    <t>one aggregate economic process</t>
+  </si>
+  <si>
+    <t>all materials</t>
+  </si>
+  <si>
+    <t>one aggregate material group</t>
+  </si>
+  <si>
+    <t>EU, UK</t>
+  </si>
+  <si>
+    <t>all EU member states and the UK</t>
+  </si>
+  <si>
+    <t>2004-2022</t>
+  </si>
+  <si>
+    <t>Circular material use rate, share of recyclable material in total material use, indicator cei_srm030. Definition: The circular material use, also known as circularity rate is defined as the ratio of the circular use of materials to the overall material use. The overall material use is measured by summing up the aggregate domestic material consumption (DMC) and the circular use of materials. DMC is defined in economy-wide material flow accounts. The circular use of materials is approximated by the amount of waste recycled in domestic recovery plants minus imported waste destined for recovery plus exported waste destined for recovery abroad.</t>
+  </si>
+  <si>
+    <t>circular material use rate; EU; recycling; recycled content; cei_srm030</t>
+  </si>
+  <si>
+    <t>contains the following dataset (last updates): cei_srm030, last update: 24-01-2023. The indicator measures the share of material recycled and fed back into the economy - thus saving extraction of primary raw materials - in overall material use. The circular material use, also known as circularity rate is defined as the ratio of the circular use of materials to the overall material use.</t>
+  </si>
+  <si>
+    <t>Mass ratio of recyclable materials (all materials) in total input of all materials into the entire economy in EU27 in 2019 was 12 %.</t>
+  </si>
+  <si>
+    <t>[Layer] of recyclable [Aspect 1] in total input of [Aspect 1] into [Aspect 3] in [Aspect 2] in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>tsv text files with data and flags mixed.</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/cache/metadata/en/cei_srm030_esmsip2.htm</t>
+  </si>
+  <si>
+    <t>Numbers transferred from original data files (.tsv) to iedc data insertion template with Python script.</t>
+  </si>
+  <si>
+    <t>5_PP_Meng_PNAS_2023_Global_Plastics_Pathways_Process_Data</t>
+  </si>
+  <si>
+    <t>Process parameters</t>
+  </si>
+  <si>
+    <t>process parameters for ethylene, propylene, and butadiene production</t>
+  </si>
+  <si>
+    <t>ethylene; propylene; butadiene; CAPEX; lifetime; capacity; O&amp;M;</t>
+  </si>
+  <si>
+    <t>dataset contains more technologies (ammonia, urea, benzene, etc.) but only the major plastic monomers where converted. Dataset also contains intensive (per ton of output) indicators, which were added for convenience.</t>
+  </si>
+  <si>
+    <t>economic_indicator</t>
+  </si>
+  <si>
+    <t>Value(p,E,T,L,c)</t>
+  </si>
+  <si>
+    <t>Indicator "CAPEX - new build brownfield, CCS" for sub-process CCS unit of process Ethylene production via Naphtha steam cracking + CCS, constructed in year 2020-2080, on layer Monetary is 246,96 USD / t.</t>
+  </si>
+  <si>
+    <t>Indicator [Aspect 2] for sub-process [Aspect 3] of process [Aspect 1], constructed in year [Aspect 5], on layer [Aspect 4] is [value, unit].</t>
+  </si>
+  <si>
+    <t>https://github.com/systemiqofficial/Pathways-Chemical-Industry/tree/master/data</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original source (xlsx workbook) to Excel spreadsheet</t>
+  </si>
+  <si>
+    <t>4_UPI_Meng_PNAS_2023_Global_Plastics_Pathways_Process_Data</t>
+  </si>
+  <si>
+    <t>Value(p,r,g,T,c,Y)</t>
+  </si>
+  <si>
+    <t>The UPI flow of Electricity of type 'from technosphere (energy_carrier)' for sub-process CCS unit of Ethylene production via Naphtha steam cracking + CCS for Global for 2020-2080 has value 1.3632 GJ.</t>
+  </si>
+  <si>
+    <t>UPI flow of [Aspect 3] of type [Aspect 6] for sub-process [Aspect 4] of [Aspect 1] for [Aspect 2] for [Aspect 5] has [value].</t>
+  </si>
+  <si>
+    <t>4_PY_Meng_PNAS_2023_Global_Plastics_Pathways_Process_Data</t>
+  </si>
+  <si>
+    <t>process yield factor</t>
+  </si>
+  <si>
+    <t>CCS capture rate / yield factor for ethylene, propylene, and butadiene production technologies with CCS</t>
+  </si>
+  <si>
+    <t>ethylene; propylene; butadiene; unit process inventories; process parameters; CCS; capture rate</t>
+  </si>
+  <si>
+    <t>Value(p,T,c,b,f)</t>
+  </si>
+  <si>
+    <t>The mass ratio for process yield factor of CO2-rich off-gas into CO2, ready for transport and storage in sub-process CCS unit of Propylene production via PDH + CCS for 2020-2080 is 95%.</t>
+  </si>
+  <si>
+    <t>The [layer] for the [data type] of [Aspect 4] into [Aspect 5] in sub-process [Aspect 2] of process [Aspect 1] for [Aspect 3] has [value].</t>
+  </si>
+  <si>
+    <t>4_PY_EUROSTAT_EoL_Recycling_Rates</t>
+  </si>
+  <si>
+    <t>waste management industry</t>
+  </si>
+  <si>
+    <t>waste management industry by waste type</t>
+  </si>
+  <si>
+    <t>all waste</t>
+  </si>
+  <si>
+    <t>seven different types of waste, plus the total</t>
+  </si>
+  <si>
+    <t>2000-2021</t>
+  </si>
+  <si>
+    <t>The indicator is calculated by dividing the weight of waste type X that enters the recycling/preparing for re-use facility by the weight of all separately collected waste type X (both in mass unit).</t>
+  </si>
+  <si>
+    <t>recycling; waste collection; EU; recycling rates; share of generated or collected waste going into recycling processes;</t>
+  </si>
+  <si>
+    <t>recycling rate as waste sent to recycling per waste collected for different treatment options. contains the following datasets (last updates): cei_wm010, last update: 19-01-2023; cei_wm011, last update: 21-08-2023; cei_wm020, last update: 21-03-2023; cei_wm060, last update: 03-03-2023.</t>
+  </si>
+  <si>
+    <t>Value(r,p,b,f,t)</t>
+  </si>
+  <si>
+    <t>Mass ratio of yield coefficient of WEEE (collected/generated) into waste for recycling in waste management in Estonia in 2017 was 85.7 %.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 3] (collected/generated) into [Aspect 4] in [Aspect 2] in [Aspect 1] in [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/cache/metadata/en/cei_wm020_esmsip2.htm</t>
+  </si>
+  <si>
+    <t>3_SHA_Renewable_Electricity_OWID_2023</t>
+  </si>
+  <si>
+    <t>Electricity market</t>
+  </si>
+  <si>
+    <t>230 countries</t>
+  </si>
+  <si>
+    <t>1985-2022</t>
+  </si>
+  <si>
+    <t>Share of renewable-based electricity in total electricity generated, by country and year.</t>
+  </si>
+  <si>
+    <t>renewable-based electricity; electricity; renewables; wind; solar; hydropower; biomass; geothermal;</t>
+  </si>
+  <si>
+    <t>focus_object</t>
+  </si>
+  <si>
+    <t>reference_object</t>
+  </si>
+  <si>
+    <t>Value(i,j,r,t)</t>
+  </si>
+  <si>
+    <t>The energy share of electricity, from renewables sources, in electricity in Africa in 2001 was 19.286 %.</t>
+  </si>
+  <si>
+    <t>[Layer] [data type] of [Aspect 1] in [Aspect 2] in [Aspect 3] in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/share-electricity-renewables?tab=chart</t>
+  </si>
+  <si>
+    <t>6_PCF_EUROSTAT_per_capita_waste_flows</t>
+  </si>
+  <si>
+    <t>update_21-08-2023</t>
+  </si>
+  <si>
+    <t>Per capita flows</t>
+  </si>
+  <si>
+    <t>per capita waste generation by source and waste type, by country, four different waste types: cei_pc040, cei_pc050, cei_pc031, cei_pc034</t>
+  </si>
+  <si>
+    <t>EU, Europe, waste, per capita waste generation</t>
+  </si>
+  <si>
+    <t>contains the following datasets (last updates): cei_pc040: 21-03-2023, cei_pc050: 21-03-2023, cei_pc031: 21-08-2023, cei_pc034: 30-05-2023. Not specified whether reported figures are total mass or dry mass. cei_pc034 includes major mineral waste, like from mining.</t>
+  </si>
+  <si>
+    <t>Value(r,o,d,m,t)</t>
+  </si>
+  <si>
+    <t>Mass of per capita flow of packaging waste from all (entire economy including households and other end-use sectors) to waste management in Austria in 2015 is 151.72 kg.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 4] from [Aspect 2] to [Aspect 3] in [Aspect 1] in [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/cache/metadata/en/cei_pc034_esmsip2.htm</t>
+  </si>
+  <si>
+    <t>1_F_EUROSTAT_waste_trade</t>
+  </si>
+  <si>
+    <t>update_13-02-2023</t>
+  </si>
+  <si>
+    <t>waste markets</t>
+  </si>
+  <si>
+    <t>14 markets for different waste types</t>
+  </si>
+  <si>
+    <t>14 different waste types</t>
+  </si>
+  <si>
+    <t>all EU member states</t>
+  </si>
+  <si>
+    <t>2004-2021</t>
+  </si>
+  <si>
+    <t>waste trade by waste type, by country, fourteen different waste types, indicator type: cei_srm020</t>
+  </si>
+  <si>
+    <t>EU, Europe, waste, trade</t>
+  </si>
+  <si>
+    <t>contains the following datasets (last updates): cei_srm020: 13-02-2023. Not specified whether reported figures are total mass or dry mass.</t>
+  </si>
+  <si>
+    <t>Value(m,O,D,o,d,t)</t>
+  </si>
+  <si>
+    <t>Mass of flow of glass waste from the waste market in other EU 27 (2020) countries to the waste market in the Czech Republic in 2019 was 198803.69 t/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 1] from [Aspect 4] in [Aspect 2 ] to [Aspect 5] in [Aspect 3] in [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/cache/metadata/en/cei_srm020_esmsip2.htm</t>
+  </si>
+  <si>
+    <t>6_MIP_EUROSTAT_recycling_input_rate</t>
+  </si>
+  <si>
+    <t>update_12-05-2023</t>
+  </si>
+  <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
+    <t>aggregate manufacturing sector</t>
+  </si>
+  <si>
+    <t>aggregate manufacturing output</t>
+  </si>
+  <si>
+    <t>major materials and chemical elements</t>
+  </si>
+  <si>
+    <t>30 different major materials and chemical elements</t>
+  </si>
+  <si>
+    <t>all EU member states (aggregate)</t>
+  </si>
+  <si>
+    <t>2013-2022</t>
+  </si>
+  <si>
+    <t>data reported for four years</t>
+  </si>
+  <si>
+    <t>Reycling input rate, share of recycled material in total manufacturing input, indicator cei_srm010</t>
+  </si>
+  <si>
+    <t>recycling input rate; EU; recycling; recycled content; cei_srm010</t>
+  </si>
+  <si>
+    <t>contains the following dataset (last updates): cei_srm010, 12-05-2023</t>
+  </si>
+  <si>
+    <t>Mass ratio of recycled copper in total copper input into manufacturing in EU in 2019 was 16.9 %.</t>
+  </si>
+  <si>
+    <t>[Layer] of recycled [Aspect 1] in total input of [Aspect 1] into [Aspect 3] in [Aspect 2] in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/cache/metadata/en/cei_srm010_esmsip2.htm</t>
+  </si>
+  <si>
+    <t>5_CAP_Solar_Wind_Geothermal_OWID_2023</t>
+  </si>
+  <si>
+    <t>3 subsectors/technologies</t>
+  </si>
+  <si>
+    <t>Installed power generation capacity, by technology, by country and year.</t>
+  </si>
+  <si>
+    <t>renewable-based electricity; electricity; renewables; wind; solar; geothermal;</t>
+  </si>
+  <si>
+    <t>Value(p,r,T,t)</t>
+  </si>
+  <si>
+    <t>Power generation capacity of solar PV in use phase in China in 2022 is 393.03 GW.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 3] in [Aspect 1] in [Aspect 2] in [Aspect 4] is [value].</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/cumulative-installed-wind-energy-capacity-gigawatts / https://ourworldindata.org/grapher/installed-solar-PV-capacity?tab=map / https://ourworldindata.org/grapher/installed-geothermal-capacity</t>
+  </si>
+  <si>
+    <t>6_PCS_Buildings_Kennedy_Megacities_2015</t>
+  </si>
+  <si>
+    <t>Gross floor area</t>
+  </si>
+  <si>
+    <t>all urban buildings</t>
+  </si>
+  <si>
+    <t>two building categories</t>
+  </si>
+  <si>
+    <t>Gobal megacities</t>
+  </si>
+  <si>
+    <t>City-level average</t>
+  </si>
+  <si>
+    <t>2001-2011</t>
+  </si>
+  <si>
+    <t>Per capita floor space of major building types in different megacities, from literature and statistical data, 2001-2011</t>
+  </si>
+  <si>
+    <t>floor space; residential buildings; urban; megacities; buildings;</t>
+  </si>
+  <si>
+    <t>Per capita floor area of urban residential buildings in Istanbul in 2011 was 11.05 m²/cap.</t>
+  </si>
+  <si>
+    <t>Christopher A. Kennedy</t>
+  </si>
+  <si>
+    <t>DOI 10.1073/pnas.1504315112</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original source (xlxs supplement) to iedc excel template</t>
+  </si>
+  <si>
+    <t>3_LT_Metals_Technosphere_Charpentier_Poncelet_2022</t>
+  </si>
+  <si>
+    <t>one aggregate use phase</t>
+  </si>
+  <si>
+    <t>all applications (average across all end uses)</t>
+  </si>
+  <si>
+    <t>one aggregate category</t>
+  </si>
+  <si>
+    <t>61 metals, base and technology metals</t>
+  </si>
+  <si>
+    <t>For contemporary consumption, losses extrapolated with currect technological parameters</t>
+  </si>
+  <si>
+    <t>year-by-year calculation</t>
+  </si>
+  <si>
+    <t>Average technical lifetimes of different chemical elements in use phase, global average estimates. From Alexandre Charpentier Poncelet et al.'s work on metal losses and lifetimes.</t>
+  </si>
+  <si>
+    <t>lifetime; use phase; technosphere; losses; average lifetime; dissipation;</t>
+  </si>
+  <si>
+    <t>The average lifetime of lithium in the technosphere/use phase, global, is 7.06 years.</t>
+  </si>
+  <si>
+    <t>[aspect1] in [aspect2] in [aspect 3] has [data type] with [Layer] of [value].</t>
+  </si>
+  <si>
+    <t>3_MC_Buildings_Infrastructure_Haberl_2021</t>
+  </si>
+  <si>
+    <t>all age-cohorts</t>
+  </si>
+  <si>
+    <t>Material content of buildings and infrastructure in Germany and Austria, compiled for Haberl et al. (2021). Values for all age-cohorts.</t>
+  </si>
+  <si>
+    <t>material; material content; residential buildings; Germany; Austria; roads; railways; buildings; infrastructure</t>
+  </si>
+  <si>
+    <t>Value(r,g,T,m)</t>
+  </si>
+  <si>
+    <t>Subway underground, part of railway category, in Austria, has concrete material intensity of 13.19 t/m².</t>
+  </si>
+  <si>
+    <t>[Layer] measuring [data type] of [Aspect 4] in [Aspect 3] part of [Aspect 2] in [Aspect1] is [Value].</t>
+  </si>
+  <si>
+    <t>6_IMI_CarbonIntensity_Electricity_OurWorldInData_2023</t>
+  </si>
+  <si>
+    <t>Carbon intensity of electricity (gCO2/kWh), 2022. Our World in Data. Carbon intensity is measured in grams of carbon dioxide-equivalents emitted per kilowatt-hour of electricity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon intensity of electricity; Electricity; GHG; Carbon; </t>
+  </si>
+  <si>
+    <t>Value(r,t,I)</t>
+  </si>
+  <si>
+    <t>Carbon intensity of electricity (gCO2/kWh) in Algeria in 2010 was 503.60544 g CO2-eq/kWh.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] for [Aspect 3] in [Aspect1] for [Aspect 2] is [Value].</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/carbon-intensity-electricity</t>
+  </si>
+  <si>
+    <t>6_PCS_Buildings_Dhaka_Sikder_2019</t>
+  </si>
+  <si>
+    <t>Four building types</t>
+  </si>
+  <si>
+    <t>Dhaka, Bangladesh</t>
+  </si>
+  <si>
+    <t>Per capita floor space of major building types in Dhaka, Bangladesh, from literature, ca. 2010-2015, exact time range not specified in paper.</t>
+  </si>
+  <si>
+    <t>floor space; residential buildings; urban; Dhaka; buildings;</t>
+  </si>
+  <si>
+    <t>Data for ca. 2010-2015, exact time range not specified in paper.</t>
+  </si>
+  <si>
+    <t>Per capita floor area of urban residential buildings in Dhaka around 2010-2015 was 10.32 m²/cap.</t>
+  </si>
+  <si>
+    <t>Sujit Kumar Sikder</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s41651-019-0029-y</t>
+  </si>
+  <si>
+    <t>datasets entry exists, data yet to be inserted, classifications 82 and 83 need to be established</t>
   </si>
 </sst>
 </file>
@@ -4819,7 +5653,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4883,6 +5717,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5069,7 +5909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5339,12 +6179,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5411,10 +6254,8 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5704,8 +6545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5741,15 +6582,15 @@
       <c r="G3" s="39" t="s">
         <v>1365</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="39" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>1503</v>
-      </c>
-      <c r="I3" s="161" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="173" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5775,7 +6616,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="170"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -5792,14 +6633,14 @@
         <v>1365</v>
       </c>
       <c r="H5" s="119" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I5" s="119" t="s">
         <v>1505</v>
-      </c>
-      <c r="I5" s="119" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="174" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -5813,7 +6654,7 @@
       <c r="I6" s="52"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="171"/>
+      <c r="B7" s="174"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -5825,7 +6666,7 @@
       <c r="I7" s="52"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="171"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -5837,7 +6678,7 @@
       <c r="I8" s="52"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="171"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -5849,7 +6690,7 @@
       <c r="I9" s="52"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="171"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -5861,7 +6702,7 @@
       <c r="I10" s="52"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="171"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -5873,7 +6714,7 @@
       <c r="I11" s="52"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="171"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -5885,7 +6726,7 @@
       <c r="I12" s="52"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="171"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -5897,7 +6738,7 @@
       <c r="I13" s="52"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="171"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -5909,7 +6750,7 @@
       <c r="I14" s="52"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="171"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -5921,7 +6762,7 @@
       <c r="I15" s="52"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="171"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -5933,7 +6774,7 @@
       <c r="I16" s="52"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="171"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -5945,7 +6786,7 @@
       <c r="I17" s="52"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="171"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -5957,7 +6798,7 @@
       <c r="I18" s="52"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="172" t="s">
+      <c r="B19" s="175" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -5972,14 +6813,14 @@
         <v>1369</v>
       </c>
       <c r="H19" s="119" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I19" s="119" t="s">
         <v>1504</v>
-      </c>
-      <c r="I19" s="119" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="172"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -5996,14 +6837,14 @@
         <v>1366</v>
       </c>
       <c r="H20" s="119" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I20" s="119" t="s">
         <v>1508</v>
-      </c>
-      <c r="I20" s="119" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="172"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -6016,14 +6857,14 @@
         <v>1368</v>
       </c>
       <c r="H21" s="119" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I21" s="119" t="s">
         <v>1507</v>
-      </c>
-      <c r="I21" s="119" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -6047,7 +6888,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="173"/>
+      <c r="B23" s="176"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -6059,7 +6900,7 @@
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="173"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -6071,7 +6912,7 @@
       <c r="I24" s="52"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="173"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -6084,14 +6925,14 @@
         <v>1367</v>
       </c>
       <c r="H25" s="90" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I25" s="90" t="s">
         <v>1506</v>
-      </c>
-      <c r="I25" s="90" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="173"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -6105,7 +6946,7 @@
       <c r="I26" s="52"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="173"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -6117,7 +6958,7 @@
       <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="177" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -6143,7 +6984,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="174"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -6167,7 +7008,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="170" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -6181,7 +7022,7 @@
       <c r="I30" s="22"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="168"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -6193,7 +7034,7 @@
       <c r="I31" s="20"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="169"/>
+      <c r="B32" s="172"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -6221,11 +7062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -6305,18 +7146,18 @@
       <c r="R3" s="82" t="s">
         <v>1384</v>
       </c>
-      <c r="S3" s="163" t="s">
+      <c r="S3" s="82" t="s">
         <v>1509</v>
       </c>
-      <c r="T3" s="163" t="s">
+      <c r="T3" s="82" t="s">
         <v>1510</v>
       </c>
-      <c r="U3" s="163" t="s">
+      <c r="U3" s="82" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="178" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -6378,7 +7219,7 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B5" s="176"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -6427,13 +7268,13 @@
       <c r="R5" s="29" t="s">
         <v>1384</v>
       </c>
-      <c r="S5" s="164" t="s">
+      <c r="S5" s="161" t="s">
         <v>1509</v>
       </c>
-      <c r="T5" s="190" t="s">
+      <c r="T5" s="165" t="s">
         <v>1510</v>
       </c>
-      <c r="U5" s="190" t="s">
+      <c r="U5" s="165" t="s">
         <v>1543</v>
       </c>
     </row>
@@ -6485,13 +7326,13 @@
       <c r="R6" s="29" t="s">
         <v>1150</v>
       </c>
-      <c r="S6" s="164" t="s">
+      <c r="S6" s="161" t="s">
         <v>1150</v>
       </c>
-      <c r="T6" s="190" t="s">
+      <c r="T6" s="165" t="s">
         <v>1150</v>
       </c>
-      <c r="U6" s="190" t="s">
+      <c r="U6" s="165" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -6556,7 +7397,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="174" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -6608,15 +7449,15 @@
       <c r="S8" s="40" t="s">
         <v>1519</v>
       </c>
-      <c r="T8" s="190" t="s">
+      <c r="T8" s="165" t="s">
         <v>1533</v>
       </c>
-      <c r="U8" s="190" t="s">
+      <c r="U8" s="165" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="171"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -6666,15 +7507,15 @@
       <c r="S9" s="40" t="s">
         <v>1521</v>
       </c>
-      <c r="T9" s="190" t="s">
+      <c r="T9" s="165" t="s">
         <v>1532</v>
       </c>
-      <c r="U9" s="190" t="s">
+      <c r="U9" s="165" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B10" s="171"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -6724,15 +7565,15 @@
       <c r="S10" s="40" t="s">
         <v>1520</v>
       </c>
-      <c r="T10" s="190" t="s">
+      <c r="T10" s="165" t="s">
         <v>199</v>
       </c>
-      <c r="U10" s="190" t="s">
+      <c r="U10" s="165" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="171"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -6782,15 +7623,15 @@
       <c r="S11" s="40" t="s">
         <v>1522</v>
       </c>
-      <c r="T11" s="190" t="s">
+      <c r="T11" s="165" t="s">
         <v>1542</v>
       </c>
-      <c r="U11" s="190" t="s">
+      <c r="U11" s="165" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="171"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -6837,18 +7678,18 @@
       <c r="R12" s="29" t="s">
         <v>1372</v>
       </c>
-      <c r="S12" s="164" t="s">
+      <c r="S12" s="161" t="s">
         <v>1516</v>
       </c>
-      <c r="T12" s="190" t="s">
+      <c r="T12" s="165" t="s">
         <v>1534</v>
       </c>
-      <c r="U12" s="190" t="s">
+      <c r="U12" s="165" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="171"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -6898,15 +7739,15 @@
       <c r="S13" s="40" t="s">
         <v>1523</v>
       </c>
-      <c r="T13" s="190" t="s">
+      <c r="T13" s="165" t="s">
         <v>1094</v>
       </c>
-      <c r="U13" s="190" t="s">
+      <c r="U13" s="165" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="171"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -6956,15 +7797,15 @@
       <c r="S14" s="40" t="s">
         <v>1524</v>
       </c>
-      <c r="T14" s="190" t="s">
+      <c r="T14" s="165" t="s">
         <v>1535</v>
       </c>
-      <c r="U14" s="190" t="s">
+      <c r="U14" s="165" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="171"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -7011,18 +7852,18 @@
       <c r="R15" s="29" t="s">
         <v>1376</v>
       </c>
-      <c r="S15" s="164" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" s="190" t="s">
+      <c r="S15" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="165" t="s">
         <v>1536</v>
       </c>
-      <c r="U15" s="190" t="s">
+      <c r="U15" s="165" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="171"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -7069,18 +7910,18 @@
       <c r="R16" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="S16" s="164" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" s="190" t="s">
+      <c r="S16" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="165" t="s">
         <v>1535</v>
       </c>
-      <c r="U16" s="190" t="s">
+      <c r="U16" s="165" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="17" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="171"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -7127,18 +7968,18 @@
       <c r="R17" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="164" t="s">
+      <c r="S17" s="161" t="s">
         <v>819</v>
       </c>
-      <c r="T17" s="190" t="s">
+      <c r="T17" s="165" t="s">
         <v>1531</v>
       </c>
-      <c r="U17" s="190" t="s">
+      <c r="U17" s="165" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="171"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -7185,18 +8026,18 @@
       <c r="R18" s="29" t="s">
         <v>1385</v>
       </c>
-      <c r="S18" s="164" t="s">
+      <c r="S18" s="161" t="s">
         <v>1517</v>
       </c>
-      <c r="T18" s="190" t="s">
+      <c r="T18" s="165" t="s">
         <v>1530</v>
       </c>
-      <c r="U18" s="190" t="s">
+      <c r="U18" s="165" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B19" s="171"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -7243,18 +8084,18 @@
       <c r="R19" s="29" t="s">
         <v>1378</v>
       </c>
-      <c r="S19" s="164" t="s">
+      <c r="S19" s="161" t="s">
         <v>1518</v>
       </c>
-      <c r="T19" s="190" t="s">
+      <c r="T19" s="165" t="s">
         <v>1518</v>
       </c>
-      <c r="U19" s="190" t="s">
+      <c r="U19" s="165" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="171"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -7304,15 +8145,15 @@
       <c r="S20" s="29" t="s">
         <v>1278</v>
       </c>
-      <c r="T20" s="190" t="s">
+      <c r="T20" s="165" t="s">
         <v>1278</v>
       </c>
-      <c r="U20" s="190" t="s">
+      <c r="U20" s="165" t="s">
         <v>1557</v>
       </c>
     </row>
     <row r="21" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="175" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -7364,15 +8205,15 @@
       <c r="S21" s="40" t="s">
         <v>1525</v>
       </c>
-      <c r="T21" s="190" t="s">
+      <c r="T21" s="165" t="s">
         <v>1537</v>
       </c>
-      <c r="U21" s="190" t="s">
+      <c r="U21" s="165" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="172"/>
+      <c r="B22" s="175"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -7424,15 +8265,15 @@
       <c r="S22" s="40" t="s">
         <v>1526</v>
       </c>
-      <c r="T22" s="190" t="s">
+      <c r="T22" s="165" t="s">
         <v>1538</v>
       </c>
-      <c r="U22" s="190" t="s">
+      <c r="U22" s="165" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B23" s="172"/>
+      <c r="B23" s="175"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
@@ -7473,24 +8314,24 @@
       <c r="P23" s="146" t="s">
         <v>1501</v>
       </c>
-      <c r="Q23" s="162" t="s">
+      <c r="Q23" s="37" t="s">
         <v>1502</v>
       </c>
       <c r="R23" s="154" t="s">
         <v>1388</v>
       </c>
-      <c r="S23" s="189" t="s">
-        <v>11</v>
-      </c>
-      <c r="T23" s="190" t="s">
-        <v>11</v>
-      </c>
-      <c r="U23" s="190" t="s">
+      <c r="S23" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="T23" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23" s="165" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="172"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -7537,18 +8378,18 @@
       <c r="R24" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S24" s="164" t="s">
-        <v>11</v>
-      </c>
-      <c r="T24" s="190" t="s">
-        <v>11</v>
-      </c>
-      <c r="U24" s="190" t="s">
+      <c r="S24" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="T24" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="U24" s="165" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="173" t="s">
+      <c r="B25" s="176" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -7608,7 +8449,7 @@
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B26" s="173"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -7658,15 +8499,15 @@
       <c r="S26" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="T26" s="190" t="s">
+      <c r="T26" s="165" t="s">
         <v>1541</v>
       </c>
-      <c r="U26" s="190" t="s">
+      <c r="U26" s="165" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B27" s="173"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -7716,15 +8557,15 @@
       <c r="S27" s="40" t="s">
         <v>1527</v>
       </c>
-      <c r="T27" s="190" t="s">
+      <c r="T27" s="165" t="s">
         <v>1511</v>
       </c>
-      <c r="U27" s="190" t="s">
+      <c r="U27" s="165" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B28" s="173"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -7782,7 +8623,7 @@
       </c>
     </row>
     <row r="29" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="173"/>
+      <c r="B29" s="176"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -7832,7 +8673,7 @@
       <c r="S29" s="157" t="s">
         <v>1529</v>
       </c>
-      <c r="T29" s="191" t="s">
+      <c r="T29" s="166" t="s">
         <v>1539</v>
       </c>
       <c r="U29" s="47" t="s">
@@ -7840,7 +8681,7 @@
       </c>
     </row>
     <row r="30" spans="2:21" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="173"/>
+      <c r="B30" s="176"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -7887,10 +8728,10 @@
       <c r="R30" s="154" t="s">
         <v>1388</v>
       </c>
-      <c r="S30" s="189" t="s">
+      <c r="S30" s="164" t="s">
         <v>1528</v>
       </c>
-      <c r="T30" s="191" t="s">
+      <c r="T30" s="166" t="s">
         <v>1540</v>
       </c>
       <c r="U30" s="47" t="s">
@@ -7898,7 +8739,7 @@
       </c>
     </row>
     <row r="31" spans="2:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="174" t="s">
+      <c r="B31" s="177" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -7949,18 +8790,18 @@
       <c r="R31" s="142">
         <v>44871</v>
       </c>
-      <c r="S31" s="165">
+      <c r="S31" s="162">
         <v>45144</v>
       </c>
-      <c r="T31" s="165">
+      <c r="T31" s="162">
         <v>45164</v>
       </c>
-      <c r="U31" s="165">
+      <c r="U31" s="162">
         <v>45182</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B32" s="177"/>
+      <c r="B32" s="180"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -8009,18 +8850,18 @@
       <c r="R32" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="S32" s="164" t="s">
+      <c r="S32" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="T32" s="190" t="s">
+      <c r="T32" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="U32" s="190" t="s">
+      <c r="U32" s="165" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B33" s="167" t="s">
+      <c r="B33" s="170" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -8041,12 +8882,12 @@
       <c r="P33" s="146"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="29"/>
-      <c r="S33" s="164"/>
-      <c r="T33" s="190"/>
-      <c r="U33" s="190"/>
+      <c r="S33" s="161"/>
+      <c r="T33" s="165"/>
+      <c r="U33" s="165"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B34" s="168"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -8065,12 +8906,12 @@
       <c r="P34" s="146"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="29"/>
-      <c r="S34" s="164"/>
-      <c r="T34" s="190"/>
-      <c r="U34" s="190"/>
+      <c r="S34" s="161"/>
+      <c r="T34" s="165"/>
+      <c r="U34" s="165"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B35" s="169"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -8089,9 +8930,9 @@
       <c r="P35" s="151"/>
       <c r="Q35" s="152"/>
       <c r="R35" s="30"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="192"/>
-      <c r="U35" s="192"/>
+      <c r="S35" s="163"/>
+      <c r="T35" s="167"/>
+      <c r="U35" s="167"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="I39" s="12"/>
@@ -8116,11 +8957,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA74"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="BM6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="BZ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CB5" sqref="CB5"/>
+      <selection pane="bottomRight" activeCell="CL1" sqref="CJ1:CL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -8181,7 +9022,7 @@
     <col min="70" max="16384" width="11.53125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:101" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -8407,8 +9248,77 @@
       <c r="BZ1" s="155" t="s">
         <v>1433</v>
       </c>
+      <c r="CA1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CB1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CC1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CD1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CE1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CF1" s="193" t="s">
+        <v>1674</v>
+      </c>
+      <c r="CG1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CH1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CI1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CJ1" s="192" t="s">
+        <v>1835</v>
+      </c>
+      <c r="CK1" s="192" t="s">
+        <v>1835</v>
+      </c>
+      <c r="CL1" s="192" t="s">
+        <v>1835</v>
+      </c>
+      <c r="CM1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CN1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CO1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CP1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CQ1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CR1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CS1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CT1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CU1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CV1" s="155" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CW1" s="155" t="s">
+        <v>1433</v>
+      </c>
     </row>
-    <row r="2" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:101" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -8458,8 +9368,77 @@
       <c r="BZ2" s="117" t="s">
         <v>1432</v>
       </c>
+      <c r="CA2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CB2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CC2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CD2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CE2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CF2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CG2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CH2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CI2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CJ2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CK2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CL2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CM2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CN2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CO2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CP2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CQ2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CR2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CS2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CT2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CU2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CV2" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="CW2" s="12" t="s">
+        <v>1575</v>
+      </c>
     </row>
-    <row r="3" spans="1:78" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:101" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -8689,12 +9668,30 @@
       <c r="BZ3" s="105">
         <v>308</v>
       </c>
+      <c r="CA3" s="117">
+        <v>309</v>
+      </c>
+      <c r="CB3" s="105">
+        <v>310</v>
+      </c>
+      <c r="CC3" s="117">
+        <v>311</v>
+      </c>
+      <c r="CD3" s="105">
+        <v>312</v>
+      </c>
+      <c r="CE3" s="117">
+        <v>313</v>
+      </c>
+      <c r="CF3" s="105"/>
+      <c r="CG3" s="117"/>
+      <c r="CH3" s="105"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="183" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -8925,12 +9922,30 @@
       <c r="BZ4" s="105">
         <v>308</v>
       </c>
+      <c r="CA4" s="117">
+        <v>309</v>
+      </c>
+      <c r="CB4" s="105">
+        <v>310</v>
+      </c>
+      <c r="CC4" s="117">
+        <v>311</v>
+      </c>
+      <c r="CD4" s="105">
+        <v>312</v>
+      </c>
+      <c r="CE4" s="117">
+        <v>313</v>
+      </c>
+      <c r="CF4" s="105"/>
+      <c r="CG4" s="117"/>
+      <c r="CH4" s="105"/>
     </row>
-    <row r="5" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="181"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -9159,8 +10174,77 @@
       <c r="BZ5" s="115" t="s">
         <v>1494</v>
       </c>
+      <c r="CA5" s="41" t="s">
+        <v>1558</v>
+      </c>
+      <c r="CB5" s="41" t="s">
+        <v>1577</v>
+      </c>
+      <c r="CC5" s="41" t="s">
+        <v>1597</v>
+      </c>
+      <c r="CD5" s="41" t="s">
+        <v>1611</v>
+      </c>
+      <c r="CE5" s="41" t="s">
+        <v>1629</v>
+      </c>
+      <c r="CF5" s="41" t="s">
+        <v>1647</v>
+      </c>
+      <c r="CG5" s="41" t="s">
+        <v>1654</v>
+      </c>
+      <c r="CH5" s="41" t="s">
+        <v>1662</v>
+      </c>
+      <c r="CI5" s="41" t="s">
+        <v>1675</v>
+      </c>
+      <c r="CJ5" s="41" t="s">
+        <v>1693</v>
+      </c>
+      <c r="CK5" s="41" t="s">
+        <v>1704</v>
+      </c>
+      <c r="CL5" s="41" t="s">
+        <v>1708</v>
+      </c>
+      <c r="CM5" s="41" t="s">
+        <v>1715</v>
+      </c>
+      <c r="CN5" s="41" t="s">
+        <v>1728</v>
+      </c>
+      <c r="CO5" s="41" t="s">
+        <v>1740</v>
+      </c>
+      <c r="CP5" s="41" t="s">
+        <v>1750</v>
+      </c>
+      <c r="CQ5" s="41" t="s">
+        <v>1764</v>
+      </c>
+      <c r="CR5" s="41" t="s">
+        <v>1780</v>
+      </c>
+      <c r="CS5" s="12" t="s">
+        <v>1788</v>
+      </c>
+      <c r="CT5" s="41" t="s">
+        <v>1801</v>
+      </c>
+      <c r="CU5" s="12" t="s">
+        <v>1812</v>
+      </c>
+      <c r="CV5" s="12" t="s">
+        <v>1819</v>
+      </c>
+      <c r="CW5" s="12" t="s">
+        <v>1826</v>
+      </c>
     </row>
-    <row r="6" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:101" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -9391,12 +10475,81 @@
       <c r="BZ6" s="115" t="s">
         <v>1435</v>
       </c>
+      <c r="CA6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD6" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE6" s="41" t="s">
+        <v>1405</v>
+      </c>
+      <c r="CF6" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG6" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH6" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI6" s="41" t="s">
+        <v>1676</v>
+      </c>
+      <c r="CJ6" s="41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CK6" s="41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CL6" s="41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CM6" s="41" t="s">
+        <v>1676</v>
+      </c>
+      <c r="CN6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO6" s="41" t="s">
+        <v>1741</v>
+      </c>
+      <c r="CP6" s="41" t="s">
+        <v>1751</v>
+      </c>
+      <c r="CQ6" s="41" t="s">
+        <v>1765</v>
+      </c>
+      <c r="CR6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW6" s="41" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:101" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="185" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -9625,12 +10778,81 @@
       <c r="BZ7" s="115">
         <v>12</v>
       </c>
+      <c r="CA7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="CB7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="CC7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="CD7" s="41">
+        <v>15</v>
+      </c>
+      <c r="CE7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="CF7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="CG7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="CH7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="CI7" s="41">
+        <v>16</v>
+      </c>
+      <c r="CJ7" s="41">
+        <v>17</v>
+      </c>
+      <c r="CK7" s="41">
+        <v>17</v>
+      </c>
+      <c r="CL7" s="41">
+        <v>17</v>
+      </c>
+      <c r="CM7" s="41">
+        <v>16</v>
+      </c>
+      <c r="CN7" s="41">
+        <v>15</v>
+      </c>
+      <c r="CO7" s="41">
+        <v>16</v>
+      </c>
+      <c r="CP7" s="41">
+        <v>16</v>
+      </c>
+      <c r="CQ7" s="41">
+        <v>16</v>
+      </c>
+      <c r="CR7" s="41">
+        <v>15</v>
+      </c>
+      <c r="CS7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="CT7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="CU7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="CV7" s="41">
+        <v>15</v>
+      </c>
+      <c r="CW7" s="41" t="s">
+        <v>845</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="182"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -9859,12 +11081,81 @@
       <c r="BZ8" s="115">
         <v>1</v>
       </c>
+      <c r="CA8" s="41">
+        <v>4</v>
+      </c>
+      <c r="CB8" s="41">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="41">
+        <v>2</v>
+      </c>
+      <c r="CD8" s="41">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="41">
+        <v>3</v>
+      </c>
+      <c r="CF8" s="41">
+        <v>3</v>
+      </c>
+      <c r="CG8" s="41">
+        <v>6</v>
+      </c>
+      <c r="CH8" s="41">
+        <v>6</v>
+      </c>
+      <c r="CI8" s="41">
+        <v>6</v>
+      </c>
+      <c r="CJ8" s="41">
+        <v>5</v>
+      </c>
+      <c r="CK8" s="41">
+        <v>4</v>
+      </c>
+      <c r="CL8" s="41">
+        <v>4</v>
+      </c>
+      <c r="CM8" s="41">
+        <v>4</v>
+      </c>
+      <c r="CN8" s="41">
+        <v>3</v>
+      </c>
+      <c r="CO8" s="41">
+        <v>6</v>
+      </c>
+      <c r="CP8" s="41">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="41">
+        <v>6</v>
+      </c>
+      <c r="CR8" s="41">
+        <v>5</v>
+      </c>
+      <c r="CS8" s="41">
+        <v>6</v>
+      </c>
+      <c r="CT8" s="41">
+        <v>3</v>
+      </c>
+      <c r="CU8" s="41">
+        <v>3</v>
+      </c>
+      <c r="CV8" s="41">
+        <v>6</v>
+      </c>
+      <c r="CW8" s="41">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="182"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -10093,12 +11384,81 @@
       <c r="BZ9" s="115" t="s">
         <v>1</v>
       </c>
+      <c r="CA9" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE9" s="41" t="s">
+        <v>846</v>
+      </c>
+      <c r="CF9" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG9" s="41" t="s">
+        <v>1655</v>
+      </c>
+      <c r="CH9" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="CI9" s="41" t="s">
+        <v>1677</v>
+      </c>
+      <c r="CJ9" s="41" t="s">
+        <v>1694</v>
+      </c>
+      <c r="CK9" s="41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="CL9" s="41" t="s">
+        <v>1709</v>
+      </c>
+      <c r="CM9" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN9" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO9" s="41" t="s">
+        <v>1742</v>
+      </c>
+      <c r="CP9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="41" t="s">
+        <v>1677</v>
+      </c>
+      <c r="CR9" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="CS9" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="CT9" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU9" s="41" t="s">
+        <v>846</v>
+      </c>
+      <c r="CV9" s="41" t="s">
+        <v>1655</v>
+      </c>
+      <c r="CW9" s="41" t="s">
+        <v>360</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -10327,12 +11687,81 @@
       <c r="BZ10" s="115" t="s">
         <v>12</v>
       </c>
+      <c r="CA10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="CC10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD10" s="41" t="s">
+        <v>1612</v>
+      </c>
+      <c r="CE10" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="CF10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="CH10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="CI10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ10" s="41" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CK10" s="41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="CL10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN10" s="41" t="s">
+        <v>1612</v>
+      </c>
+      <c r="CO10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="CQ10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="CR10" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="CS10" s="41" t="s">
+        <v>1789</v>
+      </c>
+      <c r="CT10" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU10" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="CW10" s="41" t="s">
+        <v>1789</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:101" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="186" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -10561,12 +11990,81 @@
       <c r="BZ11" s="115" t="s">
         <v>1495</v>
       </c>
+      <c r="CA11" s="41" t="s">
+        <v>1559</v>
+      </c>
+      <c r="CB11" s="41" t="s">
+        <v>1578</v>
+      </c>
+      <c r="CC11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD11" s="41" t="s">
+        <v>1613</v>
+      </c>
+      <c r="CE11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF11" s="41" t="s">
+        <v>782</v>
+      </c>
+      <c r="CG11" s="41" t="s">
+        <v>1578</v>
+      </c>
+      <c r="CH11" s="41" t="s">
+        <v>782</v>
+      </c>
+      <c r="CI11" s="41" t="s">
+        <v>1678</v>
+      </c>
+      <c r="CJ11" s="41" t="s">
+        <v>1545</v>
+      </c>
+      <c r="CK11" s="41" t="s">
+        <v>1545</v>
+      </c>
+      <c r="CL11" s="41" t="s">
+        <v>1545</v>
+      </c>
+      <c r="CM11" s="41" t="s">
+        <v>1716</v>
+      </c>
+      <c r="CN11" s="41" t="s">
+        <v>1729</v>
+      </c>
+      <c r="CO11" s="41" t="s">
+        <v>1542</v>
+      </c>
+      <c r="CP11" s="41" t="s">
+        <v>1752</v>
+      </c>
+      <c r="CQ11" s="41" t="s">
+        <v>1766</v>
+      </c>
+      <c r="CR11" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="CS11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="CU11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV11" s="41" t="s">
+        <v>1613</v>
+      </c>
+      <c r="CW11" s="41" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="184"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -10793,12 +12291,81 @@
       <c r="BZ12" s="115" t="s">
         <v>1495</v>
       </c>
+      <c r="CA12" s="41" t="s">
+        <v>1560</v>
+      </c>
+      <c r="CB12" s="41" t="s">
+        <v>1579</v>
+      </c>
+      <c r="CC12" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD12" s="41" t="s">
+        <v>1614</v>
+      </c>
+      <c r="CE12" s="41" t="s">
+        <v>1630</v>
+      </c>
+      <c r="CF12" s="41" t="s">
+        <v>1648</v>
+      </c>
+      <c r="CG12" s="41" t="s">
+        <v>1579</v>
+      </c>
+      <c r="CH12" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="CI12" s="41" t="s">
+        <v>1679</v>
+      </c>
+      <c r="CJ12" s="41" t="s">
+        <v>1546</v>
+      </c>
+      <c r="CK12" s="41" t="s">
+        <v>1546</v>
+      </c>
+      <c r="CL12" s="41" t="s">
+        <v>1546</v>
+      </c>
+      <c r="CM12" s="41" t="s">
+        <v>1717</v>
+      </c>
+      <c r="CN12" s="41" t="s">
+        <v>1516</v>
+      </c>
+      <c r="CO12" s="41" t="s">
+        <v>1534</v>
+      </c>
+      <c r="CP12" s="41" t="s">
+        <v>1753</v>
+      </c>
+      <c r="CQ12" s="41" t="s">
+        <v>1767</v>
+      </c>
+      <c r="CR12" s="41" t="s">
+        <v>1781</v>
+      </c>
+      <c r="CS12" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="CT12" s="41" t="s">
+        <v>1802</v>
+      </c>
+      <c r="CU12" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="CV12" s="41" t="s">
+        <v>1516</v>
+      </c>
+      <c r="CW12" s="41" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="13" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="184"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -11025,12 +12592,81 @@
       <c r="BZ13" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="CA13" s="41" t="s">
+        <v>1561</v>
+      </c>
+      <c r="CB13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC13" s="41" t="s">
+        <v>1598</v>
+      </c>
+      <c r="CD13" s="41" t="s">
+        <v>1615</v>
+      </c>
+      <c r="CE13" s="41" t="s">
+        <v>1631</v>
+      </c>
+      <c r="CF13" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="CG13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH13" s="41" t="s">
+        <v>1485</v>
+      </c>
+      <c r="CI13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN13" s="41" t="s">
+        <v>1615</v>
+      </c>
+      <c r="CO13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ13" s="41" t="s">
+        <v>1561</v>
+      </c>
+      <c r="CR13" s="41" t="s">
+        <v>1615</v>
+      </c>
+      <c r="CS13" s="41" t="s">
+        <v>1790</v>
+      </c>
+      <c r="CT13" s="41" t="s">
+        <v>1803</v>
+      </c>
+      <c r="CU13" s="41" t="s">
+        <v>1598</v>
+      </c>
+      <c r="CV13" s="41" t="s">
+        <v>1615</v>
+      </c>
+      <c r="CW13" s="41" t="s">
+        <v>1790</v>
+      </c>
     </row>
-    <row r="14" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="184"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -11257,12 +12893,81 @@
       <c r="BZ14" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="CA14" s="41" t="s">
+        <v>1562</v>
+      </c>
+      <c r="CB14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC14" s="41" t="s">
+        <v>1599</v>
+      </c>
+      <c r="CD14" s="41" t="s">
+        <v>1616</v>
+      </c>
+      <c r="CE14" s="41" t="s">
+        <v>1632</v>
+      </c>
+      <c r="CF14" s="41" t="s">
+        <v>1649</v>
+      </c>
+      <c r="CG14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH14" s="41" t="s">
+        <v>1485</v>
+      </c>
+      <c r="CI14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN14" s="41" t="s">
+        <v>1616</v>
+      </c>
+      <c r="CO14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ14" s="41" t="s">
+        <v>1768</v>
+      </c>
+      <c r="CR14" s="41" t="s">
+        <v>1616</v>
+      </c>
+      <c r="CS14" s="41" t="s">
+        <v>1791</v>
+      </c>
+      <c r="CT14" s="41" t="s">
+        <v>1804</v>
+      </c>
+      <c r="CU14" s="41" t="s">
+        <v>1599</v>
+      </c>
+      <c r="CV14" s="41" t="s">
+        <v>1616</v>
+      </c>
+      <c r="CW14" s="41" t="s">
+        <v>1827</v>
+      </c>
     </row>
-    <row r="15" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="187"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -11489,12 +13194,81 @@
       <c r="BZ15" s="115" t="s">
         <v>1476</v>
       </c>
+      <c r="CA15" s="41" t="s">
+        <v>1563</v>
+      </c>
+      <c r="CB15" s="41" t="s">
+        <v>1580</v>
+      </c>
+      <c r="CC15" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="CD15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE15" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="CF15" s="41" t="s">
+        <v>1650</v>
+      </c>
+      <c r="CG15" s="41" t="s">
+        <v>1580</v>
+      </c>
+      <c r="CH15" s="41" t="s">
+        <v>1663</v>
+      </c>
+      <c r="CI15" s="41" t="s">
+        <v>1680</v>
+      </c>
+      <c r="CJ15" s="41" t="s">
+        <v>1545</v>
+      </c>
+      <c r="CK15" s="41" t="s">
+        <v>1545</v>
+      </c>
+      <c r="CL15" s="41" t="s">
+        <v>1545</v>
+      </c>
+      <c r="CM15" s="41" t="s">
+        <v>1718</v>
+      </c>
+      <c r="CN15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO15" s="41" t="s">
+        <v>1536</v>
+      </c>
+      <c r="CP15" s="41" t="s">
+        <v>1536</v>
+      </c>
+      <c r="CQ15" s="41" t="s">
+        <v>1769</v>
+      </c>
+      <c r="CR15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT15" s="41" t="s">
+        <v>1563</v>
+      </c>
+      <c r="CU15" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="CV15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW15" s="41" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="16" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="184"/>
+      <c r="B16" s="187"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -11721,12 +13495,81 @@
       <c r="BZ16" s="115" t="s">
         <v>1477</v>
       </c>
+      <c r="CA16" s="41" t="s">
+        <v>1564</v>
+      </c>
+      <c r="CB16" s="41" t="s">
+        <v>1581</v>
+      </c>
+      <c r="CC16" s="41" t="s">
+        <v>1600</v>
+      </c>
+      <c r="CD16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE16" s="41" t="s">
+        <v>1633</v>
+      </c>
+      <c r="CF16" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG16" s="41" t="s">
+        <v>1581</v>
+      </c>
+      <c r="CH16" s="41" t="s">
+        <v>1664</v>
+      </c>
+      <c r="CI16" s="41" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CJ16" s="41" t="s">
+        <v>1549</v>
+      </c>
+      <c r="CK16" s="41" t="s">
+        <v>1549</v>
+      </c>
+      <c r="CL16" s="41" t="s">
+        <v>1549</v>
+      </c>
+      <c r="CM16" s="41" t="s">
+        <v>1719</v>
+      </c>
+      <c r="CN16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO16" s="41" t="s">
+        <v>1535</v>
+      </c>
+      <c r="CP16" s="41" t="s">
+        <v>1754</v>
+      </c>
+      <c r="CQ16" s="41" t="s">
+        <v>1770</v>
+      </c>
+      <c r="CR16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT16" s="41" t="s">
+        <v>1805</v>
+      </c>
+      <c r="CU16" s="41" t="s">
+        <v>1600</v>
+      </c>
+      <c r="CV16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW16" s="41" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="184"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -11953,12 +13796,81 @@
       <c r="BZ17" s="115" t="s">
         <v>19</v>
       </c>
+      <c r="CA17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB17" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="CC17" s="41" t="s">
+        <v>1601</v>
+      </c>
+      <c r="CD17" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="CE17" s="41" t="s">
+        <v>1634</v>
+      </c>
+      <c r="CF17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="CG17" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="CH17" s="41" t="s">
+        <v>1665</v>
+      </c>
+      <c r="CI17" s="41" t="s">
+        <v>1682</v>
+      </c>
+      <c r="CJ17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="CK17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="CM17" s="41" t="s">
+        <v>1682</v>
+      </c>
+      <c r="CN17" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="CO17" s="41" t="s">
+        <v>1531</v>
+      </c>
+      <c r="CP17" s="41" t="s">
+        <v>1531</v>
+      </c>
+      <c r="CQ17" s="41" t="s">
+        <v>1531</v>
+      </c>
+      <c r="CR17" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="CS17" s="41" t="s">
+        <v>1792</v>
+      </c>
+      <c r="CT17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU17" s="41" t="s">
+        <v>1601</v>
+      </c>
+      <c r="CV17" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="CW17" s="41" t="s">
+        <v>1828</v>
+      </c>
     </row>
-    <row r="18" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="184"/>
+      <c r="B18" s="187"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -12185,12 +14097,81 @@
       <c r="BZ18" s="115" t="s">
         <v>129</v>
       </c>
+      <c r="CA18" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="CB18" s="41" t="s">
+        <v>1582</v>
+      </c>
+      <c r="CC18" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="CD18" s="41" t="s">
+        <v>1617</v>
+      </c>
+      <c r="CE18" s="41" t="s">
+        <v>1634</v>
+      </c>
+      <c r="CF18" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="CG18" s="41" t="s">
+        <v>1582</v>
+      </c>
+      <c r="CH18" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="CI18" s="41" t="s">
+        <v>1683</v>
+      </c>
+      <c r="CJ18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="CK18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="CM18" s="41" t="s">
+        <v>1683</v>
+      </c>
+      <c r="CN18" s="41" t="s">
+        <v>1730</v>
+      </c>
+      <c r="CO18" s="41" t="s">
+        <v>1530</v>
+      </c>
+      <c r="CP18" s="41" t="s">
+        <v>1755</v>
+      </c>
+      <c r="CQ18" s="41" t="s">
+        <v>1771</v>
+      </c>
+      <c r="CR18" s="41" t="s">
+        <v>1730</v>
+      </c>
+      <c r="CS18" s="41" t="s">
+        <v>1793</v>
+      </c>
+      <c r="CT18" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="CU18" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="CV18" s="41" t="s">
+        <v>1517</v>
+      </c>
+      <c r="CW18" s="41" t="s">
+        <v>1793</v>
+      </c>
     </row>
-    <row r="19" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="184"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -12417,12 +14398,81 @@
       <c r="BZ19" s="115" t="s">
         <v>1378</v>
       </c>
+      <c r="CA19" s="41" t="s">
+        <v>1565</v>
+      </c>
+      <c r="CB19" s="41">
+        <v>2008</v>
+      </c>
+      <c r="CC19" s="41">
+        <v>2017</v>
+      </c>
+      <c r="CD19" s="41" t="s">
+        <v>1618</v>
+      </c>
+      <c r="CE19" s="41" t="s">
+        <v>1635</v>
+      </c>
+      <c r="CF19" s="41" t="s">
+        <v>1565</v>
+      </c>
+      <c r="CG19" s="41">
+        <v>2008</v>
+      </c>
+      <c r="CH19" s="41" t="s">
+        <v>1666</v>
+      </c>
+      <c r="CI19" s="41" t="s">
+        <v>1684</v>
+      </c>
+      <c r="CJ19" s="41" t="s">
+        <v>1550</v>
+      </c>
+      <c r="CK19" s="41" t="s">
+        <v>1550</v>
+      </c>
+      <c r="CL19" s="41" t="s">
+        <v>1550</v>
+      </c>
+      <c r="CM19" s="41" t="s">
+        <v>1720</v>
+      </c>
+      <c r="CN19" s="41" t="s">
+        <v>1731</v>
+      </c>
+      <c r="CO19" s="41" t="s">
+        <v>1518</v>
+      </c>
+      <c r="CP19" s="41" t="s">
+        <v>1756</v>
+      </c>
+      <c r="CQ19" s="41" t="s">
+        <v>1772</v>
+      </c>
+      <c r="CR19" s="41" t="s">
+        <v>1518</v>
+      </c>
+      <c r="CS19" s="41" t="s">
+        <v>1794</v>
+      </c>
+      <c r="CT19" s="41" t="s">
+        <v>1806</v>
+      </c>
+      <c r="CU19" s="41" t="s">
+        <v>1813</v>
+      </c>
+      <c r="CV19" s="41" t="s">
+        <v>1518</v>
+      </c>
+      <c r="CW19" s="41" t="s">
+        <v>1018</v>
+      </c>
     </row>
-    <row r="20" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="184"/>
+      <c r="B20" s="187"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -12649,12 +14699,81 @@
       <c r="BZ20" s="115" t="s">
         <v>343</v>
       </c>
+      <c r="CA20" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="CB20" s="41" t="s">
+        <v>1583</v>
+      </c>
+      <c r="CC20" s="41">
+        <v>2017</v>
+      </c>
+      <c r="CD20" s="41" t="s">
+        <v>1278</v>
+      </c>
+      <c r="CE20" s="41" t="s">
+        <v>1636</v>
+      </c>
+      <c r="CF20" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="CG20" s="41" t="s">
+        <v>1583</v>
+      </c>
+      <c r="CH20" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="CI20" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="CJ20" s="41" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CK20" s="41" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CL20" s="41" t="s">
+        <v>1557</v>
+      </c>
+      <c r="CM20" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="CN20" s="41" t="s">
+        <v>1278</v>
+      </c>
+      <c r="CO20" s="41" t="s">
+        <v>1278</v>
+      </c>
+      <c r="CP20" s="41" t="s">
+        <v>1278</v>
+      </c>
+      <c r="CQ20" s="41" t="s">
+        <v>1773</v>
+      </c>
+      <c r="CR20" s="41" t="s">
+        <v>1278</v>
+      </c>
+      <c r="CS20" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT20" s="41" t="s">
+        <v>1807</v>
+      </c>
+      <c r="CU20" s="41" t="s">
+        <v>1813</v>
+      </c>
+      <c r="CV20" s="41" t="s">
+        <v>1278</v>
+      </c>
+      <c r="CW20" s="41" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="21" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="188" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -12877,12 +14996,81 @@
       <c r="BZ21" s="115" t="s">
         <v>1496</v>
       </c>
+      <c r="CA21" s="41" t="s">
+        <v>1566</v>
+      </c>
+      <c r="CB21" s="41" t="s">
+        <v>1584</v>
+      </c>
+      <c r="CC21" s="41" t="s">
+        <v>1602</v>
+      </c>
+      <c r="CD21" s="41" t="s">
+        <v>1619</v>
+      </c>
+      <c r="CE21" s="41" t="s">
+        <v>1637</v>
+      </c>
+      <c r="CF21" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="CG21" s="41" t="s">
+        <v>1656</v>
+      </c>
+      <c r="CH21" s="41" t="s">
+        <v>1667</v>
+      </c>
+      <c r="CI21" s="41" t="s">
+        <v>1685</v>
+      </c>
+      <c r="CJ21" s="41" t="s">
+        <v>1695</v>
+      </c>
+      <c r="CK21" s="41" t="s">
+        <v>1553</v>
+      </c>
+      <c r="CL21" s="41" t="s">
+        <v>1710</v>
+      </c>
+      <c r="CM21" s="41" t="s">
+        <v>1721</v>
+      </c>
+      <c r="CN21" s="41" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CO21" s="41" t="s">
+        <v>1743</v>
+      </c>
+      <c r="CP21" s="41" t="s">
+        <v>1757</v>
+      </c>
+      <c r="CQ21" s="41" t="s">
+        <v>1774</v>
+      </c>
+      <c r="CR21" s="41" t="s">
+        <v>1782</v>
+      </c>
+      <c r="CS21" s="41" t="s">
+        <v>1795</v>
+      </c>
+      <c r="CT21" s="41" t="s">
+        <v>1808</v>
+      </c>
+      <c r="CU21" s="41" t="s">
+        <v>1814</v>
+      </c>
+      <c r="CV21" s="41" t="s">
+        <v>1820</v>
+      </c>
+      <c r="CW21" s="41" t="s">
+        <v>1829</v>
+      </c>
     </row>
-    <row r="22" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="185"/>
+      <c r="B22" s="188"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -13111,12 +15299,81 @@
       <c r="BZ22" s="115" t="s">
         <v>1497</v>
       </c>
+      <c r="CA22" s="41" t="s">
+        <v>1567</v>
+      </c>
+      <c r="CB22" s="41" t="s">
+        <v>1585</v>
+      </c>
+      <c r="CC22" s="41" t="s">
+        <v>1603</v>
+      </c>
+      <c r="CD22" s="41" t="s">
+        <v>1620</v>
+      </c>
+      <c r="CE22" s="41" t="s">
+        <v>1638</v>
+      </c>
+      <c r="CF22" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="CG22" s="41" t="s">
+        <v>1657</v>
+      </c>
+      <c r="CH22" s="41" t="s">
+        <v>1668</v>
+      </c>
+      <c r="CI22" s="41" t="s">
+        <v>1686</v>
+      </c>
+      <c r="CJ22" s="41" t="s">
+        <v>1696</v>
+      </c>
+      <c r="CK22" s="41" t="s">
+        <v>1554</v>
+      </c>
+      <c r="CL22" s="41" t="s">
+        <v>1711</v>
+      </c>
+      <c r="CM22" s="41" t="s">
+        <v>1722</v>
+      </c>
+      <c r="CN22" s="41" t="s">
+        <v>1733</v>
+      </c>
+      <c r="CO22" s="41" t="s">
+        <v>1744</v>
+      </c>
+      <c r="CP22" s="41" t="s">
+        <v>1758</v>
+      </c>
+      <c r="CQ22" s="41" t="s">
+        <v>1775</v>
+      </c>
+      <c r="CR22" s="41" t="s">
+        <v>1783</v>
+      </c>
+      <c r="CS22" s="41" t="s">
+        <v>1796</v>
+      </c>
+      <c r="CT22" s="41" t="s">
+        <v>1809</v>
+      </c>
+      <c r="CU22" s="41" t="s">
+        <v>1815</v>
+      </c>
+      <c r="CV22" s="41" t="s">
+        <v>1821</v>
+      </c>
+      <c r="CW22" s="41" t="s">
+        <v>1830</v>
+      </c>
     </row>
-    <row r="23" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="185"/>
+      <c r="B23" s="188"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -13345,12 +15602,81 @@
       <c r="BZ23" s="115" t="s">
         <v>24</v>
       </c>
+      <c r="CA23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="CB23" s="41" t="s">
+        <v>1586</v>
+      </c>
+      <c r="CC23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD23" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="CE23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG23" s="41" t="s">
+        <v>1586</v>
+      </c>
+      <c r="CH23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="CI23" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>313</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>313</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>313</v>
+      </c>
+      <c r="CM23" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="CN23" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="CO23" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP23" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ23" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="CR23" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="CS23" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="CT23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="CU23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="CV23" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="CW23" s="41" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="185"/>
+      <c r="B24" s="188"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -13579,12 +15905,81 @@
       <c r="BZ24" s="156">
         <v>0</v>
       </c>
+      <c r="CA24" s="41">
+        <v>244</v>
+      </c>
+      <c r="CB24" s="41">
+        <v>935</v>
+      </c>
+      <c r="CC24" s="41">
+        <v>972</v>
+      </c>
+      <c r="CD24" s="41">
+        <v>33652</v>
+      </c>
+      <c r="CE24" s="41">
+        <v>1470</v>
+      </c>
+      <c r="CF24" s="41">
+        <v>2562</v>
+      </c>
+      <c r="CG24" s="41">
+        <v>2805</v>
+      </c>
+      <c r="CH24" s="41">
+        <v>54612</v>
+      </c>
+      <c r="CI24" s="41">
+        <v>540</v>
+      </c>
+      <c r="CJ24" s="41">
+        <v>774</v>
+      </c>
+      <c r="CK24" s="41">
+        <v>568</v>
+      </c>
+      <c r="CL24" s="41">
+        <v>20</v>
+      </c>
+      <c r="CM24" s="41">
+        <v>5576</v>
+      </c>
+      <c r="CN24" s="41">
+        <v>6457</v>
+      </c>
+      <c r="CO24" s="41">
+        <v>2544</v>
+      </c>
+      <c r="CP24" s="41">
+        <v>21042</v>
+      </c>
+      <c r="CQ24" s="41">
+        <v>120</v>
+      </c>
+      <c r="CR24" s="41">
+        <v>7808</v>
+      </c>
+      <c r="CS24" s="41">
+        <v>39</v>
+      </c>
+      <c r="CT24" s="41">
+        <v>183</v>
+      </c>
+      <c r="CU24" s="41">
+        <v>700</v>
+      </c>
+      <c r="CV24" s="41">
+        <v>5050</v>
+      </c>
+      <c r="CW24" s="41">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:78" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:101" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="185"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -13811,12 +16206,81 @@
       <c r="BZ25" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="CA25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB25" s="41" t="s">
+        <v>1587</v>
+      </c>
+      <c r="CC25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE25" s="41" t="s">
+        <v>1639</v>
+      </c>
+      <c r="CF25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG25" s="41" t="s">
+        <v>1587</v>
+      </c>
+      <c r="CH25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI25" s="41" t="s">
+        <v>1687</v>
+      </c>
+      <c r="CJ25" s="41" t="s">
+        <v>1697</v>
+      </c>
+      <c r="CK25" s="41" t="s">
+        <v>1555</v>
+      </c>
+      <c r="CL25" s="41" t="s">
+        <v>1555</v>
+      </c>
+      <c r="CM25" s="41" t="s">
+        <v>1723</v>
+      </c>
+      <c r="CN25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO25" s="41" t="s">
+        <v>1745</v>
+      </c>
+      <c r="CP25" s="41" t="s">
+        <v>1759</v>
+      </c>
+      <c r="CQ25" s="41" t="s">
+        <v>1776</v>
+      </c>
+      <c r="CR25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW25" s="41" t="s">
+        <v>1831</v>
+      </c>
     </row>
-    <row r="26" spans="1:78" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:101" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="186" t="s">
+      <c r="B26" s="189" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -14047,12 +16511,81 @@
       <c r="BZ26" s="115" t="s">
         <v>698</v>
       </c>
+      <c r="CA26" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="CB26" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CC26" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CD26" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CE26" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CF26" s="68" t="s">
+        <v>851</v>
+      </c>
+      <c r="CG26" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CH26" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CI26" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="CJ26" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="CK26" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="CL26" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="CM26" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CN26" s="68" t="s">
+        <v>1734</v>
+      </c>
+      <c r="CO26" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CP26" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="CQ26" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="CR26" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="CS26" s="68" t="s">
+        <v>696</v>
+      </c>
+      <c r="CT26" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="CU26" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CV26" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CW26" s="68" t="s">
+        <v>696</v>
+      </c>
     </row>
-    <row r="27" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="186"/>
+      <c r="B27" s="189"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -14281,12 +16814,81 @@
       <c r="BZ27" s="115">
         <v>77</v>
       </c>
+      <c r="CA27" s="68">
+        <v>1</v>
+      </c>
+      <c r="CB27" s="68">
+        <v>2</v>
+      </c>
+      <c r="CC27" s="68">
+        <v>2</v>
+      </c>
+      <c r="CD27" s="68">
+        <v>2</v>
+      </c>
+      <c r="CE27" s="68">
+        <v>2</v>
+      </c>
+      <c r="CF27" s="68" t="s">
+        <v>708</v>
+      </c>
+      <c r="CG27" s="68">
+        <v>3</v>
+      </c>
+      <c r="CH27" s="68">
+        <v>2</v>
+      </c>
+      <c r="CI27" s="68">
+        <v>4</v>
+      </c>
+      <c r="CJ27" s="68">
+        <v>82</v>
+      </c>
+      <c r="CK27" s="68">
+        <v>82</v>
+      </c>
+      <c r="CL27" s="68">
+        <v>82</v>
+      </c>
+      <c r="CM27" s="68">
+        <v>2</v>
+      </c>
+      <c r="CN27" s="68">
+        <v>10</v>
+      </c>
+      <c r="CO27" s="68">
+        <v>2</v>
+      </c>
+      <c r="CP27" s="68">
+        <v>4</v>
+      </c>
+      <c r="CQ27" s="68">
+        <v>4</v>
+      </c>
+      <c r="CR27" s="68">
+        <v>6</v>
+      </c>
+      <c r="CS27" s="68">
+        <v>13</v>
+      </c>
+      <c r="CT27" s="68">
+        <v>1</v>
+      </c>
+      <c r="CU27" s="68">
+        <v>2</v>
+      </c>
+      <c r="CV27" s="68">
+        <v>2</v>
+      </c>
+      <c r="CW27" s="68">
+        <v>13</v>
+      </c>
     </row>
-    <row r="28" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="186"/>
+      <c r="B28" s="189"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -14513,12 +17115,81 @@
       <c r="BZ28" s="115" t="s">
         <v>849</v>
       </c>
+      <c r="CA28" s="68" t="s">
+        <v>852</v>
+      </c>
+      <c r="CB28" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CC28" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CD28" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CE28" s="68" t="s">
+        <v>851</v>
+      </c>
+      <c r="CF28" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="CG28" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CH28" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="CI28" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CJ28" s="68" t="s">
+        <v>1698</v>
+      </c>
+      <c r="CK28" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CL28" s="68" t="s">
+        <v>719</v>
+      </c>
+      <c r="CM28" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="CN28" s="68" t="s">
+        <v>1735</v>
+      </c>
+      <c r="CO28" s="68" t="s">
+        <v>699</v>
+      </c>
+      <c r="CP28" s="68" t="s">
+        <v>804</v>
+      </c>
+      <c r="CQ28" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CR28" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CS28" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CT28" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="CU28" s="68" t="s">
+        <v>696</v>
+      </c>
+      <c r="CV28" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CW28" s="68" t="s">
+        <v>702</v>
+      </c>
     </row>
-    <row r="29" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="186"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -14745,12 +17416,81 @@
       <c r="BZ29" s="115">
         <v>4</v>
       </c>
+      <c r="CA29" s="68">
+        <v>4</v>
+      </c>
+      <c r="CB29" s="68">
+        <v>3</v>
+      </c>
+      <c r="CC29" s="68">
+        <v>3</v>
+      </c>
+      <c r="CD29" s="68">
+        <v>3</v>
+      </c>
+      <c r="CE29" s="68">
+        <v>13</v>
+      </c>
+      <c r="CF29" s="68">
+        <v>14</v>
+      </c>
+      <c r="CG29" s="68">
+        <v>2</v>
+      </c>
+      <c r="CH29" s="68">
+        <v>1</v>
+      </c>
+      <c r="CI29" s="68">
+        <v>2</v>
+      </c>
+      <c r="CJ29" s="68">
+        <v>85</v>
+      </c>
+      <c r="CK29" s="68">
+        <v>2</v>
+      </c>
+      <c r="CL29" s="68">
+        <v>82</v>
+      </c>
+      <c r="CM29" s="68">
+        <v>6</v>
+      </c>
+      <c r="CN29" s="68">
+        <v>10</v>
+      </c>
+      <c r="CO29" s="68">
+        <v>6</v>
+      </c>
+      <c r="CP29" s="68">
+        <v>2</v>
+      </c>
+      <c r="CQ29" s="68">
+        <v>2</v>
+      </c>
+      <c r="CR29" s="68">
+        <v>2</v>
+      </c>
+      <c r="CS29" s="68">
+        <v>3</v>
+      </c>
+      <c r="CT29" s="68">
+        <v>6</v>
+      </c>
+      <c r="CU29" s="68">
+        <v>7</v>
+      </c>
+      <c r="CV29" s="68">
+        <v>3</v>
+      </c>
+      <c r="CW29" s="68">
+        <v>14</v>
+      </c>
     </row>
-    <row r="30" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="186"/>
+      <c r="B30" s="189"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -14977,12 +17717,81 @@
       <c r="BZ30" s="115" t="s">
         <v>696</v>
       </c>
+      <c r="CA30" s="68" t="s">
+        <v>706</v>
+      </c>
+      <c r="CB30" s="68" t="s">
+        <v>699</v>
+      </c>
+      <c r="CC30" s="68" t="s">
+        <v>851</v>
+      </c>
+      <c r="CD30" s="68" t="s">
+        <v>699</v>
+      </c>
+      <c r="CE30" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="CF30" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="CG30" s="68" t="s">
+        <v>1658</v>
+      </c>
+      <c r="CH30" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CI30" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="CJ30" s="68" t="s">
+        <v>719</v>
+      </c>
+      <c r="CK30" s="68" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL30" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="CM30" s="68" t="s">
+        <v>852</v>
+      </c>
+      <c r="CN30" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CO30" s="68" t="s">
+        <v>700</v>
+      </c>
+      <c r="CP30" s="68" t="s">
+        <v>805</v>
+      </c>
+      <c r="CQ30" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="CR30" s="68" t="s">
+        <v>719</v>
+      </c>
+      <c r="CS30" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CT30" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CU30" s="68" t="s">
+        <v>851</v>
+      </c>
+      <c r="CV30" s="68" t="s">
+        <v>1658</v>
+      </c>
+      <c r="CW30" s="68" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="31" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="186"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -15209,12 +18018,81 @@
       <c r="BZ31" s="115">
         <v>7</v>
       </c>
+      <c r="CA31" s="68">
+        <v>4</v>
+      </c>
+      <c r="CB31" s="68">
+        <v>6</v>
+      </c>
+      <c r="CC31" s="68">
+        <v>80</v>
+      </c>
+      <c r="CD31" s="68">
+        <v>6</v>
+      </c>
+      <c r="CE31" s="68">
+        <v>14</v>
+      </c>
+      <c r="CF31" s="68">
+        <v>1</v>
+      </c>
+      <c r="CG31" s="68">
+        <v>79</v>
+      </c>
+      <c r="CH31" s="68">
+        <v>3</v>
+      </c>
+      <c r="CI31" s="68">
+        <v>6</v>
+      </c>
+      <c r="CJ31" s="68">
+        <v>82</v>
+      </c>
+      <c r="CK31" s="68">
+        <v>83</v>
+      </c>
+      <c r="CL31" s="68">
+        <v>14</v>
+      </c>
+      <c r="CM31" s="68">
+        <v>4</v>
+      </c>
+      <c r="CN31" s="68">
+        <v>2</v>
+      </c>
+      <c r="CO31" s="68">
+        <v>6</v>
+      </c>
+      <c r="CP31" s="68">
+        <v>2</v>
+      </c>
+      <c r="CQ31" s="68">
+        <v>6</v>
+      </c>
+      <c r="CR31" s="68">
+        <v>7</v>
+      </c>
+      <c r="CS31" s="68">
+        <v>11</v>
+      </c>
+      <c r="CT31" s="68">
+        <v>2</v>
+      </c>
+      <c r="CU31" s="68">
+        <v>80</v>
+      </c>
+      <c r="CV31" s="68">
+        <v>79</v>
+      </c>
+      <c r="CW31" s="68">
+        <v>11</v>
+      </c>
     </row>
-    <row r="32" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="186"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -15441,12 +18319,81 @@
       <c r="BZ32" s="115" t="s">
         <v>1440</v>
       </c>
+      <c r="CA32" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="CB32" s="68" t="s">
+        <v>700</v>
+      </c>
+      <c r="CC32" s="68" t="s">
+        <v>849</v>
+      </c>
+      <c r="CD32" s="68" t="s">
+        <v>700</v>
+      </c>
+      <c r="CE32" s="68" t="s">
+        <v>1640</v>
+      </c>
+      <c r="CF32" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG32" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="CH32" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI32" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CJ32" s="68" t="s">
+        <v>1034</v>
+      </c>
+      <c r="CK32" s="68" t="s">
+        <v>719</v>
+      </c>
+      <c r="CL32" s="68" t="s">
+        <v>852</v>
+      </c>
+      <c r="CM32" s="68" t="s">
+        <v>706</v>
+      </c>
+      <c r="CN32" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CO32" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="CP32" s="68" t="s">
+        <v>699</v>
+      </c>
+      <c r="CQ32" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CR32" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CS32" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT32" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU32" s="68" t="s">
+        <v>849</v>
+      </c>
+      <c r="CV32" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW32" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="33" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="186"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -15673,12 +18620,81 @@
       <c r="BZ33" s="115">
         <v>7</v>
       </c>
+      <c r="CA33" s="68">
+        <v>6</v>
+      </c>
+      <c r="CB33" s="68">
+        <v>6</v>
+      </c>
+      <c r="CC33" s="68">
+        <v>4</v>
+      </c>
+      <c r="CD33" s="68">
+        <v>6</v>
+      </c>
+      <c r="CE33" s="68">
+        <v>81</v>
+      </c>
+      <c r="CF33" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG33" s="68">
+        <v>72</v>
+      </c>
+      <c r="CH33" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI33" s="68">
+        <v>3</v>
+      </c>
+      <c r="CJ33" s="68">
+        <v>20</v>
+      </c>
+      <c r="CK33" s="68">
+        <v>82</v>
+      </c>
+      <c r="CL33" s="68">
+        <v>83</v>
+      </c>
+      <c r="CM33" s="68">
+        <v>4</v>
+      </c>
+      <c r="CN33" s="68">
+        <v>3</v>
+      </c>
+      <c r="CO33" s="68">
+        <v>4</v>
+      </c>
+      <c r="CP33" s="68">
+        <v>6</v>
+      </c>
+      <c r="CQ33" s="68">
+        <v>3</v>
+      </c>
+      <c r="CR33" s="68">
+        <v>3</v>
+      </c>
+      <c r="CS33" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT33" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU33" s="68">
+        <v>4</v>
+      </c>
+      <c r="CV33" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW33" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="34" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="186"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -15905,12 +18921,81 @@
       <c r="BZ34" s="115" t="s">
         <v>699</v>
       </c>
+      <c r="CA34" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CB34" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="CC34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD34" s="68" t="s">
+        <v>713</v>
+      </c>
+      <c r="CE34" s="68" t="s">
+        <v>849</v>
+      </c>
+      <c r="CF34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ34" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="CK34" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="CL34" s="68" t="s">
+        <v>706</v>
+      </c>
+      <c r="CM34" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CN34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO34" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CP34" s="68" t="s">
+        <v>700</v>
+      </c>
+      <c r="CQ34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW34" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="35" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="186"/>
+      <c r="B35" s="189"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -16137,12 +19222,81 @@
       <c r="BZ35" s="115">
         <v>6</v>
       </c>
+      <c r="CA35" s="68">
+        <v>14</v>
+      </c>
+      <c r="CB35" s="68">
+        <v>72</v>
+      </c>
+      <c r="CC35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD35" s="68">
+        <v>10</v>
+      </c>
+      <c r="CE35" s="68">
+        <v>4</v>
+      </c>
+      <c r="CF35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ35" s="68">
+        <v>14</v>
+      </c>
+      <c r="CK35" s="68">
+        <v>14</v>
+      </c>
+      <c r="CL35" s="68">
+        <v>83</v>
+      </c>
+      <c r="CM35" s="68">
+        <v>3</v>
+      </c>
+      <c r="CN35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO35" s="68">
+        <v>3</v>
+      </c>
+      <c r="CP35" s="68">
+        <v>6</v>
+      </c>
+      <c r="CQ35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW35" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="36" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="186"/>
+      <c r="B36" s="189"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -16369,12 +19523,81 @@
       <c r="BZ36" s="115" t="s">
         <v>700</v>
       </c>
+      <c r="CA36" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="CB36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK36" s="68" t="s">
+        <v>851</v>
+      </c>
+      <c r="CL36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP36" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="CQ36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW36" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="186"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -16601,12 +19824,81 @@
       <c r="BZ37" s="115">
         <v>6</v>
       </c>
+      <c r="CA37" s="68">
+        <v>2</v>
+      </c>
+      <c r="CB37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK37" s="68">
+        <v>84</v>
+      </c>
+      <c r="CL37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP37" s="68">
+        <v>3</v>
+      </c>
+      <c r="CQ37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW37" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="186"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -16833,12 +20125,81 @@
       <c r="BZ38" s="115" t="s">
         <v>703</v>
       </c>
+      <c r="CA38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW38" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="39" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="186"/>
+      <c r="B39" s="189"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -17065,12 +20426,81 @@
       <c r="BZ39" s="115">
         <v>8</v>
       </c>
+      <c r="CA39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW39" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="186"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -17297,12 +20727,81 @@
       <c r="BZ40" s="115" t="s">
         <v>1441</v>
       </c>
+      <c r="CA40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW40" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="186"/>
+      <c r="B41" s="189"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -17529,12 +21028,81 @@
       <c r="BZ41" s="115">
         <v>78</v>
       </c>
+      <c r="CA41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW41" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="186"/>
+      <c r="B42" s="189"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -17761,12 +21329,81 @@
       <c r="BZ42" s="115" t="s">
         <v>702</v>
       </c>
+      <c r="CA42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW42" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="186"/>
+      <c r="B43" s="189"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -17993,12 +21630,81 @@
       <c r="BZ43" s="115">
         <v>3</v>
       </c>
+      <c r="CA43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW43" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="186"/>
+      <c r="B44" s="189"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -18225,12 +21931,81 @@
       <c r="BZ44" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="CA44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW44" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="186"/>
+      <c r="B45" s="189"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -18457,12 +22232,81 @@
       <c r="BZ45" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="CA45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW45" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="186"/>
+      <c r="B46" s="189"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -18689,12 +22533,81 @@
       <c r="BZ46" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="CA46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW46" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="186"/>
+      <c r="B47" s="189"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -18921,12 +22834,81 @@
       <c r="BZ47" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="CA47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW47" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="186"/>
+      <c r="B48" s="189"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -19153,12 +23135,81 @@
       <c r="BZ48" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="CA48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW48" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:78" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:101" s="68" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="186"/>
+      <c r="B49" s="189"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -19385,12 +23436,81 @@
       <c r="BZ49" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="CA49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CH49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW49" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="186"/>
+      <c r="B50" s="189"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -19619,12 +23739,81 @@
       <c r="BZ50" s="115" t="s">
         <v>1498</v>
       </c>
+      <c r="CA50" s="41" t="s">
+        <v>1568</v>
+      </c>
+      <c r="CB50" s="41" t="s">
+        <v>1588</v>
+      </c>
+      <c r="CC50" s="41" t="s">
+        <v>1604</v>
+      </c>
+      <c r="CD50" s="41" t="s">
+        <v>1621</v>
+      </c>
+      <c r="CE50" s="41" t="s">
+        <v>1641</v>
+      </c>
+      <c r="CF50" s="41" t="s">
+        <v>1651</v>
+      </c>
+      <c r="CG50" s="41" t="s">
+        <v>1659</v>
+      </c>
+      <c r="CH50" s="41" t="s">
+        <v>1669</v>
+      </c>
+      <c r="CI50" s="41" t="s">
+        <v>1240</v>
+      </c>
+      <c r="CJ50" s="41" t="s">
+        <v>1699</v>
+      </c>
+      <c r="CK50" s="41" t="s">
+        <v>1705</v>
+      </c>
+      <c r="CL50" s="41" t="s">
+        <v>1712</v>
+      </c>
+      <c r="CM50" s="41" t="s">
+        <v>1724</v>
+      </c>
+      <c r="CN50" s="41" t="s">
+        <v>1736</v>
+      </c>
+      <c r="CO50" s="41" t="s">
+        <v>1746</v>
+      </c>
+      <c r="CP50" s="41" t="s">
+        <v>1760</v>
+      </c>
+      <c r="CQ50" s="41" t="s">
+        <v>1240</v>
+      </c>
+      <c r="CR50" s="41" t="s">
+        <v>1784</v>
+      </c>
+      <c r="CS50" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="CT50" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="CU50" s="41" t="s">
+        <v>1816</v>
+      </c>
+      <c r="CV50" s="41" t="s">
+        <v>1822</v>
+      </c>
+      <c r="CW50" s="41" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="51" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="186"/>
+      <c r="B51" s="189"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -19853,12 +24042,81 @@
       <c r="BZ51" s="115" t="s">
         <v>1499</v>
       </c>
+      <c r="CA51" s="41" t="s">
+        <v>1569</v>
+      </c>
+      <c r="CB51" s="41" t="s">
+        <v>1589</v>
+      </c>
+      <c r="CC51" s="41" t="s">
+        <v>1605</v>
+      </c>
+      <c r="CD51" s="41" t="s">
+        <v>1622</v>
+      </c>
+      <c r="CE51" s="41" t="s">
+        <v>1642</v>
+      </c>
+      <c r="CF51" s="41" t="s">
+        <v>1652</v>
+      </c>
+      <c r="CG51" s="41" t="s">
+        <v>1660</v>
+      </c>
+      <c r="CH51" s="41" t="s">
+        <v>1670</v>
+      </c>
+      <c r="CI51" s="41" t="s">
+        <v>1688</v>
+      </c>
+      <c r="CJ51" s="41" t="s">
+        <v>1700</v>
+      </c>
+      <c r="CK51" s="41" t="s">
+        <v>1706</v>
+      </c>
+      <c r="CL51" s="41" t="s">
+        <v>1713</v>
+      </c>
+      <c r="CM51" s="41" t="s">
+        <v>1725</v>
+      </c>
+      <c r="CN51" s="41" t="s">
+        <v>1737</v>
+      </c>
+      <c r="CO51" s="41" t="s">
+        <v>1747</v>
+      </c>
+      <c r="CP51" s="41" t="s">
+        <v>1761</v>
+      </c>
+      <c r="CQ51" s="41" t="s">
+        <v>1777</v>
+      </c>
+      <c r="CR51" s="41" t="s">
+        <v>1785</v>
+      </c>
+      <c r="CS51" s="41" t="s">
+        <v>1797</v>
+      </c>
+      <c r="CT51" s="41" t="s">
+        <v>1810</v>
+      </c>
+      <c r="CU51" s="41" t="s">
+        <v>1817</v>
+      </c>
+      <c r="CV51" s="41" t="s">
+        <v>1823</v>
+      </c>
+      <c r="CW51" s="41" t="s">
+        <v>1832</v>
+      </c>
     </row>
-    <row r="52" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="186"/>
+      <c r="B52" s="189"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -20087,12 +24345,81 @@
       <c r="BZ52" s="115" t="s">
         <v>1500</v>
       </c>
+      <c r="CA52" s="41" t="s">
+        <v>1570</v>
+      </c>
+      <c r="CB52" s="41" t="s">
+        <v>1590</v>
+      </c>
+      <c r="CC52" s="41" t="s">
+        <v>1606</v>
+      </c>
+      <c r="CD52" s="41" t="s">
+        <v>1623</v>
+      </c>
+      <c r="CE52" s="41" t="s">
+        <v>1643</v>
+      </c>
+      <c r="CF52" s="41" t="s">
+        <v>1653</v>
+      </c>
+      <c r="CG52" s="41" t="s">
+        <v>1661</v>
+      </c>
+      <c r="CH52" s="41" t="s">
+        <v>1671</v>
+      </c>
+      <c r="CI52" s="41" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CJ52" s="41" t="s">
+        <v>1701</v>
+      </c>
+      <c r="CK52" s="41" t="s">
+        <v>1707</v>
+      </c>
+      <c r="CL52" s="41" t="s">
+        <v>1714</v>
+      </c>
+      <c r="CM52" s="41" t="s">
+        <v>1726</v>
+      </c>
+      <c r="CN52" s="41" t="s">
+        <v>1738</v>
+      </c>
+      <c r="CO52" s="41" t="s">
+        <v>1748</v>
+      </c>
+      <c r="CP52" s="41" t="s">
+        <v>1762</v>
+      </c>
+      <c r="CQ52" s="41" t="s">
+        <v>1778</v>
+      </c>
+      <c r="CR52" s="41" t="s">
+        <v>1786</v>
+      </c>
+      <c r="CS52" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="CT52" s="41" t="s">
+        <v>1811</v>
+      </c>
+      <c r="CU52" s="41" t="s">
+        <v>1818</v>
+      </c>
+      <c r="CV52" s="41" t="s">
+        <v>1824</v>
+      </c>
+      <c r="CW52" s="41" t="s">
+        <v>381</v>
+      </c>
     </row>
-    <row r="53" spans="1:78" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:101" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="187" t="s">
+      <c r="B53" s="190" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -20323,12 +24650,81 @@
       <c r="BZ53" s="156" t="s">
         <v>206</v>
       </c>
+      <c r="CA53" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="CB53" s="41" t="s">
+        <v>860</v>
+      </c>
+      <c r="CC53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="CD53" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="CE53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="CF53" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="CG53" s="41" t="s">
+        <v>860</v>
+      </c>
+      <c r="CH53" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="CI53" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="CJ53" s="41" t="s">
+        <v>860</v>
+      </c>
+      <c r="CK53" s="41" t="s">
+        <v>860</v>
+      </c>
+      <c r="CL53" s="41" t="s">
+        <v>860</v>
+      </c>
+      <c r="CM53" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="CN53" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="CO53" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="CP53" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="CQ53" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="CR53" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="CS53" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="CT53" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="CV53" s="41" t="s">
+        <v>861</v>
+      </c>
+      <c r="CW53" s="41" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="54" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="187"/>
+      <c r="B54" s="190"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -20557,12 +24953,81 @@
       <c r="BZ54" s="115" t="s">
         <v>61</v>
       </c>
+      <c r="CA54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="CB54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="CC54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="CD54" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE54" s="41" t="s">
+        <v>1417</v>
+      </c>
+      <c r="CF54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="CG54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="CH54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="CI54" s="41" t="s">
+        <v>1541</v>
+      </c>
+      <c r="CJ54" s="41" t="s">
+        <v>1551</v>
+      </c>
+      <c r="CK54" s="41" t="s">
+        <v>1551</v>
+      </c>
+      <c r="CL54" s="41" t="s">
+        <v>1551</v>
+      </c>
+      <c r="CM54" s="41" t="s">
+        <v>1541</v>
+      </c>
+      <c r="CN54" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="CO54" s="41" t="s">
+        <v>1541</v>
+      </c>
+      <c r="CP54" s="41" t="s">
+        <v>1541</v>
+      </c>
+      <c r="CQ54" s="41" t="s">
+        <v>1541</v>
+      </c>
+      <c r="CR54" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="CS54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="CT54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="CU54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="CV54" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="CW54" s="41" t="s">
+        <v>858</v>
+      </c>
     </row>
-    <row r="55" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="187"/>
+      <c r="B55" s="190"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -20791,12 +25256,81 @@
       <c r="BZ55" s="115" t="s">
         <v>30</v>
       </c>
+      <c r="CA55" s="41" t="s">
+        <v>1571</v>
+      </c>
+      <c r="CB55" s="41" t="s">
+        <v>1591</v>
+      </c>
+      <c r="CC55" s="41" t="s">
+        <v>1607</v>
+      </c>
+      <c r="CD55" s="41" t="s">
+        <v>1624</v>
+      </c>
+      <c r="CE55" s="41" t="s">
+        <v>1644</v>
+      </c>
+      <c r="CF55" s="41" t="s">
+        <v>1571</v>
+      </c>
+      <c r="CG55" s="41" t="s">
+        <v>1591</v>
+      </c>
+      <c r="CH55" s="41" t="s">
+        <v>1672</v>
+      </c>
+      <c r="CI55" s="41" t="s">
+        <v>1511</v>
+      </c>
+      <c r="CJ55" s="41" t="s">
+        <v>1548</v>
+      </c>
+      <c r="CK55" s="41" t="s">
+        <v>1548</v>
+      </c>
+      <c r="CL55" s="41" t="s">
+        <v>1548</v>
+      </c>
+      <c r="CM55" s="41" t="s">
+        <v>1511</v>
+      </c>
+      <c r="CN55" s="41" t="s">
+        <v>1624</v>
+      </c>
+      <c r="CO55" s="41" t="s">
+        <v>1511</v>
+      </c>
+      <c r="CP55" s="41" t="s">
+        <v>1511</v>
+      </c>
+      <c r="CQ55" s="41" t="s">
+        <v>1511</v>
+      </c>
+      <c r="CR55" s="41" t="s">
+        <v>1624</v>
+      </c>
+      <c r="CS55" s="41" t="s">
+        <v>1798</v>
+      </c>
+      <c r="CT55" s="41" t="s">
+        <v>1571</v>
+      </c>
+      <c r="CU55" s="41" t="s">
+        <v>1607</v>
+      </c>
+      <c r="CV55" s="41" t="s">
+        <v>1624</v>
+      </c>
+      <c r="CW55" s="41" t="s">
+        <v>1833</v>
+      </c>
     </row>
-    <row r="56" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="187"/>
+      <c r="B56" s="190"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -21023,12 +25557,81 @@
       <c r="BZ56" s="157" t="s">
         <v>1445</v>
       </c>
+      <c r="CA56" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB56" s="41" t="s">
+        <v>1592</v>
+      </c>
+      <c r="CC56" s="41" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CD56" s="41" t="s">
+        <v>1625</v>
+      </c>
+      <c r="CE56" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF56" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG56" s="41" t="s">
+        <v>1592</v>
+      </c>
+      <c r="CH56" s="41" t="s">
+        <v>1673</v>
+      </c>
+      <c r="CI56" s="41" t="s">
+        <v>1539</v>
+      </c>
+      <c r="CJ56" s="41" t="s">
+        <v>1702</v>
+      </c>
+      <c r="CK56" s="41" t="s">
+        <v>1702</v>
+      </c>
+      <c r="CL56" s="41" t="s">
+        <v>1702</v>
+      </c>
+      <c r="CM56" s="41" t="s">
+        <v>1539</v>
+      </c>
+      <c r="CN56" s="41" t="s">
+        <v>1739</v>
+      </c>
+      <c r="CO56" s="41" t="s">
+        <v>1539</v>
+      </c>
+      <c r="CP56" s="41" t="s">
+        <v>1539</v>
+      </c>
+      <c r="CQ56" s="41" t="s">
+        <v>1539</v>
+      </c>
+      <c r="CR56" s="41" t="s">
+        <v>1787</v>
+      </c>
+      <c r="CS56" s="41" t="s">
+        <v>1799</v>
+      </c>
+      <c r="CT56" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU56" s="41" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CV56" s="41" t="s">
+        <v>1825</v>
+      </c>
+      <c r="CW56" s="41" t="s">
+        <v>1834</v>
+      </c>
     </row>
-    <row r="57" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="187"/>
+      <c r="B57" s="190"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -21257,12 +25860,81 @@
       <c r="BZ57" s="115" t="s">
         <v>855</v>
       </c>
+      <c r="CA57" s="41" t="s">
+        <v>1572</v>
+      </c>
+      <c r="CB57" s="41" t="s">
+        <v>1593</v>
+      </c>
+      <c r="CC57" s="41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CD57" s="41" t="s">
+        <v>1626</v>
+      </c>
+      <c r="CE57" s="41" t="s">
+        <v>1572</v>
+      </c>
+      <c r="CF57" s="41" t="s">
+        <v>1572</v>
+      </c>
+      <c r="CG57" s="41" t="s">
+        <v>1593</v>
+      </c>
+      <c r="CH57" s="41" t="s">
+        <v>797</v>
+      </c>
+      <c r="CI57" s="41" t="s">
+        <v>1690</v>
+      </c>
+      <c r="CJ57" s="41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CK57" s="41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CL57" s="41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CM57" s="41" t="s">
+        <v>1690</v>
+      </c>
+      <c r="CN57" s="41" t="s">
+        <v>1626</v>
+      </c>
+      <c r="CO57" s="41" t="s">
+        <v>1690</v>
+      </c>
+      <c r="CP57" s="41" t="s">
+        <v>1690</v>
+      </c>
+      <c r="CQ57" s="41" t="s">
+        <v>1690</v>
+      </c>
+      <c r="CR57" s="41" t="s">
+        <v>1626</v>
+      </c>
+      <c r="CS57" s="41" t="s">
+        <v>1572</v>
+      </c>
+      <c r="CT57" s="41" t="s">
+        <v>1572</v>
+      </c>
+      <c r="CU57" s="41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CV57" s="41" t="s">
+        <v>1626</v>
+      </c>
+      <c r="CW57" s="41" t="s">
+        <v>855</v>
+      </c>
     </row>
-    <row r="58" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="187"/>
+      <c r="B58" s="190"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -21489,12 +26161,81 @@
       <c r="BZ58" s="157" t="s">
         <v>1381</v>
       </c>
+      <c r="CA58" s="41" t="s">
+        <v>1573</v>
+      </c>
+      <c r="CB58" s="41" t="s">
+        <v>1594</v>
+      </c>
+      <c r="CC58" s="41" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CD58" s="41" t="s">
+        <v>1627</v>
+      </c>
+      <c r="CE58" s="41" t="s">
+        <v>1645</v>
+      </c>
+      <c r="CF58" s="41" t="s">
+        <v>1573</v>
+      </c>
+      <c r="CG58" s="41" t="s">
+        <v>1594</v>
+      </c>
+      <c r="CH58" s="41" t="s">
+        <v>1673</v>
+      </c>
+      <c r="CI58" s="41" t="s">
+        <v>1691</v>
+      </c>
+      <c r="CJ58" s="41" t="s">
+        <v>1547</v>
+      </c>
+      <c r="CK58" s="41" t="s">
+        <v>1547</v>
+      </c>
+      <c r="CL58" s="41" t="s">
+        <v>1547</v>
+      </c>
+      <c r="CM58" s="41" t="s">
+        <v>1727</v>
+      </c>
+      <c r="CN58" s="41" t="s">
+        <v>1627</v>
+      </c>
+      <c r="CO58" s="41" t="s">
+        <v>1749</v>
+      </c>
+      <c r="CP58" s="41" t="s">
+        <v>1763</v>
+      </c>
+      <c r="CQ58" s="41" t="s">
+        <v>1779</v>
+      </c>
+      <c r="CR58" s="41" t="s">
+        <v>1627</v>
+      </c>
+      <c r="CS58" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT58" s="41" t="s">
+        <v>1573</v>
+      </c>
+      <c r="CU58" s="41" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CV58" s="41" t="s">
+        <v>1627</v>
+      </c>
+      <c r="CW58" s="41" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="59" spans="1:78" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:101" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="187"/>
+      <c r="B59" s="190"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -21723,12 +26464,81 @@
       <c r="BZ59" s="157" t="s">
         <v>1381</v>
       </c>
+      <c r="CA59" s="41" t="s">
+        <v>1573</v>
+      </c>
+      <c r="CB59" s="41" t="s">
+        <v>1595</v>
+      </c>
+      <c r="CC59" s="41" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CD59" s="41" t="s">
+        <v>1528</v>
+      </c>
+      <c r="CE59" s="41" t="s">
+        <v>1645</v>
+      </c>
+      <c r="CF59" s="41" t="s">
+        <v>1573</v>
+      </c>
+      <c r="CG59" s="41" t="s">
+        <v>1595</v>
+      </c>
+      <c r="CH59" s="41" t="s">
+        <v>1673</v>
+      </c>
+      <c r="CI59" s="41" t="s">
+        <v>1540</v>
+      </c>
+      <c r="CJ59" s="41" t="s">
+        <v>1547</v>
+      </c>
+      <c r="CK59" s="41" t="s">
+        <v>1547</v>
+      </c>
+      <c r="CL59" s="41" t="s">
+        <v>1547</v>
+      </c>
+      <c r="CM59" s="41" t="s">
+        <v>1540</v>
+      </c>
+      <c r="CN59" s="41" t="s">
+        <v>1528</v>
+      </c>
+      <c r="CO59" s="41" t="s">
+        <v>1540</v>
+      </c>
+      <c r="CP59" s="41" t="s">
+        <v>1540</v>
+      </c>
+      <c r="CQ59" s="41" t="s">
+        <v>1540</v>
+      </c>
+      <c r="CR59" s="41" t="s">
+        <v>1528</v>
+      </c>
+      <c r="CS59" s="41" t="s">
+        <v>1799</v>
+      </c>
+      <c r="CT59" s="41" t="s">
+        <v>1573</v>
+      </c>
+      <c r="CU59" s="41" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CV59" s="41" t="s">
+        <v>1528</v>
+      </c>
+      <c r="CW59" s="41" t="s">
+        <v>1834</v>
+      </c>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="187"/>
+      <c r="B60" s="190"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -21957,12 +26767,81 @@
       <c r="BZ60" s="65">
         <v>1</v>
       </c>
+      <c r="CA60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CB60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CC60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CD60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CE60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CF60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CG60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CH60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CI60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CJ60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CK60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CL60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CM60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CN60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CO60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CP60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CQ60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CR60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CS60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CT60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CU60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CV60" s="41">
+        <v>1</v>
+      </c>
+      <c r="CW60" s="41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:78" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:101" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="188" t="s">
+      <c r="B61" s="191" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -22191,12 +27070,81 @@
       <c r="BZ61" s="158" t="s">
         <v>1446</v>
       </c>
+      <c r="CA61" s="158">
+        <v>45140</v>
+      </c>
+      <c r="CB61" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CC61" s="158">
+        <v>45137</v>
+      </c>
+      <c r="CD61" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CE61" s="158">
+        <v>45140</v>
+      </c>
+      <c r="CF61" s="158">
+        <v>45140</v>
+      </c>
+      <c r="CG61" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CH61" s="158">
+        <v>45137</v>
+      </c>
+      <c r="CI61" s="158">
+        <v>45165</v>
+      </c>
+      <c r="CJ61" s="158">
+        <v>45182</v>
+      </c>
+      <c r="CK61" s="158">
+        <v>45182</v>
+      </c>
+      <c r="CL61" s="158">
+        <v>45182</v>
+      </c>
+      <c r="CM61" s="158">
+        <v>45165</v>
+      </c>
+      <c r="CN61" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CO61" s="158">
+        <v>45164</v>
+      </c>
+      <c r="CP61" s="158">
+        <v>45164</v>
+      </c>
+      <c r="CQ61" s="158">
+        <v>45164</v>
+      </c>
+      <c r="CR61" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CS61" s="158">
+        <v>45137</v>
+      </c>
+      <c r="CT61" s="158">
+        <v>45140</v>
+      </c>
+      <c r="CU61" s="158">
+        <v>45137</v>
+      </c>
+      <c r="CV61" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CW61" s="158">
+        <v>45137</v>
+      </c>
     </row>
-    <row r="62" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="188"/>
+      <c r="B62" s="191"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -22425,12 +27373,81 @@
       <c r="BZ62" s="158" t="s">
         <v>1446</v>
       </c>
+      <c r="CA62" s="158">
+        <v>45140</v>
+      </c>
+      <c r="CB62" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CC62" s="158">
+        <v>45137</v>
+      </c>
+      <c r="CD62" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CE62" s="158">
+        <v>45140</v>
+      </c>
+      <c r="CF62" s="158">
+        <v>45140</v>
+      </c>
+      <c r="CG62" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CH62" s="158">
+        <v>45137</v>
+      </c>
+      <c r="CI62" s="158">
+        <v>45165</v>
+      </c>
+      <c r="CJ62" s="158">
+        <v>45182</v>
+      </c>
+      <c r="CK62" s="158">
+        <v>45182</v>
+      </c>
+      <c r="CL62" s="158">
+        <v>45182</v>
+      </c>
+      <c r="CM62" s="158">
+        <v>45165</v>
+      </c>
+      <c r="CN62" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CO62" s="158">
+        <v>45164</v>
+      </c>
+      <c r="CP62" s="158">
+        <v>45164</v>
+      </c>
+      <c r="CQ62" s="158">
+        <v>45164</v>
+      </c>
+      <c r="CR62" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CS62" s="158">
+        <v>45137</v>
+      </c>
+      <c r="CT62" s="158">
+        <v>45140</v>
+      </c>
+      <c r="CU62" s="158">
+        <v>45137</v>
+      </c>
+      <c r="CV62" s="158">
+        <v>44779</v>
+      </c>
+      <c r="CW62" s="158">
+        <v>45137</v>
+      </c>
     </row>
-    <row r="63" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="188"/>
+      <c r="B63" s="191"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -22659,12 +27676,81 @@
       <c r="BZ63" s="115" t="s">
         <v>30</v>
       </c>
+      <c r="CA63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CC63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CD63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CE63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CF63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CG63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CH63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CI63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CJ63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CM63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CO63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CR63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CS63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CT63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CU63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CV63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CW63" s="41" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="64" spans="1:78" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:101" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="188"/>
+      <c r="B64" s="191"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -22892,13 +27978,82 @@
       </c>
       <c r="BZ64" s="115" t="s">
         <v>1447</v>
+      </c>
+      <c r="CA64" s="41" t="s">
+        <v>1574</v>
+      </c>
+      <c r="CB64" s="41" t="s">
+        <v>1596</v>
+      </c>
+      <c r="CC64" s="41" t="s">
+        <v>1610</v>
+      </c>
+      <c r="CD64" s="41" t="s">
+        <v>1628</v>
+      </c>
+      <c r="CE64" s="41" t="s">
+        <v>1646</v>
+      </c>
+      <c r="CF64" s="41" t="s">
+        <v>1574</v>
+      </c>
+      <c r="CG64" s="41" t="s">
+        <v>1596</v>
+      </c>
+      <c r="CH64" s="41" t="s">
+        <v>1610</v>
+      </c>
+      <c r="CI64" s="41" t="s">
+        <v>1692</v>
+      </c>
+      <c r="CJ64" s="41" t="s">
+        <v>1703</v>
+      </c>
+      <c r="CK64" s="41" t="s">
+        <v>1703</v>
+      </c>
+      <c r="CL64" s="41" t="s">
+        <v>1703</v>
+      </c>
+      <c r="CM64" s="41" t="s">
+        <v>1692</v>
+      </c>
+      <c r="CN64" s="41" t="s">
+        <v>1628</v>
+      </c>
+      <c r="CO64" s="41" t="s">
+        <v>1692</v>
+      </c>
+      <c r="CP64" s="41" t="s">
+        <v>1692</v>
+      </c>
+      <c r="CQ64" s="41" t="s">
+        <v>1692</v>
+      </c>
+      <c r="CR64" s="41" t="s">
+        <v>1628</v>
+      </c>
+      <c r="CS64" s="41" t="s">
+        <v>1800</v>
+      </c>
+      <c r="CT64" s="41" t="s">
+        <v>1574</v>
+      </c>
+      <c r="CU64" s="41" t="s">
+        <v>1610</v>
+      </c>
+      <c r="CV64" s="41" t="s">
+        <v>1628</v>
+      </c>
+      <c r="CW64" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:105" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="188"/>
+      <c r="B65" s="191"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -22954,7 +28109,7 @@
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="188"/>
+      <c r="B66" s="191"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -23010,7 +28165,7 @@
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="188"/>
+      <c r="B67" s="191"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -23068,7 +28223,7 @@
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="178" t="s">
+      <c r="B68" s="181" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -23106,7 +28261,7 @@
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="178"/>
+      <c r="B69" s="181"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -23139,7 +28294,7 @@
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="178"/>
+      <c r="B70" s="181"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -23171,7 +28326,7 @@
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="178"/>
+      <c r="B71" s="181"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -23203,7 +28358,7 @@
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="179"/>
+      <c r="B72" s="182"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -23320,113 +28475,115 @@
       <c r="BN74" s="105"/>
       <c r="BO74" s="37"/>
       <c r="BP74" s="105"/>
-      <c r="BQ74" s="105"/>
-      <c r="BR74" s="37">
+      <c r="BQ74" s="168" t="s">
+        <v>1576</v>
+      </c>
+      <c r="BR74" s="169">
         <v>65</v>
       </c>
-      <c r="BS74" s="105">
+      <c r="BS74" s="168">
         <v>66</v>
       </c>
-      <c r="BT74" s="105">
+      <c r="BT74" s="168">
         <v>67</v>
       </c>
-      <c r="BU74" s="37">
+      <c r="BU74" s="169">
         <v>68</v>
       </c>
-      <c r="BV74" s="37">
+      <c r="BV74" s="169">
         <v>69</v>
       </c>
-      <c r="BW74" s="105">
+      <c r="BW74" s="168">
         <v>70</v>
       </c>
-      <c r="BX74" s="37">
+      <c r="BX74" s="169">
         <v>71</v>
       </c>
-      <c r="BY74" s="105">
+      <c r="BY74" s="168">
         <v>72</v>
       </c>
-      <c r="BZ74" s="105">
+      <c r="BZ74" s="168">
         <v>73</v>
       </c>
-      <c r="CA74" s="37">
+      <c r="CA74" s="169">
         <v>74</v>
       </c>
-      <c r="CB74" s="105">
+      <c r="CB74" s="168">
         <v>75</v>
       </c>
-      <c r="CC74" s="105">
+      <c r="CC74" s="168">
         <v>76</v>
       </c>
-      <c r="CD74" s="37">
+      <c r="CD74" s="169">
         <v>77</v>
       </c>
-      <c r="CE74" s="105">
+      <c r="CE74" s="168">
         <v>78</v>
       </c>
-      <c r="CF74" s="105">
+      <c r="CF74" s="168">
         <v>79</v>
       </c>
-      <c r="CG74" s="37">
+      <c r="CG74" s="169">
         <v>80</v>
       </c>
-      <c r="CH74" s="105">
+      <c r="CH74" s="168">
         <v>81</v>
       </c>
-      <c r="CI74" s="105">
+      <c r="CI74" s="168">
         <v>82</v>
       </c>
-      <c r="CJ74" s="37">
+      <c r="CJ74" s="169">
         <v>83</v>
       </c>
-      <c r="CK74" s="105">
+      <c r="CK74" s="168">
         <v>84</v>
       </c>
-      <c r="CL74" s="105">
+      <c r="CL74" s="168">
         <v>85</v>
       </c>
-      <c r="CM74" s="37">
+      <c r="CM74" s="169">
         <v>86</v>
       </c>
-      <c r="CN74" s="105">
+      <c r="CN74" s="168">
         <v>87</v>
       </c>
-      <c r="CO74" s="105">
+      <c r="CO74" s="168">
         <v>88</v>
       </c>
-      <c r="CP74" s="37">
+      <c r="CP74" s="169">
         <v>89</v>
       </c>
-      <c r="CQ74" s="37">
+      <c r="CQ74" s="169">
         <v>90</v>
       </c>
-      <c r="CR74" s="105">
+      <c r="CR74" s="168">
         <v>91</v>
       </c>
-      <c r="CS74" s="105">
+      <c r="CS74" s="168">
         <v>92</v>
       </c>
-      <c r="CT74" s="37">
+      <c r="CT74" s="169">
         <v>93</v>
       </c>
-      <c r="CU74" s="105">
+      <c r="CU74" s="168">
         <v>94</v>
       </c>
-      <c r="CV74" s="105">
+      <c r="CV74" s="168">
         <v>95</v>
       </c>
-      <c r="CW74" s="37">
+      <c r="CW74" s="169">
         <v>96</v>
       </c>
-      <c r="CX74" s="105">
+      <c r="CX74" s="168">
         <v>97</v>
       </c>
-      <c r="CY74" s="105">
+      <c r="CY74" s="168">
         <v>98</v>
       </c>
-      <c r="CZ74" s="37">
+      <c r="CZ74" s="169">
         <v>99</v>
       </c>
-      <c r="DA74" s="105">
+      <c r="DA74" s="168">
         <v>100</v>
       </c>
     </row>
@@ -23799,7 +28956,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="183" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -23968,7 +29125,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="181"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -24300,7 +29457,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="185" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -24467,7 +29624,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="182"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -24634,7 +29791,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="182"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -24801,7 +29958,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="182"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -24968,7 +30125,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="186" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -25135,7 +30292,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="184"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -25300,7 +30457,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="184"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -25465,7 +30622,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="184"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -25630,7 +30787,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="184"/>
+      <c r="B15" s="187"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -25795,7 +30952,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="184"/>
+      <c r="B16" s="187"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -25960,7 +31117,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="184"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -26125,7 +31282,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="184"/>
+      <c r="B18" s="187"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -26290,7 +31447,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="184"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -26455,7 +31612,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="184"/>
+      <c r="B20" s="187"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -26620,7 +31777,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="188" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -26828,7 +31985,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="185"/>
+      <c r="B22" s="188"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -27036,7 +32193,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="185"/>
+      <c r="B23" s="188"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -27203,7 +32360,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="185"/>
+      <c r="B24" s="188"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -27370,7 +32527,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="185"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -27535,7 +32692,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="186" t="s">
+      <c r="B26" s="189" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -27704,7 +32861,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="186"/>
+      <c r="B27" s="189"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -27871,7 +33028,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="186"/>
+      <c r="B28" s="189"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -28036,7 +33193,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="186"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -28201,7 +33358,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="186"/>
+      <c r="B30" s="189"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -28366,7 +33523,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="186"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -28531,7 +33688,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="186"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -28696,7 +33853,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="186"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -28861,7 +34018,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="186"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -29026,7 +34183,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="186"/>
+      <c r="B35" s="189"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -29191,7 +34348,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="186"/>
+      <c r="B36" s="189"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -29356,7 +34513,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="186"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -29521,7 +34678,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="186"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -29686,7 +34843,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="186"/>
+      <c r="B39" s="189"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -29851,7 +35008,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="186"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -30016,7 +35173,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="186"/>
+      <c r="B41" s="189"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -30181,7 +35338,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="186"/>
+      <c r="B42" s="189"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -30346,7 +35503,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="186"/>
+      <c r="B43" s="189"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -30511,7 +35668,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="186"/>
+      <c r="B44" s="189"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -30676,7 +35833,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="186"/>
+      <c r="B45" s="189"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -30841,7 +35998,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="186"/>
+      <c r="B46" s="189"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -31006,7 +36163,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="186"/>
+      <c r="B47" s="189"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -31171,7 +36328,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="186"/>
+      <c r="B48" s="189"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -31336,7 +36493,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="186"/>
+      <c r="B49" s="189"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -31501,7 +36658,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="186"/>
+      <c r="B50" s="189"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -31668,7 +36825,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="186"/>
+      <c r="B51" s="189"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -31835,7 +36992,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="186"/>
+      <c r="B52" s="189"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -32002,7 +37159,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="187" t="s">
+      <c r="B53" s="190" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -32171,7 +37328,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="187"/>
+      <c r="B54" s="190"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -32338,7 +37495,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="187"/>
+      <c r="B55" s="190"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -32505,7 +37662,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="187"/>
+      <c r="B56" s="190"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -32670,7 +37827,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="187"/>
+      <c r="B57" s="190"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -32837,7 +37994,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B58" s="187"/>
+      <c r="B58" s="190"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -33002,7 +38159,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="187"/>
+      <c r="B59" s="190"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -33169,7 +38326,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="B60" s="187"/>
+      <c r="B60" s="190"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -33336,7 +38493,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="188" t="s">
+      <c r="B61" s="191" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -33503,7 +38660,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="188"/>
+      <c r="B62" s="191"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -33670,7 +38827,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="188"/>
+      <c r="B63" s="191"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -33837,7 +38994,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="188"/>
+      <c r="B64" s="191"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -34004,7 +39161,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="188"/>
+      <c r="B65" s="191"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -34021,7 +39178,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="188"/>
+      <c r="B66" s="191"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -34040,7 +39197,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="188"/>
+      <c r="B67" s="191"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -34059,7 +39216,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B68" s="178" t="s">
+      <c r="B68" s="181" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -34069,7 +39226,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B69" s="178"/>
+      <c r="B69" s="181"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -34077,7 +39234,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="178"/>
+      <c r="B70" s="181"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -34085,7 +39242,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="178"/>
+      <c r="B71" s="181"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -34097,7 +39254,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B72" s="179"/>
+      <c r="B72" s="182"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -34677,7 +39834,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="183" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -34757,7 +39914,7 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="181"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -34911,7 +40068,7 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="185" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -34989,7 +40146,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="182"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -35067,7 +40224,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="182"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -35145,7 +40302,7 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="182"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -35223,7 +40380,7 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="186" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -35301,7 +40458,7 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="184"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -35377,7 +40534,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="184"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -35453,7 +40610,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="184"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -35529,7 +40686,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="184"/>
+      <c r="B15" s="187"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -35605,7 +40762,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="184"/>
+      <c r="B16" s="187"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -35681,7 +40838,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="184"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -35757,7 +40914,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="184"/>
+      <c r="B18" s="187"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -35833,7 +40990,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="184"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -35909,7 +41066,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="184"/>
+      <c r="B20" s="187"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -35985,7 +41142,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="188" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -36063,7 +41220,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="185"/>
+      <c r="B22" s="188"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -36141,7 +41298,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="185"/>
+      <c r="B23" s="188"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -36219,7 +41376,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B24" s="185"/>
+      <c r="B24" s="188"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -36297,7 +41454,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="185"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -36373,7 +41530,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="186" t="s">
+      <c r="B26" s="189" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -36453,7 +41610,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="186"/>
+      <c r="B27" s="189"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -36531,7 +41688,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="186"/>
+      <c r="B28" s="189"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -36607,7 +41764,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="186"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -36683,7 +41840,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="186"/>
+      <c r="B30" s="189"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -36759,7 +41916,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="186"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -36835,7 +41992,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="186"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -36911,7 +42068,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="186"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -36987,7 +42144,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="186"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -37063,7 +42220,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="186"/>
+      <c r="B35" s="189"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -37139,7 +42296,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="186"/>
+      <c r="B36" s="189"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -37215,7 +42372,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="186"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -37291,7 +42448,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="186"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -37367,7 +42524,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="186"/>
+      <c r="B39" s="189"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -37443,7 +42600,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="186"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -37519,7 +42676,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="186"/>
+      <c r="B41" s="189"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -37595,7 +42752,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="186"/>
+      <c r="B42" s="189"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -37671,7 +42828,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="186"/>
+      <c r="B43" s="189"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -37747,7 +42904,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="186"/>
+      <c r="B44" s="189"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -37823,7 +42980,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="186"/>
+      <c r="B45" s="189"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -37899,7 +43056,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="186"/>
+      <c r="B46" s="189"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -37975,7 +43132,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="186"/>
+      <c r="B47" s="189"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -38051,7 +43208,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="186"/>
+      <c r="B48" s="189"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -38127,7 +43284,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="186"/>
+      <c r="B49" s="189"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -38203,7 +43360,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="186"/>
+      <c r="B50" s="189"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -38281,7 +43438,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="186"/>
+      <c r="B51" s="189"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -38359,7 +43516,7 @@
       </c>
     </row>
     <row r="52" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="186"/>
+      <c r="B52" s="189"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -38437,7 +43594,7 @@
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B53" s="187" t="s">
+      <c r="B53" s="190" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -38517,7 +43674,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="187"/>
+      <c r="B54" s="190"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -38595,7 +43752,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="187"/>
+      <c r="B55" s="190"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -38673,7 +43830,7 @@
       </c>
     </row>
     <row r="56" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="187"/>
+      <c r="B56" s="190"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -38749,7 +43906,7 @@
       </c>
     </row>
     <row r="57" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="187"/>
+      <c r="B57" s="190"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -38827,7 +43984,7 @@
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B58" s="187"/>
+      <c r="B58" s="190"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -38903,7 +44060,7 @@
       </c>
     </row>
     <row r="59" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="187"/>
+      <c r="B59" s="190"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -38981,7 +44138,7 @@
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B60" s="187"/>
+      <c r="B60" s="190"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -39059,7 +44216,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="188" t="s">
+      <c r="B61" s="191" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -39137,7 +44294,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="188"/>
+      <c r="B62" s="191"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -39215,7 +44372,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="188"/>
+      <c r="B63" s="191"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -39293,7 +44450,7 @@
       </c>
     </row>
     <row r="64" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="188"/>
+      <c r="B64" s="191"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -39371,7 +44528,7 @@
       </c>
     </row>
     <row r="65" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="188"/>
+      <c r="B65" s="191"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -39401,7 +44558,7 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="188"/>
+      <c r="B66" s="191"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -39431,7 +44588,7 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="2:27" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="188"/>
+      <c r="B67" s="191"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -39461,7 +44618,7 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B68" s="178" t="s">
+      <c r="B68" s="181" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -39482,7 +44639,7 @@
       <c r="Q68" s="105"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B69" s="178"/>
+      <c r="B69" s="181"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -39501,7 +44658,7 @@
       <c r="Q69" s="105"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B70" s="178"/>
+      <c r="B70" s="181"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -39520,7 +44677,7 @@
       <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B71" s="178"/>
+      <c r="B71" s="181"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -39539,7 +44696,7 @@
       <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B72" s="179"/>
+      <c r="B72" s="182"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_content_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF02CC2-A31F-4EF0-B730-F0B28AF5EF72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3332DB-4D3C-45E6-9D48-FE4482CBD019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="13" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="DataSets_SteelCycle" sheetId="20" r:id="rId4"/>
     <sheet name="DataSets_YSTAFDB_stocks&amp;flows" sheetId="21" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10650" uniqueCount="2108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10885" uniqueCount="2177">
   <si>
     <t>Description</t>
   </si>
@@ -6348,6 +6348,213 @@
   </si>
   <si>
     <t>Numbers manually reformatted from original source (xlsx) to Excel spreadsheet</t>
+  </si>
+  <si>
+    <t>dataset entry does not exist yet, needs to be created, no upload of data, just link!</t>
+  </si>
+  <si>
+    <t>1_F_MaterialFlows_UNEP_IRP</t>
+  </si>
+  <si>
+    <t>v2024</t>
+  </si>
+  <si>
+    <t>The full dataset used herein can be downloaded from the Global Material Flow Database hosted by the United Nations Environment Program International Resource Panel.</t>
+  </si>
+  <si>
+    <t>Heinz SCHANDL</t>
+  </si>
+  <si>
+    <t>United Nations Environment Programme, International Resource Panel, Global Material Flows Database” or “UNEP IRP Global Material Flows Database</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jiec.13593</t>
+  </si>
+  <si>
+    <t>https://www.resourcepanel.org/global-material-flows-database</t>
+  </si>
+  <si>
+    <t>Data not converted for iedc, can be downloaded from UNEP-IRP directly</t>
+  </si>
+  <si>
+    <t>ecomomy-wide data</t>
+  </si>
+  <si>
+    <t>11 major material groups</t>
+  </si>
+  <si>
+    <t>single country data</t>
+  </si>
+  <si>
+    <t>1970-2024</t>
+  </si>
+  <si>
+    <t>THE global single-country database for global primary material extraction, trade of primary materials and products, material use, and waste. Contains DE; DMC; DMI; IMP; EXP; MF; PTB; RME_IMP; RME_EXP;</t>
+  </si>
+  <si>
+    <t>Material flow accounting; UNEP-IRP material flow database; MFA; biomass; fossil fuels; metal ores; minerals; DE; DMC; DMI; IMP; EXP; MF; PTB; RME_IMP; RME_EXP;</t>
+  </si>
+  <si>
+    <t>Value(r,m,o,d,X,t)</t>
+  </si>
+  <si>
+    <t>Dry mass of domestic extraction (DE) from environment to industrial metabolism of biomass in Afghanistan in 2024 was 38628527 tons.</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 5] of [Aspect 2] from [Aspect ] to [Aspect 4] in [Aspect 1] in [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>CIRCOMOD</t>
+  </si>
+  <si>
+    <t>https://circomod.eu/</t>
+  </si>
+  <si>
+    <t>CIRCOMOD = Circular Economy Modelling for Climate Change Mitigation</t>
+  </si>
+  <si>
+    <t>circular economy; materials; material cycles; MFA; CGE; IAM; resource efficiency</t>
+  </si>
+  <si>
+    <t>The current scenario models for policy pathways do not include circular economy options. CIRCOMOD will develop a new generation of models that will address this gap.</t>
+  </si>
+  <si>
+    <t>CIRCOMOD_scenario_drivers</t>
+  </si>
+  <si>
+    <t>CIRCOMOD project team</t>
+  </si>
+  <si>
+    <t>population, GDP, service demand etc. as exogenous input to scenario modelling</t>
+  </si>
+  <si>
+    <t>economic and physical</t>
+  </si>
+  <si>
+    <t>national to global level</t>
+  </si>
+  <si>
+    <t>population, economy</t>
+  </si>
+  <si>
+    <t>1970-2100</t>
+  </si>
+  <si>
+    <t>CIRCOMOD project input database of exogenous parameters to drive the different scenario models</t>
+  </si>
+  <si>
+    <t>Data will be available on Zenodo as of 2026</t>
+  </si>
+  <si>
+    <t>CIRCOMOD_technologies_strategies</t>
+  </si>
+  <si>
+    <t>CIRCOMOD_historic_data</t>
+  </si>
+  <si>
+    <t>CIRCOMOD_project_results</t>
+  </si>
+  <si>
+    <t>technology parameters, CE parameters, etc. as exogenous input to scenario modelling</t>
+  </si>
+  <si>
+    <t>manufacturing, use phase, waste management industries</t>
+  </si>
+  <si>
+    <t>all major end-use sectors</t>
+  </si>
+  <si>
+    <t>climate-relevant materials concrete, steel, plastics, wood, aluminium, and copper</t>
+  </si>
+  <si>
+    <t>2000-2060</t>
+  </si>
+  <si>
+    <t>CIRCOMOD project input database of technology parameters, CE parameters, etc. to describe manufacturing, use phase, waste management industries, as exogenous input to scenario modelling</t>
+  </si>
+  <si>
+    <t>population, GDP, service demand, technology parameters etc. as exogenous input to scenario modelling</t>
+  </si>
+  <si>
+    <t>population, economy, technology</t>
+  </si>
+  <si>
+    <t>CIRCOMOD historic information database of exogenous parameters to calibrate the different scenario models</t>
+  </si>
+  <si>
+    <t>2020-2100</t>
+  </si>
+  <si>
+    <t>Material stocks and demand, recycling, GVA, labour, GHG, CED, RMI, land use, water use, as result of scenario modelling</t>
+  </si>
+  <si>
+    <t>material cycles, economy, env. pressure indicators</t>
+  </si>
+  <si>
+    <t>CIRCOMOD result database of material stocks and demand, recycling, GVA, labour, GHG, CED, RMI, land use, water use, as result of scenario modelling of the different scenario models</t>
+  </si>
+  <si>
+    <t>CIRCOMOD_CE_profile_data</t>
+  </si>
+  <si>
+    <t>Material production, GHG by sector, waste statistics, etc.</t>
+  </si>
+  <si>
+    <t>ca. 2020</t>
+  </si>
+  <si>
+    <t>CIRCOMOD CE profile data for the status quo in different end-use sectors, materials, and regions: Material production, GHG by sector, waste statistics, etc.</t>
+  </si>
+  <si>
+    <t>SOUVERAEN</t>
+  </si>
+  <si>
+    <t>Tbd.</t>
+  </si>
+  <si>
+    <t>energy transition; materials; critical materials; EU; supply chains</t>
+  </si>
+  <si>
+    <t>SOUVERAEN is a joint project of Fraunhofer ISE, Uni Bayreuth, and Uni Freiburg</t>
+  </si>
+  <si>
+    <t>SOUVERÄN: Sovereign and sustainable supply chains for key energy transition technologies in the EU</t>
+  </si>
+  <si>
+    <t>SOUVERAEN_Database</t>
+  </si>
+  <si>
+    <t>SOUVERAEN project team</t>
+  </si>
+  <si>
+    <t>Data will be available on Zenodo as of 2027</t>
+  </si>
+  <si>
+    <t>SOUVERAEN datase on energy transition technologies; material demand; critical materials; EU supply chains; CE potentials</t>
+  </si>
+  <si>
+    <t>2020-2060</t>
+  </si>
+  <si>
+    <t>single country level</t>
+  </si>
+  <si>
+    <t>stocks, flows, intensive, and extensive properties</t>
+  </si>
+  <si>
+    <t>production and trade flows, production and installed capacity, material composition, unit process inventories, criticality metrics</t>
+  </si>
+  <si>
+    <t>major technology and critical materials</t>
+  </si>
+  <si>
+    <t>four energy conversion technologies</t>
+  </si>
+  <si>
+    <t>PV, wind turbines, batteries, and electrolysers</t>
+  </si>
+  <si>
+    <t>major processes in global supply chains and in the EU use phase and waste management industries</t>
   </si>
 </sst>
 </file>
@@ -6726,7 +6933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -7021,6 +7228,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7087,6 +7296,11 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -7374,10 +7588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I32"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -7389,14 +7603,14 @@
     <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>186</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="32"/>
       <c r="C3" s="31" t="s">
         <v>181</v>
@@ -7419,9 +7633,15 @@
       <c r="I3" s="39" t="s">
         <v>1503</v>
       </c>
+      <c r="J3" s="39" t="s">
+        <v>2126</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>2160</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="183" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="185" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -7445,9 +7665,15 @@
       <c r="I4" s="57">
         <v>5</v>
       </c>
+      <c r="J4" s="141">
+        <v>6</v>
+      </c>
+      <c r="K4" s="141">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="183"/>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="185"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -7469,9 +7695,15 @@
       <c r="I5" s="119" t="s">
         <v>1505</v>
       </c>
+      <c r="J5" s="118" t="s">
+        <v>2126</v>
+      </c>
+      <c r="K5" s="118" t="s">
+        <v>2160</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="184" t="s">
+    <row r="6" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="186" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -7483,9 +7715,11 @@
       <c r="G6" s="52"/>
       <c r="H6" s="52"/>
       <c r="I6" s="52"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="184"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="186"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -7495,9 +7729,11 @@
       <c r="G7" s="52"/>
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="184"/>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="186"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -7507,9 +7743,11 @@
       <c r="G8" s="52"/>
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="184"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="186"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -7519,9 +7757,11 @@
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="184"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="186"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -7531,9 +7771,11 @@
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="184"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="186"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -7543,9 +7785,11 @@
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="184"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="186"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -7555,9 +7799,11 @@
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="184"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="186"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -7567,9 +7813,11 @@
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="184"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="186"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -7579,9 +7827,11 @@
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="184"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="186"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -7591,9 +7841,11 @@
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="184"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="186"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -7603,9 +7855,11 @@
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="184"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="186"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -7615,9 +7869,11 @@
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="184"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="186"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -7627,9 +7883,11 @@
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="185" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="187" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -7649,9 +7907,15 @@
       <c r="I19" s="119" t="s">
         <v>1504</v>
       </c>
+      <c r="J19" s="118" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K19" s="118" t="s">
+        <v>2164</v>
+      </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="185"/>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="187"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -7673,9 +7937,15 @@
       <c r="I20" s="119" t="s">
         <v>1508</v>
       </c>
+      <c r="J20" s="118" t="s">
+        <v>2129</v>
+      </c>
+      <c r="K20" s="118" t="s">
+        <v>2162</v>
+      </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="185"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="187"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -7693,9 +7963,15 @@
       <c r="I21" s="119" t="s">
         <v>1507</v>
       </c>
+      <c r="J21" s="118" t="s">
+        <v>2128</v>
+      </c>
+      <c r="K21" s="118" t="s">
+        <v>2163</v>
+      </c>
     </row>
-    <row r="22" spans="2:9" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="186" t="s">
+    <row r="22" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="188" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -7717,9 +7993,15 @@
       <c r="I22" s="119" t="s">
         <v>861</v>
       </c>
+      <c r="J22" s="121" t="s">
+        <v>860</v>
+      </c>
+      <c r="K22" s="121" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="186"/>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="188"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -7729,9 +8011,11 @@
       <c r="G23" s="52"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="186"/>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="188"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -7741,9 +8025,11 @@
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="186"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B25" s="188"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -7761,9 +8047,15 @@
       <c r="I25" s="90" t="s">
         <v>1506</v>
       </c>
+      <c r="J25" s="171" t="s">
+        <v>2127</v>
+      </c>
+      <c r="K25" s="171" t="s">
+        <v>2161</v>
+      </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="186"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B26" s="188"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -7775,9 +8067,11 @@
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="186"/>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="188"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -7787,9 +8081,11 @@
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
     </row>
-    <row r="28" spans="2:9" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="187" t="s">
+    <row r="28" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -7813,9 +8109,15 @@
       <c r="I28" s="123">
         <v>45144</v>
       </c>
+      <c r="J28" s="204">
+        <v>45704</v>
+      </c>
+      <c r="K28" s="204">
+        <v>45705</v>
+      </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="187"/>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="189"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -7837,9 +8139,15 @@
       <c r="I29" s="124" t="s">
         <v>30</v>
       </c>
+      <c r="J29" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="125" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="180" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="182" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -7851,9 +8159,11 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
+      <c r="J30" s="205"/>
+      <c r="K30" s="205"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="181"/>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B31" s="183"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -7863,9 +8173,11 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="182"/>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B32" s="184"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -7875,6 +8187,8 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7891,13 +8205,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:V39"/>
+  <dimension ref="B2:AB39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -7919,16 +8233,17 @@
     <col min="20" max="20" width="34.5546875" customWidth="1"/>
     <col min="21" max="21" width="52.6640625" customWidth="1"/>
     <col min="22" max="22" width="40.71875" customWidth="1"/>
+    <col min="23" max="23" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>184</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B3" s="32"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -7990,9 +8305,27 @@
       <c r="V3" s="82" t="s">
         <v>1994</v>
       </c>
+      <c r="W3" s="82" t="s">
+        <v>2131</v>
+      </c>
+      <c r="X3" s="82" t="s">
+        <v>2140</v>
+      </c>
+      <c r="Y3" s="82" t="s">
+        <v>2141</v>
+      </c>
+      <c r="Z3" s="82" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AA3" s="82" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AB3" s="82" t="s">
+        <v>2165</v>
+      </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B4" s="188" t="s">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B4" s="190" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -8055,9 +8388,27 @@
       <c r="V4" s="141">
         <v>18</v>
       </c>
+      <c r="W4" s="141">
+        <v>19</v>
+      </c>
+      <c r="X4" s="141">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="141">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="141">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="141">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="141">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B5" s="189"/>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B5" s="191"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -8118,8 +8469,26 @@
       <c r="V5" s="165" t="s">
         <v>1994</v>
       </c>
+      <c r="W5" s="165" t="s">
+        <v>2131</v>
+      </c>
+      <c r="X5" s="165" t="s">
+        <v>2140</v>
+      </c>
+      <c r="Y5" s="165" t="s">
+        <v>2141</v>
+      </c>
+      <c r="Z5" s="165" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AA5" s="165" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AB5" s="165" t="s">
+        <v>2165</v>
+      </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B6" s="33"/>
       <c r="C6" s="54" t="s">
         <v>453</v>
@@ -8179,8 +8548,26 @@
       <c r="V6" s="165" t="s">
         <v>2018</v>
       </c>
+      <c r="W6" s="165" t="s">
+        <v>2018</v>
+      </c>
+      <c r="X6" s="165" t="s">
+        <v>2018</v>
+      </c>
+      <c r="Y6" s="165" t="s">
+        <v>2018</v>
+      </c>
+      <c r="Z6" s="165" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AA6" s="165" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AB6" s="165" t="s">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
@@ -8242,9 +8629,27 @@
       <c r="V7" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="W7" s="23" t="s">
+        <v>2126</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>2126</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>2126</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AB7" s="165" t="s">
+        <v>2160</v>
+      </c>
     </row>
-    <row r="8" spans="2:22" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="184" t="s">
+    <row r="8" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="186" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -8305,9 +8710,27 @@
       <c r="V8" s="165" t="s">
         <v>1995</v>
       </c>
+      <c r="W8" s="165" t="s">
+        <v>2133</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>2143</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AB8" s="23" t="s">
+        <v>2171</v>
+      </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B9" s="184"/>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B9" s="186"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -8366,9 +8789,27 @@
       <c r="V9" s="165" t="s">
         <v>1996</v>
       </c>
+      <c r="W9" s="165" t="s">
+        <v>2133</v>
+      </c>
+      <c r="X9" s="23" t="s">
+        <v>2143</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Z9" s="23" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AA9" s="23" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AB9" s="23" t="s">
+        <v>2172</v>
+      </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B10" s="184"/>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B10" s="186"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -8427,9 +8868,27 @@
       <c r="V10" s="165" t="s">
         <v>199</v>
       </c>
+      <c r="W10" s="165" t="s">
+        <v>2134</v>
+      </c>
+      <c r="X10" s="165" t="s">
+        <v>2134</v>
+      </c>
+      <c r="Y10" s="165" t="s">
+        <v>2134</v>
+      </c>
+      <c r="Z10" s="165" t="s">
+        <v>2134</v>
+      </c>
+      <c r="AA10" s="165" t="s">
+        <v>2134</v>
+      </c>
+      <c r="AB10" s="165" t="s">
+        <v>2134</v>
+      </c>
     </row>
-    <row r="11" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="184"/>
+    <row r="11" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B11" s="186"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -8488,9 +8947,27 @@
       <c r="V11" s="165" t="s">
         <v>1997</v>
       </c>
+      <c r="W11" s="165" t="s">
+        <v>2136</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>2144</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>2150</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>2154</v>
+      </c>
     </row>
-    <row r="12" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="184"/>
+    <row r="12" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B12" s="186"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -8549,9 +9026,27 @@
       <c r="V12" s="165" t="s">
         <v>1998</v>
       </c>
+      <c r="W12" s="165" t="s">
+        <v>2135</v>
+      </c>
+      <c r="X12" s="165" t="s">
+        <v>2135</v>
+      </c>
+      <c r="Y12" s="165" t="s">
+        <v>2135</v>
+      </c>
+      <c r="Z12" s="165" t="s">
+        <v>2135</v>
+      </c>
+      <c r="AA12" s="165" t="s">
+        <v>2135</v>
+      </c>
+      <c r="AB12" s="165" t="s">
+        <v>2176</v>
+      </c>
     </row>
-    <row r="13" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="184"/>
+    <row r="13" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B13" s="186"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -8610,9 +9105,27 @@
       <c r="V13" s="165" t="s">
         <v>11</v>
       </c>
+      <c r="W13" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="23" t="s">
+        <v>2145</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>2145</v>
+      </c>
+      <c r="Z13" s="23" t="s">
+        <v>2145</v>
+      </c>
+      <c r="AA13" s="23" t="s">
+        <v>2145</v>
+      </c>
+      <c r="AB13" s="23" t="s">
+        <v>2174</v>
+      </c>
     </row>
-    <row r="14" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="184"/>
+    <row r="14" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B14" s="186"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -8671,9 +9184,27 @@
       <c r="V14" s="165" t="s">
         <v>11</v>
       </c>
+      <c r="W14" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>2145</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>2145</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>2145</v>
+      </c>
+      <c r="AA14" s="23" t="s">
+        <v>2145</v>
+      </c>
+      <c r="AB14" s="23" t="s">
+        <v>2175</v>
+      </c>
     </row>
-    <row r="15" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="184"/>
+    <row r="15" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B15" s="186"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -8732,9 +9263,27 @@
       <c r="V15" s="165" t="s">
         <v>1679</v>
       </c>
+      <c r="W15" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>2146</v>
+      </c>
+      <c r="Y15" s="23" t="s">
+        <v>2146</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>2146</v>
+      </c>
+      <c r="AA15" s="23" t="s">
+        <v>2146</v>
+      </c>
+      <c r="AB15" s="23" t="s">
+        <v>2173</v>
+      </c>
     </row>
-    <row r="16" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="184"/>
+    <row r="16" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B16" s="186"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -8793,9 +9342,27 @@
       <c r="V16" s="165" t="s">
         <v>1999</v>
       </c>
+      <c r="W16" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>2146</v>
+      </c>
+      <c r="Y16" s="23" t="s">
+        <v>2146</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>2146</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>2146</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>2173</v>
+      </c>
     </row>
-    <row r="17" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="184"/>
+    <row r="17" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B17" s="186"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -8854,9 +9421,27 @@
       <c r="V17" s="165" t="s">
         <v>19</v>
       </c>
+      <c r="W17" s="165" t="s">
+        <v>819</v>
+      </c>
+      <c r="X17" s="165" t="s">
+        <v>819</v>
+      </c>
+      <c r="Y17" s="165" t="s">
+        <v>819</v>
+      </c>
+      <c r="Z17" s="165" t="s">
+        <v>819</v>
+      </c>
+      <c r="AA17" s="165" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB17" s="165" t="s">
+        <v>1422</v>
+      </c>
     </row>
-    <row r="18" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="184"/>
+    <row r="18" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B18" s="186"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -8915,9 +9500,27 @@
       <c r="V18" s="165" t="s">
         <v>2000</v>
       </c>
+      <c r="W18" s="165" t="s">
+        <v>2135</v>
+      </c>
+      <c r="X18" s="165" t="s">
+        <v>2135</v>
+      </c>
+      <c r="Y18" s="165" t="s">
+        <v>2135</v>
+      </c>
+      <c r="Z18" s="165" t="s">
+        <v>2135</v>
+      </c>
+      <c r="AA18" s="165" t="s">
+        <v>2135</v>
+      </c>
+      <c r="AB18" s="165" t="s">
+        <v>2170</v>
+      </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B19" s="184"/>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B19" s="186"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -8976,9 +9579,27 @@
       <c r="V19" s="165" t="s">
         <v>2001</v>
       </c>
+      <c r="W19" s="165" t="s">
+        <v>2137</v>
+      </c>
+      <c r="X19" s="23" t="s">
+        <v>2147</v>
+      </c>
+      <c r="Y19" s="23" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Z19" s="23" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AA19" s="23" t="s">
+        <v>2152</v>
+      </c>
+      <c r="AB19" s="23" t="s">
+        <v>2169</v>
+      </c>
     </row>
-    <row r="20" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="184"/>
+    <row r="20" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B20" s="186"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -9037,9 +9658,27 @@
       <c r="V20" s="165" t="s">
         <v>1278</v>
       </c>
+      <c r="W20" s="165" t="s">
+        <v>1278</v>
+      </c>
+      <c r="X20" s="165" t="s">
+        <v>1278</v>
+      </c>
+      <c r="Y20" s="165" t="s">
+        <v>1278</v>
+      </c>
+      <c r="Z20" s="165" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AA20" s="165" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AB20" s="165" t="s">
+        <v>1278</v>
+      </c>
     </row>
-    <row r="21" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="185" t="s">
+    <row r="21" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B21" s="187" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -9100,9 +9739,27 @@
       <c r="V21" s="165" t="s">
         <v>2002</v>
       </c>
+      <c r="W21" s="165" t="s">
+        <v>2138</v>
+      </c>
+      <c r="X21" s="23" t="s">
+        <v>2148</v>
+      </c>
+      <c r="Y21" s="23" t="s">
+        <v>2151</v>
+      </c>
+      <c r="Z21" s="206" t="s">
+        <v>2159</v>
+      </c>
+      <c r="AA21" s="23" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AB21" s="23" t="s">
+        <v>2168</v>
+      </c>
     </row>
-    <row r="22" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="185"/>
+    <row r="22" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B22" s="187"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -9163,9 +9820,27 @@
       <c r="V22" s="165" t="s">
         <v>2003</v>
       </c>
+      <c r="W22" s="165" t="s">
+        <v>2126</v>
+      </c>
+      <c r="X22" s="165" t="s">
+        <v>2126</v>
+      </c>
+      <c r="Y22" s="165" t="s">
+        <v>2126</v>
+      </c>
+      <c r="Z22" s="165" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AA22" s="165" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AB22" s="165" t="s">
+        <v>2160</v>
+      </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B23" s="185"/>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B23" s="187"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
@@ -9224,9 +9899,27 @@
       <c r="V23" s="165" t="s">
         <v>2004</v>
       </c>
+      <c r="W23" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="X23" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y23" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z23" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB23" s="165" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="24" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="185"/>
+    <row r="24" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B24" s="187"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -9285,9 +9978,27 @@
       <c r="V24" s="165" t="s">
         <v>2008</v>
       </c>
+      <c r="W24" s="165" t="s">
+        <v>2139</v>
+      </c>
+      <c r="X24" s="165" t="s">
+        <v>2139</v>
+      </c>
+      <c r="Y24" s="165" t="s">
+        <v>2139</v>
+      </c>
+      <c r="Z24" s="165" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AA24" s="165" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AB24" s="165" t="s">
+        <v>2167</v>
+      </c>
     </row>
-    <row r="25" spans="2:22" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="186" t="s">
+    <row r="25" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="188" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -9348,9 +10059,27 @@
       <c r="V25" s="23" t="s">
         <v>860</v>
       </c>
+      <c r="W25" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="Y25" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="Z25" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="AA25" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="AB25" s="23" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B26" s="186"/>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B26" s="188"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -9406,12 +10135,30 @@
       <c r="U26" s="165" t="s">
         <v>1551</v>
       </c>
-      <c r="V26" s="37" t="s">
+      <c r="V26" s="165" t="s">
         <v>857</v>
       </c>
+      <c r="W26" s="165" t="s">
+        <v>857</v>
+      </c>
+      <c r="X26" s="165" t="s">
+        <v>857</v>
+      </c>
+      <c r="Y26" s="165" t="s">
+        <v>857</v>
+      </c>
+      <c r="Z26" s="165" t="s">
+        <v>857</v>
+      </c>
+      <c r="AA26" s="165" t="s">
+        <v>857</v>
+      </c>
+      <c r="AB26" s="165" t="s">
+        <v>857</v>
+      </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B27" s="186"/>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B27" s="188"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -9470,9 +10217,27 @@
       <c r="V27" s="165" t="s">
         <v>1315</v>
       </c>
+      <c r="W27" s="165" t="s">
+        <v>2132</v>
+      </c>
+      <c r="X27" s="165" t="s">
+        <v>2132</v>
+      </c>
+      <c r="Y27" s="165" t="s">
+        <v>2132</v>
+      </c>
+      <c r="Z27" s="165" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AA27" s="165" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AB27" s="165" t="s">
+        <v>2166</v>
+      </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B28" s="186"/>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B28" s="188"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -9528,12 +10293,30 @@
       <c r="U28" s="47" t="s">
         <v>1547</v>
       </c>
-      <c r="V28" s="153" t="s">
+      <c r="V28" s="181" t="s">
         <v>2007</v>
       </c>
+      <c r="W28" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="X28" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Y28" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Z28" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AA28" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AB28" s="181" t="s">
+        <v>2161</v>
+      </c>
     </row>
-    <row r="29" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="186"/>
+    <row r="29" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B29" s="188"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -9589,12 +10372,30 @@
       <c r="U29" s="47" t="s">
         <v>1547</v>
       </c>
-      <c r="V29" s="153" t="s">
+      <c r="V29" s="181" t="s">
         <v>2006</v>
       </c>
+      <c r="W29" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="X29" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Y29" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Z29" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AA29" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AB29" s="181" t="s">
+        <v>2161</v>
+      </c>
     </row>
-    <row r="30" spans="2:22" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="186"/>
+    <row r="30" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="B30" s="188"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -9650,12 +10451,30 @@
       <c r="U30" s="47" t="s">
         <v>1547</v>
       </c>
-      <c r="V30" s="153" t="s">
+      <c r="V30" s="181" t="s">
         <v>2006</v>
       </c>
+      <c r="W30" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="X30" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Y30" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Z30" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AA30" s="181" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AB30" s="181" t="s">
+        <v>2161</v>
+      </c>
     </row>
-    <row r="31" spans="2:22" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="187" t="s">
+    <row r="31" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="189" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -9718,9 +10537,27 @@
       <c r="V31" s="162">
         <v>45611</v>
       </c>
+      <c r="W31" s="162">
+        <v>45704</v>
+      </c>
+      <c r="X31" s="162">
+        <v>45704</v>
+      </c>
+      <c r="Y31" s="162">
+        <v>45704</v>
+      </c>
+      <c r="Z31" s="162">
+        <v>45704</v>
+      </c>
+      <c r="AA31" s="162">
+        <v>45704</v>
+      </c>
+      <c r="AB31" s="162">
+        <v>45705</v>
+      </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B32" s="190"/>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B32" s="192"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -9781,9 +10618,27 @@
       <c r="V32" s="165" t="s">
         <v>30</v>
       </c>
+      <c r="W32" s="165" t="s">
+        <v>30</v>
+      </c>
+      <c r="X32" s="165" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y32" s="165" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z32" s="165" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA32" s="165" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB32" s="165" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B33" s="180" t="s">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B33" s="182" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -9808,9 +10663,15 @@
       <c r="T33" s="165"/>
       <c r="U33" s="165"/>
       <c r="V33" s="165"/>
+      <c r="W33" s="165"/>
+      <c r="X33" s="165"/>
+      <c r="Y33" s="165"/>
+      <c r="Z33" s="165"/>
+      <c r="AA33" s="165"/>
+      <c r="AB33" s="165"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B34" s="181"/>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B34" s="183"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -9833,9 +10694,15 @@
       <c r="T34" s="165"/>
       <c r="U34" s="165"/>
       <c r="V34" s="165"/>
+      <c r="W34" s="165"/>
+      <c r="X34" s="165"/>
+      <c r="Y34" s="165"/>
+      <c r="Z34" s="165"/>
+      <c r="AA34" s="165"/>
+      <c r="AB34" s="165"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B35" s="182"/>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B35" s="184"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -9858,8 +10725,17 @@
       <c r="T35" s="167"/>
       <c r="U35" s="167"/>
       <c r="V35" s="167"/>
+      <c r="W35" s="167"/>
+      <c r="X35" s="167"/>
+      <c r="Y35" s="167"/>
+      <c r="Z35" s="167"/>
+      <c r="AA35" s="167"/>
+      <c r="AB35" s="167"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="W36" s="105"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.4">
       <c r="I39" s="12"/>
     </row>
   </sheetData>
@@ -9875,6 +10751,7 @@
     <hyperlink ref="G28" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9882,11 +10759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:EO74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="DJ39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="DP6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="EE2" sqref="EE2"/>
+      <selection pane="bottomRight" activeCell="DW2" sqref="DW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -9947,7 +10824,7 @@
     <col min="70" max="16384" width="11.5546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:126" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -10314,8 +11191,11 @@
       <c r="DU1" s="155" t="s">
         <v>1989</v>
       </c>
+      <c r="DV1" s="180" t="s">
+        <v>2108</v>
+      </c>
     </row>
-    <row r="2" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -10506,8 +11386,11 @@
       <c r="DU2" s="176" t="s">
         <v>1967</v>
       </c>
+      <c r="DV2" s="180" t="s">
+        <v>1967</v>
+      </c>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -10760,11 +11643,11 @@
       <c r="DS3" s="105"/>
       <c r="DT3" s="105"/>
     </row>
-    <row r="4" spans="1:125" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:126" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="195" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -11018,11 +11901,11 @@
       <c r="DS4" s="105"/>
       <c r="DT4" s="105"/>
     </row>
-    <row r="5" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="194"/>
+      <c r="B5" s="196"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -11392,8 +12275,11 @@
       <c r="DU5" s="41" t="s">
         <v>2092</v>
       </c>
+      <c r="DV5" s="105" t="s">
+        <v>2109</v>
+      </c>
     </row>
-    <row r="6" spans="1:125" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:126" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -11765,12 +12651,15 @@
       <c r="DU6" s="41" t="s">
         <v>2093</v>
       </c>
+      <c r="DV6" s="105" t="s">
+        <v>2110</v>
+      </c>
     </row>
-    <row r="7" spans="1:125" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:126" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="197" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -12140,12 +13029,15 @@
       <c r="DU7" s="41" t="s">
         <v>845</v>
       </c>
+      <c r="DV7" s="105" t="s">
+        <v>845</v>
+      </c>
     </row>
-    <row r="8" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="195"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -12515,12 +13407,15 @@
       <c r="DU8" s="41">
         <v>3</v>
       </c>
+      <c r="DV8" s="105">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="195"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -12890,12 +13785,15 @@
       <c r="DU9" s="41" t="s">
         <v>846</v>
       </c>
+      <c r="DV9" s="172" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="195"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -13265,12 +14163,15 @@
       <c r="DU10" s="41" t="s">
         <v>151</v>
       </c>
+      <c r="DV10" s="172" t="s">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="11" spans="1:125" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:126" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="198" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -13640,12 +14541,15 @@
       <c r="DU11" s="41" t="s">
         <v>32</v>
       </c>
+      <c r="DV11" s="172" t="s">
+        <v>2117</v>
+      </c>
     </row>
-    <row r="12" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="197"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -14013,12 +14917,15 @@
       <c r="DU12" s="41" t="s">
         <v>152</v>
       </c>
+      <c r="DV12" s="172" t="s">
+        <v>779</v>
+      </c>
     </row>
-    <row r="13" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="197"/>
+      <c r="B13" s="199"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -14386,12 +15293,15 @@
       <c r="DU13" s="41" t="s">
         <v>2094</v>
       </c>
+      <c r="DV13" s="172" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="197"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -14759,12 +15669,15 @@
       <c r="DU14" s="41" t="s">
         <v>2095</v>
       </c>
+      <c r="DV14" s="172" t="s">
+        <v>1392</v>
+      </c>
     </row>
-    <row r="15" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="197"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -15132,12 +16045,15 @@
       <c r="DU15" s="41" t="s">
         <v>347</v>
       </c>
+      <c r="DV15" s="172" t="s">
+        <v>1679</v>
+      </c>
     </row>
-    <row r="16" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="197"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -15505,12 +16421,15 @@
       <c r="DU16" s="41" t="s">
         <v>508</v>
       </c>
+      <c r="DV16" s="172" t="s">
+        <v>2118</v>
+      </c>
     </row>
-    <row r="17" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="197"/>
+      <c r="B17" s="199"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -15878,12 +16797,15 @@
       <c r="DU17" s="41" t="s">
         <v>156</v>
       </c>
+      <c r="DV17" s="176" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="18" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="197"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -16251,12 +17173,15 @@
       <c r="DU18" s="41" t="s">
         <v>2096</v>
       </c>
+      <c r="DV18" s="172" t="s">
+        <v>2119</v>
+      </c>
     </row>
-    <row r="19" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="197"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -16624,12 +17549,15 @@
       <c r="DU19" s="41" t="s">
         <v>2097</v>
       </c>
+      <c r="DV19" s="172" t="s">
+        <v>2120</v>
+      </c>
     </row>
-    <row r="20" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="197"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -16997,12 +17925,15 @@
       <c r="DU20" s="41" t="s">
         <v>2098</v>
       </c>
+      <c r="DV20" s="172" t="s">
+        <v>2015</v>
+      </c>
     </row>
-    <row r="21" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="198" t="s">
+      <c r="B21" s="200" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -17366,12 +18297,15 @@
       <c r="DU21" s="41" t="s">
         <v>2099</v>
       </c>
+      <c r="DV21" s="172" t="s">
+        <v>2121</v>
+      </c>
     </row>
-    <row r="22" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="198"/>
+      <c r="B22" s="200"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -17741,12 +18675,15 @@
       <c r="DU22" s="41" t="s">
         <v>2100</v>
       </c>
+      <c r="DV22" s="172" t="s">
+        <v>2122</v>
+      </c>
     </row>
-    <row r="23" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="198"/>
+      <c r="B23" s="200"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -18116,12 +19053,15 @@
       <c r="DU23" s="41" t="s">
         <v>24</v>
       </c>
+      <c r="DV23" s="105" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="24" spans="1:125" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:126" x14ac:dyDescent="0.4">
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="198"/>
+      <c r="B24" s="200"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -18491,12 +19431,15 @@
       <c r="DU24" s="41">
         <v>8130</v>
       </c>
+      <c r="DV24" s="105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:125" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:126" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="198"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -18864,12 +19807,15 @@
       <c r="DU25" s="41" t="s">
         <v>11</v>
       </c>
+      <c r="DV25" s="105" t="s">
+        <v>2111</v>
+      </c>
     </row>
-    <row r="26" spans="1:125" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:126" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="201" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -19241,12 +20187,15 @@
       <c r="DU26" s="68" t="s">
         <v>698</v>
       </c>
+      <c r="DV26" s="68" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="27" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="199"/>
+      <c r="B27" s="201"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -19616,12 +20565,15 @@
       <c r="DU27" s="68">
         <v>85</v>
       </c>
+      <c r="DV27" s="68">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="199"/>
+      <c r="B28" s="201"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -19989,12 +20941,15 @@
       <c r="DU28" s="68" t="s">
         <v>851</v>
       </c>
+      <c r="DV28" s="68" t="s">
+        <v>1033</v>
+      </c>
     </row>
-    <row r="29" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="199"/>
+      <c r="B29" s="201"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -20362,12 +21317,15 @@
       <c r="DU29" s="68">
         <v>13</v>
       </c>
+      <c r="DV29" s="68">
+        <v>72</v>
+      </c>
     </row>
-    <row r="30" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="199"/>
+      <c r="B30" s="201"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -20735,12 +21693,15 @@
       <c r="DU30" s="68" t="s">
         <v>696</v>
       </c>
+      <c r="DV30" s="68" t="s">
+        <v>699</v>
+      </c>
     </row>
-    <row r="31" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="199"/>
+      <c r="B31" s="201"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -21108,12 +22069,15 @@
       <c r="DU31" s="68">
         <v>13</v>
       </c>
+      <c r="DV31" s="68">
+        <v>6</v>
+      </c>
     </row>
-    <row r="32" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="199"/>
+      <c r="B32" s="201"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -21481,12 +22445,15 @@
       <c r="DU32" s="68" t="s">
         <v>704</v>
       </c>
+      <c r="DV32" s="68" t="s">
+        <v>700</v>
+      </c>
     </row>
-    <row r="33" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="199"/>
+      <c r="B33" s="201"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -21854,12 +22821,15 @@
       <c r="DU33" s="174">
         <v>14</v>
       </c>
+      <c r="DV33" s="68">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="199"/>
+      <c r="B34" s="201"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -22227,12 +23197,15 @@
       <c r="DU34" s="68" t="s">
         <v>849</v>
       </c>
+      <c r="DV34" s="68" t="s">
+        <v>1467</v>
+      </c>
     </row>
-    <row r="35" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="199"/>
+      <c r="B35" s="201"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -22600,12 +23573,15 @@
       <c r="DU35" s="68">
         <v>4</v>
       </c>
+      <c r="DV35" s="68">
+        <v>79</v>
+      </c>
     </row>
-    <row r="36" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="199"/>
+      <c r="B36" s="201"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -22973,12 +23949,15 @@
       <c r="DU36" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV36" s="68" t="s">
+        <v>702</v>
+      </c>
     </row>
-    <row r="37" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="199"/>
+      <c r="B37" s="201"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -23346,12 +24325,15 @@
       <c r="DU37" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV37" s="68">
+        <v>3</v>
+      </c>
     </row>
-    <row r="38" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="199"/>
+      <c r="B38" s="201"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -23719,12 +24701,15 @@
       <c r="DU38" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV38" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="39" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="199"/>
+      <c r="B39" s="201"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -24092,12 +25077,15 @@
       <c r="DU39" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV39" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="199"/>
+      <c r="B40" s="201"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -24465,12 +25453,15 @@
       <c r="DU40" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV40" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="199"/>
+      <c r="B41" s="201"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -24838,12 +25829,15 @@
       <c r="DU41" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV41" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="199"/>
+      <c r="B42" s="201"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -25211,12 +26205,15 @@
       <c r="DU42" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV42" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="199"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -25584,12 +26581,15 @@
       <c r="DU43" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV43" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="199"/>
+      <c r="B44" s="201"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -25957,12 +26957,15 @@
       <c r="DU44" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV44" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="199"/>
+      <c r="B45" s="201"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -26330,12 +27333,15 @@
       <c r="DU45" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV45" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="199"/>
+      <c r="B46" s="201"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -26703,12 +27709,15 @@
       <c r="DU46" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV46" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="199"/>
+      <c r="B47" s="201"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -27076,12 +28085,15 @@
       <c r="DU47" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV47" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="199"/>
+      <c r="B48" s="201"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -27449,12 +28461,15 @@
       <c r="DU48" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV48" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:125" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="199"/>
+      <c r="B49" s="201"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -27822,12 +28837,15 @@
       <c r="DU49" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DV49" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="199"/>
+      <c r="B50" s="201"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -28197,12 +29215,15 @@
       <c r="DU50" s="41" t="s">
         <v>2101</v>
       </c>
+      <c r="DV50" s="105" t="s">
+        <v>2123</v>
+      </c>
     </row>
-    <row r="51" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="199"/>
+      <c r="B51" s="201"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -28572,12 +29593,15 @@
       <c r="DU51" s="41" t="s">
         <v>2102</v>
       </c>
+      <c r="DV51" s="12" t="s">
+        <v>2124</v>
+      </c>
     </row>
-    <row r="52" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="199"/>
+      <c r="B52" s="201"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -28947,12 +29971,15 @@
       <c r="DU52" s="41" t="s">
         <v>2103</v>
       </c>
+      <c r="DV52" s="105" t="s">
+        <v>2125</v>
+      </c>
     </row>
-    <row r="53" spans="1:125" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:126" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="200" t="s">
+      <c r="B53" s="202" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -29324,12 +30351,15 @@
       <c r="DU53" s="41" t="s">
         <v>860</v>
       </c>
+      <c r="DV53" s="105" t="s">
+        <v>861</v>
+      </c>
     </row>
-    <row r="54" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="200"/>
+      <c r="B54" s="202"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -29699,12 +30729,15 @@
       <c r="DU54" s="41" t="s">
         <v>61</v>
       </c>
+      <c r="DV54" s="4" t="s">
+        <v>858</v>
+      </c>
     </row>
-    <row r="55" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="200"/>
+      <c r="B55" s="202"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -30074,12 +31107,15 @@
       <c r="DU55" s="41" t="s">
         <v>2104</v>
       </c>
+      <c r="DV55" s="105" t="s">
+        <v>2112</v>
+      </c>
     </row>
-    <row r="56" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="200"/>
+      <c r="B56" s="202"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -30447,12 +31483,15 @@
       <c r="DU56" s="41" t="s">
         <v>2105</v>
       </c>
+      <c r="DV56" s="105" t="s">
+        <v>2115</v>
+      </c>
     </row>
-    <row r="57" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="200"/>
+      <c r="B57" s="202"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -30822,12 +31861,15 @@
       <c r="DU57" s="41" t="s">
         <v>1593</v>
       </c>
+      <c r="DV57" s="105" t="s">
+        <v>1980</v>
+      </c>
     </row>
-    <row r="58" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="200"/>
+      <c r="B58" s="202"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -31168,12 +32210,15 @@
       <c r="DU58" s="41" t="s">
         <v>2105</v>
       </c>
+      <c r="DV58" s="171" t="s">
+        <v>2114</v>
+      </c>
     </row>
-    <row r="59" spans="1:125" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="200"/>
+      <c r="B59" s="202"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -31543,12 +32588,15 @@
       <c r="DU59" s="41" t="s">
         <v>2106</v>
       </c>
+      <c r="DV59" t="s">
+        <v>2113</v>
+      </c>
     </row>
-    <row r="60" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="200"/>
+      <c r="B60" s="202"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -31918,12 +32966,15 @@
       <c r="DU60" s="41">
         <v>1</v>
       </c>
+      <c r="DV60" s="105">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:125" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:126" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="201" t="s">
+      <c r="B61" s="203" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -32293,12 +33344,15 @@
       <c r="DU61" s="173">
         <v>45611</v>
       </c>
+      <c r="DV61" s="173">
+        <v>45628</v>
+      </c>
     </row>
-    <row r="62" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="201"/>
+      <c r="B62" s="203"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -32668,12 +33722,15 @@
       <c r="DU62" s="173">
         <v>45611</v>
       </c>
+      <c r="DV62" s="173">
+        <v>45628</v>
+      </c>
     </row>
-    <row r="63" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="201"/>
+      <c r="B63" s="203"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -33043,12 +34100,15 @@
       <c r="DU63" s="41" t="s">
         <v>30</v>
       </c>
+      <c r="DV63" s="105" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="64" spans="1:125" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="201"/>
+      <c r="B64" s="203"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -33417,13 +34477,16 @@
       </c>
       <c r="DU64" s="41" t="s">
         <v>2107</v>
+      </c>
+      <c r="DV64" s="105" t="s">
+        <v>2116</v>
       </c>
     </row>
     <row r="65" spans="1:145" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="201"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -33533,7 +34596,7 @@
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="201"/>
+      <c r="B66" s="203"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -33643,7 +34706,7 @@
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="201"/>
+      <c r="B67" s="203"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -33706,7 +34769,7 @@
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="191" t="s">
+      <c r="B68" s="193" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -33748,7 +34811,7 @@
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="191"/>
+      <c r="B69" s="193"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -33783,7 +34846,7 @@
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="191"/>
+      <c r="B70" s="193"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -33816,7 +34879,7 @@
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="191"/>
+      <c r="B71" s="193"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -33848,7 +34911,7 @@
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="192"/>
+      <c r="B72" s="194"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -34566,7 +35629,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="195" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -34735,7 +35798,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="194"/>
+      <c r="B5" s="196"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -35067,7 +36130,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="197" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -35234,7 +36297,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="195"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -35401,7 +36464,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="195"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -35568,7 +36631,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="195"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -35735,7 +36798,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="198" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -35902,7 +36965,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="197"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -36067,7 +37130,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="197"/>
+      <c r="B13" s="199"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -36232,7 +37295,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="197"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -36397,7 +37460,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="197"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -36562,7 +37625,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="197"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -36727,7 +37790,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="197"/>
+      <c r="B17" s="199"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -36892,7 +37955,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="197"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -37057,7 +38120,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="197"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -37222,7 +38285,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="197"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -37387,7 +38450,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="198" t="s">
+      <c r="B21" s="200" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -37595,7 +38658,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="198"/>
+      <c r="B22" s="200"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -37803,7 +38866,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="198"/>
+      <c r="B23" s="200"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -37970,7 +39033,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="198"/>
+      <c r="B24" s="200"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -38137,7 +39200,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="198"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -38302,7 +39365,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="201" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -38471,7 +39534,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="199"/>
+      <c r="B27" s="201"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -38638,7 +39701,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="199"/>
+      <c r="B28" s="201"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -38803,7 +39866,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="199"/>
+      <c r="B29" s="201"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -38968,7 +40031,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="199"/>
+      <c r="B30" s="201"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -39133,7 +40196,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="199"/>
+      <c r="B31" s="201"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -39298,7 +40361,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="199"/>
+      <c r="B32" s="201"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -39463,7 +40526,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="199"/>
+      <c r="B33" s="201"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -39628,7 +40691,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="199"/>
+      <c r="B34" s="201"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -39793,7 +40856,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="199"/>
+      <c r="B35" s="201"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -39958,7 +41021,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="199"/>
+      <c r="B36" s="201"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -40123,7 +41186,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="199"/>
+      <c r="B37" s="201"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -40288,7 +41351,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="199"/>
+      <c r="B38" s="201"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -40453,7 +41516,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="199"/>
+      <c r="B39" s="201"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -40618,7 +41681,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="199"/>
+      <c r="B40" s="201"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -40783,7 +41846,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="199"/>
+      <c r="B41" s="201"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -40948,7 +42011,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="199"/>
+      <c r="B42" s="201"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -41113,7 +42176,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="199"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -41278,7 +42341,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="199"/>
+      <c r="B44" s="201"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -41443,7 +42506,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="199"/>
+      <c r="B45" s="201"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -41608,7 +42671,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="199"/>
+      <c r="B46" s="201"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -41773,7 +42836,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="199"/>
+      <c r="B47" s="201"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -41938,7 +43001,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="199"/>
+      <c r="B48" s="201"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -42103,7 +43166,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="199"/>
+      <c r="B49" s="201"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -42268,7 +43331,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="199"/>
+      <c r="B50" s="201"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -42435,7 +43498,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="199"/>
+      <c r="B51" s="201"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -42602,7 +43665,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="199"/>
+      <c r="B52" s="201"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -42769,7 +43832,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="200" t="s">
+      <c r="B53" s="202" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -42938,7 +44001,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="200"/>
+      <c r="B54" s="202"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -43105,7 +44168,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="200"/>
+      <c r="B55" s="202"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -43272,7 +44335,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="200"/>
+      <c r="B56" s="202"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -43437,7 +44500,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="200"/>
+      <c r="B57" s="202"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -43604,7 +44667,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B58" s="200"/>
+      <c r="B58" s="202"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -43769,7 +44832,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="200"/>
+      <c r="B59" s="202"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -43936,7 +44999,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B60" s="200"/>
+      <c r="B60" s="202"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -44103,7 +45166,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="201" t="s">
+      <c r="B61" s="203" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -44270,7 +45333,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="201"/>
+      <c r="B62" s="203"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -44437,7 +45500,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="201"/>
+      <c r="B63" s="203"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -44604,7 +45667,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="201"/>
+      <c r="B64" s="203"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -44771,7 +45834,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="201"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -44788,7 +45851,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="201"/>
+      <c r="B66" s="203"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -44807,7 +45870,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="201"/>
+      <c r="B67" s="203"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -44826,7 +45889,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B68" s="191" t="s">
+      <c r="B68" s="193" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -44836,7 +45899,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B69" s="191"/>
+      <c r="B69" s="193"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -44844,7 +45907,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B70" s="191"/>
+      <c r="B70" s="193"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -44852,7 +45915,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B71" s="191"/>
+      <c r="B71" s="193"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -44864,7 +45927,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B72" s="192"/>
+      <c r="B72" s="194"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -45444,7 +46507,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="195" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -45524,7 +46587,7 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="194"/>
+      <c r="B5" s="196"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -45678,7 +46741,7 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="197" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -45756,7 +46819,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="195"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -45834,7 +46897,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="195"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -45912,7 +46975,7 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="195"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -45990,7 +47053,7 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="198" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -46068,7 +47131,7 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="197"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -46144,7 +47207,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="197"/>
+      <c r="B13" s="199"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -46220,7 +47283,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="197"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -46296,7 +47359,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="197"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -46372,7 +47435,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="197"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -46448,7 +47511,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="197"/>
+      <c r="B17" s="199"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -46524,7 +47587,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="197"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -46600,7 +47663,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="197"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -46676,7 +47739,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="197"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -46752,7 +47815,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="198" t="s">
+      <c r="B21" s="200" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -46830,7 +47893,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="198"/>
+      <c r="B22" s="200"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -46908,7 +47971,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="198"/>
+      <c r="B23" s="200"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -46986,7 +48049,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B24" s="198"/>
+      <c r="B24" s="200"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -47064,7 +48127,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="198"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -47140,7 +48203,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="201" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -47220,7 +48283,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="199"/>
+      <c r="B27" s="201"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -47298,7 +48361,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="199"/>
+      <c r="B28" s="201"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -47374,7 +48437,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="199"/>
+      <c r="B29" s="201"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -47450,7 +48513,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="199"/>
+      <c r="B30" s="201"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -47526,7 +48589,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="199"/>
+      <c r="B31" s="201"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -47602,7 +48665,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="199"/>
+      <c r="B32" s="201"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -47678,7 +48741,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="199"/>
+      <c r="B33" s="201"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -47754,7 +48817,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="199"/>
+      <c r="B34" s="201"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -47830,7 +48893,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="199"/>
+      <c r="B35" s="201"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -47906,7 +48969,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="199"/>
+      <c r="B36" s="201"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -47982,7 +49045,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="199"/>
+      <c r="B37" s="201"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -48058,7 +49121,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="199"/>
+      <c r="B38" s="201"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -48134,7 +49197,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="199"/>
+      <c r="B39" s="201"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -48210,7 +49273,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="199"/>
+      <c r="B40" s="201"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -48286,7 +49349,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="199"/>
+      <c r="B41" s="201"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -48362,7 +49425,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="199"/>
+      <c r="B42" s="201"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -48438,7 +49501,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="199"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -48514,7 +49577,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="199"/>
+      <c r="B44" s="201"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -48590,7 +49653,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="199"/>
+      <c r="B45" s="201"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -48666,7 +49729,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="199"/>
+      <c r="B46" s="201"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -48742,7 +49805,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="199"/>
+      <c r="B47" s="201"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -48818,7 +49881,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="199"/>
+      <c r="B48" s="201"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -48894,7 +49957,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="199"/>
+      <c r="B49" s="201"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -48970,7 +50033,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="199"/>
+      <c r="B50" s="201"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -49048,7 +50111,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="199"/>
+      <c r="B51" s="201"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -49126,7 +50189,7 @@
       </c>
     </row>
     <row r="52" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="199"/>
+      <c r="B52" s="201"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -49204,7 +50267,7 @@
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B53" s="200" t="s">
+      <c r="B53" s="202" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -49284,7 +50347,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="200"/>
+      <c r="B54" s="202"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -49362,7 +50425,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="200"/>
+      <c r="B55" s="202"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -49440,7 +50503,7 @@
       </c>
     </row>
     <row r="56" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="200"/>
+      <c r="B56" s="202"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -49516,7 +50579,7 @@
       </c>
     </row>
     <row r="57" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="200"/>
+      <c r="B57" s="202"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -49594,7 +50657,7 @@
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B58" s="200"/>
+      <c r="B58" s="202"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -49670,7 +50733,7 @@
       </c>
     </row>
     <row r="59" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="200"/>
+      <c r="B59" s="202"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -49748,7 +50811,7 @@
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B60" s="200"/>
+      <c r="B60" s="202"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -49826,7 +50889,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B61" s="201" t="s">
+      <c r="B61" s="203" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -49904,7 +50967,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="201"/>
+      <c r="B62" s="203"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -49982,7 +51045,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="201"/>
+      <c r="B63" s="203"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -50060,7 +51123,7 @@
       </c>
     </row>
     <row r="64" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="201"/>
+      <c r="B64" s="203"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -50138,7 +51201,7 @@
       </c>
     </row>
     <row r="65" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="201"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -50168,7 +51231,7 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="201"/>
+      <c r="B66" s="203"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -50198,7 +51261,7 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="201"/>
+      <c r="B67" s="203"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -50228,7 +51291,7 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B68" s="191" t="s">
+      <c r="B68" s="193" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -50249,7 +51312,7 @@
       <c r="Q68" s="105"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B69" s="191"/>
+      <c r="B69" s="193"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -50268,7 +51331,7 @@
       <c r="Q69" s="105"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B70" s="191"/>
+      <c r="B70" s="193"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -50287,7 +51350,7 @@
       <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B71" s="191"/>
+      <c r="B71" s="193"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -50306,7 +51369,7 @@
       <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B72" s="192"/>
+      <c r="B72" s="194"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_content_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3332DB-4D3C-45E6-9D48-FE4482CBD019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42745B-ABDB-4EB8-BF0D-A4106F7EB1C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10885" uniqueCount="2177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12271" uniqueCount="2544">
   <si>
     <t>Description</t>
   </si>
@@ -6555,6 +6555,1107 @@
   </si>
   <si>
     <t>major processes in global supply chains and in the EU use phase and waste management industries</t>
+  </si>
+  <si>
+    <t>3_LC_LorenzCurves_WID_Chancel_2019</t>
+  </si>
+  <si>
+    <t>Lorenz curve, normalized</t>
+  </si>
+  <si>
+    <t>Misc. Units</t>
+  </si>
+  <si>
+    <t>Lorenz curve (normalized for population and indicators) for income and wealth in 2019 for ca. 160 countries, generated from the World Inequality Database (WID).</t>
+  </si>
+  <si>
+    <t>income; wealth; inequality; Lorenz curve; World Inequality Database; monetary inequality</t>
+  </si>
+  <si>
+    <t>This dataset was created from the raw data from the World Inequality Database and converted to Lorenz curves by Pauliuk (2024), https://doi.org/10.1016/j.ecolecon.2024.108161</t>
+  </si>
+  <si>
+    <t>unity</t>
+  </si>
+  <si>
+    <t>Value(r,t,1,I)</t>
+  </si>
+  <si>
+    <t>Lorenz curve in misc. units for aptinc_992_j, pre-tax national income in Uruguay in 2019 for cumulative population share 0.6 is 0.233.</t>
+  </si>
+  <si>
+    <t>[data type] in [Layer] of [Aspect 3] in [Aspect 1] and [Aspect 2] for cumulative population share [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>Lucas CHANCEL</t>
+  </si>
+  <si>
+    <t>https://ars.els-cdn.com/content/image/1-s2.0-S0921800924000582-mmc1.xlsx</t>
+  </si>
+  <si>
+    <t>Numbers (indicator by decile) downloaded from website, manually copied from original source (xlsx) to Excel spreadsheet, and converted to Lorenz curve with Python Script</t>
+  </si>
+  <si>
+    <t>Chancel, L., Piketty, T., Saez, E., Zucman, G., et al., 2022. World Inequality Report 2022. World Inequality Lab</t>
+  </si>
+  <si>
+    <t>3_MC_Buildings_Odense_Lanau_2020</t>
+  </si>
+  <si>
+    <t>Three buildings types</t>
+  </si>
+  <si>
+    <t>9 materials and the total</t>
+  </si>
+  <si>
+    <t>Odense, Denmark</t>
+  </si>
+  <si>
+    <t>one representative value for the city</t>
+  </si>
+  <si>
+    <t>1850-2020</t>
+  </si>
+  <si>
+    <t>10 age-cohort ranges</t>
+  </si>
+  <si>
+    <t>Material content of residential buildings in Odense, Denmark, compiled by Lanau and Liu (2020), DOI: 10.1021/acs.est.9b07749  - for transferability purposes, see the Supporting Information S1.12 of this work.</t>
+  </si>
+  <si>
+    <t>material; material content; residential buildings; urban; Odense; Denmark;</t>
+  </si>
+  <si>
+    <t>Material Intensity Coefficient of Residential Buildings per floor area, directly copied from sheet "RB MIC (per floor area)" of supplementary file "es9b07749_si_002.xlsx" - for transferability purposes see the Supporting Information S1.12)</t>
+  </si>
+  <si>
+    <t>Value(r,g,T,c,m)</t>
+  </si>
+  <si>
+    <t>The mass per area of material composition of concrete in single family houses, aboveground, in Odense, Denmark, built in 1979-1998 is 83.61 kg/m².</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] of [Aspect 5] in [Aspect 2], [Aspect 3] in [Aspect 1] built in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>Maud LANAU</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.est.9b07749</t>
+  </si>
+  <si>
+    <t>table in supplementary material</t>
+  </si>
+  <si>
+    <t>3_MC_mobile_phones_Fontana_2019</t>
+  </si>
+  <si>
+    <t>mobile phones</t>
+  </si>
+  <si>
+    <t>20 types of mobile phones</t>
+  </si>
+  <si>
+    <t>metals, plastics, total mass</t>
+  </si>
+  <si>
+    <t>15 individual metals, 5 types of plastics, plus the total mass by 5 components</t>
+  </si>
+  <si>
+    <t>one representative value for each type of phone</t>
+  </si>
+  <si>
+    <t>1998-2016</t>
+  </si>
+  <si>
+    <t>one representative value for each mobile phone</t>
+  </si>
+  <si>
+    <t>material composition of mobile phones, for 20 individual models, extracted from Fontana et al. (2019), https://doi.org/10.1016/j.wasman.2019.08.011</t>
+  </si>
+  <si>
+    <t>material composition; element composition; mobile phones; measurement; samples</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>Data extracted from Tables 1, 2, and 3 and converted to g/unit. A few values "&lt;0.01%" converted to 0.</t>
+  </si>
+  <si>
+    <t>Value(g,c,k,m)</t>
+  </si>
+  <si>
+    <t>The mass per unit of copper in electronic components in Nokia 5110 manufactured in 1998 is 25.89 g.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 4] in [Aspect 3] in [Aspect 1] manufactured in [Aspect 2] is [Value].</t>
+  </si>
+  <si>
+    <t>Danilo FONTANA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.wasman.2019.08.011</t>
+  </si>
+  <si>
+    <t>Jad Nasr</t>
+  </si>
+  <si>
+    <t>3_MC_Buildings_Toronto_Rankin_2024</t>
+  </si>
+  <si>
+    <t>low-rise multi unit buildings</t>
+  </si>
+  <si>
+    <t>Toronto, Canada</t>
+  </si>
+  <si>
+    <t>39 building samples</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>Material content of low-rise multi-uni residential buildings in Toronto, Canada, compiled by Rankin et al. (2024), https://doi.org/10.1111/jiec.13461</t>
+  </si>
+  <si>
+    <t>material; material content; residential buildings; urban; low-rise multi-unit; Toronto; Canada</t>
+  </si>
+  <si>
+    <t>Data behind Fig. 2b in the table, taken from data supplement</t>
+  </si>
+  <si>
+    <t>Value(r,g,c,m)</t>
+  </si>
+  <si>
+    <t>The mass per area of material composition of concrete in low-rise multi-unit residential building, laneway, in Toronto, Canada, built in n.a. is 694.16 kg/m².</t>
+  </si>
+  <si>
+    <t>Keagan RANKIN</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jiec.13461</t>
+  </si>
+  <si>
+    <t>3_MC_mobile_phones_Gomez_2023</t>
+  </si>
+  <si>
+    <t>three types of mobile phones: feature phones, multimedia phones, smartphones, divided into six components</t>
+  </si>
+  <si>
+    <t>metals, total mass</t>
+  </si>
+  <si>
+    <t>63 individual metals, plus the total mass by component</t>
+  </si>
+  <si>
+    <t>2003-2015</t>
+  </si>
+  <si>
+    <t>one representative value for different time ranges</t>
+  </si>
+  <si>
+    <t>material composition of mobile phones, average over five actual models for each type of phone, extracted from Goméz et al. (2023), https://doi.org/10.1016/j.jclepro.2023.138099</t>
+  </si>
+  <si>
+    <t>Data copied from Appendix A Supplementary Data and converted from mass-% and ppm to g/component. data represent the average of five models for each type of phone</t>
+  </si>
+  <si>
+    <t>Value(e,k,g,c)</t>
+  </si>
+  <si>
+    <t>The mass per unit of copper in screens in feature phone manufactured in 2003-2015 is 0.15 g.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 1] in [Aspect 2] in [Aspect 3] manufactured in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>Moisés GOMÉZ</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclepro.2023.138099</t>
+  </si>
+  <si>
+    <t>3_MC_mobile_phones_Gupta_2021</t>
+  </si>
+  <si>
+    <t>26 types of mobile phones</t>
+  </si>
+  <si>
+    <t>metals, battery, total mass</t>
+  </si>
+  <si>
+    <t>24 individual metals, plus the total mass, plus battery mass</t>
+  </si>
+  <si>
+    <t>2000-2016</t>
+  </si>
+  <si>
+    <t>material composition of mobile phones, for 26 individual models, extracted from Gupta et al. (2021), https://doi.org/10.1016/j.jece.2020.104603</t>
+  </si>
+  <si>
+    <t>Data extracted from Tables 1 and 2 and converted to g/unit. Some values with "ND" (not detected) converted to 0.</t>
+  </si>
+  <si>
+    <t>The mass per unit of copper in entire device, without battery in Nokia 3310 manufactured in 2000 is 7.397 g.</t>
+  </si>
+  <si>
+    <t>Nipoon GUPTA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jece.2020.104603</t>
+  </si>
+  <si>
+    <t>table in journal paper (pdf)</t>
+  </si>
+  <si>
+    <t>3_MC_Urban_Stock_China_Xiang_LI_2023</t>
+  </si>
+  <si>
+    <t>Urban stocks: buildings, infrastructure, vehicles, appliances</t>
+  </si>
+  <si>
+    <t>ca. 40 buildings, infrastructure types, vehicles, appliances</t>
+  </si>
+  <si>
+    <t>major and technology materials</t>
+  </si>
+  <si>
+    <t>24 major and technology materials</t>
+  </si>
+  <si>
+    <t>country-level representative value</t>
+  </si>
+  <si>
+    <t>1978-2020</t>
+  </si>
+  <si>
+    <t>representative values for different time ranges</t>
+  </si>
+  <si>
+    <t>material composition of buildings, infrastructure, vehicles, and appliances in China, 1978-2020, from "Product, building, and infrastructure material stocks dataset for 337 Chinese cities between 1978 and 2020" by Li et al. (2023), DOI https://doi.org/10.1038/s41597-023-02143-w</t>
+  </si>
+  <si>
+    <t>material composition; buildings; infrastructure; vehicles; appliances; China; urban</t>
+  </si>
+  <si>
+    <t>taken from data supplement, table "Material intensity 1978-2020.xlsx"</t>
+  </si>
+  <si>
+    <t>Material composition of gravel in urban residential buildings in China built in 2000-2020 is 881 kg/m².</t>
+  </si>
+  <si>
+    <t>[Data type] of [Aspect 4] in [Aspect 1] in [Aspect 2] built in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>Xiang Li</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.c.6315987.v1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41597-023-02143-w</t>
+  </si>
+  <si>
+    <t>3_MC_residential_buildings_Germany_per_area_IOER</t>
+  </si>
+  <si>
+    <t>one aggregate process</t>
+  </si>
+  <si>
+    <t>13 different building types/groups of residential buildings</t>
+  </si>
+  <si>
+    <t>46 materials</t>
+  </si>
+  <si>
+    <t>country sample</t>
+  </si>
+  <si>
+    <t>material content of residential buildings in Germany, average values based on a sample of real projects from the BKI-Database</t>
+  </si>
+  <si>
+    <t>material; material content; residential buildings; Germany; buildings; building materials; construction materials; useful floor area</t>
+  </si>
+  <si>
+    <t>Representative (synthetic) sample, aggregated from survey results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data converted from material content of a typical building, divided by its useful floor area ('Nutzungsfläche'). </t>
+  </si>
+  <si>
+    <t>Value(r,c,m,g)</t>
+  </si>
+  <si>
+    <t>Mass per area measuring material composition of standard concrete in single-family house in Germany built in 1949-1978 is 0.812 t/m².</t>
+  </si>
+  <si>
+    <t>[Layer] measuring [data type] of [Aspect 3] in [Aspect 4] in [Aspect 1] built in [Aspect 2] is [Value].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leibniz-Institut für ökologische Raumentwicklung e. V. </t>
+  </si>
+  <si>
+    <t>https://ioer-isbe.de/en/resources/construction-data/residential-buildings</t>
+  </si>
+  <si>
+    <t>Materials divided by the gross floor area to calculate material intensity</t>
+  </si>
+  <si>
+    <t>added age-cohort aspect</t>
+  </si>
+  <si>
+    <t>3_MC_residential_buildings_Germany_per_volume_IOER</t>
+  </si>
+  <si>
+    <t>material; material content; residential buildings; Germany; buildings; building materials; construction materials; gross building volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data converted from material content of a typical building, divided by its gross building volume ('Bruttorauminhalt'). </t>
+  </si>
+  <si>
+    <t>Mass per area measuring material composition of standard concrete in single-family house in Germany built in 1949-1978 is 0.227 t/m³.</t>
+  </si>
+  <si>
+    <t>3_MC_nonresidential_buildings_Germany_per_area_IOER</t>
+  </si>
+  <si>
+    <t>nonresidential buildings</t>
+  </si>
+  <si>
+    <t>25 different building types/groups of nonresidential buildings</t>
+  </si>
+  <si>
+    <t>material content of nonresidential buildings in Germany, average values based on a sample of real projects from the BKI-Database</t>
+  </si>
+  <si>
+    <t>material; material content; non-residential buildings; Germany; buildings; building materials; construction materials; gross floor area</t>
+  </si>
+  <si>
+    <t>data converted from material content of a typical building, divided by its gross floor area ('Brutto-Grundfläche'). Two independent datasets on office buildings (listed twice).</t>
+  </si>
+  <si>
+    <t>Mass per area measuring material composition of standard concrete in multi-story car park in Germany built in ca. 2020 is 1.288 t/m².</t>
+  </si>
+  <si>
+    <t>https://ioer-isbe.de/en/resources/construction-data/non-residential-buildings</t>
+  </si>
+  <si>
+    <t>Material content of nonresidential buildings in Germany, average values based on a sample of real projects from the BKI-Database</t>
+  </si>
+  <si>
+    <t>material; material content; non-residential buildings; Germany; buildings; building materials; construction materials; gross building volume</t>
+  </si>
+  <si>
+    <t>data converted from material content of a typical building, divided by its gross building volume ('Bruttorauminhalt'). Two independent datasets on office buildings (listed twice).</t>
+  </si>
+  <si>
+    <t>Mass per volume measuring material composition of standard concrete in multi-story car park in Germany built in ca. 2020 is 0.507 t/m³.</t>
+  </si>
+  <si>
+    <t>Materials divided by the gross volume to calculate material intensity</t>
+  </si>
+  <si>
+    <t>1_F_MISO2_Ew_Material_Cycles_2024_F_9_10_final_consumption_Single_Country</t>
+  </si>
+  <si>
+    <t>14 end-use sectors, including Buildings, Infrastructure, Machinery, Short lived products</t>
+  </si>
+  <si>
+    <t>24 material groups</t>
+  </si>
+  <si>
+    <t>single value for the year 2016</t>
+  </si>
+  <si>
+    <t>Inflow to use phase (final consumption). Original name of flow: F_9_10_GAS_enduse. Results of the MAT_STOCKS project, MISO2 model.</t>
+  </si>
+  <si>
+    <t>Original name of flow: Flow F_9_10 (gross additions to stock) by country, material, end-use product group. MISO2_config_id 5b36b2f8-3abc-4060-abc0-2ed0fc3ee474</t>
+  </si>
+  <si>
+    <t>Value(m,O,g,D,r,t)</t>
+  </si>
+  <si>
+    <t>Dry mass measuring flow of bricks from markets for final products and commodities to residential buildings in use phase in Afghanistan in 2016 is 4375,357787 kt/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] measuring [data type] of [Aspect 1] from [Aspect 2] to [Aspect 3] in [Aspect 4] in [Aspect 5] in [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>xlsx file</t>
+  </si>
+  <si>
+    <t>This dataset is a high-resolution version of the publicly available aggregated dataset on Zenodo. Labels were shifted to IEDC classifications without changing their meaning.</t>
+  </si>
+  <si>
+    <t>3_EI_Appliances_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>v0</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>ca. 70 different types of appliances</t>
+  </si>
+  <si>
+    <t>values for the USA, Europe, and Germany</t>
+  </si>
+  <si>
+    <t>ca. 2012</t>
+  </si>
+  <si>
+    <t>single value per appliance</t>
+  </si>
+  <si>
+    <t>Specific energy consumption of appliances, in kWh/unit/yr</t>
+  </si>
+  <si>
+    <t>appliances; energy consumption; use phase; specific energy consumption; energy intensity of operation</t>
+  </si>
+  <si>
+    <t>Compiled by the CIRCOMOD team under coordination of Martijn van Engelenburg.</t>
+  </si>
+  <si>
+    <t>Value(g,V,r,t,n)</t>
+  </si>
+  <si>
+    <t>Specific energy consumption of products for 'coffee maker: percolater (warm)' consuming electricity to generate services generated by household appliances in USA in 2012 was 29 kWh/yr</t>
+  </si>
+  <si>
+    <t>[Layer] for [Aspect 1] consuming [Aspect 5] to generate [Aspect 2] in [Aspect 3] in [Aspect 4] was [Value].</t>
+  </si>
+  <si>
+    <t>See comment for each data entry</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original sources to Excel spreadsheet</t>
+  </si>
+  <si>
+    <t>3_LT_Appliances_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>appliances</t>
+  </si>
+  <si>
+    <t>about 200 different types of appliances</t>
+  </si>
+  <si>
+    <t>representative values for the world, European countries, China, and Japan</t>
+  </si>
+  <si>
+    <t>single year values</t>
+  </si>
+  <si>
+    <t>mean lifetime of appliances in the use phase, compiled by several colleagues from the CIRCOMOD EU project</t>
+  </si>
+  <si>
+    <t>lifetime; appliances; use phase;</t>
+  </si>
+  <si>
+    <t>Product 'electric cooker' of age-cohort ca. 2020 in the use phase in region 'China' has average lifetime of 5 years.</t>
+  </si>
+  <si>
+    <t>3_MC_appliances_repair_refurbishment_Boldoczki_Otterbach</t>
+  </si>
+  <si>
+    <t>product repair and refurbishment</t>
+  </si>
+  <si>
+    <t>one aggregate manufacturing step</t>
+  </si>
+  <si>
+    <t>washing maschines</t>
+  </si>
+  <si>
+    <t>engineering materials</t>
+  </si>
+  <si>
+    <t>8-10 different materials per appliance type</t>
+  </si>
+  <si>
+    <t>country-specific values</t>
+  </si>
+  <si>
+    <t>2020-2024</t>
+  </si>
+  <si>
+    <t>product specific</t>
+  </si>
+  <si>
+    <t>Material (in kg/unit) added during repair and refurbishment of appliance</t>
+  </si>
+  <si>
+    <t>material; refurbish; refurbishment; repair; washing machines</t>
+  </si>
+  <si>
+    <t>Aggregated dataset with data from various sources, see the comment for each entry!</t>
+  </si>
+  <si>
+    <t>Value(g,c,r,m,v,L)</t>
+  </si>
+  <si>
+    <t>Mass per unit of aluminium built into washing machines manufactured in 2024 in Germany for circular economy strategy 'refurbish' is 1177.5 g/1.</t>
+  </si>
+  <si>
+    <t>[Layer/Aspect 6] of [Aspect 4] in [Aspect 1] built in [Aspect 2] in [Aspect 3] for circular economy strategy [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>Boldoczki, S., Thorenz, A. &amp; Tuma, A. (2021), https://onlinelibrary.wiley.com/doi/abs/10.1111/jiec.13104</t>
+  </si>
+  <si>
+    <t>journal paper with figures, tables, and supplement</t>
+  </si>
+  <si>
+    <t>Natale Otterbach, Magnus Fröhling (2024), https://doi.org/10.1016/j.resconrec.2024.107446</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Arias Castillo</t>
+  </si>
+  <si>
+    <t>6_PCS_Appliances_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>use phase - appliances</t>
+  </si>
+  <si>
+    <t>ca. 38 different types of appliances</t>
+  </si>
+  <si>
+    <t>13 different countries and regions</t>
+  </si>
+  <si>
+    <t>1974-2050</t>
+  </si>
+  <si>
+    <t>values for different appliances vary, from historic stock estimates to scenario trajectories</t>
+  </si>
+  <si>
+    <t>per capita in use stocks of appliances, in different regions</t>
+  </si>
+  <si>
+    <t>per capita stocks, in use stocks; appliances; use phase</t>
+  </si>
+  <si>
+    <t>See comment for each data entry for the data source of each data point</t>
+  </si>
+  <si>
+    <t>Value(g,p,t,r,y)</t>
+  </si>
+  <si>
+    <t>In-use stock of microwave oven in use phase - appliances in rural and urban regions in Denmark in 2010 is 0,76 1/household.</t>
+  </si>
+  <si>
+    <t>[Type] of [Aspect 1] in [Aspect 2] in [Aspect 5] in [Aspect 4] in [Aspect 3] is [value].</t>
+  </si>
+  <si>
+    <t>3_MC_appliances_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>product manufacturing processes</t>
+  </si>
+  <si>
+    <t>household appliances</t>
+  </si>
+  <si>
+    <t>large number of different appliance types</t>
+  </si>
+  <si>
+    <t>typically 5-20 different materials per appliance type</t>
+  </si>
+  <si>
+    <t>Global, multi-regional</t>
+  </si>
+  <si>
+    <t>mix of globally representative and country-specific (China, EU, …) values</t>
+  </si>
+  <si>
+    <t>different age-cohorts, from n.a. to back to the 1980s to post 2020 data</t>
+  </si>
+  <si>
+    <t>Material composition (in kg/item or in %) of household appliances</t>
+  </si>
+  <si>
+    <t>material; material composition; household appliances; appliances</t>
+  </si>
+  <si>
+    <t>Aggregated dataset with data from various sources, see the comment for each entry! Compiled by the CIRCOMOD team under coordination of Meng Jiang.</t>
+  </si>
+  <si>
+    <t>Value(g,c,r,k,m,v,L)</t>
+  </si>
+  <si>
+    <t>Mass per unit of copper in component 'entire device' in refrigerators built in 1983 in China for circular economy strategy 'none' is 1.5 kg/1.</t>
+  </si>
+  <si>
+    <t>[Layer/Aspect 7] of [Aspect 5] in [Aspect 4] in [Aspect 1] built in [Aspect 2] in [Aspect 3] for circular economy strategy [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>Meng Jiang</t>
+  </si>
+  <si>
+    <t>3_MC_electronics_Buechler_2020</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>ten different specific products and components thereof</t>
+  </si>
+  <si>
+    <t>metals</t>
+  </si>
+  <si>
+    <t>48 individual metals, plus the total mass</t>
+  </si>
+  <si>
+    <t>one representative value for each product</t>
+  </si>
+  <si>
+    <t>not explicitly defined, can be inferred from the model year of the devices listed</t>
+  </si>
+  <si>
+    <t>material composition of specific electronic devices, for 48 metals and the total mass, from Buechler et al. (2020), https://doi.org/10.1016/j.wasman.2019.12.014</t>
+  </si>
+  <si>
+    <t>material composition; element composition; electronic goods; computer; telecommunication; measurement; samples</t>
+  </si>
+  <si>
+    <t>Data extracted from Tables 1, 2, 4, 5, and 6 and converted to g/unit. Entries converted to 0: D: Detected but not quantifiable, ND: Not detected, N/A: Not applicable, LA: Low accuracy</t>
+  </si>
+  <si>
+    <t>Value(g,e)</t>
+  </si>
+  <si>
+    <t>The mass per unit of cobalt in HP – LaserJet 4100TN printer is 0.115 g.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 2] in [Aspect 1] is [Value].</t>
+  </si>
+  <si>
+    <t>Dylan T Buechler</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.wasman.2019.12.014</t>
+  </si>
+  <si>
+    <t>3_MC_Heat_Pumps_Kaegi_2021</t>
+  </si>
+  <si>
+    <t>heat pumps</t>
+  </si>
+  <si>
+    <t>3 different types of heat pumps: 7 kW, 15 kW, 50 kW</t>
+  </si>
+  <si>
+    <t>main materials of the heat pumps</t>
+  </si>
+  <si>
+    <t>8 different materials, plus misc. materials in electronics</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
+  <si>
+    <t>unknown/not specified, ca. 2015-2020 chosen as representative value</t>
+  </si>
+  <si>
+    <t>Material content of air-water heat pumps of 7 kW, 15 kW, and 50 kW thermal power</t>
+  </si>
+  <si>
+    <t>material; material content; Europe; heat pump; air-water heat pump</t>
+  </si>
+  <si>
+    <t>Estimation, based on (alpha innotec deutschland GmbH, 2017, 2020; CTA AG, 2017; CTC Giersch AG, 2018, 2019; Heck, PSI, 2003; Vaillant GmbH, 2019; Viessmann Werke GmbH &amp; Co. KG, 2019, 2020b, 2020a). See main reference for the sources.</t>
+  </si>
+  <si>
+    <t>Material composition of air-water heat pump, 7 kW measured as mass of R410A per unit of air-water heat pump, 7 kW in Western Europe in ca. 2015-2020 is 3.5 kg/item.</t>
+  </si>
+  <si>
+    <t>[data type] of [Aspect 2] measured as [layer] of [Aspect 4] per area of [aspect 2] in [Aspect 1] in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>Thomas KÄGI &amp; Mischa ZSCHOKKE</t>
+  </si>
+  <si>
+    <t>https://www.bafu.admin.ch/dam/bafu/en/dokumente/wirtschaft-konsum/externe-studien-berichte/life-cycle-inventories-of-heating.pdf.download.pdf/life-cycle-inventories-of-heating.pdf</t>
+  </si>
+  <si>
+    <t>table in pdf</t>
+  </si>
+  <si>
+    <t>Life cycle inventories of heating systems Life cycle inventories of heating systems, Carbotech AG, Switzerland, 2021.</t>
+  </si>
+  <si>
+    <t>3_MC_Heating_Technologies_Saoud_2021</t>
+  </si>
+  <si>
+    <t>heating technologies</t>
+  </si>
+  <si>
+    <t>heat pump, solar heater, electric boiler</t>
+  </si>
+  <si>
+    <t>main materials</t>
+  </si>
+  <si>
+    <t>steel, aluminium, copper, plastics, refrigerants</t>
+  </si>
+  <si>
+    <t>Western Europe/Global</t>
+  </si>
+  <si>
+    <t>Material content of heat pump, solar heater, electric boiler</t>
+  </si>
+  <si>
+    <t>material; material content; Europe; heat pump; air source heat pump; solar heater; electric boiler</t>
+  </si>
+  <si>
+    <t>Estimation, based on Stiebel Eltron WPL57, conventional electric water heater with a 315 l capacity, flat plate solar water heater with data from previous study</t>
+  </si>
+  <si>
+    <t>Value(r,g,k,c,m)</t>
+  </si>
+  <si>
+    <t>Material composition of air source heat pump measured as mass of copper in evaporator per unit of air source heat pump in Germany in ca. 2015-2020 is 20.52 kg/item.</t>
+  </si>
+  <si>
+    <t>[data type] of [Aspect 2] measured as [layer] of [Aspect 5] in [Aspect 4] per item of [aspect 2] in [Aspect 1] in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>Assaad Saoud</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jobe.2021.103253</t>
+  </si>
+  <si>
+    <t>3_MC_HS92_FeNiCu_Nakajima_2018</t>
+  </si>
+  <si>
+    <t>commodity markets</t>
+  </si>
+  <si>
+    <t>about 650 different categories of manufactured goods, distinguished by HS92 code</t>
+  </si>
+  <si>
+    <t>iron, copper, nickel</t>
+  </si>
+  <si>
+    <t>3 different materials</t>
+  </si>
+  <si>
+    <t>unknown/not specified, ca. 2003 chosen as representative value, as study period is 1995-2010.</t>
+  </si>
+  <si>
+    <t>Material content (in t/t and t/money) of about 650 different categories of manufactured goods, distinguished by HS92 code</t>
+  </si>
+  <si>
+    <t>material; material content; commodity; manufactured goods; HS92</t>
+  </si>
+  <si>
+    <t>Data copied from supplementary sheets "Tab_S2_Iron", "Tab_S2_Copper", and "Tab_S2_Nickel". Time aspect "ca. 2003" added, as this is the middle year for the time range of the analysis. Reference year for the currency "MY" not indicated.</t>
+  </si>
+  <si>
+    <t>Value(r,m,g,t)</t>
+  </si>
+  <si>
+    <t>Material composition of iron in "260112, Iron ores and concentrates, other than roasted iron pyrites :-- Agglomerated" in Global in ca. 2003 is 0.5352 t/t.</t>
+  </si>
+  <si>
+    <t>[data type] of [Aspect 2] in [Aspect 3] in [Aspect 1] in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>CC BY NC ND 4.0</t>
+  </si>
+  <si>
+    <t>Kenichi NAKAJIMA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.resconrec.2017.08.029</t>
+  </si>
+  <si>
+    <t>table in supplementary excel file</t>
+  </si>
+  <si>
+    <t>3_MC_Infrastructure_Steger_2011</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>5 road types, 3 types of road bridges, railway tracks, catenary, singalling, bridges, and tunnels</t>
+  </si>
+  <si>
+    <t>Major construction materials</t>
+  </si>
+  <si>
+    <t>10+ Materials</t>
+  </si>
+  <si>
+    <t>Depends on sector. ca. 1990-2010 for some, age-cohorts from 2001 onwards for others.</t>
+  </si>
+  <si>
+    <t>Material content of roads and rail infrastructure in Germany. Based on the final report of the MaRess project, Wuppertal Institut, 2001.</t>
+  </si>
+  <si>
+    <t>material; material content; Germany; roads; railways; infrastructure; bridges; tunnels</t>
+  </si>
+  <si>
+    <t>Data as reported by final project report of MaRess project. Original data sources are given in the report.</t>
+  </si>
+  <si>
+    <t>Mass per area measuring material composition of gravel in motorway in Germany built in 2001 or later is 647.5 kg/m².</t>
+  </si>
+  <si>
+    <t>[Layer] measuring [data type] of [Aspect 4] in [Aspect 2] in [Aspect 1] built in [Aspect3] is [Value].</t>
+  </si>
+  <si>
+    <t>Sören STEGER</t>
+  </si>
+  <si>
+    <t>https://epub.wupperinst.org/frontdoor/deliver/index/docId/3973/file/MaRess_AP2_4.pdf</t>
+  </si>
+  <si>
+    <t>data come in tables in pdf</t>
+  </si>
+  <si>
+    <t>Alexander McShane</t>
+  </si>
+  <si>
+    <t>3_MC_Roads_Lanau_2020</t>
+  </si>
+  <si>
+    <t>material volume per area</t>
+  </si>
+  <si>
+    <t>roads</t>
+  </si>
+  <si>
+    <t>6 road types, distinguished by function, pavement, and bike lane</t>
+  </si>
+  <si>
+    <t>road construction materials</t>
+  </si>
+  <si>
+    <t>seven main road construction materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark </t>
+  </si>
+  <si>
+    <t>Material content of roads in Denmark based on the Danish Road Directorate</t>
+  </si>
+  <si>
+    <t>material; material content; Denmark; roads; infrastructure</t>
+  </si>
+  <si>
+    <t>temporal scope/age-cohort is unknown/not specified, ca. 2015-2020 chosen as representative value</t>
+  </si>
+  <si>
+    <t>Material composition of primary local road measured as material volume per area of powdered asphalt per area of primary local road in Denmark in ca. 2015-2020 is 0.025 m³/m².</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original source (SI) to Excel spreadsheet and converted from mm thickness to m³ of material per m² of road area</t>
+  </si>
+  <si>
+    <t>3_MC_WEEE_Hlavatska_Ukraine_2021</t>
+  </si>
+  <si>
+    <t>WEEE (end-of-life electronic goods)</t>
+  </si>
+  <si>
+    <t>mobile phone and parts of computer</t>
+  </si>
+  <si>
+    <t>all materials together (total weight)</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>ca. 2020 as year of measurement, paper was submitted and published in 2021.</t>
+  </si>
+  <si>
+    <t>Mass of components of WEEE (end-of-life electronic goods), sample size: 1 device for each component</t>
+  </si>
+  <si>
+    <t>material; material content; Ukraine; WEEE; mobile phone; computer</t>
+  </si>
+  <si>
+    <t>Mass of components of WEEE (end-of-life electronic goods), determined by dismantling the devices and weighing their components. Sample size: 1 device for each component</t>
+  </si>
+  <si>
+    <t>Value(m,k,g,t,r)</t>
+  </si>
+  <si>
+    <t>Material composition, measured in mass per unit of all materials in capacitor in mobile phone discarded in 2020 in Ukraine is 4,2 g per unit.</t>
+  </si>
+  <si>
+    <t>[Data type], measured as [Layer] of [Aspect 1] in [Aspect 2] in [Aspect 2] in [Aspect 4] in [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>Lilia HLAVATSKA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.12911/22998993/141571</t>
+  </si>
+  <si>
+    <t>6_IMI_Metals_Nuss_Eckelman_LCA_2014</t>
+  </si>
+  <si>
+    <t>from_SI</t>
+  </si>
+  <si>
+    <t>global average LCA product systems for producing different metals and other pure chemical elements</t>
+  </si>
+  <si>
+    <t>one aggregate product system for each chemical element</t>
+  </si>
+  <si>
+    <t>64 chemical elements, from He to U</t>
+  </si>
+  <si>
+    <t>by chemical element</t>
+  </si>
+  <si>
+    <t>ca. 2008</t>
+  </si>
+  <si>
+    <t>one representative value for the time range covered by ecoinvent 2.2</t>
+  </si>
+  <si>
+    <t>Core CED and GWP100 per kg of chemical element results from "Life Cycle Assessment of Metals: A Scientific Synthesis", by Nuss and Eckelman (2014).</t>
+  </si>
+  <si>
+    <t>CED; GWP100; metals; elements</t>
+  </si>
+  <si>
+    <t>2.5th and 97.5th percentiles converted to stats_array_string</t>
+  </si>
+  <si>
+    <t>Value(e,I,o,d,r,t)</t>
+  </si>
+  <si>
+    <t>CED of Fe from natural environment to product system of a given commodity in ca. 2008 for Global was 23,1 MJ/kg with uncertainty 27;20.9;25.5;none.</t>
+  </si>
+  <si>
+    <t>[Aspect 2] of [Aspect 1] from [Aspect 3] to [Aspect 4] for [Aspect 5] for [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>Philip NUSS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0101298</t>
+  </si>
+  <si>
+    <t>docx file with data in table</t>
+  </si>
+  <si>
+    <t>Numbers transferred from original data files (.docx) to iedc data insertion template (xlsx).</t>
+  </si>
+  <si>
+    <t>6_IMI_Metals_Van_der_Voet_2019</t>
+  </si>
+  <si>
+    <t>global average LCA product systems for producing different metals, divided into primary production from ore and secondary production from scrap</t>
+  </si>
+  <si>
+    <t>one aggregate product system for each metal</t>
+  </si>
+  <si>
+    <t>seven major metals</t>
+  </si>
+  <si>
+    <t>by metal</t>
+  </si>
+  <si>
+    <t>2010 and 2020</t>
+  </si>
+  <si>
+    <t>one representative value for each year</t>
+  </si>
+  <si>
+    <t>CED and GWP100 per kg for producing different metals, divided into primary production from ore and secondary production from scrap, by van der Voet et al. (2019)</t>
+  </si>
+  <si>
+    <t>CED; GWP100; metals; steel; copper; aluminium; lead; zinc; manganese; nickel</t>
+  </si>
+  <si>
+    <t>In the original source, scenario values are also available for 2015, 2025, 2030, 2035, 2040, 2045, and 2050.</t>
+  </si>
+  <si>
+    <t>CED of steel from natural environment to product system of a given commodity, primary production from ore for Global in 2010 is 30.8 MJ/kg.</t>
+  </si>
+  <si>
+    <t>Ester Van der Voet</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/jiec.12722</t>
+  </si>
+  <si>
+    <t>pdf file with data in table</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/jiec.12722</t>
+  </si>
+  <si>
+    <t>Numbers transferred from original data files (.pdf) to iedc data insertion template (xlsx).</t>
+  </si>
+  <si>
+    <t>6_MIP_EnergyCarriers_Wikipedia</t>
+  </si>
+  <si>
+    <t>status_2025_March_11</t>
+  </si>
+  <si>
+    <t>one aggregate sector</t>
+  </si>
+  <si>
+    <t>major energy carriers</t>
+  </si>
+  <si>
+    <t>ca. 20 major energy carriers</t>
+  </si>
+  <si>
+    <t>one average value, independent of location</t>
+  </si>
+  <si>
+    <t>one average value, independent of time</t>
+  </si>
+  <si>
+    <t>specific energy, energy density, CO2 per kg of fuel combusted/burned, and energy per CO2 for ca. 20 major energy carriers</t>
+  </si>
+  <si>
+    <t>specific energy; energy density; CO2 per fuel; energy per CO2; biofuels; fossil fuels</t>
+  </si>
+  <si>
+    <t>copied from table on Wikipedia page on March 11, 2025</t>
+  </si>
+  <si>
+    <t>Value(n,X)</t>
+  </si>
+  <si>
+    <t>CO2 per kg of fuel combusted/burned (scope 1) of diesel is 3.4 kg/kg.</t>
+  </si>
+  <si>
+    <t>[Aspect 2] of [Aspect 1] is [Value].</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Energy_content_of_biofuel</t>
+  </si>
+  <si>
+    <t>numbers in table on website</t>
+  </si>
+  <si>
+    <t>Numbers transferred from original format (table on webstie) to IEDC data insertion template.</t>
   </si>
 </sst>
 </file>
@@ -6564,7 +7665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6681,6 +7782,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -6933,7 +8047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -7230,6 +8344,43 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7296,11 +8447,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -7591,7 +8741,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -7641,7 +8791,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="200" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -7673,7 +8823,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="185"/>
+      <c r="B5" s="200"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -7703,7 +8853,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="201" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -7719,7 +8869,7 @@
       <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="186"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -7733,7 +8883,7 @@
       <c r="K7" s="121"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="186"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -7747,7 +8897,7 @@
       <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="186"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -7761,7 +8911,7 @@
       <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="186"/>
+      <c r="B10" s="201"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -7775,7 +8925,7 @@
       <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="186"/>
+      <c r="B11" s="201"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -7789,7 +8939,7 @@
       <c r="K11" s="121"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="186"/>
+      <c r="B12" s="201"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -7803,7 +8953,7 @@
       <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="186"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -7817,7 +8967,7 @@
       <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="186"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -7831,7 +8981,7 @@
       <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="186"/>
+      <c r="B15" s="201"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -7845,7 +8995,7 @@
       <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="186"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -7859,7 +9009,7 @@
       <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="186"/>
+      <c r="B17" s="201"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -7873,7 +9023,7 @@
       <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="186"/>
+      <c r="B18" s="201"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -7887,7 +9037,7 @@
       <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="202" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -7915,7 +9065,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="187"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -7945,7 +9095,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="187"/>
+      <c r="B21" s="202"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -7971,7 +9121,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="203" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -8001,7 +9151,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="188"/>
+      <c r="B23" s="203"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -8015,7 +9165,7 @@
       <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="188"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -8029,7 +9179,7 @@
       <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="188"/>
+      <c r="B25" s="203"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -8055,7 +9205,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="188"/>
+      <c r="B26" s="203"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -8071,7 +9221,7 @@
       <c r="K26" s="121"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="188"/>
+      <c r="B27" s="203"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -8085,7 +9235,7 @@
       <c r="K27" s="121"/>
     </row>
     <row r="28" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="204" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -8109,15 +9259,15 @@
       <c r="I28" s="123">
         <v>45144</v>
       </c>
-      <c r="J28" s="204">
+      <c r="J28" s="182">
         <v>45704</v>
       </c>
-      <c r="K28" s="204">
+      <c r="K28" s="182">
         <v>45705</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="189"/>
+      <c r="B29" s="204"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -8147,7 +9297,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="182" t="s">
+      <c r="B30" s="197" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -8159,11 +9309,11 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="205"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="183"/>
+      <c r="B31" s="198"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -8177,7 +9327,7 @@
       <c r="K31" s="165"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B32" s="184"/>
+      <c r="B32" s="199"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -8207,7 +9357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -8325,7 +9475,7 @@
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="205" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -8408,7 +9558,7 @@
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B5" s="191"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -8649,7 +9799,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="201" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -8730,7 +9880,7 @@
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="186"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -8809,7 +9959,7 @@
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B10" s="186"/>
+      <c r="B10" s="201"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -8888,7 +10038,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="186"/>
+      <c r="B11" s="201"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -8967,7 +10117,7 @@
       </c>
     </row>
     <row r="12" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="186"/>
+      <c r="B12" s="201"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -9046,7 +10196,7 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="186"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -9125,7 +10275,7 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="186"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -9204,7 +10354,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="186"/>
+      <c r="B15" s="201"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -9283,7 +10433,7 @@
       </c>
     </row>
     <row r="16" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="186"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -9362,7 +10512,7 @@
       </c>
     </row>
     <row r="17" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="186"/>
+      <c r="B17" s="201"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -9441,7 +10591,7 @@
       </c>
     </row>
     <row r="18" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="186"/>
+      <c r="B18" s="201"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -9520,7 +10670,7 @@
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B19" s="186"/>
+      <c r="B19" s="201"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -9599,7 +10749,7 @@
       </c>
     </row>
     <row r="20" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="186"/>
+      <c r="B20" s="201"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -9678,7 +10828,7 @@
       </c>
     </row>
     <row r="21" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="202" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -9748,7 +10898,7 @@
       <c r="Y21" s="23" t="s">
         <v>2151</v>
       </c>
-      <c r="Z21" s="206" t="s">
+      <c r="Z21" s="184" t="s">
         <v>2159</v>
       </c>
       <c r="AA21" s="23" t="s">
@@ -9759,7 +10909,7 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="187"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -9840,7 +10990,7 @@
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B23" s="187"/>
+      <c r="B23" s="202"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
@@ -9919,7 +11069,7 @@
       </c>
     </row>
     <row r="24" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="187"/>
+      <c r="B24" s="202"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -9998,7 +11148,7 @@
       </c>
     </row>
     <row r="25" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="188" t="s">
+      <c r="B25" s="203" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -10079,7 +11229,7 @@
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B26" s="188"/>
+      <c r="B26" s="203"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -10158,7 +11308,7 @@
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B27" s="188"/>
+      <c r="B27" s="203"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -10237,7 +11387,7 @@
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B28" s="188"/>
+      <c r="B28" s="203"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -10316,7 +11466,7 @@
       </c>
     </row>
     <row r="29" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="188"/>
+      <c r="B29" s="203"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -10395,7 +11545,7 @@
       </c>
     </row>
     <row r="30" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="188"/>
+      <c r="B30" s="203"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -10474,7 +11624,7 @@
       </c>
     </row>
     <row r="31" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="189" t="s">
+      <c r="B31" s="204" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -10557,7 +11707,7 @@
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B32" s="192"/>
+      <c r="B32" s="207"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -10638,7 +11788,7 @@
       </c>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="197" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -10671,7 +11821,7 @@
       <c r="AB33" s="165"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B34" s="183"/>
+      <c r="B34" s="198"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -10702,7 +11852,7 @@
       <c r="AB34" s="165"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B35" s="184"/>
+      <c r="B35" s="199"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -10757,13 +11907,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:EO74"/>
+  <dimension ref="A1:EW74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="DP6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="ER6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="DW2" sqref="DW2"/>
+      <selection pane="bottomRight" activeCell="FB14" sqref="FB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -10824,7 +11974,7 @@
     <col min="70" max="16384" width="11.5546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:153" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -11195,7 +12345,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -11390,7 +12540,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="3" spans="1:126" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:153" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -11643,11 +12793,11 @@
       <c r="DS3" s="105"/>
       <c r="DT3" s="105"/>
     </row>
-    <row r="4" spans="1:126" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:153" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="210" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -11901,11 +13051,11 @@
       <c r="DS4" s="105"/>
       <c r="DT4" s="105"/>
     </row>
-    <row r="5" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="196"/>
+      <c r="B5" s="211"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -12278,8 +13428,89 @@
       <c r="DV5" s="105" t="s">
         <v>2109</v>
       </c>
+      <c r="DW5" s="115" t="s">
+        <v>2177</v>
+      </c>
+      <c r="DX5" s="115" t="s">
+        <v>2191</v>
+      </c>
+      <c r="DY5" s="115" t="s">
+        <v>2207</v>
+      </c>
+      <c r="DZ5" s="115" t="s">
+        <v>2225</v>
+      </c>
+      <c r="EA5" s="115" t="s">
+        <v>2237</v>
+      </c>
+      <c r="EB5" s="115" t="s">
+        <v>2250</v>
+      </c>
+      <c r="EC5" s="115" t="s">
+        <v>2261</v>
+      </c>
+      <c r="ED5" s="115" t="s">
+        <v>2277</v>
+      </c>
+      <c r="EE5" s="115" t="s">
+        <v>2293</v>
+      </c>
+      <c r="EF5" s="115" t="s">
+        <v>2297</v>
+      </c>
+      <c r="EG5" s="115" t="s">
+        <v>2297</v>
+      </c>
+      <c r="EH5" s="115" t="s">
+        <v>2310</v>
+      </c>
+      <c r="EI5" s="190" t="s">
+        <v>2321</v>
+      </c>
+      <c r="EJ5" s="115" t="s">
+        <v>2337</v>
+      </c>
+      <c r="EK5" s="190" t="s">
+        <v>2345</v>
+      </c>
+      <c r="EL5" s="115" t="s">
+        <v>2365</v>
+      </c>
+      <c r="EM5" s="190" t="s">
+        <v>2377</v>
+      </c>
+      <c r="EN5" s="115" t="s">
+        <v>2392</v>
+      </c>
+      <c r="EO5" s="115" t="s">
+        <v>2407</v>
+      </c>
+      <c r="EP5" s="115" t="s">
+        <v>2423</v>
+      </c>
+      <c r="EQ5" s="115" t="s">
+        <v>2437</v>
+      </c>
+      <c r="ER5" s="115" t="s">
+        <v>2453</v>
+      </c>
+      <c r="ES5" s="115" t="s">
+        <v>2468</v>
+      </c>
+      <c r="ET5" s="115" t="s">
+        <v>2480</v>
+      </c>
+      <c r="EU5" s="115" t="s">
+        <v>2494</v>
+      </c>
+      <c r="EV5" s="115" t="s">
+        <v>2512</v>
+      </c>
+      <c r="EW5" s="115" t="s">
+        <v>2528</v>
+      </c>
     </row>
-    <row r="6" spans="1:126" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -12654,12 +13885,93 @@
       <c r="DV6" s="105" t="s">
         <v>2110</v>
       </c>
+      <c r="DW6" s="115">
+        <v>2023</v>
+      </c>
+      <c r="DX6" s="115" t="s">
+        <v>1405</v>
+      </c>
+      <c r="DY6" s="115" t="s">
+        <v>1405</v>
+      </c>
+      <c r="DZ6" s="115" t="s">
+        <v>1405</v>
+      </c>
+      <c r="EA6" s="115" t="s">
+        <v>1405</v>
+      </c>
+      <c r="EB6" s="115" t="s">
+        <v>1405</v>
+      </c>
+      <c r="EC6" s="115" t="s">
+        <v>1405</v>
+      </c>
+      <c r="ED6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH6" s="115" t="s">
+        <v>2018</v>
+      </c>
+      <c r="EI6" s="190" t="s">
+        <v>2322</v>
+      </c>
+      <c r="EJ6" s="190" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EK6" s="190" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EL6" s="115" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EM6" s="190" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EN6" s="115" t="s">
+        <v>1405</v>
+      </c>
+      <c r="EO6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU6" s="115" t="s">
+        <v>2495</v>
+      </c>
+      <c r="EV6" s="115" t="s">
+        <v>2495</v>
+      </c>
+      <c r="EW6" s="115" t="s">
+        <v>2529</v>
+      </c>
     </row>
-    <row r="7" spans="1:126" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="212" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -13032,12 +14344,93 @@
       <c r="DV7" s="105" t="s">
         <v>845</v>
       </c>
+      <c r="DW7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="DX7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="DY7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="DZ7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EA7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EB7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EC7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="ED7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EE7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EF7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EG7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EH7" s="115">
+        <v>18</v>
+      </c>
+      <c r="EI7" s="190">
+        <v>20</v>
+      </c>
+      <c r="EJ7" s="190">
+        <v>20</v>
+      </c>
+      <c r="EK7" s="190">
+        <v>20</v>
+      </c>
+      <c r="EL7" s="115">
+        <v>21</v>
+      </c>
+      <c r="EM7" s="190">
+        <v>20</v>
+      </c>
+      <c r="EN7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EO7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EP7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EQ7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="ER7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="ES7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="ET7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="EU7" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV7" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW7" s="115" t="s">
+        <v>845</v>
+      </c>
     </row>
-    <row r="8" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="197"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -13410,12 +14803,93 @@
       <c r="DV8" s="105">
         <v>1</v>
       </c>
+      <c r="DW8" s="115">
+        <v>3</v>
+      </c>
+      <c r="DX8" s="115">
+        <v>3</v>
+      </c>
+      <c r="DY8" s="115">
+        <v>3</v>
+      </c>
+      <c r="DZ8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EA8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EB8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EC8" s="115">
+        <v>3</v>
+      </c>
+      <c r="ED8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EE8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EF8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EG8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EH8" s="115">
+        <v>1</v>
+      </c>
+      <c r="EI8" s="190">
+        <v>3</v>
+      </c>
+      <c r="EJ8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EK8" s="190">
+        <v>3</v>
+      </c>
+      <c r="EL8" s="115">
+        <v>6</v>
+      </c>
+      <c r="EM8" s="190">
+        <v>3</v>
+      </c>
+      <c r="EN8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EO8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EP8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EQ8" s="115">
+        <v>3</v>
+      </c>
+      <c r="ER8" s="115">
+        <v>3</v>
+      </c>
+      <c r="ES8" s="115">
+        <v>3</v>
+      </c>
+      <c r="ET8" s="115">
+        <v>3</v>
+      </c>
+      <c r="EU8" s="115">
+        <v>6</v>
+      </c>
+      <c r="EV8" s="115">
+        <v>6</v>
+      </c>
+      <c r="EW8" s="115">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="197"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -13788,12 +15262,93 @@
       <c r="DV9" s="172" t="s">
         <v>1</v>
       </c>
+      <c r="DW9" s="115" t="s">
+        <v>2178</v>
+      </c>
+      <c r="DX9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="DY9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="DZ9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EA9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EB9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EC9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="ED9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EE9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EF9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EG9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EH9" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI9" s="190" t="s">
+        <v>2064</v>
+      </c>
+      <c r="EJ9" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="EK9" s="190" t="s">
+        <v>846</v>
+      </c>
+      <c r="EL9" s="115" t="s">
+        <v>360</v>
+      </c>
+      <c r="EM9" s="190" t="s">
+        <v>846</v>
+      </c>
+      <c r="EN9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EO9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EP9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EQ9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="ER9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="ES9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="ET9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="EU9" s="115" t="s">
+        <v>1676</v>
+      </c>
+      <c r="EV9" s="115" t="s">
+        <v>1676</v>
+      </c>
+      <c r="EW9" s="115" t="s">
+        <v>1676</v>
+      </c>
     </row>
-    <row r="10" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -14166,12 +15721,93 @@
       <c r="DV10" s="172" t="s">
         <v>2010</v>
       </c>
+      <c r="DW10" s="160" t="s">
+        <v>2179</v>
+      </c>
+      <c r="DX10" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY10" s="115" t="s">
+        <v>824</v>
+      </c>
+      <c r="DZ10" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="EA10" s="115" t="s">
+        <v>824</v>
+      </c>
+      <c r="EB10" s="115" t="s">
+        <v>824</v>
+      </c>
+      <c r="EC10" s="115" t="s">
+        <v>1025</v>
+      </c>
+      <c r="ED10" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="EE10" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="EF10" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="EG10" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="EH10" s="115" t="s">
+        <v>2010</v>
+      </c>
+      <c r="EI10" s="190" t="s">
+        <v>1612</v>
+      </c>
+      <c r="EJ10" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="EK10" s="190" t="s">
+        <v>824</v>
+      </c>
+      <c r="EL10" s="115" t="s">
+        <v>1025</v>
+      </c>
+      <c r="EM10" s="190" t="s">
+        <v>1025</v>
+      </c>
+      <c r="EN10" s="115" t="s">
+        <v>824</v>
+      </c>
+      <c r="EO10" s="115" t="s">
+        <v>824</v>
+      </c>
+      <c r="EP10" s="115" t="s">
+        <v>824</v>
+      </c>
+      <c r="EQ10" s="115" t="s">
+        <v>824</v>
+      </c>
+      <c r="ER10" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="ES10" s="115" t="s">
+        <v>2469</v>
+      </c>
+      <c r="ET10" s="115" t="s">
+        <v>824</v>
+      </c>
+      <c r="EU10" s="115" t="s">
+        <v>1025</v>
+      </c>
+      <c r="EV10" s="115" t="s">
+        <v>1025</v>
+      </c>
+      <c r="EW10" s="115" t="s">
+        <v>1025</v>
+      </c>
     </row>
-    <row r="11" spans="1:126" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:153" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="213" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -14544,12 +16180,93 @@
       <c r="DV11" s="172" t="s">
         <v>2117</v>
       </c>
+      <c r="DW11" s="115" t="s">
+        <v>779</v>
+      </c>
+      <c r="DX11" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="DY11" s="115" t="s">
+        <v>1764</v>
+      </c>
+      <c r="DZ11" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="EA11" s="115" t="s">
+        <v>1764</v>
+      </c>
+      <c r="EB11" s="115" t="s">
+        <v>1764</v>
+      </c>
+      <c r="EC11" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="ED11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="EE11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="EF11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="EG11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="EH11" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="EI11" s="190" t="s">
+        <v>782</v>
+      </c>
+      <c r="EJ11" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="EK11" s="191" t="s">
+        <v>2346</v>
+      </c>
+      <c r="EL11" s="115" t="s">
+        <v>2366</v>
+      </c>
+      <c r="EM11" s="191" t="s">
+        <v>2378</v>
+      </c>
+      <c r="EN11" s="115" t="s">
+        <v>1764</v>
+      </c>
+      <c r="EO11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="EP11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="EQ11" s="115" t="s">
+        <v>2438</v>
+      </c>
+      <c r="ER11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="ES11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="ET11" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU11" s="115" t="s">
+        <v>2496</v>
+      </c>
+      <c r="EV11" s="115" t="s">
+        <v>2513</v>
+      </c>
+      <c r="EW11" s="115" t="s">
+        <v>782</v>
+      </c>
     </row>
-    <row r="12" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="199"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -14920,12 +16637,93 @@
       <c r="DV12" s="172" t="s">
         <v>779</v>
       </c>
+      <c r="DW12" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="DX12" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="DY12" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="DZ12" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="EA12" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="EB12" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="EC12" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="ED12" s="115" t="s">
+        <v>2278</v>
+      </c>
+      <c r="EE12" s="115" t="s">
+        <v>2278</v>
+      </c>
+      <c r="EF12" s="115" t="s">
+        <v>2278</v>
+      </c>
+      <c r="EG12" s="115" t="s">
+        <v>2278</v>
+      </c>
+      <c r="EH12" s="115" t="s">
+        <v>2011</v>
+      </c>
+      <c r="EI12" s="190" t="s">
+        <v>2278</v>
+      </c>
+      <c r="EJ12" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="EK12" s="190" t="s">
+        <v>2347</v>
+      </c>
+      <c r="EL12" s="115" t="s">
+        <v>2278</v>
+      </c>
+      <c r="EM12" s="190" t="s">
+        <v>2347</v>
+      </c>
+      <c r="EN12" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="EO12" s="115" t="s">
+        <v>2278</v>
+      </c>
+      <c r="EP12" s="115" t="s">
+        <v>2278</v>
+      </c>
+      <c r="EQ12" s="115" t="s">
+        <v>2278</v>
+      </c>
+      <c r="ER12" s="115" t="s">
+        <v>2278</v>
+      </c>
+      <c r="ES12" s="115" t="s">
+        <v>2278</v>
+      </c>
+      <c r="ET12" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU12" s="115" t="s">
+        <v>2497</v>
+      </c>
+      <c r="EV12" s="115" t="s">
+        <v>2514</v>
+      </c>
+      <c r="EW12" s="115" t="s">
+        <v>2530</v>
+      </c>
     </row>
-    <row r="13" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="199"/>
+      <c r="B13" s="214"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -15296,12 +17094,93 @@
       <c r="DV13" s="172" t="s">
         <v>11</v>
       </c>
+      <c r="DW13" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX13" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="DY13" s="115" t="s">
+        <v>2208</v>
+      </c>
+      <c r="DZ13" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="EA13" s="115" t="s">
+        <v>2208</v>
+      </c>
+      <c r="EB13" s="115" t="s">
+        <v>2208</v>
+      </c>
+      <c r="EC13" s="115" t="s">
+        <v>2262</v>
+      </c>
+      <c r="ED13" s="115" t="s">
+        <v>756</v>
+      </c>
+      <c r="EE13" s="115" t="s">
+        <v>756</v>
+      </c>
+      <c r="EF13" s="115" t="s">
+        <v>2298</v>
+      </c>
+      <c r="EG13" s="115" t="s">
+        <v>2298</v>
+      </c>
+      <c r="EH13" s="115" t="s">
+        <v>1561</v>
+      </c>
+      <c r="EI13" s="190" t="s">
+        <v>2323</v>
+      </c>
+      <c r="EJ13" s="115" t="s">
+        <v>2338</v>
+      </c>
+      <c r="EK13" s="190" t="s">
+        <v>2348</v>
+      </c>
+      <c r="EL13" s="115" t="s">
+        <v>2338</v>
+      </c>
+      <c r="EM13" s="190" t="s">
+        <v>2379</v>
+      </c>
+      <c r="EN13" s="115" t="s">
+        <v>2393</v>
+      </c>
+      <c r="EO13" s="115" t="s">
+        <v>2408</v>
+      </c>
+      <c r="EP13" s="115" t="s">
+        <v>2424</v>
+      </c>
+      <c r="EQ13" s="115" t="s">
+        <v>996</v>
+      </c>
+      <c r="ER13" s="115" t="s">
+        <v>2454</v>
+      </c>
+      <c r="ES13" s="115" t="s">
+        <v>2470</v>
+      </c>
+      <c r="ET13" s="115" t="s">
+        <v>2481</v>
+      </c>
+      <c r="EU13" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV13" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW13" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="199"/>
+      <c r="B14" s="214"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -15672,12 +17551,93 @@
       <c r="DV14" s="172" t="s">
         <v>1392</v>
       </c>
+      <c r="DW14" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX14" s="115" t="s">
+        <v>2192</v>
+      </c>
+      <c r="DY14" s="115" t="s">
+        <v>2209</v>
+      </c>
+      <c r="DZ14" s="115" t="s">
+        <v>2226</v>
+      </c>
+      <c r="EA14" s="115" t="s">
+        <v>2238</v>
+      </c>
+      <c r="EB14" s="115" t="s">
+        <v>2251</v>
+      </c>
+      <c r="EC14" s="115" t="s">
+        <v>2263</v>
+      </c>
+      <c r="ED14" s="115" t="s">
+        <v>2279</v>
+      </c>
+      <c r="EE14" s="115" t="s">
+        <v>2279</v>
+      </c>
+      <c r="EF14" s="115" t="s">
+        <v>2299</v>
+      </c>
+      <c r="EG14" s="115" t="s">
+        <v>2299</v>
+      </c>
+      <c r="EH14" s="115" t="s">
+        <v>2311</v>
+      </c>
+      <c r="EI14" s="190" t="s">
+        <v>2324</v>
+      </c>
+      <c r="EJ14" s="115" t="s">
+        <v>2339</v>
+      </c>
+      <c r="EK14" s="190" t="s">
+        <v>2348</v>
+      </c>
+      <c r="EL14" s="115" t="s">
+        <v>2367</v>
+      </c>
+      <c r="EM14" s="190" t="s">
+        <v>2380</v>
+      </c>
+      <c r="EN14" s="115" t="s">
+        <v>2394</v>
+      </c>
+      <c r="EO14" s="115" t="s">
+        <v>2409</v>
+      </c>
+      <c r="EP14" s="115" t="s">
+        <v>2425</v>
+      </c>
+      <c r="EQ14" s="115" t="s">
+        <v>2439</v>
+      </c>
+      <c r="ER14" s="160" t="s">
+        <v>2455</v>
+      </c>
+      <c r="ES14" s="115" t="s">
+        <v>2471</v>
+      </c>
+      <c r="ET14" s="115" t="s">
+        <v>2482</v>
+      </c>
+      <c r="EU14" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV14" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW14" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="199"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -16048,12 +18008,93 @@
       <c r="DV15" s="172" t="s">
         <v>1679</v>
       </c>
+      <c r="DW15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX15" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="DY15" s="115" t="s">
+        <v>2210</v>
+      </c>
+      <c r="DZ15" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="EA15" s="115" t="s">
+        <v>2239</v>
+      </c>
+      <c r="EB15" s="115" t="s">
+        <v>2252</v>
+      </c>
+      <c r="EC15" s="115" t="s">
+        <v>2264</v>
+      </c>
+      <c r="ED15" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="EE15" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="EF15" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="EG15" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="EH15" s="115" t="s">
+        <v>1679</v>
+      </c>
+      <c r="EI15" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK15" s="190" t="s">
+        <v>2349</v>
+      </c>
+      <c r="EL15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM15" s="190" t="s">
+        <v>2349</v>
+      </c>
+      <c r="EN15" s="115" t="s">
+        <v>2395</v>
+      </c>
+      <c r="EO15" s="115" t="s">
+        <v>2410</v>
+      </c>
+      <c r="EP15" s="115" t="s">
+        <v>2426</v>
+      </c>
+      <c r="EQ15" s="115" t="s">
+        <v>2440</v>
+      </c>
+      <c r="ER15" s="115" t="s">
+        <v>2456</v>
+      </c>
+      <c r="ES15" s="115" t="s">
+        <v>2472</v>
+      </c>
+      <c r="ET15" s="115" t="s">
+        <v>1679</v>
+      </c>
+      <c r="EU15" s="115" t="s">
+        <v>2498</v>
+      </c>
+      <c r="EV15" s="115" t="s">
+        <v>2515</v>
+      </c>
+      <c r="EW15" s="115" t="s">
+        <v>2531</v>
+      </c>
     </row>
-    <row r="16" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="199"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -16424,12 +18465,93 @@
       <c r="DV16" s="172" t="s">
         <v>2118</v>
       </c>
+      <c r="DW16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX16" s="115" t="s">
+        <v>2193</v>
+      </c>
+      <c r="DY16" s="115" t="s">
+        <v>2211</v>
+      </c>
+      <c r="DZ16" s="115" t="s">
+        <v>1954</v>
+      </c>
+      <c r="EA16" s="115" t="s">
+        <v>2240</v>
+      </c>
+      <c r="EB16" s="115" t="s">
+        <v>2253</v>
+      </c>
+      <c r="EC16" s="115" t="s">
+        <v>2265</v>
+      </c>
+      <c r="ED16" s="115" t="s">
+        <v>2280</v>
+      </c>
+      <c r="EE16" s="115" t="s">
+        <v>2280</v>
+      </c>
+      <c r="EF16" s="115" t="s">
+        <v>2280</v>
+      </c>
+      <c r="EG16" s="115" t="s">
+        <v>2280</v>
+      </c>
+      <c r="EH16" s="115" t="s">
+        <v>2312</v>
+      </c>
+      <c r="EI16" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK16" s="190" t="s">
+        <v>2350</v>
+      </c>
+      <c r="EL16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM16" s="190" t="s">
+        <v>2381</v>
+      </c>
+      <c r="EN16" s="115" t="s">
+        <v>2396</v>
+      </c>
+      <c r="EO16" s="115" t="s">
+        <v>2411</v>
+      </c>
+      <c r="EP16" s="115" t="s">
+        <v>2427</v>
+      </c>
+      <c r="EQ16" s="115" t="s">
+        <v>2441</v>
+      </c>
+      <c r="ER16" s="115" t="s">
+        <v>2457</v>
+      </c>
+      <c r="ES16" s="115" t="s">
+        <v>2473</v>
+      </c>
+      <c r="ET16" s="115" t="s">
+        <v>2483</v>
+      </c>
+      <c r="EU16" s="115" t="s">
+        <v>2499</v>
+      </c>
+      <c r="EV16" s="115" t="s">
+        <v>2516</v>
+      </c>
+      <c r="EW16" s="115" t="s">
+        <v>2532</v>
+      </c>
     </row>
-    <row r="17" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="199"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -16800,12 +18922,93 @@
       <c r="DV17" s="176" t="s">
         <v>19</v>
       </c>
+      <c r="DW17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="DX17" s="115" t="s">
+        <v>2194</v>
+      </c>
+      <c r="DY17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="DZ17" s="115" t="s">
+        <v>2227</v>
+      </c>
+      <c r="EA17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="EB17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="EC17" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="ED17" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="EE17" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="EF17" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="EG17" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="EI17" s="190" t="s">
+        <v>19</v>
+      </c>
+      <c r="EJ17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="EK17" s="190" t="s">
+        <v>138</v>
+      </c>
+      <c r="EL17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="EM17" s="190" t="s">
+        <v>2382</v>
+      </c>
+      <c r="EN17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="EO17" s="115" t="s">
+        <v>2412</v>
+      </c>
+      <c r="EP17" s="115" t="s">
+        <v>2428</v>
+      </c>
+      <c r="EQ17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="ER17" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="ES17" s="115" t="s">
+        <v>2474</v>
+      </c>
+      <c r="ET17" s="115" t="s">
+        <v>2484</v>
+      </c>
+      <c r="EU17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="EV17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="EW17" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="18" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="199"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -17176,12 +19379,93 @@
       <c r="DV18" s="172" t="s">
         <v>2119</v>
       </c>
+      <c r="DW18" s="115" t="s">
+        <v>1394</v>
+      </c>
+      <c r="DX18" s="115" t="s">
+        <v>2195</v>
+      </c>
+      <c r="DY18" s="115" t="s">
+        <v>2212</v>
+      </c>
+      <c r="DZ18" s="115" t="s">
+        <v>2228</v>
+      </c>
+      <c r="EA18" s="115" t="s">
+        <v>2212</v>
+      </c>
+      <c r="EB18" s="115" t="s">
+        <v>2212</v>
+      </c>
+      <c r="EC18" s="115" t="s">
+        <v>2266</v>
+      </c>
+      <c r="ED18" s="115" t="s">
+        <v>2281</v>
+      </c>
+      <c r="EE18" s="115" t="s">
+        <v>2281</v>
+      </c>
+      <c r="EF18" s="115" t="s">
+        <v>2281</v>
+      </c>
+      <c r="EG18" s="115" t="s">
+        <v>2281</v>
+      </c>
+      <c r="EH18" s="115" t="s">
+        <v>2014</v>
+      </c>
+      <c r="EI18" s="190" t="s">
+        <v>2325</v>
+      </c>
+      <c r="EJ18" s="115" t="s">
+        <v>2340</v>
+      </c>
+      <c r="EK18" s="190" t="s">
+        <v>2351</v>
+      </c>
+      <c r="EL18" s="115" t="s">
+        <v>2368</v>
+      </c>
+      <c r="EM18" s="190" t="s">
+        <v>2383</v>
+      </c>
+      <c r="EN18" s="115" t="s">
+        <v>2397</v>
+      </c>
+      <c r="EO18" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="EP18" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="EQ18" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="ER18" s="115" t="s">
+        <v>370</v>
+      </c>
+      <c r="ES18" s="115" t="s">
+        <v>370</v>
+      </c>
+      <c r="ET18" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="EU18" s="115" t="s">
+        <v>2051</v>
+      </c>
+      <c r="EV18" s="115" t="s">
+        <v>2051</v>
+      </c>
+      <c r="EW18" s="115" t="s">
+        <v>2533</v>
+      </c>
     </row>
-    <row r="19" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="199"/>
+      <c r="B19" s="214"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -17552,12 +19836,93 @@
       <c r="DV19" s="172" t="s">
         <v>2120</v>
       </c>
+      <c r="DW19" s="115">
+        <v>2019</v>
+      </c>
+      <c r="DX19" s="115" t="s">
+        <v>2196</v>
+      </c>
+      <c r="DY19" s="115" t="s">
+        <v>2213</v>
+      </c>
+      <c r="DZ19" s="115" t="s">
+        <v>2229</v>
+      </c>
+      <c r="EA19" s="115" t="s">
+        <v>2241</v>
+      </c>
+      <c r="EB19" s="115" t="s">
+        <v>2254</v>
+      </c>
+      <c r="EC19" s="115" t="s">
+        <v>2267</v>
+      </c>
+      <c r="ED19" s="115" t="s">
+        <v>2158</v>
+      </c>
+      <c r="EE19" s="115" t="s">
+        <v>2158</v>
+      </c>
+      <c r="EF19" s="115" t="s">
+        <v>2158</v>
+      </c>
+      <c r="EG19" s="115" t="s">
+        <v>2158</v>
+      </c>
+      <c r="EH19" s="115">
+        <v>2016</v>
+      </c>
+      <c r="EI19" s="190" t="s">
+        <v>2326</v>
+      </c>
+      <c r="EJ19" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="EK19" s="190" t="s">
+        <v>2352</v>
+      </c>
+      <c r="EL19" s="115" t="s">
+        <v>2369</v>
+      </c>
+      <c r="EM19" s="190" t="s">
+        <v>2384</v>
+      </c>
+      <c r="EN19" s="115" t="s">
+        <v>2398</v>
+      </c>
+      <c r="EO19" s="115" t="s">
+        <v>2413</v>
+      </c>
+      <c r="EP19" s="115" t="s">
+        <v>2413</v>
+      </c>
+      <c r="EQ19" s="115" t="s">
+        <v>2442</v>
+      </c>
+      <c r="ER19" s="115" t="s">
+        <v>2458</v>
+      </c>
+      <c r="ES19" s="115" t="s">
+        <v>2413</v>
+      </c>
+      <c r="ET19" s="115" t="s">
+        <v>2485</v>
+      </c>
+      <c r="EU19" s="115" t="s">
+        <v>2500</v>
+      </c>
+      <c r="EV19" s="115" t="s">
+        <v>2517</v>
+      </c>
+      <c r="EW19" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="199"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -17928,12 +20293,93 @@
       <c r="DV20" s="172" t="s">
         <v>2015</v>
       </c>
+      <c r="DW20" s="115" t="s">
+        <v>1871</v>
+      </c>
+      <c r="DX20" s="115" t="s">
+        <v>2197</v>
+      </c>
+      <c r="DY20" s="115" t="s">
+        <v>2214</v>
+      </c>
+      <c r="DZ20" s="115" t="s">
+        <v>2229</v>
+      </c>
+      <c r="EA20" s="115" t="s">
+        <v>2242</v>
+      </c>
+      <c r="EB20" s="115" t="s">
+        <v>2214</v>
+      </c>
+      <c r="EC20" s="115" t="s">
+        <v>2268</v>
+      </c>
+      <c r="ED20" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="EE20" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="EF20" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="EG20" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="EH20" s="115" t="s">
+        <v>2313</v>
+      </c>
+      <c r="EI20" s="190" t="s">
+        <v>2327</v>
+      </c>
+      <c r="EJ20" s="115" t="s">
+        <v>2341</v>
+      </c>
+      <c r="EK20" s="190" t="s">
+        <v>2353</v>
+      </c>
+      <c r="EL20" s="115" t="s">
+        <v>2370</v>
+      </c>
+      <c r="EM20" s="190" t="s">
+        <v>2353</v>
+      </c>
+      <c r="EN20" s="115" t="s">
+        <v>2398</v>
+      </c>
+      <c r="EO20" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="EP20" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="EQ20" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="ER20" s="115" t="s">
+        <v>1855</v>
+      </c>
+      <c r="ES20" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="ET20" s="115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="EU20" s="115" t="s">
+        <v>2501</v>
+      </c>
+      <c r="EV20" s="115" t="s">
+        <v>2518</v>
+      </c>
+      <c r="EW20" s="115" t="s">
+        <v>2534</v>
+      </c>
     </row>
-    <row r="21" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="200" t="s">
+      <c r="B21" s="215" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -18300,12 +20746,93 @@
       <c r="DV21" s="172" t="s">
         <v>2121</v>
       </c>
+      <c r="DW21" s="115" t="s">
+        <v>2180</v>
+      </c>
+      <c r="DX21" s="115" t="s">
+        <v>2198</v>
+      </c>
+      <c r="DY21" s="115" t="s">
+        <v>2215</v>
+      </c>
+      <c r="DZ21" s="115" t="s">
+        <v>2230</v>
+      </c>
+      <c r="EA21" s="115" t="s">
+        <v>2243</v>
+      </c>
+      <c r="EB21" s="115" t="s">
+        <v>2255</v>
+      </c>
+      <c r="EC21" s="115" t="s">
+        <v>2269</v>
+      </c>
+      <c r="ED21" s="115" t="s">
+        <v>2282</v>
+      </c>
+      <c r="EE21" s="115" t="s">
+        <v>2282</v>
+      </c>
+      <c r="EF21" s="115" t="s">
+        <v>2300</v>
+      </c>
+      <c r="EG21" s="115" t="s">
+        <v>2305</v>
+      </c>
+      <c r="EH21" s="115" t="s">
+        <v>2314</v>
+      </c>
+      <c r="EI21" s="190" t="s">
+        <v>2328</v>
+      </c>
+      <c r="EJ21" s="115" t="s">
+        <v>2342</v>
+      </c>
+      <c r="EK21" s="190" t="s">
+        <v>2354</v>
+      </c>
+      <c r="EL21" s="115" t="s">
+        <v>2371</v>
+      </c>
+      <c r="EM21" s="190" t="s">
+        <v>2385</v>
+      </c>
+      <c r="EN21" s="115" t="s">
+        <v>2399</v>
+      </c>
+      <c r="EO21" s="115" t="s">
+        <v>2414</v>
+      </c>
+      <c r="EP21" s="115" t="s">
+        <v>2429</v>
+      </c>
+      <c r="EQ21" s="115" t="s">
+        <v>2443</v>
+      </c>
+      <c r="ER21" s="115" t="s">
+        <v>2459</v>
+      </c>
+      <c r="ES21" s="115" t="s">
+        <v>2475</v>
+      </c>
+      <c r="ET21" s="115" t="s">
+        <v>2486</v>
+      </c>
+      <c r="EU21" s="115" t="s">
+        <v>2502</v>
+      </c>
+      <c r="EV21" s="115" t="s">
+        <v>2519</v>
+      </c>
+      <c r="EW21" s="115" t="s">
+        <v>2535</v>
+      </c>
     </row>
-    <row r="22" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="200"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -18678,12 +21205,93 @@
       <c r="DV22" s="172" t="s">
         <v>2122</v>
       </c>
+      <c r="DW22" s="115" t="s">
+        <v>2181</v>
+      </c>
+      <c r="DX22" s="115" t="s">
+        <v>2199</v>
+      </c>
+      <c r="DY22" s="115" t="s">
+        <v>2216</v>
+      </c>
+      <c r="DZ22" s="115" t="s">
+        <v>2231</v>
+      </c>
+      <c r="EA22" s="115" t="s">
+        <v>2216</v>
+      </c>
+      <c r="EB22" s="115" t="s">
+        <v>2216</v>
+      </c>
+      <c r="EC22" s="115" t="s">
+        <v>2270</v>
+      </c>
+      <c r="ED22" s="115" t="s">
+        <v>2283</v>
+      </c>
+      <c r="EE22" s="115" t="s">
+        <v>2294</v>
+      </c>
+      <c r="EF22" s="115" t="s">
+        <v>2301</v>
+      </c>
+      <c r="EG22" s="115" t="s">
+        <v>2306</v>
+      </c>
+      <c r="EH22" s="115" t="s">
+        <v>2026</v>
+      </c>
+      <c r="EI22" s="190" t="s">
+        <v>2329</v>
+      </c>
+      <c r="EJ22" s="115" t="s">
+        <v>2343</v>
+      </c>
+      <c r="EK22" s="190" t="s">
+        <v>2355</v>
+      </c>
+      <c r="EL22" s="115" t="s">
+        <v>2372</v>
+      </c>
+      <c r="EM22" s="190" t="s">
+        <v>2386</v>
+      </c>
+      <c r="EN22" s="115" t="s">
+        <v>2400</v>
+      </c>
+      <c r="EO22" s="115" t="s">
+        <v>2415</v>
+      </c>
+      <c r="EP22" s="115" t="s">
+        <v>2430</v>
+      </c>
+      <c r="EQ22" s="115" t="s">
+        <v>2444</v>
+      </c>
+      <c r="ER22" s="115" t="s">
+        <v>2460</v>
+      </c>
+      <c r="ES22" s="115" t="s">
+        <v>2476</v>
+      </c>
+      <c r="ET22" s="115" t="s">
+        <v>2487</v>
+      </c>
+      <c r="EU22" s="115" t="s">
+        <v>2503</v>
+      </c>
+      <c r="EV22" s="115" t="s">
+        <v>2520</v>
+      </c>
+      <c r="EW22" s="115" t="s">
+        <v>2536</v>
+      </c>
     </row>
-    <row r="23" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="200"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -19056,12 +21664,93 @@
       <c r="DV23" s="105" t="s">
         <v>24</v>
       </c>
+      <c r="DW23" s="160" t="s">
+        <v>634</v>
+      </c>
+      <c r="DX23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="DY23" s="115" t="s">
+        <v>2217</v>
+      </c>
+      <c r="DZ23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="EA23" s="115" t="s">
+        <v>2217</v>
+      </c>
+      <c r="EB23" s="115" t="s">
+        <v>2217</v>
+      </c>
+      <c r="EC23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="ED23" s="115" t="s">
+        <v>2284</v>
+      </c>
+      <c r="EE23" s="115" t="s">
+        <v>2284</v>
+      </c>
+      <c r="EF23" s="115" t="s">
+        <v>2284</v>
+      </c>
+      <c r="EG23" s="115" t="s">
+        <v>2284</v>
+      </c>
+      <c r="EH23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="EI23" s="190" t="s">
+        <v>24</v>
+      </c>
+      <c r="EJ23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="EK23" s="190" t="s">
+        <v>24</v>
+      </c>
+      <c r="EL23" s="115" t="s">
+        <v>634</v>
+      </c>
+      <c r="EM23" s="190" t="s">
+        <v>24</v>
+      </c>
+      <c r="EN23" s="115" t="s">
+        <v>2217</v>
+      </c>
+      <c r="EO23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="EP23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="EQ23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="ER23" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="ES23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="ET23" s="115" t="s">
+        <v>2217</v>
+      </c>
+      <c r="EU23" s="220" t="s">
+        <v>1054</v>
+      </c>
+      <c r="EV23" s="220" t="s">
+        <v>1054</v>
+      </c>
+      <c r="EW23" s="170" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="24" spans="1:126" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="200"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -19434,12 +22123,93 @@
       <c r="DV24" s="105">
         <v>0</v>
       </c>
+      <c r="DW24" s="115">
+        <v>3839</v>
+      </c>
+      <c r="DX24" s="115">
+        <v>910</v>
+      </c>
+      <c r="DY24" s="115">
+        <v>520</v>
+      </c>
+      <c r="DZ24" s="115">
+        <v>312</v>
+      </c>
+      <c r="EA24" s="115">
+        <v>1170</v>
+      </c>
+      <c r="EB24" s="115">
+        <v>624</v>
+      </c>
+      <c r="EC24" s="115">
+        <v>1450</v>
+      </c>
+      <c r="ED24" s="115">
+        <v>598</v>
+      </c>
+      <c r="EE24" s="115">
+        <v>598</v>
+      </c>
+      <c r="EF24" s="115">
+        <v>1150</v>
+      </c>
+      <c r="EG24" s="115">
+        <v>1150</v>
+      </c>
+      <c r="EH24" s="115">
+        <v>59472</v>
+      </c>
+      <c r="EI24" s="190">
+        <v>88</v>
+      </c>
+      <c r="EJ24" s="115">
+        <v>604</v>
+      </c>
+      <c r="EK24" s="156">
+        <v>20</v>
+      </c>
+      <c r="EL24" s="115">
+        <v>1545</v>
+      </c>
+      <c r="EM24" s="156">
+        <v>2091</v>
+      </c>
+      <c r="EN24" s="115">
+        <v>490</v>
+      </c>
+      <c r="EO24" s="115">
+        <v>27</v>
+      </c>
+      <c r="EP24" s="115">
+        <v>27</v>
+      </c>
+      <c r="EQ24" s="115">
+        <v>1134</v>
+      </c>
+      <c r="ER24" s="115">
+        <v>116</v>
+      </c>
+      <c r="ES24" s="115">
+        <v>56</v>
+      </c>
+      <c r="ET24" s="115">
+        <v>49</v>
+      </c>
+      <c r="EU24" s="187">
+        <v>128</v>
+      </c>
+      <c r="EV24" s="187">
+        <v>56</v>
+      </c>
+      <c r="EW24" s="188">
+        <v>90</v>
+      </c>
     </row>
-    <row r="25" spans="1:126" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="200"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -19810,12 +22580,93 @@
       <c r="DV25" s="105" t="s">
         <v>2111</v>
       </c>
+      <c r="DW25" s="115" t="s">
+        <v>2182</v>
+      </c>
+      <c r="DX25" s="115" t="s">
+        <v>2200</v>
+      </c>
+      <c r="DY25" s="115" t="s">
+        <v>2218</v>
+      </c>
+      <c r="DZ25" s="115" t="s">
+        <v>2232</v>
+      </c>
+      <c r="EA25" s="115" t="s">
+        <v>2244</v>
+      </c>
+      <c r="EB25" s="115" t="s">
+        <v>2256</v>
+      </c>
+      <c r="EC25" s="115" t="s">
+        <v>2271</v>
+      </c>
+      <c r="ED25" s="115" t="s">
+        <v>2285</v>
+      </c>
+      <c r="EE25" s="115" t="s">
+        <v>2295</v>
+      </c>
+      <c r="EF25" s="115" t="s">
+        <v>2302</v>
+      </c>
+      <c r="EG25" s="115" t="s">
+        <v>2307</v>
+      </c>
+      <c r="EH25" s="115" t="s">
+        <v>2315</v>
+      </c>
+      <c r="EI25" s="190" t="s">
+        <v>2330</v>
+      </c>
+      <c r="EJ25" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK25" s="156" t="s">
+        <v>2356</v>
+      </c>
+      <c r="EL25" s="188" t="s">
+        <v>2373</v>
+      </c>
+      <c r="EM25" s="156" t="s">
+        <v>2387</v>
+      </c>
+      <c r="EN25" s="115" t="s">
+        <v>2401</v>
+      </c>
+      <c r="EO25" s="115" t="s">
+        <v>2416</v>
+      </c>
+      <c r="EP25" s="115" t="s">
+        <v>2431</v>
+      </c>
+      <c r="EQ25" s="115" t="s">
+        <v>2445</v>
+      </c>
+      <c r="ER25" s="115" t="s">
+        <v>2461</v>
+      </c>
+      <c r="ES25" s="115" t="s">
+        <v>2477</v>
+      </c>
+      <c r="ET25" s="115" t="s">
+        <v>2488</v>
+      </c>
+      <c r="EU25" s="115" t="s">
+        <v>2504</v>
+      </c>
+      <c r="EV25" s="115" t="s">
+        <v>2521</v>
+      </c>
+      <c r="EW25" s="115" t="s">
+        <v>2537</v>
+      </c>
     </row>
-    <row r="26" spans="1:126" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:153" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="201" t="s">
+      <c r="B26" s="216" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -20190,12 +23041,93 @@
       <c r="DV26" s="68" t="s">
         <v>698</v>
       </c>
+      <c r="DW26" s="160" t="s">
+        <v>698</v>
+      </c>
+      <c r="DX26" s="160" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DY26" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="DZ26" s="160" t="s">
+        <v>1133</v>
+      </c>
+      <c r="EA26" s="160" t="s">
+        <v>701</v>
+      </c>
+      <c r="EB26" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EC26" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="ED26" s="187" t="s">
+        <v>698</v>
+      </c>
+      <c r="EE26" s="187" t="s">
+        <v>698</v>
+      </c>
+      <c r="EF26" s="187" t="s">
+        <v>698</v>
+      </c>
+      <c r="EG26" s="187" t="s">
+        <v>698</v>
+      </c>
+      <c r="EH26" s="187" t="s">
+        <v>849</v>
+      </c>
+      <c r="EI26" s="190" t="s">
+        <v>696</v>
+      </c>
+      <c r="EJ26" s="115" t="s">
+        <v>696</v>
+      </c>
+      <c r="EK26" s="190" t="s">
+        <v>696</v>
+      </c>
+      <c r="EL26" s="115" t="s">
+        <v>696</v>
+      </c>
+      <c r="EM26" s="190" t="s">
+        <v>696</v>
+      </c>
+      <c r="EN26" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EO26" s="160" t="s">
+        <v>698</v>
+      </c>
+      <c r="EP26" s="160" t="s">
+        <v>698</v>
+      </c>
+      <c r="EQ26" s="160" t="s">
+        <v>698</v>
+      </c>
+      <c r="ER26" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="ES26" s="160" t="s">
+        <v>698</v>
+      </c>
+      <c r="ET26" s="187" t="s">
+        <v>849</v>
+      </c>
+      <c r="EU26" s="160" t="s">
+        <v>701</v>
+      </c>
+      <c r="EV26" s="160" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EW26" s="160" t="s">
+        <v>713</v>
+      </c>
     </row>
-    <row r="27" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="201"/>
+      <c r="B27" s="216"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -20568,12 +23500,93 @@
       <c r="DV27" s="68">
         <v>2</v>
       </c>
+      <c r="DW27" s="160">
+        <v>2</v>
+      </c>
+      <c r="DX27" s="160">
+        <v>11</v>
+      </c>
+      <c r="DY27" s="160">
+        <v>94</v>
+      </c>
+      <c r="DZ27" s="160">
+        <v>11</v>
+      </c>
+      <c r="EA27" s="160">
+        <v>1</v>
+      </c>
+      <c r="EB27" s="160">
+        <v>94</v>
+      </c>
+      <c r="EC27" s="185">
+        <v>7</v>
+      </c>
+      <c r="ED27" s="160">
+        <v>2</v>
+      </c>
+      <c r="EE27" s="160">
+        <v>2</v>
+      </c>
+      <c r="EF27" s="160">
+        <v>2</v>
+      </c>
+      <c r="EG27" s="160">
+        <v>2</v>
+      </c>
+      <c r="EH27" s="160">
+        <v>4</v>
+      </c>
+      <c r="EI27" s="190">
+        <v>7</v>
+      </c>
+      <c r="EJ27" s="115">
+        <v>7</v>
+      </c>
+      <c r="EK27" s="190">
+        <v>7</v>
+      </c>
+      <c r="EL27" s="115">
+        <v>7</v>
+      </c>
+      <c r="EM27" s="190">
+        <v>7</v>
+      </c>
+      <c r="EN27" s="160">
+        <v>94</v>
+      </c>
+      <c r="EO27" s="160">
+        <v>2</v>
+      </c>
+      <c r="EP27" s="160">
+        <v>2</v>
+      </c>
+      <c r="EQ27" s="160">
+        <v>2</v>
+      </c>
+      <c r="ER27" s="115">
+        <v>2</v>
+      </c>
+      <c r="ES27" s="160">
+        <v>2</v>
+      </c>
+      <c r="ET27" s="160">
+        <v>4</v>
+      </c>
+      <c r="EU27" s="160">
+        <v>1</v>
+      </c>
+      <c r="EV27" s="160">
+        <v>4</v>
+      </c>
+      <c r="EW27" s="160">
+        <v>10</v>
+      </c>
     </row>
-    <row r="28" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="201"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -20944,12 +23957,93 @@
       <c r="DV28" s="68" t="s">
         <v>1033</v>
       </c>
+      <c r="DW28" s="160" t="s">
+        <v>702</v>
+      </c>
+      <c r="DX28" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="DY28" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="DZ28" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EA28" s="160" t="s">
+        <v>1640</v>
+      </c>
+      <c r="EB28" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="EC28" s="160" t="s">
+        <v>698</v>
+      </c>
+      <c r="ED28" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="EE28" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="EF28" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="EG28" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="EH28" s="160" t="s">
+        <v>699</v>
+      </c>
+      <c r="EI28" s="190" t="s">
+        <v>853</v>
+      </c>
+      <c r="EJ28" s="115" t="s">
+        <v>697</v>
+      </c>
+      <c r="EK28" s="190" t="s">
+        <v>704</v>
+      </c>
+      <c r="EL28" s="115" t="s">
+        <v>697</v>
+      </c>
+      <c r="EM28" s="190" t="s">
+        <v>704</v>
+      </c>
+      <c r="EN28" s="160" t="s">
+        <v>701</v>
+      </c>
+      <c r="EO28" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EP28" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EQ28" s="187" t="s">
+        <v>849</v>
+      </c>
+      <c r="ER28" s="115" t="s">
+        <v>696</v>
+      </c>
+      <c r="ES28" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="ET28" s="160" t="s">
+        <v>1640</v>
+      </c>
+      <c r="EU28" s="160" t="s">
+        <v>1657</v>
+      </c>
+      <c r="EV28" s="160" t="s">
+        <v>1657</v>
+      </c>
+      <c r="EW28" s="160" t="s">
+        <v>1467</v>
+      </c>
     </row>
-    <row r="29" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="201"/>
+      <c r="B29" s="216"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -21320,12 +24414,93 @@
       <c r="DV29" s="68">
         <v>72</v>
       </c>
+      <c r="DW29" s="185">
+        <v>3</v>
+      </c>
+      <c r="DX29" s="185">
+        <v>13</v>
+      </c>
+      <c r="DY29" s="185">
+        <v>3</v>
+      </c>
+      <c r="DZ29" s="185">
+        <v>13</v>
+      </c>
+      <c r="EA29" s="185">
+        <v>90</v>
+      </c>
+      <c r="EB29" s="185">
+        <v>3</v>
+      </c>
+      <c r="EC29" s="185">
+        <v>2</v>
+      </c>
+      <c r="ED29" s="160">
+        <v>14</v>
+      </c>
+      <c r="EE29" s="160">
+        <v>14</v>
+      </c>
+      <c r="EF29" s="160">
+        <v>9</v>
+      </c>
+      <c r="EG29" s="160">
+        <v>9</v>
+      </c>
+      <c r="EH29" s="160">
+        <v>6</v>
+      </c>
+      <c r="EI29" s="190">
+        <v>12</v>
+      </c>
+      <c r="EJ29" s="115">
+        <v>6</v>
+      </c>
+      <c r="EK29" s="190">
+        <v>3</v>
+      </c>
+      <c r="EL29" s="115">
+        <v>6</v>
+      </c>
+      <c r="EM29" s="190">
+        <v>14</v>
+      </c>
+      <c r="EN29" s="185">
+        <v>1</v>
+      </c>
+      <c r="EO29" s="185">
+        <v>7</v>
+      </c>
+      <c r="EP29" s="185">
+        <v>7</v>
+      </c>
+      <c r="EQ29" s="185">
+        <v>4</v>
+      </c>
+      <c r="ER29" s="187">
+        <v>7</v>
+      </c>
+      <c r="ES29" s="185">
+        <v>7</v>
+      </c>
+      <c r="ET29" s="185">
+        <v>90</v>
+      </c>
+      <c r="EU29" s="160">
+        <v>79</v>
+      </c>
+      <c r="EV29" s="160">
+        <v>79</v>
+      </c>
+      <c r="EW29" s="160">
+        <v>93</v>
+      </c>
     </row>
-    <row r="30" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="201"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -21696,12 +24871,93 @@
       <c r="DV30" s="68" t="s">
         <v>699</v>
       </c>
+      <c r="DW30" s="160" t="s">
+        <v>1697</v>
+      </c>
+      <c r="DX30" s="160" t="s">
+        <v>851</v>
+      </c>
+      <c r="DY30" s="160" t="s">
+        <v>1640</v>
+      </c>
+      <c r="DZ30" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="EA30" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EB30" s="160" t="s">
+        <v>1640</v>
+      </c>
+      <c r="EC30" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="ED30" s="160" t="s">
+        <v>849</v>
+      </c>
+      <c r="EE30" s="160" t="s">
+        <v>849</v>
+      </c>
+      <c r="EF30" s="160" t="s">
+        <v>849</v>
+      </c>
+      <c r="EG30" s="160" t="s">
+        <v>849</v>
+      </c>
+      <c r="EH30" s="187" t="s">
+        <v>696</v>
+      </c>
+      <c r="EI30" s="190" t="s">
+        <v>698</v>
+      </c>
+      <c r="EJ30" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="EK30" s="157" t="s">
+        <v>698</v>
+      </c>
+      <c r="EL30" s="115" t="s">
+        <v>702</v>
+      </c>
+      <c r="EM30" s="157" t="s">
+        <v>698</v>
+      </c>
+      <c r="EN30" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO30" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="EP30" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="EQ30" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="ER30" s="115" t="s">
+        <v>704</v>
+      </c>
+      <c r="ES30" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="ET30" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EU30" s="160" t="s">
+        <v>699</v>
+      </c>
+      <c r="EV30" s="160" t="s">
+        <v>699</v>
+      </c>
+      <c r="EW30" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="31" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="201"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -22072,12 +25328,93 @@
       <c r="DV31" s="68">
         <v>6</v>
       </c>
+      <c r="DW31" s="185">
+        <v>28</v>
+      </c>
+      <c r="DX31" s="185">
+        <v>13</v>
+      </c>
+      <c r="DY31" s="185">
+        <v>90</v>
+      </c>
+      <c r="DZ31" s="160">
+        <v>14</v>
+      </c>
+      <c r="EA31" s="185">
+        <v>94</v>
+      </c>
+      <c r="EB31" s="185">
+        <v>90</v>
+      </c>
+      <c r="EC31" s="160">
+        <v>14</v>
+      </c>
+      <c r="ED31" s="160">
+        <v>4</v>
+      </c>
+      <c r="EE31" s="160">
+        <v>4</v>
+      </c>
+      <c r="EF31" s="160">
+        <v>4</v>
+      </c>
+      <c r="EG31" s="160">
+        <v>4</v>
+      </c>
+      <c r="EH31" s="160">
+        <v>7</v>
+      </c>
+      <c r="EI31" s="190">
+        <v>2</v>
+      </c>
+      <c r="EJ31" s="115">
+        <v>2</v>
+      </c>
+      <c r="EK31" s="190">
+        <v>2</v>
+      </c>
+      <c r="EL31" s="115">
+        <v>3</v>
+      </c>
+      <c r="EM31" s="190">
+        <v>2</v>
+      </c>
+      <c r="EN31" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO31" s="160">
+        <v>14</v>
+      </c>
+      <c r="EP31" s="160">
+        <v>14</v>
+      </c>
+      <c r="EQ31" s="160">
+        <v>91</v>
+      </c>
+      <c r="ER31" s="115">
+        <v>14</v>
+      </c>
+      <c r="ES31" s="160">
+        <v>14</v>
+      </c>
+      <c r="ET31" s="185">
+        <v>7</v>
+      </c>
+      <c r="EU31" s="160">
+        <v>6</v>
+      </c>
+      <c r="EV31" s="160">
+        <v>6</v>
+      </c>
+      <c r="EW31" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="32" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="201"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -22448,12 +25785,93 @@
       <c r="DV32" s="68" t="s">
         <v>700</v>
       </c>
+      <c r="DW32" s="160" t="s">
+        <v>2183</v>
+      </c>
+      <c r="DX32" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="DY32" s="160" t="s">
+        <v>849</v>
+      </c>
+      <c r="DZ32" s="160" t="s">
+        <v>849</v>
+      </c>
+      <c r="EA32" s="160" t="s">
+        <v>704</v>
+      </c>
+      <c r="EB32" s="160" t="s">
+        <v>849</v>
+      </c>
+      <c r="EC32" s="160" t="s">
+        <v>849</v>
+      </c>
+      <c r="ED32" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EE32" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EF32" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EG32" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="EH32" s="160" t="s">
+        <v>700</v>
+      </c>
+      <c r="EI32" s="190" t="s">
+        <v>702</v>
+      </c>
+      <c r="EJ32" s="115" t="s">
+        <v>704</v>
+      </c>
+      <c r="EK32" s="191" t="s">
+        <v>849</v>
+      </c>
+      <c r="EL32" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="EM32" s="191" t="s">
+        <v>1640</v>
+      </c>
+      <c r="EN32" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO32" s="187" t="s">
+        <v>849</v>
+      </c>
+      <c r="EP32" s="187" t="s">
+        <v>1640</v>
+      </c>
+      <c r="EQ32" s="187" t="s">
+        <v>702</v>
+      </c>
+      <c r="ER32" s="115" t="s">
+        <v>849</v>
+      </c>
+      <c r="ES32" s="187" t="s">
+        <v>849</v>
+      </c>
+      <c r="ET32" s="187" t="s">
+        <v>702</v>
+      </c>
+      <c r="EU32" s="160" t="s">
+        <v>700</v>
+      </c>
+      <c r="EV32" s="160" t="s">
+        <v>700</v>
+      </c>
+      <c r="EW32" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="33" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="201"/>
+      <c r="B33" s="216"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -22824,12 +26242,93 @@
       <c r="DV33" s="68">
         <v>6</v>
       </c>
+      <c r="DW33" s="160">
+        <v>88</v>
+      </c>
+      <c r="DX33" s="160">
+        <v>14</v>
+      </c>
+      <c r="DY33" s="160">
+        <v>4</v>
+      </c>
+      <c r="DZ33" s="160">
+        <v>4</v>
+      </c>
+      <c r="EA33" s="160">
+        <v>14</v>
+      </c>
+      <c r="EB33" s="160">
+        <v>4</v>
+      </c>
+      <c r="EC33" s="160">
+        <v>4</v>
+      </c>
+      <c r="ED33" s="187">
+        <v>13</v>
+      </c>
+      <c r="EE33" s="187">
+        <v>13</v>
+      </c>
+      <c r="EF33" s="187">
+        <v>13</v>
+      </c>
+      <c r="EG33" s="187">
+        <v>13</v>
+      </c>
+      <c r="EH33" s="160">
+        <v>6</v>
+      </c>
+      <c r="EI33" s="190">
+        <v>3</v>
+      </c>
+      <c r="EJ33" s="115">
+        <v>9</v>
+      </c>
+      <c r="EK33" s="190">
+        <v>4</v>
+      </c>
+      <c r="EL33" s="115">
+        <v>2</v>
+      </c>
+      <c r="EM33" s="190">
+        <v>90</v>
+      </c>
+      <c r="EN33" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO33" s="160">
+        <v>4</v>
+      </c>
+      <c r="EP33" s="160">
+        <v>90</v>
+      </c>
+      <c r="EQ33" s="160">
+        <v>9</v>
+      </c>
+      <c r="ER33" s="115">
+        <v>4</v>
+      </c>
+      <c r="ES33" s="160">
+        <v>4</v>
+      </c>
+      <c r="ET33" s="160">
+        <v>3</v>
+      </c>
+      <c r="EU33" s="160">
+        <v>6</v>
+      </c>
+      <c r="EV33" s="160">
+        <v>6</v>
+      </c>
+      <c r="EW33" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="34" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="201"/>
+      <c r="B34" s="216"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -23200,12 +26699,93 @@
       <c r="DV34" s="68" t="s">
         <v>1467</v>
       </c>
+      <c r="DW34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX34" s="160" t="s">
+        <v>849</v>
+      </c>
+      <c r="DY34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH34" s="187" t="s">
+        <v>698</v>
+      </c>
+      <c r="EI34" s="190" t="s">
+        <v>713</v>
+      </c>
+      <c r="EJ34" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK34" s="191" t="s">
+        <v>1441</v>
+      </c>
+      <c r="EL34" s="187" t="s">
+        <v>1133</v>
+      </c>
+      <c r="EM34" s="191" t="s">
+        <v>849</v>
+      </c>
+      <c r="EN34" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO34" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP34" s="187" t="s">
+        <v>849</v>
+      </c>
+      <c r="EQ34" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER34" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES34" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET34" s="187" t="s">
+        <v>698</v>
+      </c>
+      <c r="EU34" s="160" t="s">
+        <v>698</v>
+      </c>
+      <c r="EV34" s="160" t="s">
+        <v>698</v>
+      </c>
+      <c r="EW34" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="35" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="201"/>
+      <c r="B35" s="216"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -23576,12 +27156,93 @@
       <c r="DV35" s="68">
         <v>79</v>
       </c>
+      <c r="DW35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX35" s="160">
+        <v>4</v>
+      </c>
+      <c r="DY35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH35" s="187">
+        <v>2</v>
+      </c>
+      <c r="EI35" s="190">
+        <v>10</v>
+      </c>
+      <c r="EJ35" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK35" s="190">
+        <v>86</v>
+      </c>
+      <c r="EL35" s="115">
+        <v>11</v>
+      </c>
+      <c r="EM35" s="190">
+        <v>4</v>
+      </c>
+      <c r="EN35" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO35" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP35" s="160">
+        <v>4</v>
+      </c>
+      <c r="EQ35" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER35" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES35" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET35" s="187">
+        <v>2</v>
+      </c>
+      <c r="EU35" s="160">
+        <v>2</v>
+      </c>
+      <c r="EV35" s="160">
+        <v>2</v>
+      </c>
+      <c r="EW35" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="36" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="201"/>
+      <c r="B36" s="216"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -23952,12 +27613,93 @@
       <c r="DV36" s="68" t="s">
         <v>702</v>
       </c>
+      <c r="DW36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH36" s="160" t="s">
+        <v>702</v>
+      </c>
+      <c r="EI36" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ36" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK36" s="190" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EL36" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM36" s="191" t="s">
+        <v>1441</v>
+      </c>
+      <c r="EN36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER36" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET36" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU36" s="160" t="s">
+        <v>702</v>
+      </c>
+      <c r="EV36" s="160" t="s">
+        <v>702</v>
+      </c>
+      <c r="EW36" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="201"/>
+      <c r="B37" s="216"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -24328,12 +28070,93 @@
       <c r="DV37" s="68">
         <v>3</v>
       </c>
+      <c r="DW37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH37" s="160">
+        <v>3</v>
+      </c>
+      <c r="EI37" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ37" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK37" s="190">
+        <v>20</v>
+      </c>
+      <c r="EL37" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM37" s="190">
+        <v>86</v>
+      </c>
+      <c r="EN37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER37" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET37" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU37" s="160">
+        <v>9</v>
+      </c>
+      <c r="EV37" s="160">
+        <v>3</v>
+      </c>
+      <c r="EW37" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="201"/>
+      <c r="B38" s="216"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -24704,12 +28527,93 @@
       <c r="DV38" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI38" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK38" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM38" s="190" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EN38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV38" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW38" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="39" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="201"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -25080,12 +28984,93 @@
       <c r="DV39" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI39" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK39" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM39" s="190">
+        <v>20</v>
+      </c>
+      <c r="EN39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV39" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW39" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="201"/>
+      <c r="B40" s="216"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -25456,12 +29441,93 @@
       <c r="DV40" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI40" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK40" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM40" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV40" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW40" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="201"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -25832,12 +29898,93 @@
       <c r="DV41" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI41" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK41" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM41" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV41" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW41" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="201"/>
+      <c r="B42" s="216"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -26208,12 +30355,93 @@
       <c r="DV42" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI42" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK42" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM42" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV42" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW42" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="201"/>
+      <c r="B43" s="216"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -26584,12 +30812,93 @@
       <c r="DV43" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI43" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK43" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM43" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV43" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW43" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="201"/>
+      <c r="B44" s="216"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -26960,12 +31269,93 @@
       <c r="DV44" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI44" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK44" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM44" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV44" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW44" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="201"/>
+      <c r="B45" s="216"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -27336,12 +31726,93 @@
       <c r="DV45" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI45" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK45" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM45" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV45" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW45" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="201"/>
+      <c r="B46" s="216"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -27712,12 +32183,93 @@
       <c r="DV46" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI46" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK46" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM46" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV46" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW46" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="201"/>
+      <c r="B47" s="216"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -28088,12 +32640,93 @@
       <c r="DV47" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI47" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK47" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM47" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV47" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW47" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="201"/>
+      <c r="B48" s="216"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -28464,12 +33097,93 @@
       <c r="DV48" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI48" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK48" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM48" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV48" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW48" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:126" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:153" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="201"/>
+      <c r="B49" s="216"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -28840,12 +33554,93 @@
       <c r="DV49" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="DW49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DX49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ED49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI49" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EJ49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK49" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EL49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM49" s="190" t="s">
+        <v>11</v>
+      </c>
+      <c r="EN49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EU49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV49" s="160" t="s">
+        <v>11</v>
+      </c>
+      <c r="EW49" s="160" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="201"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -29218,12 +34013,93 @@
       <c r="DV50" s="105" t="s">
         <v>2123</v>
       </c>
+      <c r="DW50" s="115" t="s">
+        <v>2184</v>
+      </c>
+      <c r="DX50" s="115" t="s">
+        <v>2201</v>
+      </c>
+      <c r="DY50" s="115" t="s">
+        <v>2219</v>
+      </c>
+      <c r="DZ50" s="115" t="s">
+        <v>2233</v>
+      </c>
+      <c r="EA50" s="115" t="s">
+        <v>2245</v>
+      </c>
+      <c r="EB50" s="115" t="s">
+        <v>2219</v>
+      </c>
+      <c r="EC50" s="115" t="s">
+        <v>2057</v>
+      </c>
+      <c r="ED50" s="115" t="s">
+        <v>2286</v>
+      </c>
+      <c r="EE50" s="115" t="s">
+        <v>2286</v>
+      </c>
+      <c r="EF50" s="115" t="s">
+        <v>2286</v>
+      </c>
+      <c r="EG50" s="115" t="s">
+        <v>2286</v>
+      </c>
+      <c r="EH50" s="115" t="s">
+        <v>2316</v>
+      </c>
+      <c r="EI50" s="190" t="s">
+        <v>2331</v>
+      </c>
+      <c r="EJ50" s="115" t="s">
+        <v>1978</v>
+      </c>
+      <c r="EK50" s="156" t="s">
+        <v>2357</v>
+      </c>
+      <c r="EL50" s="115" t="s">
+        <v>2374</v>
+      </c>
+      <c r="EM50" s="156" t="s">
+        <v>2388</v>
+      </c>
+      <c r="EN50" s="115" t="s">
+        <v>2402</v>
+      </c>
+      <c r="EO50" s="115" t="s">
+        <v>2233</v>
+      </c>
+      <c r="EP50" s="115" t="s">
+        <v>2432</v>
+      </c>
+      <c r="EQ50" s="115" t="s">
+        <v>2446</v>
+      </c>
+      <c r="ER50" s="115" t="s">
+        <v>2233</v>
+      </c>
+      <c r="ES50" s="115" t="s">
+        <v>2233</v>
+      </c>
+      <c r="ET50" s="115" t="s">
+        <v>2489</v>
+      </c>
+      <c r="EU50" s="115" t="s">
+        <v>2505</v>
+      </c>
+      <c r="EV50" s="115" t="s">
+        <v>2505</v>
+      </c>
+      <c r="EW50" s="115" t="s">
+        <v>2538</v>
+      </c>
     </row>
-    <row r="51" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="201"/>
+      <c r="B51" s="216"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -29596,12 +34472,93 @@
       <c r="DV51" s="12" t="s">
         <v>2124</v>
       </c>
+      <c r="DW51" s="115" t="s">
+        <v>2185</v>
+      </c>
+      <c r="DX51" s="115" t="s">
+        <v>2202</v>
+      </c>
+      <c r="DY51" s="115" t="s">
+        <v>2220</v>
+      </c>
+      <c r="DZ51" s="115" t="s">
+        <v>2234</v>
+      </c>
+      <c r="EA51" s="115" t="s">
+        <v>2246</v>
+      </c>
+      <c r="EB51" s="115" t="s">
+        <v>2257</v>
+      </c>
+      <c r="EC51" s="115" t="s">
+        <v>2272</v>
+      </c>
+      <c r="ED51" s="115" t="s">
+        <v>2287</v>
+      </c>
+      <c r="EE51" s="115" t="s">
+        <v>2296</v>
+      </c>
+      <c r="EF51" s="115" t="s">
+        <v>2303</v>
+      </c>
+      <c r="EG51" s="115" t="s">
+        <v>2308</v>
+      </c>
+      <c r="EH51" s="115" t="s">
+        <v>2317</v>
+      </c>
+      <c r="EI51" s="190" t="s">
+        <v>2332</v>
+      </c>
+      <c r="EJ51" s="115" t="s">
+        <v>2344</v>
+      </c>
+      <c r="EK51" s="156" t="s">
+        <v>2358</v>
+      </c>
+      <c r="EL51" s="115" t="s">
+        <v>2375</v>
+      </c>
+      <c r="EM51" s="156" t="s">
+        <v>2389</v>
+      </c>
+      <c r="EN51" s="115" t="s">
+        <v>2403</v>
+      </c>
+      <c r="EO51" s="115" t="s">
+        <v>2417</v>
+      </c>
+      <c r="EP51" s="115" t="s">
+        <v>2433</v>
+      </c>
+      <c r="EQ51" s="115" t="s">
+        <v>2447</v>
+      </c>
+      <c r="ER51" s="115" t="s">
+        <v>2462</v>
+      </c>
+      <c r="ES51" s="115" t="s">
+        <v>2478</v>
+      </c>
+      <c r="ET51" s="115" t="s">
+        <v>2490</v>
+      </c>
+      <c r="EU51" s="115" t="s">
+        <v>2506</v>
+      </c>
+      <c r="EV51" s="115" t="s">
+        <v>2522</v>
+      </c>
+      <c r="EW51" s="115" t="s">
+        <v>2539</v>
+      </c>
     </row>
-    <row r="52" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="201"/>
+      <c r="B52" s="216"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -29974,12 +34931,93 @@
       <c r="DV52" s="105" t="s">
         <v>2125</v>
       </c>
+      <c r="DW52" s="115" t="s">
+        <v>2186</v>
+      </c>
+      <c r="DX52" s="115" t="s">
+        <v>2203</v>
+      </c>
+      <c r="DY52" s="115" t="s">
+        <v>2221</v>
+      </c>
+      <c r="DZ52" s="115" t="s">
+        <v>1416</v>
+      </c>
+      <c r="EA52" s="115" t="s">
+        <v>2247</v>
+      </c>
+      <c r="EB52" s="115" t="s">
+        <v>2221</v>
+      </c>
+      <c r="EC52" s="115" t="s">
+        <v>2273</v>
+      </c>
+      <c r="ED52" s="115" t="s">
+        <v>2288</v>
+      </c>
+      <c r="EE52" s="115" t="s">
+        <v>2288</v>
+      </c>
+      <c r="EF52" s="115" t="s">
+        <v>2288</v>
+      </c>
+      <c r="EG52" s="115" t="s">
+        <v>2288</v>
+      </c>
+      <c r="EH52" s="115" t="s">
+        <v>2318</v>
+      </c>
+      <c r="EI52" s="190" t="s">
+        <v>2333</v>
+      </c>
+      <c r="EJ52" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="EK52" s="156" t="s">
+        <v>2359</v>
+      </c>
+      <c r="EL52" s="160" t="s">
+        <v>2376</v>
+      </c>
+      <c r="EM52" s="156" t="s">
+        <v>2390</v>
+      </c>
+      <c r="EN52" s="115" t="s">
+        <v>2404</v>
+      </c>
+      <c r="EO52" s="115" t="s">
+        <v>2418</v>
+      </c>
+      <c r="EP52" s="115" t="s">
+        <v>2434</v>
+      </c>
+      <c r="EQ52" s="115" t="s">
+        <v>2448</v>
+      </c>
+      <c r="ER52" s="115" t="s">
+        <v>2463</v>
+      </c>
+      <c r="ES52" s="115" t="s">
+        <v>2418</v>
+      </c>
+      <c r="ET52" s="115" t="s">
+        <v>2491</v>
+      </c>
+      <c r="EU52" s="115" t="s">
+        <v>2507</v>
+      </c>
+      <c r="EV52" s="115" t="s">
+        <v>2507</v>
+      </c>
+      <c r="EW52" s="115" t="s">
+        <v>2540</v>
+      </c>
     </row>
-    <row r="53" spans="1:126" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:153" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="202" t="s">
+      <c r="B53" s="217" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -30354,12 +35392,93 @@
       <c r="DV53" s="105" t="s">
         <v>861</v>
       </c>
+      <c r="DW53" s="186" t="s">
+        <v>861</v>
+      </c>
+      <c r="DX53" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="DY53" s="188" t="s">
+        <v>207</v>
+      </c>
+      <c r="DZ53" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="EA53" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="EB53" s="188" t="s">
+        <v>207</v>
+      </c>
+      <c r="EC53" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="ED53" s="186" t="s">
+        <v>860</v>
+      </c>
+      <c r="EE53" s="186" t="s">
+        <v>860</v>
+      </c>
+      <c r="EF53" s="186" t="s">
+        <v>860</v>
+      </c>
+      <c r="EG53" s="186" t="s">
+        <v>860</v>
+      </c>
+      <c r="EH53" s="188" t="s">
+        <v>860</v>
+      </c>
+      <c r="EI53" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ53" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="EK53" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="EL53" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="EM53" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="EN53" s="188" t="s">
+        <v>207</v>
+      </c>
+      <c r="EO53" s="186" t="s">
+        <v>206</v>
+      </c>
+      <c r="EP53" s="186" t="s">
+        <v>206</v>
+      </c>
+      <c r="EQ53" s="186" t="s">
+        <v>206</v>
+      </c>
+      <c r="ER53" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="ES53" s="186" t="s">
+        <v>207</v>
+      </c>
+      <c r="ET53" s="186" t="s">
+        <v>206</v>
+      </c>
+      <c r="EU53" s="187" t="s">
+        <v>860</v>
+      </c>
+      <c r="EV53" s="187" t="s">
+        <v>860</v>
+      </c>
+      <c r="EW53" s="188" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="54" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="202"/>
+      <c r="B54" s="217"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -30732,12 +35851,93 @@
       <c r="DV54" s="4" t="s">
         <v>858</v>
       </c>
+      <c r="DW54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="DX54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="DY54" s="115" t="s">
+        <v>728</v>
+      </c>
+      <c r="DZ54" s="115" t="s">
+        <v>2060</v>
+      </c>
+      <c r="EA54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="EB54" s="115" t="s">
+        <v>728</v>
+      </c>
+      <c r="EC54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="ED54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="EE54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="EF54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="EG54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="EH54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="EI54" s="156" t="s">
+        <v>858</v>
+      </c>
+      <c r="EJ54" s="188" t="s">
+        <v>858</v>
+      </c>
+      <c r="EK54" s="156" t="s">
+        <v>858</v>
+      </c>
+      <c r="EL54" s="188" t="s">
+        <v>858</v>
+      </c>
+      <c r="EM54" s="156" t="s">
+        <v>858</v>
+      </c>
+      <c r="EN54" s="115" t="s">
+        <v>728</v>
+      </c>
+      <c r="EO54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="EP54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="EQ54" s="115" t="s">
+        <v>2449</v>
+      </c>
+      <c r="ER54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="ES54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="ET54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="EU54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="EV54" s="115" t="s">
+        <v>2060</v>
+      </c>
+      <c r="EW54" s="115" t="s">
+        <v>857</v>
+      </c>
     </row>
-    <row r="55" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="202"/>
+      <c r="B55" s="217"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -31110,12 +36310,93 @@
       <c r="DV55" s="105" t="s">
         <v>2112</v>
       </c>
+      <c r="DW55" s="115" t="s">
+        <v>2187</v>
+      </c>
+      <c r="DX55" s="115" t="s">
+        <v>2204</v>
+      </c>
+      <c r="DY55" s="115" t="s">
+        <v>2222</v>
+      </c>
+      <c r="DZ55" s="115" t="s">
+        <v>2235</v>
+      </c>
+      <c r="EA55" s="115" t="s">
+        <v>2248</v>
+      </c>
+      <c r="EB55" s="115" t="s">
+        <v>2258</v>
+      </c>
+      <c r="EC55" s="115" t="s">
+        <v>2274</v>
+      </c>
+      <c r="ED55" s="115" t="s">
+        <v>2289</v>
+      </c>
+      <c r="EE55" s="115" t="s">
+        <v>2289</v>
+      </c>
+      <c r="EF55" s="115" t="s">
+        <v>2289</v>
+      </c>
+      <c r="EG55" s="115" t="s">
+        <v>2289</v>
+      </c>
+      <c r="EH55" s="115" t="s">
+        <v>1315</v>
+      </c>
+      <c r="EI55" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EJ55" s="188" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EK55" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EL55" s="188" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EM55" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EN55" s="115" t="s">
+        <v>2405</v>
+      </c>
+      <c r="EO55" s="115" t="s">
+        <v>2419</v>
+      </c>
+      <c r="EP55" s="115" t="s">
+        <v>2435</v>
+      </c>
+      <c r="EQ55" s="115" t="s">
+        <v>2450</v>
+      </c>
+      <c r="ER55" s="115" t="s">
+        <v>2464</v>
+      </c>
+      <c r="ES55" s="115" t="s">
+        <v>2204</v>
+      </c>
+      <c r="ET55" s="115" t="s">
+        <v>2492</v>
+      </c>
+      <c r="EU55" s="115" t="s">
+        <v>2508</v>
+      </c>
+      <c r="EV55" s="115" t="s">
+        <v>2523</v>
+      </c>
+      <c r="EW55" s="115" t="s">
+        <v>2541</v>
+      </c>
     </row>
-    <row r="56" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="202"/>
+      <c r="B56" s="217"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -31486,12 +36767,93 @@
       <c r="DV56" s="105" t="s">
         <v>2115</v>
       </c>
+      <c r="DW56" s="160" t="s">
+        <v>2188</v>
+      </c>
+      <c r="DX56" s="160" t="s">
+        <v>2205</v>
+      </c>
+      <c r="DY56" s="160" t="s">
+        <v>2223</v>
+      </c>
+      <c r="DZ56" s="160" t="s">
+        <v>2236</v>
+      </c>
+      <c r="EA56" s="160" t="s">
+        <v>2249</v>
+      </c>
+      <c r="EB56" s="189" t="s">
+        <v>2259</v>
+      </c>
+      <c r="EC56" s="160" t="s">
+        <v>2275</v>
+      </c>
+      <c r="ED56" s="160" t="s">
+        <v>2290</v>
+      </c>
+      <c r="EE56" s="160" t="s">
+        <v>2290</v>
+      </c>
+      <c r="EF56" s="160" t="s">
+        <v>2304</v>
+      </c>
+      <c r="EG56" s="160" t="s">
+        <v>2304</v>
+      </c>
+      <c r="EH56" s="115" t="s">
+        <v>2006</v>
+      </c>
+      <c r="EI56" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EJ56" s="188" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EK56" s="156" t="s">
+        <v>2360</v>
+      </c>
+      <c r="EL56" s="188" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EM56" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EN56" s="219" t="s">
+        <v>2406</v>
+      </c>
+      <c r="EO56" s="115" t="s">
+        <v>2420</v>
+      </c>
+      <c r="EP56" s="115" t="s">
+        <v>2436</v>
+      </c>
+      <c r="EQ56" s="115" t="s">
+        <v>2451</v>
+      </c>
+      <c r="ER56" s="170" t="s">
+        <v>2465</v>
+      </c>
+      <c r="ES56" s="115" t="s">
+        <v>2205</v>
+      </c>
+      <c r="ET56" s="115" t="s">
+        <v>2493</v>
+      </c>
+      <c r="EU56" s="220" t="s">
+        <v>2509</v>
+      </c>
+      <c r="EV56" s="220" t="s">
+        <v>2524</v>
+      </c>
+      <c r="EW56" s="170" t="s">
+        <v>2541</v>
+      </c>
     </row>
-    <row r="57" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="202"/>
+      <c r="B57" s="217"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -31864,12 +37226,93 @@
       <c r="DV57" s="105" t="s">
         <v>1980</v>
       </c>
+      <c r="DW57" s="115" t="s">
+        <v>2189</v>
+      </c>
+      <c r="DX57" s="115" t="s">
+        <v>2206</v>
+      </c>
+      <c r="DY57" s="115" t="s">
+        <v>2206</v>
+      </c>
+      <c r="DZ57" s="115" t="s">
+        <v>2206</v>
+      </c>
+      <c r="EA57" s="115" t="s">
+        <v>2206</v>
+      </c>
+      <c r="EB57" s="115" t="s">
+        <v>2260</v>
+      </c>
+      <c r="EC57" s="115" t="s">
+        <v>2206</v>
+      </c>
+      <c r="ED57" s="115" t="s">
+        <v>1609</v>
+      </c>
+      <c r="EE57" s="115" t="s">
+        <v>1609</v>
+      </c>
+      <c r="EF57" s="115" t="s">
+        <v>1609</v>
+      </c>
+      <c r="EG57" s="115" t="s">
+        <v>1609</v>
+      </c>
+      <c r="EH57" s="115" t="s">
+        <v>2319</v>
+      </c>
+      <c r="EI57" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EJ57" s="188" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EK57" s="156" t="s">
+        <v>2361</v>
+      </c>
+      <c r="EL57" s="188" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EM57" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EN57" s="115" t="s">
+        <v>2260</v>
+      </c>
+      <c r="EO57" s="115" t="s">
+        <v>2421</v>
+      </c>
+      <c r="EP57" s="115" t="s">
+        <v>2421</v>
+      </c>
+      <c r="EQ57" s="115" t="s">
+        <v>2452</v>
+      </c>
+      <c r="ER57" s="115" t="s">
+        <v>2466</v>
+      </c>
+      <c r="ES57" s="115" t="s">
+        <v>2206</v>
+      </c>
+      <c r="ET57" s="115" t="s">
+        <v>2421</v>
+      </c>
+      <c r="EU57" s="115" t="s">
+        <v>2510</v>
+      </c>
+      <c r="EV57" s="115" t="s">
+        <v>2525</v>
+      </c>
+      <c r="EW57" s="115" t="s">
+        <v>2542</v>
+      </c>
     </row>
-    <row r="58" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="202"/>
+      <c r="B58" s="217"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -32213,12 +37656,93 @@
       <c r="DV58" s="171" t="s">
         <v>2114</v>
       </c>
+      <c r="DW58" s="115" t="s">
+        <v>2190</v>
+      </c>
+      <c r="DX58" s="115" t="s">
+        <v>2205</v>
+      </c>
+      <c r="DY58" s="160" t="s">
+        <v>2223</v>
+      </c>
+      <c r="DZ58" s="160" t="s">
+        <v>2236</v>
+      </c>
+      <c r="EA58" s="160" t="s">
+        <v>2249</v>
+      </c>
+      <c r="EB58" s="189" t="s">
+        <v>2259</v>
+      </c>
+      <c r="EC58" s="160" t="s">
+        <v>2276</v>
+      </c>
+      <c r="ED58" s="160" t="s">
+        <v>2290</v>
+      </c>
+      <c r="EE58" s="160" t="s">
+        <v>2290</v>
+      </c>
+      <c r="EF58" s="115" t="s">
+        <v>2304</v>
+      </c>
+      <c r="EG58" s="115" t="s">
+        <v>2304</v>
+      </c>
+      <c r="EH58" s="115" t="s">
+        <v>2006</v>
+      </c>
+      <c r="EI58" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EJ58" s="188" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EK58" s="156" t="s">
+        <v>2362</v>
+      </c>
+      <c r="EL58" s="188" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EM58" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EN58" s="219" t="s">
+        <v>2406</v>
+      </c>
+      <c r="EO58" s="115" t="s">
+        <v>2422</v>
+      </c>
+      <c r="EP58" s="115" t="s">
+        <v>2436</v>
+      </c>
+      <c r="EQ58" s="115" t="s">
+        <v>2451</v>
+      </c>
+      <c r="ER58" s="170" t="s">
+        <v>2465</v>
+      </c>
+      <c r="ES58" s="115" t="s">
+        <v>2205</v>
+      </c>
+      <c r="ET58" s="115" t="s">
+        <v>2493</v>
+      </c>
+      <c r="EU58" s="220" t="s">
+        <v>2509</v>
+      </c>
+      <c r="EV58" s="220" t="s">
+        <v>2526</v>
+      </c>
+      <c r="EW58" s="222" t="s">
+        <v>2541</v>
+      </c>
     </row>
-    <row r="59" spans="1:126" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="202"/>
+      <c r="B59" s="217"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -32591,12 +38115,93 @@
       <c r="DV59" t="s">
         <v>2113</v>
       </c>
+      <c r="DW59" s="115" t="s">
+        <v>2190</v>
+      </c>
+      <c r="DX59" s="115" t="s">
+        <v>2205</v>
+      </c>
+      <c r="DY59" s="189" t="s">
+        <v>2223</v>
+      </c>
+      <c r="DZ59" s="160" t="s">
+        <v>2236</v>
+      </c>
+      <c r="EA59" s="160" t="s">
+        <v>2249</v>
+      </c>
+      <c r="EB59" s="189" t="s">
+        <v>2259</v>
+      </c>
+      <c r="EC59" s="160" t="s">
+        <v>2276</v>
+      </c>
+      <c r="ED59" s="160" t="s">
+        <v>2290</v>
+      </c>
+      <c r="EE59" s="160" t="s">
+        <v>2290</v>
+      </c>
+      <c r="EF59" s="115" t="s">
+        <v>2304</v>
+      </c>
+      <c r="EG59" s="115" t="s">
+        <v>2304</v>
+      </c>
+      <c r="EH59" s="115" t="s">
+        <v>2006</v>
+      </c>
+      <c r="EI59" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EJ59" s="188" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EK59" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EL59" s="188" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EM59" s="156" t="s">
+        <v>2334</v>
+      </c>
+      <c r="EN59" s="219" t="s">
+        <v>2406</v>
+      </c>
+      <c r="EO59" s="115" t="s">
+        <v>2422</v>
+      </c>
+      <c r="EP59" s="115" t="s">
+        <v>2436</v>
+      </c>
+      <c r="EQ59" s="115" t="s">
+        <v>2451</v>
+      </c>
+      <c r="ER59" s="170" t="s">
+        <v>2465</v>
+      </c>
+      <c r="ES59" s="115" t="s">
+        <v>2205</v>
+      </c>
+      <c r="ET59" s="115" t="s">
+        <v>2493</v>
+      </c>
+      <c r="EU59" s="220" t="s">
+        <v>2509</v>
+      </c>
+      <c r="EV59" s="220" t="s">
+        <v>2526</v>
+      </c>
+      <c r="EW59" s="170" t="s">
+        <v>2541</v>
+      </c>
     </row>
-    <row r="60" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="202"/>
+      <c r="B60" s="217"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -32969,12 +38574,93 @@
       <c r="DV60" s="105">
         <v>1</v>
       </c>
+      <c r="DW60" s="187">
+        <v>1</v>
+      </c>
+      <c r="DX60" s="187">
+        <v>1</v>
+      </c>
+      <c r="DY60" s="187">
+        <v>1</v>
+      </c>
+      <c r="DZ60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EA60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EB60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EC60" s="187">
+        <v>1</v>
+      </c>
+      <c r="ED60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EE60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EF60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EG60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EH60" s="65">
+        <v>1</v>
+      </c>
+      <c r="EI60" s="191">
+        <v>1</v>
+      </c>
+      <c r="EJ60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EK60" s="191">
+        <v>1</v>
+      </c>
+      <c r="EL60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EM60" s="191">
+        <v>1</v>
+      </c>
+      <c r="EN60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EO60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EP60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EQ60" s="187">
+        <v>1</v>
+      </c>
+      <c r="ER60" s="65">
+        <v>1</v>
+      </c>
+      <c r="ES60" s="187">
+        <v>1</v>
+      </c>
+      <c r="ET60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EU60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EV60" s="187">
+        <v>1</v>
+      </c>
+      <c r="EW60" s="65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:126" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:153" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="203" t="s">
+      <c r="B61" s="218" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -33347,12 +39033,93 @@
       <c r="DV61" s="173">
         <v>45628</v>
       </c>
+      <c r="DW61" s="158">
+        <v>45690</v>
+      </c>
+      <c r="DX61" s="158">
+        <v>45690</v>
+      </c>
+      <c r="DY61" s="158">
+        <v>45730</v>
+      </c>
+      <c r="DZ61" s="158">
+        <v>45336</v>
+      </c>
+      <c r="EA61" s="158">
+        <v>45730</v>
+      </c>
+      <c r="EB61" s="158">
+        <v>45730</v>
+      </c>
+      <c r="EC61" s="158">
+        <v>45720</v>
+      </c>
+      <c r="ED61" s="158">
+        <v>45696</v>
+      </c>
+      <c r="EE61" s="158">
+        <v>45696</v>
+      </c>
+      <c r="EF61" s="158">
+        <v>45695</v>
+      </c>
+      <c r="EG61" s="158">
+        <v>45695</v>
+      </c>
+      <c r="EH61" s="158">
+        <v>45718</v>
+      </c>
+      <c r="EI61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="EJ61" s="195">
+        <v>45413</v>
+      </c>
+      <c r="EK61" s="156" t="s">
+        <v>2363</v>
+      </c>
+      <c r="EL61" s="195">
+        <v>45413</v>
+      </c>
+      <c r="EM61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="EN61" s="158">
+        <v>45730</v>
+      </c>
+      <c r="EO61" s="158">
+        <v>45701</v>
+      </c>
+      <c r="EP61" s="158">
+        <v>45701</v>
+      </c>
+      <c r="EQ61" s="158">
+        <v>45717</v>
+      </c>
+      <c r="ER61" s="158">
+        <v>45633</v>
+      </c>
+      <c r="ES61" s="158">
+        <v>45633</v>
+      </c>
+      <c r="ET61" s="158">
+        <v>45720</v>
+      </c>
+      <c r="EU61" s="158">
+        <v>45616</v>
+      </c>
+      <c r="EV61" s="158">
+        <v>45728</v>
+      </c>
+      <c r="EW61" s="158">
+        <v>45727</v>
+      </c>
     </row>
-    <row r="62" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="203"/>
+      <c r="B62" s="218"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -33725,12 +39492,93 @@
       <c r="DV62" s="173">
         <v>45628</v>
       </c>
+      <c r="DW62" s="158">
+        <v>45690</v>
+      </c>
+      <c r="DX62" s="158">
+        <v>45690</v>
+      </c>
+      <c r="DY62" s="158">
+        <v>45730</v>
+      </c>
+      <c r="DZ62" s="158">
+        <v>45336</v>
+      </c>
+      <c r="EA62" s="158">
+        <v>45730</v>
+      </c>
+      <c r="EB62" s="158">
+        <v>45730</v>
+      </c>
+      <c r="EC62" s="158">
+        <v>45720</v>
+      </c>
+      <c r="ED62" s="158">
+        <v>45696</v>
+      </c>
+      <c r="EE62" s="158">
+        <v>45696</v>
+      </c>
+      <c r="EF62" s="158">
+        <v>45695</v>
+      </c>
+      <c r="EG62" s="158">
+        <v>45695</v>
+      </c>
+      <c r="EH62" s="158">
+        <v>45718</v>
+      </c>
+      <c r="EI62" s="193">
+        <v>45709</v>
+      </c>
+      <c r="EJ62" s="196">
+        <v>45709</v>
+      </c>
+      <c r="EK62" s="193">
+        <v>45709</v>
+      </c>
+      <c r="EL62" s="196">
+        <v>45709</v>
+      </c>
+      <c r="EM62" s="193">
+        <v>45709</v>
+      </c>
+      <c r="EN62" s="158">
+        <v>45730</v>
+      </c>
+      <c r="EO62" s="158">
+        <v>45701</v>
+      </c>
+      <c r="EP62" s="158">
+        <v>45701</v>
+      </c>
+      <c r="EQ62" s="158">
+        <v>45717</v>
+      </c>
+      <c r="ER62" s="158">
+        <v>45633</v>
+      </c>
+      <c r="ES62" s="158">
+        <v>45633</v>
+      </c>
+      <c r="ET62" s="158">
+        <v>45720</v>
+      </c>
+      <c r="EU62" s="158">
+        <v>45631</v>
+      </c>
+      <c r="EV62" s="158">
+        <v>45728</v>
+      </c>
+      <c r="EW62" s="158">
+        <v>45727</v>
+      </c>
     </row>
-    <row r="63" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="203"/>
+      <c r="B63" s="218"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -34103,12 +39951,93 @@
       <c r="DV63" s="105" t="s">
         <v>30</v>
       </c>
+      <c r="DW63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="DX63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="DY63" s="115" t="s">
+        <v>2224</v>
+      </c>
+      <c r="DZ63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="EA63" s="115" t="s">
+        <v>2224</v>
+      </c>
+      <c r="EB63" s="115" t="s">
+        <v>2224</v>
+      </c>
+      <c r="EC63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="ED63" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EE63" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EF63" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EG63" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EH63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="EI63" s="190" t="s">
+        <v>2335</v>
+      </c>
+      <c r="EJ63" s="115" t="s">
+        <v>2335</v>
+      </c>
+      <c r="EK63" s="156" t="s">
+        <v>2364</v>
+      </c>
+      <c r="EL63" s="115" t="s">
+        <v>2335</v>
+      </c>
+      <c r="EM63" s="156" t="s">
+        <v>2391</v>
+      </c>
+      <c r="EN63" s="115" t="s">
+        <v>2224</v>
+      </c>
+      <c r="EO63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="EP63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="EQ63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="ER63" s="115" t="s">
+        <v>2467</v>
+      </c>
+      <c r="ES63" s="115" t="s">
+        <v>2467</v>
+      </c>
+      <c r="ET63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="EU63" s="115" t="s">
+        <v>2088</v>
+      </c>
+      <c r="EV63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="EW63" s="115" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="64" spans="1:126" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="203"/>
+      <c r="B64" s="218"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -34481,12 +40410,93 @@
       <c r="DV64" s="105" t="s">
         <v>2116</v>
       </c>
+      <c r="DW64" s="115" t="s">
+        <v>2189</v>
+      </c>
+      <c r="DX64" s="115" t="s">
+        <v>1646</v>
+      </c>
+      <c r="DY64" s="115" t="s">
+        <v>1646</v>
+      </c>
+      <c r="DZ64" s="115" t="s">
+        <v>1646</v>
+      </c>
+      <c r="EA64" s="115" t="s">
+        <v>1646</v>
+      </c>
+      <c r="EB64" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="EC64" s="115" t="s">
+        <v>1646</v>
+      </c>
+      <c r="ED64" s="115" t="s">
+        <v>2291</v>
+      </c>
+      <c r="EE64" s="115" t="s">
+        <v>2291</v>
+      </c>
+      <c r="EF64" s="115" t="s">
+        <v>2291</v>
+      </c>
+      <c r="EG64" s="115" t="s">
+        <v>2309</v>
+      </c>
+      <c r="EH64" s="115" t="s">
+        <v>2320</v>
+      </c>
+      <c r="EI64" s="69" t="s">
+        <v>2336</v>
+      </c>
+      <c r="EJ64" s="188" t="s">
+        <v>2336</v>
+      </c>
+      <c r="EK64" s="156" t="s">
+        <v>2336</v>
+      </c>
+      <c r="EL64" s="188" t="s">
+        <v>2336</v>
+      </c>
+      <c r="EM64" s="156" t="s">
+        <v>2336</v>
+      </c>
+      <c r="EN64" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="EO64" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="EP64" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="EQ64" s="115" t="s">
+        <v>1646</v>
+      </c>
+      <c r="ER64" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="ES64" s="115" t="s">
+        <v>2479</v>
+      </c>
+      <c r="ET64" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="EU64" s="115" t="s">
+        <v>2511</v>
+      </c>
+      <c r="EV64" s="115" t="s">
+        <v>2527</v>
+      </c>
+      <c r="EW64" s="115" t="s">
+        <v>2543</v>
+      </c>
     </row>
-    <row r="65" spans="1:145" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:153" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="203"/>
+      <c r="B65" s="218"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -34591,12 +40601,85 @@
       <c r="DT65" s="173">
         <v>45611</v>
       </c>
+      <c r="DW65" s="170"/>
+      <c r="DX65" s="170"/>
+      <c r="DY65" s="158">
+        <v>45730</v>
+      </c>
+      <c r="DZ65" s="170"/>
+      <c r="EA65" s="158">
+        <v>45730</v>
+      </c>
+      <c r="EB65" s="158">
+        <v>45730</v>
+      </c>
+      <c r="EC65" s="170"/>
+      <c r="ED65" s="158">
+        <v>45696</v>
+      </c>
+      <c r="EE65" s="158">
+        <v>45696</v>
+      </c>
+      <c r="EF65" s="158">
+        <v>45695</v>
+      </c>
+      <c r="EG65" s="158">
+        <v>45695</v>
+      </c>
+      <c r="EH65" s="158">
+        <v>45718</v>
+      </c>
+      <c r="EI65" s="193">
+        <v>45719</v>
+      </c>
+      <c r="EJ65" s="196">
+        <v>45723</v>
+      </c>
+      <c r="EK65" s="193">
+        <v>45719</v>
+      </c>
+      <c r="EL65" s="196">
+        <v>45729</v>
+      </c>
+      <c r="EM65" s="193">
+        <v>45718</v>
+      </c>
+      <c r="EN65" s="158">
+        <v>45730</v>
+      </c>
+      <c r="EO65" s="158">
+        <v>45701</v>
+      </c>
+      <c r="EP65" s="158">
+        <v>45701</v>
+      </c>
+      <c r="EQ65" s="158">
+        <v>45717</v>
+      </c>
+      <c r="ER65" s="158">
+        <v>45690</v>
+      </c>
+      <c r="ES65" s="158">
+        <v>45690</v>
+      </c>
+      <c r="ET65" s="158">
+        <v>45720</v>
+      </c>
+      <c r="EU65" s="158">
+        <v>45631</v>
+      </c>
+      <c r="EV65" s="158">
+        <v>45728</v>
+      </c>
+      <c r="EW65" s="158">
+        <v>45727</v>
+      </c>
     </row>
-    <row r="66" spans="1:145" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="203"/>
+      <c r="B66" s="218"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -34701,12 +40784,84 @@
       <c r="DT66" s="105" t="s">
         <v>30</v>
       </c>
+      <c r="DX66" s="170"/>
+      <c r="DY66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="DZ66" s="170"/>
+      <c r="EA66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EB66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EC66" s="170"/>
+      <c r="ED66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EE66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EF66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EG66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EH66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EI66" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="EJ66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EK66" s="157" t="s">
+        <v>30</v>
+      </c>
+      <c r="EL66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EM66" s="157" t="s">
+        <v>30</v>
+      </c>
+      <c r="EN66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EO66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EP66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EQ66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="ER66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="ES66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="ET66" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="EU66" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="EV66" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="EW66" s="115" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="67" spans="1:145" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="203"/>
+      <c r="B67" s="218"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -34764,12 +40919,47 @@
       </c>
       <c r="DS67" s="105"/>
       <c r="DT67" s="105"/>
+      <c r="DY67" s="170"/>
+      <c r="EA67" s="170"/>
+      <c r="EB67" s="170"/>
+      <c r="ED67" s="170" t="s">
+        <v>2292</v>
+      </c>
+      <c r="EE67" s="170" t="s">
+        <v>2292</v>
+      </c>
+      <c r="EF67" s="170" t="s">
+        <v>2292</v>
+      </c>
+      <c r="EG67" s="170" t="s">
+        <v>2292</v>
+      </c>
+      <c r="EH67" s="170"/>
+      <c r="EI67" s="194"/>
+      <c r="EJ67" s="170"/>
+      <c r="EK67" s="157"/>
+      <c r="EL67" s="157"/>
+      <c r="EM67" s="157"/>
+      <c r="EN67" s="170"/>
+      <c r="EO67" s="170"/>
+      <c r="EP67" s="170"/>
+      <c r="EQ67" s="170"/>
+      <c r="ER67" s="170" t="s">
+        <v>2292</v>
+      </c>
+      <c r="ES67" s="170" t="s">
+        <v>2292</v>
+      </c>
+      <c r="ET67" s="170"/>
+      <c r="EU67" s="221"/>
+      <c r="EV67" s="221"/>
+      <c r="EW67" s="170"/>
     </row>
-    <row r="68" spans="1:145" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="193" t="s">
+      <c r="B68" s="208" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -34806,12 +40996,32 @@
         <v>2091</v>
       </c>
       <c r="DS68" s="105"/>
+      <c r="DY68" s="170"/>
+      <c r="EA68" s="170"/>
+      <c r="EB68" s="170"/>
+      <c r="ED68" s="157"/>
+      <c r="EE68" s="157"/>
+      <c r="EF68" s="157"/>
+      <c r="EG68" s="157"/>
+      <c r="EH68" s="170"/>
+      <c r="EI68" s="194"/>
+      <c r="EK68" s="157"/>
+      <c r="EL68" s="157"/>
+      <c r="EM68" s="157"/>
+      <c r="EN68" s="170"/>
+      <c r="EO68" s="170"/>
+      <c r="EQ68" s="170"/>
+      <c r="ER68" s="170"/>
+      <c r="ES68" s="170"/>
+      <c r="EU68" s="221"/>
+      <c r="EV68" s="221"/>
+      <c r="EW68" s="170"/>
     </row>
-    <row r="69" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="193"/>
+      <c r="B69" s="208"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -34841,12 +41051,24 @@
       <c r="BZ69" s="157"/>
       <c r="DO69" s="24"/>
       <c r="DS69" s="105"/>
+      <c r="DY69" s="170"/>
+      <c r="EA69" s="170"/>
+      <c r="ED69" s="157"/>
+      <c r="EE69" s="157"/>
+      <c r="EF69" s="157"/>
+      <c r="EG69" s="157"/>
+      <c r="EH69" s="170"/>
+      <c r="EN69" s="170"/>
+      <c r="EO69" s="170"/>
+      <c r="EQ69" s="170"/>
+      <c r="ER69" s="170"/>
+      <c r="EV69" s="221"/>
     </row>
-    <row r="70" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="193"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -34874,12 +41096,17 @@
       <c r="BY70" s="157"/>
       <c r="BZ70" s="157"/>
       <c r="DO70" s="24"/>
+      <c r="EE70" s="157"/>
+      <c r="EF70" s="157"/>
+      <c r="EG70" s="157"/>
+      <c r="EN70" s="170"/>
+      <c r="ER70" s="170"/>
     </row>
-    <row r="71" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:153" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="193"/>
+      <c r="B71" s="208"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -34906,12 +41133,14 @@
       <c r="BX71" s="157"/>
       <c r="BY71" s="157"/>
       <c r="BZ71" s="157"/>
+      <c r="EF71" s="157"/>
+      <c r="ER71" s="170"/>
     </row>
-    <row r="72" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:153" x14ac:dyDescent="0.4">
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="194"/>
+      <c r="B72" s="209"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -34939,7 +41168,7 @@
       <c r="BY72" s="159"/>
       <c r="BZ72" s="159"/>
     </row>
-    <row r="73" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:153" x14ac:dyDescent="0.4">
       <c r="U73" s="12"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="49"/>
@@ -34961,7 +41190,7 @@
       <c r="BY73" s="90"/>
       <c r="BZ73" s="90"/>
     </row>
-    <row r="74" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:153" x14ac:dyDescent="0.4">
       <c r="A74" s="37"/>
       <c r="D74" s="37"/>
       <c r="E74" s="105"/>
@@ -35629,7 +41858,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="210" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -35798,7 +42027,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="196"/>
+      <c r="B5" s="211"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -36130,7 +42359,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="212" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -36297,7 +42526,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="197"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -36464,7 +42693,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="197"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -36631,7 +42860,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="197"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -36798,7 +43027,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="213" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -36965,7 +43194,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="199"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -37130,7 +43359,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="199"/>
+      <c r="B13" s="214"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -37295,7 +43524,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="199"/>
+      <c r="B14" s="214"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -37460,7 +43689,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="199"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -37625,7 +43854,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="199"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -37790,7 +44019,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="199"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -37955,7 +44184,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="199"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -38120,7 +44349,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="199"/>
+      <c r="B19" s="214"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -38285,7 +44514,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="199"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -38450,7 +44679,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="200" t="s">
+      <c r="B21" s="215" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -38658,7 +44887,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="200"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -38866,7 +45095,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="200"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -39033,7 +45262,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="200"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -39200,7 +45429,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="200"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -39365,7 +45594,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="201" t="s">
+      <c r="B26" s="216" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -39534,7 +45763,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="201"/>
+      <c r="B27" s="216"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -39701,7 +45930,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="201"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -39866,7 +46095,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="201"/>
+      <c r="B29" s="216"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -40031,7 +46260,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="201"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -40196,7 +46425,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="201"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -40361,7 +46590,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="201"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -40526,7 +46755,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="201"/>
+      <c r="B33" s="216"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -40691,7 +46920,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="201"/>
+      <c r="B34" s="216"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -40856,7 +47085,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="201"/>
+      <c r="B35" s="216"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -41021,7 +47250,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="201"/>
+      <c r="B36" s="216"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -41186,7 +47415,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="201"/>
+      <c r="B37" s="216"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -41351,7 +47580,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="201"/>
+      <c r="B38" s="216"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -41516,7 +47745,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="201"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -41681,7 +47910,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="201"/>
+      <c r="B40" s="216"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -41846,7 +48075,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="201"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -42011,7 +48240,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="201"/>
+      <c r="B42" s="216"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -42176,7 +48405,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="201"/>
+      <c r="B43" s="216"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -42341,7 +48570,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="201"/>
+      <c r="B44" s="216"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -42506,7 +48735,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="201"/>
+      <c r="B45" s="216"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -42671,7 +48900,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="201"/>
+      <c r="B46" s="216"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -42836,7 +49065,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="201"/>
+      <c r="B47" s="216"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -43001,7 +49230,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="201"/>
+      <c r="B48" s="216"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -43166,7 +49395,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="201"/>
+      <c r="B49" s="216"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -43331,7 +49560,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="201"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -43498,7 +49727,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="201"/>
+      <c r="B51" s="216"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -43665,7 +49894,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="201"/>
+      <c r="B52" s="216"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -43832,7 +50061,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="202" t="s">
+      <c r="B53" s="217" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -44001,7 +50230,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="202"/>
+      <c r="B54" s="217"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -44168,7 +50397,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="202"/>
+      <c r="B55" s="217"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -44335,7 +50564,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="202"/>
+      <c r="B56" s="217"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -44500,7 +50729,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="202"/>
+      <c r="B57" s="217"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -44667,7 +50896,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B58" s="202"/>
+      <c r="B58" s="217"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -44832,7 +51061,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="202"/>
+      <c r="B59" s="217"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -44999,7 +51228,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B60" s="202"/>
+      <c r="B60" s="217"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -45166,7 +51395,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="203" t="s">
+      <c r="B61" s="218" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -45333,7 +51562,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="203"/>
+      <c r="B62" s="218"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -45500,7 +51729,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="203"/>
+      <c r="B63" s="218"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -45667,7 +51896,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="203"/>
+      <c r="B64" s="218"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -45834,7 +52063,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="203"/>
+      <c r="B65" s="218"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -45851,7 +52080,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="203"/>
+      <c r="B66" s="218"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -45870,7 +52099,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="203"/>
+      <c r="B67" s="218"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -45889,7 +52118,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B68" s="193" t="s">
+      <c r="B68" s="208" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -45899,7 +52128,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B69" s="193"/>
+      <c r="B69" s="208"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -45907,7 +52136,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B70" s="193"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -45915,7 +52144,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B71" s="193"/>
+      <c r="B71" s="208"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -45927,7 +52156,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B72" s="194"/>
+      <c r="B72" s="209"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -46507,7 +52736,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="210" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -46587,7 +52816,7 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="196"/>
+      <c r="B5" s="211"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -46741,7 +52970,7 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="212" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -46819,7 +53048,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="197"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -46897,7 +53126,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="197"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -46975,7 +53204,7 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="197"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -47053,7 +53282,7 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="213" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -47131,7 +53360,7 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="199"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -47207,7 +53436,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="199"/>
+      <c r="B13" s="214"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -47283,7 +53512,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="199"/>
+      <c r="B14" s="214"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -47359,7 +53588,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="199"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -47435,7 +53664,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="199"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -47511,7 +53740,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="199"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -47587,7 +53816,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="199"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -47663,7 +53892,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="199"/>
+      <c r="B19" s="214"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -47739,7 +53968,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="199"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -47815,7 +54044,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="200" t="s">
+      <c r="B21" s="215" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -47893,7 +54122,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="200"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -47971,7 +54200,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="200"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -48049,7 +54278,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B24" s="200"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -48127,7 +54356,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="200"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -48203,7 +54432,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B26" s="201" t="s">
+      <c r="B26" s="216" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -48283,7 +54512,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="201"/>
+      <c r="B27" s="216"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -48361,7 +54590,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="201"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -48437,7 +54666,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="201"/>
+      <c r="B29" s="216"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -48513,7 +54742,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="201"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -48589,7 +54818,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="201"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -48665,7 +54894,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="201"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -48741,7 +54970,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="201"/>
+      <c r="B33" s="216"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -48817,7 +55046,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="201"/>
+      <c r="B34" s="216"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -48893,7 +55122,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="201"/>
+      <c r="B35" s="216"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -48969,7 +55198,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="201"/>
+      <c r="B36" s="216"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -49045,7 +55274,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="201"/>
+      <c r="B37" s="216"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -49121,7 +55350,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="201"/>
+      <c r="B38" s="216"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -49197,7 +55426,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="201"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -49273,7 +55502,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="201"/>
+      <c r="B40" s="216"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -49349,7 +55578,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="201"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -49425,7 +55654,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="201"/>
+      <c r="B42" s="216"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -49501,7 +55730,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="201"/>
+      <c r="B43" s="216"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -49577,7 +55806,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="201"/>
+      <c r="B44" s="216"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -49653,7 +55882,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="201"/>
+      <c r="B45" s="216"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -49729,7 +55958,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="201"/>
+      <c r="B46" s="216"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -49805,7 +56034,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="201"/>
+      <c r="B47" s="216"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -49881,7 +56110,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="201"/>
+      <c r="B48" s="216"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -49957,7 +56186,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="201"/>
+      <c r="B49" s="216"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -50033,7 +56262,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="201"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -50111,7 +56340,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="201"/>
+      <c r="B51" s="216"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -50189,7 +56418,7 @@
       </c>
     </row>
     <row r="52" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="201"/>
+      <c r="B52" s="216"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -50267,7 +56496,7 @@
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B53" s="202" t="s">
+      <c r="B53" s="217" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -50347,7 +56576,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="202"/>
+      <c r="B54" s="217"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -50425,7 +56654,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="202"/>
+      <c r="B55" s="217"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -50503,7 +56732,7 @@
       </c>
     </row>
     <row r="56" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="202"/>
+      <c r="B56" s="217"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -50579,7 +56808,7 @@
       </c>
     </row>
     <row r="57" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="202"/>
+      <c r="B57" s="217"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -50657,7 +56886,7 @@
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B58" s="202"/>
+      <c r="B58" s="217"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -50733,7 +56962,7 @@
       </c>
     </row>
     <row r="59" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="202"/>
+      <c r="B59" s="217"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -50811,7 +57040,7 @@
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B60" s="202"/>
+      <c r="B60" s="217"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -50889,7 +57118,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B61" s="203" t="s">
+      <c r="B61" s="218" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -50967,7 +57196,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="203"/>
+      <c r="B62" s="218"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -51045,7 +57274,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="203"/>
+      <c r="B63" s="218"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -51123,7 +57352,7 @@
       </c>
     </row>
     <row r="64" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="203"/>
+      <c r="B64" s="218"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -51201,7 +57430,7 @@
       </c>
     </row>
     <row r="65" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="203"/>
+      <c r="B65" s="218"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -51231,7 +57460,7 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="203"/>
+      <c r="B66" s="218"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -51261,7 +57490,7 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="203"/>
+      <c r="B67" s="218"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -51291,7 +57520,7 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B68" s="193" t="s">
+      <c r="B68" s="208" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -51312,7 +57541,7 @@
       <c r="Q68" s="105"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B69" s="193"/>
+      <c r="B69" s="208"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -51331,7 +57560,7 @@
       <c r="Q69" s="105"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B70" s="193"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -51350,7 +57579,7 @@
       <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B71" s="193"/>
+      <c r="B71" s="208"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -51369,7 +57598,7 @@
       <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B72" s="194"/>
+      <c r="B72" s="209"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_content_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A65652-BFE7-4BFD-9BC6-04C47D25263B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C41E91-0665-48DF-92D3-FADDDC3F6D9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12453" uniqueCount="2573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12483" uniqueCount="2573">
   <si>
     <t>Description</t>
   </si>
@@ -7742,7 +7742,7 @@
     <t>3_MC_nonresidential_buildings_Germany_per_volume_IOER</t>
   </si>
   <si>
-    <t>dataset entry created, data still need to be uploaded</t>
+    <t>dataset entry created, data uploaded on March 17, 2025.</t>
   </si>
 </sst>
 </file>
@@ -7884,7 +7884,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7948,12 +7948,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8140,7 +8134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -8474,7 +8468,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8882,7 +8875,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="203" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -8914,7 +8907,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="204"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -8944,7 +8937,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="204" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -8960,7 +8953,7 @@
       <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="205"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -8974,7 +8967,7 @@
       <c r="K7" s="121"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="205"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -8988,7 +8981,7 @@
       <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="205"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -9002,7 +8995,7 @@
       <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="205"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -9016,7 +9009,7 @@
       <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="205"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -9030,7 +9023,7 @@
       <c r="K11" s="121"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="205"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -9044,7 +9037,7 @@
       <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="205"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -9058,7 +9051,7 @@
       <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="205"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -9072,7 +9065,7 @@
       <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="205"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -9086,7 +9079,7 @@
       <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="205"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -9100,7 +9093,7 @@
       <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="205"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -9114,7 +9107,7 @@
       <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="205"/>
+      <c r="B18" s="204"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -9128,7 +9121,7 @@
       <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="206" t="s">
+      <c r="B19" s="205" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -9156,7 +9149,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="206"/>
+      <c r="B20" s="205"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -9186,7 +9179,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="206"/>
+      <c r="B21" s="205"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -9212,7 +9205,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="207" t="s">
+      <c r="B22" s="206" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -9242,7 +9235,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="207"/>
+      <c r="B23" s="206"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -9256,7 +9249,7 @@
       <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="207"/>
+      <c r="B24" s="206"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -9270,7 +9263,7 @@
       <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="207"/>
+      <c r="B25" s="206"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -9296,7 +9289,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="207"/>
+      <c r="B26" s="206"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -9312,7 +9305,7 @@
       <c r="K26" s="121"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="207"/>
+      <c r="B27" s="206"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -9326,7 +9319,7 @@
       <c r="K27" s="121"/>
     </row>
     <row r="28" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="208" t="s">
+      <c r="B28" s="207" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -9358,7 +9351,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="208"/>
+      <c r="B29" s="207"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -9388,7 +9381,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="201" t="s">
+      <c r="B30" s="200" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -9404,7 +9397,7 @@
       <c r="K30" s="181"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="202"/>
+      <c r="B31" s="201"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -9418,7 +9411,7 @@
       <c r="K31" s="164"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B32" s="203"/>
+      <c r="B32" s="202"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -9448,11 +9441,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S38" sqref="S38"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -9566,7 +9559,7 @@
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="208" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -9649,7 +9642,7 @@
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B5" s="210"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -9890,7 +9883,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="204" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -9971,7 +9964,7 @@
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="205"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -10050,7 +10043,7 @@
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B10" s="205"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -10129,7 +10122,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="205"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -10208,7 +10201,7 @@
       </c>
     </row>
     <row r="12" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="205"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -10287,7 +10280,7 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="205"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -10366,7 +10359,7 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="205"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -10445,7 +10438,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="205"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -10524,7 +10517,7 @@
       </c>
     </row>
     <row r="16" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="205"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -10603,7 +10596,7 @@
       </c>
     </row>
     <row r="17" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="205"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -10682,7 +10675,7 @@
       </c>
     </row>
     <row r="18" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="205"/>
+      <c r="B18" s="204"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -10761,7 +10754,7 @@
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B19" s="205"/>
+      <c r="B19" s="204"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -10840,7 +10833,7 @@
       </c>
     </row>
     <row r="20" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="205"/>
+      <c r="B20" s="204"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -10919,7 +10912,7 @@
       </c>
     </row>
     <row r="21" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="206" t="s">
+      <c r="B21" s="205" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -11000,7 +10993,7 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="206"/>
+      <c r="B22" s="205"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -11081,7 +11074,7 @@
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B23" s="206"/>
+      <c r="B23" s="205"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
@@ -11160,7 +11153,7 @@
       </c>
     </row>
     <row r="24" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="206"/>
+      <c r="B24" s="205"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -11239,7 +11232,7 @@
       </c>
     </row>
     <row r="25" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="207" t="s">
+      <c r="B25" s="206" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -11320,7 +11313,7 @@
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B26" s="207"/>
+      <c r="B26" s="206"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -11399,7 +11392,7 @@
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B27" s="207"/>
+      <c r="B27" s="206"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -11478,7 +11471,7 @@
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B28" s="207"/>
+      <c r="B28" s="206"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -11557,7 +11550,7 @@
       </c>
     </row>
     <row r="29" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="207"/>
+      <c r="B29" s="206"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -11636,7 +11629,7 @@
       </c>
     </row>
     <row r="30" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="207"/>
+      <c r="B30" s="206"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -11715,7 +11708,7 @@
       </c>
     </row>
     <row r="31" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="208" t="s">
+      <c r="B31" s="207" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -11798,7 +11791,7 @@
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B32" s="211"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -11879,7 +11872,7 @@
       </c>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B33" s="201" t="s">
+      <c r="B33" s="200" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -11912,7 +11905,7 @@
       <c r="AB33" s="164"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B34" s="202"/>
+      <c r="B34" s="201"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -11943,7 +11936,7 @@
       <c r="AB34" s="164"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B35" s="203"/>
+      <c r="B35" s="202"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -11997,11 +11990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FG74"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="DU48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="ED6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="ED5" sqref="ED5"/>
+      <selection pane="bottomRight" activeCell="FA9" sqref="FA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -12432,94 +12425,94 @@
       <c r="DV1" s="154" t="s">
         <v>2569</v>
       </c>
-      <c r="DW1" s="199" t="s">
+      <c r="DW1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="DX1" s="199" t="s">
+      <c r="DX1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="DY1" s="199" t="s">
+      <c r="DY1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="DZ1" s="199" t="s">
+      <c r="DZ1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EA1" s="199" t="s">
+      <c r="EA1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EB1" s="199" t="s">
+      <c r="EB1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EC1" s="199" t="s">
+      <c r="EC1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="ED1" s="199" t="s">
+      <c r="ED1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EE1" s="199" t="s">
+      <c r="EE1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EF1" s="199" t="s">
+      <c r="EF1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EG1" s="199" t="s">
+      <c r="EG1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EH1" s="199" t="s">
+      <c r="EH1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EI1" s="199" t="s">
+      <c r="EI1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EJ1" s="199" t="s">
+      <c r="EJ1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EK1" s="199" t="s">
+      <c r="EK1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EL1" s="199" t="s">
+      <c r="EL1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EM1" s="199" t="s">
+      <c r="EM1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EN1" s="199" t="s">
+      <c r="EN1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EO1" s="199" t="s">
+      <c r="EO1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EP1" s="199" t="s">
+      <c r="EP1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EQ1" s="199" t="s">
+      <c r="EQ1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="ER1" s="199" t="s">
+      <c r="ER1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="ES1" s="199" t="s">
+      <c r="ES1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="ET1" s="199" t="s">
+      <c r="ET1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EU1" s="199" t="s">
+      <c r="EU1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EV1" s="199" t="s">
+      <c r="EV1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EW1" s="199" t="s">
+      <c r="EW1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EX1" s="199" t="s">
+      <c r="EX1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EY1" s="199" t="s">
+      <c r="EY1" s="154" t="s">
         <v>2572</v>
       </c>
-      <c r="EZ1" s="199" t="s">
+      <c r="EZ1" s="154" t="s">
         <v>2572</v>
       </c>
     </row>
@@ -12546,31 +12539,31 @@
       <c r="BO2" s="105"/>
       <c r="BP2" s="105"/>
       <c r="BQ2" s="105"/>
-      <c r="BR2" s="200" t="s">
+      <c r="BR2" s="199" t="s">
         <v>1432</v>
       </c>
-      <c r="BS2" s="200" t="s">
+      <c r="BS2" s="199" t="s">
         <v>1432</v>
       </c>
-      <c r="BT2" s="200" t="s">
+      <c r="BT2" s="199" t="s">
         <v>1432</v>
       </c>
-      <c r="BU2" s="200" t="s">
+      <c r="BU2" s="199" t="s">
         <v>1432</v>
       </c>
-      <c r="BV2" s="200" t="s">
+      <c r="BV2" s="199" t="s">
         <v>1432</v>
       </c>
-      <c r="BW2" s="200" t="s">
+      <c r="BW2" s="199" t="s">
         <v>1432</v>
       </c>
-      <c r="BX2" s="200" t="s">
+      <c r="BX2" s="199" t="s">
         <v>1432</v>
       </c>
-      <c r="BY2" s="200" t="s">
+      <c r="BY2" s="199" t="s">
         <v>1432</v>
       </c>
-      <c r="BZ2" s="200" t="s">
+      <c r="BZ2" s="199" t="s">
         <v>1432</v>
       </c>
       <c r="CA2" s="154" t="s">
@@ -12715,6 +12708,96 @@
         <v>2568</v>
       </c>
       <c r="DV2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="DW2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="DX2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="DY2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="DZ2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EA2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EB2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EC2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="ED2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EE2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EF2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EG2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EH2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EI2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EJ2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EK2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EL2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EM2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EN2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EO2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EP2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EQ2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="ER2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="ES2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="ET2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EU2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EV2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EW2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EX2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EY2" s="154" t="s">
+        <v>2570</v>
+      </c>
+      <c r="EZ2" s="154" t="s">
         <v>2570</v>
       </c>
     </row>
@@ -12975,7 +13058,7 @@
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="213" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -13233,7 +13316,7 @@
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="215"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -14167,7 +14250,7 @@
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="215" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -14635,7 +14718,7 @@
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="216"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -15103,7 +15186,7 @@
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="216"/>
+      <c r="B9" s="215"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -15571,7 +15654,7 @@
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="216"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -16039,7 +16122,7 @@
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="216" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -16507,7 +16590,7 @@
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="218"/>
+      <c r="B12" s="217"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -16973,7 +17056,7 @@
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="218"/>
+      <c r="B13" s="217"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -17439,7 +17522,7 @@
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="218"/>
+      <c r="B14" s="217"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -17905,7 +17988,7 @@
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="217"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -18371,7 +18454,7 @@
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="218"/>
+      <c r="B16" s="217"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -18837,7 +18920,7 @@
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="218"/>
+      <c r="B17" s="217"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -19303,7 +19386,7 @@
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="218"/>
+      <c r="B18" s="217"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -19769,7 +19852,7 @@
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="218"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -20235,7 +20318,7 @@
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="218"/>
+      <c r="B20" s="217"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -20701,7 +20784,7 @@
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="219" t="s">
+      <c r="B21" s="218" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -21163,7 +21246,7 @@
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="219"/>
+      <c r="B22" s="218"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -21631,7 +21714,7 @@
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="219"/>
+      <c r="B23" s="218"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -22099,7 +22182,7 @@
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="219"/>
+      <c r="B24" s="218"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -22567,7 +22650,7 @@
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="219"/>
+      <c r="B25" s="218"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -23033,7 +23116,7 @@
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="220" t="s">
+      <c r="B26" s="219" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -23503,7 +23586,7 @@
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="220"/>
+      <c r="B27" s="219"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -23971,7 +24054,7 @@
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="220"/>
+      <c r="B28" s="219"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -24437,7 +24520,7 @@
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="220"/>
+      <c r="B29" s="219"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -24903,7 +24986,7 @@
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="220"/>
+      <c r="B30" s="219"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -25369,7 +25452,7 @@
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="219"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -25835,7 +25918,7 @@
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="220"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -26301,7 +26384,7 @@
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="220"/>
+      <c r="B33" s="219"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -26767,7 +26850,7 @@
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="220"/>
+      <c r="B34" s="219"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -27233,7 +27316,7 @@
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="219"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -27699,7 +27782,7 @@
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="220"/>
+      <c r="B36" s="219"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -28165,7 +28248,7 @@
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="220"/>
+      <c r="B37" s="219"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -28631,7 +28714,7 @@
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="220"/>
+      <c r="B38" s="219"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -29097,7 +29180,7 @@
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="220"/>
+      <c r="B39" s="219"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -29563,7 +29646,7 @@
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="220"/>
+      <c r="B40" s="219"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -30029,7 +30112,7 @@
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="220"/>
+      <c r="B41" s="219"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -30495,7 +30578,7 @@
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="220"/>
+      <c r="B42" s="219"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -30961,7 +31044,7 @@
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="220"/>
+      <c r="B43" s="219"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -31427,7 +31510,7 @@
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="220"/>
+      <c r="B44" s="219"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -31893,7 +31976,7 @@
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="220"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -32359,7 +32442,7 @@
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="220"/>
+      <c r="B46" s="219"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -32825,7 +32908,7 @@
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="220"/>
+      <c r="B47" s="219"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -33291,7 +33374,7 @@
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="220"/>
+      <c r="B48" s="219"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -33757,7 +33840,7 @@
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="220"/>
+      <c r="B49" s="219"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -34223,7 +34306,7 @@
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="220"/>
+      <c r="B50" s="219"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -34691,7 +34774,7 @@
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="219"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -35159,7 +35242,7 @@
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="220"/>
+      <c r="B52" s="219"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -35627,7 +35710,7 @@
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="221" t="s">
+      <c r="B53" s="220" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -36097,7 +36180,7 @@
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="221"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -36565,7 +36648,7 @@
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="221"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -37033,7 +37116,7 @@
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="221"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -37499,7 +37582,7 @@
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="221"/>
+      <c r="B57" s="220"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -37967,7 +38050,7 @@
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="221"/>
+      <c r="B58" s="220"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -38406,7 +38489,7 @@
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="221"/>
+      <c r="B59" s="220"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -38874,7 +38957,7 @@
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="221"/>
+      <c r="B60" s="220"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -39342,7 +39425,7 @@
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="222" t="s">
+      <c r="B61" s="221" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -39810,7 +39893,7 @@
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="222"/>
+      <c r="B62" s="221"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -40278,7 +40361,7 @@
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="222"/>
+      <c r="B63" s="221"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -40746,7 +40829,7 @@
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="222"/>
+      <c r="B64" s="221"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -41214,7 +41297,7 @@
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="222"/>
+      <c r="B65" s="221"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -41400,7 +41483,7 @@
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="222"/>
+      <c r="B66" s="221"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -41584,7 +41667,7 @@
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="222"/>
+      <c r="B67" s="221"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -41683,7 +41766,7 @@
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="212" t="s">
+      <c r="B68" s="211" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -41745,7 +41828,7 @@
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="212"/>
+      <c r="B69" s="211"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -41792,7 +41875,7 @@
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="212"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -41830,7 +41913,7 @@
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="212"/>
+      <c r="B71" s="211"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -41865,7 +41948,7 @@
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="213"/>
+      <c r="B72" s="212"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -42643,7 +42726,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="213" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -42812,7 +42895,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="215"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -43144,7 +43227,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="215" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -43311,7 +43394,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="216"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -43478,7 +43561,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="216"/>
+      <c r="B9" s="215"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -43645,7 +43728,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="216"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -43812,7 +43895,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="216" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -43979,7 +44062,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="218"/>
+      <c r="B12" s="217"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -44144,7 +44227,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="218"/>
+      <c r="B13" s="217"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -44309,7 +44392,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="218"/>
+      <c r="B14" s="217"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -44474,7 +44557,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="218"/>
+      <c r="B15" s="217"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -44639,7 +44722,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="218"/>
+      <c r="B16" s="217"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -44804,7 +44887,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="218"/>
+      <c r="B17" s="217"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -44969,7 +45052,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="218"/>
+      <c r="B18" s="217"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -45134,7 +45217,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="218"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -45299,7 +45382,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="218"/>
+      <c r="B20" s="217"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -45464,7 +45547,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="219" t="s">
+      <c r="B21" s="218" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -45672,7 +45755,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="219"/>
+      <c r="B22" s="218"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -45880,7 +45963,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="219"/>
+      <c r="B23" s="218"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -46047,7 +46130,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="219"/>
+      <c r="B24" s="218"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -46214,7 +46297,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="219"/>
+      <c r="B25" s="218"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -46379,7 +46462,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="220" t="s">
+      <c r="B26" s="219" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -46548,7 +46631,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="220"/>
+      <c r="B27" s="219"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -46715,7 +46798,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="220"/>
+      <c r="B28" s="219"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -46880,7 +46963,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="220"/>
+      <c r="B29" s="219"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -47045,7 +47128,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="220"/>
+      <c r="B30" s="219"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -47210,7 +47293,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="220"/>
+      <c r="B31" s="219"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -47375,7 +47458,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="220"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -47540,7 +47623,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="220"/>
+      <c r="B33" s="219"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -47705,7 +47788,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="220"/>
+      <c r="B34" s="219"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -47870,7 +47953,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="220"/>
+      <c r="B35" s="219"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -48035,7 +48118,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="220"/>
+      <c r="B36" s="219"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -48200,7 +48283,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="220"/>
+      <c r="B37" s="219"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -48365,7 +48448,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="220"/>
+      <c r="B38" s="219"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -48530,7 +48613,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="220"/>
+      <c r="B39" s="219"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -48695,7 +48778,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="220"/>
+      <c r="B40" s="219"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -48860,7 +48943,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="220"/>
+      <c r="B41" s="219"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -49025,7 +49108,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="220"/>
+      <c r="B42" s="219"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -49190,7 +49273,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="220"/>
+      <c r="B43" s="219"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -49355,7 +49438,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="220"/>
+      <c r="B44" s="219"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -49520,7 +49603,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="220"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -49685,7 +49768,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="220"/>
+      <c r="B46" s="219"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -49850,7 +49933,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="220"/>
+      <c r="B47" s="219"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -50015,7 +50098,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="220"/>
+      <c r="B48" s="219"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -50180,7 +50263,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="220"/>
+      <c r="B49" s="219"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -50345,7 +50428,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="220"/>
+      <c r="B50" s="219"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -50512,7 +50595,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="220"/>
+      <c r="B51" s="219"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -50679,7 +50762,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="220"/>
+      <c r="B52" s="219"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -50846,7 +50929,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="221" t="s">
+      <c r="B53" s="220" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -51015,7 +51098,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="221"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -51182,7 +51265,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="221"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -51349,7 +51432,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="221"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -51514,7 +51597,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="221"/>
+      <c r="B57" s="220"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -51681,7 +51764,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B58" s="221"/>
+      <c r="B58" s="220"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -51846,7 +51929,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="221"/>
+      <c r="B59" s="220"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -52013,7 +52096,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B60" s="221"/>
+      <c r="B60" s="220"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -52180,7 +52263,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="222" t="s">
+      <c r="B61" s="221" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -52347,7 +52430,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="222"/>
+      <c r="B62" s="221"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -52514,7 +52597,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="222"/>
+      <c r="B63" s="221"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -52681,7 +52764,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="222"/>
+      <c r="B64" s="221"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -52848,7 +52931,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="222"/>
+      <c r="B65" s="221"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -52865,7 +52948,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="222"/>
+      <c r="B66" s="221"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -52884,7 +52967,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="222"/>
+      <c r="B67" s="221"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -52903,7 +52986,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B68" s="212" t="s">
+      <c r="B68" s="211" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -52913,7 +52996,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B69" s="212"/>
+      <c r="B69" s="211"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -52921,7 +53004,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B70" s="212"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -52929,7 +53012,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B71" s="212"/>
+      <c r="B71" s="211"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -52941,7 +53024,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B72" s="213"/>
+      <c r="B72" s="212"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -53521,7 +53604,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="213" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -53601,7 +53684,7 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="215"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -53755,7 +53838,7 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="215" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -53833,7 +53916,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="216"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -53911,7 +53994,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="216"/>
+      <c r="B9" s="215"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -53989,7 +54072,7 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="216"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -54067,7 +54150,7 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="216" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -54145,7 +54228,7 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="218"/>
+      <c r="B12" s="217"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -54221,7 +54304,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="218"/>
+      <c r="B13" s="217"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -54297,7 +54380,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="218"/>
+      <c r="B14" s="217"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -54373,7 +54456,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="218"/>
+      <c r="B15" s="217"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -54449,7 +54532,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="218"/>
+      <c r="B16" s="217"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -54525,7 +54608,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="218"/>
+      <c r="B17" s="217"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -54601,7 +54684,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="218"/>
+      <c r="B18" s="217"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -54677,7 +54760,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="218"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -54753,7 +54836,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="218"/>
+      <c r="B20" s="217"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -54829,7 +54912,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="219" t="s">
+      <c r="B21" s="218" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -54907,7 +54990,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="219"/>
+      <c r="B22" s="218"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -54985,7 +55068,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="219"/>
+      <c r="B23" s="218"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -55063,7 +55146,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B24" s="219"/>
+      <c r="B24" s="218"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -55141,7 +55224,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="219"/>
+      <c r="B25" s="218"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -55217,7 +55300,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B26" s="220" t="s">
+      <c r="B26" s="219" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -55297,7 +55380,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="220"/>
+      <c r="B27" s="219"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -55375,7 +55458,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="220"/>
+      <c r="B28" s="219"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -55451,7 +55534,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="220"/>
+      <c r="B29" s="219"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -55527,7 +55610,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="220"/>
+      <c r="B30" s="219"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -55603,7 +55686,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="220"/>
+      <c r="B31" s="219"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -55679,7 +55762,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="220"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -55755,7 +55838,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="220"/>
+      <c r="B33" s="219"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -55831,7 +55914,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="220"/>
+      <c r="B34" s="219"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -55907,7 +55990,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="220"/>
+      <c r="B35" s="219"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -55983,7 +56066,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="220"/>
+      <c r="B36" s="219"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -56059,7 +56142,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="220"/>
+      <c r="B37" s="219"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -56135,7 +56218,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="220"/>
+      <c r="B38" s="219"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -56211,7 +56294,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="220"/>
+      <c r="B39" s="219"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -56287,7 +56370,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="220"/>
+      <c r="B40" s="219"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -56363,7 +56446,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="220"/>
+      <c r="B41" s="219"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -56439,7 +56522,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="220"/>
+      <c r="B42" s="219"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -56515,7 +56598,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="220"/>
+      <c r="B43" s="219"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -56591,7 +56674,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="220"/>
+      <c r="B44" s="219"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -56667,7 +56750,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="220"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -56743,7 +56826,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="220"/>
+      <c r="B46" s="219"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -56819,7 +56902,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="220"/>
+      <c r="B47" s="219"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -56895,7 +56978,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="220"/>
+      <c r="B48" s="219"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -56971,7 +57054,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="220"/>
+      <c r="B49" s="219"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -57047,7 +57130,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="220"/>
+      <c r="B50" s="219"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -57125,7 +57208,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="220"/>
+      <c r="B51" s="219"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -57203,7 +57286,7 @@
       </c>
     </row>
     <row r="52" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="220"/>
+      <c r="B52" s="219"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -57281,7 +57364,7 @@
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B53" s="221" t="s">
+      <c r="B53" s="220" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -57361,7 +57444,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="221"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -57439,7 +57522,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="221"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -57517,7 +57600,7 @@
       </c>
     </row>
     <row r="56" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="221"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -57593,7 +57676,7 @@
       </c>
     </row>
     <row r="57" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="221"/>
+      <c r="B57" s="220"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -57671,7 +57754,7 @@
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B58" s="221"/>
+      <c r="B58" s="220"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -57747,7 +57830,7 @@
       </c>
     </row>
     <row r="59" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="221"/>
+      <c r="B59" s="220"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -57825,7 +57908,7 @@
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B60" s="221"/>
+      <c r="B60" s="220"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -57903,7 +57986,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B61" s="222" t="s">
+      <c r="B61" s="221" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -57981,7 +58064,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="222"/>
+      <c r="B62" s="221"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -58059,7 +58142,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="222"/>
+      <c r="B63" s="221"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -58137,7 +58220,7 @@
       </c>
     </row>
     <row r="64" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="222"/>
+      <c r="B64" s="221"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -58215,7 +58298,7 @@
       </c>
     </row>
     <row r="65" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="222"/>
+      <c r="B65" s="221"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -58245,7 +58328,7 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="222"/>
+      <c r="B66" s="221"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -58275,7 +58358,7 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="222"/>
+      <c r="B67" s="221"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -58305,7 +58388,7 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B68" s="212" t="s">
+      <c r="B68" s="211" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -58326,7 +58409,7 @@
       <c r="Q68" s="105"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B69" s="212"/>
+      <c r="B69" s="211"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -58345,7 +58428,7 @@
       <c r="Q69" s="105"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B70" s="212"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -58364,7 +58447,7 @@
       <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B71" s="212"/>
+      <c r="B71" s="211"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -58383,7 +58466,7 @@
       <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B72" s="213"/>
+      <c r="B72" s="212"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_content_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C41E91-0665-48DF-92D3-FADDDC3F6D9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45813923-1D42-4A7C-82F9-95A17FBF4196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12483" uniqueCount="2573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13159" uniqueCount="2731">
   <si>
     <t>Description</t>
   </si>
@@ -7743,6 +7743,480 @@
   </si>
   <si>
     <t>dataset entry created, data uploaded on March 17, 2025.</t>
+  </si>
+  <si>
+    <t>USGS_data</t>
+  </si>
+  <si>
+    <t>stocks and flows</t>
+  </si>
+  <si>
+    <t>mining, extraction, refining</t>
+  </si>
+  <si>
+    <t>major process steps in mining, extraction, refining</t>
+  </si>
+  <si>
+    <t>metals and non-metallic minerals</t>
+  </si>
+  <si>
+    <t>individiual metals and non-metallic minerals</t>
+  </si>
+  <si>
+    <t>2020-2030</t>
+  </si>
+  <si>
+    <t>USGS data on mining, extraction, refining of individiual metals and non-metallic minerals</t>
+  </si>
+  <si>
+    <t>USGS; mining; refining; metal</t>
+  </si>
+  <si>
+    <t>USGS</t>
+  </si>
+  <si>
+    <t>https://www.usgs.gov/centers/national-minerals-information-center/mineral-commodity-summaries</t>
+  </si>
+  <si>
+    <t>EU-HOTMAPS</t>
+  </si>
+  <si>
+    <t>EU HOTMAPS project consortium</t>
+  </si>
+  <si>
+    <t>stocks and energy intensities</t>
+  </si>
+  <si>
+    <t>floorspace and final energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use phase </t>
+  </si>
+  <si>
+    <t>aggregate process</t>
+  </si>
+  <si>
+    <t>residential and non-residential buildings</t>
+  </si>
+  <si>
+    <t>two residential and six non-residential building types</t>
+  </si>
+  <si>
+    <t>in-use stock (constructed and covered building area) and specific final energy demand for the three building services heating, cooling, and domestic hot water</t>
+  </si>
+  <si>
+    <t>HOTMAPS; building area; building energy demand; final energy; in-use stock; buildings</t>
+  </si>
+  <si>
+    <t>https://www.hotmaps-project.eu/hotmaps-project/</t>
+  </si>
+  <si>
+    <t>EU HOTMAPS - The open source mapping and planning tool for heating and cooling</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/hotmaps</t>
+  </si>
+  <si>
+    <t>EU material criticality indicators</t>
+  </si>
+  <si>
+    <t>criticality indicators</t>
+  </si>
+  <si>
+    <t>use phase, entire industry</t>
+  </si>
+  <si>
+    <t>major critical materials, metals and minerals</t>
+  </si>
+  <si>
+    <t>aggregate EU level indicators</t>
+  </si>
+  <si>
+    <t>2011-future updates</t>
+  </si>
+  <si>
+    <t>values for fixed years: 2011, 2020, …</t>
+  </si>
+  <si>
+    <t>EU critical raw materials list and indicators for 2011, 2020, ..., concentration of imports, recycling rates</t>
+  </si>
+  <si>
+    <t>EU; European Union; critical materials; import dependency; raw materials; criticality</t>
+  </si>
+  <si>
+    <t>European Commission</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/</t>
+  </si>
+  <si>
+    <t>3_EI_HOTMAPS_EU_2015_residential</t>
+  </si>
+  <si>
+    <t>v2018</t>
+  </si>
+  <si>
+    <t>all residential buildings</t>
+  </si>
+  <si>
+    <t>three building types, plus the total</t>
+  </si>
+  <si>
+    <t>EU28 plus total</t>
+  </si>
+  <si>
+    <t>single value, broken down into seven age-cohort ranges</t>
+  </si>
+  <si>
+    <t>Specific final energy demand for building energy services (heating, cooling, domestic hot water DHW), final energy [kWh/m² year] for the 28 EU countries in 2015, from the EU-HOTMAPS project for the single EU countries</t>
+  </si>
+  <si>
+    <t>final energy; residential buildings; HOTMAPS; heating; cooling; hot water; specific energy demand; building energy services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final energy [kWh/m² year] </t>
+  </si>
+  <si>
+    <t>Value(n,V,U,r,c,t,Y)</t>
+  </si>
+  <si>
+    <t>Specific energy consumption of products of all energy carriers for cooling in use phase - residential buildings in Spain for multi-family houses built in 2000-2010 measured in 2015 is 12.318 kWh/m²*yr.</t>
+  </si>
+  <si>
+    <t>[Data type] of [Aspect 1] for [Aspect 2] in [Aspect 3] in [Aspect 4] for [Aspect 7] built in [Aspect 5] measured in [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>Pezzutto et al. (2018). D2.3 WP2 Report – Open Data Set for the EU28. EU HOTMAPS - The open source mapping and planning tool for heating and cooling</t>
+  </si>
+  <si>
+    <t>Numbers copied from original sources (excel spreadsheet) with Python script</t>
+  </si>
+  <si>
+    <t>2_IUS_HOTMAPS_EU_2015_residential</t>
+  </si>
+  <si>
+    <t>in-use stock (constructed and covered building area) for the 28 EU countries in 2015, from the EU-HOTMAPS project for the single EU countries</t>
+  </si>
+  <si>
+    <t>residential building stock; HOTMAPS; in-use stock; buildings</t>
+  </si>
+  <si>
+    <t>Covered area: constructed [Mm²]</t>
+  </si>
+  <si>
+    <t>Value(U,r,t,c,Y)</t>
+  </si>
+  <si>
+    <t>Constructed floor area of in-use stock in use phase - residential buildings in Austria in 2015 for age-cohort before 1945 for single-family houses is 44.59 Mm² (km2).</t>
+  </si>
+  <si>
+    <t>[Layer] of [data type] in [Aspect 1] in [Aspect 2] in [Aspect 3] constructed [Aspect 4] for [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>3_EI_HOTMAPS_EU_2015_nonresidential</t>
+  </si>
+  <si>
+    <t>aggregate nonresidential building stock</t>
+  </si>
+  <si>
+    <t>all nonresidential buildings</t>
+  </si>
+  <si>
+    <t>five building types, plus 'other'</t>
+  </si>
+  <si>
+    <t>final energy; nonresidential buildings; HOTMAPS; heating; cooling; hot water; specific energy demand; building energy services</t>
+  </si>
+  <si>
+    <t>Specific energy consumption of products of all energy carriers for cooling in use phase - nonresidential buildings in Spain for healthcare buildings built in 2000-2010 measured in 2015 is 46.96 kWh/m²*yr.</t>
+  </si>
+  <si>
+    <t>2_IUS_HOTMAPS_EU_2015_nonresidential</t>
+  </si>
+  <si>
+    <t>nonresidential building stock; HOTMAPS; in-use stock; buildings</t>
+  </si>
+  <si>
+    <t>Constructed floor area of in-use stock in use phase - nonresidential buildings in Austria in 2015 for age-cohort before 1945 for healthcare buildings is 0.26 Mm² (km2).</t>
+  </si>
+  <si>
+    <t>4_PY_ReMeasures_Electricity_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>recycling and reuse/remanufacturing</t>
+  </si>
+  <si>
+    <t>two aggregate processes</t>
+  </si>
+  <si>
+    <t>electricity generation technologies</t>
+  </si>
+  <si>
+    <t>one aggregate product group</t>
+  </si>
+  <si>
+    <t>six major materials: steel, concrete, wood, copper, aluminium, glass</t>
+  </si>
+  <si>
+    <t>2020-2050</t>
+  </si>
+  <si>
+    <t>two representative values for 2020 and 2050</t>
+  </si>
+  <si>
+    <t>circular economy potentials for recycling and re-use for electricity generation technologies for six major materials: steel, concrete, wood, copper, aluminium, glass, compiled from the 2024 Global Resources Outlook by the UNEP IRP.</t>
+  </si>
+  <si>
+    <t>reuse; recycling</t>
+  </si>
+  <si>
+    <t>Value(b,B,p,f,F,t,r,v)</t>
+  </si>
+  <si>
+    <t>Mass ratio of steel in electricity generation - all technologies for circular economy strategy recycling in recycling process into steel in all products in global (worldwide) in 2050 is 93%.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 1] in [Aspect 2] for circular economy strategy [Aspect 8] in [Aspect 3] into [Aspect 4] in [Aspect 5] in [Aspect 6] in [Aspect 7] is [value].</t>
+  </si>
+  <si>
+    <t>miscellaneous licenses, see the comments in the dataset</t>
+  </si>
+  <si>
+    <t>UNEP-IRP. Global Resources Outlook 2024: Bend the Trend – Pathways to a liveable planet as resource use spikes</t>
+  </si>
+  <si>
+    <t>Marcel Geller</t>
+  </si>
+  <si>
+    <t>1_F_Metal_Ore_Extraction_byCountry_2023_USGS_MCS</t>
+  </si>
+  <si>
+    <t>mining and refining</t>
+  </si>
+  <si>
+    <t>major technology metals</t>
+  </si>
+  <si>
+    <t>about 20 individual metals</t>
+  </si>
+  <si>
+    <t>Global total and individual values for main producing countries</t>
+  </si>
+  <si>
+    <t>2023 (or latest year with available data)</t>
+  </si>
+  <si>
+    <t>Extraction of metals in ore, by country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mining; metals; production; extraction; </t>
+  </si>
+  <si>
+    <t>For some commodities, the metal in the ore is counted. Data extracted from the USGS Mineral Commodity Summary 2025</t>
+  </si>
+  <si>
+    <t>Value(o,d,m,r,t)</t>
+  </si>
+  <si>
+    <t>Mass of flow of silver from mining and refining to market for extracted resources in Mexico in 2023 was 6400 t/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Data type] of [aspect3] flowing from [aspect1] to [aspect2] in [aspect4] in [aspect5] has [value].</t>
+  </si>
+  <si>
+    <t>US Geological Survey (USGS)</t>
+  </si>
+  <si>
+    <t>https://pubs.usgs.gov/periodicals/mcs2025/mcs2025.pdf</t>
+  </si>
+  <si>
+    <t>pdf report with tables</t>
+  </si>
+  <si>
+    <t>Numbers extracted from websites and converted to IEDC templates</t>
+  </si>
+  <si>
+    <t>1_F_Refined_Metal_Production_byCountry_2023_USGS_MCS</t>
+  </si>
+  <si>
+    <t>2020-2023 (or latest year with available data)</t>
+  </si>
+  <si>
+    <t>Production of refined metals from ore, by country</t>
+  </si>
+  <si>
+    <t>refining; smelting; metals; production;</t>
+  </si>
+  <si>
+    <t>Refined metal from smelters. Data extracted from the USGS 2025 Mineral Commodity Summary.</t>
+  </si>
+  <si>
+    <t>Mass of flow of copper from material production to market for refined materials in Japan in 2020 was 1259400 t/yr.</t>
+  </si>
+  <si>
+    <t>2_S_Metal_Ore_Reserves_byCountry_2023_USGS_MCS</t>
+  </si>
+  <si>
+    <t>mining (reserves)</t>
+  </si>
+  <si>
+    <t>Global total and individual values for main reserve-bearing countries</t>
+  </si>
+  <si>
+    <t>single year value</t>
+  </si>
+  <si>
+    <t>Metals and ores in ore reserve, by country</t>
+  </si>
+  <si>
+    <t>reserve; metals; mining; minerals</t>
+  </si>
+  <si>
+    <t>For some ores, only the metal in the ore is counted. Data extracted from the USGS Mineral Commodity Summary 2025</t>
+  </si>
+  <si>
+    <t>Value(p,m,r,t)</t>
+  </si>
+  <si>
+    <t>Mass of stock of silver in mining (reserves) in Mexico in 2023 was 0.037 Mt.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Data type] of [Aspect 2] in [Aspect 1] in [Aspect 3] in [Aspect 4] has [value].</t>
+  </si>
+  <si>
+    <t>3_LT_Appliances_Netherlands_Bakker_2014</t>
+  </si>
+  <si>
+    <t>16 different appliances</t>
+  </si>
+  <si>
+    <t>single country value</t>
+  </si>
+  <si>
+    <t>2000 and 2005</t>
+  </si>
+  <si>
+    <t>median lifetime of appliances in the use phase, Netherlands 2000 and 20005, from Table 2 in the journal paper (Bakker et al. 2014),</t>
+  </si>
+  <si>
+    <t>median lifetime; appliances; use phase; Netherlands</t>
+  </si>
+  <si>
+    <t>From Table 2 in the journal paper (Bakker et al. 2014), based on Dutch data (Wang et al., 2013, DOI https://doi.org/10.1016/j.wasman.2013.07.005). Labels adjustet to fit the product classification chosen</t>
+  </si>
+  <si>
+    <t>Product 'dishwashers' of age-cohort 2000 in the use phase in region 'Netherlands' has lifetime of 10.7 years.</t>
+  </si>
+  <si>
+    <t>Conny BAKKER</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jclepro.2014.01.028</t>
+  </si>
+  <si>
+    <t>Table in article pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.wasman.2013.07.005</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original source (pdf) and reformatted to Excel spreadsheet</t>
+  </si>
+  <si>
+    <t>3_LT_Electricity_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>electricty infrastructure</t>
+  </si>
+  <si>
+    <t>different technologies</t>
+  </si>
+  <si>
+    <t>lifetime of electricity infrastrucutre commodities, global averages</t>
+  </si>
+  <si>
+    <t>lifetime, electricity infrastrucutre, use phase</t>
+  </si>
+  <si>
+    <t>Value(U,g,r,L,v)</t>
+  </si>
+  <si>
+    <t>Lifetime of product 'electricity grid - transformers' in the use phase in region global has lifetime of 30 years for strategy 'none'.</t>
+  </si>
+  <si>
+    <t>[aspect4] of [aspect2] in [aspect1] in [aspect 3] is [value] for circular economy strategy [Aspect 5].</t>
+  </si>
+  <si>
+    <t>6_CR_EU_criticality_2011</t>
+  </si>
+  <si>
+    <t>Criticality</t>
+  </si>
+  <si>
+    <t>critial materials of the EU, 2011 list</t>
+  </si>
+  <si>
+    <t>14 metals and minerals</t>
+  </si>
+  <si>
+    <t>single EU value</t>
+  </si>
+  <si>
+    <t>Single year value</t>
+  </si>
+  <si>
+    <t>EU critical raw materials 2011, concentration of imports, recycling rates</t>
+  </si>
+  <si>
+    <t>EU; critical raw material; import; recycling rate</t>
+  </si>
+  <si>
+    <t>Data extracted from Annex table "Concentration of production of critical raw materials, and recycling and substitution rates" in EUR-lex Document 52011DC0025</t>
+  </si>
+  <si>
+    <t>Value(m,C,I,r,t)</t>
+  </si>
+  <si>
+    <t>import share EU for Peru for antimony in form of refined metal in 2007 is 6%.</t>
+  </si>
+  <si>
+    <t>[Aspect 3] for [Aspect4] for [Aspect 1] in form of [Aspect 2] in [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=CELEX:52011DC0025</t>
+  </si>
+  <si>
+    <t>docx file</t>
+  </si>
+  <si>
+    <t>Numbers copied from original source (docx) to Excel spreadsheet</t>
+  </si>
+  <si>
+    <t>6_CR_EU_criticality_2020</t>
+  </si>
+  <si>
+    <t>critial materials of the EU, 2020 list</t>
+  </si>
+  <si>
+    <t>30 metals and minerals</t>
+  </si>
+  <si>
+    <t>EU critical raw materials 2020, concentration of imports, recycling rates</t>
+  </si>
+  <si>
+    <t>Data extracted from Annex table "Annex 1: List of Critical Raw Materials" in EUR-lex Document 52020DC0474</t>
+  </si>
+  <si>
+    <t>end-of-life recycling input rate for European Union for antimony in form of refined metal in 2020 is 28%.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=CELEX:52020DC0474</t>
+  </si>
+  <si>
+    <t>April 2025 update</t>
+  </si>
+  <si>
+    <t>Jonas Golisch</t>
   </si>
 </sst>
 </file>
@@ -8431,7 +8905,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8469,6 +8942,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9439,13 +9913,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:AB39"/>
+  <dimension ref="B2:AE39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
+      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -9470,14 +9944,23 @@
     <col min="23" max="23" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>184</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B3" s="32"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -9557,8 +10040,17 @@
       <c r="AB3" s="82" t="s">
         <v>2161</v>
       </c>
+      <c r="AC3" s="82" t="s">
+        <v>2573</v>
+      </c>
+      <c r="AD3" s="82" t="s">
+        <v>2584</v>
+      </c>
+      <c r="AE3" s="82" t="s">
+        <v>2597</v>
+      </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B4" s="208" t="s">
         <v>2</v>
       </c>
@@ -9640,8 +10132,17 @@
       <c r="AB4" s="140">
         <v>24</v>
       </c>
+      <c r="AC4" s="140">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="140">
+        <v>26</v>
+      </c>
+      <c r="AE4" s="140">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B5" s="209"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
@@ -9721,8 +10222,17 @@
       <c r="AB5" s="164" t="s">
         <v>2161</v>
       </c>
+      <c r="AC5" s="164" t="s">
+        <v>2573</v>
+      </c>
+      <c r="AD5" s="164" t="s">
+        <v>2584</v>
+      </c>
+      <c r="AE5" s="164" t="s">
+        <v>2597</v>
+      </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B6" s="33"/>
       <c r="C6" s="54" t="s">
         <v>453</v>
@@ -9800,8 +10310,17 @@
       <c r="AB6" s="164" t="s">
         <v>2015</v>
       </c>
+      <c r="AC6" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="164" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
@@ -9881,8 +10400,17 @@
       <c r="AB7" s="164" t="s">
         <v>2156</v>
       </c>
+      <c r="AC7" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD7" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE7" s="164" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="204" t="s">
         <v>6</v>
       </c>
@@ -9962,8 +10490,17 @@
       <c r="AB8" s="23" t="s">
         <v>2167</v>
       </c>
+      <c r="AC8" s="23" t="s">
+        <v>2574</v>
+      </c>
+      <c r="AD8" s="23" t="s">
+        <v>2586</v>
+      </c>
+      <c r="AE8" s="23" t="s">
+        <v>2598</v>
+      </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B9" s="204"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
@@ -10041,8 +10578,17 @@
       <c r="AB9" s="23" t="s">
         <v>2168</v>
       </c>
+      <c r="AC9" s="23" t="s">
+        <v>2574</v>
+      </c>
+      <c r="AD9" s="23" t="s">
+        <v>2586</v>
+      </c>
+      <c r="AE9" s="23" t="s">
+        <v>2598</v>
+      </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B10" s="204"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
@@ -10120,8 +10666,17 @@
       <c r="AB10" s="164" t="s">
         <v>2130</v>
       </c>
+      <c r="AC10" s="164" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD10" s="164" t="s">
+        <v>2587</v>
+      </c>
+      <c r="AE10" s="23" t="s">
+        <v>2598</v>
+      </c>
     </row>
-    <row r="11" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B11" s="204"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
@@ -10199,8 +10754,17 @@
       <c r="AB11" s="23" t="s">
         <v>2150</v>
       </c>
+      <c r="AC11" s="23" t="s">
+        <v>2575</v>
+      </c>
+      <c r="AD11" s="23" t="s">
+        <v>2588</v>
+      </c>
+      <c r="AE11" s="23" t="s">
+        <v>2599</v>
+      </c>
     </row>
-    <row r="12" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B12" s="204"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
@@ -10278,8 +10842,17 @@
       <c r="AB12" s="164" t="s">
         <v>2172</v>
       </c>
+      <c r="AC12" s="23" t="s">
+        <v>2576</v>
+      </c>
+      <c r="AD12" s="23" t="s">
+        <v>2589</v>
+      </c>
+      <c r="AE12" s="23" t="s">
+        <v>2589</v>
+      </c>
     </row>
-    <row r="13" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B13" s="204"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
@@ -10357,8 +10930,17 @@
       <c r="AB13" s="23" t="s">
         <v>2170</v>
       </c>
+      <c r="AC13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="23" t="s">
+        <v>2590</v>
+      </c>
+      <c r="AE13" s="23" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B14" s="204"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
@@ -10436,8 +11018,17 @@
       <c r="AB14" s="23" t="s">
         <v>2171</v>
       </c>
+      <c r="AC14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD14" s="23" t="s">
+        <v>2591</v>
+      </c>
+      <c r="AE14" s="23" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B15" s="204"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
@@ -10515,8 +11106,17 @@
       <c r="AB15" s="23" t="s">
         <v>2169</v>
       </c>
+      <c r="AC15" s="23" t="s">
+        <v>2577</v>
+      </c>
+      <c r="AD15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE15" s="23" t="s">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="16" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B16" s="204"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
@@ -10594,8 +11194,17 @@
       <c r="AB16" s="23" t="s">
         <v>2169</v>
       </c>
+      <c r="AC16" s="23" t="s">
+        <v>2578</v>
+      </c>
+      <c r="AD16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="23" t="s">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="17" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B17" s="204"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
@@ -10673,8 +11282,17 @@
       <c r="AB17" s="164" t="s">
         <v>1422</v>
       </c>
+      <c r="AC17" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD17" s="164" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AE17" s="164" t="s">
+        <v>1422</v>
+      </c>
     </row>
-    <row r="18" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B18" s="204"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
@@ -10752,8 +11370,17 @@
       <c r="AB18" s="164" t="s">
         <v>2166</v>
       </c>
+      <c r="AC18" s="164" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AD18" s="164" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AE18" s="164" t="s">
+        <v>2601</v>
+      </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B19" s="204"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
@@ -10831,8 +11458,17 @@
       <c r="AB19" s="23" t="s">
         <v>2165</v>
       </c>
+      <c r="AC19" s="23" t="s">
+        <v>2579</v>
+      </c>
+      <c r="AD19" s="23">
+        <v>2015</v>
+      </c>
+      <c r="AE19" s="23" t="s">
+        <v>2602</v>
+      </c>
     </row>
-    <row r="20" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B20" s="204"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
@@ -10910,8 +11546,17 @@
       <c r="AB20" s="164" t="s">
         <v>1278</v>
       </c>
+      <c r="AC20" s="164" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AD20" s="164" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AE20" s="164" t="s">
+        <v>2603</v>
+      </c>
     </row>
-    <row r="21" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B21" s="205" t="s">
         <v>0</v>
       </c>
@@ -10982,7 +11627,7 @@
       <c r="Y21" s="23" t="s">
         <v>2147</v>
       </c>
-      <c r="Z21" s="182" t="s">
+      <c r="Z21" s="199" t="s">
         <v>2155</v>
       </c>
       <c r="AA21" s="23" t="s">
@@ -10991,8 +11636,17 @@
       <c r="AB21" s="23" t="s">
         <v>2164</v>
       </c>
+      <c r="AC21" s="23" t="s">
+        <v>2580</v>
+      </c>
+      <c r="AD21" s="23" t="s">
+        <v>2592</v>
+      </c>
+      <c r="AE21" s="23" t="s">
+        <v>2604</v>
+      </c>
     </row>
-    <row r="22" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B22" s="205"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
@@ -11072,8 +11726,17 @@
       <c r="AB22" s="164" t="s">
         <v>2156</v>
       </c>
+      <c r="AC22" s="164" t="s">
+        <v>2581</v>
+      </c>
+      <c r="AD22" s="164" t="s">
+        <v>2593</v>
+      </c>
+      <c r="AE22" s="164" t="s">
+        <v>2605</v>
+      </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B23" s="205"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
@@ -11151,8 +11814,17 @@
       <c r="AB23" s="164" t="s">
         <v>11</v>
       </c>
+      <c r="AC23" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD23" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE23" s="164" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="24" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B24" s="205"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
@@ -11230,8 +11902,11 @@
       <c r="AB24" s="164" t="s">
         <v>2163</v>
       </c>
+      <c r="AC24" s="164"/>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="164"/>
     </row>
-    <row r="25" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="206" t="s">
         <v>8</v>
       </c>
@@ -11311,8 +11986,17 @@
       <c r="AB25" s="23" t="s">
         <v>860</v>
       </c>
+      <c r="AC25" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD25" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE25" s="23" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B26" s="206"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
@@ -11390,8 +12074,17 @@
       <c r="AB26" s="164" t="s">
         <v>857</v>
       </c>
+      <c r="AC26" s="164" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD26" s="164" t="s">
+        <v>858</v>
+      </c>
+      <c r="AE26" s="164" t="s">
+        <v>858</v>
+      </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B27" s="206"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
@@ -11469,8 +12162,17 @@
       <c r="AB27" s="164" t="s">
         <v>2162</v>
       </c>
+      <c r="AC27" s="164" t="s">
+        <v>2582</v>
+      </c>
+      <c r="AD27" s="164" t="s">
+        <v>2585</v>
+      </c>
+      <c r="AE27" s="164" t="s">
+        <v>2606</v>
+      </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B28" s="206"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
@@ -11548,8 +12250,17 @@
       <c r="AB28" s="179" t="s">
         <v>2157</v>
       </c>
+      <c r="AC28" s="179" t="s">
+        <v>2583</v>
+      </c>
+      <c r="AD28" s="179" t="s">
+        <v>2596</v>
+      </c>
+      <c r="AE28" s="179" t="s">
+        <v>2607</v>
+      </c>
     </row>
-    <row r="29" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B29" s="206"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
@@ -11627,8 +12338,17 @@
       <c r="AB29" s="179" t="s">
         <v>2157</v>
       </c>
+      <c r="AC29" s="179" t="s">
+        <v>2583</v>
+      </c>
+      <c r="AD29" s="179" t="s">
+        <v>2594</v>
+      </c>
+      <c r="AE29" s="179" t="s">
+        <v>2607</v>
+      </c>
     </row>
-    <row r="30" spans="2:28" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B30" s="206"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
@@ -11706,8 +12426,17 @@
       <c r="AB30" s="179" t="s">
         <v>2157</v>
       </c>
+      <c r="AC30" s="179" t="s">
+        <v>2582</v>
+      </c>
+      <c r="AD30" s="179" t="s">
+        <v>2595</v>
+      </c>
+      <c r="AE30" s="179" t="s">
+        <v>2607</v>
+      </c>
     </row>
-    <row r="31" spans="2:28" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="207" t="s">
         <v>9</v>
       </c>
@@ -11789,8 +12518,17 @@
       <c r="AB31" s="161">
         <v>45705</v>
       </c>
+      <c r="AC31" s="161">
+        <v>45759</v>
+      </c>
+      <c r="AD31" s="161">
+        <v>45759</v>
+      </c>
+      <c r="AE31" s="161">
+        <v>45772</v>
+      </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B32" s="210"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
@@ -11870,8 +12608,17 @@
       <c r="AB32" s="164" t="s">
         <v>30</v>
       </c>
+      <c r="AC32" s="164" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD32" s="164" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="164" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B33" s="200" t="s">
         <v>185</v>
       </c>
@@ -11903,8 +12650,11 @@
       <c r="Z33" s="164"/>
       <c r="AA33" s="164"/>
       <c r="AB33" s="164"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="164"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B34" s="201"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
@@ -11934,8 +12684,11 @@
       <c r="Z34" s="164"/>
       <c r="AA34" s="164"/>
       <c r="AB34" s="164"/>
+      <c r="AC34" s="164"/>
+      <c r="AD34" s="164"/>
+      <c r="AE34" s="164"/>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B35" s="202"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
@@ -11965,11 +12718,14 @@
       <c r="Z35" s="166"/>
       <c r="AA35" s="166"/>
       <c r="AB35" s="166"/>
+      <c r="AC35" s="166"/>
+      <c r="AD35" s="166"/>
+      <c r="AE35" s="166"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.4">
       <c r="W36" s="105"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.4">
       <c r="I39" s="12"/>
     </row>
   </sheetData>
@@ -11988,13 +12744,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:FG74"/>
+  <dimension ref="A1:GW74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="ED6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="ES27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="FA9" sqref="FA9"/>
+      <selection pane="bottomRight" activeCell="FN40" sqref="FN40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -12055,7 +12811,7 @@
     <col min="70" max="16384" width="11.5546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:168" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -12515,8 +13271,20 @@
       <c r="EZ1" s="154" t="s">
         <v>2572</v>
       </c>
+      <c r="FA1" s="174"/>
+      <c r="FB1" s="174"/>
+      <c r="FC1" s="174"/>
+      <c r="FD1" s="174"/>
+      <c r="FE1" s="174"/>
+      <c r="FF1" s="174"/>
+      <c r="FG1" s="174"/>
+      <c r="FH1" s="174"/>
+      <c r="FI1" s="174"/>
+      <c r="FJ1" s="174"/>
+      <c r="FK1" s="174"/>
+      <c r="FL1" s="174"/>
     </row>
-    <row r="2" spans="1:156" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:168" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -12539,31 +13307,31 @@
       <c r="BO2" s="105"/>
       <c r="BP2" s="105"/>
       <c r="BQ2" s="105"/>
-      <c r="BR2" s="199" t="s">
+      <c r="BR2" s="198" t="s">
         <v>1432</v>
       </c>
-      <c r="BS2" s="199" t="s">
+      <c r="BS2" s="198" t="s">
         <v>1432</v>
       </c>
-      <c r="BT2" s="199" t="s">
+      <c r="BT2" s="198" t="s">
         <v>1432</v>
       </c>
-      <c r="BU2" s="199" t="s">
+      <c r="BU2" s="198" t="s">
         <v>1432</v>
       </c>
-      <c r="BV2" s="199" t="s">
+      <c r="BV2" s="198" t="s">
         <v>1432</v>
       </c>
-      <c r="BW2" s="199" t="s">
+      <c r="BW2" s="198" t="s">
         <v>1432</v>
       </c>
-      <c r="BX2" s="199" t="s">
+      <c r="BX2" s="198" t="s">
         <v>1432</v>
       </c>
-      <c r="BY2" s="199" t="s">
+      <c r="BY2" s="198" t="s">
         <v>1432</v>
       </c>
-      <c r="BZ2" s="199" t="s">
+      <c r="BZ2" s="198" t="s">
         <v>1432</v>
       </c>
       <c r="CA2" s="154" t="s">
@@ -12800,8 +13568,44 @@
       <c r="EZ2" s="154" t="s">
         <v>2570</v>
       </c>
+      <c r="FA2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FB2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FC2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FD2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FE2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FF2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FG2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FH2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FI2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FJ2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FK2" s="154" t="s">
+        <v>2729</v>
+      </c>
+      <c r="FL2" s="154" t="s">
+        <v>2729</v>
+      </c>
     </row>
-    <row r="3" spans="1:156" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:168" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -13054,7 +13858,7 @@
       <c r="DS3" s="105"/>
       <c r="DT3" s="105"/>
     </row>
-    <row r="4" spans="1:156" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:168" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>1</v>
       </c>
@@ -13312,7 +14116,7 @@
       <c r="DS4" s="105"/>
       <c r="DT4" s="105"/>
     </row>
-    <row r="5" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41">
         <v>2</v>
       </c>
@@ -13725,19 +14529,19 @@
       <c r="EH5" s="115" t="s">
         <v>2306</v>
       </c>
-      <c r="EI5" s="188" t="s">
+      <c r="EI5" s="187" t="s">
         <v>2317</v>
       </c>
       <c r="EJ5" s="115" t="s">
         <v>2333</v>
       </c>
-      <c r="EK5" s="188" t="s">
+      <c r="EK5" s="187" t="s">
         <v>2341</v>
       </c>
       <c r="EL5" s="115" t="s">
         <v>2360</v>
       </c>
-      <c r="EM5" s="188" t="s">
+      <c r="EM5" s="187" t="s">
         <v>2372</v>
       </c>
       <c r="EN5" s="115" t="s">
@@ -13779,8 +14583,44 @@
       <c r="EZ5" s="115" t="s">
         <v>2562</v>
       </c>
+      <c r="FA5" s="41" t="s">
+        <v>2608</v>
+      </c>
+      <c r="FB5" s="41" t="s">
+        <v>2622</v>
+      </c>
+      <c r="FC5" s="41" t="s">
+        <v>2629</v>
+      </c>
+      <c r="FD5" s="41" t="s">
+        <v>2635</v>
+      </c>
+      <c r="FE5" s="41" t="s">
+        <v>2638</v>
+      </c>
+      <c r="FF5" s="41" t="s">
+        <v>2654</v>
+      </c>
+      <c r="FG5" s="41" t="s">
+        <v>2670</v>
+      </c>
+      <c r="FH5" s="41" t="s">
+        <v>2676</v>
+      </c>
+      <c r="FI5" s="41" t="s">
+        <v>2686</v>
+      </c>
+      <c r="FJ5" s="41" t="s">
+        <v>2699</v>
+      </c>
+      <c r="FK5" s="41" t="s">
+        <v>2707</v>
+      </c>
+      <c r="FL5" s="41" t="s">
+        <v>2722</v>
+      </c>
     </row>
-    <row r="6" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -14191,19 +15031,19 @@
       <c r="EH6" s="115" t="s">
         <v>2015</v>
       </c>
-      <c r="EI6" s="188" t="s">
+      <c r="EI6" s="187" t="s">
         <v>2318</v>
       </c>
-      <c r="EJ6" s="188" t="s">
+      <c r="EJ6" s="187" t="s">
         <v>1150</v>
       </c>
-      <c r="EK6" s="188" t="s">
+      <c r="EK6" s="187" t="s">
         <v>1150</v>
       </c>
       <c r="EL6" s="115" t="s">
         <v>1150</v>
       </c>
-      <c r="EM6" s="188" t="s">
+      <c r="EM6" s="187" t="s">
         <v>1150</v>
       </c>
       <c r="EN6" s="115" t="s">
@@ -14245,8 +15085,44 @@
       <c r="EZ6" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA6" s="41" t="s">
+        <v>2609</v>
+      </c>
+      <c r="FB6" s="41" t="s">
+        <v>2609</v>
+      </c>
+      <c r="FC6" s="41" t="s">
+        <v>2609</v>
+      </c>
+      <c r="FD6" s="41" t="s">
+        <v>2609</v>
+      </c>
+      <c r="FE6" s="41" t="s">
+        <v>2318</v>
+      </c>
+      <c r="FF6" s="41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FG6" s="41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FH6" s="41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FI6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ6" s="41" t="s">
+        <v>2318</v>
+      </c>
+      <c r="FK6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL6" s="41" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="92">
         <v>4</v>
       </c>
@@ -14659,19 +15535,19 @@
       <c r="EH7" s="115">
         <v>18</v>
       </c>
-      <c r="EI7" s="188">
+      <c r="EI7" s="187">
         <v>20</v>
       </c>
-      <c r="EJ7" s="188">
+      <c r="EJ7" s="187">
         <v>20</v>
       </c>
-      <c r="EK7" s="188">
+      <c r="EK7" s="187">
         <v>20</v>
       </c>
       <c r="EL7" s="115">
         <v>21</v>
       </c>
-      <c r="EM7" s="188">
+      <c r="EM7" s="187">
         <v>20</v>
       </c>
       <c r="EN7" s="115" t="s">
@@ -14713,8 +15589,44 @@
       <c r="EZ7" s="115" t="s">
         <v>845</v>
       </c>
+      <c r="FA7" s="41">
+        <v>26</v>
+      </c>
+      <c r="FB7" s="41">
+        <v>26</v>
+      </c>
+      <c r="FC7" s="41">
+        <v>26</v>
+      </c>
+      <c r="FD7" s="41">
+        <v>26</v>
+      </c>
+      <c r="FE7" s="41">
+        <v>20</v>
+      </c>
+      <c r="FF7" s="41">
+        <v>25</v>
+      </c>
+      <c r="FG7" s="41">
+        <v>25</v>
+      </c>
+      <c r="FH7" s="41">
+        <v>25</v>
+      </c>
+      <c r="FI7" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="FJ7" s="41">
+        <v>20</v>
+      </c>
+      <c r="FK7" s="41">
+        <v>27</v>
+      </c>
+      <c r="FL7" s="41">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="92">
         <v>5</v>
       </c>
@@ -15127,19 +16039,19 @@
       <c r="EH8" s="115">
         <v>1</v>
       </c>
-      <c r="EI8" s="188">
+      <c r="EI8" s="187">
         <v>3</v>
       </c>
       <c r="EJ8" s="115">
         <v>3</v>
       </c>
-      <c r="EK8" s="188">
+      <c r="EK8" s="187">
         <v>3</v>
       </c>
       <c r="EL8" s="115">
         <v>6</v>
       </c>
-      <c r="EM8" s="188">
+      <c r="EM8" s="187">
         <v>3</v>
       </c>
       <c r="EN8" s="115">
@@ -15181,8 +16093,44 @@
       <c r="EZ8" s="115">
         <v>3</v>
       </c>
+      <c r="FA8" s="41">
+        <v>3</v>
+      </c>
+      <c r="FB8" s="41">
+        <v>2</v>
+      </c>
+      <c r="FC8" s="41">
+        <v>3</v>
+      </c>
+      <c r="FD8" s="41">
+        <v>2</v>
+      </c>
+      <c r="FE8" s="41">
+        <v>4</v>
+      </c>
+      <c r="FF8" s="41">
+        <v>1</v>
+      </c>
+      <c r="FG8" s="41">
+        <v>1</v>
+      </c>
+      <c r="FH8" s="41">
+        <v>2</v>
+      </c>
+      <c r="FI8" s="41">
+        <v>3</v>
+      </c>
+      <c r="FJ8" s="41">
+        <v>3</v>
+      </c>
+      <c r="FK8" s="41">
+        <v>6</v>
+      </c>
+      <c r="FL8" s="41">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="92">
         <v>6</v>
       </c>
@@ -15595,19 +16543,19 @@
       <c r="EH9" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="EI9" s="188" t="s">
+      <c r="EI9" s="187" t="s">
         <v>2061</v>
       </c>
       <c r="EJ9" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="EK9" s="188" t="s">
+      <c r="EK9" s="187" t="s">
         <v>846</v>
       </c>
       <c r="EL9" s="115" t="s">
         <v>360</v>
       </c>
-      <c r="EM9" s="188" t="s">
+      <c r="EM9" s="187" t="s">
         <v>846</v>
       </c>
       <c r="EN9" s="115" t="s">
@@ -15649,8 +16597,44 @@
       <c r="EZ9" s="115" t="s">
         <v>57</v>
       </c>
+      <c r="FA9" s="41" t="s">
+        <v>2061</v>
+      </c>
+      <c r="FB9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="FC9" s="41" t="s">
+        <v>2061</v>
+      </c>
+      <c r="FD9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="FE9" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="FF9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="FG9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="FH9" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="FI9" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="FJ9" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="FK9" s="41" t="s">
+        <v>2708</v>
+      </c>
+      <c r="FL9" s="41" t="s">
+        <v>2708</v>
+      </c>
     </row>
-    <row r="10" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="92">
         <v>7</v>
       </c>
@@ -16063,19 +17047,19 @@
       <c r="EH10" s="115" t="s">
         <v>2007</v>
       </c>
-      <c r="EI10" s="188" t="s">
+      <c r="EI10" s="187" t="s">
         <v>1612</v>
       </c>
       <c r="EJ10" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="EK10" s="188" t="s">
+      <c r="EK10" s="187" t="s">
         <v>824</v>
       </c>
       <c r="EL10" s="115" t="s">
         <v>1025</v>
       </c>
-      <c r="EM10" s="188" t="s">
+      <c r="EM10" s="187" t="s">
         <v>1025</v>
       </c>
       <c r="EN10" s="115" t="s">
@@ -16117,8 +17101,44 @@
       <c r="EZ10" s="115" t="s">
         <v>57</v>
       </c>
+      <c r="FA10" s="41" t="s">
+        <v>2062</v>
+      </c>
+      <c r="FB10" s="41" t="s">
+        <v>1436</v>
+      </c>
+      <c r="FC10" s="41" t="s">
+        <v>2062</v>
+      </c>
+      <c r="FD10" s="41" t="s">
+        <v>1436</v>
+      </c>
+      <c r="FE10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="FF10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="FG10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="FH10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="FI10" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="FJ10" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="FK10" s="41" t="s">
+        <v>1091</v>
+      </c>
+      <c r="FL10" s="41" t="s">
+        <v>1091</v>
+      </c>
     </row>
-    <row r="11" spans="1:156" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:168" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="92">
         <v>8</v>
       </c>
@@ -16531,19 +17551,19 @@
       <c r="EH11" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="EI11" s="188" t="s">
+      <c r="EI11" s="187" t="s">
         <v>782</v>
       </c>
       <c r="EJ11" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="EK11" s="189" t="s">
+      <c r="EK11" s="188" t="s">
         <v>2342</v>
       </c>
       <c r="EL11" s="115" t="s">
         <v>2361</v>
       </c>
-      <c r="EM11" s="189" t="s">
+      <c r="EM11" s="188" t="s">
         <v>2373</v>
       </c>
       <c r="EN11" s="115" t="s">
@@ -16585,8 +17605,44 @@
       <c r="EZ11" s="115" t="s">
         <v>32</v>
       </c>
+      <c r="FA11" s="41" t="s">
+        <v>782</v>
+      </c>
+      <c r="FB11" s="41" t="s">
+        <v>782</v>
+      </c>
+      <c r="FC11" s="41" t="s">
+        <v>782</v>
+      </c>
+      <c r="FD11" s="41" t="s">
+        <v>782</v>
+      </c>
+      <c r="FE11" s="41" t="s">
+        <v>2639</v>
+      </c>
+      <c r="FF11" s="41" t="s">
+        <v>2655</v>
+      </c>
+      <c r="FG11" s="41" t="s">
+        <v>1474</v>
+      </c>
+      <c r="FH11" s="41" t="s">
+        <v>2677</v>
+      </c>
+      <c r="FI11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="FJ11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="FK11" s="41" t="s">
+        <v>779</v>
+      </c>
+      <c r="FL11" s="41" t="s">
+        <v>779</v>
+      </c>
     </row>
-    <row r="12" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92">
         <v>9</v>
       </c>
@@ -16997,19 +18053,19 @@
       <c r="EH12" s="115" t="s">
         <v>2008</v>
       </c>
-      <c r="EI12" s="188" t="s">
+      <c r="EI12" s="187" t="s">
         <v>2274</v>
       </c>
       <c r="EJ12" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="EK12" s="188" t="s">
+      <c r="EK12" s="187" t="s">
         <v>2343</v>
       </c>
       <c r="EL12" s="115" t="s">
         <v>2274</v>
       </c>
-      <c r="EM12" s="188" t="s">
+      <c r="EM12" s="187" t="s">
         <v>2343</v>
       </c>
       <c r="EN12" s="115" t="s">
@@ -17051,8 +18107,44 @@
       <c r="EZ12" s="115" t="s">
         <v>152</v>
       </c>
+      <c r="FA12" s="41" t="s">
+        <v>1437</v>
+      </c>
+      <c r="FB12" s="41" t="s">
+        <v>1437</v>
+      </c>
+      <c r="FC12" s="41" t="s">
+        <v>2630</v>
+      </c>
+      <c r="FD12" s="41" t="s">
+        <v>2630</v>
+      </c>
+      <c r="FE12" s="41" t="s">
+        <v>2640</v>
+      </c>
+      <c r="FF12" s="41" t="s">
+        <v>2274</v>
+      </c>
+      <c r="FG12" s="41" t="s">
+        <v>2274</v>
+      </c>
+      <c r="FH12" s="41" t="s">
+        <v>2274</v>
+      </c>
+      <c r="FI12" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="FJ12" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="FK12" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="FL12" s="41" t="s">
+        <v>868</v>
+      </c>
     </row>
-    <row r="13" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="92">
         <v>10</v>
       </c>
@@ -17463,19 +18555,19 @@
       <c r="EH13" s="115" t="s">
         <v>1561</v>
       </c>
-      <c r="EI13" s="188" t="s">
+      <c r="EI13" s="187" t="s">
         <v>2319</v>
       </c>
       <c r="EJ13" s="115" t="s">
         <v>2334</v>
       </c>
-      <c r="EK13" s="188" t="s">
+      <c r="EK13" s="187" t="s">
         <v>2344</v>
       </c>
       <c r="EL13" s="115" t="s">
         <v>2334</v>
       </c>
-      <c r="EM13" s="188" t="s">
+      <c r="EM13" s="187" t="s">
         <v>2374</v>
       </c>
       <c r="EN13" s="115" t="s">
@@ -17517,8 +18609,44 @@
       <c r="EZ13" s="115" t="s">
         <v>2334</v>
       </c>
+      <c r="FA13" s="41" t="s">
+        <v>2610</v>
+      </c>
+      <c r="FB13" s="41" t="s">
+        <v>2610</v>
+      </c>
+      <c r="FC13" s="41" t="s">
+        <v>2631</v>
+      </c>
+      <c r="FD13" s="41" t="s">
+        <v>2631</v>
+      </c>
+      <c r="FE13" s="41" t="s">
+        <v>2641</v>
+      </c>
+      <c r="FF13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI13" s="41" t="s">
+        <v>2334</v>
+      </c>
+      <c r="FJ13" s="41" t="s">
+        <v>2700</v>
+      </c>
+      <c r="FK13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL13" s="41" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="92">
         <v>11</v>
       </c>
@@ -17929,19 +19057,19 @@
       <c r="EH14" s="115" t="s">
         <v>2307</v>
       </c>
-      <c r="EI14" s="188" t="s">
+      <c r="EI14" s="187" t="s">
         <v>2320</v>
       </c>
       <c r="EJ14" s="115" t="s">
         <v>2335</v>
       </c>
-      <c r="EK14" s="188" t="s">
+      <c r="EK14" s="187" t="s">
         <v>2344</v>
       </c>
       <c r="EL14" s="115" t="s">
         <v>2362</v>
       </c>
-      <c r="EM14" s="188" t="s">
+      <c r="EM14" s="187" t="s">
         <v>2375</v>
       </c>
       <c r="EN14" s="115" t="s">
@@ -17983,8 +19111,44 @@
       <c r="EZ14" s="115" t="s">
         <v>2551</v>
       </c>
+      <c r="FA14" s="41" t="s">
+        <v>2611</v>
+      </c>
+      <c r="FB14" s="41" t="s">
+        <v>2611</v>
+      </c>
+      <c r="FC14" s="41" t="s">
+        <v>2632</v>
+      </c>
+      <c r="FD14" s="41" t="s">
+        <v>2632</v>
+      </c>
+      <c r="FE14" s="41" t="s">
+        <v>2642</v>
+      </c>
+      <c r="FF14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI14" s="41" t="s">
+        <v>2687</v>
+      </c>
+      <c r="FJ14" s="41" t="s">
+        <v>2701</v>
+      </c>
+      <c r="FK14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL14" s="41" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="92">
         <v>12</v>
       </c>
@@ -18395,19 +19559,19 @@
       <c r="EH15" s="115" t="s">
         <v>1679</v>
       </c>
-      <c r="EI15" s="188" t="s">
+      <c r="EI15" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ15" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK15" s="188" t="s">
+      <c r="EK15" s="187" t="s">
         <v>2345</v>
       </c>
       <c r="EL15" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM15" s="188" t="s">
+      <c r="EM15" s="187" t="s">
         <v>2345</v>
       </c>
       <c r="EN15" s="115" t="s">
@@ -18449,8 +19613,44 @@
       <c r="EZ15" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE15" s="41" t="s">
+        <v>2345</v>
+      </c>
+      <c r="FF15" s="41" t="s">
+        <v>2656</v>
+      </c>
+      <c r="FG15" s="41" t="s">
+        <v>2656</v>
+      </c>
+      <c r="FH15" s="41" t="s">
+        <v>2656</v>
+      </c>
+      <c r="FI15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK15" s="41" t="s">
+        <v>2709</v>
+      </c>
+      <c r="FL15" s="41" t="s">
+        <v>2723</v>
+      </c>
     </row>
-    <row r="16" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="92">
         <v>13</v>
       </c>
@@ -18861,19 +20061,19 @@
       <c r="EH16" s="115" t="s">
         <v>2308</v>
       </c>
-      <c r="EI16" s="188" t="s">
+      <c r="EI16" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ16" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK16" s="188" t="s">
+      <c r="EK16" s="187" t="s">
         <v>2346</v>
       </c>
       <c r="EL16" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM16" s="188" t="s">
+      <c r="EM16" s="187" t="s">
         <v>2376</v>
       </c>
       <c r="EN16" s="115" t="s">
@@ -18915,8 +20115,44 @@
       <c r="EZ16" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE16" s="41" t="s">
+        <v>2643</v>
+      </c>
+      <c r="FF16" s="41" t="s">
+        <v>2657</v>
+      </c>
+      <c r="FG16" s="41" t="s">
+        <v>2657</v>
+      </c>
+      <c r="FH16" s="41" t="s">
+        <v>2657</v>
+      </c>
+      <c r="FI16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK16" s="41" t="s">
+        <v>2710</v>
+      </c>
+      <c r="FL16" s="41" t="s">
+        <v>2724</v>
+      </c>
     </row>
-    <row r="17" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="92">
         <v>14</v>
       </c>
@@ -19327,19 +20563,19 @@
       <c r="EH17" s="115" t="s">
         <v>819</v>
       </c>
-      <c r="EI17" s="188" t="s">
+      <c r="EI17" s="187" t="s">
         <v>19</v>
       </c>
       <c r="EJ17" s="115" t="s">
         <v>819</v>
       </c>
-      <c r="EK17" s="188" t="s">
+      <c r="EK17" s="187" t="s">
         <v>138</v>
       </c>
       <c r="EL17" s="115" t="s">
         <v>819</v>
       </c>
-      <c r="EM17" s="188" t="s">
+      <c r="EM17" s="187" t="s">
         <v>2377</v>
       </c>
       <c r="EN17" s="115" t="s">
@@ -19381,8 +20617,44 @@
       <c r="EZ17" s="115" t="s">
         <v>2563</v>
       </c>
+      <c r="FA17" s="41" t="s">
+        <v>1422</v>
+      </c>
+      <c r="FB17" s="41" t="s">
+        <v>1422</v>
+      </c>
+      <c r="FC17" s="41" t="s">
+        <v>1422</v>
+      </c>
+      <c r="FD17" s="41" t="s">
+        <v>1422</v>
+      </c>
+      <c r="FE17" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="FF17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="FG17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="FH17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="FI17" s="41" t="s">
+        <v>1634</v>
+      </c>
+      <c r="FJ17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="FK17" s="41" t="s">
+        <v>1422</v>
+      </c>
+      <c r="FL17" s="41" t="s">
+        <v>1422</v>
+      </c>
     </row>
-    <row r="18" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="92">
         <v>15</v>
       </c>
@@ -19793,19 +21065,19 @@
       <c r="EH18" s="115" t="s">
         <v>2011</v>
       </c>
-      <c r="EI18" s="188" t="s">
+      <c r="EI18" s="187" t="s">
         <v>2321</v>
       </c>
       <c r="EJ18" s="115" t="s">
         <v>2336</v>
       </c>
-      <c r="EK18" s="188" t="s">
+      <c r="EK18" s="187" t="s">
         <v>2347</v>
       </c>
       <c r="EL18" s="115" t="s">
         <v>2363</v>
       </c>
-      <c r="EM18" s="188" t="s">
+      <c r="EM18" s="187" t="s">
         <v>2378</v>
       </c>
       <c r="EN18" s="115" t="s">
@@ -19847,8 +21119,44 @@
       <c r="EZ18" s="115" t="s">
         <v>2564</v>
       </c>
+      <c r="FA18" s="41" t="s">
+        <v>2612</v>
+      </c>
+      <c r="FB18" s="41" t="s">
+        <v>2612</v>
+      </c>
+      <c r="FC18" s="41" t="s">
+        <v>2612</v>
+      </c>
+      <c r="FD18" s="41" t="s">
+        <v>2612</v>
+      </c>
+      <c r="FE18" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="FF18" s="41" t="s">
+        <v>2658</v>
+      </c>
+      <c r="FG18" s="41" t="s">
+        <v>2658</v>
+      </c>
+      <c r="FH18" s="41" t="s">
+        <v>2678</v>
+      </c>
+      <c r="FI18" s="41" t="s">
+        <v>2688</v>
+      </c>
+      <c r="FJ18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="FK18" s="41" t="s">
+        <v>2711</v>
+      </c>
+      <c r="FL18" s="41" t="s">
+        <v>2711</v>
+      </c>
     </row>
-    <row r="19" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="92">
         <v>16</v>
       </c>
@@ -20259,19 +21567,19 @@
       <c r="EH19" s="115">
         <v>2016</v>
       </c>
-      <c r="EI19" s="188" t="s">
+      <c r="EI19" s="187" t="s">
         <v>2322</v>
       </c>
       <c r="EJ19" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="EK19" s="188" t="s">
+      <c r="EK19" s="187" t="s">
         <v>2348</v>
       </c>
       <c r="EL19" s="115" t="s">
         <v>2364</v>
       </c>
-      <c r="EM19" s="188" t="s">
+      <c r="EM19" s="187" t="s">
         <v>2379</v>
       </c>
       <c r="EN19" s="115" t="s">
@@ -20313,8 +21621,44 @@
       <c r="EZ19" s="115" t="s">
         <v>2565</v>
       </c>
+      <c r="FA19" s="41">
+        <v>2015</v>
+      </c>
+      <c r="FB19" s="41">
+        <v>2015</v>
+      </c>
+      <c r="FC19" s="41">
+        <v>2015</v>
+      </c>
+      <c r="FD19" s="41">
+        <v>2015</v>
+      </c>
+      <c r="FE19" s="41" t="s">
+        <v>2644</v>
+      </c>
+      <c r="FF19" s="41" t="s">
+        <v>2659</v>
+      </c>
+      <c r="FG19" s="41" t="s">
+        <v>2671</v>
+      </c>
+      <c r="FH19" s="41" t="s">
+        <v>2659</v>
+      </c>
+      <c r="FI19" s="41" t="s">
+        <v>2689</v>
+      </c>
+      <c r="FJ19" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK19" s="41">
+        <v>2011</v>
+      </c>
+      <c r="FL19" s="41">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="20" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="92">
         <v>17</v>
       </c>
@@ -20725,19 +22069,19 @@
       <c r="EH20" s="115" t="s">
         <v>2309</v>
       </c>
-      <c r="EI20" s="188" t="s">
+      <c r="EI20" s="187" t="s">
         <v>2323</v>
       </c>
       <c r="EJ20" s="115" t="s">
         <v>2337</v>
       </c>
-      <c r="EK20" s="188" t="s">
+      <c r="EK20" s="187" t="s">
         <v>2349</v>
       </c>
       <c r="EL20" s="115" t="s">
         <v>2365</v>
       </c>
-      <c r="EM20" s="188" t="s">
+      <c r="EM20" s="187" t="s">
         <v>2349</v>
       </c>
       <c r="EN20" s="115" t="s">
@@ -20779,8 +22123,44 @@
       <c r="EZ20" s="115" t="s">
         <v>2337</v>
       </c>
+      <c r="FA20" s="41" t="s">
+        <v>2613</v>
+      </c>
+      <c r="FB20" s="41" t="s">
+        <v>2613</v>
+      </c>
+      <c r="FC20" s="41" t="s">
+        <v>2613</v>
+      </c>
+      <c r="FD20" s="41" t="s">
+        <v>2613</v>
+      </c>
+      <c r="FE20" s="41" t="s">
+        <v>2645</v>
+      </c>
+      <c r="FF20" s="41" t="s">
+        <v>1145</v>
+      </c>
+      <c r="FG20" s="41" t="s">
+        <v>1145</v>
+      </c>
+      <c r="FH20" s="41" t="s">
+        <v>2679</v>
+      </c>
+      <c r="FI20" s="41" t="s">
+        <v>2337</v>
+      </c>
+      <c r="FJ20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK20" s="41" t="s">
+        <v>2712</v>
+      </c>
+      <c r="FL20" s="41" t="s">
+        <v>2712</v>
+      </c>
     </row>
-    <row r="21" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="92">
         <v>18</v>
       </c>
@@ -21187,19 +22567,19 @@
       <c r="EH21" s="115" t="s">
         <v>2310</v>
       </c>
-      <c r="EI21" s="188" t="s">
+      <c r="EI21" s="187" t="s">
         <v>2324</v>
       </c>
       <c r="EJ21" s="115" t="s">
         <v>2338</v>
       </c>
-      <c r="EK21" s="188" t="s">
+      <c r="EK21" s="187" t="s">
         <v>2350</v>
       </c>
       <c r="EL21" s="115" t="s">
         <v>2366</v>
       </c>
-      <c r="EM21" s="188" t="s">
+      <c r="EM21" s="187" t="s">
         <v>2380</v>
       </c>
       <c r="EN21" s="115" t="s">
@@ -21241,8 +22621,44 @@
       <c r="EZ21" s="115" t="s">
         <v>2566</v>
       </c>
+      <c r="FA21" s="41" t="s">
+        <v>2614</v>
+      </c>
+      <c r="FB21" s="41" t="s">
+        <v>2623</v>
+      </c>
+      <c r="FC21" s="41" t="s">
+        <v>2614</v>
+      </c>
+      <c r="FD21" s="41" t="s">
+        <v>2623</v>
+      </c>
+      <c r="FE21" s="41" t="s">
+        <v>2646</v>
+      </c>
+      <c r="FF21" s="41" t="s">
+        <v>2660</v>
+      </c>
+      <c r="FG21" s="41" t="s">
+        <v>2672</v>
+      </c>
+      <c r="FH21" s="41" t="s">
+        <v>2680</v>
+      </c>
+      <c r="FI21" s="41" t="s">
+        <v>2690</v>
+      </c>
+      <c r="FJ21" s="41" t="s">
+        <v>2702</v>
+      </c>
+      <c r="FK21" s="41" t="s">
+        <v>2713</v>
+      </c>
+      <c r="FL21" s="41" t="s">
+        <v>2725</v>
+      </c>
     </row>
-    <row r="22" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="92">
         <v>19</v>
       </c>
@@ -21655,19 +23071,19 @@
       <c r="EH22" s="115" t="s">
         <v>2023</v>
       </c>
-      <c r="EI22" s="188" t="s">
+      <c r="EI22" s="187" t="s">
         <v>2325</v>
       </c>
       <c r="EJ22" s="115" t="s">
         <v>2339</v>
       </c>
-      <c r="EK22" s="188" t="s">
+      <c r="EK22" s="187" t="s">
         <v>2351</v>
       </c>
       <c r="EL22" s="115" t="s">
         <v>2367</v>
       </c>
-      <c r="EM22" s="188" t="s">
+      <c r="EM22" s="187" t="s">
         <v>2381</v>
       </c>
       <c r="EN22" s="115" t="s">
@@ -21709,8 +23125,44 @@
       <c r="EZ22" s="115" t="s">
         <v>2339</v>
       </c>
+      <c r="FA22" s="41" t="s">
+        <v>2615</v>
+      </c>
+      <c r="FB22" s="41" t="s">
+        <v>2624</v>
+      </c>
+      <c r="FC22" s="41" t="s">
+        <v>2633</v>
+      </c>
+      <c r="FD22" s="41" t="s">
+        <v>2636</v>
+      </c>
+      <c r="FE22" s="41" t="s">
+        <v>2647</v>
+      </c>
+      <c r="FF22" s="41" t="s">
+        <v>2661</v>
+      </c>
+      <c r="FG22" s="41" t="s">
+        <v>2673</v>
+      </c>
+      <c r="FH22" s="41" t="s">
+        <v>2681</v>
+      </c>
+      <c r="FI22" s="41" t="s">
+        <v>2691</v>
+      </c>
+      <c r="FJ22" s="41" t="s">
+        <v>2703</v>
+      </c>
+      <c r="FK22" s="41" t="s">
+        <v>2714</v>
+      </c>
+      <c r="FL22" s="41" t="s">
+        <v>2714</v>
+      </c>
     </row>
-    <row r="23" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="92">
         <v>20</v>
       </c>
@@ -22123,19 +23575,19 @@
       <c r="EH23" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="EI23" s="188" t="s">
+      <c r="EI23" s="187" t="s">
         <v>24</v>
       </c>
       <c r="EJ23" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="EK23" s="188" t="s">
+      <c r="EK23" s="187" t="s">
         <v>24</v>
       </c>
       <c r="EL23" s="115" t="s">
         <v>634</v>
       </c>
-      <c r="EM23" s="188" t="s">
+      <c r="EM23" s="187" t="s">
         <v>24</v>
       </c>
       <c r="EN23" s="115" t="s">
@@ -22159,10 +23611,10 @@
       <c r="ET23" s="115" t="s">
         <v>2213</v>
       </c>
-      <c r="EU23" s="196" t="s">
+      <c r="EU23" s="195" t="s">
         <v>1054</v>
       </c>
-      <c r="EV23" s="196" t="s">
+      <c r="EV23" s="195" t="s">
         <v>1054</v>
       </c>
       <c r="EW23" s="169" t="s">
@@ -22177,8 +23629,44 @@
       <c r="EZ23" s="115" t="s">
         <v>2546</v>
       </c>
+      <c r="FA23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="FB23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="FC23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="FD23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="FE23" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="FF23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="FG23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="FH23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="FI23" s="41" t="s">
+        <v>1586</v>
+      </c>
+      <c r="FJ23" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="FK23" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="FL23" s="41" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="24" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="92">
         <v>21</v>
       </c>
@@ -22591,7 +24079,7 @@
       <c r="EH24" s="115">
         <v>59472</v>
       </c>
-      <c r="EI24" s="188">
+      <c r="EI24" s="187">
         <v>88</v>
       </c>
       <c r="EJ24" s="115">
@@ -22627,13 +24115,13 @@
       <c r="ET24" s="115">
         <v>49</v>
       </c>
-      <c r="EU24" s="185">
+      <c r="EU24" s="184">
         <v>128</v>
       </c>
-      <c r="EV24" s="185">
+      <c r="EV24" s="184">
         <v>56</v>
       </c>
-      <c r="EW24" s="186">
+      <c r="EW24" s="185">
         <v>90</v>
       </c>
       <c r="EX24" s="155">
@@ -22645,8 +24133,44 @@
       <c r="EZ24" s="155">
         <v>53</v>
       </c>
+      <c r="FA24" s="41">
+        <v>2436</v>
+      </c>
+      <c r="FB24" s="41">
+        <v>812</v>
+      </c>
+      <c r="FC24" s="41">
+        <v>3654</v>
+      </c>
+      <c r="FD24" s="41">
+        <v>1218</v>
+      </c>
+      <c r="FE24" s="41">
+        <v>24</v>
+      </c>
+      <c r="FF24" s="41">
+        <v>293</v>
+      </c>
+      <c r="FG24" s="41">
+        <v>121</v>
+      </c>
+      <c r="FH24" s="41">
+        <v>228</v>
+      </c>
+      <c r="FI24" s="41">
+        <v>32</v>
+      </c>
+      <c r="FJ24" s="41">
+        <v>72</v>
+      </c>
+      <c r="FK24" s="41">
+        <v>72</v>
+      </c>
+      <c r="FL24" s="41">
+        <v>137</v>
+      </c>
     </row>
-    <row r="25" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="92">
         <v>22</v>
       </c>
@@ -23057,7 +24581,7 @@
       <c r="EH25" s="115" t="s">
         <v>2311</v>
       </c>
-      <c r="EI25" s="188" t="s">
+      <c r="EI25" s="187" t="s">
         <v>2326</v>
       </c>
       <c r="EJ25" s="115" t="s">
@@ -23066,7 +24590,7 @@
       <c r="EK25" s="155" t="s">
         <v>2352</v>
       </c>
-      <c r="EL25" s="186" t="s">
+      <c r="EL25" s="185" t="s">
         <v>2368</v>
       </c>
       <c r="EM25" s="155" t="s">
@@ -23111,8 +24635,41 @@
       <c r="EZ25" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA25" s="41" t="s">
+        <v>2616</v>
+      </c>
+      <c r="FB25" s="41" t="s">
+        <v>2625</v>
+      </c>
+      <c r="FC25" s="41" t="s">
+        <v>2616</v>
+      </c>
+      <c r="FD25" s="41" t="s">
+        <v>2625</v>
+      </c>
+      <c r="FE25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="FF25" s="41" t="s">
+        <v>2662</v>
+      </c>
+      <c r="FG25" s="41" t="s">
+        <v>2674</v>
+      </c>
+      <c r="FH25" s="41" t="s">
+        <v>2682</v>
+      </c>
+      <c r="FI25" s="41" t="s">
+        <v>2692</v>
+      </c>
+      <c r="FK25" s="41" t="s">
+        <v>2715</v>
+      </c>
+      <c r="FL25" s="41" t="s">
+        <v>2726</v>
+      </c>
     </row>
-    <row r="26" spans="1:156" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:168" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="92">
         <v>23</v>
       </c>
@@ -23512,34 +25069,34 @@
       <c r="EC26" s="159" t="s">
         <v>696</v>
       </c>
-      <c r="ED26" s="185" t="s">
+      <c r="ED26" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="EE26" s="185" t="s">
+      <c r="EE26" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="EF26" s="185" t="s">
+      <c r="EF26" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="EG26" s="185" t="s">
+      <c r="EG26" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="EH26" s="185" t="s">
+      <c r="EH26" s="184" t="s">
         <v>849</v>
       </c>
-      <c r="EI26" s="188" t="s">
+      <c r="EI26" s="187" t="s">
         <v>696</v>
       </c>
       <c r="EJ26" s="115" t="s">
         <v>696</v>
       </c>
-      <c r="EK26" s="188" t="s">
+      <c r="EK26" s="187" t="s">
         <v>696</v>
       </c>
       <c r="EL26" s="115" t="s">
         <v>696</v>
       </c>
-      <c r="EM26" s="188" t="s">
+      <c r="EM26" s="187" t="s">
         <v>696</v>
       </c>
       <c r="EN26" s="159" t="s">
@@ -23560,7 +25117,7 @@
       <c r="ES26" s="159" t="s">
         <v>698</v>
       </c>
-      <c r="ET26" s="185" t="s">
+      <c r="ET26" s="184" t="s">
         <v>849</v>
       </c>
       <c r="EU26" s="159" t="s">
@@ -23581,8 +25138,44 @@
       <c r="EZ26" s="115" t="s">
         <v>696</v>
       </c>
+      <c r="FA26" s="68" t="s">
+        <v>713</v>
+      </c>
+      <c r="FB26" s="68" t="s">
+        <v>1440</v>
+      </c>
+      <c r="FC26" s="68" t="s">
+        <v>713</v>
+      </c>
+      <c r="FD26" s="68" t="s">
+        <v>1440</v>
+      </c>
+      <c r="FE26" s="68" t="s">
+        <v>852</v>
+      </c>
+      <c r="FF26" s="68" t="s">
+        <v>699</v>
+      </c>
+      <c r="FG26" s="68" t="s">
+        <v>699</v>
+      </c>
+      <c r="FH26" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="FI26" s="68" t="s">
+        <v>696</v>
+      </c>
+      <c r="FJ26" s="68" t="s">
+        <v>1440</v>
+      </c>
+      <c r="FK26" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="FL26" s="68" t="s">
+        <v>1033</v>
+      </c>
     </row>
-    <row r="27" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="92">
         <v>24</v>
       </c>
@@ -23977,7 +25570,7 @@
       <c r="EB27" s="159">
         <v>94</v>
       </c>
-      <c r="EC27" s="183">
+      <c r="EC27" s="182">
         <v>7</v>
       </c>
       <c r="ED27" s="159">
@@ -23995,19 +25588,19 @@
       <c r="EH27" s="159">
         <v>4</v>
       </c>
-      <c r="EI27" s="188">
+      <c r="EI27" s="187">
         <v>7</v>
       </c>
       <c r="EJ27" s="115">
         <v>7</v>
       </c>
-      <c r="EK27" s="188">
+      <c r="EK27" s="187">
         <v>7</v>
       </c>
       <c r="EL27" s="115">
         <v>7</v>
       </c>
-      <c r="EM27" s="188">
+      <c r="EM27" s="187">
         <v>7</v>
       </c>
       <c r="EN27" s="159">
@@ -24049,8 +25642,44 @@
       <c r="EZ27" s="115">
         <v>7</v>
       </c>
+      <c r="FA27" s="68">
+        <v>10</v>
+      </c>
+      <c r="FB27" s="68">
+        <v>6</v>
+      </c>
+      <c r="FC27" s="68">
+        <v>10</v>
+      </c>
+      <c r="FD27" s="68">
+        <v>6</v>
+      </c>
+      <c r="FE27" s="68">
+        <v>4</v>
+      </c>
+      <c r="FF27" s="68">
+        <v>6</v>
+      </c>
+      <c r="FG27" s="68">
+        <v>6</v>
+      </c>
+      <c r="FH27" s="68">
+        <v>6</v>
+      </c>
+      <c r="FI27" s="68">
+        <v>7</v>
+      </c>
+      <c r="FJ27" s="68">
+        <v>6</v>
+      </c>
+      <c r="FK27" s="68">
+        <v>4</v>
+      </c>
+      <c r="FL27" s="68">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="92">
         <v>25</v>
       </c>
@@ -24461,19 +26090,19 @@
       <c r="EH28" s="159" t="s">
         <v>699</v>
       </c>
-      <c r="EI28" s="188" t="s">
+      <c r="EI28" s="187" t="s">
         <v>853</v>
       </c>
       <c r="EJ28" s="115" t="s">
         <v>697</v>
       </c>
-      <c r="EK28" s="188" t="s">
+      <c r="EK28" s="187" t="s">
         <v>704</v>
       </c>
       <c r="EL28" s="115" t="s">
         <v>697</v>
       </c>
-      <c r="EM28" s="188" t="s">
+      <c r="EM28" s="187" t="s">
         <v>704</v>
       </c>
       <c r="EN28" s="159" t="s">
@@ -24485,7 +26114,7 @@
       <c r="EP28" s="159" t="s">
         <v>696</v>
       </c>
-      <c r="EQ28" s="185" t="s">
+      <c r="EQ28" s="184" t="s">
         <v>849</v>
       </c>
       <c r="ER28" s="115" t="s">
@@ -24515,8 +26144,44 @@
       <c r="EZ28" s="115" t="s">
         <v>697</v>
       </c>
+      <c r="FA28" s="68" t="s">
+        <v>853</v>
+      </c>
+      <c r="FB28" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FC28" s="68" t="s">
+        <v>853</v>
+      </c>
+      <c r="FD28" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FE28" s="68" t="s">
+        <v>707</v>
+      </c>
+      <c r="FF28" s="68" t="s">
+        <v>700</v>
+      </c>
+      <c r="FG28" s="68" t="s">
+        <v>700</v>
+      </c>
+      <c r="FH28" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="FI28" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="FJ28" s="68" t="s">
+        <v>696</v>
+      </c>
+      <c r="FK28" s="68" t="s">
+        <v>1087</v>
+      </c>
+      <c r="FL28" s="68" t="s">
+        <v>1087</v>
+      </c>
     </row>
-    <row r="29" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="92">
         <v>26</v>
       </c>
@@ -24891,25 +26556,25 @@
       <c r="DV29" s="68">
         <v>72</v>
       </c>
-      <c r="DW29" s="183">
+      <c r="DW29" s="182">
         <v>3</v>
       </c>
-      <c r="DX29" s="183">
+      <c r="DX29" s="182">
         <v>13</v>
       </c>
-      <c r="DY29" s="183">
+      <c r="DY29" s="182">
         <v>3</v>
       </c>
-      <c r="DZ29" s="183">
+      <c r="DZ29" s="182">
         <v>13</v>
       </c>
-      <c r="EA29" s="183">
+      <c r="EA29" s="182">
         <v>90</v>
       </c>
-      <c r="EB29" s="183">
+      <c r="EB29" s="182">
         <v>3</v>
       </c>
-      <c r="EC29" s="183">
+      <c r="EC29" s="182">
         <v>2</v>
       </c>
       <c r="ED29" s="159">
@@ -24927,40 +26592,40 @@
       <c r="EH29" s="159">
         <v>6</v>
       </c>
-      <c r="EI29" s="188">
+      <c r="EI29" s="187">
         <v>12</v>
       </c>
       <c r="EJ29" s="115">
         <v>6</v>
       </c>
-      <c r="EK29" s="188">
+      <c r="EK29" s="187">
         <v>3</v>
       </c>
       <c r="EL29" s="115">
         <v>6</v>
       </c>
-      <c r="EM29" s="188">
+      <c r="EM29" s="187">
         <v>14</v>
       </c>
-      <c r="EN29" s="183">
+      <c r="EN29" s="182">
         <v>1</v>
       </c>
-      <c r="EO29" s="183">
+      <c r="EO29" s="182">
         <v>7</v>
       </c>
-      <c r="EP29" s="183">
+      <c r="EP29" s="182">
         <v>7</v>
       </c>
-      <c r="EQ29" s="183">
+      <c r="EQ29" s="182">
         <v>4</v>
       </c>
-      <c r="ER29" s="185">
+      <c r="ER29" s="184">
         <v>7</v>
       </c>
-      <c r="ES29" s="183">
+      <c r="ES29" s="182">
         <v>7</v>
       </c>
-      <c r="ET29" s="183">
+      <c r="ET29" s="182">
         <v>90</v>
       </c>
       <c r="EU29" s="159">
@@ -24972,17 +26637,53 @@
       <c r="EW29" s="159">
         <v>93</v>
       </c>
-      <c r="EX29" s="185">
+      <c r="EX29" s="184">
         <v>6</v>
       </c>
-      <c r="EY29" s="185">
+      <c r="EY29" s="184">
         <v>6</v>
       </c>
-      <c r="EZ29" s="185">
+      <c r="EZ29" s="184">
         <v>6</v>
       </c>
+      <c r="FA29" s="68">
+        <v>12</v>
+      </c>
+      <c r="FB29" s="68">
+        <v>2</v>
+      </c>
+      <c r="FC29" s="68">
+        <v>12</v>
+      </c>
+      <c r="FD29" s="68">
+        <v>2</v>
+      </c>
+      <c r="FE29" s="68">
+        <v>7</v>
+      </c>
+      <c r="FF29" s="68">
+        <v>6</v>
+      </c>
+      <c r="FG29" s="68">
+        <v>6</v>
+      </c>
+      <c r="FH29" s="68">
+        <v>4</v>
+      </c>
+      <c r="FI29" s="68">
+        <v>6</v>
+      </c>
+      <c r="FJ29" s="68">
+        <v>7</v>
+      </c>
+      <c r="FK29" s="68">
+        <v>18</v>
+      </c>
+      <c r="FL29" s="68">
+        <v>18</v>
+      </c>
     </row>
-    <row r="30" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="92">
         <v>27</v>
       </c>
@@ -25390,10 +27091,10 @@
       <c r="EG30" s="159" t="s">
         <v>849</v>
       </c>
-      <c r="EH30" s="185" t="s">
+      <c r="EH30" s="184" t="s">
         <v>696</v>
       </c>
-      <c r="EI30" s="188" t="s">
+      <c r="EI30" s="187" t="s">
         <v>698</v>
       </c>
       <c r="EJ30" s="115" t="s">
@@ -25447,8 +27148,44 @@
       <c r="EZ30" s="115" t="s">
         <v>698</v>
       </c>
+      <c r="FA30" s="68" t="s">
+        <v>1440</v>
+      </c>
+      <c r="FB30" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="FC30" s="68" t="s">
+        <v>1440</v>
+      </c>
+      <c r="FD30" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="FE30" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="FF30" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="FG30" s="68" t="s">
+        <v>849</v>
+      </c>
+      <c r="FH30" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FI30" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FJ30" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FK30" s="68" t="s">
+        <v>1657</v>
+      </c>
+      <c r="FL30" s="68" t="s">
+        <v>1657</v>
+      </c>
     </row>
-    <row r="31" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="92">
         <v>28</v>
       </c>
@@ -25823,22 +27560,22 @@
       <c r="DV31" s="68">
         <v>6</v>
       </c>
-      <c r="DW31" s="183">
+      <c r="DW31" s="182">
         <v>28</v>
       </c>
-      <c r="DX31" s="183">
+      <c r="DX31" s="182">
         <v>13</v>
       </c>
-      <c r="DY31" s="183">
+      <c r="DY31" s="182">
         <v>90</v>
       </c>
       <c r="DZ31" s="159">
         <v>14</v>
       </c>
-      <c r="EA31" s="183">
+      <c r="EA31" s="182">
         <v>94</v>
       </c>
-      <c r="EB31" s="183">
+      <c r="EB31" s="182">
         <v>90</v>
       </c>
       <c r="EC31" s="159">
@@ -25859,19 +27596,19 @@
       <c r="EH31" s="159">
         <v>7</v>
       </c>
-      <c r="EI31" s="188">
+      <c r="EI31" s="187">
         <v>2</v>
       </c>
       <c r="EJ31" s="115">
         <v>2</v>
       </c>
-      <c r="EK31" s="188">
+      <c r="EK31" s="187">
         <v>2</v>
       </c>
       <c r="EL31" s="115">
         <v>3</v>
       </c>
-      <c r="EM31" s="188">
+      <c r="EM31" s="187">
         <v>2</v>
       </c>
       <c r="EN31" s="159" t="s">
@@ -25892,7 +27629,7 @@
       <c r="ES31" s="159">
         <v>14</v>
       </c>
-      <c r="ET31" s="183">
+      <c r="ET31" s="182">
         <v>7</v>
       </c>
       <c r="EU31" s="159">
@@ -25913,8 +27650,44 @@
       <c r="EZ31" s="115">
         <v>2</v>
       </c>
+      <c r="FA31" s="68">
+        <v>6</v>
+      </c>
+      <c r="FB31" s="68">
+        <v>3</v>
+      </c>
+      <c r="FC31" s="68">
+        <v>6</v>
+      </c>
+      <c r="FD31" s="68">
+        <v>3</v>
+      </c>
+      <c r="FE31" s="68">
+        <v>6</v>
+      </c>
+      <c r="FF31" s="68">
+        <v>4</v>
+      </c>
+      <c r="FG31" s="68">
+        <v>4</v>
+      </c>
+      <c r="FH31" s="68">
+        <v>2</v>
+      </c>
+      <c r="FI31" s="68">
+        <v>2</v>
+      </c>
+      <c r="FJ31" s="68">
+        <v>2</v>
+      </c>
+      <c r="FK31" s="68">
+        <v>93</v>
+      </c>
+      <c r="FL31" s="68">
+        <v>93</v>
+      </c>
     </row>
-    <row r="32" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="92">
         <v>29</v>
       </c>
@@ -26325,40 +28098,40 @@
       <c r="EH32" s="159" t="s">
         <v>700</v>
       </c>
-      <c r="EI32" s="188" t="s">
+      <c r="EI32" s="187" t="s">
         <v>702</v>
       </c>
       <c r="EJ32" s="115" t="s">
         <v>704</v>
       </c>
-      <c r="EK32" s="189" t="s">
+      <c r="EK32" s="188" t="s">
         <v>849</v>
       </c>
       <c r="EL32" s="115" t="s">
         <v>698</v>
       </c>
-      <c r="EM32" s="189" t="s">
+      <c r="EM32" s="188" t="s">
         <v>1640</v>
       </c>
       <c r="EN32" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EO32" s="185" t="s">
+      <c r="EO32" s="184" t="s">
         <v>849</v>
       </c>
-      <c r="EP32" s="185" t="s">
+      <c r="EP32" s="184" t="s">
         <v>1640</v>
       </c>
-      <c r="EQ32" s="185" t="s">
+      <c r="EQ32" s="184" t="s">
         <v>702</v>
       </c>
       <c r="ER32" s="115" t="s">
         <v>849</v>
       </c>
-      <c r="ES32" s="185" t="s">
+      <c r="ES32" s="184" t="s">
         <v>849</v>
       </c>
-      <c r="ET32" s="185" t="s">
+      <c r="ET32" s="184" t="s">
         <v>702</v>
       </c>
       <c r="EU32" s="159" t="s">
@@ -26370,17 +28143,53 @@
       <c r="EW32" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EX32" s="185" t="s">
+      <c r="EX32" s="184" t="s">
         <v>704</v>
       </c>
-      <c r="EY32" s="185" t="s">
+      <c r="EY32" s="184" t="s">
         <v>704</v>
       </c>
-      <c r="EZ32" s="185" t="s">
+      <c r="EZ32" s="184" t="s">
         <v>704</v>
       </c>
+      <c r="FA32" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FB32" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="FC32" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FD32" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="FE32" s="68" t="s">
+        <v>706</v>
+      </c>
+      <c r="FF32" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FG32" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FH32" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="FI32" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="FJ32" s="68" t="s">
+        <v>1034</v>
+      </c>
+      <c r="FK32" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FL32" s="68" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="33" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92">
         <v>30</v>
       </c>
@@ -26776,34 +28585,34 @@
       <c r="EC33" s="159">
         <v>4</v>
       </c>
-      <c r="ED33" s="185">
+      <c r="ED33" s="184">
         <v>13</v>
       </c>
-      <c r="EE33" s="185">
+      <c r="EE33" s="184">
         <v>13</v>
       </c>
-      <c r="EF33" s="185">
+      <c r="EF33" s="184">
         <v>13</v>
       </c>
-      <c r="EG33" s="185">
+      <c r="EG33" s="184">
         <v>13</v>
       </c>
       <c r="EH33" s="159">
         <v>6</v>
       </c>
-      <c r="EI33" s="188">
+      <c r="EI33" s="187">
         <v>3</v>
       </c>
       <c r="EJ33" s="115">
         <v>9</v>
       </c>
-      <c r="EK33" s="188">
+      <c r="EK33" s="187">
         <v>4</v>
       </c>
       <c r="EL33" s="115">
         <v>2</v>
       </c>
-      <c r="EM33" s="188">
+      <c r="EM33" s="187">
         <v>90</v>
       </c>
       <c r="EN33" s="159" t="s">
@@ -26845,8 +28654,44 @@
       <c r="EZ33" s="115">
         <v>3</v>
       </c>
+      <c r="FA33" s="68">
+        <v>2</v>
+      </c>
+      <c r="FB33" s="68">
+        <v>14</v>
+      </c>
+      <c r="FC33" s="68">
+        <v>2</v>
+      </c>
+      <c r="FD33" s="68">
+        <v>14</v>
+      </c>
+      <c r="FE33" s="68">
+        <v>4</v>
+      </c>
+      <c r="FF33" s="68">
+        <v>2</v>
+      </c>
+      <c r="FG33" s="68">
+        <v>2</v>
+      </c>
+      <c r="FH33" s="68">
+        <v>3</v>
+      </c>
+      <c r="FI33" s="68">
+        <v>3</v>
+      </c>
+      <c r="FJ33" s="68">
+        <v>20</v>
+      </c>
+      <c r="FK33" s="68">
+        <v>2</v>
+      </c>
+      <c r="FL33" s="68">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="92">
         <v>31</v>
       </c>
@@ -27254,43 +29099,43 @@
       <c r="EG34" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EH34" s="185" t="s">
+      <c r="EH34" s="184" t="s">
         <v>698</v>
       </c>
-      <c r="EI34" s="188" t="s">
+      <c r="EI34" s="187" t="s">
         <v>713</v>
       </c>
       <c r="EJ34" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK34" s="189" t="s">
+      <c r="EK34" s="188" t="s">
         <v>1441</v>
       </c>
-      <c r="EL34" s="185" t="s">
+      <c r="EL34" s="184" t="s">
         <v>1133</v>
       </c>
-      <c r="EM34" s="189" t="s">
+      <c r="EM34" s="188" t="s">
         <v>849</v>
       </c>
       <c r="EN34" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EO34" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="EP34" s="185" t="s">
+      <c r="EO34" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="EP34" s="184" t="s">
         <v>849</v>
       </c>
-      <c r="EQ34" s="185" t="s">
+      <c r="EQ34" s="184" t="s">
         <v>11</v>
       </c>
       <c r="ER34" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="ES34" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="ET34" s="185" t="s">
+      <c r="ES34" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET34" s="184" t="s">
         <v>698</v>
       </c>
       <c r="EU34" s="159" t="s">
@@ -27302,17 +29147,53 @@
       <c r="EW34" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EX34" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="EY34" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="EZ34" s="185" t="s">
-        <v>11</v>
+      <c r="EX34" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="EY34" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="EZ34" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="FA34" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="FB34" s="68" t="s">
+        <v>851</v>
+      </c>
+      <c r="FC34" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="FD34" s="68" t="s">
+        <v>851</v>
+      </c>
+      <c r="FE34" s="68" t="s">
+        <v>799</v>
+      </c>
+      <c r="FF34" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="FG34" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="FH34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI34" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ34" s="68" t="s">
+        <v>1441</v>
+      </c>
+      <c r="FK34" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="FL34" s="68" t="s">
+        <v>702</v>
       </c>
     </row>
-    <row r="35" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="92">
         <v>32</v>
       </c>
@@ -27720,43 +29601,43 @@
       <c r="EG35" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EH35" s="185">
+      <c r="EH35" s="184">
         <v>2</v>
       </c>
-      <c r="EI35" s="188">
+      <c r="EI35" s="187">
         <v>10</v>
       </c>
       <c r="EJ35" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK35" s="188">
+      <c r="EK35" s="187">
         <v>86</v>
       </c>
       <c r="EL35" s="115">
         <v>11</v>
       </c>
-      <c r="EM35" s="188">
+      <c r="EM35" s="187">
         <v>4</v>
       </c>
       <c r="EN35" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EO35" s="185" t="s">
+      <c r="EO35" s="184" t="s">
         <v>11</v>
       </c>
       <c r="EP35" s="159">
         <v>4</v>
       </c>
-      <c r="EQ35" s="185" t="s">
+      <c r="EQ35" s="184" t="s">
         <v>11</v>
       </c>
       <c r="ER35" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="ES35" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="ET35" s="185">
+      <c r="ES35" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="ET35" s="184">
         <v>2</v>
       </c>
       <c r="EU35" s="159">
@@ -27768,17 +29649,53 @@
       <c r="EW35" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EX35" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="EY35" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="EZ35" s="185" t="s">
-        <v>11</v>
+      <c r="EX35" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="EY35" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="EZ35" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="FA35" s="68">
+        <v>14</v>
+      </c>
+      <c r="FB35" s="68">
+        <v>13</v>
+      </c>
+      <c r="FC35" s="68">
+        <v>14</v>
+      </c>
+      <c r="FD35" s="68">
+        <v>13</v>
+      </c>
+      <c r="FE35" s="68">
+        <v>7</v>
+      </c>
+      <c r="FF35" s="68">
+        <v>3</v>
+      </c>
+      <c r="FG35" s="68">
+        <v>3</v>
+      </c>
+      <c r="FH35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ35" s="68">
+        <v>86</v>
+      </c>
+      <c r="FK35" s="68">
+        <v>3</v>
+      </c>
+      <c r="FL35" s="68">
+        <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="92">
         <v>33</v>
       </c>
@@ -28189,19 +30106,19 @@
       <c r="EH36" s="159" t="s">
         <v>702</v>
       </c>
-      <c r="EI36" s="188" t="s">
+      <c r="EI36" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ36" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK36" s="188" t="s">
+      <c r="EK36" s="187" t="s">
         <v>1034</v>
       </c>
       <c r="EL36" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM36" s="189" t="s">
+      <c r="EM36" s="188" t="s">
         <v>1441</v>
       </c>
       <c r="EN36" s="159" t="s">
@@ -28243,8 +30160,44 @@
       <c r="EZ36" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA36" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="FB36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC36" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="FD36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE36" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="FF36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK36" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL36" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="92">
         <v>34</v>
       </c>
@@ -28655,19 +30608,19 @@
       <c r="EH37" s="159">
         <v>3</v>
       </c>
-      <c r="EI37" s="188" t="s">
+      <c r="EI37" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ37" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK37" s="188">
+      <c r="EK37" s="187">
         <v>20</v>
       </c>
       <c r="EL37" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM37" s="188">
+      <c r="EM37" s="187">
         <v>86</v>
       </c>
       <c r="EN37" s="159" t="s">
@@ -28709,8 +30662,44 @@
       <c r="EZ37" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA37" s="68">
+        <v>3</v>
+      </c>
+      <c r="FB37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC37" s="68">
+        <v>3</v>
+      </c>
+      <c r="FD37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE37" s="68">
+        <v>3</v>
+      </c>
+      <c r="FF37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK37" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL37" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="92">
         <v>35</v>
       </c>
@@ -29121,19 +31110,19 @@
       <c r="EH38" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI38" s="188" t="s">
+      <c r="EI38" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ38" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK38" s="188" t="s">
+      <c r="EK38" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL38" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM38" s="188" t="s">
+      <c r="EM38" s="187" t="s">
         <v>1034</v>
       </c>
       <c r="EN38" s="159" t="s">
@@ -29175,8 +31164,44 @@
       <c r="EZ38" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA38" s="68" t="s">
+        <v>851</v>
+      </c>
+      <c r="FB38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC38" s="68" t="s">
+        <v>851</v>
+      </c>
+      <c r="FD38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE38" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="FF38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK38" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL38" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="39" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="92">
         <v>36</v>
       </c>
@@ -29587,19 +31612,19 @@
       <c r="EH39" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI39" s="188" t="s">
+      <c r="EI39" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ39" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK39" s="188" t="s">
+      <c r="EK39" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL39" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM39" s="188">
+      <c r="EM39" s="187">
         <v>20</v>
       </c>
       <c r="EN39" s="159" t="s">
@@ -29641,8 +31666,44 @@
       <c r="EZ39" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA39" s="68">
+        <v>13</v>
+      </c>
+      <c r="FB39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC39" s="68">
+        <v>13</v>
+      </c>
+      <c r="FD39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE39" s="68">
+        <v>2</v>
+      </c>
+      <c r="FF39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK39" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL39" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="92">
         <v>37</v>
       </c>
@@ -30053,19 +32114,19 @@
       <c r="EH40" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI40" s="188" t="s">
+      <c r="EI40" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ40" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK40" s="188" t="s">
+      <c r="EK40" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL40" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM40" s="188" t="s">
+      <c r="EM40" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EN40" s="159" t="s">
@@ -30107,8 +32168,44 @@
       <c r="EZ40" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE40" s="68" t="s">
+        <v>1441</v>
+      </c>
+      <c r="FF40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK40" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL40" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="92">
         <v>38</v>
       </c>
@@ -30519,19 +32616,19 @@
       <c r="EH41" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI41" s="188" t="s">
+      <c r="EI41" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ41" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK41" s="188" t="s">
+      <c r="EK41" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL41" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM41" s="188" t="s">
+      <c r="EM41" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EN41" s="159" t="s">
@@ -30573,8 +32670,44 @@
       <c r="EZ41" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE41" s="68">
+        <v>86</v>
+      </c>
+      <c r="FF41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK41" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL41" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="92">
         <v>39</v>
       </c>
@@ -30985,19 +33118,19 @@
       <c r="EH42" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI42" s="188" t="s">
+      <c r="EI42" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ42" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK42" s="188" t="s">
+      <c r="EK42" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL42" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM42" s="188" t="s">
+      <c r="EM42" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EN42" s="159" t="s">
@@ -31039,8 +33172,44 @@
       <c r="EZ42" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FF42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL42" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="92">
         <v>40</v>
       </c>
@@ -31451,19 +33620,19 @@
       <c r="EH43" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI43" s="188" t="s">
+      <c r="EI43" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ43" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK43" s="188" t="s">
+      <c r="EK43" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL43" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM43" s="188" t="s">
+      <c r="EM43" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EN43" s="159" t="s">
@@ -31505,8 +33674,44 @@
       <c r="EZ43" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FF43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK43" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL43" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="92">
         <v>41</v>
       </c>
@@ -31917,19 +34122,19 @@
       <c r="EH44" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI44" s="188" t="s">
+      <c r="EI44" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ44" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK44" s="188" t="s">
+      <c r="EK44" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL44" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM44" s="188" t="s">
+      <c r="EM44" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EN44" s="159" t="s">
@@ -31971,8 +34176,44 @@
       <c r="EZ44" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FF44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK44" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL44" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="92">
         <v>42</v>
       </c>
@@ -32383,19 +34624,19 @@
       <c r="EH45" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI45" s="188" t="s">
+      <c r="EI45" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ45" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK45" s="188" t="s">
+      <c r="EK45" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL45" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM45" s="188" t="s">
+      <c r="EM45" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EN45" s="159" t="s">
@@ -32437,8 +34678,44 @@
       <c r="EZ45" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FF45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK45" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL45" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="92">
         <v>43</v>
       </c>
@@ -32849,19 +35126,19 @@
       <c r="EH46" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI46" s="188" t="s">
+      <c r="EI46" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ46" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK46" s="188" t="s">
+      <c r="EK46" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL46" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM46" s="188" t="s">
+      <c r="EM46" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EN46" s="159" t="s">
@@ -32903,8 +35180,44 @@
       <c r="EZ46" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FF46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK46" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL46" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="92">
         <v>44</v>
       </c>
@@ -33315,19 +35628,19 @@
       <c r="EH47" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI47" s="188" t="s">
+      <c r="EI47" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ47" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK47" s="188" t="s">
+      <c r="EK47" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL47" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM47" s="188" t="s">
+      <c r="EM47" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EN47" s="159" t="s">
@@ -33369,8 +35682,44 @@
       <c r="EZ47" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FF47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK47" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL47" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="92">
         <v>45</v>
       </c>
@@ -33781,19 +36130,19 @@
       <c r="EH48" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI48" s="188" t="s">
+      <c r="EI48" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ48" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK48" s="188" t="s">
+      <c r="EK48" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL48" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM48" s="188" t="s">
+      <c r="EM48" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EN48" s="159" t="s">
@@ -33835,8 +36184,44 @@
       <c r="EZ48" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FF48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK48" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL48" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:156" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="92">
         <v>46</v>
       </c>
@@ -34247,19 +36632,19 @@
       <c r="EH49" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="EI49" s="188" t="s">
+      <c r="EI49" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EJ49" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EK49" s="188" t="s">
+      <c r="EK49" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EL49" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="EM49" s="188" t="s">
+      <c r="EM49" s="187" t="s">
         <v>11</v>
       </c>
       <c r="EN49" s="159" t="s">
@@ -34301,8 +36686,44 @@
       <c r="EZ49" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="FA49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FB49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FD49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FE49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FF49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FH49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FI49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FK49" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="FL49" s="68" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="92">
         <v>47</v>
       </c>
@@ -34715,7 +37136,7 @@
       <c r="EH50" s="115" t="s">
         <v>2312</v>
       </c>
-      <c r="EI50" s="188" t="s">
+      <c r="EI50" s="187" t="s">
         <v>2327</v>
       </c>
       <c r="EJ50" s="115" t="s">
@@ -34769,8 +37190,44 @@
       <c r="EZ50" s="115" t="s">
         <v>88</v>
       </c>
+      <c r="FA50" s="41" t="s">
+        <v>2617</v>
+      </c>
+      <c r="FB50" s="41" t="s">
+        <v>2626</v>
+      </c>
+      <c r="FC50" s="41" t="s">
+        <v>2617</v>
+      </c>
+      <c r="FD50" s="41" t="s">
+        <v>2626</v>
+      </c>
+      <c r="FE50" s="41" t="s">
+        <v>2648</v>
+      </c>
+      <c r="FF50" s="41" t="s">
+        <v>2663</v>
+      </c>
+      <c r="FG50" s="41" t="s">
+        <v>2663</v>
+      </c>
+      <c r="FH50" s="41" t="s">
+        <v>2683</v>
+      </c>
+      <c r="FI50" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="FJ50" s="41" t="s">
+        <v>2704</v>
+      </c>
+      <c r="FK50" s="41" t="s">
+        <v>2716</v>
+      </c>
+      <c r="FL50" s="41" t="s">
+        <v>2716</v>
+      </c>
     </row>
-    <row r="51" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="92">
         <v>48</v>
       </c>
@@ -35183,7 +37640,7 @@
       <c r="EH51" s="115" t="s">
         <v>2313</v>
       </c>
-      <c r="EI51" s="188" t="s">
+      <c r="EI51" s="187" t="s">
         <v>2328</v>
       </c>
       <c r="EJ51" s="115" t="s">
@@ -35237,8 +37694,44 @@
       <c r="EZ51" s="115" t="s">
         <v>2567</v>
       </c>
+      <c r="FA51" s="41" t="s">
+        <v>2618</v>
+      </c>
+      <c r="FB51" s="41" t="s">
+        <v>2627</v>
+      </c>
+      <c r="FC51" s="41" t="s">
+        <v>2634</v>
+      </c>
+      <c r="FD51" s="41" t="s">
+        <v>2637</v>
+      </c>
+      <c r="FE51" s="41" t="s">
+        <v>2649</v>
+      </c>
+      <c r="FF51" s="41" t="s">
+        <v>2664</v>
+      </c>
+      <c r="FG51" s="41" t="s">
+        <v>2675</v>
+      </c>
+      <c r="FH51" s="41" t="s">
+        <v>2684</v>
+      </c>
+      <c r="FI51" s="41" t="s">
+        <v>2693</v>
+      </c>
+      <c r="FJ51" s="41" t="s">
+        <v>2705</v>
+      </c>
+      <c r="FK51" s="41" t="s">
+        <v>2717</v>
+      </c>
+      <c r="FL51" s="41" t="s">
+        <v>2727</v>
+      </c>
     </row>
-    <row r="52" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="92">
         <v>49</v>
       </c>
@@ -35651,7 +38144,7 @@
       <c r="EH52" s="115" t="s">
         <v>2314</v>
       </c>
-      <c r="EI52" s="188" t="s">
+      <c r="EI52" s="187" t="s">
         <v>2329</v>
       </c>
       <c r="EJ52" s="115" t="s">
@@ -35705,8 +38198,44 @@
       <c r="EZ52" s="115" t="s">
         <v>124</v>
       </c>
+      <c r="FA52" s="41" t="s">
+        <v>2619</v>
+      </c>
+      <c r="FB52" s="41" t="s">
+        <v>2628</v>
+      </c>
+      <c r="FC52" s="41" t="s">
+        <v>2619</v>
+      </c>
+      <c r="FD52" s="41" t="s">
+        <v>2628</v>
+      </c>
+      <c r="FE52" s="41" t="s">
+        <v>2650</v>
+      </c>
+      <c r="FF52" s="41" t="s">
+        <v>2665</v>
+      </c>
+      <c r="FG52" s="41" t="s">
+        <v>2665</v>
+      </c>
+      <c r="FH52" s="41" t="s">
+        <v>2685</v>
+      </c>
+      <c r="FI52" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="FJ52" s="41" t="s">
+        <v>2706</v>
+      </c>
+      <c r="FK52" s="41" t="s">
+        <v>2718</v>
+      </c>
+      <c r="FL52" s="41" t="s">
+        <v>2718</v>
+      </c>
     </row>
-    <row r="53" spans="1:156" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:168" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="92">
         <v>50</v>
       </c>
@@ -36085,98 +38614,134 @@
       <c r="DV53" s="105" t="s">
         <v>861</v>
       </c>
-      <c r="DW53" s="184" t="s">
+      <c r="DW53" s="183" t="s">
         <v>861</v>
       </c>
-      <c r="DX53" s="186" t="s">
+      <c r="DX53" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="DY53" s="186" t="s">
+      <c r="DY53" s="185" t="s">
         <v>207</v>
       </c>
-      <c r="DZ53" s="186" t="s">
+      <c r="DZ53" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="EA53" s="186" t="s">
+      <c r="EA53" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="EB53" s="186" t="s">
+      <c r="EB53" s="185" t="s">
         <v>207</v>
       </c>
-      <c r="EC53" s="186" t="s">
+      <c r="EC53" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="ED53" s="184" t="s">
+      <c r="ED53" s="183" t="s">
         <v>860</v>
       </c>
-      <c r="EE53" s="184" t="s">
+      <c r="EE53" s="183" t="s">
         <v>860</v>
       </c>
-      <c r="EF53" s="184" t="s">
+      <c r="EF53" s="183" t="s">
         <v>860</v>
       </c>
-      <c r="EG53" s="184" t="s">
+      <c r="EG53" s="183" t="s">
         <v>860</v>
       </c>
-      <c r="EH53" s="186" t="s">
+      <c r="EH53" s="185" t="s">
         <v>860</v>
       </c>
       <c r="EI53" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="EJ53" s="186" t="s">
+      <c r="EJ53" s="185" t="s">
         <v>206</v>
       </c>
       <c r="EK53" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="EL53" s="186" t="s">
+      <c r="EL53" s="185" t="s">
         <v>206</v>
       </c>
       <c r="EM53" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="EN53" s="186" t="s">
+      <c r="EN53" s="185" t="s">
         <v>207</v>
       </c>
-      <c r="EO53" s="184" t="s">
+      <c r="EO53" s="183" t="s">
         <v>206</v>
       </c>
-      <c r="EP53" s="184" t="s">
+      <c r="EP53" s="183" t="s">
         <v>206</v>
       </c>
-      <c r="EQ53" s="184" t="s">
+      <c r="EQ53" s="183" t="s">
         <v>206</v>
       </c>
-      <c r="ER53" s="186" t="s">
+      <c r="ER53" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="ES53" s="184" t="s">
+      <c r="ES53" s="183" t="s">
         <v>207</v>
       </c>
-      <c r="ET53" s="184" t="s">
+      <c r="ET53" s="183" t="s">
         <v>206</v>
       </c>
-      <c r="EU53" s="185" t="s">
+      <c r="EU53" s="184" t="s">
         <v>860</v>
       </c>
-      <c r="EV53" s="185" t="s">
+      <c r="EV53" s="184" t="s">
         <v>860</v>
       </c>
-      <c r="EW53" s="186" t="s">
+      <c r="EW53" s="185" t="s">
         <v>860</v>
       </c>
-      <c r="EX53" s="186" t="s">
+      <c r="EX53" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="EY53" s="186" t="s">
+      <c r="EY53" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="EZ53" s="186" t="s">
+      <c r="EZ53" s="185" t="s">
         <v>206</v>
       </c>
+      <c r="FA53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="FB53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="FC53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="FD53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="FE53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="FF53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="FG53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="FH53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="FI53" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="FJ53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="FK53" s="41" t="s">
+        <v>860</v>
+      </c>
+      <c r="FL53" s="41" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="54" spans="1:156" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:168" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A54" s="92">
         <v>51</v>
       </c>
@@ -36592,13 +39157,13 @@
       <c r="EI54" s="155" t="s">
         <v>858</v>
       </c>
-      <c r="EJ54" s="186" t="s">
+      <c r="EJ54" s="185" t="s">
         <v>858</v>
       </c>
       <c r="EK54" s="155" t="s">
         <v>858</v>
       </c>
-      <c r="EL54" s="186" t="s">
+      <c r="EL54" s="185" t="s">
         <v>858</v>
       </c>
       <c r="EM54" s="155" t="s">
@@ -36643,8 +39208,44 @@
       <c r="EZ54" s="115" t="s">
         <v>61</v>
       </c>
+      <c r="FA54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="FB54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="FC54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="FD54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="FE54" s="41" t="s">
+        <v>2651</v>
+      </c>
+      <c r="FF54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="FG54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="FH54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="FI54" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="FJ54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="FK54" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="FL54" s="41" t="s">
+        <v>858</v>
+      </c>
     </row>
-    <row r="55" spans="1:156" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:168" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A55" s="92">
         <v>52</v>
       </c>
@@ -37060,13 +39661,13 @@
       <c r="EI55" s="155" t="s">
         <v>2330</v>
       </c>
-      <c r="EJ55" s="186" t="s">
+      <c r="EJ55" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="EK55" s="155" t="s">
         <v>2330</v>
       </c>
-      <c r="EL55" s="186" t="s">
+      <c r="EL55" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="EM55" s="155" t="s">
@@ -37111,8 +39712,44 @@
       <c r="EZ55" s="115" t="s">
         <v>2557</v>
       </c>
+      <c r="FA55" s="41" t="s">
+        <v>2585</v>
+      </c>
+      <c r="FB55" s="41" t="s">
+        <v>2585</v>
+      </c>
+      <c r="FC55" s="41" t="s">
+        <v>2585</v>
+      </c>
+      <c r="FD55" s="41" t="s">
+        <v>2585</v>
+      </c>
+      <c r="FE55" s="41" t="s">
+        <v>2652</v>
+      </c>
+      <c r="FF55" s="41" t="s">
+        <v>2666</v>
+      </c>
+      <c r="FG55" s="41" t="s">
+        <v>2666</v>
+      </c>
+      <c r="FH55" s="41" t="s">
+        <v>2666</v>
+      </c>
+      <c r="FI55" s="41" t="s">
+        <v>2694</v>
+      </c>
+      <c r="FJ55" s="41" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FK55" s="41" t="s">
+        <v>2606</v>
+      </c>
+      <c r="FL55" s="41" t="s">
+        <v>2606</v>
+      </c>
     </row>
-    <row r="56" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="92">
         <v>53</v>
       </c>
@@ -37502,7 +40139,7 @@
       <c r="EA56" s="159" t="s">
         <v>2245</v>
       </c>
-      <c r="EB56" s="187" t="s">
+      <c r="EB56" s="186" t="s">
         <v>2255</v>
       </c>
       <c r="EC56" s="159" t="s">
@@ -37526,19 +40163,19 @@
       <c r="EI56" s="155" t="s">
         <v>2330</v>
       </c>
-      <c r="EJ56" s="186" t="s">
+      <c r="EJ56" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="EK56" s="155" t="s">
         <v>2356</v>
       </c>
-      <c r="EL56" s="186" t="s">
+      <c r="EL56" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="EM56" s="155" t="s">
         <v>2330</v>
       </c>
-      <c r="EN56" s="195" t="s">
+      <c r="EN56" s="194" t="s">
         <v>2401</v>
       </c>
       <c r="EO56" s="115" t="s">
@@ -37559,10 +40196,10 @@
       <c r="ET56" s="115" t="s">
         <v>2488</v>
       </c>
-      <c r="EU56" s="196" t="s">
+      <c r="EU56" s="195" t="s">
         <v>2504</v>
       </c>
-      <c r="EV56" s="196" t="s">
+      <c r="EV56" s="195" t="s">
         <v>2519</v>
       </c>
       <c r="EW56" s="169" t="s">
@@ -37577,8 +40214,44 @@
       <c r="EZ56" s="115" t="s">
         <v>2558</v>
       </c>
+      <c r="FA56" s="41" t="s">
+        <v>2596</v>
+      </c>
+      <c r="FB56" s="41" t="s">
+        <v>2596</v>
+      </c>
+      <c r="FC56" s="41" t="s">
+        <v>2596</v>
+      </c>
+      <c r="FD56" s="41" t="s">
+        <v>2596</v>
+      </c>
+      <c r="FE56" s="41" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FF56" s="41" t="s">
+        <v>2667</v>
+      </c>
+      <c r="FG56" s="41" t="s">
+        <v>2667</v>
+      </c>
+      <c r="FH56" s="41" t="s">
+        <v>2667</v>
+      </c>
+      <c r="FI56" s="41" t="s">
+        <v>2695</v>
+      </c>
+      <c r="FJ56" s="41" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FK56" s="41" t="s">
+        <v>2719</v>
+      </c>
+      <c r="FL56" s="41" t="s">
+        <v>2728</v>
+      </c>
     </row>
-    <row r="57" spans="1:156" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:168" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A57" s="92">
         <v>54</v>
       </c>
@@ -37994,13 +40667,13 @@
       <c r="EI57" s="155" t="s">
         <v>2330</v>
       </c>
-      <c r="EJ57" s="186" t="s">
+      <c r="EJ57" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="EK57" s="155" t="s">
         <v>2357</v>
       </c>
-      <c r="EL57" s="186" t="s">
+      <c r="EL57" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="EM57" s="155" t="s">
@@ -38045,8 +40718,44 @@
       <c r="EZ57" s="115" t="s">
         <v>2559</v>
       </c>
+      <c r="FA57" s="41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="FB57" s="41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="FC57" s="41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="FD57" s="41" t="s">
+        <v>1609</v>
+      </c>
+      <c r="FE57" s="41" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FF57" s="41" t="s">
+        <v>2668</v>
+      </c>
+      <c r="FG57" s="41" t="s">
+        <v>2668</v>
+      </c>
+      <c r="FH57" s="41" t="s">
+        <v>2668</v>
+      </c>
+      <c r="FI57" s="41" t="s">
+        <v>2696</v>
+      </c>
+      <c r="FJ57" s="41" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FK57" s="41" t="s">
+        <v>2720</v>
+      </c>
+      <c r="FL57" s="41" t="s">
+        <v>2720</v>
+      </c>
     </row>
-    <row r="58" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="92">
         <v>55</v>
       </c>
@@ -38409,7 +41118,7 @@
       <c r="EA58" s="159" t="s">
         <v>2245</v>
       </c>
-      <c r="EB58" s="187" t="s">
+      <c r="EB58" s="186" t="s">
         <v>2255</v>
       </c>
       <c r="EC58" s="159" t="s">
@@ -38433,19 +41142,19 @@
       <c r="EI58" s="155" t="s">
         <v>2330</v>
       </c>
-      <c r="EJ58" s="186" t="s">
+      <c r="EJ58" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="EK58" s="155" t="s">
         <v>2358</v>
       </c>
-      <c r="EL58" s="186" t="s">
+      <c r="EL58" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="EM58" s="155" t="s">
         <v>2330</v>
       </c>
-      <c r="EN58" s="195" t="s">
+      <c r="EN58" s="194" t="s">
         <v>2401</v>
       </c>
       <c r="EO58" s="115" t="s">
@@ -38466,13 +41175,13 @@
       <c r="ET58" s="115" t="s">
         <v>2488</v>
       </c>
-      <c r="EU58" s="196" t="s">
+      <c r="EU58" s="195" t="s">
         <v>2504</v>
       </c>
-      <c r="EV58" s="196" t="s">
+      <c r="EV58" s="195" t="s">
         <v>2521</v>
       </c>
-      <c r="EW58" s="198" t="s">
+      <c r="EW58" s="197" t="s">
         <v>2536</v>
       </c>
       <c r="EX58" s="115" t="s">
@@ -38484,8 +41193,44 @@
       <c r="EZ58" s="115" t="s">
         <v>2560</v>
       </c>
+      <c r="FA58" s="41" t="s">
+        <v>2594</v>
+      </c>
+      <c r="FB58" s="41" t="s">
+        <v>2594</v>
+      </c>
+      <c r="FC58" s="41" t="s">
+        <v>2594</v>
+      </c>
+      <c r="FD58" s="41" t="s">
+        <v>2594</v>
+      </c>
+      <c r="FE58" s="41" t="s">
+        <v>2652</v>
+      </c>
+      <c r="FF58" s="41" t="s">
+        <v>2667</v>
+      </c>
+      <c r="FG58" s="41" t="s">
+        <v>2667</v>
+      </c>
+      <c r="FH58" s="41" t="s">
+        <v>2667</v>
+      </c>
+      <c r="FI58" s="41" t="s">
+        <v>2697</v>
+      </c>
+      <c r="FJ58" s="41" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FK58" s="41" t="s">
+        <v>2719</v>
+      </c>
+      <c r="FL58" s="41" t="s">
+        <v>2728</v>
+      </c>
     </row>
-    <row r="59" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="92">
         <v>56</v>
       </c>
@@ -38868,7 +41613,7 @@
       <c r="DX59" s="115" t="s">
         <v>2201</v>
       </c>
-      <c r="DY59" s="187" t="s">
+      <c r="DY59" s="186" t="s">
         <v>2219</v>
       </c>
       <c r="DZ59" s="159" t="s">
@@ -38877,7 +41622,7 @@
       <c r="EA59" s="159" t="s">
         <v>2245</v>
       </c>
-      <c r="EB59" s="187" t="s">
+      <c r="EB59" s="186" t="s">
         <v>2255</v>
       </c>
       <c r="EC59" s="159" t="s">
@@ -38901,19 +41646,19 @@
       <c r="EI59" s="155" t="s">
         <v>2330</v>
       </c>
-      <c r="EJ59" s="186" t="s">
+      <c r="EJ59" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="EK59" s="155" t="s">
         <v>2330</v>
       </c>
-      <c r="EL59" s="186" t="s">
+      <c r="EL59" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="EM59" s="155" t="s">
         <v>2330</v>
       </c>
-      <c r="EN59" s="195" t="s">
+      <c r="EN59" s="194" t="s">
         <v>2401</v>
       </c>
       <c r="EO59" s="115" t="s">
@@ -38934,10 +41679,10 @@
       <c r="ET59" s="115" t="s">
         <v>2488</v>
       </c>
-      <c r="EU59" s="196" t="s">
+      <c r="EU59" s="195" t="s">
         <v>2504</v>
       </c>
-      <c r="EV59" s="196" t="s">
+      <c r="EV59" s="195" t="s">
         <v>2521</v>
       </c>
       <c r="EW59" s="169" t="s">
@@ -38952,8 +41697,44 @@
       <c r="EZ59" s="115" t="s">
         <v>2560</v>
       </c>
+      <c r="FA59" s="41" t="s">
+        <v>2620</v>
+      </c>
+      <c r="FB59" s="41" t="s">
+        <v>2620</v>
+      </c>
+      <c r="FC59" s="41" t="s">
+        <v>2620</v>
+      </c>
+      <c r="FD59" s="41" t="s">
+        <v>2620</v>
+      </c>
+      <c r="FE59" s="41" t="s">
+        <v>2652</v>
+      </c>
+      <c r="FF59" s="41" t="s">
+        <v>2667</v>
+      </c>
+      <c r="FG59" s="41" t="s">
+        <v>2667</v>
+      </c>
+      <c r="FH59" s="41" t="s">
+        <v>2667</v>
+      </c>
+      <c r="FI59" s="41" t="s">
+        <v>2695</v>
+      </c>
+      <c r="FJ59" s="41" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FK59" s="41" t="s">
+        <v>2719</v>
+      </c>
+      <c r="FL59" s="41" t="s">
+        <v>2728</v>
+      </c>
     </row>
-    <row r="60" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="92">
         <v>57</v>
       </c>
@@ -39330,98 +42111,134 @@
       <c r="DV60" s="105">
         <v>1</v>
       </c>
-      <c r="DW60" s="185">
+      <c r="DW60" s="184">
         <v>1</v>
       </c>
-      <c r="DX60" s="185">
+      <c r="DX60" s="184">
         <v>1</v>
       </c>
-      <c r="DY60" s="185">
+      <c r="DY60" s="184">
         <v>1</v>
       </c>
-      <c r="DZ60" s="185">
+      <c r="DZ60" s="184">
         <v>1</v>
       </c>
-      <c r="EA60" s="185">
+      <c r="EA60" s="184">
         <v>1</v>
       </c>
-      <c r="EB60" s="185">
+      <c r="EB60" s="184">
         <v>1</v>
       </c>
-      <c r="EC60" s="185">
+      <c r="EC60" s="184">
         <v>1</v>
       </c>
-      <c r="ED60" s="185">
+      <c r="ED60" s="184">
         <v>1</v>
       </c>
-      <c r="EE60" s="185">
+      <c r="EE60" s="184">
         <v>1</v>
       </c>
-      <c r="EF60" s="185">
+      <c r="EF60" s="184">
         <v>1</v>
       </c>
-      <c r="EG60" s="185">
+      <c r="EG60" s="184">
         <v>1</v>
       </c>
       <c r="EH60" s="65">
         <v>1</v>
       </c>
-      <c r="EI60" s="189">
+      <c r="EI60" s="188">
         <v>1</v>
       </c>
-      <c r="EJ60" s="185">
+      <c r="EJ60" s="184">
         <v>1</v>
       </c>
-      <c r="EK60" s="189">
+      <c r="EK60" s="188">
         <v>1</v>
       </c>
-      <c r="EL60" s="185">
+      <c r="EL60" s="184">
         <v>1</v>
       </c>
-      <c r="EM60" s="189">
+      <c r="EM60" s="188">
         <v>1</v>
       </c>
-      <c r="EN60" s="185">
+      <c r="EN60" s="184">
         <v>1</v>
       </c>
-      <c r="EO60" s="185">
+      <c r="EO60" s="184">
         <v>1</v>
       </c>
-      <c r="EP60" s="185">
+      <c r="EP60" s="184">
         <v>1</v>
       </c>
-      <c r="EQ60" s="185">
+      <c r="EQ60" s="184">
         <v>1</v>
       </c>
       <c r="ER60" s="65">
         <v>1</v>
       </c>
-      <c r="ES60" s="185">
+      <c r="ES60" s="184">
         <v>1</v>
       </c>
-      <c r="ET60" s="185">
+      <c r="ET60" s="184">
         <v>1</v>
       </c>
-      <c r="EU60" s="185">
+      <c r="EU60" s="184">
         <v>1</v>
       </c>
-      <c r="EV60" s="185">
+      <c r="EV60" s="184">
         <v>1</v>
       </c>
       <c r="EW60" s="65">
         <v>1</v>
       </c>
-      <c r="EX60" s="185">
+      <c r="EX60" s="184">
         <v>1</v>
       </c>
-      <c r="EY60" s="185">
+      <c r="EY60" s="184">
         <v>1</v>
       </c>
-      <c r="EZ60" s="185">
+      <c r="EZ60" s="184">
         <v>1</v>
       </c>
+      <c r="FA60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FB60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FC60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FD60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FE60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FF60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FG60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FH60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FI60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FJ60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FK60" s="41">
+        <v>1</v>
+      </c>
+      <c r="FL60" s="41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:156" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:168" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="92">
         <v>58</v>
       </c>
@@ -39834,19 +42651,19 @@
       <c r="EH61" s="157">
         <v>45718</v>
       </c>
-      <c r="EI61" s="190">
+      <c r="EI61" s="189">
         <v>45413</v>
       </c>
-      <c r="EJ61" s="193">
+      <c r="EJ61" s="192">
         <v>45413</v>
       </c>
-      <c r="EK61" s="193">
+      <c r="EK61" s="192">
         <v>45413</v>
       </c>
-      <c r="EL61" s="193">
+      <c r="EL61" s="192">
         <v>45413</v>
       </c>
-      <c r="EM61" s="190">
+      <c r="EM61" s="189">
         <v>45413</v>
       </c>
       <c r="EN61" s="157">
@@ -39888,8 +42705,44 @@
       <c r="EZ61" s="157">
         <v>45696</v>
       </c>
+      <c r="FA61" s="157">
+        <v>43189</v>
+      </c>
+      <c r="FB61" s="157">
+        <v>43189</v>
+      </c>
+      <c r="FC61" s="157">
+        <v>43189</v>
+      </c>
+      <c r="FD61" s="157">
+        <v>43101</v>
+      </c>
+      <c r="FE61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="FF61" s="193">
+        <v>45736</v>
+      </c>
+      <c r="FG61" s="193">
+        <v>45736</v>
+      </c>
+      <c r="FH61" s="193">
+        <v>45736</v>
+      </c>
+      <c r="FI61" s="157">
+        <v>45766</v>
+      </c>
+      <c r="FJ61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="FK61" s="157">
+        <v>45727</v>
+      </c>
+      <c r="FL61" s="157">
+        <v>45727</v>
+      </c>
     </row>
-    <row r="62" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="92">
         <v>59</v>
       </c>
@@ -40302,19 +43155,19 @@
       <c r="EH62" s="157">
         <v>45718</v>
       </c>
-      <c r="EI62" s="191">
+      <c r="EI62" s="190">
         <v>45709</v>
       </c>
-      <c r="EJ62" s="194">
+      <c r="EJ62" s="193">
         <v>45709</v>
       </c>
-      <c r="EK62" s="191">
+      <c r="EK62" s="190">
         <v>45709</v>
       </c>
-      <c r="EL62" s="194">
+      <c r="EL62" s="193">
         <v>45709</v>
       </c>
-      <c r="EM62" s="191">
+      <c r="EM62" s="190">
         <v>45709</v>
       </c>
       <c r="EN62" s="157">
@@ -40356,8 +43209,44 @@
       <c r="EZ62" s="157">
         <v>45696</v>
       </c>
+      <c r="FA62" s="157">
+        <v>45766</v>
+      </c>
+      <c r="FB62" s="157">
+        <v>45766</v>
+      </c>
+      <c r="FC62" s="157">
+        <v>45766</v>
+      </c>
+      <c r="FD62" s="157">
+        <v>45766</v>
+      </c>
+      <c r="FE62" s="192">
+        <v>45709</v>
+      </c>
+      <c r="FF62" s="193">
+        <v>45775</v>
+      </c>
+      <c r="FG62" s="193">
+        <v>45775</v>
+      </c>
+      <c r="FH62" s="193">
+        <v>45775</v>
+      </c>
+      <c r="FI62" s="157">
+        <v>45766</v>
+      </c>
+      <c r="FJ62" s="192">
+        <v>45736</v>
+      </c>
+      <c r="FK62" s="157">
+        <v>45769</v>
+      </c>
+      <c r="FL62" s="157">
+        <v>45769</v>
+      </c>
     </row>
-    <row r="63" spans="1:156" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="92">
         <v>60</v>
       </c>
@@ -40770,7 +43659,7 @@
       <c r="EH63" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="EI63" s="188" t="s">
+      <c r="EI63" s="187" t="s">
         <v>2331</v>
       </c>
       <c r="EJ63" s="115" t="s">
@@ -40824,8 +43713,44 @@
       <c r="EZ63" s="115" t="s">
         <v>30</v>
       </c>
+      <c r="FA63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FB63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FC63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FD63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FE63" s="115" t="s">
+        <v>2386</v>
+      </c>
+      <c r="FF63" s="115" t="s">
+        <v>2085</v>
+      </c>
+      <c r="FG63" s="115" t="s">
+        <v>2085</v>
+      </c>
+      <c r="FH63" s="115" t="s">
+        <v>2085</v>
+      </c>
+      <c r="FI63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FJ63" s="115" t="s">
+        <v>2331</v>
+      </c>
+      <c r="FK63" s="157" t="s">
+        <v>2730</v>
+      </c>
+      <c r="FL63" s="157" t="s">
+        <v>2730</v>
+      </c>
     </row>
-    <row r="64" spans="1:156" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:168" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A64" s="92">
         <v>61</v>
       </c>
@@ -41241,13 +44166,13 @@
       <c r="EI64" s="69" t="s">
         <v>2332</v>
       </c>
-      <c r="EJ64" s="186" t="s">
+      <c r="EJ64" s="185" t="s">
         <v>2332</v>
       </c>
       <c r="EK64" s="155" t="s">
         <v>2332</v>
       </c>
-      <c r="EL64" s="186" t="s">
+      <c r="EL64" s="185" t="s">
         <v>2332</v>
       </c>
       <c r="EM64" s="155" t="s">
@@ -41292,8 +44217,44 @@
       <c r="EZ64" s="115" t="s">
         <v>2561</v>
       </c>
+      <c r="FA64" s="115" t="s">
+        <v>2621</v>
+      </c>
+      <c r="FB64" s="115" t="s">
+        <v>2621</v>
+      </c>
+      <c r="FC64" s="115" t="s">
+        <v>2621</v>
+      </c>
+      <c r="FD64" s="115" t="s">
+        <v>2621</v>
+      </c>
+      <c r="FE64" s="115" t="s">
+        <v>2332</v>
+      </c>
+      <c r="FF64" s="115" t="s">
+        <v>2669</v>
+      </c>
+      <c r="FG64" s="115" t="s">
+        <v>2669</v>
+      </c>
+      <c r="FH64" s="115" t="s">
+        <v>2669</v>
+      </c>
+      <c r="FI64" s="115" t="s">
+        <v>2698</v>
+      </c>
+      <c r="FJ64" s="115" t="s">
+        <v>2332</v>
+      </c>
+      <c r="FK64" s="115" t="s">
+        <v>2721</v>
+      </c>
+      <c r="FL64" s="115" t="s">
+        <v>2721</v>
+      </c>
     </row>
-    <row r="65" spans="1:163" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:205" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="92">
         <v>62</v>
       </c>
@@ -41430,19 +44391,19 @@
       <c r="EH65" s="157">
         <v>45718</v>
       </c>
-      <c r="EI65" s="191">
+      <c r="EI65" s="190">
         <v>45719</v>
       </c>
-      <c r="EJ65" s="194">
+      <c r="EJ65" s="193">
         <v>45723</v>
       </c>
-      <c r="EK65" s="191">
+      <c r="EK65" s="190">
         <v>45719</v>
       </c>
-      <c r="EL65" s="194">
+      <c r="EL65" s="193">
         <v>45729</v>
       </c>
-      <c r="EM65" s="191">
+      <c r="EM65" s="190">
         <v>45718</v>
       </c>
       <c r="EN65" s="157">
@@ -41478,8 +44439,29 @@
       <c r="EX65" s="169"/>
       <c r="EY65" s="156"/>
       <c r="EZ65" s="156"/>
+      <c r="FE65" s="192">
+        <v>45736</v>
+      </c>
+      <c r="FF65" s="193">
+        <v>45775</v>
+      </c>
+      <c r="FG65" s="193">
+        <v>45775</v>
+      </c>
+      <c r="FH65" s="193">
+        <v>45775</v>
+      </c>
+      <c r="FJ65" s="192">
+        <v>45719</v>
+      </c>
+      <c r="FK65" s="157">
+        <v>45772</v>
+      </c>
+      <c r="FL65" s="157">
+        <v>45772</v>
+      </c>
     </row>
-    <row r="66" spans="1:163" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A66" s="92">
         <v>63</v>
       </c>
@@ -41615,7 +44597,7 @@
       <c r="EH66" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="EI66" s="192" t="s">
+      <c r="EI66" s="191" t="s">
         <v>30</v>
       </c>
       <c r="EJ66" s="169" t="s">
@@ -41651,10 +44633,10 @@
       <c r="ET66" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="EU66" s="196" t="s">
+      <c r="EU66" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="EV66" s="196" t="s">
+      <c r="EV66" s="195" t="s">
         <v>30</v>
       </c>
       <c r="EW66" s="115" t="s">
@@ -41662,8 +44644,29 @@
       </c>
       <c r="EY66" s="156"/>
       <c r="EZ66" s="156"/>
+      <c r="FE66" s="169" t="s">
+        <v>2653</v>
+      </c>
+      <c r="FF66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FG66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FH66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FJ66" s="169" t="s">
+        <v>2653</v>
+      </c>
+      <c r="FK66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FL66" s="115" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="67" spans="1:163" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A67" s="92">
         <v>64</v>
       </c>
@@ -41741,7 +44744,7 @@
         <v>2288</v>
       </c>
       <c r="EH67" s="169"/>
-      <c r="EI67" s="192"/>
+      <c r="EI67" s="191"/>
       <c r="EJ67" s="169"/>
       <c r="EK67" s="156"/>
       <c r="EL67" s="156"/>
@@ -41757,12 +44760,12 @@
         <v>2288</v>
       </c>
       <c r="ET67" s="169"/>
-      <c r="EU67" s="197"/>
-      <c r="EV67" s="197"/>
+      <c r="EU67" s="196"/>
+      <c r="EV67" s="196"/>
       <c r="EW67" s="169"/>
       <c r="EZ67" s="156"/>
     </row>
-    <row r="68" spans="1:163" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A68" s="92">
         <v>65</v>
       </c>
@@ -41811,7 +44814,7 @@
       <c r="EF68" s="156"/>
       <c r="EG68" s="156"/>
       <c r="EH68" s="169"/>
-      <c r="EI68" s="192"/>
+      <c r="EI68" s="191"/>
       <c r="EK68" s="156"/>
       <c r="EL68" s="156"/>
       <c r="EM68" s="156"/>
@@ -41820,11 +44823,11 @@
       <c r="EQ68" s="169"/>
       <c r="ER68" s="169"/>
       <c r="ES68" s="169"/>
-      <c r="EU68" s="197"/>
-      <c r="EV68" s="197"/>
+      <c r="EU68" s="196"/>
+      <c r="EV68" s="196"/>
       <c r="EW68" s="169"/>
     </row>
-    <row r="69" spans="1:163" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A69" s="92">
         <v>66</v>
       </c>
@@ -41869,9 +44872,9 @@
       <c r="EO69" s="169"/>
       <c r="EQ69" s="169"/>
       <c r="ER69" s="169"/>
-      <c r="EV69" s="197"/>
+      <c r="EV69" s="196"/>
     </row>
-    <row r="70" spans="1:163" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A70" s="92">
         <v>67</v>
       </c>
@@ -41909,7 +44912,7 @@
       <c r="EN70" s="169"/>
       <c r="ER70" s="169"/>
     </row>
-    <row r="71" spans="1:163" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A71" s="92">
         <v>68</v>
       </c>
@@ -41944,7 +44947,7 @@
       <c r="EG71" s="156"/>
       <c r="ER71" s="169"/>
     </row>
-    <row r="72" spans="1:163" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:205" x14ac:dyDescent="0.4">
       <c r="A72" s="92">
         <v>69</v>
       </c>
@@ -41976,7 +44979,7 @@
       <c r="BY72" s="158"/>
       <c r="BZ72" s="158"/>
     </row>
-    <row r="73" spans="1:163" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:205" x14ac:dyDescent="0.4">
       <c r="U73" s="12"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="49"/>
@@ -41998,7 +45001,7 @@
       <c r="BY73" s="90"/>
       <c r="BZ73" s="90"/>
     </row>
-    <row r="74" spans="1:163" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:205" x14ac:dyDescent="0.4">
       <c r="A74" s="37"/>
       <c r="D74" s="37"/>
       <c r="E74" s="105"/>
@@ -42349,6 +45352,132 @@
       </c>
       <c r="FG74" s="167">
         <v>158</v>
+      </c>
+      <c r="FH74" s="168">
+        <v>159</v>
+      </c>
+      <c r="FI74" s="167">
+        <v>160</v>
+      </c>
+      <c r="FJ74" s="168">
+        <v>161</v>
+      </c>
+      <c r="FK74" s="167">
+        <v>162</v>
+      </c>
+      <c r="FL74" s="168">
+        <v>163</v>
+      </c>
+      <c r="FM74" s="167">
+        <v>164</v>
+      </c>
+      <c r="FN74" s="168">
+        <v>165</v>
+      </c>
+      <c r="FO74" s="167">
+        <v>166</v>
+      </c>
+      <c r="FP74" s="168">
+        <v>167</v>
+      </c>
+      <c r="FQ74" s="167">
+        <v>168</v>
+      </c>
+      <c r="FR74" s="168">
+        <v>169</v>
+      </c>
+      <c r="FS74" s="167">
+        <v>170</v>
+      </c>
+      <c r="FT74" s="168">
+        <v>171</v>
+      </c>
+      <c r="FU74" s="167">
+        <v>172</v>
+      </c>
+      <c r="FV74" s="168">
+        <v>173</v>
+      </c>
+      <c r="FW74" s="167">
+        <v>174</v>
+      </c>
+      <c r="FX74" s="168">
+        <v>175</v>
+      </c>
+      <c r="FY74" s="167">
+        <v>176</v>
+      </c>
+      <c r="FZ74" s="168">
+        <v>177</v>
+      </c>
+      <c r="GA74" s="167">
+        <v>178</v>
+      </c>
+      <c r="GB74" s="168">
+        <v>179</v>
+      </c>
+      <c r="GC74" s="167">
+        <v>180</v>
+      </c>
+      <c r="GD74" s="168">
+        <v>181</v>
+      </c>
+      <c r="GE74" s="167">
+        <v>182</v>
+      </c>
+      <c r="GF74" s="168">
+        <v>183</v>
+      </c>
+      <c r="GG74" s="167">
+        <v>184</v>
+      </c>
+      <c r="GH74" s="168">
+        <v>185</v>
+      </c>
+      <c r="GI74" s="167">
+        <v>186</v>
+      </c>
+      <c r="GJ74" s="168">
+        <v>187</v>
+      </c>
+      <c r="GK74" s="167">
+        <v>188</v>
+      </c>
+      <c r="GL74" s="168">
+        <v>189</v>
+      </c>
+      <c r="GM74" s="167">
+        <v>190</v>
+      </c>
+      <c r="GN74" s="168">
+        <v>191</v>
+      </c>
+      <c r="GO74" s="167">
+        <v>192</v>
+      </c>
+      <c r="GP74" s="168">
+        <v>193</v>
+      </c>
+      <c r="GQ74" s="167">
+        <v>194</v>
+      </c>
+      <c r="GR74" s="168">
+        <v>195</v>
+      </c>
+      <c r="GS74" s="167">
+        <v>196</v>
+      </c>
+      <c r="GT74" s="168">
+        <v>197</v>
+      </c>
+      <c r="GU74" s="167">
+        <v>198</v>
+      </c>
+      <c r="GV74" s="168">
+        <v>199</v>
+      </c>
+      <c r="GW74" s="167">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_content_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45813923-1D42-4A7C-82F9-95A17FBF4196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C4A67-1304-4474-B428-600A2CF2FF71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13159" uniqueCount="2731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13410" uniqueCount="2797">
   <si>
     <t>Description</t>
   </si>
@@ -8217,6 +8217,204 @@
   </si>
   <si>
     <t>Jonas Golisch</t>
+  </si>
+  <si>
+    <t>2_IUS_Electricity_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>around 20 technologies</t>
+  </si>
+  <si>
+    <t>single country resolution</t>
+  </si>
+  <si>
+    <t>1970-2023</t>
+  </si>
+  <si>
+    <t>annual values, technology specific</t>
+  </si>
+  <si>
+    <t>In use stocks for the different technology groups included in the CIRCOMOD project. Electricity generation and distribution</t>
+  </si>
+  <si>
+    <t>in-use stocks; age-cohort; regional stocks; electricity infrastructure; electricity grid; electricity generation; electricity distribution</t>
+  </si>
+  <si>
+    <t>Value(U,g,t,r,L)</t>
+  </si>
+  <si>
+    <t>In-use stock of electricity transmission, 35 kV in use phase - electricity infrastructure in China in 2014 measured as lenght is 484295 km.</t>
+  </si>
+  <si>
+    <t>[Data type] of [Aspect 2] in [Aspect 1] in [Aspect 4] in [Aspect 3] measured as [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>Marcel Geller and Stefan Pauliuk</t>
+  </si>
+  <si>
+    <t>3_MC_Furniture_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>five different types of furniture</t>
+  </si>
+  <si>
+    <t>typical furniture materials</t>
+  </si>
+  <si>
+    <t>15 material groups</t>
+  </si>
+  <si>
+    <t>Material composition of furniture, taken from Y. Ikeda (2023). Values are an average of existing data in literature, thus not really representing World data but rather unspecific to a region.</t>
+  </si>
+  <si>
+    <t>material; material composition; furniture</t>
+  </si>
+  <si>
+    <t>Taken from Ikeda, Y. (2023). Quantifying materials in household furniture: A case study of dynamic furniture stock in American homes. Values are an average of existing data in literature, thus not really representing World data but rather unspecific to a region.</t>
+  </si>
+  <si>
+    <t>Value(m,g,U,r,c)</t>
+  </si>
+  <si>
+    <t>Mass per unit of wood, solid, in chair, upholstered in use phase - furniture built in ca. 2020 in Global is 16.9113 kg/unit.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 1] in [Aspect 2] in [Aspect 3] built in [Aspect 5] in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>Y. IKEDA</t>
+  </si>
+  <si>
+    <t>https://repository.tudelft.nl/islandora/object/uuid%3Afec8d24f-f856-43a4-8673-570cc6de9d01</t>
+  </si>
+  <si>
+    <t>tables and figures in original source</t>
+  </si>
+  <si>
+    <t>Ikeda, Y. (2023). Quantifying materials in household furniture: A case study of dynamic furniture stock in American homes.</t>
+  </si>
+  <si>
+    <t>4_PE_EnergyIntensity_Fabrication_Furniture_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>Energy per unit of output</t>
+  </si>
+  <si>
+    <t>furniture manufacturing</t>
+  </si>
+  <si>
+    <t>six different types of furniture</t>
+  </si>
+  <si>
+    <t>Germany, China, United States</t>
+  </si>
+  <si>
+    <t>country average</t>
+  </si>
+  <si>
+    <t>2005-2016</t>
+  </si>
+  <si>
+    <t>Per unit-of-output energy demand of furniture manufacturing</t>
+  </si>
+  <si>
+    <t>furniture; manufacturing; energy intensity; unit process;</t>
+  </si>
+  <si>
+    <t>Value(n,g,p,c,r)</t>
+  </si>
+  <si>
+    <t>Process extension of energy per unit of output of energy carrier all (unspecified) in manufacturing of furniture per unit of desk in United States in 2005 was 3490 MJ/item.</t>
+  </si>
+  <si>
+    <t>[Data type] of [Layer] of [Aspect 1] in [Aspect 3] for producing [Aspect 2] in [Aspect 5] in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>4_PY_Asphalt_Recycling_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>road maintenance</t>
+  </si>
+  <si>
+    <t>asphalt pavement</t>
+  </si>
+  <si>
+    <t>one infrastructure type</t>
+  </si>
+  <si>
+    <t>asphalt</t>
+  </si>
+  <si>
+    <t>one material category</t>
+  </si>
+  <si>
+    <t>USA, Europe</t>
+  </si>
+  <si>
+    <t>country-level values</t>
+  </si>
+  <si>
+    <t>2019-ca. 2050</t>
+  </si>
+  <si>
+    <t>most values for around 2020-2022</t>
+  </si>
+  <si>
+    <t>recycling yield for extracting asphalt from asphalt pavement in road maintenance</t>
+  </si>
+  <si>
+    <t>asphalt; pavement; recycling;</t>
+  </si>
+  <si>
+    <t>Value(v,b,B,f,p,t,r)</t>
+  </si>
+  <si>
+    <t>Mass ratio for strategy Recycle of asphalt in asphalt pavement into recycled asphalt in process road maintenance in 2022 in Croatia is 63%.</t>
+  </si>
+  <si>
+    <t>[Layer] for [Aspect 1] of [Aspect 2] in [Aspect 3] into [Aspect 4] in process [Aspect 5] in [Aspect 6] in [Aspect 7] is [Value].</t>
+  </si>
+  <si>
+    <t>4_PY_Fabrication_Furniture_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>furniture manufacturing processes</t>
+  </si>
+  <si>
+    <t>15 different types of furniture components</t>
+  </si>
+  <si>
+    <t>Wood yield factors for furniture manufacturing, 15 different components of furniture</t>
+  </si>
+  <si>
+    <t>furniture; manufacturing; yield factor; unit process; wood</t>
+  </si>
+  <si>
+    <t>Value(b,k,F,p,t,r)</t>
+  </si>
+  <si>
+    <t>Mass ratio of yield coefficient of wood into boards from butt log in furniture in manufacturing of furniture - sawing (3X) in Sweden in 2015 is 37%.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Data type] of [Aspect 1] into [Aspect 2] in [Aspect 3] in process [Aspect 4] in [Aspect 5] in [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>Broman &amp; Fredriksson</t>
+  </si>
+  <si>
+    <t>https://urn.kb.se/resolve?urn=urn:nbn:se:ltu:diva-28597</t>
+  </si>
+  <si>
+    <t>Table in report</t>
+  </si>
+  <si>
+    <t>Broman &amp; Fredriksson 2015. Effect of Raw Material on Yield in a Furniture Production Process. Proceedings of the 22nd International Wood Machining Seminar, June 14-17, 2015 Qebec City, Canada</t>
+  </si>
+  <si>
+    <t>May 7, 2025 update</t>
   </si>
 </sst>
 </file>
@@ -8608,7 +8806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -9009,6 +9207,21 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -12747,10 +12960,10 @@
   <dimension ref="A1:GW74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="ES27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="FA24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="FN40" sqref="FN40"/>
+      <selection pane="bottomRight" activeCell="FQ1" sqref="FQ1:FQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -12811,7 +13024,7 @@
     <col min="70" max="16384" width="11.5546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:168" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:173" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -13283,8 +13496,13 @@
       <c r="FJ1" s="174"/>
       <c r="FK1" s="174"/>
       <c r="FL1" s="174"/>
+      <c r="FM1" s="174"/>
+      <c r="FN1" s="174"/>
+      <c r="FO1" s="174"/>
+      <c r="FP1" s="174"/>
+      <c r="FQ1" s="174"/>
     </row>
-    <row r="2" spans="1:168" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:173" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -13604,8 +13822,23 @@
       <c r="FL2" s="154" t="s">
         <v>2729</v>
       </c>
+      <c r="FM2" s="154" t="s">
+        <v>2796</v>
+      </c>
+      <c r="FN2" s="154" t="s">
+        <v>2796</v>
+      </c>
+      <c r="FO2" s="154" t="s">
+        <v>2796</v>
+      </c>
+      <c r="FP2" s="154" t="s">
+        <v>2796</v>
+      </c>
+      <c r="FQ2" s="154" t="s">
+        <v>2796</v>
+      </c>
     </row>
-    <row r="3" spans="1:168" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:173" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -13858,7 +14091,7 @@
       <c r="DS3" s="105"/>
       <c r="DT3" s="105"/>
     </row>
-    <row r="4" spans="1:168" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:173" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>1</v>
       </c>
@@ -14116,7 +14349,7 @@
       <c r="DS4" s="105"/>
       <c r="DT4" s="105"/>
     </row>
-    <row r="5" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41">
         <v>2</v>
       </c>
@@ -14619,8 +14852,23 @@
       <c r="FL5" s="41" t="s">
         <v>2722</v>
       </c>
+      <c r="FM5" s="222" t="s">
+        <v>2731</v>
+      </c>
+      <c r="FN5" s="187" t="s">
+        <v>2742</v>
+      </c>
+      <c r="FO5" s="187" t="s">
+        <v>2757</v>
+      </c>
+      <c r="FP5" s="187" t="s">
+        <v>2769</v>
+      </c>
+      <c r="FQ5" s="187" t="s">
+        <v>2784</v>
+      </c>
     </row>
-    <row r="6" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -15121,8 +15369,23 @@
       <c r="FL6" s="41" t="s">
         <v>11</v>
       </c>
+      <c r="FM6" s="222" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FN6" s="187" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FO6" s="187" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FP6" s="187" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FQ6" s="187" t="s">
+        <v>1150</v>
+      </c>
     </row>
-    <row r="7" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="92">
         <v>4</v>
       </c>
@@ -15625,8 +15888,23 @@
       <c r="FL7" s="41">
         <v>27</v>
       </c>
+      <c r="FM7" s="222">
+        <v>21</v>
+      </c>
+      <c r="FN7" s="187">
+        <v>20</v>
+      </c>
+      <c r="FO7" s="187">
+        <v>20</v>
+      </c>
+      <c r="FP7" s="187">
+        <v>20</v>
+      </c>
+      <c r="FQ7" s="187">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="92">
         <v>5</v>
       </c>
@@ -16129,8 +16407,23 @@
       <c r="FL8" s="41">
         <v>6</v>
       </c>
+      <c r="FM8" s="222">
+        <v>2</v>
+      </c>
+      <c r="FN8" s="187">
+        <v>3</v>
+      </c>
+      <c r="FO8" s="187">
+        <v>4</v>
+      </c>
+      <c r="FP8" s="187">
+        <v>4</v>
+      </c>
+      <c r="FQ8" s="187">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="92">
         <v>6</v>
       </c>
@@ -16633,8 +16926,23 @@
       <c r="FL9" s="41" t="s">
         <v>2708</v>
       </c>
+      <c r="FM9" s="222" t="s">
+        <v>31</v>
+      </c>
+      <c r="FN9" s="187" t="s">
+        <v>846</v>
+      </c>
+      <c r="FO9" s="187" t="s">
+        <v>179</v>
+      </c>
+      <c r="FP9" s="187" t="s">
+        <v>94</v>
+      </c>
+      <c r="FQ9" s="187" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="10" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="92">
         <v>7</v>
       </c>
@@ -17137,8 +17445,23 @@
       <c r="FL10" s="41" t="s">
         <v>1091</v>
       </c>
+      <c r="FM10" s="222" t="s">
+        <v>1025</v>
+      </c>
+      <c r="FN10" s="187" t="s">
+        <v>824</v>
+      </c>
+      <c r="FO10" s="187" t="s">
+        <v>2758</v>
+      </c>
+      <c r="FP10" s="187" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ10" s="187" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:168" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:173" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="92">
         <v>8</v>
       </c>
@@ -17641,8 +17964,23 @@
       <c r="FL11" s="41" t="s">
         <v>779</v>
       </c>
+      <c r="FM11" s="222" t="s">
+        <v>782</v>
+      </c>
+      <c r="FN11" s="188" t="s">
+        <v>782</v>
+      </c>
+      <c r="FO11" s="188" t="s">
+        <v>2759</v>
+      </c>
+      <c r="FP11" s="188" t="s">
+        <v>2770</v>
+      </c>
+      <c r="FQ11" s="188" t="s">
+        <v>2785</v>
+      </c>
     </row>
-    <row r="12" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92">
         <v>9</v>
       </c>
@@ -18143,8 +18481,23 @@
       <c r="FL12" s="41" t="s">
         <v>868</v>
       </c>
+      <c r="FM12" s="222" t="s">
+        <v>152</v>
+      </c>
+      <c r="FN12" s="187" t="s">
+        <v>2274</v>
+      </c>
+      <c r="FO12" s="187" t="s">
+        <v>2274</v>
+      </c>
+      <c r="FP12" s="187" t="s">
+        <v>2274</v>
+      </c>
+      <c r="FQ12" s="187" t="s">
+        <v>2274</v>
+      </c>
     </row>
-    <row r="13" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="92">
         <v>10</v>
       </c>
@@ -18645,8 +18998,23 @@
       <c r="FL13" s="41" t="s">
         <v>11</v>
       </c>
+      <c r="FM13" s="222" t="s">
+        <v>2641</v>
+      </c>
+      <c r="FN13" s="187" t="s">
+        <v>2743</v>
+      </c>
+      <c r="FO13" s="188" t="s">
+        <v>2743</v>
+      </c>
+      <c r="FP13" s="188" t="s">
+        <v>2771</v>
+      </c>
+      <c r="FQ13" s="188" t="s">
+        <v>2743</v>
+      </c>
     </row>
-    <row r="14" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="92">
         <v>11</v>
       </c>
@@ -19147,8 +19515,23 @@
       <c r="FL14" s="41" t="s">
         <v>11</v>
       </c>
+      <c r="FM14" s="222" t="s">
+        <v>2732</v>
+      </c>
+      <c r="FN14" s="187" t="s">
+        <v>2744</v>
+      </c>
+      <c r="FO14" s="187" t="s">
+        <v>2760</v>
+      </c>
+      <c r="FP14" s="187" t="s">
+        <v>2772</v>
+      </c>
+      <c r="FQ14" s="187" t="s">
+        <v>2786</v>
+      </c>
     </row>
-    <row r="15" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="92">
         <v>12</v>
       </c>
@@ -19649,8 +20032,23 @@
       <c r="FL15" s="41" t="s">
         <v>2723</v>
       </c>
+      <c r="FM15" s="222" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN15" s="187" t="s">
+        <v>2745</v>
+      </c>
+      <c r="FO15" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP15" s="188" t="s">
+        <v>2773</v>
+      </c>
+      <c r="FQ15" s="187" t="s">
+        <v>565</v>
+      </c>
     </row>
-    <row r="16" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="92">
         <v>13</v>
       </c>
@@ -20151,8 +20549,23 @@
       <c r="FL16" s="41" t="s">
         <v>2724</v>
       </c>
+      <c r="FM16" s="222" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN16" s="187" t="s">
+        <v>2746</v>
+      </c>
+      <c r="FO16" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP16" s="187" t="s">
+        <v>2774</v>
+      </c>
+      <c r="FQ16" s="187" t="s">
+        <v>1680</v>
+      </c>
     </row>
-    <row r="17" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="92">
         <v>14</v>
       </c>
@@ -20653,8 +21066,23 @@
       <c r="FL17" s="41" t="s">
         <v>1422</v>
       </c>
+      <c r="FM17" s="222" t="s">
+        <v>819</v>
+      </c>
+      <c r="FN17" s="187" t="s">
+        <v>819</v>
+      </c>
+      <c r="FO17" s="187" t="s">
+        <v>2761</v>
+      </c>
+      <c r="FP17" s="187" t="s">
+        <v>2775</v>
+      </c>
+      <c r="FQ17" s="187" t="s">
+        <v>527</v>
+      </c>
     </row>
-    <row r="18" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="92">
         <v>15</v>
       </c>
@@ -21155,8 +21583,23 @@
       <c r="FL18" s="41" t="s">
         <v>2711</v>
       </c>
+      <c r="FM18" s="222" t="s">
+        <v>2733</v>
+      </c>
+      <c r="FN18" s="187" t="s">
+        <v>2050</v>
+      </c>
+      <c r="FO18" s="187" t="s">
+        <v>2762</v>
+      </c>
+      <c r="FP18" s="187" t="s">
+        <v>2776</v>
+      </c>
+      <c r="FQ18" s="187" t="s">
+        <v>2762</v>
+      </c>
     </row>
-    <row r="19" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="92">
         <v>16</v>
       </c>
@@ -21657,8 +22100,23 @@
       <c r="FL19" s="41">
         <v>2020</v>
       </c>
+      <c r="FM19" s="222" t="s">
+        <v>2734</v>
+      </c>
+      <c r="FN19" s="187" t="s">
+        <v>2154</v>
+      </c>
+      <c r="FO19" s="187" t="s">
+        <v>2763</v>
+      </c>
+      <c r="FP19" s="187" t="s">
+        <v>2777</v>
+      </c>
+      <c r="FQ19" s="187">
+        <v>2015</v>
+      </c>
     </row>
-    <row r="20" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="92">
         <v>17</v>
       </c>
@@ -22159,8 +22617,23 @@
       <c r="FL20" s="41" t="s">
         <v>2712</v>
       </c>
+      <c r="FM20" s="222" t="s">
+        <v>2735</v>
+      </c>
+      <c r="FN20" s="187" t="s">
+        <v>2154</v>
+      </c>
+      <c r="FO20" s="187" t="s">
+        <v>2349</v>
+      </c>
+      <c r="FP20" s="187" t="s">
+        <v>2778</v>
+      </c>
+      <c r="FQ20" s="187" t="s">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="21" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="92">
         <v>18</v>
       </c>
@@ -22657,8 +23130,23 @@
       <c r="FL21" s="41" t="s">
         <v>2725</v>
       </c>
+      <c r="FM21" s="222" t="s">
+        <v>2736</v>
+      </c>
+      <c r="FN21" s="187" t="s">
+        <v>2747</v>
+      </c>
+      <c r="FO21" s="187" t="s">
+        <v>2764</v>
+      </c>
+      <c r="FP21" s="187" t="s">
+        <v>2779</v>
+      </c>
+      <c r="FQ21" s="187" t="s">
+        <v>2787</v>
+      </c>
     </row>
-    <row r="22" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="92">
         <v>19</v>
       </c>
@@ -23161,8 +23649,23 @@
       <c r="FL22" s="41" t="s">
         <v>2714</v>
       </c>
+      <c r="FM22" s="222" t="s">
+        <v>2737</v>
+      </c>
+      <c r="FN22" s="187" t="s">
+        <v>2748</v>
+      </c>
+      <c r="FO22" s="187" t="s">
+        <v>2765</v>
+      </c>
+      <c r="FP22" s="187" t="s">
+        <v>2780</v>
+      </c>
+      <c r="FQ22" s="187" t="s">
+        <v>2788</v>
+      </c>
     </row>
-    <row r="23" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="92">
         <v>20</v>
       </c>
@@ -23665,8 +24168,23 @@
       <c r="FL23" s="41" t="s">
         <v>141</v>
       </c>
+      <c r="FM23" s="222" t="s">
+        <v>169</v>
+      </c>
+      <c r="FN23" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="FO23" s="187" t="s">
+        <v>634</v>
+      </c>
+      <c r="FP23" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="FQ23" s="187" t="s">
+        <v>634</v>
+      </c>
     </row>
-    <row r="24" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="92">
         <v>21</v>
       </c>
@@ -24169,8 +24687,23 @@
       <c r="FL24" s="41">
         <v>137</v>
       </c>
+      <c r="FM24" s="222">
+        <v>1111</v>
+      </c>
+      <c r="FN24" s="155">
+        <v>75</v>
+      </c>
+      <c r="FO24" s="187">
+        <v>7</v>
+      </c>
+      <c r="FP24" s="187">
+        <v>51</v>
+      </c>
+      <c r="FQ24" s="187">
+        <v>18</v>
+      </c>
     </row>
-    <row r="25" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="92">
         <v>22</v>
       </c>
@@ -24668,8 +25201,23 @@
       <c r="FL25" s="41" t="s">
         <v>2726</v>
       </c>
+      <c r="FM25" s="223" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN25" s="155" t="s">
+        <v>2749</v>
+      </c>
+      <c r="FO25" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP25" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ25" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="26" spans="1:168" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:173" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="92">
         <v>23</v>
       </c>
@@ -25174,8 +25722,23 @@
       <c r="FL26" s="68" t="s">
         <v>1033</v>
       </c>
+      <c r="FM26" s="222" t="s">
+        <v>1440</v>
+      </c>
+      <c r="FN26" s="156" t="s">
+        <v>849</v>
+      </c>
+      <c r="FO26" s="187" t="s">
+        <v>713</v>
+      </c>
+      <c r="FP26" s="156" t="s">
+        <v>1441</v>
+      </c>
+      <c r="FQ26" s="156" t="s">
+        <v>852</v>
+      </c>
     </row>
-    <row r="27" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="92">
         <v>24</v>
       </c>
@@ -25678,8 +26241,23 @@
       <c r="FL27" s="68">
         <v>4</v>
       </c>
+      <c r="FM27" s="223">
+        <v>6</v>
+      </c>
+      <c r="FN27" s="155">
+        <v>4</v>
+      </c>
+      <c r="FO27" s="187">
+        <v>10</v>
+      </c>
+      <c r="FP27" s="155">
+        <v>86</v>
+      </c>
+      <c r="FQ27" s="155">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="92">
         <v>25</v>
       </c>
@@ -26180,8 +26758,23 @@
       <c r="FL28" s="68" t="s">
         <v>1087</v>
       </c>
+      <c r="FM28" s="222" t="s">
+        <v>696</v>
+      </c>
+      <c r="FN28" s="187" t="s">
+        <v>696</v>
+      </c>
+      <c r="FO28" s="187" t="s">
+        <v>696</v>
+      </c>
+      <c r="FP28" s="156" t="s">
+        <v>852</v>
+      </c>
+      <c r="FQ28" s="187" t="s">
+        <v>1640</v>
+      </c>
     </row>
-    <row r="29" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="92">
         <v>26</v>
       </c>
@@ -26682,8 +27275,23 @@
       <c r="FL29" s="68">
         <v>18</v>
       </c>
+      <c r="FM29" s="222">
+        <v>7</v>
+      </c>
+      <c r="FN29" s="187">
+        <v>7</v>
+      </c>
+      <c r="FO29" s="187">
+        <v>7</v>
+      </c>
+      <c r="FP29" s="155">
+        <v>4</v>
+      </c>
+      <c r="FQ29" s="155">
+        <v>90</v>
+      </c>
     </row>
-    <row r="30" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="92">
         <v>27</v>
       </c>
@@ -27184,8 +27792,23 @@
       <c r="FL30" s="68" t="s">
         <v>1657</v>
       </c>
+      <c r="FM30" s="222" t="s">
+        <v>702</v>
+      </c>
+      <c r="FN30" s="156" t="s">
+        <v>1440</v>
+      </c>
+      <c r="FO30" s="187" t="s">
+        <v>697</v>
+      </c>
+      <c r="FP30" s="187" t="s">
+        <v>707</v>
+      </c>
+      <c r="FQ30" s="187" t="s">
+        <v>799</v>
+      </c>
     </row>
-    <row r="31" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="92">
         <v>28</v>
       </c>
@@ -27686,8 +28309,23 @@
       <c r="FL31" s="68">
         <v>93</v>
       </c>
+      <c r="FM31" s="222">
+        <v>3</v>
+      </c>
+      <c r="FN31" s="155">
+        <v>6</v>
+      </c>
+      <c r="FO31" s="187">
+        <v>6</v>
+      </c>
+      <c r="FP31" s="155">
+        <v>7</v>
+      </c>
+      <c r="FQ31" s="155">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="92">
         <v>29</v>
       </c>
@@ -28188,8 +28826,23 @@
       <c r="FL32" s="68" t="s">
         <v>698</v>
       </c>
+      <c r="FM32" s="222" t="s">
+        <v>698</v>
+      </c>
+      <c r="FN32" s="188" t="s">
+        <v>698</v>
+      </c>
+      <c r="FO32" s="187" t="s">
+        <v>704</v>
+      </c>
+      <c r="FP32" s="187" t="s">
+        <v>706</v>
+      </c>
+      <c r="FQ32" s="187" t="s">
+        <v>697</v>
+      </c>
     </row>
-    <row r="33" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92">
         <v>30</v>
       </c>
@@ -28690,8 +29343,23 @@
       <c r="FL33" s="68">
         <v>2</v>
       </c>
+      <c r="FM33" s="222">
+        <v>89</v>
+      </c>
+      <c r="FN33" s="188">
+        <v>2</v>
+      </c>
+      <c r="FO33" s="187">
+        <v>14</v>
+      </c>
+      <c r="FP33" s="155">
+        <v>4</v>
+      </c>
+      <c r="FQ33" s="155">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="92">
         <v>31</v>
       </c>
@@ -29192,8 +29860,23 @@
       <c r="FL34" s="68" t="s">
         <v>702</v>
       </c>
+      <c r="FM34" s="224" t="s">
+        <v>1034</v>
+      </c>
+      <c r="FN34" s="188" t="s">
+        <v>704</v>
+      </c>
+      <c r="FO34" s="156" t="s">
+        <v>698</v>
+      </c>
+      <c r="FP34" s="187" t="s">
+        <v>697</v>
+      </c>
+      <c r="FQ34" s="187" t="s">
+        <v>702</v>
+      </c>
     </row>
-    <row r="35" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="92">
         <v>32</v>
       </c>
@@ -29694,8 +30377,23 @@
       <c r="FL35" s="68">
         <v>3</v>
       </c>
+      <c r="FM35" s="224">
+        <v>20</v>
+      </c>
+      <c r="FN35" s="188">
+        <v>9</v>
+      </c>
+      <c r="FO35" s="187">
+        <v>2</v>
+      </c>
+      <c r="FP35" s="155">
+        <v>6</v>
+      </c>
+      <c r="FQ35" s="155">
+        <v>3</v>
+      </c>
     </row>
-    <row r="36" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="92">
         <v>33</v>
       </c>
@@ -30196,8 +30894,23 @@
       <c r="FL36" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM36" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN36" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO36" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP36" s="187" t="s">
+        <v>702</v>
+      </c>
+      <c r="FQ36" s="187" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="37" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="92">
         <v>34</v>
       </c>
@@ -30698,8 +31411,23 @@
       <c r="FL37" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM37" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN37" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO37" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP37" s="155">
+        <v>3</v>
+      </c>
+      <c r="FQ37" s="155">
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="92">
         <v>35</v>
       </c>
@@ -31200,8 +31928,23 @@
       <c r="FL38" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM38" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN38" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO38" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP38" s="187" t="s">
+        <v>698</v>
+      </c>
+      <c r="FQ38" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="39" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="92">
         <v>36</v>
       </c>
@@ -31702,8 +32445,23 @@
       <c r="FL39" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM39" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN39" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO39" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP39" s="155">
+        <v>2</v>
+      </c>
+      <c r="FQ39" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="92">
         <v>37</v>
       </c>
@@ -32204,8 +32962,23 @@
       <c r="FL40" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM40" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN40" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO40" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP40" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ40" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="92">
         <v>38</v>
       </c>
@@ -32706,8 +33479,23 @@
       <c r="FL41" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM41" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN41" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO41" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP41" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ41" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="92">
         <v>39</v>
       </c>
@@ -33208,8 +33996,23 @@
       <c r="FL42" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM42" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN42" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO42" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP42" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ42" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="92">
         <v>40</v>
       </c>
@@ -33710,8 +34513,23 @@
       <c r="FL43" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM43" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN43" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO43" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP43" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ43" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="92">
         <v>41</v>
       </c>
@@ -34212,8 +35030,23 @@
       <c r="FL44" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM44" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN44" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO44" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP44" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ44" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="92">
         <v>42</v>
       </c>
@@ -34714,8 +35547,23 @@
       <c r="FL45" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM45" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN45" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO45" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP45" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ45" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="92">
         <v>43</v>
       </c>
@@ -35216,8 +36064,23 @@
       <c r="FL46" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM46" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN46" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO46" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP46" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ46" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="92">
         <v>44</v>
       </c>
@@ -35718,8 +36581,23 @@
       <c r="FL47" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM47" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN47" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO47" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP47" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ47" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="92">
         <v>45</v>
       </c>
@@ -36220,8 +37098,23 @@
       <c r="FL48" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM48" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN48" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO48" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP48" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ48" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:168" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="92">
         <v>46</v>
       </c>
@@ -36722,8 +37615,23 @@
       <c r="FL49" s="68" t="s">
         <v>11</v>
       </c>
+      <c r="FM49" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="FN49" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO49" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FP49" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ49" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="92">
         <v>47</v>
       </c>
@@ -37226,8 +38134,23 @@
       <c r="FL50" s="41" t="s">
         <v>2716</v>
       </c>
+      <c r="FM50" s="187" t="s">
+        <v>2738</v>
+      </c>
+      <c r="FN50" s="155" t="s">
+        <v>2750</v>
+      </c>
+      <c r="FO50" s="187" t="s">
+        <v>2766</v>
+      </c>
+      <c r="FP50" s="187" t="s">
+        <v>2781</v>
+      </c>
+      <c r="FQ50" s="187" t="s">
+        <v>2789</v>
+      </c>
     </row>
-    <row r="51" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="92">
         <v>48</v>
       </c>
@@ -37730,8 +38653,23 @@
       <c r="FL51" s="41" t="s">
         <v>2727</v>
       </c>
+      <c r="FM51" s="155" t="s">
+        <v>2739</v>
+      </c>
+      <c r="FN51" s="155" t="s">
+        <v>2751</v>
+      </c>
+      <c r="FO51" s="155" t="s">
+        <v>2767</v>
+      </c>
+      <c r="FP51" s="155" t="s">
+        <v>2782</v>
+      </c>
+      <c r="FQ51" s="155" t="s">
+        <v>2790</v>
+      </c>
     </row>
-    <row r="52" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="92">
         <v>49</v>
       </c>
@@ -38234,8 +39172,23 @@
       <c r="FL52" s="41" t="s">
         <v>2718</v>
       </c>
+      <c r="FM52" s="155" t="s">
+        <v>2740</v>
+      </c>
+      <c r="FN52" s="155" t="s">
+        <v>2752</v>
+      </c>
+      <c r="FO52" s="155" t="s">
+        <v>2768</v>
+      </c>
+      <c r="FP52" s="155" t="s">
+        <v>2783</v>
+      </c>
+      <c r="FQ52" s="155" t="s">
+        <v>2791</v>
+      </c>
     </row>
-    <row r="53" spans="1:168" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:173" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="92">
         <v>50</v>
       </c>
@@ -38740,8 +39693,23 @@
       <c r="FL53" s="41" t="s">
         <v>860</v>
       </c>
+      <c r="FM53" s="223" t="s">
+        <v>207</v>
+      </c>
+      <c r="FN53" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="FO53" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="FP53" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="FQ53" s="155" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="54" spans="1:168" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:173" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A54" s="92">
         <v>51</v>
       </c>
@@ -39244,8 +40212,23 @@
       <c r="FL54" s="41" t="s">
         <v>858</v>
       </c>
+      <c r="FM54" s="223" t="s">
+        <v>858</v>
+      </c>
+      <c r="FN54" s="155" t="s">
+        <v>858</v>
+      </c>
+      <c r="FO54" s="155" t="s">
+        <v>858</v>
+      </c>
+      <c r="FP54" s="155" t="s">
+        <v>858</v>
+      </c>
+      <c r="FQ54" s="155" t="s">
+        <v>858</v>
+      </c>
     </row>
-    <row r="55" spans="1:168" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:173" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A55" s="92">
         <v>52</v>
       </c>
@@ -39748,8 +40731,23 @@
       <c r="FL55" s="41" t="s">
         <v>2606</v>
       </c>
+      <c r="FM55" s="223" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FN55" s="155" t="s">
+        <v>2753</v>
+      </c>
+      <c r="FO55" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FP55" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FQ55" s="155" t="s">
+        <v>2792</v>
+      </c>
     </row>
-    <row r="56" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="92">
         <v>53</v>
       </c>
@@ -40250,8 +41248,23 @@
       <c r="FL56" s="41" t="s">
         <v>2728</v>
       </c>
+      <c r="FM56" s="223" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FN56" s="155" t="s">
+        <v>2754</v>
+      </c>
+      <c r="FO56" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FP56" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FQ56" s="155" t="s">
+        <v>2793</v>
+      </c>
     </row>
-    <row r="57" spans="1:168" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:173" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A57" s="92">
         <v>54</v>
       </c>
@@ -40754,8 +41767,23 @@
       <c r="FL57" s="41" t="s">
         <v>2720</v>
       </c>
+      <c r="FM57" s="223" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FN57" s="155" t="s">
+        <v>2755</v>
+      </c>
+      <c r="FO57" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FP57" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FQ57" s="155" t="s">
+        <v>2794</v>
+      </c>
     </row>
-    <row r="58" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="92">
         <v>55</v>
       </c>
@@ -41229,8 +42257,23 @@
       <c r="FL58" s="41" t="s">
         <v>2728</v>
       </c>
+      <c r="FM58" s="223" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FN58" s="155" t="s">
+        <v>2756</v>
+      </c>
+      <c r="FO58" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FP58" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FQ58" s="155" t="s">
+        <v>2795</v>
+      </c>
     </row>
-    <row r="59" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="92">
         <v>56</v>
       </c>
@@ -41733,8 +42776,23 @@
       <c r="FL59" s="41" t="s">
         <v>2728</v>
       </c>
+      <c r="FM59" s="223" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FN59" s="155" t="s">
+        <v>2756</v>
+      </c>
+      <c r="FO59" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FP59" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FQ59" s="155" t="s">
+        <v>2795</v>
+      </c>
     </row>
-    <row r="60" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="92">
         <v>57</v>
       </c>
@@ -42237,8 +43295,23 @@
       <c r="FL60" s="41">
         <v>1</v>
       </c>
+      <c r="FM60" s="224">
+        <v>1</v>
+      </c>
+      <c r="FN60" s="188">
+        <v>1</v>
+      </c>
+      <c r="FO60" s="188">
+        <v>1</v>
+      </c>
+      <c r="FP60" s="188">
+        <v>1</v>
+      </c>
+      <c r="FQ60" s="188">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:168" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:173" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="92">
         <v>58</v>
       </c>
@@ -42741,8 +43814,23 @@
       <c r="FL61" s="157">
         <v>45727</v>
       </c>
+      <c r="FM61" s="225">
+        <v>45413</v>
+      </c>
+      <c r="FN61" s="189">
+        <v>45413</v>
+      </c>
+      <c r="FO61" s="189">
+        <v>45413</v>
+      </c>
+      <c r="FP61" s="189">
+        <v>45413</v>
+      </c>
+      <c r="FQ61" s="189">
+        <v>45413</v>
+      </c>
     </row>
-    <row r="62" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="92">
         <v>59</v>
       </c>
@@ -43245,8 +44333,23 @@
       <c r="FL62" s="157">
         <v>45769</v>
       </c>
+      <c r="FM62" s="226">
+        <v>45709</v>
+      </c>
+      <c r="FN62" s="190">
+        <v>45709</v>
+      </c>
+      <c r="FO62" s="190">
+        <v>45709</v>
+      </c>
+      <c r="FP62" s="190">
+        <v>45709</v>
+      </c>
+      <c r="FQ62" s="190">
+        <v>45709</v>
+      </c>
     </row>
-    <row r="63" spans="1:168" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="92">
         <v>60</v>
       </c>
@@ -43749,8 +44852,23 @@
       <c r="FL63" s="157" t="s">
         <v>2730</v>
       </c>
+      <c r="FM63" s="120" t="s">
+        <v>2331</v>
+      </c>
+      <c r="FN63" s="155" t="s">
+        <v>2386</v>
+      </c>
+      <c r="FO63" s="155" t="s">
+        <v>2386</v>
+      </c>
+      <c r="FP63" s="155" t="s">
+        <v>2386</v>
+      </c>
+      <c r="FQ63" s="155" t="s">
+        <v>2386</v>
+      </c>
     </row>
-    <row r="64" spans="1:168" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:173" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A64" s="92">
         <v>61</v>
       </c>
@@ -44252,6 +45370,21 @@
       </c>
       <c r="FL64" s="115" t="s">
         <v>2721</v>
+      </c>
+      <c r="FM64" s="120" t="s">
+        <v>2332</v>
+      </c>
+      <c r="FN64" s="155" t="s">
+        <v>2332</v>
+      </c>
+      <c r="FO64" s="155" t="s">
+        <v>2332</v>
+      </c>
+      <c r="FP64" s="155" t="s">
+        <v>2332</v>
+      </c>
+      <c r="FQ64" s="155" t="s">
+        <v>2332</v>
       </c>
     </row>
     <row r="65" spans="1:205" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -44460,6 +45593,21 @@
       <c r="FL65" s="157">
         <v>45772</v>
       </c>
+      <c r="FM65" s="226">
+        <v>45784</v>
+      </c>
+      <c r="FN65" s="190">
+        <v>45781</v>
+      </c>
+      <c r="FO65" s="190">
+        <v>45782</v>
+      </c>
+      <c r="FP65" s="190">
+        <v>45782</v>
+      </c>
+      <c r="FQ65" s="190">
+        <v>45782</v>
+      </c>
     </row>
     <row r="66" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A66" s="92">
@@ -44663,6 +45811,21 @@
         <v>30</v>
       </c>
       <c r="FL66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FM66" s="47" t="s">
+        <v>2741</v>
+      </c>
+      <c r="FN66" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="FO66" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="FP66" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="FQ66" s="156" t="s">
         <v>30</v>
       </c>
     </row>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_content_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C4A67-1304-4474-B428-600A2CF2FF71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38410A87-9C6C-4D2B-9E07-A9E41C0D5864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13410" uniqueCount="2797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13608" uniqueCount="2847">
   <si>
     <t>Description</t>
   </si>
@@ -8415,6 +8415,156 @@
   </si>
   <si>
     <t>May 7, 2025 update</t>
+  </si>
+  <si>
+    <t>3_LT_CIRCOMOD_Infrastructure</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>ca. 100 different types of infrastructure</t>
+  </si>
+  <si>
+    <t>typical infrastructure materials</t>
+  </si>
+  <si>
+    <t>most data apply to the entire asset (all materials) but for some, specific lifetime apply for different materials</t>
+  </si>
+  <si>
+    <t>country- and region-specific values</t>
+  </si>
+  <si>
+    <t>no age-cohort information given</t>
+  </si>
+  <si>
+    <t>mean lifetime of infrastructure in the use phase, compiled by several colleagues from the CIRCOMOD EU project</t>
+  </si>
+  <si>
+    <t>lifetime; infrastructure; use phase; road; rail; pipes</t>
+  </si>
+  <si>
+    <t>See comment for each data entry for the reference/literature source</t>
+  </si>
+  <si>
+    <t>Value(m,g,p,r,c)</t>
+  </si>
+  <si>
+    <t>Cement in roads and runways in use phase - infrastructure in Global of age-cohort n.a. has lifetime of 33 yr with rel. standard deviation of +/- 15%.</t>
+  </si>
+  <si>
+    <t>[Aspect 1] in [Aspect 2] in [Aspect 3] in [Aspect 4] built in [Aspect 5] has [data type] of [value].</t>
+  </si>
+  <si>
+    <t>May 8, 2025 update</t>
+  </si>
+  <si>
+    <t>3_MC_Infrastructure_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>ca. 90 different materials</t>
+  </si>
+  <si>
+    <t>Global average plus single-country values for six larger economies, including Germany, USA, and China</t>
+  </si>
+  <si>
+    <t>1978-2024</t>
+  </si>
+  <si>
+    <t>product specific, single-year values</t>
+  </si>
+  <si>
+    <t>Material content of infrastructure, compiled by the CIRCOMOD project team</t>
+  </si>
+  <si>
+    <t>material; material content; material composition; infrastructure; road; rail; pipe;</t>
+  </si>
+  <si>
+    <t>Value(m,g,p,c,r,v,L)</t>
+  </si>
+  <si>
+    <t>Material composition for layer mass per area of all materials in road bridge in use phase - infrastructure built in n.a. in Austria for CE strategy none is 1.431 t/m².</t>
+  </si>
+  <si>
+    <t>[Data type] as [Layer/Aspect 7] of [Aspect 1] in [Aspect 2] in [Aspect 3] built in [Aspect 4] in [Aspect 5] for circular economy strategy [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>3_MC_Electricity_Sector_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>45 different generation, distribution, and storage technologies</t>
+  </si>
+  <si>
+    <t>76 different engineering materials</t>
+  </si>
+  <si>
+    <t>Global values, plus values for China, Denmark, Germany, and the Netherlands</t>
+  </si>
+  <si>
+    <t>product specific, single year values</t>
+  </si>
+  <si>
+    <t>Material content of electricity generation, distribution, and storage technologies technologies</t>
+  </si>
+  <si>
+    <t>material; material content; electricity generation; electricity storage; electricity distribution</t>
+  </si>
+  <si>
+    <t>Compiled from different sources, see the comment for each data point</t>
+  </si>
+  <si>
+    <t>Value(p,g,k,c,r,m)</t>
+  </si>
+  <si>
+    <t>Mass per unit of silicon in module, buffer layer in electricity generation - PV CIGS (ground-mounted) in use phase - electricity infrastructure in China built in 2025 is 6.7 kg/MWp.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 6] in [Aspect 3] in [Aspect 2] in [Aspect 1] in [Aspect 5] built in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>3_MC_Electricity_Sector_CIRCOMOD_LightWeighting_Potential_Relative</t>
+  </si>
+  <si>
+    <t>7 different generation, distribution, and storage technologies</t>
+  </si>
+  <si>
+    <t>one value for all materials together</t>
+  </si>
+  <si>
+    <t>single future year scenario values</t>
+  </si>
+  <si>
+    <t>Material content reduction potential, compared to 2020 baseline, of electricity generation, distribution, and storage technologies</t>
+  </si>
+  <si>
+    <t>material; material content; electricity generation; electricity storage; electricity distribution; lightweighting; circular economy; reduction;</t>
+  </si>
+  <si>
+    <t>The values indicate the material content reduction potential, in %, compared to 2020 baseline, of electricity generation, distribution, and storage technologies</t>
+  </si>
+  <si>
+    <t>Value(p,g,k,c,r,m,v)</t>
+  </si>
+  <si>
+    <t>Material content reduction potential, expressed as mass ratio of all materials in entire device in electricity generation - wind offshore in use phase - electricity infrastructure in Global built in 2050 for circular economy strategy lightweighting is 10 %/MWp.</t>
+  </si>
+  <si>
+    <t>Material content reduction potential, expressed as [Layer] of [Aspect 6] in [Aspect 3] in [Aspect 2] in [Aspect 1] in [Aspect 5] built in [Aspect 4] for circular economy strategy [Aspect 7] is [Value].</t>
+  </si>
+  <si>
+    <t>UNEP-IRP</t>
+  </si>
+  <si>
+    <t>https://wedocs.unep.org/20.500.11822/44902</t>
+  </si>
+  <si>
+    <t>Table in background material</t>
+  </si>
+  <si>
+    <t>Global Resources Outlook 2024: Bend the Trend – Pathways to a liveable planet as resource use spikes</t>
+  </si>
+  <si>
+    <t>May 9, 2025 update</t>
   </si>
 </sst>
 </file>
@@ -8806,7 +8956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -9141,6 +9291,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9207,19 +9372,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -9562,7 +9715,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="208" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -9594,7 +9747,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="203"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -9624,7 +9777,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -9640,7 +9793,7 @@
       <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="204"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -9654,7 +9807,7 @@
       <c r="K7" s="121"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="204"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -9668,7 +9821,7 @@
       <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="204"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -9682,7 +9835,7 @@
       <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="204"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -9696,7 +9849,7 @@
       <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="204"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -9710,7 +9863,7 @@
       <c r="K11" s="121"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="204"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -9724,7 +9877,7 @@
       <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="204"/>
+      <c r="B13" s="209"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -9738,7 +9891,7 @@
       <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="204"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -9752,7 +9905,7 @@
       <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="204"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -9766,7 +9919,7 @@
       <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="204"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -9780,7 +9933,7 @@
       <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="204"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -9794,7 +9947,7 @@
       <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="204"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -9808,7 +9961,7 @@
       <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="205" t="s">
+      <c r="B19" s="210" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -9836,7 +9989,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="205"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -9866,7 +10019,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="205"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -9892,7 +10045,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="206" t="s">
+      <c r="B22" s="211" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -9922,7 +10075,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="206"/>
+      <c r="B23" s="211"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -9936,7 +10089,7 @@
       <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="206"/>
+      <c r="B24" s="211"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -9950,7 +10103,7 @@
       <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="206"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -9976,7 +10129,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="206"/>
+      <c r="B26" s="211"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -9992,7 +10145,7 @@
       <c r="K26" s="121"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="206"/>
+      <c r="B27" s="211"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -10006,7 +10159,7 @@
       <c r="K27" s="121"/>
     </row>
     <row r="28" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="207" t="s">
+      <c r="B28" s="212" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -10038,7 +10191,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="207"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -10068,7 +10221,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="200" t="s">
+      <c r="B30" s="205" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -10084,7 +10237,7 @@
       <c r="K30" s="181"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="201"/>
+      <c r="B31" s="206"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -10098,7 +10251,7 @@
       <c r="K31" s="164"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B32" s="202"/>
+      <c r="B32" s="207"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -10264,7 +10417,7 @@
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="213" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -10356,7 +10509,7 @@
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B5" s="209"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -10624,7 +10777,7 @@
       </c>
     </row>
     <row r="8" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -10714,7 +10867,7 @@
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B9" s="204"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -10802,7 +10955,7 @@
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B10" s="204"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -10890,7 +11043,7 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="204"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -10978,7 +11131,7 @@
       </c>
     </row>
     <row r="12" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="204"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -11066,7 +11219,7 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="204"/>
+      <c r="B13" s="209"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -11154,7 +11307,7 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="204"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -11242,7 +11395,7 @@
       </c>
     </row>
     <row r="15" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="204"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -11330,7 +11483,7 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="204"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -11418,7 +11571,7 @@
       </c>
     </row>
     <row r="17" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="204"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -11506,7 +11659,7 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="204"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -11594,7 +11747,7 @@
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B19" s="204"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -11682,7 +11835,7 @@
       </c>
     </row>
     <row r="20" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="204"/>
+      <c r="B20" s="209"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -11770,7 +11923,7 @@
       </c>
     </row>
     <row r="21" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="205" t="s">
+      <c r="B21" s="210" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -11860,7 +12013,7 @@
       </c>
     </row>
     <row r="22" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="205"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -11950,7 +12103,7 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B23" s="205"/>
+      <c r="B23" s="210"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
@@ -12038,7 +12191,7 @@
       </c>
     </row>
     <row r="24" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="205"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -12120,7 +12273,7 @@
       <c r="AE24" s="164"/>
     </row>
     <row r="25" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="206" t="s">
+      <c r="B25" s="211" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -12210,7 +12363,7 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B26" s="206"/>
+      <c r="B26" s="211"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -12298,7 +12451,7 @@
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B27" s="206"/>
+      <c r="B27" s="211"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -12386,7 +12539,7 @@
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B28" s="206"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -12474,7 +12627,7 @@
       </c>
     </row>
     <row r="29" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="206"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -12562,7 +12715,7 @@
       </c>
     </row>
     <row r="30" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="206"/>
+      <c r="B30" s="211"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -12650,7 +12803,7 @@
       </c>
     </row>
     <row r="31" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="207" t="s">
+      <c r="B31" s="212" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -12742,7 +12895,7 @@
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B32" s="210"/>
+      <c r="B32" s="215"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -12832,7 +12985,7 @@
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B33" s="200" t="s">
+      <c r="B33" s="205" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -12868,7 +13021,7 @@
       <c r="AE33" s="164"/>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B34" s="201"/>
+      <c r="B34" s="206"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -12902,7 +13055,7 @@
       <c r="AE34" s="164"/>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B35" s="202"/>
+      <c r="B35" s="207"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -12960,10 +13113,10 @@
   <dimension ref="A1:GW74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="FA24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="FH15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="FQ1" sqref="FQ1:FQ2"/>
+      <selection pane="bottomRight" activeCell="FS1" sqref="FS1:FS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -13024,7 +13177,7 @@
     <col min="70" max="16384" width="11.5546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:177" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -13501,8 +13654,12 @@
       <c r="FO1" s="174"/>
       <c r="FP1" s="174"/>
       <c r="FQ1" s="174"/>
+      <c r="FR1" s="174"/>
+      <c r="FS1" s="174"/>
+      <c r="FT1" s="174"/>
+      <c r="FU1" s="174"/>
     </row>
-    <row r="2" spans="1:173" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:177" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -13837,8 +13994,20 @@
       <c r="FQ2" s="154" t="s">
         <v>2796</v>
       </c>
+      <c r="FR2" s="154" t="s">
+        <v>2810</v>
+      </c>
+      <c r="FS2" s="154" t="s">
+        <v>2846</v>
+      </c>
+      <c r="FT2" s="154" t="s">
+        <v>2846</v>
+      </c>
+      <c r="FU2" s="154" t="s">
+        <v>2846</v>
+      </c>
     </row>
-    <row r="3" spans="1:173" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:177" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -14091,11 +14260,11 @@
       <c r="DS3" s="105"/>
       <c r="DT3" s="105"/>
     </row>
-    <row r="4" spans="1:173" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:177" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="218" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -14349,11 +14518,11 @@
       <c r="DS4" s="105"/>
       <c r="DT4" s="105"/>
     </row>
-    <row r="5" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="214"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -14852,7 +15021,7 @@
       <c r="FL5" s="41" t="s">
         <v>2722</v>
       </c>
-      <c r="FM5" s="222" t="s">
+      <c r="FM5" s="200" t="s">
         <v>2731</v>
       </c>
       <c r="FN5" s="187" t="s">
@@ -14867,8 +15036,20 @@
       <c r="FQ5" s="187" t="s">
         <v>2784</v>
       </c>
+      <c r="FR5" s="115" t="s">
+        <v>2797</v>
+      </c>
+      <c r="FS5" s="187" t="s">
+        <v>2811</v>
+      </c>
+      <c r="FT5" s="187" t="s">
+        <v>2821</v>
+      </c>
+      <c r="FU5" s="187" t="s">
+        <v>2832</v>
+      </c>
     </row>
-    <row r="6" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -15369,7 +15550,7 @@
       <c r="FL6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="FM6" s="222" t="s">
+      <c r="FM6" s="200" t="s">
         <v>1150</v>
       </c>
       <c r="FN6" s="187" t="s">
@@ -15384,12 +15565,24 @@
       <c r="FQ6" s="187" t="s">
         <v>1150</v>
       </c>
+      <c r="FR6" s="187" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FS6" s="187" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FT6" s="187" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FU6" s="187" t="s">
+        <v>1150</v>
+      </c>
     </row>
-    <row r="7" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="220" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -15888,7 +16081,7 @@
       <c r="FL7" s="41">
         <v>27</v>
       </c>
-      <c r="FM7" s="222">
+      <c r="FM7" s="200">
         <v>21</v>
       </c>
       <c r="FN7" s="187">
@@ -15903,12 +16096,24 @@
       <c r="FQ7" s="187">
         <v>20</v>
       </c>
+      <c r="FR7" s="187">
+        <v>20</v>
+      </c>
+      <c r="FS7" s="187">
+        <v>20</v>
+      </c>
+      <c r="FT7" s="187">
+        <v>20</v>
+      </c>
+      <c r="FU7" s="187">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="215"/>
+      <c r="B8" s="220"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -16407,7 +16612,7 @@
       <c r="FL8" s="41">
         <v>6</v>
       </c>
-      <c r="FM8" s="222">
+      <c r="FM8" s="200">
         <v>2</v>
       </c>
       <c r="FN8" s="187">
@@ -16422,12 +16627,24 @@
       <c r="FQ8" s="187">
         <v>4</v>
       </c>
+      <c r="FR8" s="115">
+        <v>3</v>
+      </c>
+      <c r="FS8" s="187">
+        <v>3</v>
+      </c>
+      <c r="FT8" s="187">
+        <v>3</v>
+      </c>
+      <c r="FU8" s="187">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="215"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -16926,7 +17143,7 @@
       <c r="FL9" s="41" t="s">
         <v>2708</v>
       </c>
-      <c r="FM9" s="222" t="s">
+      <c r="FM9" s="200" t="s">
         <v>31</v>
       </c>
       <c r="FN9" s="187" t="s">
@@ -16941,12 +17158,24 @@
       <c r="FQ9" s="187" t="s">
         <v>94</v>
       </c>
+      <c r="FR9" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="FS9" s="187" t="s">
+        <v>846</v>
+      </c>
+      <c r="FT9" s="187" t="s">
+        <v>846</v>
+      </c>
+      <c r="FU9" s="187" t="s">
+        <v>846</v>
+      </c>
     </row>
-    <row r="10" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="215"/>
+      <c r="B10" s="220"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -17445,7 +17674,7 @@
       <c r="FL10" s="41" t="s">
         <v>1091</v>
       </c>
-      <c r="FM10" s="222" t="s">
+      <c r="FM10" s="200" t="s">
         <v>1025</v>
       </c>
       <c r="FN10" s="187" t="s">
@@ -17460,12 +17689,24 @@
       <c r="FQ10" s="187" t="s">
         <v>5</v>
       </c>
+      <c r="FR10" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="FS10" s="187" t="s">
+        <v>1025</v>
+      </c>
+      <c r="FT10" s="187" t="s">
+        <v>824</v>
+      </c>
+      <c r="FU10" s="187" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:173" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:177" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="221" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -17964,7 +18205,7 @@
       <c r="FL11" s="41" t="s">
         <v>779</v>
       </c>
-      <c r="FM11" s="222" t="s">
+      <c r="FM11" s="200" t="s">
         <v>782</v>
       </c>
       <c r="FN11" s="188" t="s">
@@ -17979,12 +18220,24 @@
       <c r="FQ11" s="188" t="s">
         <v>2785</v>
       </c>
+      <c r="FR11" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="FS11" s="188" t="s">
+        <v>782</v>
+      </c>
+      <c r="FT11" s="188" t="s">
+        <v>782</v>
+      </c>
+      <c r="FU11" s="188" t="s">
+        <v>782</v>
+      </c>
     </row>
-    <row r="12" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="217"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -18481,7 +18734,7 @@
       <c r="FL12" s="41" t="s">
         <v>868</v>
       </c>
-      <c r="FM12" s="222" t="s">
+      <c r="FM12" s="200" t="s">
         <v>152</v>
       </c>
       <c r="FN12" s="187" t="s">
@@ -18496,12 +18749,24 @@
       <c r="FQ12" s="187" t="s">
         <v>2274</v>
       </c>
+      <c r="FR12" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="FS12" s="187" t="s">
+        <v>2274</v>
+      </c>
+      <c r="FT12" s="187" t="s">
+        <v>152</v>
+      </c>
+      <c r="FU12" s="187" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="13" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="217"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -18998,7 +19263,7 @@
       <c r="FL13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="FM13" s="222" t="s">
+      <c r="FM13" s="200" t="s">
         <v>2641</v>
       </c>
       <c r="FN13" s="187" t="s">
@@ -19013,12 +19278,24 @@
       <c r="FQ13" s="188" t="s">
         <v>2743</v>
       </c>
+      <c r="FR13" s="115" t="s">
+        <v>2798</v>
+      </c>
+      <c r="FS13" s="187" t="s">
+        <v>2798</v>
+      </c>
+      <c r="FT13" s="187" t="s">
+        <v>2641</v>
+      </c>
+      <c r="FU13" s="187" t="s">
+        <v>2641</v>
+      </c>
     </row>
-    <row r="14" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="217"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -19515,7 +19792,7 @@
       <c r="FL14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="FM14" s="222" t="s">
+      <c r="FM14" s="200" t="s">
         <v>2732</v>
       </c>
       <c r="FN14" s="187" t="s">
@@ -19530,12 +19807,24 @@
       <c r="FQ14" s="187" t="s">
         <v>2786</v>
       </c>
+      <c r="FR14" s="115" t="s">
+        <v>2799</v>
+      </c>
+      <c r="FS14" s="187" t="s">
+        <v>2799</v>
+      </c>
+      <c r="FT14" s="187" t="s">
+        <v>2822</v>
+      </c>
+      <c r="FU14" s="187" t="s">
+        <v>2833</v>
+      </c>
     </row>
-    <row r="15" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="217"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -20032,7 +20321,7 @@
       <c r="FL15" s="41" t="s">
         <v>2723</v>
       </c>
-      <c r="FM15" s="222" t="s">
+      <c r="FM15" s="200" t="s">
         <v>11</v>
       </c>
       <c r="FN15" s="187" t="s">
@@ -20047,12 +20336,24 @@
       <c r="FQ15" s="187" t="s">
         <v>565</v>
       </c>
+      <c r="FR15" s="115" t="s">
+        <v>2800</v>
+      </c>
+      <c r="FS15" s="187" t="s">
+        <v>2345</v>
+      </c>
+      <c r="FT15" s="187" t="s">
+        <v>2345</v>
+      </c>
+      <c r="FU15" s="187" t="s">
+        <v>2345</v>
+      </c>
     </row>
-    <row r="16" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="217"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -20549,7 +20850,7 @@
       <c r="FL16" s="41" t="s">
         <v>2724</v>
       </c>
-      <c r="FM16" s="222" t="s">
+      <c r="FM16" s="200" t="s">
         <v>11</v>
       </c>
       <c r="FN16" s="187" t="s">
@@ -20564,12 +20865,24 @@
       <c r="FQ16" s="187" t="s">
         <v>1680</v>
       </c>
+      <c r="FR16" s="115" t="s">
+        <v>2801</v>
+      </c>
+      <c r="FS16" s="187" t="s">
+        <v>2812</v>
+      </c>
+      <c r="FT16" s="187" t="s">
+        <v>2823</v>
+      </c>
+      <c r="FU16" s="187" t="s">
+        <v>2834</v>
+      </c>
     </row>
-    <row r="17" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="217"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -21066,7 +21379,7 @@
       <c r="FL17" s="41" t="s">
         <v>1422</v>
       </c>
-      <c r="FM17" s="222" t="s">
+      <c r="FM17" s="200" t="s">
         <v>819</v>
       </c>
       <c r="FN17" s="187" t="s">
@@ -21081,12 +21394,24 @@
       <c r="FQ17" s="187" t="s">
         <v>527</v>
       </c>
+      <c r="FR17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="FS17" s="187" t="s">
+        <v>19</v>
+      </c>
+      <c r="FT17" s="187" t="s">
+        <v>819</v>
+      </c>
+      <c r="FU17" s="187" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="18" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="217"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -21583,7 +21908,7 @@
       <c r="FL18" s="41" t="s">
         <v>2711</v>
       </c>
-      <c r="FM18" s="222" t="s">
+      <c r="FM18" s="200" t="s">
         <v>2733</v>
       </c>
       <c r="FN18" s="187" t="s">
@@ -21598,12 +21923,24 @@
       <c r="FQ18" s="187" t="s">
         <v>2762</v>
       </c>
+      <c r="FR18" s="115" t="s">
+        <v>2802</v>
+      </c>
+      <c r="FS18" s="187" t="s">
+        <v>2813</v>
+      </c>
+      <c r="FT18" s="187" t="s">
+        <v>2824</v>
+      </c>
+      <c r="FU18" s="187" t="s">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="19" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="217"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -22100,7 +22437,7 @@
       <c r="FL19" s="41">
         <v>2020</v>
       </c>
-      <c r="FM19" s="222" t="s">
+      <c r="FM19" s="200" t="s">
         <v>2734</v>
       </c>
       <c r="FN19" s="187" t="s">
@@ -22115,12 +22452,24 @@
       <c r="FQ19" s="187">
         <v>2015</v>
       </c>
+      <c r="FR19" s="115" t="s">
+        <v>2225</v>
+      </c>
+      <c r="FS19" s="187" t="s">
+        <v>2814</v>
+      </c>
+      <c r="FT19" s="187" t="s">
+        <v>1891</v>
+      </c>
+      <c r="FU19" s="187">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="20" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="217"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -22617,7 +22966,7 @@
       <c r="FL20" s="41" t="s">
         <v>2712</v>
       </c>
-      <c r="FM20" s="222" t="s">
+      <c r="FM20" s="200" t="s">
         <v>2735</v>
       </c>
       <c r="FN20" s="187" t="s">
@@ -22632,12 +22981,24 @@
       <c r="FQ20" s="187" t="s">
         <v>2050</v>
       </c>
+      <c r="FR20" s="115" t="s">
+        <v>2803</v>
+      </c>
+      <c r="FS20" s="187" t="s">
+        <v>2815</v>
+      </c>
+      <c r="FT20" s="187" t="s">
+        <v>2825</v>
+      </c>
+      <c r="FU20" s="187" t="s">
+        <v>2835</v>
+      </c>
     </row>
-    <row r="21" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="223" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -23130,7 +23491,7 @@
       <c r="FL21" s="41" t="s">
         <v>2725</v>
       </c>
-      <c r="FM21" s="222" t="s">
+      <c r="FM21" s="200" t="s">
         <v>2736</v>
       </c>
       <c r="FN21" s="187" t="s">
@@ -23145,12 +23506,24 @@
       <c r="FQ21" s="187" t="s">
         <v>2787</v>
       </c>
+      <c r="FR21" s="115" t="s">
+        <v>2804</v>
+      </c>
+      <c r="FS21" s="187" t="s">
+        <v>2816</v>
+      </c>
+      <c r="FT21" s="187" t="s">
+        <v>2826</v>
+      </c>
+      <c r="FU21" s="187" t="s">
+        <v>2836</v>
+      </c>
     </row>
-    <row r="22" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="218"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -23649,7 +24022,7 @@
       <c r="FL22" s="41" t="s">
         <v>2714</v>
       </c>
-      <c r="FM22" s="222" t="s">
+      <c r="FM22" s="200" t="s">
         <v>2737</v>
       </c>
       <c r="FN22" s="187" t="s">
@@ -23664,12 +24037,24 @@
       <c r="FQ22" s="187" t="s">
         <v>2788</v>
       </c>
+      <c r="FR22" s="115" t="s">
+        <v>2805</v>
+      </c>
+      <c r="FS22" s="187" t="s">
+        <v>2817</v>
+      </c>
+      <c r="FT22" s="187" t="s">
+        <v>2827</v>
+      </c>
+      <c r="FU22" s="187" t="s">
+        <v>2837</v>
+      </c>
     </row>
-    <row r="23" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="218"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -24168,7 +24553,7 @@
       <c r="FL23" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="FM23" s="222" t="s">
+      <c r="FM23" s="200" t="s">
         <v>169</v>
       </c>
       <c r="FN23" s="187" t="s">
@@ -24183,12 +24568,24 @@
       <c r="FQ23" s="187" t="s">
         <v>634</v>
       </c>
+      <c r="FR23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="FS23" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="FT23" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="FU23" s="187" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="24" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="218"/>
+      <c r="B24" s="223"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -24687,7 +25084,7 @@
       <c r="FL24" s="41">
         <v>137</v>
       </c>
-      <c r="FM24" s="222">
+      <c r="FM24" s="200">
         <v>1111</v>
       </c>
       <c r="FN24" s="155">
@@ -24702,12 +25099,24 @@
       <c r="FQ24" s="187">
         <v>18</v>
       </c>
+      <c r="FR24" s="115">
+        <v>121</v>
+      </c>
+      <c r="FS24" s="187">
+        <v>1607</v>
+      </c>
+      <c r="FT24" s="155">
+        <v>2964</v>
+      </c>
+      <c r="FU24" s="69">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="218"/>
+      <c r="B25" s="223"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -25201,7 +25610,7 @@
       <c r="FL25" s="41" t="s">
         <v>2726</v>
       </c>
-      <c r="FM25" s="223" t="s">
+      <c r="FM25" s="201" t="s">
         <v>11</v>
       </c>
       <c r="FN25" s="155" t="s">
@@ -25216,12 +25625,24 @@
       <c r="FQ25" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR25" s="185" t="s">
+        <v>2806</v>
+      </c>
+      <c r="FS25" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT25" s="155" t="s">
+        <v>2828</v>
+      </c>
+      <c r="FU25" s="69" t="s">
+        <v>2838</v>
+      </c>
     </row>
-    <row r="26" spans="1:173" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:177" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="219" t="s">
+      <c r="B26" s="224" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -25722,7 +26143,7 @@
       <c r="FL26" s="68" t="s">
         <v>1033</v>
       </c>
-      <c r="FM26" s="222" t="s">
+      <c r="FM26" s="200" t="s">
         <v>1440</v>
       </c>
       <c r="FN26" s="156" t="s">
@@ -25737,12 +26158,24 @@
       <c r="FQ26" s="156" t="s">
         <v>852</v>
       </c>
+      <c r="FR26" s="115" t="s">
+        <v>849</v>
+      </c>
+      <c r="FS26" s="187" t="s">
+        <v>849</v>
+      </c>
+      <c r="FT26" s="187" t="s">
+        <v>1440</v>
+      </c>
+      <c r="FU26" s="187" t="s">
+        <v>1440</v>
+      </c>
     </row>
-    <row r="27" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="219"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -26241,7 +26674,7 @@
       <c r="FL27" s="68">
         <v>4</v>
       </c>
-      <c r="FM27" s="223">
+      <c r="FM27" s="201">
         <v>6</v>
       </c>
       <c r="FN27" s="155">
@@ -26256,12 +26689,24 @@
       <c r="FQ27" s="155">
         <v>4</v>
       </c>
+      <c r="FR27" s="115">
+        <v>4</v>
+      </c>
+      <c r="FS27" s="155">
+        <v>4</v>
+      </c>
+      <c r="FT27" s="155">
+        <v>6</v>
+      </c>
+      <c r="FU27" s="69">
+        <v>6</v>
+      </c>
     </row>
-    <row r="28" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="219"/>
+      <c r="B28" s="224"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -26758,7 +27203,7 @@
       <c r="FL28" s="68" t="s">
         <v>1087</v>
       </c>
-      <c r="FM28" s="222" t="s">
+      <c r="FM28" s="200" t="s">
         <v>696</v>
       </c>
       <c r="FN28" s="187" t="s">
@@ -26773,12 +27218,24 @@
       <c r="FQ28" s="187" t="s">
         <v>1640</v>
       </c>
+      <c r="FR28" s="115" t="s">
+        <v>696</v>
+      </c>
+      <c r="FS28" s="187" t="s">
+        <v>696</v>
+      </c>
+      <c r="FT28" s="187" t="s">
+        <v>696</v>
+      </c>
+      <c r="FU28" s="187" t="s">
+        <v>696</v>
+      </c>
     </row>
-    <row r="29" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="219"/>
+      <c r="B29" s="224"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -27275,7 +27732,7 @@
       <c r="FL29" s="68">
         <v>18</v>
       </c>
-      <c r="FM29" s="222">
+      <c r="FM29" s="200">
         <v>7</v>
       </c>
       <c r="FN29" s="187">
@@ -27290,12 +27747,24 @@
       <c r="FQ29" s="155">
         <v>90</v>
       </c>
+      <c r="FR29" s="115">
+        <v>7</v>
+      </c>
+      <c r="FS29" s="155">
+        <v>7</v>
+      </c>
+      <c r="FT29" s="187">
+        <v>7</v>
+      </c>
+      <c r="FU29" s="187">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="219"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -27792,7 +28261,7 @@
       <c r="FL30" s="68" t="s">
         <v>1657</v>
       </c>
-      <c r="FM30" s="222" t="s">
+      <c r="FM30" s="200" t="s">
         <v>702</v>
       </c>
       <c r="FN30" s="156" t="s">
@@ -27807,12 +28276,24 @@
       <c r="FQ30" s="187" t="s">
         <v>799</v>
       </c>
+      <c r="FR30" s="115" t="s">
+        <v>697</v>
+      </c>
+      <c r="FS30" s="156" t="s">
+        <v>1440</v>
+      </c>
+      <c r="FT30" s="187" t="s">
+        <v>1640</v>
+      </c>
+      <c r="FU30" s="187" t="s">
+        <v>1640</v>
+      </c>
     </row>
-    <row r="31" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="219"/>
+      <c r="B31" s="224"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -28309,7 +28790,7 @@
       <c r="FL31" s="68">
         <v>93</v>
       </c>
-      <c r="FM31" s="222">
+      <c r="FM31" s="200">
         <v>3</v>
       </c>
       <c r="FN31" s="155">
@@ -28324,12 +28805,24 @@
       <c r="FQ31" s="155">
         <v>7</v>
       </c>
+      <c r="FR31" s="115">
+        <v>6</v>
+      </c>
+      <c r="FS31" s="155">
+        <v>6</v>
+      </c>
+      <c r="FT31" s="187">
+        <v>90</v>
+      </c>
+      <c r="FU31" s="187">
+        <v>90</v>
+      </c>
     </row>
-    <row r="32" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="219"/>
+      <c r="B32" s="224"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -28826,7 +29319,7 @@
       <c r="FL32" s="68" t="s">
         <v>698</v>
       </c>
-      <c r="FM32" s="222" t="s">
+      <c r="FM32" s="200" t="s">
         <v>698</v>
       </c>
       <c r="FN32" s="188" t="s">
@@ -28841,12 +29334,24 @@
       <c r="FQ32" s="187" t="s">
         <v>697</v>
       </c>
+      <c r="FR32" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="FS32" s="188" t="s">
+        <v>704</v>
+      </c>
+      <c r="FT32" s="187" t="s">
+        <v>704</v>
+      </c>
+      <c r="FU32" s="187" t="s">
+        <v>704</v>
+      </c>
     </row>
-    <row r="33" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="219"/>
+      <c r="B33" s="224"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -29343,7 +29848,7 @@
       <c r="FL33" s="68">
         <v>2</v>
       </c>
-      <c r="FM33" s="222">
+      <c r="FM33" s="200">
         <v>89</v>
       </c>
       <c r="FN33" s="188">
@@ -29358,12 +29863,24 @@
       <c r="FQ33" s="155">
         <v>6</v>
       </c>
+      <c r="FR33" s="115">
+        <v>2</v>
+      </c>
+      <c r="FS33" s="155">
+        <v>14</v>
+      </c>
+      <c r="FT33" s="187">
+        <v>14</v>
+      </c>
+      <c r="FU33" s="187">
+        <v>14</v>
+      </c>
     </row>
-    <row r="34" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="219"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -29860,7 +30377,7 @@
       <c r="FL34" s="68" t="s">
         <v>702</v>
       </c>
-      <c r="FM34" s="224" t="s">
+      <c r="FM34" s="202" t="s">
         <v>1034</v>
       </c>
       <c r="FN34" s="188" t="s">
@@ -29875,12 +30392,24 @@
       <c r="FQ34" s="187" t="s">
         <v>702</v>
       </c>
+      <c r="FR34" s="115" t="s">
+        <v>704</v>
+      </c>
+      <c r="FS34" s="188" t="s">
+        <v>698</v>
+      </c>
+      <c r="FT34" s="187" t="s">
+        <v>698</v>
+      </c>
+      <c r="FU34" s="187" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="35" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="219"/>
+      <c r="B35" s="224"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -30377,7 +30906,7 @@
       <c r="FL35" s="68">
         <v>3</v>
       </c>
-      <c r="FM35" s="224">
+      <c r="FM35" s="202">
         <v>20</v>
       </c>
       <c r="FN35" s="188">
@@ -30392,12 +30921,24 @@
       <c r="FQ35" s="155">
         <v>3</v>
       </c>
+      <c r="FR35" s="115">
+        <v>14</v>
+      </c>
+      <c r="FS35" s="155">
+        <v>2</v>
+      </c>
+      <c r="FT35" s="187">
+        <v>2</v>
+      </c>
+      <c r="FU35" s="187">
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="219"/>
+      <c r="B36" s="224"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -30909,12 +31450,24 @@
       <c r="FQ36" s="187" t="s">
         <v>698</v>
       </c>
+      <c r="FR36" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS36" s="187" t="s">
+        <v>1441</v>
+      </c>
+      <c r="FT36" s="156" t="s">
+        <v>849</v>
+      </c>
+      <c r="FU36" s="191" t="s">
+        <v>849</v>
+      </c>
     </row>
-    <row r="37" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="219"/>
+      <c r="B37" s="224"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -31426,12 +31979,24 @@
       <c r="FQ37" s="155">
         <v>2</v>
       </c>
+      <c r="FR37" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS37" s="155">
+        <v>86</v>
+      </c>
+      <c r="FT37" s="155">
+        <v>4</v>
+      </c>
+      <c r="FU37" s="69">
+        <v>4</v>
+      </c>
     </row>
-    <row r="38" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="219"/>
+      <c r="B38" s="224"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -31943,12 +32508,24 @@
       <c r="FQ38" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS38" s="187" t="s">
+        <v>1034</v>
+      </c>
+      <c r="FT38" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU38" s="188" t="s">
+        <v>1441</v>
+      </c>
     </row>
-    <row r="39" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="219"/>
+      <c r="B39" s="224"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -32460,12 +33037,24 @@
       <c r="FQ39" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS39" s="155">
+        <v>20</v>
+      </c>
+      <c r="FT39" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU39" s="188">
+        <v>86</v>
+      </c>
     </row>
-    <row r="40" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="219"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -32977,12 +33566,24 @@
       <c r="FQ40" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS40" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT40" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU40" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="219"/>
+      <c r="B41" s="224"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -33494,12 +34095,24 @@
       <c r="FQ41" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS41" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT41" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU41" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="219"/>
+      <c r="B42" s="224"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -34011,12 +34624,24 @@
       <c r="FQ42" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS42" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT42" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU42" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="219"/>
+      <c r="B43" s="224"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -34528,12 +35153,24 @@
       <c r="FQ43" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS43" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT43" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU43" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="219"/>
+      <c r="B44" s="224"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -35045,12 +35682,24 @@
       <c r="FQ44" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS44" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT44" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU44" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="219"/>
+      <c r="B45" s="224"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -35562,12 +36211,24 @@
       <c r="FQ45" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS45" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT45" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU45" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="219"/>
+      <c r="B46" s="224"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -36079,12 +36740,24 @@
       <c r="FQ46" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS46" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT46" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU46" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="219"/>
+      <c r="B47" s="224"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -36596,12 +37269,24 @@
       <c r="FQ47" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS47" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT47" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU47" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="219"/>
+      <c r="B48" s="224"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -37113,12 +37798,24 @@
       <c r="FQ48" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS48" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT48" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU48" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:173" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="219"/>
+      <c r="B49" s="224"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -37630,12 +38327,24 @@
       <c r="FQ49" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FR49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FS49" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FT49" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="FU49" s="187" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="219"/>
+      <c r="B50" s="224"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -38149,12 +38858,24 @@
       <c r="FQ50" s="187" t="s">
         <v>2789</v>
       </c>
+      <c r="FR50" s="115" t="s">
+        <v>2807</v>
+      </c>
+      <c r="FS50" s="155" t="s">
+        <v>2818</v>
+      </c>
+      <c r="FT50" s="155" t="s">
+        <v>2829</v>
+      </c>
+      <c r="FU50" s="155" t="s">
+        <v>2839</v>
+      </c>
     </row>
-    <row r="51" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="219"/>
+      <c r="B51" s="224"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -38668,12 +39389,24 @@
       <c r="FQ51" s="155" t="s">
         <v>2790</v>
       </c>
+      <c r="FR51" s="115" t="s">
+        <v>2808</v>
+      </c>
+      <c r="FS51" s="155" t="s">
+        <v>2819</v>
+      </c>
+      <c r="FT51" s="155" t="s">
+        <v>2830</v>
+      </c>
+      <c r="FU51" s="155" t="s">
+        <v>2840</v>
+      </c>
     </row>
-    <row r="52" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="219"/>
+      <c r="B52" s="224"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -39187,12 +39920,24 @@
       <c r="FQ52" s="155" t="s">
         <v>2791</v>
       </c>
+      <c r="FR52" s="115" t="s">
+        <v>2809</v>
+      </c>
+      <c r="FS52" s="155" t="s">
+        <v>2820</v>
+      </c>
+      <c r="FT52" s="155" t="s">
+        <v>2831</v>
+      </c>
+      <c r="FU52" s="155" t="s">
+        <v>2841</v>
+      </c>
     </row>
-    <row r="53" spans="1:173" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:177" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="220" t="s">
+      <c r="B53" s="225" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -39693,7 +40438,7 @@
       <c r="FL53" s="41" t="s">
         <v>860</v>
       </c>
-      <c r="FM53" s="223" t="s">
+      <c r="FM53" s="201" t="s">
         <v>207</v>
       </c>
       <c r="FN53" s="155" t="s">
@@ -39708,12 +40453,24 @@
       <c r="FQ53" s="155" t="s">
         <v>206</v>
       </c>
+      <c r="FR53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="FS53" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="FT53" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="FU53" s="69" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="54" spans="1:173" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:177" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="220"/>
+      <c r="B54" s="225"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -40212,7 +40969,7 @@
       <c r="FL54" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="FM54" s="223" t="s">
+      <c r="FM54" s="201" t="s">
         <v>858</v>
       </c>
       <c r="FN54" s="155" t="s">
@@ -40227,12 +40984,24 @@
       <c r="FQ54" s="155" t="s">
         <v>858</v>
       </c>
+      <c r="FR54" s="185" t="s">
+        <v>858</v>
+      </c>
+      <c r="FS54" s="155" t="s">
+        <v>858</v>
+      </c>
+      <c r="FT54" s="155" t="s">
+        <v>2651</v>
+      </c>
+      <c r="FU54" s="69" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="55" spans="1:173" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:177" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="225"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -40731,7 +41500,7 @@
       <c r="FL55" s="41" t="s">
         <v>2606</v>
       </c>
-      <c r="FM55" s="223" t="s">
+      <c r="FM55" s="201" t="s">
         <v>2330</v>
       </c>
       <c r="FN55" s="155" t="s">
@@ -40746,12 +41515,24 @@
       <c r="FQ55" s="155" t="s">
         <v>2792</v>
       </c>
+      <c r="FR55" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FS55" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FT55" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FU55" s="69" t="s">
+        <v>2842</v>
+      </c>
     </row>
-    <row r="56" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="220"/>
+      <c r="B56" s="225"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -41248,7 +42029,7 @@
       <c r="FL56" s="41" t="s">
         <v>2728</v>
       </c>
-      <c r="FM56" s="223" t="s">
+      <c r="FM56" s="201" t="s">
         <v>2330</v>
       </c>
       <c r="FN56" s="155" t="s">
@@ -41263,12 +42044,24 @@
       <c r="FQ56" s="155" t="s">
         <v>2793</v>
       </c>
+      <c r="FR56" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FS56" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FT56" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FU56" s="69" t="s">
+        <v>2843</v>
+      </c>
     </row>
-    <row r="57" spans="1:173" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:177" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="220"/>
+      <c r="B57" s="225"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -41767,7 +42560,7 @@
       <c r="FL57" s="41" t="s">
         <v>2720</v>
       </c>
-      <c r="FM57" s="223" t="s">
+      <c r="FM57" s="201" t="s">
         <v>2330</v>
       </c>
       <c r="FN57" s="155" t="s">
@@ -41782,12 +42575,24 @@
       <c r="FQ57" s="155" t="s">
         <v>2794</v>
       </c>
+      <c r="FR57" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FS57" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FT57" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FU57" s="69" t="s">
+        <v>2844</v>
+      </c>
     </row>
-    <row r="58" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="220"/>
+      <c r="B58" s="225"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -42257,7 +43062,7 @@
       <c r="FL58" s="41" t="s">
         <v>2728</v>
       </c>
-      <c r="FM58" s="223" t="s">
+      <c r="FM58" s="201" t="s">
         <v>2330</v>
       </c>
       <c r="FN58" s="155" t="s">
@@ -42272,12 +43077,24 @@
       <c r="FQ58" s="155" t="s">
         <v>2795</v>
       </c>
+      <c r="FR58" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FS58" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FT58" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FU58" s="69" t="s">
+        <v>2843</v>
+      </c>
     </row>
-    <row r="59" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="220"/>
+      <c r="B59" s="225"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -42776,7 +43593,7 @@
       <c r="FL59" s="41" t="s">
         <v>2728</v>
       </c>
-      <c r="FM59" s="223" t="s">
+      <c r="FM59" s="201" t="s">
         <v>2330</v>
       </c>
       <c r="FN59" s="155" t="s">
@@ -42791,12 +43608,24 @@
       <c r="FQ59" s="155" t="s">
         <v>2795</v>
       </c>
+      <c r="FR59" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FS59" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FT59" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="FU59" s="156" t="s">
+        <v>2845</v>
+      </c>
     </row>
-    <row r="60" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="220"/>
+      <c r="B60" s="225"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -43295,7 +44124,7 @@
       <c r="FL60" s="41">
         <v>1</v>
       </c>
-      <c r="FM60" s="224">
+      <c r="FM60" s="202">
         <v>1</v>
       </c>
       <c r="FN60" s="188">
@@ -43310,12 +44139,24 @@
       <c r="FQ60" s="188">
         <v>1</v>
       </c>
+      <c r="FR60" s="184">
+        <v>1</v>
+      </c>
+      <c r="FS60" s="188">
+        <v>1</v>
+      </c>
+      <c r="FT60" s="188">
+        <v>1</v>
+      </c>
+      <c r="FU60" s="188">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:173" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:177" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="221" t="s">
+      <c r="B61" s="226" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -43814,7 +44655,7 @@
       <c r="FL61" s="157">
         <v>45727</v>
       </c>
-      <c r="FM61" s="225">
+      <c r="FM61" s="203">
         <v>45413</v>
       </c>
       <c r="FN61" s="189">
@@ -43829,12 +44670,24 @@
       <c r="FQ61" s="189">
         <v>45413</v>
       </c>
+      <c r="FR61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="FS61" s="189">
+        <v>45413</v>
+      </c>
+      <c r="FT61" s="189">
+        <v>45413</v>
+      </c>
+      <c r="FU61" s="227">
+        <v>45413</v>
+      </c>
     </row>
-    <row r="62" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="221"/>
+      <c r="B62" s="226"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -44333,7 +45186,7 @@
       <c r="FL62" s="157">
         <v>45769</v>
       </c>
-      <c r="FM62" s="226">
+      <c r="FM62" s="204">
         <v>45709</v>
       </c>
       <c r="FN62" s="190">
@@ -44348,12 +45201,24 @@
       <c r="FQ62" s="190">
         <v>45709</v>
       </c>
+      <c r="FR62" s="192">
+        <v>45736</v>
+      </c>
+      <c r="FS62" s="190">
+        <v>45709</v>
+      </c>
+      <c r="FT62" s="190">
+        <v>45709</v>
+      </c>
+      <c r="FU62" s="190">
+        <v>45709</v>
+      </c>
     </row>
-    <row r="63" spans="1:173" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="221"/>
+      <c r="B63" s="226"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -44867,12 +45732,24 @@
       <c r="FQ63" s="155" t="s">
         <v>2386</v>
       </c>
+      <c r="FR63" s="115" t="s">
+        <v>2331</v>
+      </c>
+      <c r="FS63" s="155" t="s">
+        <v>2331</v>
+      </c>
+      <c r="FT63" s="155" t="s">
+        <v>2653</v>
+      </c>
+      <c r="FU63" s="69" t="s">
+        <v>2331</v>
+      </c>
     </row>
-    <row r="64" spans="1:173" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:177" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="221"/>
+      <c r="B64" s="226"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -45384,6 +46261,18 @@
         <v>2332</v>
       </c>
       <c r="FQ64" s="155" t="s">
+        <v>2332</v>
+      </c>
+      <c r="FR64" s="115" t="s">
+        <v>2332</v>
+      </c>
+      <c r="FS64" s="155" t="s">
+        <v>2332</v>
+      </c>
+      <c r="FT64" s="155" t="s">
+        <v>2332</v>
+      </c>
+      <c r="FU64" s="69" t="s">
         <v>2332</v>
       </c>
     </row>
@@ -45391,7 +46280,7 @@
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="221"/>
+      <c r="B65" s="226"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -45593,7 +46482,7 @@
       <c r="FL65" s="157">
         <v>45772</v>
       </c>
-      <c r="FM65" s="226">
+      <c r="FM65" s="204">
         <v>45784</v>
       </c>
       <c r="FN65" s="190">
@@ -45607,13 +46496,25 @@
       </c>
       <c r="FQ65" s="190">
         <v>45782</v>
+      </c>
+      <c r="FR65" s="192">
+        <v>45785</v>
+      </c>
+      <c r="FS65" s="190">
+        <v>45786</v>
+      </c>
+      <c r="FT65" s="190">
+        <v>45736</v>
+      </c>
+      <c r="FU65" s="190">
+        <v>45786</v>
       </c>
     </row>
     <row r="66" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="221"/>
+      <c r="B66" s="226"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -45828,12 +46729,24 @@
       <c r="FQ66" s="156" t="s">
         <v>30</v>
       </c>
+      <c r="FR66" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="FS66" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="FT66" s="156" t="s">
+        <v>2741</v>
+      </c>
+      <c r="FU66" s="191" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="67" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="221"/>
+      <c r="B67" s="226"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -45927,12 +46840,16 @@
       <c r="EV67" s="196"/>
       <c r="EW67" s="169"/>
       <c r="EZ67" s="156"/>
+      <c r="FR67" s="156"/>
+      <c r="FS67" s="156"/>
+      <c r="FT67" s="156"/>
+      <c r="FU67" s="191"/>
     </row>
     <row r="68" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="211" t="s">
+      <c r="B68" s="216" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -45989,12 +46906,13 @@
       <c r="EU68" s="196"/>
       <c r="EV68" s="196"/>
       <c r="EW68" s="169"/>
+      <c r="FS68" s="156"/>
     </row>
     <row r="69" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="211"/>
+      <c r="B69" s="216"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -46041,7 +46959,7 @@
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="211"/>
+      <c r="B70" s="216"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -46079,7 +46997,7 @@
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="211"/>
+      <c r="B71" s="216"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -46114,7 +47032,7 @@
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="212"/>
+      <c r="B72" s="217"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -47018,7 +47936,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="218" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -47187,7 +48105,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="214"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -47519,7 +48437,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="220" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -47686,7 +48604,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="215"/>
+      <c r="B8" s="220"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -47853,7 +48771,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="215"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -48020,7 +48938,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="215"/>
+      <c r="B10" s="220"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -48187,7 +49105,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="221" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -48354,7 +49272,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="217"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -48519,7 +49437,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="217"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -48684,7 +49602,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="217"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -48849,7 +49767,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="217"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -49014,7 +49932,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="217"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -49179,7 +50097,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="217"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -49344,7 +50262,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="217"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -49509,7 +50427,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="217"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -49674,7 +50592,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="217"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -49839,7 +50757,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="223" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -50047,7 +50965,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="218"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -50255,7 +51173,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="218"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -50422,7 +51340,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="218"/>
+      <c r="B24" s="223"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -50589,7 +51507,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="218"/>
+      <c r="B25" s="223"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -50754,7 +51672,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="219" t="s">
+      <c r="B26" s="224" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -50923,7 +51841,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="219"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -51090,7 +52008,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="219"/>
+      <c r="B28" s="224"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -51255,7 +52173,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="219"/>
+      <c r="B29" s="224"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -51420,7 +52338,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="219"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -51585,7 +52503,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="219"/>
+      <c r="B31" s="224"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -51750,7 +52668,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="219"/>
+      <c r="B32" s="224"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -51915,7 +52833,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="219"/>
+      <c r="B33" s="224"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -52080,7 +52998,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="219"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -52245,7 +53163,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="219"/>
+      <c r="B35" s="224"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -52410,7 +53328,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="219"/>
+      <c r="B36" s="224"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -52575,7 +53493,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="219"/>
+      <c r="B37" s="224"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -52740,7 +53658,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="219"/>
+      <c r="B38" s="224"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -52905,7 +53823,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="219"/>
+      <c r="B39" s="224"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -53070,7 +53988,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="219"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -53235,7 +54153,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="219"/>
+      <c r="B41" s="224"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -53400,7 +54318,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="219"/>
+      <c r="B42" s="224"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -53565,7 +54483,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="219"/>
+      <c r="B43" s="224"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -53730,7 +54648,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="219"/>
+      <c r="B44" s="224"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -53895,7 +54813,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="219"/>
+      <c r="B45" s="224"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -54060,7 +54978,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="219"/>
+      <c r="B46" s="224"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -54225,7 +55143,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="219"/>
+      <c r="B47" s="224"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -54390,7 +55308,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="219"/>
+      <c r="B48" s="224"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -54555,7 +55473,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="219"/>
+      <c r="B49" s="224"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -54720,7 +55638,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="219"/>
+      <c r="B50" s="224"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -54887,7 +55805,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="219"/>
+      <c r="B51" s="224"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -55054,7 +55972,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="219"/>
+      <c r="B52" s="224"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -55221,7 +56139,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="220" t="s">
+      <c r="B53" s="225" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -55390,7 +56308,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="220"/>
+      <c r="B54" s="225"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -55557,7 +56475,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="220"/>
+      <c r="B55" s="225"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -55724,7 +56642,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="220"/>
+      <c r="B56" s="225"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -55889,7 +56807,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="220"/>
+      <c r="B57" s="225"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -56056,7 +56974,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B58" s="220"/>
+      <c r="B58" s="225"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -56221,7 +57139,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="220"/>
+      <c r="B59" s="225"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -56388,7 +57306,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B60" s="220"/>
+      <c r="B60" s="225"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -56555,7 +57473,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="221" t="s">
+      <c r="B61" s="226" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -56722,7 +57640,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="221"/>
+      <c r="B62" s="226"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -56889,7 +57807,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="221"/>
+      <c r="B63" s="226"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -57056,7 +57974,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="221"/>
+      <c r="B64" s="226"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -57223,7 +58141,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="221"/>
+      <c r="B65" s="226"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -57240,7 +58158,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="221"/>
+      <c r="B66" s="226"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -57259,7 +58177,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="221"/>
+      <c r="B67" s="226"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -57278,7 +58196,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B68" s="211" t="s">
+      <c r="B68" s="216" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -57288,7 +58206,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B69" s="211"/>
+      <c r="B69" s="216"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -57296,7 +58214,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B70" s="211"/>
+      <c r="B70" s="216"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -57304,7 +58222,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B71" s="211"/>
+      <c r="B71" s="216"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -57316,7 +58234,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B72" s="212"/>
+      <c r="B72" s="217"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -57896,7 +58814,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="218" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -57976,7 +58894,7 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="214"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -58130,7 +59048,7 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="220" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -58208,7 +59126,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="215"/>
+      <c r="B8" s="220"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -58286,7 +59204,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="215"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -58364,7 +59282,7 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="215"/>
+      <c r="B10" s="220"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -58442,7 +59360,7 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="221" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -58520,7 +59438,7 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="217"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -58596,7 +59514,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="217"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -58672,7 +59590,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="217"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -58748,7 +59666,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="217"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -58824,7 +59742,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="217"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -58900,7 +59818,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="217"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -58976,7 +59894,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="217"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -59052,7 +59970,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="217"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -59128,7 +60046,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="217"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -59204,7 +60122,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="223" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -59282,7 +60200,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="218"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -59360,7 +60278,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="218"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -59438,7 +60356,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B24" s="218"/>
+      <c r="B24" s="223"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -59516,7 +60434,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="218"/>
+      <c r="B25" s="223"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -59592,7 +60510,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B26" s="219" t="s">
+      <c r="B26" s="224" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -59672,7 +60590,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="219"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -59750,7 +60668,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="219"/>
+      <c r="B28" s="224"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -59826,7 +60744,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="219"/>
+      <c r="B29" s="224"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -59902,7 +60820,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="219"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -59978,7 +60896,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="219"/>
+      <c r="B31" s="224"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -60054,7 +60972,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="219"/>
+      <c r="B32" s="224"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -60130,7 +61048,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="219"/>
+      <c r="B33" s="224"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -60206,7 +61124,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="219"/>
+      <c r="B34" s="224"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -60282,7 +61200,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="219"/>
+      <c r="B35" s="224"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -60358,7 +61276,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="219"/>
+      <c r="B36" s="224"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -60434,7 +61352,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="219"/>
+      <c r="B37" s="224"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -60510,7 +61428,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="219"/>
+      <c r="B38" s="224"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -60586,7 +61504,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="219"/>
+      <c r="B39" s="224"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -60662,7 +61580,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="219"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -60738,7 +61656,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="219"/>
+      <c r="B41" s="224"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -60814,7 +61732,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="219"/>
+      <c r="B42" s="224"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -60890,7 +61808,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="219"/>
+      <c r="B43" s="224"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -60966,7 +61884,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="219"/>
+      <c r="B44" s="224"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -61042,7 +61960,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="219"/>
+      <c r="B45" s="224"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -61118,7 +62036,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="219"/>
+      <c r="B46" s="224"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -61194,7 +62112,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="219"/>
+      <c r="B47" s="224"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -61270,7 +62188,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="219"/>
+      <c r="B48" s="224"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -61346,7 +62264,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="219"/>
+      <c r="B49" s="224"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -61422,7 +62340,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="219"/>
+      <c r="B50" s="224"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -61500,7 +62418,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="219"/>
+      <c r="B51" s="224"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -61578,7 +62496,7 @@
       </c>
     </row>
     <row r="52" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="219"/>
+      <c r="B52" s="224"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -61656,7 +62574,7 @@
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B53" s="220" t="s">
+      <c r="B53" s="225" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -61736,7 +62654,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="220"/>
+      <c r="B54" s="225"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -61814,7 +62732,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="220"/>
+      <c r="B55" s="225"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -61892,7 +62810,7 @@
       </c>
     </row>
     <row r="56" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="220"/>
+      <c r="B56" s="225"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -61968,7 +62886,7 @@
       </c>
     </row>
     <row r="57" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="220"/>
+      <c r="B57" s="225"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -62046,7 +62964,7 @@
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B58" s="220"/>
+      <c r="B58" s="225"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -62122,7 +63040,7 @@
       </c>
     </row>
     <row r="59" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="220"/>
+      <c r="B59" s="225"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -62200,7 +63118,7 @@
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B60" s="220"/>
+      <c r="B60" s="225"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -62278,7 +63196,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B61" s="221" t="s">
+      <c r="B61" s="226" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -62356,7 +63274,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="221"/>
+      <c r="B62" s="226"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -62434,7 +63352,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="221"/>
+      <c r="B63" s="226"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -62512,7 +63430,7 @@
       </c>
     </row>
     <row r="64" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="221"/>
+      <c r="B64" s="226"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -62590,7 +63508,7 @@
       </c>
     </row>
     <row r="65" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="221"/>
+      <c r="B65" s="226"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -62620,7 +63538,7 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="221"/>
+      <c r="B66" s="226"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -62650,7 +63568,7 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="221"/>
+      <c r="B67" s="226"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -62680,7 +63598,7 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B68" s="211" t="s">
+      <c r="B68" s="216" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -62701,7 +63619,7 @@
       <c r="Q68" s="105"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B69" s="211"/>
+      <c r="B69" s="216"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -62720,7 +63638,7 @@
       <c r="Q69" s="105"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B70" s="211"/>
+      <c r="B70" s="216"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -62739,7 +63657,7 @@
       <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B71" s="211"/>
+      <c r="B71" s="216"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -62758,7 +63676,7 @@
       <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B72" s="212"/>
+      <c r="B72" s="217"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_content_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38410A87-9C6C-4D2B-9E07-A9E41C0D5864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B0172-17F4-4B73-87E2-9B48B7F44244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13608" uniqueCount="2847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23836" uniqueCount="2961">
   <si>
     <t>Description</t>
   </si>
@@ -8565,6 +8565,348 @@
   </si>
   <si>
     <t>May 9, 2025 update</t>
+  </si>
+  <si>
+    <t>6_IMI_Material_GHG_Footprint_Hertwich_2021_by_Sector</t>
+  </si>
+  <si>
+    <t>global supply chains of material commodities</t>
+  </si>
+  <si>
+    <t>four supply chain stages (mining, energy suppply, prodution, and supplying manufacturing and services) and one aggregate product system for each material</t>
+  </si>
+  <si>
+    <t>8 major material groups</t>
+  </si>
+  <si>
+    <t>by material</t>
+  </si>
+  <si>
+    <t>production-related emissions (carbon footprint across supply chain), GWP 100 for 8 major material groups, broken down into four supply chain stages, from Hertwich (2021).</t>
+  </si>
+  <si>
+    <t>GWP100; materials; global supply chain; production; carbon footprint</t>
+  </si>
+  <si>
+    <t>Data from Table 1a in the paper</t>
+  </si>
+  <si>
+    <t>Value(I,r,m,t,p)</t>
+  </si>
+  <si>
+    <t>production-related emissions (carbon footprint across supply chain), GWP 100 of aluminium in Global in 2011 in energy supply is 0.3596 Gt CO2-eq/yr.</t>
+  </si>
+  <si>
+    <t>[Aspect 1] of [Aspect 3] in [Aspect 2] in [Aspect 4] in [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>Edgar HERTWICH</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41561-021-00690-8</t>
+  </si>
+  <si>
+    <t>supplementary data file</t>
+  </si>
+  <si>
+    <t>Numbers transferred from original data files (.xlsx) to IEDC data insertion template (xlsx).</t>
+  </si>
+  <si>
+    <t>6_IMI_Material_GHG_Footprint_Hertwich_2021</t>
+  </si>
+  <si>
+    <t>one aggregate product system for each material</t>
+  </si>
+  <si>
+    <t>16 major material groups plus the total</t>
+  </si>
+  <si>
+    <t>1995-2016</t>
+  </si>
+  <si>
+    <t>production-related emissions (carbon footprint across supply chain), GWP 100 for 16 major material groups plus the total, from Hertwich (2021).</t>
+  </si>
+  <si>
+    <t>Data behind Extended Data Fig. 1, 41561_2021_690_MOESM5_ESM.xlsx</t>
+  </si>
+  <si>
+    <t>Value(I,r,m,t)</t>
+  </si>
+  <si>
+    <t>production-related emissions (carbon footprint across supply chain), GWP 100 of paper in Global in 2001 is 0.52298 Gt CO2-eq/yr.</t>
+  </si>
+  <si>
+    <t>[Aspect 1] of [Aspect 3] in [Aspect 2] in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>https://static-content.springer.com/esm/art%3A10.1038%2Fs41561-021-00690-8/MediaObjects/41561_2021_690_MOESM5_ESM.xlsx</t>
+  </si>
+  <si>
+    <t>3_SHA_UseShares_8Materials_Hertwich_2021</t>
+  </si>
+  <si>
+    <t>Ratio of monetary values</t>
+  </si>
+  <si>
+    <t>eight material consuming sectors, both intermediate (manufacturing) and final consumption</t>
+  </si>
+  <si>
+    <t>entire manufacturing and construction</t>
+  </si>
+  <si>
+    <t>seven product groups</t>
+  </si>
+  <si>
+    <t>Split ratios (%) or share of materials going into the different manufacturing sectors (including construction) and final demand</t>
+  </si>
+  <si>
+    <t>Sector split; use shares; use fraction; manufacturing; materials;</t>
+  </si>
+  <si>
+    <t>Value(r,c,p,m)</t>
+  </si>
+  <si>
+    <t>Ratio of monetary values of iron/steel going into construction in Global in 2011 is 23%.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 4] going into [Aspect 3] in [Aspect 1] in [Aspect 2] is [Value].</t>
+  </si>
+  <si>
+    <t>6_CR_criticality_Naegler_2025</t>
+  </si>
+  <si>
+    <t>major metals and energy carriers</t>
+  </si>
+  <si>
+    <t>ca. 30 bulk and technology metals, 4 energy carriers</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>Criticality indicators for ca. 30 bulk and technology metals, 4 energy carriers, extracted from Table 1 in Naegler et al. (2025); https://doi.org/10.1016/j.enpol.2025.114622</t>
+  </si>
+  <si>
+    <t>HHI; WCR; price; technology metals; energy carriers; criticality</t>
+  </si>
+  <si>
+    <t>Extracted from Table 1 in Naegler et al. (2025); https://doi.org/10.1016/j.enpol.2025.114622</t>
+  </si>
+  <si>
+    <t>Value(m,E,r,t)</t>
+  </si>
+  <si>
+    <t>HHI (Herfindahl-Hirschman index) for chromium in Global in 2022 was 0.27.</t>
+  </si>
+  <si>
+    <t>[Aspect 2] for [Aspect 1] in [Aspect 3] in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>Tobias NAEGLER</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.enpol.2025.114622</t>
+  </si>
+  <si>
+    <t>Numbers copied from original source (pdf) to Excel spreadsheet</t>
+  </si>
+  <si>
+    <t>3_SHA_MISO2_Ew_Material_Cycles_2024_End_Use_Shares_Single_Country</t>
+  </si>
+  <si>
+    <t>Mass ratio of inflow to use phase (final consumption) by end-use sector, divided by the total final consumption (end-use shares or sector split). Original name of flow from which the shares were calculated: F_9_10_GAS_enduse. Results of the MAT_STOCKS project, MISO2 model.</t>
+  </si>
+  <si>
+    <t>MAT_STOCKS; MISO2; ew-MFA; MFA; materials; end-use share; sector split</t>
+  </si>
+  <si>
+    <t>This dataset was converted from flows in 1_F_MISO2_Ew_Material_Cycles_2024_F_9_10_final_consumption_Single_Country to end-use shares simply by dividing by the total. Labels were shifted to IEDC classifications without changing their meaning. Original name of flow: Flow F_9_10 (gross additions to stock) by country, material, end-use product group. MISO2_config_id 5b36b2f8-3abc-4060-abc0-2ed0fc3ee474</t>
+  </si>
+  <si>
+    <t>Mass ratio of bricks from markets for final products and commodities to residential buildings in use phase in Afghanistan in 2016 as share of total final demand is 0.4088.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 1] from [Aspect 2] to [Aspect 3] in [Aspect 4] in [Aspect 5] in [Aspect 6] as share of total final demand is [Value].</t>
+  </si>
+  <si>
+    <t>This dataset was converted from flows in 1_F_MISO2_Ew_Material_Cycles_2024_F_9_10_final_consumption_Single_Country to end-use shares simply by dividing by the total. Labels were shifted to IEDC classifications without changing their meaning.</t>
+  </si>
+  <si>
+    <t>May 21, 2025 update</t>
+  </si>
+  <si>
+    <t>4_SHR_Renewable_Energy_Technologies_Production_byCountry_2023</t>
+  </si>
+  <si>
+    <t>general ratio of flows linked to a process</t>
+  </si>
+  <si>
+    <t>General ratio</t>
+  </si>
+  <si>
+    <t>renewable energy and electricity-based technologies</t>
+  </si>
+  <si>
+    <t>solar PV, wind turbines, electrolysers, batteries</t>
+  </si>
+  <si>
+    <t>Individual values for main producing countries</t>
+  </si>
+  <si>
+    <t>Shares of different countries in the component manufacturing volumes of renewable energy and electricity-based technologies</t>
+  </si>
+  <si>
+    <t>production; production share; renewable energy technologies; electricity-based technologies; market share</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>Value(o,d,z,g,k,r,t)</t>
+  </si>
+  <si>
+    <t>General ratio indicating the market share of JA solar technology Co. Ltd. In China in manufacturing wafer of/for solar PV generation units of all sizes flowing from manufacturing of electrical machinery n.e.c. to markets for final products and commodities in 2023 is 16.079%.</t>
+  </si>
+  <si>
+    <t>[Layer] indicating the market share of [Aspect 3] in [Aspect 6] in manufacturing [Aspect 5] of/for [Aspect 4] flowing from [Aspect 1] to [Aspect 2] in [Aspect 7] has [value].</t>
+  </si>
+  <si>
+    <t>website with table, tables from pdf reports</t>
+  </si>
+  <si>
+    <t>2_IUS_Renewable_Energy_Technologies_Installed_Capacity_2023</t>
+  </si>
+  <si>
+    <t>one aggregated sector</t>
+  </si>
+  <si>
+    <t>Individual values for individual countries</t>
+  </si>
+  <si>
+    <t>Installed generation capacity (in MW of maximal power) for different energy technologies, by country</t>
+  </si>
+  <si>
+    <t>generation capacity; energy technology; wind turbines; solar PV; manufacturing; electricity</t>
+  </si>
+  <si>
+    <t>Value(p,t,r,g)</t>
+  </si>
+  <si>
+    <t>In-use stock measured as power generation capacity of solar PV generation units of all sizes in use phase - electricity infrastructure in Angola in 2023 is 310 MW.</t>
+  </si>
+  <si>
+    <t>[Data type] measured as [Layer] of [Aspect 4] in [Aspect 1] in [Aspect 2] in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>Numbers extracted from websites and converted to IEDC templates. Dataset validated by Marcel Geller</t>
+  </si>
+  <si>
+    <t>5_CAP_Renewable_Energy_Technologies_Production_Capacity_2023</t>
+  </si>
+  <si>
+    <t>Production capacity</t>
+  </si>
+  <si>
+    <t>manufacturing sector</t>
+  </si>
+  <si>
+    <t>Installed production capacity (in GW/yr of maximal production volume) for different energy technologies, by country or by manufacturer</t>
+  </si>
+  <si>
+    <t>production capacity; energy technology; wind turbines; solar PV; manufacturing</t>
+  </si>
+  <si>
+    <t>Value(p,t,r,g,k,z)</t>
+  </si>
+  <si>
+    <t>Production capacity of manufacturing of electrical machinery n.e.c. of nacelle (wind turbine) for wind turbines by all manufacturers in India in 2022 is 11.8 GW/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 1] of [Aspect 5] for [Aspect 4] by [Aspect 6] in [Aspect 2] in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>May 22, 2025 update</t>
+  </si>
+  <si>
+    <t>3_MC_Machinery_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>machinery</t>
+  </si>
+  <si>
+    <t>87 types of machinery</t>
+  </si>
+  <si>
+    <t>main materials and technology metals</t>
+  </si>
+  <si>
+    <t>annual values, product specific</t>
+  </si>
+  <si>
+    <t>Material content/composition of machinery, by type of machinery and material</t>
+  </si>
+  <si>
+    <t>material; material content; machinery; technology metals; material composition</t>
+  </si>
+  <si>
+    <t>Value(p,g,r,m,v,L,c)</t>
+  </si>
+  <si>
+    <t>Mass per unit of cast iron in water pump, 40 kW in use phase - machinery built in n.a. in Global for CE strategy 'none' is 148.3 kg/1.</t>
+  </si>
+  <si>
+    <t>[Layer/Aspect 6] of [Aspect 4] in [Aspect 2] in [Aspect 1] built in [Aspect 7] in [Aspect 3] for circular economy strategy [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original sources to Excel spreadsheet, validated by Johan Vélez</t>
+  </si>
+  <si>
+    <t>3_SHA_End_Use_Shares_USA_Streeck_2023</t>
+  </si>
+  <si>
+    <t>18 end-use sectors, including buildings, infrastructure, machinery, appliances, vehicles</t>
+  </si>
+  <si>
+    <t>20 material groups</t>
+  </si>
+  <si>
+    <t>1963-2012</t>
+  </si>
+  <si>
+    <t>values for 1963-2012 in intervales of ca. 5 years</t>
+  </si>
+  <si>
+    <t>U.S. end-use shares estimated with the combination of waste input-output with 'end-use transfer' method (see Streeck et al. 2023). data source: U.S. BEA benchmark input-output tables. This dataset was converted from the original supplementary file USA_endUseShares_EUT-WIO_220501.xlsx by reformatting data from the different sheets (by year) to a common table and switching labels to confirm with IEDC classf. 4 (materials) and 6 (processes/end-use sectors). Output is originally labelled by material production sectors (industries), and was re-labelled to the industries' main output (material groups).</t>
+  </si>
+  <si>
+    <t>United States; materials; end-use share; sector split</t>
+  </si>
+  <si>
+    <t>This dataset was converted from the original supplementary file USA_endUseShares_EUT-WIO_220501.xlsx by reformatting data from the different sheets (by year) to a common table and switching labels to confirm with IEDC classf. 4 (materials) and 6 (processes/end-use sectors)</t>
+  </si>
+  <si>
+    <t>Value(m,O,D,r,t)</t>
+  </si>
+  <si>
+    <t>Ratio of monetary values of planed timber from markets for final products and commodities to use phase - infrastructure in United States in 1963 as share of total final demand is 5.7%</t>
+  </si>
+  <si>
+    <t>[Layer] of [Aspect 1] from [Aspect 2] to [Aspect 3] in [Aspect 4] in [Aspect 5] as share of total final demand is [Value].</t>
+  </si>
+  <si>
+    <t>Jan STREECK</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/jiec.13379</t>
+  </si>
+  <si>
+    <t>Jan Streeck</t>
+  </si>
+  <si>
+    <t>Converted from SI file USA_endUseShares_EUT-WIO_220501.xlsx by reformatting data from the different sheets (by year).</t>
+  </si>
+  <si>
+    <t>May 23, 2025 update</t>
   </si>
 </sst>
 </file>
@@ -8956,7 +9298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -9306,6 +9648,23 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9371,9 +9730,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9715,7 +10071,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="215" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -9747,7 +10103,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="208"/>
+      <c r="B5" s="215"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -9777,7 +10133,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="216" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -9793,7 +10149,7 @@
       <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="209"/>
+      <c r="B7" s="216"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -9807,7 +10163,7 @@
       <c r="K7" s="121"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="209"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -9821,7 +10177,7 @@
       <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="209"/>
+      <c r="B9" s="216"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -9835,7 +10191,7 @@
       <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="209"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -9849,7 +10205,7 @@
       <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="209"/>
+      <c r="B11" s="216"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -9863,7 +10219,7 @@
       <c r="K11" s="121"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="209"/>
+      <c r="B12" s="216"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -9877,7 +10233,7 @@
       <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="209"/>
+      <c r="B13" s="216"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -9891,7 +10247,7 @@
       <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="209"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -9905,7 +10261,7 @@
       <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="209"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -9919,7 +10275,7 @@
       <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="209"/>
+      <c r="B16" s="216"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -9933,7 +10289,7 @@
       <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="209"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -9947,7 +10303,7 @@
       <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="209"/>
+      <c r="B18" s="216"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -9961,7 +10317,7 @@
       <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="217" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -9989,7 +10345,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="210"/>
+      <c r="B20" s="217"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -10019,7 +10375,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="210"/>
+      <c r="B21" s="217"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -10045,7 +10401,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="211" t="s">
+      <c r="B22" s="218" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -10075,7 +10431,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="211"/>
+      <c r="B23" s="218"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -10089,7 +10445,7 @@
       <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="211"/>
+      <c r="B24" s="218"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -10103,7 +10459,7 @@
       <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="211"/>
+      <c r="B25" s="218"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -10129,7 +10485,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="211"/>
+      <c r="B26" s="218"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -10145,7 +10501,7 @@
       <c r="K26" s="121"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="211"/>
+      <c r="B27" s="218"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -10159,7 +10515,7 @@
       <c r="K27" s="121"/>
     </row>
     <row r="28" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="212" t="s">
+      <c r="B28" s="219" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -10191,7 +10547,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="212"/>
+      <c r="B29" s="219"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -10221,7 +10577,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="205" t="s">
+      <c r="B30" s="212" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -10237,7 +10593,7 @@
       <c r="K30" s="181"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="206"/>
+      <c r="B31" s="213"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -10251,7 +10607,7 @@
       <c r="K31" s="164"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B32" s="207"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -10417,7 +10773,7 @@
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="220" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -10509,7 +10865,7 @@
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B5" s="214"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -10777,7 +11133,7 @@
       </c>
     </row>
     <row r="8" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="209" t="s">
+      <c r="B8" s="216" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -10867,7 +11223,7 @@
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B9" s="209"/>
+      <c r="B9" s="216"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -10955,7 +11311,7 @@
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B10" s="209"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -11043,7 +11399,7 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="209"/>
+      <c r="B11" s="216"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -11131,7 +11487,7 @@
       </c>
     </row>
     <row r="12" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="209"/>
+      <c r="B12" s="216"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -11219,7 +11575,7 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="209"/>
+      <c r="B13" s="216"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -11307,7 +11663,7 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="209"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -11395,7 +11751,7 @@
       </c>
     </row>
     <row r="15" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="209"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -11483,7 +11839,7 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="209"/>
+      <c r="B16" s="216"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -11571,7 +11927,7 @@
       </c>
     </row>
     <row r="17" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="209"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -11659,7 +12015,7 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="209"/>
+      <c r="B18" s="216"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -11747,7 +12103,7 @@
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B19" s="209"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -11835,7 +12191,7 @@
       </c>
     </row>
     <row r="20" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="209"/>
+      <c r="B20" s="216"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -11923,7 +12279,7 @@
       </c>
     </row>
     <row r="21" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="217" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -12013,7 +12369,7 @@
       </c>
     </row>
     <row r="22" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="210"/>
+      <c r="B22" s="217"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -12103,7 +12459,7 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B23" s="210"/>
+      <c r="B23" s="217"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
@@ -12191,7 +12547,7 @@
       </c>
     </row>
     <row r="24" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="210"/>
+      <c r="B24" s="217"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -12273,7 +12629,7 @@
       <c r="AE24" s="164"/>
     </row>
     <row r="25" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="211" t="s">
+      <c r="B25" s="218" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -12363,7 +12719,7 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B26" s="211"/>
+      <c r="B26" s="218"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -12451,7 +12807,7 @@
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B27" s="211"/>
+      <c r="B27" s="218"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -12539,7 +12895,7 @@
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B28" s="211"/>
+      <c r="B28" s="218"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -12627,7 +12983,7 @@
       </c>
     </row>
     <row r="29" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="211"/>
+      <c r="B29" s="218"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -12715,7 +13071,7 @@
       </c>
     </row>
     <row r="30" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="211"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -12803,7 +13159,7 @@
       </c>
     </row>
     <row r="31" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="212" t="s">
+      <c r="B31" s="219" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -12895,7 +13251,7 @@
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B32" s="215"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -12985,7 +13341,7 @@
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B33" s="205" t="s">
+      <c r="B33" s="212" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -13021,7 +13377,7 @@
       <c r="AE33" s="164"/>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B34" s="206"/>
+      <c r="B34" s="213"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -13055,7 +13411,7 @@
       <c r="AE34" s="164"/>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B35" s="207"/>
+      <c r="B35" s="214"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -13113,10 +13469,10 @@
   <dimension ref="A1:GW74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="FH15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="FP24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="FS1" sqref="FS1:FS2"/>
+      <selection pane="bottomRight" activeCell="GE3" sqref="GE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -13177,7 +13533,7 @@
     <col min="70" max="16384" width="11.5546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:187" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -13658,8 +14014,18 @@
       <c r="FS1" s="174"/>
       <c r="FT1" s="174"/>
       <c r="FU1" s="174"/>
+      <c r="FV1" s="174"/>
+      <c r="FW1" s="174"/>
+      <c r="FX1" s="174"/>
+      <c r="FY1" s="174"/>
+      <c r="FZ1" s="174"/>
+      <c r="GA1" s="174"/>
+      <c r="GB1" s="174"/>
+      <c r="GC1" s="174"/>
+      <c r="GD1" s="174"/>
+      <c r="GE1" s="174"/>
     </row>
-    <row r="2" spans="1:177" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:187" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -14006,8 +14372,38 @@
       <c r="FU2" s="154" t="s">
         <v>2846</v>
       </c>
+      <c r="FV2" s="154" t="s">
+        <v>2902</v>
+      </c>
+      <c r="FW2" s="154" t="s">
+        <v>2902</v>
+      </c>
+      <c r="FX2" s="154" t="s">
+        <v>2902</v>
+      </c>
+      <c r="FY2" s="154" t="s">
+        <v>2902</v>
+      </c>
+      <c r="FZ2" s="154" t="s">
+        <v>2902</v>
+      </c>
+      <c r="GA2" s="154" t="s">
+        <v>2902</v>
+      </c>
+      <c r="GB2" s="154" t="s">
+        <v>2902</v>
+      </c>
+      <c r="GC2" s="154" t="s">
+        <v>2933</v>
+      </c>
+      <c r="GD2" s="154" t="s">
+        <v>2933</v>
+      </c>
+      <c r="GE2" s="154" t="s">
+        <v>2960</v>
+      </c>
     </row>
-    <row r="3" spans="1:177" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:187" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -14260,11 +14656,11 @@
       <c r="DS3" s="105"/>
       <c r="DT3" s="105"/>
     </row>
-    <row r="4" spans="1:177" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:187" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="225" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -14518,11 +14914,11 @@
       <c r="DS4" s="105"/>
       <c r="DT4" s="105"/>
     </row>
-    <row r="5" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="219"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -15048,8 +15444,38 @@
       <c r="FU5" s="187" t="s">
         <v>2832</v>
       </c>
+      <c r="FV5" s="115" t="s">
+        <v>2847</v>
+      </c>
+      <c r="FW5" s="115" t="s">
+        <v>2862</v>
+      </c>
+      <c r="FX5" s="115" t="s">
+        <v>2872</v>
+      </c>
+      <c r="FY5" s="115" t="s">
+        <v>2882</v>
+      </c>
+      <c r="FZ5" s="115" t="s">
+        <v>2895</v>
+      </c>
+      <c r="GA5" s="115" t="s">
+        <v>2903</v>
+      </c>
+      <c r="GB5" s="115" t="s">
+        <v>2916</v>
+      </c>
+      <c r="GC5" s="115" t="s">
+        <v>2925</v>
+      </c>
+      <c r="GD5" s="187" t="s">
+        <v>2934</v>
+      </c>
+      <c r="GE5" s="115" t="s">
+        <v>2945</v>
+      </c>
     </row>
-    <row r="6" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -15577,12 +16003,42 @@
       <c r="FU6" s="187" t="s">
         <v>1150</v>
       </c>
+      <c r="FV6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW6" s="115" t="s">
+        <v>2490</v>
+      </c>
+      <c r="FX6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ6" s="115" t="s">
+        <v>2015</v>
+      </c>
+      <c r="GA6" s="115" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GB6" s="115" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GC6" s="115" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GD6" s="187" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GE6" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="227" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -16108,12 +16564,42 @@
       <c r="FU7" s="187">
         <v>20</v>
       </c>
+      <c r="FV7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="FW7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="FX7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="FY7" s="115">
+        <v>27</v>
+      </c>
+      <c r="FZ7" s="115">
+        <v>18</v>
+      </c>
+      <c r="GA7" s="115">
+        <v>24</v>
+      </c>
+      <c r="GB7" s="115">
+        <v>24</v>
+      </c>
+      <c r="GC7" s="115">
+        <v>24</v>
+      </c>
+      <c r="GD7" s="187">
+        <v>20</v>
+      </c>
+      <c r="GE7" s="115" t="s">
+        <v>845</v>
+      </c>
     </row>
-    <row r="8" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="220"/>
+      <c r="B8" s="227"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -16639,12 +17125,42 @@
       <c r="FU8" s="187">
         <v>3</v>
       </c>
+      <c r="FV8" s="115">
+        <v>6</v>
+      </c>
+      <c r="FW8" s="115">
+        <v>6</v>
+      </c>
+      <c r="FX8" s="115">
+        <v>3</v>
+      </c>
+      <c r="FY8" s="115">
+        <v>6</v>
+      </c>
+      <c r="FZ8" s="115">
+        <v>3</v>
+      </c>
+      <c r="GA8" s="115">
+        <v>4</v>
+      </c>
+      <c r="GB8" s="115">
+        <v>2</v>
+      </c>
+      <c r="GC8" s="115">
+        <v>5</v>
+      </c>
+      <c r="GD8" s="187">
+        <v>3</v>
+      </c>
+      <c r="GE8" s="115">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="220"/>
+      <c r="B9" s="227"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -17170,12 +17686,42 @@
       <c r="FU9" s="187" t="s">
         <v>846</v>
       </c>
+      <c r="FV9" s="115" t="s">
+        <v>1676</v>
+      </c>
+      <c r="FW9" s="115" t="s">
+        <v>1676</v>
+      </c>
+      <c r="FX9" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="FY9" s="115" t="s">
+        <v>2708</v>
+      </c>
+      <c r="FZ9" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="GA9" s="115" t="s">
+        <v>2904</v>
+      </c>
+      <c r="GB9" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="GC9" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="GD9" s="187" t="s">
+        <v>846</v>
+      </c>
+      <c r="GE9" s="115" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="10" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="220"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -17701,12 +18247,42 @@
       <c r="FU10" s="187" t="s">
         <v>5</v>
       </c>
+      <c r="FV10" s="115" t="s">
+        <v>1025</v>
+      </c>
+      <c r="FW10" s="115" t="s">
+        <v>1025</v>
+      </c>
+      <c r="FX10" s="115" t="s">
+        <v>2873</v>
+      </c>
+      <c r="FY10" s="115" t="s">
+        <v>1091</v>
+      </c>
+      <c r="FZ10" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="GA10" s="115" t="s">
+        <v>2905</v>
+      </c>
+      <c r="GB10" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="GC10" s="115" t="s">
+        <v>2926</v>
+      </c>
+      <c r="GD10" s="208" t="s">
+        <v>5</v>
+      </c>
+      <c r="GE10" s="115" t="s">
+        <v>2873</v>
+      </c>
     </row>
-    <row r="11" spans="1:177" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:187" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="221" t="s">
+      <c r="B11" s="228" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -18232,12 +18808,42 @@
       <c r="FU11" s="188" t="s">
         <v>782</v>
       </c>
+      <c r="FV11" s="115" t="s">
+        <v>2848</v>
+      </c>
+      <c r="FW11" s="115" t="s">
+        <v>2848</v>
+      </c>
+      <c r="FX11" s="115" t="s">
+        <v>2848</v>
+      </c>
+      <c r="FY11" s="115" t="s">
+        <v>779</v>
+      </c>
+      <c r="FZ11" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="GA11" s="115" t="s">
+        <v>1764</v>
+      </c>
+      <c r="GB11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="GC11" s="115" t="s">
+        <v>2927</v>
+      </c>
+      <c r="GD11" s="209" t="s">
+        <v>782</v>
+      </c>
+      <c r="GE11" s="115" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="222"/>
+      <c r="B12" s="229"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -18761,12 +19367,42 @@
       <c r="FU12" s="187" t="s">
         <v>152</v>
       </c>
+      <c r="FV12" s="115" t="s">
+        <v>2849</v>
+      </c>
+      <c r="FW12" s="115" t="s">
+        <v>2863</v>
+      </c>
+      <c r="FX12" s="115" t="s">
+        <v>2874</v>
+      </c>
+      <c r="FY12" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="FZ12" s="115" t="s">
+        <v>2008</v>
+      </c>
+      <c r="GA12" s="115" t="s">
+        <v>2274</v>
+      </c>
+      <c r="GB12" s="115" t="s">
+        <v>2917</v>
+      </c>
+      <c r="GC12" s="115" t="s">
+        <v>2917</v>
+      </c>
+      <c r="GD12" s="208" t="s">
+        <v>152</v>
+      </c>
+      <c r="GE12" s="115" t="s">
+        <v>2008</v>
+      </c>
     </row>
-    <row r="13" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="222"/>
+      <c r="B13" s="229"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -19290,12 +19926,42 @@
       <c r="FU13" s="187" t="s">
         <v>2641</v>
       </c>
+      <c r="FV13" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW13" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX13" s="115" t="s">
+        <v>2875</v>
+      </c>
+      <c r="FY13" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ13" s="115" t="s">
+        <v>1561</v>
+      </c>
+      <c r="GA13" s="115" t="s">
+        <v>2906</v>
+      </c>
+      <c r="GB13" s="115" t="s">
+        <v>2906</v>
+      </c>
+      <c r="GC13" s="115" t="s">
+        <v>2906</v>
+      </c>
+      <c r="GD13" s="208" t="s">
+        <v>2935</v>
+      </c>
+      <c r="GE13" s="115" t="s">
+        <v>1561</v>
+      </c>
     </row>
-    <row r="14" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="222"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -19819,12 +20485,42 @@
       <c r="FU14" s="187" t="s">
         <v>2833</v>
       </c>
+      <c r="FV14" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW14" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX14" s="115" t="s">
+        <v>2876</v>
+      </c>
+      <c r="FY14" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ14" s="115" t="s">
+        <v>2307</v>
+      </c>
+      <c r="GA14" s="115" t="s">
+        <v>2907</v>
+      </c>
+      <c r="GB14" s="115" t="s">
+        <v>2907</v>
+      </c>
+      <c r="GC14" s="115" t="s">
+        <v>2907</v>
+      </c>
+      <c r="GD14" s="208" t="s">
+        <v>2936</v>
+      </c>
+      <c r="GE14" s="115" t="s">
+        <v>2946</v>
+      </c>
     </row>
-    <row r="15" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="222"/>
+      <c r="B15" s="229"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -20348,12 +21044,42 @@
       <c r="FU15" s="187" t="s">
         <v>2345</v>
       </c>
+      <c r="FV15" s="115" t="s">
+        <v>2850</v>
+      </c>
+      <c r="FW15" s="115" t="s">
+        <v>2864</v>
+      </c>
+      <c r="FX15" s="115" t="s">
+        <v>2850</v>
+      </c>
+      <c r="FY15" s="115" t="s">
+        <v>2883</v>
+      </c>
+      <c r="FZ15" s="115" t="s">
+        <v>1679</v>
+      </c>
+      <c r="GA15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD15" s="187" t="s">
+        <v>2345</v>
+      </c>
+      <c r="GE15" s="115" t="s">
+        <v>1679</v>
+      </c>
     </row>
-    <row r="16" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="222"/>
+      <c r="B16" s="229"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -20877,12 +21603,42 @@
       <c r="FU16" s="187" t="s">
         <v>2834</v>
       </c>
+      <c r="FV16" s="115" t="s">
+        <v>2851</v>
+      </c>
+      <c r="FW16" s="115" t="s">
+        <v>2851</v>
+      </c>
+      <c r="FX16" s="115" t="s">
+        <v>2851</v>
+      </c>
+      <c r="FY16" s="115" t="s">
+        <v>2884</v>
+      </c>
+      <c r="FZ16" s="115" t="s">
+        <v>2308</v>
+      </c>
+      <c r="GA16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD16" s="187" t="s">
+        <v>2937</v>
+      </c>
+      <c r="GE16" s="115" t="s">
+        <v>2947</v>
+      </c>
     </row>
-    <row r="17" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="222"/>
+      <c r="B17" s="229"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -21406,12 +22162,42 @@
       <c r="FU17" s="187" t="s">
         <v>819</v>
       </c>
+      <c r="FV17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="FW17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="FX17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="FY17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="FZ17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="GA17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="GB17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="GC17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="GD17" s="208" t="s">
+        <v>19</v>
+      </c>
+      <c r="GE17" s="115" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="18" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="222"/>
+      <c r="B18" s="229"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -21935,12 +22721,42 @@
       <c r="FU18" s="187" t="s">
         <v>2050</v>
       </c>
+      <c r="FV18" s="115" t="s">
+        <v>2048</v>
+      </c>
+      <c r="FW18" s="115" t="s">
+        <v>2048</v>
+      </c>
+      <c r="FX18" s="115" t="s">
+        <v>2048</v>
+      </c>
+      <c r="FY18" s="115" t="s">
+        <v>1871</v>
+      </c>
+      <c r="FZ18" s="115" t="s">
+        <v>2011</v>
+      </c>
+      <c r="GA18" s="115" t="s">
+        <v>2908</v>
+      </c>
+      <c r="GB18" s="115" t="s">
+        <v>2918</v>
+      </c>
+      <c r="GC18" s="115" t="s">
+        <v>2908</v>
+      </c>
+      <c r="GD18" s="187" t="s">
+        <v>2347</v>
+      </c>
+      <c r="GE18" s="115" t="s">
+        <v>2688</v>
+      </c>
     </row>
-    <row r="19" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="222"/>
+      <c r="B19" s="229"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -22464,12 +23280,42 @@
       <c r="FU19" s="187">
         <v>2050</v>
       </c>
+      <c r="FV19" s="115">
+        <v>2011</v>
+      </c>
+      <c r="FW19" s="115" t="s">
+        <v>2865</v>
+      </c>
+      <c r="FX19" s="115">
+        <v>2011</v>
+      </c>
+      <c r="FY19" s="115" t="s">
+        <v>2885</v>
+      </c>
+      <c r="FZ19" s="115">
+        <v>2016</v>
+      </c>
+      <c r="GA19" s="115" t="s">
+        <v>2659</v>
+      </c>
+      <c r="GB19" s="115" t="s">
+        <v>2659</v>
+      </c>
+      <c r="GC19" s="115" t="s">
+        <v>2659</v>
+      </c>
+      <c r="GD19" s="187" t="s">
+        <v>2133</v>
+      </c>
+      <c r="GE19" s="115" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="20" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="222"/>
+      <c r="B20" s="229"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -22993,12 +23839,42 @@
       <c r="FU20" s="187" t="s">
         <v>2835</v>
       </c>
+      <c r="FV20" s="115" t="s">
+        <v>2513</v>
+      </c>
+      <c r="FW20" s="115" t="s">
+        <v>2513</v>
+      </c>
+      <c r="FX20" s="115" t="s">
+        <v>2513</v>
+      </c>
+      <c r="FY20" s="115" t="s">
+        <v>2712</v>
+      </c>
+      <c r="FZ20" s="115" t="s">
+        <v>2309</v>
+      </c>
+      <c r="GA20" s="115" t="s">
+        <v>1145</v>
+      </c>
+      <c r="GB20" s="115" t="s">
+        <v>1145</v>
+      </c>
+      <c r="GC20" s="115" t="s">
+        <v>1145</v>
+      </c>
+      <c r="GD20" s="187" t="s">
+        <v>2938</v>
+      </c>
+      <c r="GE20" s="115" t="s">
+        <v>2949</v>
+      </c>
     </row>
-    <row r="21" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="223" t="s">
+      <c r="B21" s="230" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -23518,12 +24394,42 @@
       <c r="FU21" s="187" t="s">
         <v>2836</v>
       </c>
+      <c r="FV21" s="115" t="s">
+        <v>2852</v>
+      </c>
+      <c r="FW21" s="115" t="s">
+        <v>2866</v>
+      </c>
+      <c r="FX21" s="115" t="s">
+        <v>2877</v>
+      </c>
+      <c r="FY21" s="115" t="s">
+        <v>2886</v>
+      </c>
+      <c r="FZ21" s="115" t="s">
+        <v>2896</v>
+      </c>
+      <c r="GA21" s="115" t="s">
+        <v>2909</v>
+      </c>
+      <c r="GB21" s="115" t="s">
+        <v>2919</v>
+      </c>
+      <c r="GC21" s="115" t="s">
+        <v>2928</v>
+      </c>
+      <c r="GD21" s="187" t="s">
+        <v>2939</v>
+      </c>
+      <c r="GE21" s="115" t="s">
+        <v>2950</v>
+      </c>
     </row>
-    <row r="22" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="223"/>
+      <c r="B22" s="230"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -24049,12 +24955,42 @@
       <c r="FU22" s="187" t="s">
         <v>2837</v>
       </c>
+      <c r="FV22" s="115" t="s">
+        <v>2853</v>
+      </c>
+      <c r="FW22" s="115" t="s">
+        <v>2853</v>
+      </c>
+      <c r="FX22" s="115" t="s">
+        <v>2878</v>
+      </c>
+      <c r="FY22" s="115" t="s">
+        <v>2887</v>
+      </c>
+      <c r="FZ22" s="115" t="s">
+        <v>2897</v>
+      </c>
+      <c r="GA22" s="115" t="s">
+        <v>2910</v>
+      </c>
+      <c r="GB22" s="115" t="s">
+        <v>2920</v>
+      </c>
+      <c r="GC22" s="115" t="s">
+        <v>2929</v>
+      </c>
+      <c r="GD22" s="208" t="s">
+        <v>2940</v>
+      </c>
+      <c r="GE22" s="115" t="s">
+        <v>2951</v>
+      </c>
     </row>
-    <row r="23" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="223"/>
+      <c r="B23" s="230"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -24580,12 +25516,42 @@
       <c r="FU23" s="187" t="s">
         <v>24</v>
       </c>
+      <c r="FV23" s="195" t="s">
+        <v>1586</v>
+      </c>
+      <c r="FW23" s="195" t="s">
+        <v>1586</v>
+      </c>
+      <c r="FX23" s="115" t="s">
+        <v>1586</v>
+      </c>
+      <c r="FY23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="FZ23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="GA23" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="GB23" s="115" t="s">
+        <v>605</v>
+      </c>
+      <c r="GC23" s="115" t="s">
+        <v>313</v>
+      </c>
+      <c r="GD23" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="GE23" s="115" t="s">
+        <v>1586</v>
+      </c>
     </row>
-    <row r="24" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="223"/>
+      <c r="B24" s="230"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -25111,12 +26077,42 @@
       <c r="FU24" s="69">
         <v>7</v>
       </c>
+      <c r="FV24" s="184">
+        <v>40</v>
+      </c>
+      <c r="FW24" s="184">
+        <v>374</v>
+      </c>
+      <c r="FX24" s="185">
+        <v>64</v>
+      </c>
+      <c r="FY24" s="115">
+        <v>135</v>
+      </c>
+      <c r="FZ24" s="115">
+        <v>59472</v>
+      </c>
+      <c r="GA24" s="115">
+        <v>24</v>
+      </c>
+      <c r="GB24" s="115">
+        <v>420</v>
+      </c>
+      <c r="GC24" s="115">
+        <v>145</v>
+      </c>
+      <c r="GD24" s="155">
+        <v>747</v>
+      </c>
+      <c r="GE24" s="115">
+        <v>3960</v>
+      </c>
     </row>
-    <row r="25" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="223"/>
+      <c r="B25" s="230"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -25637,12 +26633,42 @@
       <c r="FU25" s="69" t="s">
         <v>2838</v>
       </c>
+      <c r="FV25" s="115" t="s">
+        <v>2854</v>
+      </c>
+      <c r="FW25" s="115" t="s">
+        <v>2867</v>
+      </c>
+      <c r="FX25" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY25" s="115" t="s">
+        <v>2888</v>
+      </c>
+      <c r="FZ25" s="115" t="s">
+        <v>2898</v>
+      </c>
+      <c r="GA25" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB25" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC25" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD25" s="155" t="s">
+        <v>2382</v>
+      </c>
+      <c r="GE25" s="115" t="s">
+        <v>2952</v>
+      </c>
     </row>
-    <row r="26" spans="1:177" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:187" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="231" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -26170,12 +27196,42 @@
       <c r="FU26" s="187" t="s">
         <v>1440</v>
       </c>
+      <c r="FV26" s="159" t="s">
+        <v>1657</v>
+      </c>
+      <c r="FW26" s="159" t="s">
+        <v>1657</v>
+      </c>
+      <c r="FX26" s="159" t="s">
+        <v>698</v>
+      </c>
+      <c r="FY26" s="169" t="s">
+        <v>1033</v>
+      </c>
+      <c r="FZ26" s="184" t="s">
+        <v>849</v>
+      </c>
+      <c r="GA26" s="159" t="s">
+        <v>699</v>
+      </c>
+      <c r="GB26" s="115" t="s">
+        <v>697</v>
+      </c>
+      <c r="GC26" s="115" t="s">
+        <v>697</v>
+      </c>
+      <c r="GD26" s="208" t="s">
+        <v>1440</v>
+      </c>
+      <c r="GE26" s="184" t="s">
+        <v>849</v>
+      </c>
     </row>
-    <row r="27" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="224"/>
+      <c r="B27" s="231"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -26701,12 +27757,42 @@
       <c r="FU27" s="69">
         <v>6</v>
       </c>
+      <c r="FV27" s="159">
+        <v>79</v>
+      </c>
+      <c r="FW27" s="159">
+        <v>79</v>
+      </c>
+      <c r="FX27" s="184">
+        <v>2</v>
+      </c>
+      <c r="FY27" s="115">
+        <v>4</v>
+      </c>
+      <c r="FZ27" s="159">
+        <v>4</v>
+      </c>
+      <c r="GA27" s="159">
+        <v>6</v>
+      </c>
+      <c r="GB27" s="115">
+        <v>6</v>
+      </c>
+      <c r="GC27" s="115">
+        <v>6</v>
+      </c>
+      <c r="GD27" s="210">
+        <v>6</v>
+      </c>
+      <c r="GE27" s="159">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="224"/>
+      <c r="B28" s="231"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -27230,12 +28316,42 @@
       <c r="FU28" s="187" t="s">
         <v>696</v>
       </c>
+      <c r="FV28" s="159" t="s">
+        <v>698</v>
+      </c>
+      <c r="FW28" s="159" t="s">
+        <v>698</v>
+      </c>
+      <c r="FX28" s="159" t="s">
+        <v>704</v>
+      </c>
+      <c r="FY28" s="115" t="s">
+        <v>1697</v>
+      </c>
+      <c r="FZ28" s="159" t="s">
+        <v>699</v>
+      </c>
+      <c r="GA28" s="159" t="s">
+        <v>700</v>
+      </c>
+      <c r="GB28" s="115" t="s">
+        <v>702</v>
+      </c>
+      <c r="GC28" s="115" t="s">
+        <v>702</v>
+      </c>
+      <c r="GD28" s="208" t="s">
+        <v>696</v>
+      </c>
+      <c r="GE28" s="159" t="s">
+        <v>699</v>
+      </c>
     </row>
-    <row r="29" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="224"/>
+      <c r="B29" s="231"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -27759,12 +28875,42 @@
       <c r="FU29" s="187">
         <v>7</v>
       </c>
+      <c r="FV29" s="159">
+        <v>2</v>
+      </c>
+      <c r="FW29" s="159">
+        <v>2</v>
+      </c>
+      <c r="FX29" s="184">
+        <v>3</v>
+      </c>
+      <c r="FY29" s="184">
+        <v>28</v>
+      </c>
+      <c r="FZ29" s="159">
+        <v>6</v>
+      </c>
+      <c r="GA29" s="184">
+        <v>6</v>
+      </c>
+      <c r="GB29" s="184">
+        <v>3</v>
+      </c>
+      <c r="GC29" s="184">
+        <v>3</v>
+      </c>
+      <c r="GD29" s="208">
+        <v>7</v>
+      </c>
+      <c r="GE29" s="159">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="224"/>
+      <c r="B30" s="231"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -28288,12 +29434,42 @@
       <c r="FU30" s="187" t="s">
         <v>1640</v>
       </c>
+      <c r="FV30" s="159" t="s">
+        <v>849</v>
+      </c>
+      <c r="FW30" s="159" t="s">
+        <v>849</v>
+      </c>
+      <c r="FX30" s="159" t="s">
+        <v>697</v>
+      </c>
+      <c r="FY30" s="184" t="s">
+        <v>698</v>
+      </c>
+      <c r="FZ30" s="184" t="s">
+        <v>696</v>
+      </c>
+      <c r="GA30" s="159" t="s">
+        <v>2911</v>
+      </c>
+      <c r="GB30" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="GC30" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="GD30" s="211" t="s">
+        <v>698</v>
+      </c>
+      <c r="GE30" s="159" t="s">
+        <v>700</v>
+      </c>
     </row>
-    <row r="31" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="224"/>
+      <c r="B31" s="231"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -28817,12 +29993,42 @@
       <c r="FU31" s="187">
         <v>90</v>
       </c>
+      <c r="FV31" s="159">
+        <v>4</v>
+      </c>
+      <c r="FW31" s="159">
+        <v>4</v>
+      </c>
+      <c r="FX31" s="184">
+        <v>6</v>
+      </c>
+      <c r="FY31" s="115">
+        <v>2</v>
+      </c>
+      <c r="FZ31" s="159">
+        <v>7</v>
+      </c>
+      <c r="GA31" s="159">
+        <v>92</v>
+      </c>
+      <c r="GB31" s="115">
+        <v>2</v>
+      </c>
+      <c r="GC31" s="115">
+        <v>2</v>
+      </c>
+      <c r="GD31" s="210">
+        <v>2</v>
+      </c>
+      <c r="GE31" s="159">
+        <v>6</v>
+      </c>
     </row>
-    <row r="32" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="224"/>
+      <c r="B32" s="231"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -29346,12 +30552,42 @@
       <c r="FU32" s="187" t="s">
         <v>704</v>
       </c>
+      <c r="FV32" s="159" t="s">
+        <v>702</v>
+      </c>
+      <c r="FW32" s="159" t="s">
+        <v>702</v>
+      </c>
+      <c r="FX32" s="159" t="s">
+        <v>849</v>
+      </c>
+      <c r="FY32" s="115" t="s">
+        <v>702</v>
+      </c>
+      <c r="FZ32" s="159" t="s">
+        <v>700</v>
+      </c>
+      <c r="GA32" s="184" t="s">
+        <v>696</v>
+      </c>
+      <c r="GB32" s="184" t="s">
+        <v>696</v>
+      </c>
+      <c r="GC32" s="184" t="s">
+        <v>696</v>
+      </c>
+      <c r="GD32" s="211" t="s">
+        <v>849</v>
+      </c>
+      <c r="GE32" s="184" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="33" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="224"/>
+      <c r="B33" s="231"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -29875,12 +31111,42 @@
       <c r="FU33" s="187">
         <v>14</v>
       </c>
+      <c r="FV33" s="159">
+        <v>3</v>
+      </c>
+      <c r="FW33" s="159">
+        <v>3</v>
+      </c>
+      <c r="FX33" s="159">
+        <v>4</v>
+      </c>
+      <c r="FY33" s="115">
+        <v>3</v>
+      </c>
+      <c r="FZ33" s="159">
+        <v>6</v>
+      </c>
+      <c r="GA33" s="184">
+        <v>7</v>
+      </c>
+      <c r="GB33" s="115">
+        <v>7</v>
+      </c>
+      <c r="GC33" s="115">
+        <v>7</v>
+      </c>
+      <c r="GD33" s="210">
+        <v>4</v>
+      </c>
+      <c r="GE33" s="184">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="224"/>
+      <c r="B34" s="231"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -30404,12 +31670,42 @@
       <c r="FU34" s="187" t="s">
         <v>698</v>
       </c>
+      <c r="FV34" s="159" t="s">
+        <v>697</v>
+      </c>
+      <c r="FW34" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX34" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY34" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ34" s="184" t="s">
+        <v>698</v>
+      </c>
+      <c r="GA34" s="159" t="s">
+        <v>1640</v>
+      </c>
+      <c r="GB34" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC34" s="184" t="s">
+        <v>1640</v>
+      </c>
+      <c r="GD34" s="209" t="s">
+        <v>1441</v>
+      </c>
+      <c r="GE34" s="159" t="s">
+        <v>704</v>
+      </c>
     </row>
-    <row r="35" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="224"/>
+      <c r="B35" s="231"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -30933,12 +32229,42 @@
       <c r="FU35" s="187">
         <v>2</v>
       </c>
+      <c r="FV35" s="159">
+        <v>6</v>
+      </c>
+      <c r="FW35" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX35" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY35" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ35" s="184">
+        <v>2</v>
+      </c>
+      <c r="GA35" s="159">
+        <v>90</v>
+      </c>
+      <c r="GB35" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC35" s="184">
+        <v>90</v>
+      </c>
+      <c r="GD35" s="209">
+        <v>86</v>
+      </c>
+      <c r="GE35" s="159">
+        <v>3</v>
+      </c>
     </row>
-    <row r="36" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="224"/>
+      <c r="B36" s="231"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -31462,12 +32788,42 @@
       <c r="FU36" s="191" t="s">
         <v>849</v>
       </c>
+      <c r="FV36" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW36" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX36" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY36" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ36" s="159" t="s">
+        <v>702</v>
+      </c>
+      <c r="GA36" s="184" t="s">
+        <v>698</v>
+      </c>
+      <c r="GB36" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC36" s="115" t="s">
+        <v>2911</v>
+      </c>
+      <c r="GD36" s="209" t="s">
+        <v>1034</v>
+      </c>
+      <c r="GE36" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="224"/>
+      <c r="B37" s="231"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -31991,12 +33347,42 @@
       <c r="FU37" s="69">
         <v>4</v>
       </c>
+      <c r="FV37" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW37" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX37" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY37" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ37" s="159">
+        <v>3</v>
+      </c>
+      <c r="GA37" s="184">
+        <v>2</v>
+      </c>
+      <c r="GB37" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC37" s="115">
+        <v>92</v>
+      </c>
+      <c r="GD37" s="209">
+        <v>20</v>
+      </c>
+      <c r="GE37" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="224"/>
+      <c r="B38" s="231"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -32520,12 +33906,42 @@
       <c r="FU38" s="188" t="s">
         <v>1441</v>
       </c>
+      <c r="FV38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA38" s="159" t="s">
+        <v>702</v>
+      </c>
+      <c r="GB38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD38" s="208" t="s">
+        <v>704</v>
+      </c>
+      <c r="GE38" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="39" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="224"/>
+      <c r="B39" s="231"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -33049,12 +34465,42 @@
       <c r="FU39" s="188">
         <v>86</v>
       </c>
+      <c r="FV39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA39" s="159">
+        <v>3</v>
+      </c>
+      <c r="GB39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD39" s="209">
+        <v>14</v>
+      </c>
+      <c r="GE39" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="224"/>
+      <c r="B40" s="231"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -33578,12 +35024,42 @@
       <c r="FU40" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FV40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD40" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE40" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="224"/>
+      <c r="B41" s="231"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -34107,12 +35583,42 @@
       <c r="FU41" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FV41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD41" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE41" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="224"/>
+      <c r="B42" s="231"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -34636,12 +36142,42 @@
       <c r="FU42" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FV42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD42" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE42" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="224"/>
+      <c r="B43" s="231"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -35165,12 +36701,42 @@
       <c r="FU43" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FV43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD43" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE43" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="224"/>
+      <c r="B44" s="231"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -35694,12 +37260,42 @@
       <c r="FU44" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FV44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD44" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE44" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="224"/>
+      <c r="B45" s="231"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -36223,12 +37819,42 @@
       <c r="FU45" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FV45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD45" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE45" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="224"/>
+      <c r="B46" s="231"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -36752,12 +38378,42 @@
       <c r="FU46" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FV46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD46" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE46" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="224"/>
+      <c r="B47" s="231"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -37281,12 +38937,42 @@
       <c r="FU47" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FV47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD47" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE47" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="224"/>
+      <c r="B48" s="231"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -37810,12 +39496,42 @@
       <c r="FU48" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FV48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD48" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE48" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:177" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="224"/>
+      <c r="B49" s="231"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -38339,12 +40055,42 @@
       <c r="FU49" s="187" t="s">
         <v>11</v>
       </c>
+      <c r="FV49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FW49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="FZ49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GB49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GD49" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE49" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="224"/>
+      <c r="B50" s="231"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -38870,12 +40616,42 @@
       <c r="FU50" s="155" t="s">
         <v>2839</v>
       </c>
+      <c r="FV50" s="115" t="s">
+        <v>2855</v>
+      </c>
+      <c r="FW50" s="115" t="s">
+        <v>2868</v>
+      </c>
+      <c r="FX50" s="115" t="s">
+        <v>2879</v>
+      </c>
+      <c r="FY50" s="115" t="s">
+        <v>2889</v>
+      </c>
+      <c r="FZ50" s="115" t="s">
+        <v>2312</v>
+      </c>
+      <c r="GA50" s="115" t="s">
+        <v>2912</v>
+      </c>
+      <c r="GB50" s="115" t="s">
+        <v>2921</v>
+      </c>
+      <c r="GC50" s="115" t="s">
+        <v>2930</v>
+      </c>
+      <c r="GD50" s="155" t="s">
+        <v>2941</v>
+      </c>
+      <c r="GE50" s="115" t="s">
+        <v>2953</v>
+      </c>
     </row>
-    <row r="51" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="224"/>
+      <c r="B51" s="231"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -39401,12 +41177,42 @@
       <c r="FU51" s="155" t="s">
         <v>2840</v>
       </c>
+      <c r="FV51" s="115" t="s">
+        <v>2856</v>
+      </c>
+      <c r="FW51" s="115" t="s">
+        <v>2869</v>
+      </c>
+      <c r="FX51" s="115" t="s">
+        <v>2880</v>
+      </c>
+      <c r="FY51" s="115" t="s">
+        <v>2890</v>
+      </c>
+      <c r="FZ51" s="115" t="s">
+        <v>2899</v>
+      </c>
+      <c r="GA51" s="159" t="s">
+        <v>2913</v>
+      </c>
+      <c r="GB51" s="115" t="s">
+        <v>2922</v>
+      </c>
+      <c r="GC51" s="115" t="s">
+        <v>2931</v>
+      </c>
+      <c r="GD51" s="155" t="s">
+        <v>2942</v>
+      </c>
+      <c r="GE51" s="115" t="s">
+        <v>2954</v>
+      </c>
     </row>
-    <row r="52" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="224"/>
+      <c r="B52" s="231"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -39932,12 +41738,42 @@
       <c r="FU52" s="155" t="s">
         <v>2841</v>
       </c>
+      <c r="FV52" s="115" t="s">
+        <v>2857</v>
+      </c>
+      <c r="FW52" s="115" t="s">
+        <v>2870</v>
+      </c>
+      <c r="FX52" s="115" t="s">
+        <v>2881</v>
+      </c>
+      <c r="FY52" s="115" t="s">
+        <v>2891</v>
+      </c>
+      <c r="FZ52" s="115" t="s">
+        <v>2900</v>
+      </c>
+      <c r="GA52" s="159" t="s">
+        <v>2914</v>
+      </c>
+      <c r="GB52" s="115" t="s">
+        <v>2923</v>
+      </c>
+      <c r="GC52" s="115" t="s">
+        <v>2932</v>
+      </c>
+      <c r="GD52" s="155" t="s">
+        <v>2943</v>
+      </c>
+      <c r="GE52" s="115" t="s">
+        <v>2955</v>
+      </c>
     </row>
-    <row r="53" spans="1:177" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:187" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="225" t="s">
+      <c r="B53" s="232" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -40465,12 +42301,42 @@
       <c r="FU53" s="69" t="s">
         <v>206</v>
       </c>
+      <c r="FV53" s="184" t="s">
+        <v>207</v>
+      </c>
+      <c r="FW53" s="184" t="s">
+        <v>207</v>
+      </c>
+      <c r="FX53" s="185" t="s">
+        <v>207</v>
+      </c>
+      <c r="FY53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="FZ53" s="185" t="s">
+        <v>860</v>
+      </c>
+      <c r="GA53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GB53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GC53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GD53" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="GE53" s="185" t="s">
+        <v>860</v>
+      </c>
     </row>
-    <row r="54" spans="1:177" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:187" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="225"/>
+      <c r="B54" s="232"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -40996,12 +42862,42 @@
       <c r="FU54" s="69" t="s">
         <v>61</v>
       </c>
+      <c r="FV54" s="115" t="s">
+        <v>728</v>
+      </c>
+      <c r="FW54" s="115" t="s">
+        <v>728</v>
+      </c>
+      <c r="FX54" s="115" t="s">
+        <v>858</v>
+      </c>
+      <c r="FY54" s="206" t="s">
+        <v>61</v>
+      </c>
+      <c r="FZ54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="GA54" s="185" t="s">
+        <v>858</v>
+      </c>
+      <c r="GB54" s="185" t="s">
+        <v>858</v>
+      </c>
+      <c r="GC54" s="185" t="s">
+        <v>858</v>
+      </c>
+      <c r="GD54" s="155" t="s">
+        <v>858</v>
+      </c>
+      <c r="GE54" s="115" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="55" spans="1:177" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:187" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="225"/>
+      <c r="B55" s="232"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -41527,12 +43423,42 @@
       <c r="FU55" s="69" t="s">
         <v>2842</v>
       </c>
+      <c r="FV55" s="115" t="s">
+        <v>2858</v>
+      </c>
+      <c r="FW55" s="115" t="s">
+        <v>2858</v>
+      </c>
+      <c r="FX55" s="115" t="s">
+        <v>2858</v>
+      </c>
+      <c r="FY55" s="115" t="s">
+        <v>2892</v>
+      </c>
+      <c r="FZ55" s="115" t="s">
+        <v>1315</v>
+      </c>
+      <c r="GA55" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GB55" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GC55" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GD55" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GE55" s="115" t="s">
+        <v>2956</v>
+      </c>
     </row>
-    <row r="56" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="225"/>
+      <c r="B56" s="232"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -42056,12 +43982,42 @@
       <c r="FU56" s="69" t="s">
         <v>2843</v>
       </c>
+      <c r="FV56" s="195" t="s">
+        <v>2859</v>
+      </c>
+      <c r="FW56" s="195" t="s">
+        <v>2871</v>
+      </c>
+      <c r="FX56" s="195" t="s">
+        <v>2859</v>
+      </c>
+      <c r="FY56" s="206" t="s">
+        <v>2893</v>
+      </c>
+      <c r="FZ56" s="115" t="s">
+        <v>2003</v>
+      </c>
+      <c r="GA56" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GB56" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GC56" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GD56" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GE56" s="115" t="s">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="57" spans="1:177" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:187" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="225"/>
+      <c r="B57" s="232"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -42587,12 +44543,42 @@
       <c r="FU57" s="69" t="s">
         <v>2844</v>
       </c>
+      <c r="FV57" s="115" t="s">
+        <v>2860</v>
+      </c>
+      <c r="FW57" s="115" t="s">
+        <v>2860</v>
+      </c>
+      <c r="FX57" s="115" t="s">
+        <v>1572</v>
+      </c>
+      <c r="FY57" s="115" t="s">
+        <v>2083</v>
+      </c>
+      <c r="FZ57" s="115" t="s">
+        <v>2315</v>
+      </c>
+      <c r="GA57" s="115" t="s">
+        <v>2915</v>
+      </c>
+      <c r="GB57" s="115" t="s">
+        <v>2915</v>
+      </c>
+      <c r="GC57" s="115" t="s">
+        <v>2915</v>
+      </c>
+      <c r="GD57" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GE57" s="115" t="s">
+        <v>2315</v>
+      </c>
     </row>
-    <row r="58" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="225"/>
+      <c r="B58" s="232"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -43089,12 +45075,42 @@
       <c r="FU58" s="69" t="s">
         <v>2843</v>
       </c>
+      <c r="FV58" s="195" t="s">
+        <v>2859</v>
+      </c>
+      <c r="FW58" s="195" t="s">
+        <v>2859</v>
+      </c>
+      <c r="FX58" s="195" t="s">
+        <v>2859</v>
+      </c>
+      <c r="FY58" s="115" t="s">
+        <v>2893</v>
+      </c>
+      <c r="FZ58" s="115" t="s">
+        <v>2003</v>
+      </c>
+      <c r="GA58" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GB58" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GC58" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GD58" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GE58" s="115" t="s">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="59" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="225"/>
+      <c r="B59" s="232"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -43620,12 +45636,42 @@
       <c r="FU59" s="156" t="s">
         <v>2845</v>
       </c>
+      <c r="FV59" s="195" t="s">
+        <v>2859</v>
+      </c>
+      <c r="FW59" s="195" t="s">
+        <v>2859</v>
+      </c>
+      <c r="FX59" s="195" t="s">
+        <v>2859</v>
+      </c>
+      <c r="FY59" s="115" t="s">
+        <v>2893</v>
+      </c>
+      <c r="FZ59" s="115" t="s">
+        <v>2003</v>
+      </c>
+      <c r="GA59" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GB59" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GC59" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GD59" s="155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GE59" s="115" t="s">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="60" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="225"/>
+      <c r="B60" s="232"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -44151,12 +46197,42 @@
       <c r="FU60" s="188">
         <v>1</v>
       </c>
+      <c r="FV60" s="184">
+        <v>1</v>
+      </c>
+      <c r="FW60" s="184">
+        <v>1</v>
+      </c>
+      <c r="FX60" s="184">
+        <v>1</v>
+      </c>
+      <c r="FY60" s="207">
+        <v>1</v>
+      </c>
+      <c r="FZ60" s="65">
+        <v>1</v>
+      </c>
+      <c r="GA60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GB60" s="65">
+        <v>1</v>
+      </c>
+      <c r="GC60" s="65">
+        <v>1</v>
+      </c>
+      <c r="GD60" s="188">
+        <v>1</v>
+      </c>
+      <c r="GE60" s="65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:177" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:187" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="226" t="s">
+      <c r="B61" s="233" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -44679,15 +46755,45 @@
       <c r="FT61" s="189">
         <v>45413</v>
       </c>
-      <c r="FU61" s="227">
+      <c r="FU61" s="205">
         <v>45413</v>
       </c>
+      <c r="FV61" s="157">
+        <v>45728</v>
+      </c>
+      <c r="FW61" s="157">
+        <v>45728</v>
+      </c>
+      <c r="FX61" s="157">
+        <v>45728</v>
+      </c>
+      <c r="FY61" s="157">
+        <v>45788</v>
+      </c>
+      <c r="FZ61" s="157">
+        <v>45718</v>
+      </c>
+      <c r="GA61" s="193">
+        <v>45736</v>
+      </c>
+      <c r="GB61" s="193">
+        <v>45736</v>
+      </c>
+      <c r="GC61" s="193">
+        <v>45736</v>
+      </c>
+      <c r="GD61" s="189">
+        <v>45413</v>
+      </c>
+      <c r="GE61" s="157">
+        <v>45797</v>
+      </c>
     </row>
-    <row r="62" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="226"/>
+      <c r="B62" s="233"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -45213,12 +47319,42 @@
       <c r="FU62" s="190">
         <v>45709</v>
       </c>
+      <c r="FV62" s="157">
+        <v>45789</v>
+      </c>
+      <c r="FW62" s="157">
+        <v>45789</v>
+      </c>
+      <c r="FX62" s="157">
+        <v>45789</v>
+      </c>
+      <c r="FY62" s="157">
+        <v>45797</v>
+      </c>
+      <c r="FZ62" s="157">
+        <v>45798</v>
+      </c>
+      <c r="GA62" s="193">
+        <v>45798</v>
+      </c>
+      <c r="GB62" s="193">
+        <v>45798</v>
+      </c>
+      <c r="GC62" s="193">
+        <v>45798</v>
+      </c>
+      <c r="GD62" s="190">
+        <v>45709</v>
+      </c>
+      <c r="GE62" s="157">
+        <v>45797</v>
+      </c>
     </row>
-    <row r="63" spans="1:177" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="226"/>
+      <c r="B63" s="233"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -45744,12 +47880,42 @@
       <c r="FU63" s="69" t="s">
         <v>2331</v>
       </c>
+      <c r="FV63" s="115" t="s">
+        <v>2085</v>
+      </c>
+      <c r="FW63" s="115" t="s">
+        <v>2730</v>
+      </c>
+      <c r="FX63" s="195" t="s">
+        <v>30</v>
+      </c>
+      <c r="FY63" s="157" t="s">
+        <v>2085</v>
+      </c>
+      <c r="FZ63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GA63" s="115" t="s">
+        <v>2085</v>
+      </c>
+      <c r="GB63" s="115" t="s">
+        <v>2085</v>
+      </c>
+      <c r="GC63" s="115" t="s">
+        <v>2085</v>
+      </c>
+      <c r="GD63" s="155" t="s">
+        <v>2386</v>
+      </c>
+      <c r="GE63" s="115" t="s">
+        <v>2958</v>
+      </c>
     </row>
-    <row r="64" spans="1:177" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:187" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="226"/>
+      <c r="B64" s="233"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -46274,13 +48440,43 @@
       </c>
       <c r="FU64" s="69" t="s">
         <v>2332</v>
+      </c>
+      <c r="FV64" s="115" t="s">
+        <v>2861</v>
+      </c>
+      <c r="FW64" s="115" t="s">
+        <v>2861</v>
+      </c>
+      <c r="FX64" s="115" t="s">
+        <v>2861</v>
+      </c>
+      <c r="FY64" s="115" t="s">
+        <v>2894</v>
+      </c>
+      <c r="FZ64" s="115" t="s">
+        <v>2901</v>
+      </c>
+      <c r="GA64" s="115" t="s">
+        <v>2669</v>
+      </c>
+      <c r="GB64" s="115" t="s">
+        <v>2924</v>
+      </c>
+      <c r="GC64" s="115" t="s">
+        <v>2924</v>
+      </c>
+      <c r="GD64" s="155" t="s">
+        <v>2944</v>
+      </c>
+      <c r="GE64" s="115" t="s">
+        <v>2959</v>
       </c>
     </row>
     <row r="65" spans="1:205" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="226"/>
+      <c r="B65" s="233"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -46509,12 +48705,42 @@
       <c r="FU65" s="190">
         <v>45786</v>
       </c>
+      <c r="FV65" s="157">
+        <v>45797</v>
+      </c>
+      <c r="FW65" s="157">
+        <v>45797</v>
+      </c>
+      <c r="FX65" s="157">
+        <v>45797</v>
+      </c>
+      <c r="FY65" s="157">
+        <v>45797</v>
+      </c>
+      <c r="FZ65" s="157">
+        <v>45798</v>
+      </c>
+      <c r="GA65" s="193">
+        <v>45798</v>
+      </c>
+      <c r="GB65" s="193">
+        <v>45798</v>
+      </c>
+      <c r="GC65" s="193">
+        <v>45798</v>
+      </c>
+      <c r="GD65" s="190">
+        <v>45799</v>
+      </c>
+      <c r="GE65" s="157">
+        <v>45800</v>
+      </c>
     </row>
     <row r="66" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="226"/>
+      <c r="B66" s="233"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -46741,12 +48967,42 @@
       <c r="FU66" s="191" t="s">
         <v>30</v>
       </c>
+      <c r="FV66" s="195" t="s">
+        <v>30</v>
+      </c>
+      <c r="FW66" s="195" t="s">
+        <v>30</v>
+      </c>
+      <c r="FX66" s="195" t="s">
+        <v>30</v>
+      </c>
+      <c r="FY66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="FZ66" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="GA66" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="GB66" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="GC66" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="GD66" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="GE66" s="169" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="67" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="226"/>
+      <c r="B67" s="233"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -46844,12 +49100,21 @@
       <c r="FS67" s="156"/>
       <c r="FT67" s="156"/>
       <c r="FU67" s="191"/>
+      <c r="FV67" s="196"/>
+      <c r="FW67" s="196"/>
+      <c r="FX67" s="169"/>
+      <c r="FY67" s="169"/>
+      <c r="FZ67" s="169"/>
+      <c r="GB67" s="156"/>
+      <c r="GC67" s="156"/>
+      <c r="GD67" s="191"/>
+      <c r="GE67" s="169"/>
     </row>
     <row r="68" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="216" t="s">
+      <c r="B68" s="223" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -46907,12 +49172,17 @@
       <c r="EV68" s="196"/>
       <c r="EW68" s="169"/>
       <c r="FS68" s="156"/>
+      <c r="FV68" s="196"/>
+      <c r="FW68" s="196"/>
+      <c r="FX68" s="169"/>
+      <c r="FZ68" s="169"/>
+      <c r="GC68" s="156"/>
     </row>
     <row r="69" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="216"/>
+      <c r="B69" s="223"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -46954,12 +49224,14 @@
       <c r="EQ69" s="169"/>
       <c r="ER69" s="169"/>
       <c r="EV69" s="196"/>
+      <c r="FV69" s="196"/>
+      <c r="GC69" s="156"/>
     </row>
     <row r="70" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="216"/>
+      <c r="B70" s="223"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -46992,12 +49264,13 @@
       <c r="EG70" s="156"/>
       <c r="EN70" s="169"/>
       <c r="ER70" s="169"/>
+      <c r="GC70" s="156"/>
     </row>
     <row r="71" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="216"/>
+      <c r="B71" s="223"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -47032,7 +49305,7 @@
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="217"/>
+      <c r="B72" s="224"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -47936,7 +50209,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="225" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -48105,7 +50378,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="219"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -48437,7 +50710,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="227" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -48604,7 +50877,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="220"/>
+      <c r="B8" s="227"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -48771,7 +51044,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="220"/>
+      <c r="B9" s="227"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -48938,7 +51211,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="220"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -49105,7 +51378,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="221" t="s">
+      <c r="B11" s="228" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -49272,7 +51545,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="222"/>
+      <c r="B12" s="229"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -49437,7 +51710,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="222"/>
+      <c r="B13" s="229"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -49602,7 +51875,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="222"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -49767,7 +52040,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="222"/>
+      <c r="B15" s="229"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -49932,7 +52205,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="222"/>
+      <c r="B16" s="229"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -50097,7 +52370,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="222"/>
+      <c r="B17" s="229"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -50262,7 +52535,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="222"/>
+      <c r="B18" s="229"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -50427,7 +52700,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="222"/>
+      <c r="B19" s="229"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -50592,7 +52865,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="222"/>
+      <c r="B20" s="229"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -50757,7 +53030,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="223" t="s">
+      <c r="B21" s="230" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -50965,7 +53238,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="223"/>
+      <c r="B22" s="230"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -51173,7 +53446,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="223"/>
+      <c r="B23" s="230"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -51340,7 +53613,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="223"/>
+      <c r="B24" s="230"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -51507,7 +53780,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="223"/>
+      <c r="B25" s="230"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -51672,7 +53945,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="231" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -51841,7 +54114,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="224"/>
+      <c r="B27" s="231"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -52008,7 +54281,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="224"/>
+      <c r="B28" s="231"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -52173,7 +54446,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="224"/>
+      <c r="B29" s="231"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -52338,7 +54611,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="224"/>
+      <c r="B30" s="231"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -52503,7 +54776,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="224"/>
+      <c r="B31" s="231"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -52668,7 +54941,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="224"/>
+      <c r="B32" s="231"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -52833,7 +55106,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="224"/>
+      <c r="B33" s="231"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -52998,7 +55271,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="224"/>
+      <c r="B34" s="231"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -53163,7 +55436,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="224"/>
+      <c r="B35" s="231"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -53328,7 +55601,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="224"/>
+      <c r="B36" s="231"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -53493,7 +55766,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="224"/>
+      <c r="B37" s="231"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -53658,7 +55931,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="224"/>
+      <c r="B38" s="231"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -53823,7 +56096,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="224"/>
+      <c r="B39" s="231"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -53988,7 +56261,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="224"/>
+      <c r="B40" s="231"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -54153,7 +56426,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="224"/>
+      <c r="B41" s="231"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -54318,7 +56591,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="224"/>
+      <c r="B42" s="231"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -54483,7 +56756,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="224"/>
+      <c r="B43" s="231"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -54648,7 +56921,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="224"/>
+      <c r="B44" s="231"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -54813,7 +57086,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="224"/>
+      <c r="B45" s="231"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -54978,7 +57251,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="224"/>
+      <c r="B46" s="231"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -55143,7 +57416,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="224"/>
+      <c r="B47" s="231"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -55308,7 +57581,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="224"/>
+      <c r="B48" s="231"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -55473,7 +57746,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="224"/>
+      <c r="B49" s="231"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -55638,7 +57911,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="224"/>
+      <c r="B50" s="231"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -55805,7 +58078,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="224"/>
+      <c r="B51" s="231"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -55972,7 +58245,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="224"/>
+      <c r="B52" s="231"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -56139,7 +58412,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="225" t="s">
+      <c r="B53" s="232" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -56308,7 +58581,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="225"/>
+      <c r="B54" s="232"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -56475,7 +58748,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="225"/>
+      <c r="B55" s="232"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -56642,7 +58915,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="225"/>
+      <c r="B56" s="232"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -56807,7 +59080,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="225"/>
+      <c r="B57" s="232"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -56974,7 +59247,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B58" s="225"/>
+      <c r="B58" s="232"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -57139,7 +59412,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="225"/>
+      <c r="B59" s="232"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -57306,7 +59579,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B60" s="225"/>
+      <c r="B60" s="232"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -57473,7 +59746,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="226" t="s">
+      <c r="B61" s="233" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -57640,7 +59913,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="226"/>
+      <c r="B62" s="233"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -57807,7 +60080,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="226"/>
+      <c r="B63" s="233"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -57974,7 +60247,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="226"/>
+      <c r="B64" s="233"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -58141,7 +60414,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="226"/>
+      <c r="B65" s="233"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -58158,7 +60431,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="226"/>
+      <c r="B66" s="233"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -58177,7 +60450,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="226"/>
+      <c r="B67" s="233"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -58196,7 +60469,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B68" s="216" t="s">
+      <c r="B68" s="223" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -58206,7 +60479,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B69" s="216"/>
+      <c r="B69" s="223"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -58214,7 +60487,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B70" s="216"/>
+      <c r="B70" s="223"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -58222,7 +60495,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B71" s="216"/>
+      <c r="B71" s="223"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -58234,7 +60507,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B72" s="217"/>
+      <c r="B72" s="224"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -58814,7 +61087,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="225" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -58894,7 +61167,7 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="219"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -59048,7 +61321,7 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="227" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -59126,7 +61399,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="220"/>
+      <c r="B8" s="227"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -59204,7 +61477,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="220"/>
+      <c r="B9" s="227"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -59282,7 +61555,7 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="220"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -59360,7 +61633,7 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="221" t="s">
+      <c r="B11" s="228" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -59438,7 +61711,7 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="222"/>
+      <c r="B12" s="229"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -59514,7 +61787,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="222"/>
+      <c r="B13" s="229"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -59590,7 +61863,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="222"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -59666,7 +61939,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="222"/>
+      <c r="B15" s="229"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -59742,7 +62015,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="222"/>
+      <c r="B16" s="229"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -59818,7 +62091,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="222"/>
+      <c r="B17" s="229"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -59894,7 +62167,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="222"/>
+      <c r="B18" s="229"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -59970,7 +62243,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="222"/>
+      <c r="B19" s="229"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -60046,7 +62319,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="222"/>
+      <c r="B20" s="229"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -60122,7 +62395,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="223" t="s">
+      <c r="B21" s="230" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -60200,7 +62473,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="223"/>
+      <c r="B22" s="230"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -60278,7 +62551,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="223"/>
+      <c r="B23" s="230"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -60356,7 +62629,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B24" s="223"/>
+      <c r="B24" s="230"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -60434,7 +62707,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="223"/>
+      <c r="B25" s="230"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -60510,7 +62783,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="231" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -60590,7 +62863,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="224"/>
+      <c r="B27" s="231"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -60668,7 +62941,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="224"/>
+      <c r="B28" s="231"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -60744,7 +63017,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="224"/>
+      <c r="B29" s="231"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -60820,7 +63093,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="224"/>
+      <c r="B30" s="231"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -60896,7 +63169,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="224"/>
+      <c r="B31" s="231"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -60972,7 +63245,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="224"/>
+      <c r="B32" s="231"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -61048,7 +63321,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="224"/>
+      <c r="B33" s="231"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -61124,7 +63397,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="224"/>
+      <c r="B34" s="231"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -61200,7 +63473,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="224"/>
+      <c r="B35" s="231"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -61276,7 +63549,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="224"/>
+      <c r="B36" s="231"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -61352,7 +63625,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="224"/>
+      <c r="B37" s="231"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -61428,7 +63701,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="224"/>
+      <c r="B38" s="231"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -61504,7 +63777,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="224"/>
+      <c r="B39" s="231"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -61580,7 +63853,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="224"/>
+      <c r="B40" s="231"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -61656,7 +63929,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="224"/>
+      <c r="B41" s="231"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -61732,7 +64005,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="224"/>
+      <c r="B42" s="231"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -61808,7 +64081,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="224"/>
+      <c r="B43" s="231"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -61884,7 +64157,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="224"/>
+      <c r="B44" s="231"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -61960,7 +64233,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="224"/>
+      <c r="B45" s="231"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -62036,7 +64309,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="224"/>
+      <c r="B46" s="231"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -62112,7 +64385,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="224"/>
+      <c r="B47" s="231"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -62188,7 +64461,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="224"/>
+      <c r="B48" s="231"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -62264,7 +64537,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="224"/>
+      <c r="B49" s="231"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -62340,7 +64613,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="224"/>
+      <c r="B50" s="231"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -62418,7 +64691,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="224"/>
+      <c r="B51" s="231"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -62496,7 +64769,7 @@
       </c>
     </row>
     <row r="52" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="224"/>
+      <c r="B52" s="231"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -62574,7 +64847,7 @@
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B53" s="225" t="s">
+      <c r="B53" s="232" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -62654,7 +64927,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="225"/>
+      <c r="B54" s="232"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -62732,7 +65005,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="225"/>
+      <c r="B55" s="232"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -62810,7 +65083,7 @@
       </c>
     </row>
     <row r="56" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="225"/>
+      <c r="B56" s="232"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -62886,7 +65159,7 @@
       </c>
     </row>
     <row r="57" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="225"/>
+      <c r="B57" s="232"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -62964,7 +65237,7 @@
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B58" s="225"/>
+      <c r="B58" s="232"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -63040,7 +65313,7 @@
       </c>
     </row>
     <row r="59" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="225"/>
+      <c r="B59" s="232"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -63118,7 +65391,7 @@
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B60" s="225"/>
+      <c r="B60" s="232"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -63196,7 +65469,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B61" s="226" t="s">
+      <c r="B61" s="233" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -63274,7 +65547,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="226"/>
+      <c r="B62" s="233"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -63352,7 +65625,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="226"/>
+      <c r="B63" s="233"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -63430,7 +65703,7 @@
       </c>
     </row>
     <row r="64" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="226"/>
+      <c r="B64" s="233"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -63508,7 +65781,7 @@
       </c>
     </row>
     <row r="65" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="226"/>
+      <c r="B65" s="233"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -63538,7 +65811,7 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="226"/>
+      <c r="B66" s="233"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -63568,7 +65841,7 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="226"/>
+      <c r="B67" s="233"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -63598,7 +65871,7 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B68" s="216" t="s">
+      <c r="B68" s="223" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -63619,7 +65892,7 @@
       <c r="Q68" s="105"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B69" s="216"/>
+      <c r="B69" s="223"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -63638,7 +65911,7 @@
       <c r="Q69" s="105"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B70" s="216"/>
+      <c r="B70" s="223"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -63657,7 +65930,7 @@
       <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B71" s="216"/>
+      <c r="B71" s="223"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -63676,7 +65949,7 @@
       <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B72" s="217"/>
+      <c r="B72" s="224"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_content_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B0172-17F4-4B73-87E2-9B48B7F44244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4D7B6-8174-47F2-A6EE-269A73402F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23836" uniqueCount="2961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14577" uniqueCount="3080">
   <si>
     <t>Description</t>
   </si>
@@ -8907,6 +8907,370 @@
   </si>
   <si>
     <t>May 23, 2025 update</t>
+  </si>
+  <si>
+    <t>3_LT_Vehicles_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>1 end use sector</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 vehicle types</t>
+  </si>
+  <si>
+    <t>EU and EFTA countries, China, global</t>
+  </si>
+  <si>
+    <t>ca. 2021</t>
+  </si>
+  <si>
+    <t>singly year value</t>
+  </si>
+  <si>
+    <t>Lifetimes of vehicles in the use phase. Region-specific estimates compiled from different sources.</t>
+  </si>
+  <si>
+    <t>lifetime; vehicle; use phase; useful product lifetime;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value(g,r,c,p)</t>
+  </si>
+  <si>
+    <t>Lifetime of bus in use phase - vehicles registered in Hungary in 2021 is 12 yr.</t>
+  </si>
+  <si>
+    <t>[Data type] of [Aspect 1] in [Aspect 4] registered in [Aspect 3] in [Aspect 2] is [value].</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original sources to Excel spreadsheet. Additional quality check by Stefan Pauliuk</t>
+  </si>
+  <si>
+    <t>4_PY_FabricationYield_Machinery_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>product manufacturing processes, also repair, refurbishmment, and remanufacturing</t>
+  </si>
+  <si>
+    <t>aggregate manufacturing step</t>
+  </si>
+  <si>
+    <t>different types</t>
+  </si>
+  <si>
+    <t>all materials, steel, aluminium</t>
+  </si>
+  <si>
+    <t>aggregate material groups</t>
+  </si>
+  <si>
+    <t>China, United States</t>
+  </si>
+  <si>
+    <t>country specific_average</t>
+  </si>
+  <si>
+    <t>Manufacturing yield factors for various commodity production and remanufacturing processes studied by the CIRCOMOD models</t>
+  </si>
+  <si>
+    <t>machinery; manufacturing; process yield; manufacturing yield; yield loss; remanufacturing</t>
+  </si>
+  <si>
+    <t>Value(m,g,v,t,r,p)</t>
+  </si>
+  <si>
+    <t>Yield coefficient measured as mass ratio of all materials into traditional vehicle engine in manufacturing of machinery and equipment n.e.c. in year n.a. in United States for CE strategy OEM new is 85%.</t>
+  </si>
+  <si>
+    <t>[Data type] measured as [Layer] of [Aspect 1] into [Aspect 2] in [Aspect 6] in [Aspect 4] in [Aspect 5] for CE strategy [Aspect 3] is [value].</t>
+  </si>
+  <si>
+    <t>May 24, 2025 update</t>
+  </si>
+  <si>
+    <t>4_PY_Vehicle_Manufacturing_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>vehicle manufacturing</t>
+  </si>
+  <si>
+    <t>1 end use sector</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 passenger vehicle types</t>
+  </si>
+  <si>
+    <t>steel, sheet metal</t>
+  </si>
+  <si>
+    <t>two material groups</t>
+  </si>
+  <si>
+    <t>Global, China, Europe, USA</t>
+  </si>
+  <si>
+    <t>Single-country and region value</t>
+  </si>
+  <si>
+    <t>2009-2060</t>
+  </si>
+  <si>
+    <t>annual values for selected years</t>
+  </si>
+  <si>
+    <t>Manufacturing yield factors for vehicles in different regions, compiled for CIRCOMOD EU project</t>
+  </si>
+  <si>
+    <t>manufacturing; yield loss; manufacturing yield; vehicles; process yield; new scrap; fabrication scrap</t>
+  </si>
+  <si>
+    <t>Yield loss (new scrap rate) = 1 - manufacturing yield.</t>
+  </si>
+  <si>
+    <t>Value(m,g,p,c,r,v,U)</t>
+  </si>
+  <si>
+    <t>Yield coefficient measured as mass ratio of sheet metal into passenger vehicles, segment B in manufacturing of passenger vehicles in Global in 2009-2015 for CE strategy 'none' is 61%.</t>
+  </si>
+  <si>
+    <t>[Data type] measured as [Layer] of [Aspect 1] into [Aspect 2] in [Aspect 3] in [Aspect 5] in [Aspect 4] for CE strategy [Aspect 6] is [value].</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original sources to Excel spreadsheet. Dataset reformatted and validated by Huimei Li.</t>
+  </si>
+  <si>
+    <t>4_PY_Vehicle_EoL_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>EoL vehicle scrap revovery (dismantling, shredding, sorting)</t>
+  </si>
+  <si>
+    <t>one aggregate process step</t>
+  </si>
+  <si>
+    <t>ca. 10 different materials</t>
+  </si>
+  <si>
+    <t>Sweden, Global</t>
+  </si>
+  <si>
+    <t>ca. 2010-2050</t>
+  </si>
+  <si>
+    <t>single values for selected years</t>
+  </si>
+  <si>
+    <t>Recycling, reuse, and energy recovery potentials for EoL vehicle materials</t>
+  </si>
+  <si>
+    <t>EoL vehicles; end-of-life vehicles; reuse; recycling; waste management; dismantling; sorting; shredding; EoL-RR; end-of-life recovery rate;</t>
+  </si>
+  <si>
+    <t>Value(m,g,p,t,r,v)</t>
+  </si>
+  <si>
+    <t>Yield coefficient measured as mass ratio of aluminium recovered as scrap from end-of-life passenger car, ICEV in treatment of end-of-life vehicle hulk, shredding in Sweden in ca. 2010 for CE strategy recycling is 95%.</t>
+  </si>
+  <si>
+    <t>[Data type] measured as [Layer] of [Aspect 1] recovered as scrap from [Aspect 2] in [Aspect 3] in [Aspect 5] in [Aspect 4] for CE strategy [Aspect 6] is [value].</t>
+  </si>
+  <si>
+    <t>3_EI_Other_Vehicles_CIRCOMOD_D4.2_2025</t>
+  </si>
+  <si>
+    <t>final energy</t>
+  </si>
+  <si>
+    <t>1 end use sector</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 vehicle types other than land vehicles</t>
+  </si>
+  <si>
+    <t>2000-2050</t>
+  </si>
+  <si>
+    <t>values for specific age-cohorts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific energy consumption per unit of use of products for land vehicles other than passenger vehicles, MJ/km of vehicle driven </t>
+  </si>
+  <si>
+    <t>specific energy consumption of products; use phase; energy intensity; other vehicles; driving</t>
+  </si>
+  <si>
+    <t>Value(n,g,p,V,r,c)</t>
+  </si>
+  <si>
+    <t>Specific energy consumption of products measured as final energy of diesel consumed by bus built in 2010 to generate kilometers driven in use phase - vehicles in OECD North America is 17.3 MJ/km.</t>
+  </si>
+  <si>
+    <t>[Data type] measured as [Layer] of [Aspect 1] consumed by [Aspect 2] built in [Aspect 6] to generate [Aspect 4] in [Aspect 3] in [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>May 25, 2025 update</t>
+  </si>
+  <si>
+    <t>3_LT_Machinery_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>Use phase - machinery</t>
+  </si>
+  <si>
+    <t>one aggregate use phase / service lifetime</t>
+  </si>
+  <si>
+    <t>ca. 180 different types of machinery</t>
+  </si>
+  <si>
+    <t>values for Europe and Japan</t>
+  </si>
+  <si>
+    <t>ca. 2008-2018</t>
+  </si>
+  <si>
+    <t>single values</t>
+  </si>
+  <si>
+    <t>Life time of machinery in the use phase, by type of machinery</t>
+  </si>
+  <si>
+    <t>lifetime; machinery; service life; use phase</t>
+  </si>
+  <si>
+    <t>Data compiled from different sources - see the comment for each data point for its reference.</t>
+  </si>
+  <si>
+    <t>Lifetime of shovel excavators in use phase - machinery in Japan built in ca. 2018 is 12.5 yr.</t>
+  </si>
+  <si>
+    <t>[Data type] of [Aspect 1] in [Aspect 2] in [Aspect 3] built in [Aspect 4] is [Value].</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original sources to Excel spreadsheet, Johan Vélez helped with the reformatting</t>
+  </si>
+  <si>
+    <t>3_LT_Buildings_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>Buildings and building parts</t>
+  </si>
+  <si>
+    <t>11 building types and 15 building parts</t>
+  </si>
+  <si>
+    <t>all years</t>
+  </si>
+  <si>
+    <t>Lifetime of buildings, building parts and lifetime distributions</t>
+  </si>
+  <si>
+    <t>lifetime; buildings; lifetime distribution; useful life; lifespan; use phase</t>
+  </si>
+  <si>
+    <t>Lifetime of urban detached building in use phase - buildings in IMAGE 3.0|Central Asia built in all years is 60 yr.</t>
+  </si>
+  <si>
+    <t>[Data type] of [Aspect 1] in [Aspect 4] in [Aspect 2] built in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>Christian Hauenstein</t>
+  </si>
+  <si>
+    <t>May 26, 2025 update</t>
+  </si>
+  <si>
+    <t>6_CR_EU_criticality_RMIS_2023</t>
+  </si>
+  <si>
+    <t>aggregated across all products, economy-wide</t>
+  </si>
+  <si>
+    <t>selected materials from RMIS that are not covered in the critial materials of the EU (2020 list)</t>
+  </si>
+  <si>
+    <t>20 metals and minerals</t>
+  </si>
+  <si>
+    <t>2015-2022</t>
+  </si>
+  <si>
+    <t>EU import dependencies and recycling rates as proxy for material criticality. Extracted from RMIS 3.0, released in March 2023.</t>
+  </si>
+  <si>
+    <t>EU; import; recycling rate; critical materials; material criticality; criticality indicator; RMIS</t>
+  </si>
+  <si>
+    <t>Data extracted from Raw Materials Profiles (https://rmis.jrc.ec.europa.eu/rmp/) of the European Commission. RMIS 3.0, released in March 2023. If information on extraction and processing stage were available, the processing stage (refined metals) was preferred. "Import share EU" shows the main EU sourcing countries</t>
+  </si>
+  <si>
+    <t>Criticality measured as end-of-life recycling input rate for antimony in form of refined metal for European Union in 2012 is 28%.</t>
+  </si>
+  <si>
+    <t>[Data type] measured as [Aspect 3] for [Aspect 1] in form of [Aspect 2] for [Aspect 4] in [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>European Commission, JRC</t>
+  </si>
+  <si>
+    <t>https://rmis.jrc.ec.europa.eu/uploads/rmp/info-dashboard.pdf</t>
+  </si>
+  <si>
+    <t>https://rmis.jrc.ec.europa.eu/about</t>
+  </si>
+  <si>
+    <t>EU-JRC RMIS 3.0, released in March 2023.</t>
+  </si>
+  <si>
+    <t>Numbers copied from original source (website) to Excel spreadsheet</t>
+  </si>
+  <si>
+    <t>1_F_Lumber_Cement_Plastics_Production_byCountry_2020</t>
+  </si>
+  <si>
+    <t>cement, plastics, lumber</t>
+  </si>
+  <si>
+    <t>3 aggregate material groups; lumber is additionally differentiated into 3 categories</t>
+  </si>
+  <si>
+    <t>2019-2023</t>
+  </si>
+  <si>
+    <t>Production of cement, plastics, lumber, by country</t>
+  </si>
+  <si>
+    <t>cement; plastics; lumber; production; timber; wood; production statistics; production flow</t>
+  </si>
+  <si>
+    <t>For lumber, the data considered all countries and was further filtered by production quantity for the years 2019-2023 with a focus on "Sawnwood, coniferous", "Sawnwood, non-coniferous", "Veneer sheets", "Plywood and LVL", "Particle board", "Oriented strand board (OSB)", "Hardboard", "Medium/high density fibreboard (MDF/HDF)", "Other fibreboard", "Glue-laminated timber (glulam)", "Cross-laminated timber (CLT or X-lam)", "I-beams (I-joists)", "Wooden furniture (export/import)", "Prefabricated buildings of wood (export/import)" and "Other manufactured wood products (export/import)". The mass of I-beams was converted to a volume to match the other units using an estimated density of 570 kg/m³.</t>
+  </si>
+  <si>
+    <t>Mass of flow of cement from material production to market for refined materials in South Africa in 2019 was 12400000 t/yr.</t>
+  </si>
+  <si>
+    <t>[Layer] of [Data type] of [Aspect 3] flowing from [Aspect 1] to [Aspect 2] in [Aspect 4] in [Aspect 5] has [Value].</t>
+  </si>
+  <si>
+    <t>website with table</t>
+  </si>
+  <si>
+    <t>Marina Haug</t>
   </si>
 </sst>
 </file>
@@ -8916,7 +9280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9046,6 +9410,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -9298,7 +9668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -9665,6 +10035,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9731,6 +10112,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -10071,7 +10453,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="220" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -10103,7 +10485,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="215"/>
+      <c r="B5" s="220"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -10133,7 +10515,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="221" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -10149,7 +10531,7 @@
       <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="216"/>
+      <c r="B7" s="221"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -10163,7 +10545,7 @@
       <c r="K7" s="121"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="216"/>
+      <c r="B8" s="221"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -10177,7 +10559,7 @@
       <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="216"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -10191,7 +10573,7 @@
       <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="216"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -10205,7 +10587,7 @@
       <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="216"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -10219,7 +10601,7 @@
       <c r="K11" s="121"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="216"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -10233,7 +10615,7 @@
       <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="216"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -10247,7 +10629,7 @@
       <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="216"/>
+      <c r="B14" s="221"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -10261,7 +10643,7 @@
       <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="216"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -10275,7 +10657,7 @@
       <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="216"/>
+      <c r="B16" s="221"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -10289,7 +10671,7 @@
       <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="216"/>
+      <c r="B17" s="221"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -10303,7 +10685,7 @@
       <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="216"/>
+      <c r="B18" s="221"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -10317,7 +10699,7 @@
       <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="217" t="s">
+      <c r="B19" s="222" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -10345,7 +10727,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="217"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -10375,7 +10757,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="217"/>
+      <c r="B21" s="222"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -10401,7 +10783,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="218" t="s">
+      <c r="B22" s="223" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -10431,7 +10813,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="218"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -10445,7 +10827,7 @@
       <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="218"/>
+      <c r="B24" s="223"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -10459,7 +10841,7 @@
       <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="218"/>
+      <c r="B25" s="223"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -10485,7 +10867,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="218"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -10501,7 +10883,7 @@
       <c r="K26" s="121"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="218"/>
+      <c r="B27" s="223"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -10515,7 +10897,7 @@
       <c r="K27" s="121"/>
     </row>
     <row r="28" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="219" t="s">
+      <c r="B28" s="224" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -10547,7 +10929,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="219"/>
+      <c r="B29" s="224"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -10577,7 +10959,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="212" t="s">
+      <c r="B30" s="217" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -10593,7 +10975,7 @@
       <c r="K30" s="181"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="213"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -10607,7 +10989,7 @@
       <c r="K31" s="164"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B32" s="214"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -10773,7 +11155,7 @@
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="225" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -10865,7 +11247,7 @@
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B5" s="221"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -11133,7 +11515,7 @@
       </c>
     </row>
     <row r="8" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="221" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -11223,7 +11605,7 @@
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B9" s="216"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -11311,7 +11693,7 @@
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B10" s="216"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -11399,7 +11781,7 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="216"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -11487,7 +11869,7 @@
       </c>
     </row>
     <row r="12" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="216"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -11575,7 +11957,7 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="216"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -11663,7 +12045,7 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="216"/>
+      <c r="B14" s="221"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -11751,7 +12133,7 @@
       </c>
     </row>
     <row r="15" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="216"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -11839,7 +12221,7 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="216"/>
+      <c r="B16" s="221"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -11927,7 +12309,7 @@
       </c>
     </row>
     <row r="17" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="216"/>
+      <c r="B17" s="221"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -12015,7 +12397,7 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="216"/>
+      <c r="B18" s="221"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -12103,7 +12485,7 @@
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B19" s="216"/>
+      <c r="B19" s="221"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -12191,7 +12573,7 @@
       </c>
     </row>
     <row r="20" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="216"/>
+      <c r="B20" s="221"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -12279,7 +12661,7 @@
       </c>
     </row>
     <row r="21" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="217" t="s">
+      <c r="B21" s="222" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -12369,7 +12751,7 @@
       </c>
     </row>
     <row r="22" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="217"/>
+      <c r="B22" s="222"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -12459,7 +12841,7 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B23" s="217"/>
+      <c r="B23" s="222"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
@@ -12547,7 +12929,7 @@
       </c>
     </row>
     <row r="24" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="217"/>
+      <c r="B24" s="222"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -12629,7 +13011,7 @@
       <c r="AE24" s="164"/>
     </row>
     <row r="25" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="218" t="s">
+      <c r="B25" s="223" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -12719,7 +13101,7 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B26" s="218"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -12807,7 +13189,7 @@
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B27" s="218"/>
+      <c r="B27" s="223"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -12895,7 +13277,7 @@
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B28" s="218"/>
+      <c r="B28" s="223"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -12983,7 +13365,7 @@
       </c>
     </row>
     <row r="29" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="218"/>
+      <c r="B29" s="223"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -13071,7 +13453,7 @@
       </c>
     </row>
     <row r="30" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="218"/>
+      <c r="B30" s="223"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -13159,7 +13541,7 @@
       </c>
     </row>
     <row r="31" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="219" t="s">
+      <c r="B31" s="224" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -13251,7 +13633,7 @@
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B32" s="222"/>
+      <c r="B32" s="227"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -13341,7 +13723,7 @@
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="217" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -13377,7 +13759,7 @@
       <c r="AE33" s="164"/>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B34" s="213"/>
+      <c r="B34" s="218"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -13411,7 +13793,7 @@
       <c r="AE34" s="164"/>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B35" s="214"/>
+      <c r="B35" s="219"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -13469,10 +13851,10 @@
   <dimension ref="A1:GW74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="FP24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="DK24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="GE3" sqref="GE3"/>
+      <selection pane="bottomRight" activeCell="DV5" sqref="DV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -13533,7 +13915,7 @@
     <col min="70" max="16384" width="11.5546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:196" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -14024,8 +14406,17 @@
       <c r="GC1" s="174"/>
       <c r="GD1" s="174"/>
       <c r="GE1" s="174"/>
+      <c r="GF1" s="174"/>
+      <c r="GG1" s="174"/>
+      <c r="GH1" s="174"/>
+      <c r="GI1" s="174"/>
+      <c r="GJ1" s="174"/>
+      <c r="GK1" s="174"/>
+      <c r="GL1" s="174"/>
+      <c r="GM1" s="174"/>
+      <c r="GN1" s="174"/>
     </row>
-    <row r="2" spans="1:187" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:196" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -14402,8 +14793,35 @@
       <c r="GE2" s="154" t="s">
         <v>2960</v>
       </c>
+      <c r="GF2" s="154" t="s">
+        <v>2987</v>
+      </c>
+      <c r="GG2" s="154" t="s">
+        <v>2987</v>
+      </c>
+      <c r="GH2" s="154" t="s">
+        <v>2987</v>
+      </c>
+      <c r="GI2" s="154" t="s">
+        <v>2987</v>
+      </c>
+      <c r="GJ2" s="154" t="s">
+        <v>3030</v>
+      </c>
+      <c r="GK2" s="154" t="s">
+        <v>3053</v>
+      </c>
+      <c r="GL2" s="154" t="s">
+        <v>3053</v>
+      </c>
+      <c r="GM2" s="154" t="s">
+        <v>3053</v>
+      </c>
+      <c r="GN2" s="154" t="s">
+        <v>3053</v>
+      </c>
     </row>
-    <row r="3" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:196" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -14656,11 +15074,11 @@
       <c r="DS3" s="105"/>
       <c r="DT3" s="105"/>
     </row>
-    <row r="4" spans="1:187" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:196" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="230" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -14914,11 +15332,11 @@
       <c r="DS4" s="105"/>
       <c r="DT4" s="105"/>
     </row>
-    <row r="5" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="226"/>
+      <c r="B5" s="231"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -15474,8 +15892,35 @@
       <c r="GE5" s="115" t="s">
         <v>2945</v>
       </c>
+      <c r="GF5" s="159" t="s">
+        <v>2961</v>
+      </c>
+      <c r="GG5" s="208" t="s">
+        <v>2974</v>
+      </c>
+      <c r="GH5" s="159" t="s">
+        <v>2988</v>
+      </c>
+      <c r="GI5" s="159" t="s">
+        <v>3006</v>
+      </c>
+      <c r="GJ5" s="159" t="s">
+        <v>3018</v>
+      </c>
+      <c r="GK5" s="159" t="s">
+        <v>3031</v>
+      </c>
+      <c r="GL5" s="115" t="s">
+        <v>3044</v>
+      </c>
+      <c r="GM5" s="115" t="s">
+        <v>3054</v>
+      </c>
+      <c r="GN5" s="115" t="s">
+        <v>3069</v>
+      </c>
     </row>
-    <row r="6" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -16033,12 +16478,39 @@
       <c r="GE6" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GF6" s="159" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GG6" s="208" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GH6" s="159" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GI6" s="159" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GJ6" s="159" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GK6" s="187" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GL6" s="115" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GM6" s="115" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GN6" s="115" t="s">
+        <v>1150</v>
+      </c>
     </row>
-    <row r="7" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="232" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -16594,12 +17066,39 @@
       <c r="GE7" s="115" t="s">
         <v>845</v>
       </c>
+      <c r="GF7" s="159" t="s">
+        <v>845</v>
+      </c>
+      <c r="GG7" s="208">
+        <v>20</v>
+      </c>
+      <c r="GH7" s="208">
+        <v>20</v>
+      </c>
+      <c r="GI7" s="208">
+        <v>20</v>
+      </c>
+      <c r="GJ7" s="159" t="s">
+        <v>845</v>
+      </c>
+      <c r="GK7" s="187">
+        <v>20</v>
+      </c>
+      <c r="GL7" s="115">
+        <v>20</v>
+      </c>
+      <c r="GM7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="GN7" s="115">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="227"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -17155,12 +17654,39 @@
       <c r="GE8" s="115">
         <v>3</v>
       </c>
+      <c r="GF8" s="159">
+        <v>3</v>
+      </c>
+      <c r="GG8" s="208">
+        <v>4</v>
+      </c>
+      <c r="GH8" s="159">
+        <v>4</v>
+      </c>
+      <c r="GI8" s="159">
+        <v>4</v>
+      </c>
+      <c r="GJ8" s="159">
+        <v>3</v>
+      </c>
+      <c r="GK8" s="115">
+        <v>3</v>
+      </c>
+      <c r="GL8" s="115">
+        <v>3</v>
+      </c>
+      <c r="GM8" s="115">
+        <v>6</v>
+      </c>
+      <c r="GN8" s="115">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="227"/>
+      <c r="B9" s="232"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -17716,12 +18242,39 @@
       <c r="GE9" s="115" t="s">
         <v>190</v>
       </c>
+      <c r="GF9" s="159" t="s">
+        <v>57</v>
+      </c>
+      <c r="GG9" s="208" t="s">
+        <v>94</v>
+      </c>
+      <c r="GH9" s="159" t="s">
+        <v>94</v>
+      </c>
+      <c r="GI9" s="159" t="s">
+        <v>94</v>
+      </c>
+      <c r="GJ9" s="159" t="s">
+        <v>2061</v>
+      </c>
+      <c r="GK9" s="159" t="s">
+        <v>57</v>
+      </c>
+      <c r="GL9" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="GM9" s="115" t="s">
+        <v>2708</v>
+      </c>
+      <c r="GN9" s="115" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="227"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -18277,12 +18830,39 @@
       <c r="GE10" s="115" t="s">
         <v>2873</v>
       </c>
+      <c r="GF10" s="159" t="s">
+        <v>57</v>
+      </c>
+      <c r="GG10" s="208" t="s">
+        <v>5</v>
+      </c>
+      <c r="GH10" s="159" t="s">
+        <v>5</v>
+      </c>
+      <c r="GI10" s="159" t="s">
+        <v>5</v>
+      </c>
+      <c r="GJ10" s="159" t="s">
+        <v>3019</v>
+      </c>
+      <c r="GK10" s="159" t="s">
+        <v>57</v>
+      </c>
+      <c r="GL10" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="GM10" s="115" t="s">
+        <v>1091</v>
+      </c>
+      <c r="GN10" s="115" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:187" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:196" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="228" t="s">
+      <c r="B11" s="233" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -18838,12 +19418,39 @@
       <c r="GE11" s="115" t="s">
         <v>32</v>
       </c>
+      <c r="GF11" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="GG11" s="209" t="s">
+        <v>2975</v>
+      </c>
+      <c r="GH11" s="159" t="s">
+        <v>2989</v>
+      </c>
+      <c r="GI11" s="159" t="s">
+        <v>3007</v>
+      </c>
+      <c r="GJ11" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="GK11" s="159" t="s">
+        <v>3032</v>
+      </c>
+      <c r="GL11" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="GM11" s="115" t="s">
+        <v>779</v>
+      </c>
+      <c r="GN11" s="115" t="s">
+        <v>1474</v>
+      </c>
     </row>
-    <row r="12" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="229"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -19397,12 +20004,39 @@
       <c r="GE12" s="115" t="s">
         <v>2008</v>
       </c>
+      <c r="GF12" s="159" t="s">
+        <v>2962</v>
+      </c>
+      <c r="GG12" s="208" t="s">
+        <v>2976</v>
+      </c>
+      <c r="GH12" s="159" t="s">
+        <v>2990</v>
+      </c>
+      <c r="GI12" s="159" t="s">
+        <v>3008</v>
+      </c>
+      <c r="GJ12" s="159" t="s">
+        <v>3020</v>
+      </c>
+      <c r="GK12" s="159" t="s">
+        <v>3033</v>
+      </c>
+      <c r="GL12" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="GM12" s="115" t="s">
+        <v>868</v>
+      </c>
+      <c r="GN12" s="115" t="s">
+        <v>2274</v>
+      </c>
     </row>
-    <row r="13" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="229"/>
+      <c r="B13" s="234"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -19956,12 +20590,39 @@
       <c r="GE13" s="115" t="s">
         <v>1561</v>
       </c>
+      <c r="GF13" s="159" t="s">
+        <v>2963</v>
+      </c>
+      <c r="GG13" s="208" t="s">
+        <v>2935</v>
+      </c>
+      <c r="GH13" s="159" t="s">
+        <v>2991</v>
+      </c>
+      <c r="GI13" s="159" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ13" s="159" t="s">
+        <v>3021</v>
+      </c>
+      <c r="GK13" s="159" t="s">
+        <v>2935</v>
+      </c>
+      <c r="GL13" s="115" t="s">
+        <v>3045</v>
+      </c>
+      <c r="GM13" s="115" t="s">
+        <v>1561</v>
+      </c>
+      <c r="GN13" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="229"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -20515,12 +21176,39 @@
       <c r="GE14" s="115" t="s">
         <v>2946</v>
       </c>
+      <c r="GF14" s="159" t="s">
+        <v>2964</v>
+      </c>
+      <c r="GG14" s="208" t="s">
+        <v>2977</v>
+      </c>
+      <c r="GH14" s="159" t="s">
+        <v>2992</v>
+      </c>
+      <c r="GI14" s="159" t="s">
+        <v>816</v>
+      </c>
+      <c r="GJ14" s="159" t="s">
+        <v>3022</v>
+      </c>
+      <c r="GK14" s="159" t="s">
+        <v>3034</v>
+      </c>
+      <c r="GL14" s="115" t="s">
+        <v>3046</v>
+      </c>
+      <c r="GM14" s="115" t="s">
+        <v>3055</v>
+      </c>
+      <c r="GN14" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="229"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -21074,12 +21762,39 @@
       <c r="GE15" s="115" t="s">
         <v>1679</v>
       </c>
+      <c r="GF15" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG15" s="208" t="s">
+        <v>2978</v>
+      </c>
+      <c r="GH15" s="159" t="s">
+        <v>2993</v>
+      </c>
+      <c r="GI15" s="159" t="s">
+        <v>2345</v>
+      </c>
+      <c r="GJ15" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK15" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM15" s="115" t="s">
+        <v>3056</v>
+      </c>
+      <c r="GN15" s="115" t="s">
+        <v>3070</v>
+      </c>
     </row>
-    <row r="16" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="229"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -21633,12 +22348,39 @@
       <c r="GE16" s="115" t="s">
         <v>2947</v>
       </c>
+      <c r="GF16" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG16" s="208" t="s">
+        <v>2979</v>
+      </c>
+      <c r="GH16" s="159" t="s">
+        <v>2994</v>
+      </c>
+      <c r="GI16" s="159" t="s">
+        <v>3009</v>
+      </c>
+      <c r="GJ16" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK16" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM16" s="115" t="s">
+        <v>3057</v>
+      </c>
+      <c r="GN16" s="115" t="s">
+        <v>3071</v>
+      </c>
     </row>
-    <row r="17" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="229"/>
+      <c r="B17" s="234"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -22192,12 +22934,39 @@
       <c r="GE17" s="115" t="s">
         <v>189</v>
       </c>
+      <c r="GF17" s="159" t="s">
+        <v>19</v>
+      </c>
+      <c r="GG17" s="208" t="s">
+        <v>2980</v>
+      </c>
+      <c r="GH17" s="159" t="s">
+        <v>2995</v>
+      </c>
+      <c r="GI17" s="159" t="s">
+        <v>3010</v>
+      </c>
+      <c r="GJ17" s="159" t="s">
+        <v>19</v>
+      </c>
+      <c r="GK17" s="159" t="s">
+        <v>19</v>
+      </c>
+      <c r="GL17" s="115" t="s">
+        <v>819</v>
+      </c>
+      <c r="GM17" s="115" t="s">
+        <v>1422</v>
+      </c>
+      <c r="GN17" s="115" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="18" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="229"/>
+      <c r="B18" s="234"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -22751,12 +23520,39 @@
       <c r="GE18" s="115" t="s">
         <v>2688</v>
       </c>
+      <c r="GF18" s="159" t="s">
+        <v>2965</v>
+      </c>
+      <c r="GG18" s="208" t="s">
+        <v>2981</v>
+      </c>
+      <c r="GH18" s="159" t="s">
+        <v>2996</v>
+      </c>
+      <c r="GI18" s="159" t="s">
+        <v>2762</v>
+      </c>
+      <c r="GJ18" s="159" t="s">
+        <v>2996</v>
+      </c>
+      <c r="GK18" s="159" t="s">
+        <v>3035</v>
+      </c>
+      <c r="GL18" s="115" t="s">
+        <v>2762</v>
+      </c>
+      <c r="GM18" s="115" t="s">
+        <v>2711</v>
+      </c>
+      <c r="GN18" s="115" t="s">
+        <v>2658</v>
+      </c>
     </row>
-    <row r="19" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="229"/>
+      <c r="B19" s="234"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -23310,12 +24106,39 @@
       <c r="GE19" s="115" t="s">
         <v>2948</v>
       </c>
+      <c r="GF19" s="159" t="s">
+        <v>2966</v>
+      </c>
+      <c r="GG19" s="208" t="s">
+        <v>2165</v>
+      </c>
+      <c r="GH19" s="159" t="s">
+        <v>2997</v>
+      </c>
+      <c r="GI19" s="159" t="s">
+        <v>3011</v>
+      </c>
+      <c r="GJ19" s="159" t="s">
+        <v>3023</v>
+      </c>
+      <c r="GK19" s="159" t="s">
+        <v>3036</v>
+      </c>
+      <c r="GL19" s="115" t="s">
+        <v>3047</v>
+      </c>
+      <c r="GM19" s="115" t="s">
+        <v>3058</v>
+      </c>
+      <c r="GN19" s="115" t="s">
+        <v>3072</v>
+      </c>
     </row>
-    <row r="20" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="229"/>
+      <c r="B20" s="234"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -23869,12 +24692,39 @@
       <c r="GE20" s="115" t="s">
         <v>2949</v>
       </c>
+      <c r="GF20" s="159" t="s">
+        <v>2967</v>
+      </c>
+      <c r="GG20" s="208" t="s">
+        <v>2349</v>
+      </c>
+      <c r="GH20" s="159" t="s">
+        <v>2998</v>
+      </c>
+      <c r="GI20" s="159" t="s">
+        <v>3012</v>
+      </c>
+      <c r="GJ20" s="159" t="s">
+        <v>3024</v>
+      </c>
+      <c r="GK20" s="159" t="s">
+        <v>3037</v>
+      </c>
+      <c r="GL20" s="115" t="s">
+        <v>2349</v>
+      </c>
+      <c r="GM20" s="115" t="s">
+        <v>2712</v>
+      </c>
+      <c r="GN20" s="115" t="s">
+        <v>1145</v>
+      </c>
     </row>
-    <row r="21" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="235" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -24424,12 +25274,39 @@
       <c r="GE21" s="115" t="s">
         <v>2950</v>
       </c>
+      <c r="GF21" s="159" t="s">
+        <v>2968</v>
+      </c>
+      <c r="GG21" s="208" t="s">
+        <v>2982</v>
+      </c>
+      <c r="GH21" s="159" t="s">
+        <v>2999</v>
+      </c>
+      <c r="GI21" s="159" t="s">
+        <v>3013</v>
+      </c>
+      <c r="GJ21" s="159" t="s">
+        <v>3025</v>
+      </c>
+      <c r="GK21" s="159" t="s">
+        <v>3038</v>
+      </c>
+      <c r="GL21" s="115" t="s">
+        <v>3048</v>
+      </c>
+      <c r="GM21" s="115" t="s">
+        <v>3059</v>
+      </c>
+      <c r="GN21" s="115" t="s">
+        <v>3073</v>
+      </c>
     </row>
-    <row r="22" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="230"/>
+      <c r="B22" s="235"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -24985,12 +25862,39 @@
       <c r="GE22" s="115" t="s">
         <v>2951</v>
       </c>
+      <c r="GF22" s="159" t="s">
+        <v>2969</v>
+      </c>
+      <c r="GG22" s="208" t="s">
+        <v>2983</v>
+      </c>
+      <c r="GH22" s="159" t="s">
+        <v>3000</v>
+      </c>
+      <c r="GI22" s="159" t="s">
+        <v>3014</v>
+      </c>
+      <c r="GJ22" s="159" t="s">
+        <v>3026</v>
+      </c>
+      <c r="GK22" s="159" t="s">
+        <v>3039</v>
+      </c>
+      <c r="GL22" s="115" t="s">
+        <v>3049</v>
+      </c>
+      <c r="GM22" s="115" t="s">
+        <v>3060</v>
+      </c>
+      <c r="GN22" s="115" t="s">
+        <v>3074</v>
+      </c>
     </row>
-    <row r="23" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="230"/>
+      <c r="B23" s="235"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -25546,12 +26450,39 @@
       <c r="GE23" s="115" t="s">
         <v>1586</v>
       </c>
+      <c r="GF23" s="159" t="s">
+        <v>2546</v>
+      </c>
+      <c r="GG23" s="208" t="s">
+        <v>24</v>
+      </c>
+      <c r="GH23" s="159" t="s">
+        <v>105</v>
+      </c>
+      <c r="GI23" s="159" t="s">
+        <v>105</v>
+      </c>
+      <c r="GJ23" s="159" t="s">
+        <v>77</v>
+      </c>
+      <c r="GK23" s="159" t="s">
+        <v>634</v>
+      </c>
+      <c r="GL23" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="GM23" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="GN23" s="115" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="24" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="230"/>
+      <c r="B24" s="235"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -26107,12 +27038,39 @@
       <c r="GE24" s="115">
         <v>3960</v>
       </c>
+      <c r="GF24" s="183">
+        <v>128</v>
+      </c>
+      <c r="GG24" s="208">
+        <v>15</v>
+      </c>
+      <c r="GH24" s="212">
+        <v>14</v>
+      </c>
+      <c r="GI24" s="213">
+        <v>60</v>
+      </c>
+      <c r="GJ24" s="183">
+        <v>194</v>
+      </c>
+      <c r="GK24" s="159">
+        <v>180</v>
+      </c>
+      <c r="GL24" s="183">
+        <v>232</v>
+      </c>
+      <c r="GM24" s="185">
+        <v>79</v>
+      </c>
+      <c r="GN24" s="115">
+        <v>371</v>
+      </c>
     </row>
-    <row r="25" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="230"/>
+      <c r="B25" s="235"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -26663,12 +27621,37 @@
       <c r="GE25" s="115" t="s">
         <v>2952</v>
       </c>
+      <c r="GF25" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG25" s="208"/>
+      <c r="GH25" s="159" t="s">
+        <v>3001</v>
+      </c>
+      <c r="GI25" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ25" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK25" s="159" t="s">
+        <v>3040</v>
+      </c>
+      <c r="GL25" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM25" s="115" t="s">
+        <v>3061</v>
+      </c>
+      <c r="GN25" s="239" t="s">
+        <v>3075</v>
+      </c>
     </row>
-    <row r="26" spans="1:187" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:196" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="231" t="s">
+      <c r="B26" s="236" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -27226,12 +28209,39 @@
       <c r="GE26" s="184" t="s">
         <v>849</v>
       </c>
+      <c r="GF26" s="159" t="s">
+        <v>696</v>
+      </c>
+      <c r="GG26" s="208" t="s">
+        <v>849</v>
+      </c>
+      <c r="GH26" s="159" t="s">
+        <v>849</v>
+      </c>
+      <c r="GI26" s="159" t="s">
+        <v>849</v>
+      </c>
+      <c r="GJ26" s="159" t="s">
+        <v>713</v>
+      </c>
+      <c r="GK26" s="159" t="s">
+        <v>696</v>
+      </c>
+      <c r="GL26" s="115" t="s">
+        <v>696</v>
+      </c>
+      <c r="GM26" s="169" t="s">
+        <v>1033</v>
+      </c>
+      <c r="GN26" s="159" t="s">
+        <v>699</v>
+      </c>
     </row>
-    <row r="27" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="231"/>
+      <c r="B27" s="236"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -27787,12 +28797,39 @@
       <c r="GE27" s="159">
         <v>4</v>
       </c>
+      <c r="GF27" s="159">
+        <v>7</v>
+      </c>
+      <c r="GG27" s="210">
+        <v>4</v>
+      </c>
+      <c r="GH27" s="159">
+        <v>4</v>
+      </c>
+      <c r="GI27" s="159">
+        <v>4</v>
+      </c>
+      <c r="GJ27" s="159">
+        <v>10</v>
+      </c>
+      <c r="GK27" s="159">
+        <v>7</v>
+      </c>
+      <c r="GL27" s="115">
+        <v>7</v>
+      </c>
+      <c r="GM27" s="115">
+        <v>4</v>
+      </c>
+      <c r="GN27" s="159">
+        <v>6</v>
+      </c>
     </row>
-    <row r="28" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="231"/>
+      <c r="B28" s="236"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -28346,12 +29383,39 @@
       <c r="GE28" s="159" t="s">
         <v>699</v>
       </c>
+      <c r="GF28" s="159" t="s">
+        <v>698</v>
+      </c>
+      <c r="GG28" s="208" t="s">
+        <v>696</v>
+      </c>
+      <c r="GH28" s="159" t="s">
+        <v>696</v>
+      </c>
+      <c r="GI28" s="159" t="s">
+        <v>696</v>
+      </c>
+      <c r="GJ28" s="159" t="s">
+        <v>696</v>
+      </c>
+      <c r="GK28" s="159" t="s">
+        <v>697</v>
+      </c>
+      <c r="GL28" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="GM28" s="115" t="s">
+        <v>1087</v>
+      </c>
+      <c r="GN28" s="159" t="s">
+        <v>700</v>
+      </c>
     </row>
-    <row r="29" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="231"/>
+      <c r="B29" s="236"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -28905,12 +29969,39 @@
       <c r="GE29" s="159">
         <v>6</v>
       </c>
+      <c r="GF29" s="182">
+        <v>2</v>
+      </c>
+      <c r="GG29" s="208">
+        <v>7</v>
+      </c>
+      <c r="GH29" s="182">
+        <v>7</v>
+      </c>
+      <c r="GI29" s="182">
+        <v>7</v>
+      </c>
+      <c r="GJ29" s="182">
+        <v>7</v>
+      </c>
+      <c r="GK29" s="159">
+        <v>6</v>
+      </c>
+      <c r="GL29" s="115">
+        <v>89</v>
+      </c>
+      <c r="GM29" s="184">
+        <v>18</v>
+      </c>
+      <c r="GN29" s="184">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="231"/>
+      <c r="B30" s="236"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -29464,12 +30555,39 @@
       <c r="GE30" s="159" t="s">
         <v>700</v>
       </c>
+      <c r="GF30" s="159" t="s">
+        <v>704</v>
+      </c>
+      <c r="GG30" s="208" t="s">
+        <v>1441</v>
+      </c>
+      <c r="GH30" s="159" t="s">
+        <v>697</v>
+      </c>
+      <c r="GI30" s="159" t="s">
+        <v>697</v>
+      </c>
+      <c r="GJ30" s="159" t="s">
+        <v>697</v>
+      </c>
+      <c r="GK30" s="159" t="s">
+        <v>698</v>
+      </c>
+      <c r="GL30" s="115" t="s">
+        <v>704</v>
+      </c>
+      <c r="GM30" s="115" t="s">
+        <v>1657</v>
+      </c>
+      <c r="GN30" s="159" t="s">
+        <v>849</v>
+      </c>
     </row>
-    <row r="31" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="231"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -30023,12 +31141,39 @@
       <c r="GE31" s="159">
         <v>6</v>
       </c>
+      <c r="GF31" s="159">
+        <v>14</v>
+      </c>
+      <c r="GG31" s="209">
+        <v>86</v>
+      </c>
+      <c r="GH31" s="159">
+        <v>6</v>
+      </c>
+      <c r="GI31" s="159">
+        <v>6</v>
+      </c>
+      <c r="GJ31" s="159">
+        <v>6</v>
+      </c>
+      <c r="GK31" s="159">
+        <v>2</v>
+      </c>
+      <c r="GL31" s="115">
+        <v>14</v>
+      </c>
+      <c r="GM31" s="185">
+        <v>93</v>
+      </c>
+      <c r="GN31" s="159">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="231"/>
+      <c r="B32" s="236"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -30582,12 +31727,39 @@
       <c r="GE32" s="184" t="s">
         <v>698</v>
       </c>
+      <c r="GF32" s="182" t="s">
+        <v>1440</v>
+      </c>
+      <c r="GG32" s="211" t="s">
+        <v>702</v>
+      </c>
+      <c r="GH32" s="182" t="s">
+        <v>704</v>
+      </c>
+      <c r="GI32" s="182" t="s">
+        <v>702</v>
+      </c>
+      <c r="GJ32" s="159" t="s">
+        <v>853</v>
+      </c>
+      <c r="GK32" s="159" t="s">
+        <v>704</v>
+      </c>
+      <c r="GL32" s="197" t="s">
+        <v>697</v>
+      </c>
+      <c r="GM32" s="184" t="s">
+        <v>698</v>
+      </c>
+      <c r="GN32" s="184" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="33" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="231"/>
+      <c r="B33" s="236"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -31141,12 +32313,39 @@
       <c r="GE33" s="184">
         <v>2</v>
       </c>
+      <c r="GF33" s="159">
+        <v>6</v>
+      </c>
+      <c r="GG33" s="210">
+        <v>14</v>
+      </c>
+      <c r="GH33" s="159">
+        <v>14</v>
+      </c>
+      <c r="GI33" s="182">
+        <v>14</v>
+      </c>
+      <c r="GJ33" s="159">
+        <v>12</v>
+      </c>
+      <c r="GK33" s="159">
+        <v>9</v>
+      </c>
+      <c r="GL33" s="184">
+        <v>6</v>
+      </c>
+      <c r="GM33" s="115">
+        <v>2</v>
+      </c>
+      <c r="GN33" s="184">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="231"/>
+      <c r="B34" s="236"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -31700,12 +32899,39 @@
       <c r="GE34" s="159" t="s">
         <v>704</v>
       </c>
+      <c r="GF34" s="182" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG34" s="211" t="s">
+        <v>698</v>
+      </c>
+      <c r="GH34" s="182" t="s">
+        <v>698</v>
+      </c>
+      <c r="GI34" s="159" t="s">
+        <v>698</v>
+      </c>
+      <c r="GJ34" s="159" t="s">
+        <v>698</v>
+      </c>
+      <c r="GK34" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL34" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM34" s="115" t="s">
+        <v>702</v>
+      </c>
+      <c r="GN34" s="159" t="s">
+        <v>702</v>
+      </c>
     </row>
-    <row r="35" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="231"/>
+      <c r="B35" s="236"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -32259,12 +33485,39 @@
       <c r="GE35" s="159">
         <v>3</v>
       </c>
+      <c r="GF35" s="182" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG35" s="210">
+        <v>2</v>
+      </c>
+      <c r="GH35" s="182">
+        <v>2</v>
+      </c>
+      <c r="GI35" s="159">
+        <v>2</v>
+      </c>
+      <c r="GJ35" s="159">
+        <v>2</v>
+      </c>
+      <c r="GK35" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL35" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM35" s="115">
+        <v>3</v>
+      </c>
+      <c r="GN35" s="159">
+        <v>3</v>
+      </c>
     </row>
-    <row r="36" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="231"/>
+      <c r="B36" s="236"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -32818,12 +34071,39 @@
       <c r="GE36" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF36" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG36" s="208" t="s">
+        <v>697</v>
+      </c>
+      <c r="GH36" s="159" t="s">
+        <v>1441</v>
+      </c>
+      <c r="GI36" s="159" t="s">
+        <v>1441</v>
+      </c>
+      <c r="GJ36" s="182" t="s">
+        <v>704</v>
+      </c>
+      <c r="GK36" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL36" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM36" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN36" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="231"/>
+      <c r="B37" s="236"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -33377,12 +34657,39 @@
       <c r="GE37" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF37" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG37" s="210">
+        <v>6</v>
+      </c>
+      <c r="GH37" s="159">
+        <v>86</v>
+      </c>
+      <c r="GI37" s="159">
+        <v>86</v>
+      </c>
+      <c r="GJ37" s="159">
+        <v>3</v>
+      </c>
+      <c r="GK37" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL37" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM37" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN37" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="231"/>
+      <c r="B38" s="236"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -33936,12 +35243,39 @@
       <c r="GE38" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG38" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN38" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="39" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="231"/>
+      <c r="B39" s="236"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -34495,12 +35829,39 @@
       <c r="GE39" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG39" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN39" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="231"/>
+      <c r="B40" s="236"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -35054,12 +36415,39 @@
       <c r="GE40" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG40" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN40" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="231"/>
+      <c r="B41" s="236"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -35613,12 +37001,39 @@
       <c r="GE41" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG41" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN41" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="231"/>
+      <c r="B42" s="236"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -36172,12 +37587,39 @@
       <c r="GE42" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG42" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN42" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="231"/>
+      <c r="B43" s="236"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -36731,12 +38173,39 @@
       <c r="GE43" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG43" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN43" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="231"/>
+      <c r="B44" s="236"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -37290,12 +38759,39 @@
       <c r="GE44" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG44" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN44" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="231"/>
+      <c r="B45" s="236"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -37849,12 +39345,39 @@
       <c r="GE45" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG45" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN45" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="231"/>
+      <c r="B46" s="236"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -38408,12 +39931,39 @@
       <c r="GE46" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG46" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN46" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="231"/>
+      <c r="B47" s="236"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -38967,12 +40517,39 @@
       <c r="GE47" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG47" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN47" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="231"/>
+      <c r="B48" s="236"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -39526,12 +41103,39 @@
       <c r="GE48" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG48" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN48" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:187" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="231"/>
+      <c r="B49" s="236"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -40085,12 +41689,39 @@
       <c r="GE49" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GF49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG49" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GH49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GI49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GJ49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GK49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GM49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GN49" s="159" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="231"/>
+      <c r="B50" s="236"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -40646,12 +42277,39 @@
       <c r="GE50" s="115" t="s">
         <v>2953</v>
       </c>
+      <c r="GF50" s="159" t="s">
+        <v>2970</v>
+      </c>
+      <c r="GG50" s="208" t="s">
+        <v>2984</v>
+      </c>
+      <c r="GH50" s="159" t="s">
+        <v>3002</v>
+      </c>
+      <c r="GI50" s="159" t="s">
+        <v>3015</v>
+      </c>
+      <c r="GJ50" s="159" t="s">
+        <v>3027</v>
+      </c>
+      <c r="GK50" s="159" t="s">
+        <v>1978</v>
+      </c>
+      <c r="GL50" s="115" t="s">
+        <v>2970</v>
+      </c>
+      <c r="GM50" s="115" t="s">
+        <v>2716</v>
+      </c>
+      <c r="GN50" s="115" t="s">
+        <v>2663</v>
+      </c>
     </row>
-    <row r="51" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="231"/>
+      <c r="B51" s="236"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -41207,12 +42865,39 @@
       <c r="GE51" s="115" t="s">
         <v>2954</v>
       </c>
+      <c r="GF51" s="159" t="s">
+        <v>2971</v>
+      </c>
+      <c r="GG51" s="208" t="s">
+        <v>2985</v>
+      </c>
+      <c r="GH51" s="159" t="s">
+        <v>3003</v>
+      </c>
+      <c r="GI51" s="159" t="s">
+        <v>3016</v>
+      </c>
+      <c r="GJ51" s="159" t="s">
+        <v>3028</v>
+      </c>
+      <c r="GK51" s="159" t="s">
+        <v>3041</v>
+      </c>
+      <c r="GL51" s="216" t="s">
+        <v>3050</v>
+      </c>
+      <c r="GM51" s="115" t="s">
+        <v>3062</v>
+      </c>
+      <c r="GN51" s="115" t="s">
+        <v>3076</v>
+      </c>
     </row>
-    <row r="52" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="231"/>
+      <c r="B52" s="236"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -41768,12 +43453,39 @@
       <c r="GE52" s="115" t="s">
         <v>2955</v>
       </c>
+      <c r="GF52" s="159" t="s">
+        <v>2972</v>
+      </c>
+      <c r="GG52" s="208" t="s">
+        <v>2986</v>
+      </c>
+      <c r="GH52" s="159" t="s">
+        <v>3004</v>
+      </c>
+      <c r="GI52" s="159" t="s">
+        <v>3017</v>
+      </c>
+      <c r="GJ52" s="159" t="s">
+        <v>3029</v>
+      </c>
+      <c r="GK52" s="159" t="s">
+        <v>3042</v>
+      </c>
+      <c r="GL52" s="115" t="s">
+        <v>3051</v>
+      </c>
+      <c r="GM52" s="115" t="s">
+        <v>3063</v>
+      </c>
+      <c r="GN52" s="115" t="s">
+        <v>3077</v>
+      </c>
     </row>
-    <row r="53" spans="1:187" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:196" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="232" t="s">
+      <c r="B53" s="237" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -42331,12 +44043,39 @@
       <c r="GE53" s="185" t="s">
         <v>860</v>
       </c>
+      <c r="GF53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GG53" s="210" t="s">
+        <v>207</v>
+      </c>
+      <c r="GH53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GI53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GJ53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GK53" s="185" t="s">
+        <v>207</v>
+      </c>
+      <c r="GL53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GM53" s="185" t="s">
+        <v>860</v>
+      </c>
+      <c r="GN53" s="185" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="54" spans="1:187" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:196" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="232"/>
+      <c r="B54" s="237"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -42892,12 +44631,39 @@
       <c r="GE54" s="115" t="s">
         <v>61</v>
       </c>
+      <c r="GF54" s="185" t="s">
+        <v>858</v>
+      </c>
+      <c r="GG54" s="210" t="s">
+        <v>858</v>
+      </c>
+      <c r="GH54" s="185" t="s">
+        <v>858</v>
+      </c>
+      <c r="GI54" s="185" t="s">
+        <v>858</v>
+      </c>
+      <c r="GJ54" s="185" t="s">
+        <v>858</v>
+      </c>
+      <c r="GK54" s="185" t="s">
+        <v>858</v>
+      </c>
+      <c r="GL54" s="185" t="s">
+        <v>858</v>
+      </c>
+      <c r="GM54" s="206" t="s">
+        <v>61</v>
+      </c>
+      <c r="GN54" s="185" t="s">
+        <v>858</v>
+      </c>
     </row>
-    <row r="55" spans="1:187" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:196" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="232"/>
+      <c r="B55" s="237"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -43453,12 +45219,39 @@
       <c r="GE55" s="115" t="s">
         <v>2956</v>
       </c>
+      <c r="GF55" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GG55" s="210" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GH55" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GI55" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GJ55" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GK55" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GL55" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GM55" s="115" t="s">
+        <v>3064</v>
+      </c>
+      <c r="GN55" s="185" t="s">
+        <v>2330</v>
+      </c>
     </row>
-    <row r="56" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="232"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -44012,12 +45805,39 @@
       <c r="GE56" s="115" t="s">
         <v>2957</v>
       </c>
+      <c r="GF56" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GG56" s="69" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GH56" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GI56" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GJ56" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GK56" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GL56" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GM56" s="115" t="s">
+        <v>3065</v>
+      </c>
+      <c r="GN56" s="185" t="s">
+        <v>2330</v>
+      </c>
     </row>
-    <row r="57" spans="1:187" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:196" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="232"/>
+      <c r="B57" s="237"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -44573,12 +46393,39 @@
       <c r="GE57" s="115" t="s">
         <v>2315</v>
       </c>
+      <c r="GF57" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GG57" s="69" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GH57" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GI57" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GJ57" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GK57" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GL57" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GM57" s="115" t="s">
+        <v>2083</v>
+      </c>
+      <c r="GN57" s="115" t="s">
+        <v>3078</v>
+      </c>
     </row>
-    <row r="58" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="232"/>
+      <c r="B58" s="237"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -45105,12 +46952,39 @@
       <c r="GE58" s="115" t="s">
         <v>2957</v>
       </c>
+      <c r="GF58" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GG58" s="69" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GH58" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GI58" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GJ58" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GK58" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GL58" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GM58" s="206" t="s">
+        <v>3066</v>
+      </c>
+      <c r="GN58" s="185" t="s">
+        <v>2330</v>
+      </c>
     </row>
-    <row r="59" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="232"/>
+      <c r="B59" s="237"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -45666,12 +47540,39 @@
       <c r="GE59" s="115" t="s">
         <v>2957</v>
       </c>
+      <c r="GF59" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GG59" s="69" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GH59" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GI59" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GJ59" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GK59" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GL59" s="185" t="s">
+        <v>2330</v>
+      </c>
+      <c r="GM59" s="206" t="s">
+        <v>3067</v>
+      </c>
+      <c r="GN59" s="185" t="s">
+        <v>2330</v>
+      </c>
     </row>
-    <row r="60" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="232"/>
+      <c r="B60" s="237"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -46227,12 +48128,39 @@
       <c r="GE60" s="65">
         <v>1</v>
       </c>
+      <c r="GF60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GG60" s="188">
+        <v>1</v>
+      </c>
+      <c r="GH60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GI60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GJ60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GK60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GL60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GM60" s="207">
+        <v>1</v>
+      </c>
+      <c r="GN60" s="184">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:187" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:196" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="233" t="s">
+      <c r="B61" s="238" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -46788,12 +48716,39 @@
       <c r="GE61" s="157">
         <v>45797</v>
       </c>
+      <c r="GF61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="GG61" s="205">
+        <v>45413</v>
+      </c>
+      <c r="GH61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="GI61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="GJ61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="GK61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="GL61" s="192">
+        <v>45413</v>
+      </c>
+      <c r="GM61" s="157">
+        <v>45796</v>
+      </c>
+      <c r="GN61" s="157">
+        <v>45796</v>
+      </c>
     </row>
-    <row r="62" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="233"/>
+      <c r="B62" s="238"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -47349,12 +49304,39 @@
       <c r="GE62" s="157">
         <v>45797</v>
       </c>
+      <c r="GF62" s="192">
+        <v>45736</v>
+      </c>
+      <c r="GG62" s="190">
+        <v>45709</v>
+      </c>
+      <c r="GH62" s="192">
+        <v>45736</v>
+      </c>
+      <c r="GI62" s="192">
+        <v>45736</v>
+      </c>
+      <c r="GJ62" s="193">
+        <v>45709</v>
+      </c>
+      <c r="GK62" s="193">
+        <v>45709</v>
+      </c>
+      <c r="GL62" s="193">
+        <v>45709</v>
+      </c>
+      <c r="GM62" s="157">
+        <v>45799</v>
+      </c>
+      <c r="GN62" s="157">
+        <v>45799</v>
+      </c>
     </row>
-    <row r="63" spans="1:187" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="233"/>
+      <c r="B63" s="238"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -47910,12 +49892,39 @@
       <c r="GE63" s="115" t="s">
         <v>2958</v>
       </c>
+      <c r="GF63" s="115" t="s">
+        <v>2331</v>
+      </c>
+      <c r="GG63" s="187" t="s">
+        <v>2386</v>
+      </c>
+      <c r="GH63" s="115" t="s">
+        <v>2386</v>
+      </c>
+      <c r="GI63" s="115" t="s">
+        <v>2386</v>
+      </c>
+      <c r="GJ63" s="159" t="s">
+        <v>2085</v>
+      </c>
+      <c r="GK63" s="115" t="s">
+        <v>2331</v>
+      </c>
+      <c r="GL63" s="115" t="s">
+        <v>2331</v>
+      </c>
+      <c r="GM63" s="115" t="s">
+        <v>3079</v>
+      </c>
+      <c r="GN63" s="115" t="s">
+        <v>3079</v>
+      </c>
     </row>
-    <row r="64" spans="1:187" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:196" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="233"/>
+      <c r="B64" s="238"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -48470,13 +50479,40 @@
       </c>
       <c r="GE64" s="115" t="s">
         <v>2959</v>
+      </c>
+      <c r="GF64" s="115" t="s">
+        <v>2973</v>
+      </c>
+      <c r="GG64" s="69" t="s">
+        <v>2332</v>
+      </c>
+      <c r="GH64" s="115" t="s">
+        <v>3005</v>
+      </c>
+      <c r="GI64" s="115" t="s">
+        <v>3005</v>
+      </c>
+      <c r="GJ64" s="159" t="s">
+        <v>72</v>
+      </c>
+      <c r="GK64" s="185" t="s">
+        <v>3043</v>
+      </c>
+      <c r="GL64" s="185" t="s">
+        <v>3043</v>
+      </c>
+      <c r="GM64" s="115" t="s">
+        <v>3068</v>
+      </c>
+      <c r="GN64" s="115" t="s">
+        <v>2669</v>
       </c>
     </row>
     <row r="65" spans="1:205" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="233"/>
+      <c r="B65" s="238"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -48735,12 +50771,39 @@
       <c r="GE65" s="157">
         <v>45800</v>
       </c>
+      <c r="GF65" s="192">
+        <v>45801</v>
+      </c>
+      <c r="GG65" s="190">
+        <v>45801</v>
+      </c>
+      <c r="GH65" s="192">
+        <v>45801</v>
+      </c>
+      <c r="GI65" s="192">
+        <v>45801</v>
+      </c>
+      <c r="GJ65" s="193">
+        <v>45782</v>
+      </c>
+      <c r="GK65" s="193">
+        <v>45803</v>
+      </c>
+      <c r="GL65" s="192">
+        <v>45798</v>
+      </c>
+      <c r="GM65" s="157">
+        <v>45803</v>
+      </c>
+      <c r="GN65" s="157">
+        <v>45803</v>
+      </c>
     </row>
     <row r="66" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="233"/>
+      <c r="B66" s="238"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -48997,12 +51060,39 @@
       <c r="GE66" s="169" t="s">
         <v>30</v>
       </c>
+      <c r="GF66" s="169" t="s">
+        <v>1843</v>
+      </c>
+      <c r="GG66" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="GH66" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="GI66" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="GJ66" s="194" t="s">
+        <v>1843</v>
+      </c>
+      <c r="GK66" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="GL66" s="169" t="s">
+        <v>3052</v>
+      </c>
+      <c r="GM66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GN66" s="115" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="67" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:205" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="233"/>
+      <c r="B67" s="238"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -49109,12 +51199,21 @@
       <c r="GC67" s="156"/>
       <c r="GD67" s="191"/>
       <c r="GE67" s="169"/>
+      <c r="GF67" s="156"/>
+      <c r="GG67" s="191"/>
+      <c r="GH67" s="186"/>
+      <c r="GI67" s="214"/>
+      <c r="GJ67" s="194"/>
+      <c r="GK67" s="194"/>
+      <c r="GL67" s="169"/>
+      <c r="GM67" s="169"/>
+      <c r="GN67" s="206"/>
     </row>
     <row r="68" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="223" t="s">
+      <c r="B68" s="228" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -49177,12 +51276,17 @@
       <c r="FX68" s="169"/>
       <c r="FZ68" s="169"/>
       <c r="GC68" s="156"/>
+      <c r="GF68" s="156"/>
+      <c r="GI68" s="215"/>
+      <c r="GL68" s="169"/>
+      <c r="GM68" s="169"/>
+      <c r="GN68" s="206"/>
     </row>
     <row r="69" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="223"/>
+      <c r="B69" s="228"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -49231,7 +51335,7 @@
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="223"/>
+      <c r="B70" s="228"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -49270,7 +51374,7 @@
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="223"/>
+      <c r="B71" s="228"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -49305,7 +51409,7 @@
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="224"/>
+      <c r="B72" s="229"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -50209,7 +52313,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="230" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -50378,7 +52482,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="226"/>
+      <c r="B5" s="231"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -50710,7 +52814,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="232" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -50877,7 +52981,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="227"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -51044,7 +53148,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="227"/>
+      <c r="B9" s="232"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -51211,7 +53315,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="227"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -51378,7 +53482,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="228" t="s">
+      <c r="B11" s="233" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -51545,7 +53649,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="229"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -51710,7 +53814,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="229"/>
+      <c r="B13" s="234"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -51875,7 +53979,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="229"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -52040,7 +54144,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="229"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -52205,7 +54309,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="229"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -52370,7 +54474,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="229"/>
+      <c r="B17" s="234"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -52535,7 +54639,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="229"/>
+      <c r="B18" s="234"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -52700,7 +54804,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="229"/>
+      <c r="B19" s="234"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -52865,7 +54969,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="229"/>
+      <c r="B20" s="234"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -53030,7 +55134,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="235" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -53238,7 +55342,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="230"/>
+      <c r="B22" s="235"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -53446,7 +55550,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="230"/>
+      <c r="B23" s="235"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -53613,7 +55717,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="230"/>
+      <c r="B24" s="235"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -53780,7 +55884,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="230"/>
+      <c r="B25" s="235"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -53945,7 +56049,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="231" t="s">
+      <c r="B26" s="236" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -54114,7 +56218,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="231"/>
+      <c r="B27" s="236"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -54281,7 +56385,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="231"/>
+      <c r="B28" s="236"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -54446,7 +56550,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="231"/>
+      <c r="B29" s="236"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -54611,7 +56715,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="231"/>
+      <c r="B30" s="236"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -54776,7 +56880,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="231"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -54941,7 +57045,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="231"/>
+      <c r="B32" s="236"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -55106,7 +57210,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="231"/>
+      <c r="B33" s="236"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -55271,7 +57375,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="231"/>
+      <c r="B34" s="236"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -55436,7 +57540,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="231"/>
+      <c r="B35" s="236"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -55601,7 +57705,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="231"/>
+      <c r="B36" s="236"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -55766,7 +57870,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="231"/>
+      <c r="B37" s="236"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -55931,7 +58035,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="231"/>
+      <c r="B38" s="236"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -56096,7 +58200,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="231"/>
+      <c r="B39" s="236"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -56261,7 +58365,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="231"/>
+      <c r="B40" s="236"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -56426,7 +58530,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="231"/>
+      <c r="B41" s="236"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -56591,7 +58695,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="231"/>
+      <c r="B42" s="236"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -56756,7 +58860,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="231"/>
+      <c r="B43" s="236"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -56921,7 +59025,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="231"/>
+      <c r="B44" s="236"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -57086,7 +59190,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="231"/>
+      <c r="B45" s="236"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -57251,7 +59355,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="231"/>
+      <c r="B46" s="236"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -57416,7 +59520,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="231"/>
+      <c r="B47" s="236"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -57581,7 +59685,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="231"/>
+      <c r="B48" s="236"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -57746,7 +59850,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="231"/>
+      <c r="B49" s="236"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -57911,7 +60015,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="231"/>
+      <c r="B50" s="236"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -58078,7 +60182,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="231"/>
+      <c r="B51" s="236"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -58245,7 +60349,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="231"/>
+      <c r="B52" s="236"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -58412,7 +60516,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="232" t="s">
+      <c r="B53" s="237" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -58581,7 +60685,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="232"/>
+      <c r="B54" s="237"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -58748,7 +60852,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="232"/>
+      <c r="B55" s="237"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -58915,7 +61019,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="232"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -59080,7 +61184,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="232"/>
+      <c r="B57" s="237"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -59247,7 +61351,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B58" s="232"/>
+      <c r="B58" s="237"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -59412,7 +61516,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="232"/>
+      <c r="B59" s="237"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -59579,7 +61683,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B60" s="232"/>
+      <c r="B60" s="237"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -59746,7 +61850,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="233" t="s">
+      <c r="B61" s="238" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -59913,7 +62017,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="233"/>
+      <c r="B62" s="238"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -60080,7 +62184,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="233"/>
+      <c r="B63" s="238"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -60247,7 +62351,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="233"/>
+      <c r="B64" s="238"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -60414,7 +62518,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="233"/>
+      <c r="B65" s="238"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -60431,7 +62535,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="233"/>
+      <c r="B66" s="238"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -60450,7 +62554,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="233"/>
+      <c r="B67" s="238"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -60469,7 +62573,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B68" s="223" t="s">
+      <c r="B68" s="228" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -60479,7 +62583,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B69" s="223"/>
+      <c r="B69" s="228"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -60487,7 +62591,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B70" s="223"/>
+      <c r="B70" s="228"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -60495,7 +62599,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B71" s="223"/>
+      <c r="B71" s="228"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -60507,7 +62611,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B72" s="224"/>
+      <c r="B72" s="229"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -61087,7 +63191,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="230" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -61167,7 +63271,7 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="226"/>
+      <c r="B5" s="231"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -61321,7 +63425,7 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="232" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -61399,7 +63503,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="227"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -61477,7 +63581,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="227"/>
+      <c r="B9" s="232"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -61555,7 +63659,7 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="227"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -61633,7 +63737,7 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="228" t="s">
+      <c r="B11" s="233" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -61711,7 +63815,7 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="229"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -61787,7 +63891,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="229"/>
+      <c r="B13" s="234"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -61863,7 +63967,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="229"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -61939,7 +64043,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="229"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -62015,7 +64119,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="229"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -62091,7 +64195,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="229"/>
+      <c r="B17" s="234"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -62167,7 +64271,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="229"/>
+      <c r="B18" s="234"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -62243,7 +64347,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="229"/>
+      <c r="B19" s="234"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -62319,7 +64423,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="229"/>
+      <c r="B20" s="234"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -62395,7 +64499,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="235" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -62473,7 +64577,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="230"/>
+      <c r="B22" s="235"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -62551,7 +64655,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="230"/>
+      <c r="B23" s="235"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -62629,7 +64733,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B24" s="230"/>
+      <c r="B24" s="235"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -62707,7 +64811,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="230"/>
+      <c r="B25" s="235"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -62783,7 +64887,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B26" s="231" t="s">
+      <c r="B26" s="236" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -62863,7 +64967,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="231"/>
+      <c r="B27" s="236"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -62941,7 +65045,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="231"/>
+      <c r="B28" s="236"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -63017,7 +65121,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="231"/>
+      <c r="B29" s="236"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -63093,7 +65197,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="231"/>
+      <c r="B30" s="236"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -63169,7 +65273,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="231"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -63245,7 +65349,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="231"/>
+      <c r="B32" s="236"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -63321,7 +65425,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="231"/>
+      <c r="B33" s="236"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -63397,7 +65501,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="231"/>
+      <c r="B34" s="236"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -63473,7 +65577,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="231"/>
+      <c r="B35" s="236"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -63549,7 +65653,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="231"/>
+      <c r="B36" s="236"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -63625,7 +65729,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="231"/>
+      <c r="B37" s="236"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -63701,7 +65805,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="231"/>
+      <c r="B38" s="236"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -63777,7 +65881,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="231"/>
+      <c r="B39" s="236"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -63853,7 +65957,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="231"/>
+      <c r="B40" s="236"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -63929,7 +66033,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="231"/>
+      <c r="B41" s="236"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -64005,7 +66109,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="231"/>
+      <c r="B42" s="236"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -64081,7 +66185,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="231"/>
+      <c r="B43" s="236"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -64157,7 +66261,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="231"/>
+      <c r="B44" s="236"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -64233,7 +66337,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="231"/>
+      <c r="B45" s="236"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -64309,7 +66413,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="231"/>
+      <c r="B46" s="236"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -64385,7 +66489,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="231"/>
+      <c r="B47" s="236"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -64461,7 +66565,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="231"/>
+      <c r="B48" s="236"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -64537,7 +66641,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="231"/>
+      <c r="B49" s="236"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -64613,7 +66717,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="231"/>
+      <c r="B50" s="236"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -64691,7 +66795,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="231"/>
+      <c r="B51" s="236"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -64769,7 +66873,7 @@
       </c>
     </row>
     <row r="52" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="231"/>
+      <c r="B52" s="236"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -64847,7 +66951,7 @@
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B53" s="232" t="s">
+      <c r="B53" s="237" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -64927,7 +67031,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="232"/>
+      <c r="B54" s="237"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -65005,7 +67109,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="232"/>
+      <c r="B55" s="237"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -65083,7 +67187,7 @@
       </c>
     </row>
     <row r="56" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="232"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -65159,7 +67263,7 @@
       </c>
     </row>
     <row r="57" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="232"/>
+      <c r="B57" s="237"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -65237,7 +67341,7 @@
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B58" s="232"/>
+      <c r="B58" s="237"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -65313,7 +67417,7 @@
       </c>
     </row>
     <row r="59" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="232"/>
+      <c r="B59" s="237"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -65391,7 +67495,7 @@
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B60" s="232"/>
+      <c r="B60" s="237"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -65469,7 +67573,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B61" s="233" t="s">
+      <c r="B61" s="238" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -65547,7 +67651,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="233"/>
+      <c r="B62" s="238"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -65625,7 +67729,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="233"/>
+      <c r="B63" s="238"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -65703,7 +67807,7 @@
       </c>
     </row>
     <row r="64" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="233"/>
+      <c r="B64" s="238"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -65781,7 +67885,7 @@
       </c>
     </row>
     <row r="65" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="233"/>
+      <c r="B65" s="238"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -65811,7 +67915,7 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="233"/>
+      <c r="B66" s="238"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -65841,7 +67945,7 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="233"/>
+      <c r="B67" s="238"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -65871,7 +67975,7 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B68" s="223" t="s">
+      <c r="B68" s="228" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -65892,7 +67996,7 @@
       <c r="Q68" s="105"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B69" s="223"/>
+      <c r="B69" s="228"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -65911,7 +68015,7 @@
       <c r="Q69" s="105"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B70" s="223"/>
+      <c r="B70" s="228"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -65930,7 +68034,7 @@
       <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B71" s="223"/>
+      <c r="B71" s="228"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -65949,7 +68053,7 @@
       <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B72" s="224"/>
+      <c r="B72" s="229"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_content_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4D7B6-8174-47F2-A6EE-269A73402F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D6B80-1B66-47CD-A291-121CC0E464A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14577" uniqueCount="3080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14682" uniqueCount="3117">
   <si>
     <t>Description</t>
   </si>
@@ -9271,6 +9271,117 @@
   </si>
   <si>
     <t>Marina Haug</t>
+  </si>
+  <si>
+    <t>6_URB_CityBlocks_Sample_Freiburg_Germany_McShane_2025</t>
+  </si>
+  <si>
+    <t>Urban metabolism indicators</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>71 randomly selected city blocks in Freiburg im Breisgau, Germany</t>
+  </si>
+  <si>
+    <t>buildings and infrastructure (roads), and parking spaces</t>
+  </si>
+  <si>
+    <t>ca. 15 different building and infrastructure types</t>
+  </si>
+  <si>
+    <t>one aggregate construction material group</t>
+  </si>
+  <si>
+    <t>Freiburg im Breisgau, Germany</t>
+  </si>
+  <si>
+    <t>city-level data for 71 randomly selected city blocks</t>
+  </si>
+  <si>
+    <t>ca. 2023</t>
+  </si>
+  <si>
+    <t>land use shares, material stocks, and embodied GHG for 71 randomly selected city blocks in Freiburg im Breisgau, Germany. Extracted from the master thesis of Alexander McShane</t>
+  </si>
+  <si>
+    <t>urban metabolism; MFA; energy; material; Freiburg; parking; buildings; transport; roads</t>
+  </si>
+  <si>
+    <t>Value(y,t,1,I)</t>
+  </si>
+  <si>
+    <t>road, neighbourhood, collector or residential for city block sample number 15 in Freiburg im Breisgau measured in ca. 2023 is 334 m².</t>
+  </si>
+  <si>
+    <t>[Aspect 4] for city block sample number [Aspect 3] in [Aspect 1] measured in [Aspect 2] is [Value].</t>
+  </si>
+  <si>
+    <t>Alexander McSHANE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6094/UNIFR/266378</t>
+  </si>
+  <si>
+    <t>Original data compiled in xlsx file and archived on Zenodo with the IEDC 2025 archive.</t>
+  </si>
+  <si>
+    <t>Numbers extracted from original source (csv) via Excel</t>
+  </si>
+  <si>
+    <t>June 2, 2025 update</t>
+  </si>
+  <si>
+    <t>3_LT_Plastics_Buildings_Germany_Schmidt_et_al_2025</t>
+  </si>
+  <si>
+    <t>Buildings and building parts, infrastructure</t>
+  </si>
+  <si>
+    <t>about 25 different components of buildings and infrastructure</t>
+  </si>
+  <si>
+    <t>plastics</t>
+  </si>
+  <si>
+    <t>all polymers, EPS, XPS, and PUR</t>
+  </si>
+  <si>
+    <t>one value for all age-cohorts</t>
+  </si>
+  <si>
+    <t>Lifetime of buildings, building parts, and infrastructure for plastics in building and construction components in Germany</t>
+  </si>
+  <si>
+    <t>lifetime; buildings; infrastructure; lifetime distribution; useful life; lifespan; use phase; Germany; plastics</t>
+  </si>
+  <si>
+    <t>Lifetime of polystyrene, expanded (EPS) in insulation, flat roof in use phase in Germany built in all years is 50 yr.</t>
+  </si>
+  <si>
+    <t>[Data type] of [Aspect 1] in [Aspect 2] in [Aspect 3] in [Aspect 4] built in [Aspect 5] is [Value].</t>
+  </si>
+  <si>
+    <t>CC BY ND 4.0</t>
+  </si>
+  <si>
+    <t>Sarah SCHMIDT</t>
+  </si>
+  <si>
+    <t>https://ars.els-cdn.com/content/image/1-s2.0-S2352340925003841-mmc1.pdf</t>
+  </si>
+  <si>
+    <t>table in supplementary pdf file (page 15)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.dib.2025.111654</t>
+  </si>
+  <si>
+    <t>Numbers copied from original sources to Excel spreadsheet with pdf tools software, manual review and correction afterwards</t>
+  </si>
+  <si>
+    <t>June 5, 2025 update</t>
   </si>
 </sst>
 </file>
@@ -10046,6 +10157,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10112,7 +10224,6 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -10453,7 +10564,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="221" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -10485,7 +10596,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="220"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="26" t="s">
         <v>422</v>
       </c>
@@ -10515,7 +10626,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="221" t="s">
+      <c r="B6" s="222" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -10531,7 +10642,7 @@
       <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="221"/>
+      <c r="B7" s="222"/>
       <c r="C7" s="26" t="s">
         <v>424</v>
       </c>
@@ -10545,7 +10656,7 @@
       <c r="K7" s="121"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="221"/>
+      <c r="B8" s="222"/>
       <c r="C8" s="26" t="s">
         <v>425</v>
       </c>
@@ -10559,7 +10670,7 @@
       <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="221"/>
+      <c r="B9" s="222"/>
       <c r="C9" s="28" t="s">
         <v>426</v>
       </c>
@@ -10573,7 +10684,7 @@
       <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="221"/>
+      <c r="B10" s="222"/>
       <c r="C10" s="27" t="s">
         <v>427</v>
       </c>
@@ -10587,7 +10698,7 @@
       <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="221"/>
+      <c r="B11" s="222"/>
       <c r="C11" s="27" t="s">
         <v>428</v>
       </c>
@@ -10601,7 +10712,7 @@
       <c r="K11" s="121"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="221"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="27" t="s">
         <v>429</v>
       </c>
@@ -10615,7 +10726,7 @@
       <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="221"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="27" t="s">
         <v>430</v>
       </c>
@@ -10629,7 +10740,7 @@
       <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="221"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="27" t="s">
         <v>431</v>
       </c>
@@ -10643,7 +10754,7 @@
       <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="221"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="27" t="s">
         <v>432</v>
       </c>
@@ -10657,7 +10768,7 @@
       <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="221"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="27" t="s">
         <v>433</v>
       </c>
@@ -10671,7 +10782,7 @@
       <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="221"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="27" t="s">
         <v>434</v>
       </c>
@@ -10685,7 +10796,7 @@
       <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="221"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="27" t="s">
         <v>435</v>
       </c>
@@ -10699,7 +10810,7 @@
       <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="222" t="s">
+      <c r="B19" s="223" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -10727,7 +10838,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="222"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="27" t="s">
         <v>437</v>
       </c>
@@ -10757,7 +10868,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="222"/>
+      <c r="B21" s="223"/>
       <c r="C21" s="27" t="s">
         <v>438</v>
       </c>
@@ -10783,7 +10894,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
+      <c r="B22" s="224" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -10813,7 +10924,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="223"/>
+      <c r="B23" s="224"/>
       <c r="C23" s="26" t="s">
         <v>440</v>
       </c>
@@ -10827,7 +10938,7 @@
       <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="223"/>
+      <c r="B24" s="224"/>
       <c r="C24" s="25" t="s">
         <v>441</v>
       </c>
@@ -10841,7 +10952,7 @@
       <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="223"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="25" t="s">
         <v>443</v>
       </c>
@@ -10867,7 +10978,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="223"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="25" t="s">
         <v>444</v>
       </c>
@@ -10883,7 +10994,7 @@
       <c r="K26" s="121"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="223"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="25" t="s">
         <v>445</v>
       </c>
@@ -10897,7 +11008,7 @@
       <c r="K27" s="121"/>
     </row>
     <row r="28" spans="2:11" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="224" t="s">
+      <c r="B28" s="225" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -10929,7 +11040,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="224"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="25" t="s">
         <v>447</v>
       </c>
@@ -10959,7 +11070,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="217" t="s">
+      <c r="B30" s="218" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -10975,7 +11086,7 @@
       <c r="K30" s="181"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="218"/>
+      <c r="B31" s="219"/>
       <c r="C31" s="108" t="s">
         <v>449</v>
       </c>
@@ -10989,7 +11100,7 @@
       <c r="K31" s="164"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B32" s="219"/>
+      <c r="B32" s="220"/>
       <c r="C32" s="109" t="s">
         <v>450</v>
       </c>
@@ -11155,7 +11266,7 @@
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="226" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -11247,7 +11358,7 @@
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B5" s="226"/>
+      <c r="B5" s="227"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
       </c>
@@ -11515,7 +11626,7 @@
       </c>
     </row>
     <row r="8" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="222" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -11605,7 +11716,7 @@
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B9" s="221"/>
+      <c r="B9" s="222"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
       </c>
@@ -11693,7 +11804,7 @@
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B10" s="221"/>
+      <c r="B10" s="222"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
       </c>
@@ -11781,7 +11892,7 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="221"/>
+      <c r="B11" s="222"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
       </c>
@@ -11869,7 +11980,7 @@
       </c>
     </row>
     <row r="12" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="221"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -11957,7 +12068,7 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="221"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -12045,7 +12156,7 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="221"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -12133,7 +12244,7 @@
       </c>
     </row>
     <row r="15" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="221"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -12221,7 +12332,7 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="221"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -12309,7 +12420,7 @@
       </c>
     </row>
     <row r="17" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="221"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -12397,7 +12508,7 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="221"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -12485,7 +12596,7 @@
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B19" s="221"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -12573,7 +12684,7 @@
       </c>
     </row>
     <row r="20" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="221"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -12661,7 +12772,7 @@
       </c>
     </row>
     <row r="21" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="223" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -12751,7 +12862,7 @@
       </c>
     </row>
     <row r="22" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="222"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -12841,7 +12952,7 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B23" s="222"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
       </c>
@@ -12929,7 +13040,7 @@
       </c>
     </row>
     <row r="24" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="222"/>
+      <c r="B24" s="223"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
       </c>
@@ -13011,7 +13122,7 @@
       <c r="AE24" s="164"/>
     </row>
     <row r="25" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="223" t="s">
+      <c r="B25" s="224" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="54" t="s">
@@ -13101,7 +13212,7 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B26" s="223"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
       </c>
@@ -13189,7 +13300,7 @@
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B27" s="223"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
       </c>
@@ -13277,7 +13388,7 @@
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B28" s="223"/>
+      <c r="B28" s="224"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
       </c>
@@ -13365,7 +13476,7 @@
       </c>
     </row>
     <row r="29" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="223"/>
+      <c r="B29" s="224"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
@@ -13453,7 +13564,7 @@
       </c>
     </row>
     <row r="30" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="223"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
       </c>
@@ -13541,7 +13652,7 @@
       </c>
     </row>
     <row r="31" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="224" t="s">
+      <c r="B31" s="225" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -13633,7 +13744,7 @@
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B32" s="227"/>
+      <c r="B32" s="228"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
       </c>
@@ -13723,7 +13834,7 @@
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B33" s="217" t="s">
+      <c r="B33" s="218" t="s">
         <v>185</v>
       </c>
       <c r="C33" s="83" t="s">
@@ -13759,7 +13870,7 @@
       <c r="AE33" s="164"/>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B34" s="218"/>
+      <c r="B34" s="219"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
       </c>
@@ -13793,7 +13904,7 @@
       <c r="AE34" s="164"/>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B35" s="219"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
       </c>
@@ -13851,10 +13962,10 @@
   <dimension ref="A1:GW74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="DK24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="FZ33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="DV5" sqref="DV5"/>
+      <selection pane="bottomRight" activeCell="GP3" sqref="GP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -13915,7 +14026,7 @@
     <col min="70" max="16384" width="11.5546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:196" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:198" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -14415,8 +14526,10 @@
       <c r="GL1" s="174"/>
       <c r="GM1" s="174"/>
       <c r="GN1" s="174"/>
+      <c r="GO1" s="174"/>
+      <c r="GP1" s="174"/>
     </row>
-    <row r="2" spans="1:196" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:198" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -14820,8 +14933,14 @@
       <c r="GN2" s="154" t="s">
         <v>3053</v>
       </c>
+      <c r="GO2" s="154" t="s">
+        <v>3099</v>
+      </c>
+      <c r="GP2" s="154" t="s">
+        <v>3116</v>
+      </c>
     </row>
-    <row r="3" spans="1:196" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:198" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -15074,11 +15193,11 @@
       <c r="DS3" s="105"/>
       <c r="DT3" s="105"/>
     </row>
-    <row r="4" spans="1:196" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:198" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>1</v>
       </c>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="231" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -15332,11 +15451,11 @@
       <c r="DS4" s="105"/>
       <c r="DT4" s="105"/>
     </row>
-    <row r="5" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="231"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -15919,8 +16038,14 @@
       <c r="GN5" s="115" t="s">
         <v>3069</v>
       </c>
+      <c r="GO5" s="115" t="s">
+        <v>3080</v>
+      </c>
+      <c r="GP5" s="115" t="s">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="6" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -16505,12 +16630,18 @@
       <c r="GN6" s="115" t="s">
         <v>1150</v>
       </c>
+      <c r="GO6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP6" s="115" t="s">
+        <v>2490</v>
+      </c>
     </row>
-    <row r="7" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="92">
         <v>4</v>
       </c>
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="233" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -17093,12 +17224,18 @@
       <c r="GN7" s="115">
         <v>24</v>
       </c>
+      <c r="GO7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="GP7" s="115" t="s">
+        <v>845</v>
+      </c>
     </row>
-    <row r="8" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="92">
         <v>5</v>
       </c>
-      <c r="B8" s="232"/>
+      <c r="B8" s="233"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -17681,12 +17818,18 @@
       <c r="GN8" s="115">
         <v>1</v>
       </c>
+      <c r="GO8" s="115">
+        <v>6</v>
+      </c>
+      <c r="GP8" s="115">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="92">
         <v>6</v>
       </c>
-      <c r="B9" s="232"/>
+      <c r="B9" s="233"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -18269,12 +18412,18 @@
       <c r="GN9" s="115" t="s">
         <v>1</v>
       </c>
+      <c r="GO9" s="115" t="s">
+        <v>3081</v>
+      </c>
+      <c r="GP9" s="115" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="92">
         <v>7</v>
       </c>
-      <c r="B10" s="232"/>
+      <c r="B10" s="233"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -18857,12 +19006,18 @@
       <c r="GN10" s="115" t="s">
         <v>12</v>
       </c>
+      <c r="GO10" s="169" t="s">
+        <v>1091</v>
+      </c>
+      <c r="GP10" s="115" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="11" spans="1:196" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:198" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="92">
         <v>8</v>
       </c>
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="234" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -19445,12 +19600,18 @@
       <c r="GN11" s="115" t="s">
         <v>1474</v>
       </c>
+      <c r="GO11" s="115" t="s">
+        <v>3082</v>
+      </c>
+      <c r="GP11" s="115" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92">
         <v>9</v>
       </c>
-      <c r="B12" s="234"/>
+      <c r="B12" s="235"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -20031,12 +20192,18 @@
       <c r="GN12" s="115" t="s">
         <v>2274</v>
       </c>
+      <c r="GO12" s="115" t="s">
+        <v>3083</v>
+      </c>
+      <c r="GP12" s="115" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="13" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="92">
         <v>10</v>
       </c>
-      <c r="B13" s="234"/>
+      <c r="B13" s="235"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -20617,12 +20784,18 @@
       <c r="GN13" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GO13" s="115" t="s">
+        <v>3084</v>
+      </c>
+      <c r="GP13" s="115" t="s">
+        <v>3101</v>
+      </c>
     </row>
-    <row r="14" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="92">
         <v>11</v>
       </c>
-      <c r="B14" s="234"/>
+      <c r="B14" s="235"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -21203,12 +21376,18 @@
       <c r="GN14" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GO14" s="115" t="s">
+        <v>3085</v>
+      </c>
+      <c r="GP14" s="115" t="s">
+        <v>3102</v>
+      </c>
     </row>
-    <row r="15" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="92">
         <v>12</v>
       </c>
-      <c r="B15" s="234"/>
+      <c r="B15" s="235"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -21789,12 +21968,18 @@
       <c r="GN15" s="115" t="s">
         <v>3070</v>
       </c>
+      <c r="GO15" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="GP15" s="115" t="s">
+        <v>3103</v>
+      </c>
     </row>
-    <row r="16" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="92">
         <v>13</v>
       </c>
-      <c r="B16" s="234"/>
+      <c r="B16" s="235"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -22375,12 +22560,18 @@
       <c r="GN16" s="115" t="s">
         <v>3071</v>
       </c>
+      <c r="GO16" s="115" t="s">
+        <v>3086</v>
+      </c>
+      <c r="GP16" s="115" t="s">
+        <v>3104</v>
+      </c>
     </row>
-    <row r="17" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="92">
         <v>14</v>
       </c>
-      <c r="B17" s="234"/>
+      <c r="B17" s="235"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -22961,12 +23152,18 @@
       <c r="GN17" s="115" t="s">
         <v>19</v>
       </c>
+      <c r="GO17" s="115" t="s">
+        <v>3087</v>
+      </c>
+      <c r="GP17" s="115" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="18" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="92">
         <v>15</v>
       </c>
-      <c r="B18" s="234"/>
+      <c r="B18" s="235"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -23547,12 +23744,18 @@
       <c r="GN18" s="115" t="s">
         <v>2658</v>
       </c>
+      <c r="GO18" s="115" t="s">
+        <v>3088</v>
+      </c>
+      <c r="GP18" s="115" t="s">
+        <v>2762</v>
+      </c>
     </row>
-    <row r="19" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="92">
         <v>16</v>
       </c>
-      <c r="B19" s="234"/>
+      <c r="B19" s="235"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -24133,12 +24336,18 @@
       <c r="GN19" s="115" t="s">
         <v>3072</v>
       </c>
+      <c r="GO19" s="115" t="s">
+        <v>3089</v>
+      </c>
+      <c r="GP19" s="115" t="s">
+        <v>3047</v>
+      </c>
     </row>
-    <row r="20" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="92">
         <v>17</v>
       </c>
-      <c r="B20" s="234"/>
+      <c r="B20" s="235"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -24719,12 +24928,18 @@
       <c r="GN20" s="115" t="s">
         <v>1145</v>
       </c>
+      <c r="GO20" s="115" t="s">
+        <v>1145</v>
+      </c>
+      <c r="GP20" s="115" t="s">
+        <v>3105</v>
+      </c>
     </row>
-    <row r="21" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="92">
         <v>18</v>
       </c>
-      <c r="B21" s="235" t="s">
+      <c r="B21" s="236" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -25301,12 +25516,18 @@
       <c r="GN21" s="115" t="s">
         <v>3073</v>
       </c>
+      <c r="GO21" s="115" t="s">
+        <v>3090</v>
+      </c>
+      <c r="GP21" s="115" t="s">
+        <v>3106</v>
+      </c>
     </row>
-    <row r="22" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="92">
         <v>19</v>
       </c>
-      <c r="B22" s="235"/>
+      <c r="B22" s="236"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -25889,12 +26110,18 @@
       <c r="GN22" s="115" t="s">
         <v>3074</v>
       </c>
+      <c r="GO22" s="115" t="s">
+        <v>3091</v>
+      </c>
+      <c r="GP22" s="115" t="s">
+        <v>3107</v>
+      </c>
     </row>
-    <row r="23" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="92">
         <v>20</v>
       </c>
-      <c r="B23" s="235"/>
+      <c r="B23" s="236"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -26477,12 +26704,18 @@
       <c r="GN23" s="115" t="s">
         <v>263</v>
       </c>
+      <c r="GO23" s="115" t="s">
+        <v>634</v>
+      </c>
+      <c r="GP23" s="115" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="24" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="92">
         <v>21</v>
       </c>
-      <c r="B24" s="235"/>
+      <c r="B24" s="236"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -27065,12 +27298,18 @@
       <c r="GN24" s="115">
         <v>371</v>
       </c>
+      <c r="GO24" s="185">
+        <v>4473</v>
+      </c>
+      <c r="GP24" s="183">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="92">
         <v>22</v>
       </c>
-      <c r="B25" s="235"/>
+      <c r="B25" s="236"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -27643,15 +27882,21 @@
       <c r="GM25" s="115" t="s">
         <v>3061</v>
       </c>
-      <c r="GN25" s="239" t="s">
+      <c r="GN25" s="217" t="s">
         <v>3075</v>
       </c>
+      <c r="GO25" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP25" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="26" spans="1:196" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:198" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="92">
         <v>23</v>
       </c>
-      <c r="B26" s="236" t="s">
+      <c r="B26" s="237" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -28236,12 +28481,18 @@
       <c r="GN26" s="159" t="s">
         <v>699</v>
       </c>
+      <c r="GO26" s="159" t="s">
+        <v>1133</v>
+      </c>
+      <c r="GP26" s="115" t="s">
+        <v>849</v>
+      </c>
     </row>
-    <row r="27" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="92">
         <v>24</v>
       </c>
-      <c r="B27" s="236"/>
+      <c r="B27" s="237"/>
       <c r="C27" s="64" t="s">
         <v>464</v>
       </c>
@@ -28824,12 +29075,18 @@
       <c r="GN27" s="159">
         <v>6</v>
       </c>
+      <c r="GO27" s="159">
+        <v>11</v>
+      </c>
+      <c r="GP27" s="115">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="92">
         <v>25</v>
       </c>
-      <c r="B28" s="236"/>
+      <c r="B28" s="237"/>
       <c r="C28" s="64" t="s">
         <v>465</v>
       </c>
@@ -29410,12 +29667,18 @@
       <c r="GN28" s="159" t="s">
         <v>700</v>
       </c>
+      <c r="GO28" s="159" t="s">
+        <v>702</v>
+      </c>
+      <c r="GP28" s="115" t="s">
+        <v>696</v>
+      </c>
     </row>
-    <row r="29" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="92">
         <v>26</v>
       </c>
-      <c r="B29" s="236"/>
+      <c r="B29" s="237"/>
       <c r="C29" s="64" t="s">
         <v>466</v>
       </c>
@@ -29996,12 +30259,18 @@
       <c r="GN29" s="184">
         <v>6</v>
       </c>
+      <c r="GO29" s="184">
+        <v>9</v>
+      </c>
+      <c r="GP29" s="115">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="92">
         <v>27</v>
       </c>
-      <c r="B30" s="236"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64" t="s">
         <v>467</v>
       </c>
@@ -30582,12 +30851,18 @@
       <c r="GN30" s="159" t="s">
         <v>849</v>
       </c>
+      <c r="GO30" s="159" t="s">
+        <v>2179</v>
+      </c>
+      <c r="GP30" s="169" t="s">
+        <v>697</v>
+      </c>
     </row>
-    <row r="31" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="92">
         <v>28</v>
       </c>
-      <c r="B31" s="236"/>
+      <c r="B31" s="237"/>
       <c r="C31" s="64" t="s">
         <v>468</v>
       </c>
@@ -31168,12 +31443,18 @@
       <c r="GN31" s="159">
         <v>4</v>
       </c>
+      <c r="GO31" s="159">
+        <v>98</v>
+      </c>
+      <c r="GP31" s="184">
+        <v>6</v>
+      </c>
     </row>
-    <row r="32" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="92">
         <v>29</v>
       </c>
-      <c r="B32" s="236"/>
+      <c r="B32" s="237"/>
       <c r="C32" s="64" t="s">
         <v>469</v>
       </c>
@@ -31754,12 +32035,18 @@
       <c r="GN32" s="184" t="s">
         <v>698</v>
       </c>
+      <c r="GO32" s="184" t="s">
+        <v>1657</v>
+      </c>
+      <c r="GP32" s="115" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="33" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92">
         <v>30</v>
       </c>
-      <c r="B33" s="236"/>
+      <c r="B33" s="237"/>
       <c r="C33" s="64" t="s">
         <v>470</v>
       </c>
@@ -32340,12 +32627,18 @@
       <c r="GN33" s="184">
         <v>2</v>
       </c>
+      <c r="GO33" s="184">
+        <v>97</v>
+      </c>
+      <c r="GP33" s="115">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="92">
         <v>31</v>
       </c>
-      <c r="B34" s="236"/>
+      <c r="B34" s="237"/>
       <c r="C34" s="64" t="s">
         <v>471</v>
       </c>
@@ -32926,12 +33219,18 @@
       <c r="GN34" s="159" t="s">
         <v>702</v>
       </c>
+      <c r="GO34" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP34" s="115" t="s">
+        <v>704</v>
+      </c>
     </row>
-    <row r="35" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="92">
         <v>32</v>
       </c>
-      <c r="B35" s="236"/>
+      <c r="B35" s="237"/>
       <c r="C35" s="64" t="s">
         <v>472</v>
       </c>
@@ -33512,12 +33811,18 @@
       <c r="GN35" s="159">
         <v>3</v>
       </c>
+      <c r="GO35" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP35" s="115">
+        <v>14</v>
+      </c>
     </row>
-    <row r="36" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="92">
         <v>33</v>
       </c>
-      <c r="B36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="64" t="s">
         <v>473</v>
       </c>
@@ -34098,12 +34403,18 @@
       <c r="GN36" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO36" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP36" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="92">
         <v>34</v>
       </c>
-      <c r="B37" s="236"/>
+      <c r="B37" s="237"/>
       <c r="C37" s="64" t="s">
         <v>474</v>
       </c>
@@ -34684,12 +34995,18 @@
       <c r="GN37" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO37" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP37" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="92">
         <v>35</v>
       </c>
-      <c r="B38" s="236"/>
+      <c r="B38" s="237"/>
       <c r="C38" s="64" t="s">
         <v>475</v>
       </c>
@@ -35270,12 +35587,18 @@
       <c r="GN38" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP38" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="39" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="92">
         <v>36</v>
       </c>
-      <c r="B39" s="236"/>
+      <c r="B39" s="237"/>
       <c r="C39" s="64" t="s">
         <v>476</v>
       </c>
@@ -35856,12 +36179,18 @@
       <c r="GN39" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP39" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="92">
         <v>37</v>
       </c>
-      <c r="B40" s="236"/>
+      <c r="B40" s="237"/>
       <c r="C40" s="64" t="s">
         <v>477</v>
       </c>
@@ -36442,12 +36771,18 @@
       <c r="GN40" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP40" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="92">
         <v>38</v>
       </c>
-      <c r="B41" s="236"/>
+      <c r="B41" s="237"/>
       <c r="C41" s="64" t="s">
         <v>478</v>
       </c>
@@ -37028,12 +37363,18 @@
       <c r="GN41" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP41" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="92">
         <v>39</v>
       </c>
-      <c r="B42" s="236"/>
+      <c r="B42" s="237"/>
       <c r="C42" s="64" t="s">
         <v>479</v>
       </c>
@@ -37614,12 +37955,18 @@
       <c r="GN42" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP42" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="92">
         <v>40</v>
       </c>
-      <c r="B43" s="236"/>
+      <c r="B43" s="237"/>
       <c r="C43" s="64" t="s">
         <v>480</v>
       </c>
@@ -38200,12 +38547,18 @@
       <c r="GN43" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP43" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="92">
         <v>41</v>
       </c>
-      <c r="B44" s="236"/>
+      <c r="B44" s="237"/>
       <c r="C44" s="64" t="s">
         <v>481</v>
       </c>
@@ -38786,12 +39139,18 @@
       <c r="GN44" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP44" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="92">
         <v>42</v>
       </c>
-      <c r="B45" s="236"/>
+      <c r="B45" s="237"/>
       <c r="C45" s="64" t="s">
         <v>482</v>
       </c>
@@ -39372,12 +39731,18 @@
       <c r="GN45" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP45" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="92">
         <v>43</v>
       </c>
-      <c r="B46" s="236"/>
+      <c r="B46" s="237"/>
       <c r="C46" s="64" t="s">
         <v>483</v>
       </c>
@@ -39958,12 +40323,18 @@
       <c r="GN46" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP46" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="92">
         <v>44</v>
       </c>
-      <c r="B47" s="236"/>
+      <c r="B47" s="237"/>
       <c r="C47" s="64" t="s">
         <v>484</v>
       </c>
@@ -40544,12 +40915,18 @@
       <c r="GN47" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP47" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="92">
         <v>45</v>
       </c>
-      <c r="B48" s="236"/>
+      <c r="B48" s="237"/>
       <c r="C48" s="64" t="s">
         <v>485</v>
       </c>
@@ -41130,12 +41507,18 @@
       <c r="GN48" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP48" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:196" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="92">
         <v>46</v>
       </c>
-      <c r="B49" s="236"/>
+      <c r="B49" s="237"/>
       <c r="C49" s="64" t="s">
         <v>486</v>
       </c>
@@ -41716,12 +42099,18 @@
       <c r="GN49" s="159" t="s">
         <v>11</v>
       </c>
+      <c r="GO49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GP49" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="92">
         <v>47</v>
       </c>
-      <c r="B50" s="236"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -42304,12 +42693,18 @@
       <c r="GN50" s="115" t="s">
         <v>2663</v>
       </c>
+      <c r="GO50" s="115" t="s">
+        <v>3092</v>
+      </c>
+      <c r="GP50" s="115" t="s">
+        <v>2807</v>
+      </c>
     </row>
-    <row r="51" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="92">
         <v>48</v>
       </c>
-      <c r="B51" s="236"/>
+      <c r="B51" s="237"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -42892,12 +43287,18 @@
       <c r="GN51" s="115" t="s">
         <v>3076</v>
       </c>
+      <c r="GO51" s="115" t="s">
+        <v>3093</v>
+      </c>
+      <c r="GP51" s="216" t="s">
+        <v>3108</v>
+      </c>
     </row>
-    <row r="52" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="92">
         <v>49</v>
       </c>
-      <c r="B52" s="236"/>
+      <c r="B52" s="237"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -43480,12 +43881,18 @@
       <c r="GN52" s="115" t="s">
         <v>3077</v>
       </c>
+      <c r="GO52" s="115" t="s">
+        <v>3094</v>
+      </c>
+      <c r="GP52" s="115" t="s">
+        <v>3109</v>
+      </c>
     </row>
-    <row r="53" spans="1:196" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:198" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="92">
         <v>50</v>
       </c>
-      <c r="B53" s="237" t="s">
+      <c r="B53" s="238" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -44070,12 +44477,18 @@
       <c r="GN53" s="185" t="s">
         <v>206</v>
       </c>
+      <c r="GO53" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="GP53" s="185" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="54" spans="1:196" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:198" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A54" s="92">
         <v>51</v>
       </c>
-      <c r="B54" s="237"/>
+      <c r="B54" s="238"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -44658,12 +45071,18 @@
       <c r="GN54" s="185" t="s">
         <v>858</v>
       </c>
+      <c r="GO54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="GP54" s="185" t="s">
+        <v>3110</v>
+      </c>
     </row>
-    <row r="55" spans="1:196" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:198" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A55" s="92">
         <v>52</v>
       </c>
-      <c r="B55" s="237"/>
+      <c r="B55" s="238"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -45246,12 +45665,18 @@
       <c r="GN55" s="185" t="s">
         <v>2330</v>
       </c>
+      <c r="GO55" s="115" t="s">
+        <v>3095</v>
+      </c>
+      <c r="GP55" s="185" t="s">
+        <v>3111</v>
+      </c>
     </row>
-    <row r="56" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="92">
         <v>53</v>
       </c>
-      <c r="B56" s="237"/>
+      <c r="B56" s="238"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -45832,12 +46257,18 @@
       <c r="GN56" s="185" t="s">
         <v>2330</v>
       </c>
+      <c r="GO56" s="186" t="s">
+        <v>3096</v>
+      </c>
+      <c r="GP56" s="185" t="s">
+        <v>3112</v>
+      </c>
     </row>
-    <row r="57" spans="1:196" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:198" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A57" s="92">
         <v>54</v>
       </c>
-      <c r="B57" s="237"/>
+      <c r="B57" s="238"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -46420,12 +46851,18 @@
       <c r="GN57" s="115" t="s">
         <v>3078</v>
       </c>
+      <c r="GO57" s="115" t="s">
+        <v>3097</v>
+      </c>
+      <c r="GP57" s="185" t="s">
+        <v>3113</v>
+      </c>
     </row>
-    <row r="58" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="92">
         <v>55</v>
       </c>
-      <c r="B58" s="237"/>
+      <c r="B58" s="238"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -46979,12 +47416,18 @@
       <c r="GN58" s="185" t="s">
         <v>2330</v>
       </c>
+      <c r="GO58" s="186" t="s">
+        <v>3096</v>
+      </c>
+      <c r="GP58" s="185" t="s">
+        <v>3114</v>
+      </c>
     </row>
-    <row r="59" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="92">
         <v>56</v>
       </c>
-      <c r="B59" s="237"/>
+      <c r="B59" s="238"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -47567,12 +48010,18 @@
       <c r="GN59" s="185" t="s">
         <v>2330</v>
       </c>
+      <c r="GO59" s="186" t="s">
+        <v>3096</v>
+      </c>
+      <c r="GP59" s="185" t="s">
+        <v>3114</v>
+      </c>
     </row>
-    <row r="60" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="92">
         <v>57</v>
       </c>
-      <c r="B60" s="237"/>
+      <c r="B60" s="238"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -48155,12 +48604,18 @@
       <c r="GN60" s="184">
         <v>1</v>
       </c>
+      <c r="GO60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GP60" s="184">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:196" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:198" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="92">
         <v>58</v>
       </c>
-      <c r="B61" s="238" t="s">
+      <c r="B61" s="239" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -48743,12 +49198,18 @@
       <c r="GN61" s="157">
         <v>45796</v>
       </c>
+      <c r="GO61" s="157">
+        <v>45805</v>
+      </c>
+      <c r="GP61" s="192">
+        <v>45813</v>
+      </c>
     </row>
-    <row r="62" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="92">
         <v>59</v>
       </c>
-      <c r="B62" s="238"/>
+      <c r="B62" s="239"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -49331,12 +49792,18 @@
       <c r="GN62" s="157">
         <v>45799</v>
       </c>
+      <c r="GO62" s="157">
+        <v>45805</v>
+      </c>
+      <c r="GP62" s="192">
+        <v>45813</v>
+      </c>
     </row>
-    <row r="63" spans="1:196" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="92">
         <v>60</v>
       </c>
-      <c r="B63" s="238"/>
+      <c r="B63" s="239"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -49919,12 +50386,18 @@
       <c r="GN63" s="115" t="s">
         <v>3079</v>
       </c>
+      <c r="GO63" s="115" t="s">
+        <v>2462</v>
+      </c>
+      <c r="GP63" s="115" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="64" spans="1:196" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:198" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A64" s="92">
         <v>61</v>
       </c>
-      <c r="B64" s="238"/>
+      <c r="B64" s="239"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -50506,13 +50979,19 @@
       </c>
       <c r="GN64" s="115" t="s">
         <v>2669</v>
+      </c>
+      <c r="GO64" s="115" t="s">
+        <v>3098</v>
+      </c>
+      <c r="GP64" s="185" t="s">
+        <v>3115</v>
       </c>
     </row>
     <row r="65" spans="1:205" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="92">
         <v>62</v>
       </c>
-      <c r="B65" s="238"/>
+      <c r="B65" s="239"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -50798,12 +51277,18 @@
       <c r="GN65" s="157">
         <v>45803</v>
       </c>
+      <c r="GO65" s="157">
+        <v>45809</v>
+      </c>
+      <c r="GP65" s="192">
+        <v>45813</v>
+      </c>
     </row>
     <row r="66" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A66" s="92">
         <v>63</v>
       </c>
-      <c r="B66" s="238"/>
+      <c r="B66" s="239"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -51087,12 +51572,18 @@
       <c r="GN66" s="115" t="s">
         <v>30</v>
       </c>
+      <c r="GO66" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="GP66" s="115" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="67" spans="1:205" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="92">
         <v>64</v>
       </c>
-      <c r="B67" s="238"/>
+      <c r="B67" s="239"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -51208,12 +51699,14 @@
       <c r="GL67" s="169"/>
       <c r="GM67" s="169"/>
       <c r="GN67" s="206"/>
+      <c r="GO67" s="169"/>
+      <c r="GP67" s="169"/>
     </row>
     <row r="68" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A68" s="92">
         <v>65</v>
       </c>
-      <c r="B68" s="228" t="s">
+      <c r="B68" s="229" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -51286,7 +51779,7 @@
       <c r="A69" s="92">
         <v>66</v>
       </c>
-      <c r="B69" s="228"/>
+      <c r="B69" s="229"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -51335,7 +51828,7 @@
       <c r="A70" s="92">
         <v>67</v>
       </c>
-      <c r="B70" s="228"/>
+      <c r="B70" s="229"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -51374,7 +51867,7 @@
       <c r="A71" s="92">
         <v>68</v>
       </c>
-      <c r="B71" s="228"/>
+      <c r="B71" s="229"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -51409,7 +51902,7 @@
       <c r="A72" s="92">
         <v>69</v>
       </c>
-      <c r="B72" s="229"/>
+      <c r="B72" s="230"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -52313,7 +52806,7 @@
       <c r="BT3" s="36"/>
     </row>
     <row r="4" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="231" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -52482,7 +52975,7 @@
       <c r="BT4" s="12"/>
     </row>
     <row r="5" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="231"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -52814,7 +53307,7 @@
       <c r="BT6" s="2"/>
     </row>
     <row r="7" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="233" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -52981,7 +53474,7 @@
       <c r="BT7" s="37"/>
     </row>
     <row r="8" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="232"/>
+      <c r="B8" s="233"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -53148,7 +53641,7 @@
       <c r="BT8" s="1"/>
     </row>
     <row r="9" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="232"/>
+      <c r="B9" s="233"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -53315,7 +53808,7 @@
       <c r="BT9" s="1"/>
     </row>
     <row r="10" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="232"/>
+      <c r="B10" s="233"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -53482,7 +53975,7 @@
       <c r="BT10" s="1"/>
     </row>
     <row r="11" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="234" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -53649,7 +54142,7 @@
       <c r="BT11" s="106"/>
     </row>
     <row r="12" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="234"/>
+      <c r="B12" s="235"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -53814,7 +54307,7 @@
       <c r="BT12" s="2"/>
     </row>
     <row r="13" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="234"/>
+      <c r="B13" s="235"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -53979,7 +54472,7 @@
       <c r="BT13" s="106"/>
     </row>
     <row r="14" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="234"/>
+      <c r="B14" s="235"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -54144,7 +54637,7 @@
       <c r="BT14" s="2"/>
     </row>
     <row r="15" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="234"/>
+      <c r="B15" s="235"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -54309,7 +54802,7 @@
       <c r="BT15" s="2"/>
     </row>
     <row r="16" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="234"/>
+      <c r="B16" s="235"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -54474,7 +54967,7 @@
       <c r="BT16" s="2"/>
     </row>
     <row r="17" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="234"/>
+      <c r="B17" s="235"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -54639,7 +55132,7 @@
       <c r="BT17" s="2"/>
     </row>
     <row r="18" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="234"/>
+      <c r="B18" s="235"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -54804,7 +55297,7 @@
       <c r="BT18" s="2"/>
     </row>
     <row r="19" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="234"/>
+      <c r="B19" s="235"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -54969,7 +55462,7 @@
       <c r="BT19" s="2"/>
     </row>
     <row r="20" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="234"/>
+      <c r="B20" s="235"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -55134,7 +55627,7 @@
       <c r="BT20" s="2"/>
     </row>
     <row r="21" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="235" t="s">
+      <c r="B21" s="236" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -55342,7 +55835,7 @@
       <c r="BT21" s="106"/>
     </row>
     <row r="22" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="235"/>
+      <c r="B22" s="236"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -55550,7 +56043,7 @@
       <c r="BT22" s="106"/>
     </row>
     <row r="23" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="235"/>
+      <c r="B23" s="236"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -55717,7 +56210,7 @@
       <c r="BT23" s="2"/>
     </row>
     <row r="24" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="235"/>
+      <c r="B24" s="236"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -55884,7 +56377,7 @@
       <c r="BT24" s="105"/>
     </row>
     <row r="25" spans="2:72" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="235"/>
+      <c r="B25" s="236"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -56049,7 +56542,7 @@
       <c r="BT25" s="6"/>
     </row>
     <row r="26" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="236" t="s">
+      <c r="B26" s="237" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -56218,7 +56711,7 @@
       <c r="BT26" s="38"/>
     </row>
     <row r="27" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="236"/>
+      <c r="B27" s="237"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -56385,7 +56878,7 @@
       <c r="BT27" s="42"/>
     </row>
     <row r="28" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="236"/>
+      <c r="B28" s="237"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -56550,7 +57043,7 @@
       <c r="BT28" s="66"/>
     </row>
     <row r="29" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="236"/>
+      <c r="B29" s="237"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -56715,7 +57208,7 @@
       <c r="BT29" s="42"/>
     </row>
     <row r="30" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="236"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -56880,7 +57373,7 @@
       <c r="BT30" s="38"/>
     </row>
     <row r="31" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="236"/>
+      <c r="B31" s="237"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -57045,7 +57538,7 @@
       <c r="BT31" s="42"/>
     </row>
     <row r="32" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="236"/>
+      <c r="B32" s="237"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -57210,7 +57703,7 @@
       <c r="BT32" s="88"/>
     </row>
     <row r="33" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="236"/>
+      <c r="B33" s="237"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -57375,7 +57868,7 @@
       <c r="BT33" s="28"/>
     </row>
     <row r="34" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="236"/>
+      <c r="B34" s="237"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -57540,7 +58033,7 @@
       <c r="BT34" s="38"/>
     </row>
     <row r="35" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="236"/>
+      <c r="B35" s="237"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -57705,7 +58198,7 @@
       <c r="BT35" s="42"/>
     </row>
     <row r="36" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -57870,7 +58363,7 @@
       <c r="BT36" s="38"/>
     </row>
     <row r="37" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="236"/>
+      <c r="B37" s="237"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -58035,7 +58528,7 @@
       <c r="BT37" s="42"/>
     </row>
     <row r="38" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="236"/>
+      <c r="B38" s="237"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -58200,7 +58693,7 @@
       <c r="BT38" s="38"/>
     </row>
     <row r="39" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="236"/>
+      <c r="B39" s="237"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -58365,7 +58858,7 @@
       <c r="BT39" s="38"/>
     </row>
     <row r="40" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="236"/>
+      <c r="B40" s="237"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -58530,7 +59023,7 @@
       <c r="BT40" s="38"/>
     </row>
     <row r="41" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="236"/>
+      <c r="B41" s="237"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -58695,7 +59188,7 @@
       <c r="BT41" s="38"/>
     </row>
     <row r="42" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="236"/>
+      <c r="B42" s="237"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -58860,7 +59353,7 @@
       <c r="BT42" s="38"/>
     </row>
     <row r="43" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="236"/>
+      <c r="B43" s="237"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -59025,7 +59518,7 @@
       <c r="BT43" s="38"/>
     </row>
     <row r="44" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="236"/>
+      <c r="B44" s="237"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -59190,7 +59683,7 @@
       <c r="BT44" s="38"/>
     </row>
     <row r="45" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="236"/>
+      <c r="B45" s="237"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -59355,7 +59848,7 @@
       <c r="BT45" s="38"/>
     </row>
     <row r="46" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="236"/>
+      <c r="B46" s="237"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -59520,7 +60013,7 @@
       <c r="BT46" s="38"/>
     </row>
     <row r="47" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="236"/>
+      <c r="B47" s="237"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -59685,7 +60178,7 @@
       <c r="BT47" s="38"/>
     </row>
     <row r="48" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="236"/>
+      <c r="B48" s="237"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -59850,7 +60343,7 @@
       <c r="BT48" s="38"/>
     </row>
     <row r="49" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="236"/>
+      <c r="B49" s="237"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -60015,7 +60508,7 @@
       <c r="BT49" s="38"/>
     </row>
     <row r="50" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="236"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -60182,7 +60675,7 @@
       <c r="BT50" s="2"/>
     </row>
     <row r="51" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="236"/>
+      <c r="B51" s="237"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -60349,7 +60842,7 @@
       <c r="BT51" s="2"/>
     </row>
     <row r="52" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="236"/>
+      <c r="B52" s="237"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -60516,7 +61009,7 @@
       <c r="BT52" s="2"/>
     </row>
     <row r="53" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="237" t="s">
+      <c r="B53" s="238" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -60685,7 +61178,7 @@
       <c r="BT53" s="105"/>
     </row>
     <row r="54" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="237"/>
+      <c r="B54" s="238"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -60852,7 +61345,7 @@
       <c r="BT54" s="5"/>
     </row>
     <row r="55" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="237"/>
+      <c r="B55" s="238"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -61019,7 +61512,7 @@
       <c r="BT55" s="5"/>
     </row>
     <row r="56" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="237"/>
+      <c r="B56" s="238"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -61184,7 +61677,7 @@
       <c r="BT56" s="3"/>
     </row>
     <row r="57" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="237"/>
+      <c r="B57" s="238"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -61351,7 +61844,7 @@
       <c r="BT57" s="2"/>
     </row>
     <row r="58" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B58" s="237"/>
+      <c r="B58" s="238"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -61516,7 +62009,7 @@
       <c r="BT58" s="7"/>
     </row>
     <row r="59" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="237"/>
+      <c r="B59" s="238"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -61683,7 +62176,7 @@
       <c r="BT59" s="5"/>
     </row>
     <row r="60" spans="2:72" x14ac:dyDescent="0.4">
-      <c r="B60" s="237"/>
+      <c r="B60" s="238"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -61850,7 +62343,7 @@
       <c r="BT60" s="12"/>
     </row>
     <row r="61" spans="2:72" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="238" t="s">
+      <c r="B61" s="239" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -62017,7 +62510,7 @@
       <c r="BT61" s="9"/>
     </row>
     <row r="62" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="238"/>
+      <c r="B62" s="239"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -62184,7 +62677,7 @@
       <c r="BT62" s="9"/>
     </row>
     <row r="63" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="238"/>
+      <c r="B63" s="239"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -62351,7 +62844,7 @@
       <c r="BT63" s="5"/>
     </row>
     <row r="64" spans="2:72" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="238"/>
+      <c r="B64" s="239"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -62518,7 +63011,7 @@
       <c r="BT64" s="2"/>
     </row>
     <row r="65" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="238"/>
+      <c r="B65" s="239"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -62535,7 +63028,7 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="238"/>
+      <c r="B66" s="239"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -62554,7 +63047,7 @@
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="238"/>
+      <c r="B67" s="239"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -62573,7 +63066,7 @@
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B68" s="228" t="s">
+      <c r="B68" s="229" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -62583,7 +63076,7 @@
       <c r="L68" s="105"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B69" s="228"/>
+      <c r="B69" s="229"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -62591,7 +63084,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B70" s="228"/>
+      <c r="B70" s="229"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -62599,7 +63092,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B71" s="228"/>
+      <c r="B71" s="229"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -62611,7 +63104,7 @@
       <c r="L71" s="105"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B72" s="229"/>
+      <c r="B72" s="230"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>
@@ -63191,7 +63684,7 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="231" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -63271,7 +63764,7 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="231"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="54" t="s">
         <v>456</v>
       </c>
@@ -63425,7 +63918,7 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="233" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -63503,7 +63996,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="232"/>
+      <c r="B8" s="233"/>
       <c r="C8" s="54" t="s">
         <v>458</v>
       </c>
@@ -63581,7 +64074,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="232"/>
+      <c r="B9" s="233"/>
       <c r="C9" s="54" t="s">
         <v>459</v>
       </c>
@@ -63659,7 +64152,7 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="232"/>
+      <c r="B10" s="233"/>
       <c r="C10" s="54" t="s">
         <v>460</v>
       </c>
@@ -63737,7 +64230,7 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="234" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -63815,7 +64308,7 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="234"/>
+      <c r="B12" s="235"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
       </c>
@@ -63891,7 +64384,7 @@
       </c>
     </row>
     <row r="13" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="234"/>
+      <c r="B13" s="235"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
       </c>
@@ -63967,7 +64460,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="234"/>
+      <c r="B14" s="235"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
       </c>
@@ -64043,7 +64536,7 @@
       </c>
     </row>
     <row r="15" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="234"/>
+      <c r="B15" s="235"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
       </c>
@@ -64119,7 +64612,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="234"/>
+      <c r="B16" s="235"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
       </c>
@@ -64195,7 +64688,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="234"/>
+      <c r="B17" s="235"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
       </c>
@@ -64271,7 +64764,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="234"/>
+      <c r="B18" s="235"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
       </c>
@@ -64347,7 +64840,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="234"/>
+      <c r="B19" s="235"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
       </c>
@@ -64423,7 +64916,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="234"/>
+      <c r="B20" s="235"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
       </c>
@@ -64499,7 +64992,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="235" t="s">
+      <c r="B21" s="236" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -64577,7 +65070,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="235"/>
+      <c r="B22" s="236"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
       </c>
@@ -64655,7 +65148,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="235"/>
+      <c r="B23" s="236"/>
       <c r="C23" s="55" t="s">
         <v>461</v>
       </c>
@@ -64733,7 +65226,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B24" s="235"/>
+      <c r="B24" s="236"/>
       <c r="C24" s="55" t="s">
         <v>462</v>
       </c>
@@ -64811,7 +65304,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="B25" s="235"/>
+      <c r="B25" s="236"/>
       <c r="C25" s="56" t="s">
         <v>438</v>
       </c>
@@ -64887,7 +65380,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B26" s="236" t="s">
+      <c r="B26" s="237" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -64967,7 +65460,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="236"/>
+      <c r="B27" s="237"/>
       <c r="C27" s="55" t="s">
         <v>464</v>
       </c>
@@ -65045,7 +65538,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="236"/>
+      <c r="B28" s="237"/>
       <c r="C28" s="55" t="s">
         <v>465</v>
       </c>
@@ -65121,7 +65614,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="236"/>
+      <c r="B29" s="237"/>
       <c r="C29" s="55" t="s">
         <v>466</v>
       </c>
@@ -65197,7 +65690,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="236"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="55" t="s">
         <v>467</v>
       </c>
@@ -65273,7 +65766,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="236"/>
+      <c r="B31" s="237"/>
       <c r="C31" s="55" t="s">
         <v>468</v>
       </c>
@@ -65349,7 +65842,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="236"/>
+      <c r="B32" s="237"/>
       <c r="C32" s="55" t="s">
         <v>469</v>
       </c>
@@ -65425,7 +65918,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="236"/>
+      <c r="B33" s="237"/>
       <c r="C33" s="55" t="s">
         <v>470</v>
       </c>
@@ -65501,7 +65994,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="236"/>
+      <c r="B34" s="237"/>
       <c r="C34" s="55" t="s">
         <v>471</v>
       </c>
@@ -65577,7 +66070,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="236"/>
+      <c r="B35" s="237"/>
       <c r="C35" s="55" t="s">
         <v>472</v>
       </c>
@@ -65653,7 +66146,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="55" t="s">
         <v>473</v>
       </c>
@@ -65729,7 +66222,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="236"/>
+      <c r="B37" s="237"/>
       <c r="C37" s="55" t="s">
         <v>474</v>
       </c>
@@ -65805,7 +66298,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="236"/>
+      <c r="B38" s="237"/>
       <c r="C38" s="55" t="s">
         <v>475</v>
       </c>
@@ -65881,7 +66374,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="236"/>
+      <c r="B39" s="237"/>
       <c r="C39" s="55" t="s">
         <v>476</v>
       </c>
@@ -65957,7 +66450,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="236"/>
+      <c r="B40" s="237"/>
       <c r="C40" s="55" t="s">
         <v>477</v>
       </c>
@@ -66033,7 +66526,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="236"/>
+      <c r="B41" s="237"/>
       <c r="C41" s="55" t="s">
         <v>478</v>
       </c>
@@ -66109,7 +66602,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="236"/>
+      <c r="B42" s="237"/>
       <c r="C42" s="55" t="s">
         <v>479</v>
       </c>
@@ -66185,7 +66678,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="236"/>
+      <c r="B43" s="237"/>
       <c r="C43" s="55" t="s">
         <v>480</v>
       </c>
@@ -66261,7 +66754,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="236"/>
+      <c r="B44" s="237"/>
       <c r="C44" s="55" t="s">
         <v>481</v>
       </c>
@@ -66337,7 +66830,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="236"/>
+      <c r="B45" s="237"/>
       <c r="C45" s="55" t="s">
         <v>482</v>
       </c>
@@ -66413,7 +66906,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="236"/>
+      <c r="B46" s="237"/>
       <c r="C46" s="55" t="s">
         <v>483</v>
       </c>
@@ -66489,7 +66982,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="236"/>
+      <c r="B47" s="237"/>
       <c r="C47" s="55" t="s">
         <v>484</v>
       </c>
@@ -66565,7 +67058,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="236"/>
+      <c r="B48" s="237"/>
       <c r="C48" s="55" t="s">
         <v>485</v>
       </c>
@@ -66641,7 +67134,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="236"/>
+      <c r="B49" s="237"/>
       <c r="C49" s="55" t="s">
         <v>486</v>
       </c>
@@ -66717,7 +67210,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="236"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="55" t="s">
         <v>487</v>
       </c>
@@ -66795,7 +67288,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B51" s="236"/>
+      <c r="B51" s="237"/>
       <c r="C51" s="55" t="s">
         <v>488</v>
       </c>
@@ -66873,7 +67366,7 @@
       </c>
     </row>
     <row r="52" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B52" s="236"/>
+      <c r="B52" s="237"/>
       <c r="C52" s="55" t="s">
         <v>489</v>
       </c>
@@ -66951,7 +67444,7 @@
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B53" s="237" t="s">
+      <c r="B53" s="238" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -67031,7 +67524,7 @@
       </c>
     </row>
     <row r="54" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B54" s="237"/>
+      <c r="B54" s="238"/>
       <c r="C54" s="54" t="s">
         <v>440</v>
       </c>
@@ -67109,7 +67602,7 @@
       </c>
     </row>
     <row r="55" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B55" s="237"/>
+      <c r="B55" s="238"/>
       <c r="C55" s="13" t="s">
         <v>441</v>
       </c>
@@ -67187,7 +67680,7 @@
       </c>
     </row>
     <row r="56" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B56" s="237"/>
+      <c r="B56" s="238"/>
       <c r="C56" s="13" t="s">
         <v>490</v>
       </c>
@@ -67263,7 +67756,7 @@
       </c>
     </row>
     <row r="57" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B57" s="237"/>
+      <c r="B57" s="238"/>
       <c r="C57" s="56" t="s">
         <v>491</v>
       </c>
@@ -67341,7 +67834,7 @@
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B58" s="237"/>
+      <c r="B58" s="238"/>
       <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
@@ -67417,7 +67910,7 @@
       </c>
     </row>
     <row r="59" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="237"/>
+      <c r="B59" s="238"/>
       <c r="C59" s="13" t="s">
         <v>445</v>
       </c>
@@ -67495,7 +67988,7 @@
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B60" s="237"/>
+      <c r="B60" s="238"/>
       <c r="C60" s="54" t="s">
         <v>492</v>
       </c>
@@ -67573,7 +68066,7 @@
       </c>
     </row>
     <row r="61" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B61" s="238" t="s">
+      <c r="B61" s="239" t="s">
         <v>342</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -67651,7 +68144,7 @@
       </c>
     </row>
     <row r="62" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B62" s="238"/>
+      <c r="B62" s="239"/>
       <c r="C62" s="13" t="s">
         <v>446</v>
       </c>
@@ -67729,7 +68222,7 @@
       </c>
     </row>
     <row r="63" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B63" s="238"/>
+      <c r="B63" s="239"/>
       <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
@@ -67807,7 +68300,7 @@
       </c>
     </row>
     <row r="64" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B64" s="238"/>
+      <c r="B64" s="239"/>
       <c r="C64" s="13" t="s">
         <v>494</v>
       </c>
@@ -67885,7 +68378,7 @@
       </c>
     </row>
     <row r="65" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B65" s="238"/>
+      <c r="B65" s="239"/>
       <c r="C65" s="54" t="s">
         <v>495</v>
       </c>
@@ -67915,7 +68408,7 @@
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B66" s="238"/>
+      <c r="B66" s="239"/>
       <c r="C66" s="54" t="s">
         <v>496</v>
       </c>
@@ -67945,7 +68438,7 @@
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="2:27" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B67" s="238"/>
+      <c r="B67" s="239"/>
       <c r="C67" s="13" t="s">
         <v>497</v>
       </c>
@@ -67975,7 +68468,7 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B68" s="228" t="s">
+      <c r="B68" s="229" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -67996,7 +68489,7 @@
       <c r="Q68" s="105"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B69" s="228"/>
+      <c r="B69" s="229"/>
       <c r="C69" s="15" t="s">
         <v>449</v>
       </c>
@@ -68015,7 +68508,7 @@
       <c r="Q69" s="105"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B70" s="228"/>
+      <c r="B70" s="229"/>
       <c r="C70" s="15" t="s">
         <v>450</v>
       </c>
@@ -68034,7 +68527,7 @@
       <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B71" s="228"/>
+      <c r="B71" s="229"/>
       <c r="C71" s="15" t="s">
         <v>498</v>
       </c>
@@ -68053,7 +68546,7 @@
       <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B72" s="229"/>
+      <c r="B72" s="230"/>
       <c r="C72" s="16" t="s">
         <v>499</v>
       </c>

--- a/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
+++ b/IEDC_content_fill/IEDC_Prototype_Datasets_Batch1_Upload_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Pauliuk\FILES\ARBEIT\PROJECTS\Database\IE_DataCommons\IEDC_software\IEDC_content_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D6B80-1B66-47CD-A291-121CC0E464A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0B7B03-C996-4071-BBF2-CF695E677924}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9684" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14682" uniqueCount="3117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15143" uniqueCount="3256">
   <si>
     <t>Description</t>
   </si>
@@ -9085,9 +9085,6 @@
     <t>[Data type] measured as [Layer] of [Aspect 1] recovered as scrap from [Aspect 2] in [Aspect 3] in [Aspect 5] in [Aspect 4] for CE strategy [Aspect 6] is [value].</t>
   </si>
   <si>
-    <t>3_EI_Other_Vehicles_CIRCOMOD_D4.2_2025</t>
-  </si>
-  <si>
     <t>final energy</t>
   </si>
   <si>
@@ -9382,6 +9379,426 @@
   </si>
   <si>
     <t>June 5, 2025 update</t>
+  </si>
+  <si>
+    <t>4_PY_Manufacturing_Allwood_2024</t>
+  </si>
+  <si>
+    <t>steel and aluminium casting, rolling, shaping, cutting, and forging</t>
+  </si>
+  <si>
+    <t>about 10 different process steps</t>
+  </si>
+  <si>
+    <t>steel and aluminium in raw form, semi-finished, and finished metal</t>
+  </si>
+  <si>
+    <t>about 20 different product types</t>
+  </si>
+  <si>
+    <t>steel, aluminium</t>
+  </si>
+  <si>
+    <t>single representative value for global manufacturing technologies</t>
+  </si>
+  <si>
+    <t>2005-2020</t>
+  </si>
+  <si>
+    <t>single representative value</t>
+  </si>
+  <si>
+    <t>manufacturing yield ratios / yield factors for various steel and aluminium processing steps, from ore/scrap to finished metal products</t>
+  </si>
+  <si>
+    <t>manufacturing; process yield; manufacturing yield; yield loss; steel; aluminium</t>
+  </si>
+  <si>
+    <t>The process yield factors are estimated from a large number of sources, documented in the reference for this dataset. The time and geographical scope is not defined, an based on the sources cited, it was set to 2005-2020 and Global.</t>
+  </si>
+  <si>
+    <t>Value(m,B,p,F,v,t,r)</t>
+  </si>
+  <si>
+    <t>Yield coefficient measured as mass ratio of steel in slabs, blooms, billets processed into steel rods and bars in hot rolling in Global in 2005-2020 for CE strategy none is 94%.</t>
+  </si>
+  <si>
+    <t>[Data type] measured as [Layer] of [Aspect 1] in [Aspect 2] processed into [Aspect 4] in [Aspect 3] in [Aspect 6] in [Aspect 7] for CE strategy [Aspect 5] is [value].</t>
+  </si>
+  <si>
+    <t>Julian ALLWOOD</t>
+  </si>
+  <si>
+    <t>Table 1 in https://doi.org/10.1098/rsta.2023.0245</t>
+  </si>
+  <si>
+    <t>Table in pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1098/rsta.2023.0245</t>
+  </si>
+  <si>
+    <t>J.M. Allwood, O. Music. Material efficiency at the component level: how much metal can we do without? Philosophical Transactions of the Royal Society (2024) Volume 382, Issue 2284</t>
+  </si>
+  <si>
+    <t>3_LT_Electricity_System_Technologies_Victoria_et_al_2020</t>
+  </si>
+  <si>
+    <t>Electricity generation, distribution, and storage technologies</t>
+  </si>
+  <si>
+    <t>7 different technologies</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>aggregate value</t>
+  </si>
+  <si>
+    <t>Useful/operatin lifetime of electricity generation, distribution, and storage technologies, compiled from different sources and used for energy system modelling (pyPSA).</t>
+  </si>
+  <si>
+    <t>lifetime; useful life; lifespan; use phase; Europe; EU; energy; electricity; energy system; energy storage; electricity generation;</t>
+  </si>
+  <si>
+    <t>Data were compiled from different sources and used for energy system modelling. Original source indicated in comment field.</t>
+  </si>
+  <si>
+    <t>Lifetime of offshore wind power generation in use phase in EU27 built in all years is 27 yr.</t>
+  </si>
+  <si>
+    <t>Marta VICTORIA</t>
+  </si>
+  <si>
+    <t>https://static-content.springer.com/esm/art%3A10.1038%2Fs41467-020-20015-4/MediaObjects/41467_2020_20015_MOESM1_ESM.pdf</t>
+  </si>
+  <si>
+    <t>table in supplementary pdf file (supplementary table 5)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-020-20015-4</t>
+  </si>
+  <si>
+    <t>3_MC_Wooden_Multipurpose_Building_Buschbeck_2025</t>
+  </si>
+  <si>
+    <t>multipurpose building</t>
+  </si>
+  <si>
+    <t>3 different building construction and transformation types</t>
+  </si>
+  <si>
+    <t>main building materials and components</t>
+  </si>
+  <si>
+    <t>13 different materials and building components</t>
+  </si>
+  <si>
+    <t>contemporary building design derived from case study, applicable for ca. 2020-2030</t>
+  </si>
+  <si>
+    <t>Material composition of a case-study design multipurpose building (25 years of parking house, another 25 years of residential+office), for concrete reference, wood-based building with and without demolition between the two use phases.</t>
+  </si>
+  <si>
+    <t>material; material content; buildings; wooden building; circular economy; multipurpose building;</t>
+  </si>
+  <si>
+    <t>Data behind Figure 4 in the linked paper, available from the xlsx supplementary material</t>
+  </si>
+  <si>
+    <t>Value(r,Y,c,k)</t>
+  </si>
+  <si>
+    <t>Material composition of 7-storey multi-purpose building, wood-based, demolition measured as mass of laminated veneer lumber per unit of 7-storey multi-purpose building, wood-based, demolition in Germany built in ca. 2020-2030 is 212.67 kg/m².</t>
+  </si>
+  <si>
+    <t>[data type] of [Aspect 2] measured as [layer] of [Aspect 4] per area of [aspect 2] in [Aspect 1] built in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>Christian BUSCHBECK</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/uploads/15805315</t>
+  </si>
+  <si>
+    <t>table in xlsx supplement, Figure in paper</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6094/UNIFR/268540</t>
+  </si>
+  <si>
+    <t>Numbers manually copied from original source (supplementary xlsx) to Excel spreadsheet and reformated to IEDC data model</t>
+  </si>
+  <si>
+    <t>3_SHA_EndUseShares_Steel_Aluminium_Allwood_2025</t>
+  </si>
+  <si>
+    <t>major end uses of steel and aluminium</t>
+  </si>
+  <si>
+    <t>ca. 20 end uses per metal</t>
+  </si>
+  <si>
+    <t>steel and aluminium</t>
+  </si>
+  <si>
+    <t>10 manufacturing types for steel and 8 for aluminium (extruded, forged, cast, …)</t>
+  </si>
+  <si>
+    <t>Split ratios (%) or end-use shares or sector split of final consumption of metal of a certain type going into a certain application</t>
+  </si>
+  <si>
+    <t>Sector split; end-use shares; split ratios; final use shares; steel; aluminium</t>
+  </si>
+  <si>
+    <t>Original data source: Music and Allwood (2025): https://doi.org/10.1016/j.resconrec.2024.107949. Dataset contains sector split breakdown into material types and product groups "all forms" reports the sum over all material types. Rounding errors of up to 1% occur.</t>
+  </si>
+  <si>
+    <t>Value(m,B,p,F,r,t)</t>
+  </si>
+  <si>
+    <t>Mass ratio of total final consumption of aluminium in form of aluminium, cast going into other metal goods in use phase in Global in 202 is 2.8%.</t>
+  </si>
+  <si>
+    <t>[Layer] of total final consumption of [Aspect 1] in form of [Aspect 2] going into [Aspect 4] in [Aspect 3] in [Aspect 5] in [Aspect 6] is [Value].</t>
+  </si>
+  <si>
+    <t>Figure 10 in https://doi.org/10.1016/j.cirp.2025.04.013</t>
+  </si>
+  <si>
+    <t>Figure in pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.cirp.2025.04.013</t>
+  </si>
+  <si>
+    <t>3_EI_Other_Vehicles_CIRCOMOD</t>
+  </si>
+  <si>
+    <t>July 4, 2025 update</t>
+  </si>
+  <si>
+    <t>3_MC_Buildings_UK_Variability_DAI_2025</t>
+  </si>
+  <si>
+    <t>six different building types, differentiated by main building material and by age-cohort of construction</t>
+  </si>
+  <si>
+    <t>concrete, mortar, brick, stone</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>four different age-cohort ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometry-informed material intensity of UK housing, including intra-archetype material variability </t>
+  </si>
+  <si>
+    <t>material; material content; buildings; stone building; UK; construction</t>
+  </si>
+  <si>
+    <t>Data extracted from Fig. 2 and Table 1 in the paper.</t>
+  </si>
+  <si>
+    <t>Value(r,Y,c,m)</t>
+  </si>
+  <si>
+    <t>Material composition of residential building, measured as mass of mortar per area of residential building in UK built in 1930-1949 is 123 kg/m².</t>
+  </si>
+  <si>
+    <t>[data type] of [Aspect 2] measured as [layer] of [Aspect 4] per area of [Aspect 2] in [Aspect 1] built in [Aspect 3] is [Value].</t>
+  </si>
+  <si>
+    <t>Menglin DAI</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.resconrec.2025.108392</t>
+  </si>
+  <si>
+    <t>table and Figure in paper (pdf)</t>
+  </si>
+  <si>
+    <t>4_PY_Cobalt_Manufacturing_Recycling_GODOY-LEON_2020</t>
+  </si>
+  <si>
+    <t>waste collection, pre-processing, recycling, manufacturing</t>
+  </si>
+  <si>
+    <t>4 aggregated processes</t>
+  </si>
+  <si>
+    <t>cobalt-containing commodities</t>
+  </si>
+  <si>
+    <t>8 different groups</t>
+  </si>
+  <si>
+    <t>cobalt</t>
+  </si>
+  <si>
+    <t>single material</t>
+  </si>
+  <si>
+    <t>Global and some single-country values</t>
+  </si>
+  <si>
+    <t>1980-2017</t>
+  </si>
+  <si>
+    <t>single year values for individual data points</t>
+  </si>
+  <si>
+    <t>process yield coefficients for waste collection (collection rate), recycling (recycling rate), and manufacturing yield for cobalt-containing products</t>
+  </si>
+  <si>
+    <t>cobalt; products; metals; catalysts; alloys; process yield; yield loss; manufacturing yield; collection rate; recycling rate</t>
+  </si>
+  <si>
+    <t>Data extracted from different tables in the supplement, see the comment for each value</t>
+  </si>
+  <si>
+    <t>Value(m,k,o,p,d,r,t)</t>
+  </si>
+  <si>
+    <t>Yield coefficient for process recycling measured as mass ratio of outflow to market for recycled material over inflow from market for waste products and components for cobalt in battery, portable in Germany in 2011 is 90%.</t>
+  </si>
+  <si>
+    <t>[Data type] for process [Aspect 4] measured as [Layer] of outflow to [Aspect 5] over inflow from [Aspect 3] for [Aspect 1] in [Aspect 2] in [Aspect 6] in [Aspect 7] is [Value].</t>
+  </si>
+  <si>
+    <t>María Fernanda Godoy León</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.resconrec.2019.104564</t>
+  </si>
+  <si>
+    <t>Data extracted from paper supplement 1-s2.0-S0921344919304707-mmc1.pdf, pages 7-14, Tables A2-A13</t>
+  </si>
+  <si>
+    <t>4_SHR_Cobalt_Products_End_Uses_GODOY-LEON_2020</t>
+  </si>
+  <si>
+    <t>manufacturing and market for final goods and services</t>
+  </si>
+  <si>
+    <t>two aggregate process</t>
+  </si>
+  <si>
+    <t>all major applications of cobalt</t>
+  </si>
+  <si>
+    <t>seven product groups/components</t>
+  </si>
+  <si>
+    <t>European Union (with global markets)</t>
+  </si>
+  <si>
+    <t>One aggregate region</t>
+  </si>
+  <si>
+    <t>2010-2017</t>
+  </si>
+  <si>
+    <t>Shares of cobalt flows in different components in the EU manufacturing output and the EU final consumption, as share of cobalt flows in all products</t>
+  </si>
+  <si>
+    <t>cobalt; manufacturing; product shares; final consumption; end-use shares; sector split; EU; European Union</t>
+  </si>
+  <si>
+    <t>Values describe shares in manufacturing and market shares of final uses for cobalt-containing components.</t>
+  </si>
+  <si>
+    <t>Value(m,k,g,o,O,d,D,t)</t>
+  </si>
+  <si>
+    <t>Mass ratio indicating the share of cobalt in magnets in the flow of all products flowing from manufacturing in the EU to market for manufactured goods and components in the EU in 2016 is 1.67%.</t>
+  </si>
+  <si>
+    <t>[Layer] indicating the share of [Aspect 1] in [Aspect 2] in the flow of [Aspect 3] flowing from [Aspect 4] in [Aspect 5] to [Aspect 6] in [Aspect 7] in [Aspect 8] is [value].</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.resconrec.2020.104842</t>
+  </si>
+  <si>
+    <t>Data extracted from paper supplement 1-s2.0-S0921344920301622-mmc2.xlsx, sheet "Share end uses EU", rows 79-124.</t>
+  </si>
+  <si>
+    <t>1_F_Final_Metal_Demand_Watari_2020</t>
+  </si>
+  <si>
+    <t>material demand (use phase, final consumption)</t>
+  </si>
+  <si>
+    <t>all uses</t>
+  </si>
+  <si>
+    <t>depends on the different metals</t>
+  </si>
+  <si>
+    <t>Global total</t>
+  </si>
+  <si>
+    <t>2030 and 2050</t>
+  </si>
+  <si>
+    <t>Scenarios for the final demand of technology metals, compiled by Watari et al. (2020) from more than 80 different studies.</t>
+  </si>
+  <si>
+    <t>technology metals; final demand; review; scenarios; 2030; 2050</t>
+  </si>
+  <si>
+    <t>Paper mentions "demand", which here is interpreted as final demand</t>
+  </si>
+  <si>
+    <t>Value(m,g,o,d,r,t)</t>
+  </si>
+  <si>
+    <t>Mass of flow of platinum in fuel cells from market for final goods to use phase in Global in 2050 is 0.006 kt/yr with comment Extracted from: Watari et al. (2019), … .</t>
+  </si>
+  <si>
+    <t>[Layer] of [Data type] of [aspect1] in [aspect2] flowing from [aspect3] to [aspect4] in [aspect5] in [aspect6] has [value] with comment [comment].</t>
+  </si>
+  <si>
+    <t>Takuma WATARI</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.resconrec.2019.104669</t>
+  </si>
+  <si>
+    <t>pdf journal paper with supplementary xlsx</t>
+  </si>
+  <si>
+    <t>Numbers extracted from supplementary xlsx and converted to IEDC templates</t>
+  </si>
+  <si>
+    <t>3_LT_Cobalt_Products_GODOY-LEON_2020</t>
+  </si>
+  <si>
+    <t>1970-2015</t>
+  </si>
+  <si>
+    <t>time ranges (age-cohorts) for the different commodities</t>
+  </si>
+  <si>
+    <t>lifetime estimates (useful lifetime) compiled from various literature sources for MFA study on cobalt</t>
+  </si>
+  <si>
+    <t>cobalt; lifetime; products; metals; catalysts; alloys; use phase; useful product lifetime</t>
+  </si>
+  <si>
+    <t>Value(m,k,p;r,c)</t>
+  </si>
+  <si>
+    <t>Cobalt in magnets of age-cohort 1995-2015 in the use phase in region Japan has lifetime of 16.4 years.</t>
+  </si>
+  <si>
+    <t>[aspect1] in [aspect2] of [aspect5] in [aspect3] in [aspect 4] has [Layer] of [value].</t>
+  </si>
+  <si>
+    <t>August 4, 2025 update</t>
   </si>
 </sst>
 </file>
@@ -11128,13 +11545,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:AE39"/>
+  <dimension ref="B2:AF39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
+      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -11159,7 +11576,7 @@
     <col min="23" max="23" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>184</v>
       </c>
@@ -11174,8 +11591,9 @@
       <c r="AC2" s="105"/>
       <c r="AD2" s="105"/>
       <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B3" s="32"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -11264,8 +11682,9 @@
       <c r="AE3" s="82" t="s">
         <v>2597</v>
       </c>
+      <c r="AF3" s="105"/>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B4" s="226" t="s">
         <v>2</v>
       </c>
@@ -11356,8 +11775,9 @@
       <c r="AE4" s="140">
         <v>27</v>
       </c>
+      <c r="AF4" s="105"/>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B5" s="227"/>
       <c r="C5" s="54" t="s">
         <v>452</v>
@@ -11446,8 +11866,9 @@
       <c r="AE5" s="164" t="s">
         <v>2597</v>
       </c>
+      <c r="AF5" s="105"/>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B6" s="33"/>
       <c r="C6" s="54" t="s">
         <v>453</v>
@@ -11534,8 +11955,9 @@
       <c r="AE6" s="164" t="s">
         <v>11</v>
       </c>
+      <c r="AF6" s="105"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
@@ -11624,8 +12046,9 @@
       <c r="AE7" s="164" t="s">
         <v>11</v>
       </c>
+      <c r="AF7" s="105"/>
     </row>
-    <row r="8" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:32" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="222" t="s">
         <v>6</v>
       </c>
@@ -11714,8 +12137,9 @@
       <c r="AE8" s="23" t="s">
         <v>2598</v>
       </c>
+      <c r="AF8" s="105"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B9" s="222"/>
       <c r="C9" s="54" t="s">
         <v>424</v>
@@ -11802,8 +12226,9 @@
       <c r="AE9" s="23" t="s">
         <v>2598</v>
       </c>
+      <c r="AF9" s="105"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B10" s="222"/>
       <c r="C10" s="54" t="s">
         <v>425</v>
@@ -11890,8 +12315,9 @@
       <c r="AE10" s="23" t="s">
         <v>2598</v>
       </c>
+      <c r="AF10" s="105"/>
     </row>
-    <row r="11" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B11" s="222"/>
       <c r="C11" s="55" t="s">
         <v>426</v>
@@ -11978,8 +12404,9 @@
       <c r="AE11" s="23" t="s">
         <v>2599</v>
       </c>
+      <c r="AF11" s="105"/>
     </row>
-    <row r="12" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B12" s="222"/>
       <c r="C12" s="56" t="s">
         <v>427</v>
@@ -12066,8 +12493,9 @@
       <c r="AE12" s="23" t="s">
         <v>2589</v>
       </c>
+      <c r="AF12" s="105"/>
     </row>
-    <row r="13" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B13" s="222"/>
       <c r="C13" s="56" t="s">
         <v>428</v>
@@ -12154,8 +12582,9 @@
       <c r="AE13" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="AF13" s="105"/>
     </row>
-    <row r="14" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B14" s="222"/>
       <c r="C14" s="56" t="s">
         <v>429</v>
@@ -12242,8 +12671,9 @@
       <c r="AE14" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="AF14" s="105"/>
     </row>
-    <row r="15" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B15" s="222"/>
       <c r="C15" s="56" t="s">
         <v>430</v>
@@ -12330,8 +12760,9 @@
       <c r="AE15" s="23" t="s">
         <v>2600</v>
       </c>
+      <c r="AF15" s="105"/>
     </row>
-    <row r="16" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B16" s="222"/>
       <c r="C16" s="56" t="s">
         <v>431</v>
@@ -12418,8 +12849,9 @@
       <c r="AE16" s="23" t="s">
         <v>2600</v>
       </c>
+      <c r="AF16" s="105"/>
     </row>
-    <row r="17" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B17" s="222"/>
       <c r="C17" s="56" t="s">
         <v>432</v>
@@ -12506,8 +12938,9 @@
       <c r="AE17" s="164" t="s">
         <v>1422</v>
       </c>
+      <c r="AF17" s="105"/>
     </row>
-    <row r="18" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B18" s="222"/>
       <c r="C18" s="56" t="s">
         <v>433</v>
@@ -12594,8 +13027,9 @@
       <c r="AE18" s="164" t="s">
         <v>2601</v>
       </c>
+      <c r="AF18" s="105"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B19" s="222"/>
       <c r="C19" s="56" t="s">
         <v>434</v>
@@ -12682,8 +13116,9 @@
       <c r="AE19" s="23" t="s">
         <v>2602</v>
       </c>
+      <c r="AF19" s="105"/>
     </row>
-    <row r="20" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B20" s="222"/>
       <c r="C20" s="56" t="s">
         <v>435</v>
@@ -12770,8 +13205,9 @@
       <c r="AE20" s="164" t="s">
         <v>2603</v>
       </c>
+      <c r="AF20" s="105"/>
     </row>
-    <row r="21" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B21" s="223" t="s">
         <v>0</v>
       </c>
@@ -12860,8 +13296,9 @@
       <c r="AE21" s="23" t="s">
         <v>2604</v>
       </c>
+      <c r="AF21" s="105"/>
     </row>
-    <row r="22" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B22" s="223"/>
       <c r="C22" s="56" t="s">
         <v>437</v>
@@ -12950,8 +13387,9 @@
       <c r="AE22" s="164" t="s">
         <v>2605</v>
       </c>
+      <c r="AF22" s="105"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B23" s="223"/>
       <c r="C23" s="56" t="s">
         <v>454</v>
@@ -13038,8 +13476,9 @@
       <c r="AE23" s="164" t="s">
         <v>11</v>
       </c>
+      <c r="AF23" s="105"/>
     </row>
-    <row r="24" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B24" s="223"/>
       <c r="C24" s="56" t="s">
         <v>438</v>
@@ -13120,8 +13559,9 @@
       <c r="AC24" s="164"/>
       <c r="AD24" s="164"/>
       <c r="AE24" s="164"/>
+      <c r="AF24" s="105"/>
     </row>
-    <row r="25" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:32" ht="13.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="224" t="s">
         <v>8</v>
       </c>
@@ -13210,8 +13650,9 @@
       <c r="AE25" s="23" t="s">
         <v>206</v>
       </c>
+      <c r="AF25" s="105"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B26" s="224"/>
       <c r="C26" s="54" t="s">
         <v>440</v>
@@ -13298,8 +13739,9 @@
       <c r="AE26" s="164" t="s">
         <v>858</v>
       </c>
+      <c r="AF26" s="105"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B27" s="224"/>
       <c r="C27" s="13" t="s">
         <v>441</v>
@@ -13386,8 +13828,9 @@
       <c r="AE27" s="164" t="s">
         <v>2606</v>
       </c>
+      <c r="AF27" s="105"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B28" s="224"/>
       <c r="C28" s="13" t="s">
         <v>443</v>
@@ -13474,8 +13917,9 @@
       <c r="AE28" s="179" t="s">
         <v>2607</v>
       </c>
+      <c r="AF28" s="105"/>
     </row>
-    <row r="29" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B29" s="224"/>
       <c r="C29" s="13" t="s">
         <v>444</v>
@@ -13562,8 +14006,9 @@
       <c r="AE29" s="179" t="s">
         <v>2607</v>
       </c>
+      <c r="AF29" s="105"/>
     </row>
-    <row r="30" spans="2:31" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:32" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B30" s="224"/>
       <c r="C30" s="13" t="s">
         <v>445</v>
@@ -13650,8 +14095,9 @@
       <c r="AE30" s="179" t="s">
         <v>2607</v>
       </c>
+      <c r="AF30" s="105"/>
     </row>
-    <row r="31" spans="2:31" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:32" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="225" t="s">
         <v>9</v>
       </c>
@@ -13742,8 +14188,9 @@
       <c r="AE31" s="161">
         <v>45772</v>
       </c>
+      <c r="AF31" s="105"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B32" s="228"/>
       <c r="C32" s="86" t="s">
         <v>447</v>
@@ -13832,8 +14279,9 @@
       <c r="AE32" s="164" t="s">
         <v>30</v>
       </c>
+      <c r="AF32" s="105"/>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B33" s="218" t="s">
         <v>185</v>
       </c>
@@ -13868,8 +14316,9 @@
       <c r="AC33" s="164"/>
       <c r="AD33" s="164"/>
       <c r="AE33" s="164"/>
+      <c r="AF33" s="105"/>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B34" s="219"/>
       <c r="C34" s="15" t="s">
         <v>449</v>
@@ -13902,8 +14351,9 @@
       <c r="AC34" s="164"/>
       <c r="AD34" s="164"/>
       <c r="AE34" s="164"/>
+      <c r="AF34" s="105"/>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B35" s="220"/>
       <c r="C35" s="16" t="s">
         <v>450</v>
@@ -13936,11 +14386,12 @@
       <c r="AC35" s="166"/>
       <c r="AD35" s="166"/>
       <c r="AE35" s="166"/>
+      <c r="AF35" s="105"/>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.4">
       <c r="W36" s="105"/>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.4">
       <c r="I39" s="12"/>
     </row>
   </sheetData>
@@ -13959,13 +14410,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:GW74"/>
+  <dimension ref="A1:IU74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="FZ33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="GE30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="GP3" sqref="GP3"/>
+      <selection pane="bottomRight" activeCell="GY2" sqref="GY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -14026,7 +14477,7 @@
     <col min="70" max="16384" width="11.5546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:198" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:207" x14ac:dyDescent="0.4">
       <c r="C1" s="73" t="s">
         <v>269</v>
       </c>
@@ -14528,8 +14979,17 @@
       <c r="GN1" s="174"/>
       <c r="GO1" s="174"/>
       <c r="GP1" s="174"/>
+      <c r="GQ1" s="174"/>
+      <c r="GR1" s="174"/>
+      <c r="GS1" s="174"/>
+      <c r="GT1" s="174"/>
+      <c r="GU1" s="174"/>
+      <c r="GV1" s="174"/>
+      <c r="GW1" s="174"/>
+      <c r="GX1" s="174"/>
+      <c r="GY1" s="174"/>
     </row>
-    <row r="2" spans="1:198" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:207" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B2" s="34" t="s">
         <v>183</v>
       </c>
@@ -14919,28 +15379,55 @@
         <v>2987</v>
       </c>
       <c r="GJ2" s="154" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="GK2" s="154" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="GL2" s="154" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="GM2" s="154" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="GN2" s="154" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="GO2" s="154" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="GP2" s="154" t="s">
-        <v>3116</v>
+        <v>3115</v>
+      </c>
+      <c r="GQ2" s="154" t="s">
+        <v>3181</v>
+      </c>
+      <c r="GR2" s="154" t="s">
+        <v>3181</v>
+      </c>
+      <c r="GS2" s="154" t="s">
+        <v>3181</v>
+      </c>
+      <c r="GT2" s="154" t="s">
+        <v>3181</v>
+      </c>
+      <c r="GU2" s="154" t="s">
+        <v>3255</v>
+      </c>
+      <c r="GV2" s="154" t="s">
+        <v>3255</v>
+      </c>
+      <c r="GW2" s="154" t="s">
+        <v>3255</v>
+      </c>
+      <c r="GX2" s="154" t="s">
+        <v>3255</v>
+      </c>
+      <c r="GY2" s="154" t="s">
+        <v>3255</v>
       </c>
     </row>
-    <row r="3" spans="1:198" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:207" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="17" t="s">
         <v>181</v>
@@ -15193,7 +15680,7 @@
       <c r="DS3" s="105"/>
       <c r="DT3" s="105"/>
     </row>
-    <row r="4" spans="1:198" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:207" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>1</v>
       </c>
@@ -15451,7 +15938,7 @@
       <c r="DS4" s="105"/>
       <c r="DT4" s="105"/>
     </row>
-    <row r="5" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41">
         <v>2</v>
       </c>
@@ -16024,28 +16511,55 @@
         <v>3006</v>
       </c>
       <c r="GJ5" s="159" t="s">
-        <v>3018</v>
+        <v>3180</v>
       </c>
       <c r="GK5" s="159" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="GL5" s="115" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="GM5" s="115" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="GN5" s="115" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="GO5" s="115" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="GP5" s="115" t="s">
-        <v>3100</v>
+        <v>3099</v>
+      </c>
+      <c r="GQ5" s="208" t="s">
+        <v>3116</v>
+      </c>
+      <c r="GR5" s="115" t="s">
+        <v>3136</v>
+      </c>
+      <c r="GS5" s="115" t="s">
+        <v>3149</v>
+      </c>
+      <c r="GT5" s="115" t="s">
+        <v>3166</v>
+      </c>
+      <c r="GU5" s="115" t="s">
+        <v>3182</v>
+      </c>
+      <c r="GV5" s="115" t="s">
+        <v>3196</v>
+      </c>
+      <c r="GW5" s="115" t="s">
+        <v>3215</v>
+      </c>
+      <c r="GX5" s="115" t="s">
+        <v>3231</v>
+      </c>
+      <c r="GY5" s="115" t="s">
+        <v>3247</v>
       </c>
     </row>
-    <row r="6" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="92">
         <v>3</v>
       </c>
@@ -16636,8 +17150,35 @@
       <c r="GP6" s="115" t="s">
         <v>2490</v>
       </c>
+      <c r="GQ6" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GX6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY6" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="92">
         <v>4</v>
       </c>
@@ -17230,8 +17771,35 @@
       <c r="GP7" s="115" t="s">
         <v>845</v>
       </c>
+      <c r="GQ7" s="208" t="s">
+        <v>845</v>
+      </c>
+      <c r="GR7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="GS7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="GT7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="GU7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="GV7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="GW7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="GX7" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="GY7" s="115" t="s">
+        <v>845</v>
+      </c>
     </row>
-    <row r="8" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="92">
         <v>5</v>
       </c>
@@ -17824,8 +18392,35 @@
       <c r="GP8" s="115">
         <v>3</v>
       </c>
+      <c r="GQ8" s="208">
+        <v>4</v>
+      </c>
+      <c r="GR8" s="115">
+        <v>3</v>
+      </c>
+      <c r="GS8" s="115">
+        <v>3</v>
+      </c>
+      <c r="GT8" s="115">
+        <v>3</v>
+      </c>
+      <c r="GU8" s="115">
+        <v>3</v>
+      </c>
+      <c r="GV8" s="115">
+        <v>4</v>
+      </c>
+      <c r="GW8" s="115">
+        <v>4</v>
+      </c>
+      <c r="GX8" s="115">
+        <v>1</v>
+      </c>
+      <c r="GY8" s="115">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="92">
         <v>6</v>
       </c>
@@ -18413,13 +19008,40 @@
         <v>1</v>
       </c>
       <c r="GO9" s="115" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="GP9" s="115" t="s">
         <v>57</v>
       </c>
+      <c r="GQ9" s="208" t="s">
+        <v>94</v>
+      </c>
+      <c r="GR9" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="GS9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="GT9" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="GU9" s="115" t="s">
+        <v>846</v>
+      </c>
+      <c r="GV9" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="GW9" s="115" t="s">
+        <v>2904</v>
+      </c>
+      <c r="GX9" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="GY9" s="115" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="92">
         <v>7</v>
       </c>
@@ -18992,7 +19614,7 @@
         <v>5</v>
       </c>
       <c r="GJ10" s="159" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="GK10" s="159" t="s">
         <v>57</v>
@@ -19012,8 +19634,35 @@
       <c r="GP10" s="115" t="s">
         <v>57</v>
       </c>
+      <c r="GQ10" s="208" t="s">
+        <v>5</v>
+      </c>
+      <c r="GR10" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="GS10" s="115" t="s">
+        <v>824</v>
+      </c>
+      <c r="GT10" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="GU10" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="GV10" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="GW10" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="GX10" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="GY10" s="115" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="11" spans="1:198" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:207" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="92">
         <v>8</v>
       </c>
@@ -19589,7 +20238,7 @@
         <v>32</v>
       </c>
       <c r="GK11" s="159" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="GL11" s="115" t="s">
         <v>32</v>
@@ -19601,13 +20250,40 @@
         <v>1474</v>
       </c>
       <c r="GO11" s="115" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="GP11" s="115" t="s">
         <v>32</v>
       </c>
+      <c r="GQ11" s="209" t="s">
+        <v>3117</v>
+      </c>
+      <c r="GR11" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="GS11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="GT11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="GU11" s="115" t="s">
+        <v>782</v>
+      </c>
+      <c r="GV11" s="115" t="s">
+        <v>3197</v>
+      </c>
+      <c r="GW11" s="115" t="s">
+        <v>3216</v>
+      </c>
+      <c r="GX11" s="115" t="s">
+        <v>3232</v>
+      </c>
+      <c r="GY11" s="115" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92">
         <v>9</v>
       </c>
@@ -20178,10 +20854,10 @@
         <v>3008</v>
       </c>
       <c r="GJ12" s="159" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="GK12" s="159" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="GL12" s="115" t="s">
         <v>152</v>
@@ -20193,13 +20869,40 @@
         <v>2274</v>
       </c>
       <c r="GO12" s="115" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="GP12" s="115" t="s">
         <v>152</v>
       </c>
+      <c r="GQ12" s="208" t="s">
+        <v>3118</v>
+      </c>
+      <c r="GR12" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="GS12" s="115" t="s">
+        <v>2274</v>
+      </c>
+      <c r="GT12" s="115" t="s">
+        <v>2274</v>
+      </c>
+      <c r="GU12" s="115" t="s">
+        <v>2274</v>
+      </c>
+      <c r="GV12" s="115" t="s">
+        <v>3198</v>
+      </c>
+      <c r="GW12" s="115" t="s">
+        <v>3217</v>
+      </c>
+      <c r="GX12" s="115" t="s">
+        <v>2274</v>
+      </c>
+      <c r="GY12" s="115" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="13" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="92">
         <v>10</v>
       </c>
@@ -20770,13 +21473,13 @@
         <v>597</v>
       </c>
       <c r="GJ13" s="159" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="GK13" s="159" t="s">
         <v>2935</v>
       </c>
       <c r="GL13" s="115" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="GM13" s="115" t="s">
         <v>1561</v>
@@ -20785,13 +21488,40 @@
         <v>11</v>
       </c>
       <c r="GO13" s="115" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="GP13" s="115" t="s">
-        <v>3101</v>
+        <v>3100</v>
+      </c>
+      <c r="GQ13" s="208" t="s">
+        <v>3119</v>
+      </c>
+      <c r="GR13" s="115" t="s">
+        <v>3137</v>
+      </c>
+      <c r="GS13" s="115" t="s">
+        <v>3150</v>
+      </c>
+      <c r="GT13" s="115" t="s">
+        <v>3167</v>
+      </c>
+      <c r="GU13" s="115" t="s">
+        <v>756</v>
+      </c>
+      <c r="GV13" s="115" t="s">
+        <v>3199</v>
+      </c>
+      <c r="GW13" s="115" t="s">
+        <v>3218</v>
+      </c>
+      <c r="GX13" s="115" t="s">
+        <v>3233</v>
+      </c>
+      <c r="GY13" s="115" t="s">
+        <v>3199</v>
       </c>
     </row>
-    <row r="14" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="92">
         <v>11</v>
       </c>
@@ -21362,28 +22092,55 @@
         <v>816</v>
       </c>
       <c r="GJ14" s="159" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="GK14" s="159" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="GL14" s="115" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="GM14" s="115" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="GN14" s="115" t="s">
         <v>11</v>
       </c>
       <c r="GO14" s="115" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="GP14" s="115" t="s">
-        <v>3102</v>
+        <v>3101</v>
+      </c>
+      <c r="GQ14" s="208" t="s">
+        <v>3120</v>
+      </c>
+      <c r="GR14" s="115" t="s">
+        <v>3138</v>
+      </c>
+      <c r="GS14" s="115" t="s">
+        <v>3151</v>
+      </c>
+      <c r="GT14" s="115" t="s">
+        <v>3168</v>
+      </c>
+      <c r="GU14" s="115" t="s">
+        <v>3183</v>
+      </c>
+      <c r="GV14" s="115" t="s">
+        <v>3200</v>
+      </c>
+      <c r="GW14" s="115" t="s">
+        <v>3219</v>
+      </c>
+      <c r="GX14" s="115" t="s">
+        <v>3234</v>
+      </c>
+      <c r="GY14" s="115" t="s">
+        <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="92">
         <v>12</v>
       </c>
@@ -21963,19 +22720,46 @@
         <v>11</v>
       </c>
       <c r="GM15" s="115" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="GN15" s="115" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="GO15" s="115" t="s">
         <v>347</v>
       </c>
       <c r="GP15" s="115" t="s">
-        <v>3103</v>
+        <v>3102</v>
+      </c>
+      <c r="GQ15" s="208" t="s">
+        <v>3121</v>
+      </c>
+      <c r="GR15" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS15" s="115" t="s">
+        <v>3152</v>
+      </c>
+      <c r="GT15" s="115" t="s">
+        <v>3169</v>
+      </c>
+      <c r="GU15" s="115" t="s">
+        <v>3152</v>
+      </c>
+      <c r="GV15" s="115" t="s">
+        <v>3201</v>
+      </c>
+      <c r="GW15" s="115" t="s">
+        <v>3201</v>
+      </c>
+      <c r="GX15" s="115" t="s">
+        <v>2656</v>
+      </c>
+      <c r="GY15" s="115" t="s">
+        <v>3201</v>
       </c>
     </row>
-    <row r="16" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="92">
         <v>13</v>
       </c>
@@ -22555,19 +23339,46 @@
         <v>11</v>
       </c>
       <c r="GM16" s="115" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="GN16" s="115" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="GO16" s="115" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="GP16" s="115" t="s">
-        <v>3104</v>
+        <v>3103</v>
+      </c>
+      <c r="GQ16" s="208" t="s">
+        <v>2979</v>
+      </c>
+      <c r="GR16" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS16" s="115" t="s">
+        <v>3153</v>
+      </c>
+      <c r="GT16" s="115" t="s">
+        <v>3170</v>
+      </c>
+      <c r="GU16" s="115" t="s">
+        <v>3184</v>
+      </c>
+      <c r="GV16" s="115" t="s">
+        <v>3202</v>
+      </c>
+      <c r="GW16" s="115" t="s">
+        <v>1680</v>
+      </c>
+      <c r="GX16" s="115" t="s">
+        <v>2657</v>
+      </c>
+      <c r="GY16" s="115" t="s">
+        <v>3202</v>
       </c>
     </row>
-    <row r="17" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="92">
         <v>14</v>
       </c>
@@ -23153,13 +23964,40 @@
         <v>19</v>
       </c>
       <c r="GO17" s="115" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="GP17" s="115" t="s">
         <v>138</v>
       </c>
+      <c r="GQ17" s="208" t="s">
+        <v>19</v>
+      </c>
+      <c r="GR17" s="115" t="s">
+        <v>3139</v>
+      </c>
+      <c r="GS17" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="GT17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="GU17" s="115" t="s">
+        <v>3185</v>
+      </c>
+      <c r="GV17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="GW17" s="115" t="s">
+        <v>3220</v>
+      </c>
+      <c r="GX17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="GY17" s="115" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="18" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="92">
         <v>15</v>
       </c>
@@ -23733,7 +24571,7 @@
         <v>2996</v>
       </c>
       <c r="GK18" s="159" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="GL18" s="115" t="s">
         <v>2762</v>
@@ -23745,13 +24583,40 @@
         <v>2658</v>
       </c>
       <c r="GO18" s="115" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="GP18" s="115" t="s">
         <v>2762</v>
       </c>
+      <c r="GQ18" s="208" t="s">
+        <v>3122</v>
+      </c>
+      <c r="GR18" s="115" t="s">
+        <v>3140</v>
+      </c>
+      <c r="GS18" s="115" t="s">
+        <v>2050</v>
+      </c>
+      <c r="GT18" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="GU18" s="115" t="s">
+        <v>2050</v>
+      </c>
+      <c r="GV18" s="115" t="s">
+        <v>3203</v>
+      </c>
+      <c r="GW18" s="115" t="s">
+        <v>3221</v>
+      </c>
+      <c r="GX18" s="115" t="s">
+        <v>3235</v>
+      </c>
+      <c r="GY18" s="115" t="s">
+        <v>3203</v>
+      </c>
     </row>
-    <row r="19" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="92">
         <v>16</v>
       </c>
@@ -24322,28 +25187,55 @@
         <v>3011</v>
       </c>
       <c r="GJ19" s="159" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="GK19" s="159" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="GL19" s="115" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="GM19" s="115" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="GN19" s="115" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="GO19" s="115" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="GP19" s="115" t="s">
-        <v>3047</v>
+        <v>3046</v>
+      </c>
+      <c r="GQ19" s="208" t="s">
+        <v>3123</v>
+      </c>
+      <c r="GR19" s="115" t="s">
+        <v>3046</v>
+      </c>
+      <c r="GS19" s="115" t="s">
+        <v>3154</v>
+      </c>
+      <c r="GT19" s="115">
+        <v>2023</v>
+      </c>
+      <c r="GU19" s="115" t="s">
+        <v>1811</v>
+      </c>
+      <c r="GV19" s="115" t="s">
+        <v>3204</v>
+      </c>
+      <c r="GW19" s="115" t="s">
+        <v>3222</v>
+      </c>
+      <c r="GX19" s="115" t="s">
+        <v>3236</v>
+      </c>
+      <c r="GY19" s="115" t="s">
+        <v>3248</v>
       </c>
     </row>
-    <row r="20" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="92">
         <v>17</v>
       </c>
@@ -24914,10 +25806,10 @@
         <v>3012</v>
       </c>
       <c r="GJ20" s="159" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="GK20" s="159" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="GL20" s="115" t="s">
         <v>2349</v>
@@ -24932,10 +25824,37 @@
         <v>1145</v>
       </c>
       <c r="GP20" s="115" t="s">
-        <v>3105</v>
+        <v>3104</v>
+      </c>
+      <c r="GQ20" s="208" t="s">
+        <v>3124</v>
+      </c>
+      <c r="GR20" s="115" t="s">
+        <v>3104</v>
+      </c>
+      <c r="GS20" s="115" t="s">
+        <v>2050</v>
+      </c>
+      <c r="GT20" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="GU20" s="115" t="s">
+        <v>3186</v>
+      </c>
+      <c r="GV20" s="115" t="s">
+        <v>3205</v>
+      </c>
+      <c r="GW20" s="115" t="s">
+        <v>1145</v>
+      </c>
+      <c r="GX20" s="115" t="s">
+        <v>1145</v>
+      </c>
+      <c r="GY20" s="115" t="s">
+        <v>3249</v>
       </c>
     </row>
-    <row r="21" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="92">
         <v>18</v>
       </c>
@@ -25502,28 +26421,55 @@
         <v>3013</v>
       </c>
       <c r="GJ21" s="159" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="GK21" s="159" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="GL21" s="115" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="GM21" s="115" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="GN21" s="115" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="GO21" s="115" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="GP21" s="115" t="s">
-        <v>3106</v>
+        <v>3105</v>
+      </c>
+      <c r="GQ21" s="208" t="s">
+        <v>3125</v>
+      </c>
+      <c r="GR21" s="115" t="s">
+        <v>3141</v>
+      </c>
+      <c r="GS21" s="115" t="s">
+        <v>3155</v>
+      </c>
+      <c r="GT21" s="115" t="s">
+        <v>3171</v>
+      </c>
+      <c r="GU21" s="115" t="s">
+        <v>3187</v>
+      </c>
+      <c r="GV21" s="115" t="s">
+        <v>3206</v>
+      </c>
+      <c r="GW21" s="115" t="s">
+        <v>3223</v>
+      </c>
+      <c r="GX21" s="115" t="s">
+        <v>3237</v>
+      </c>
+      <c r="GY21" s="115" t="s">
+        <v>3250</v>
       </c>
     </row>
-    <row r="22" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="92">
         <v>19</v>
       </c>
@@ -26096,28 +27042,55 @@
         <v>3014</v>
       </c>
       <c r="GJ22" s="159" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="GK22" s="159" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="GL22" s="115" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="GM22" s="115" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="GN22" s="115" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="GO22" s="115" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="GP22" s="115" t="s">
-        <v>3107</v>
+        <v>3106</v>
+      </c>
+      <c r="GQ22" s="208" t="s">
+        <v>3126</v>
+      </c>
+      <c r="GR22" s="115" t="s">
+        <v>3142</v>
+      </c>
+      <c r="GS22" s="115" t="s">
+        <v>3156</v>
+      </c>
+      <c r="GT22" s="115" t="s">
+        <v>3172</v>
+      </c>
+      <c r="GU22" s="115" t="s">
+        <v>3188</v>
+      </c>
+      <c r="GV22" s="115" t="s">
+        <v>3207</v>
+      </c>
+      <c r="GW22" s="115" t="s">
+        <v>3224</v>
+      </c>
+      <c r="GX22" s="115" t="s">
+        <v>3238</v>
+      </c>
+      <c r="GY22" s="115" t="s">
+        <v>3251</v>
       </c>
     </row>
-    <row r="23" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="92">
         <v>20</v>
       </c>
@@ -26710,8 +27683,35 @@
       <c r="GP23" s="115" t="s">
         <v>77</v>
       </c>
+      <c r="GQ23" s="208" t="s">
+        <v>24</v>
+      </c>
+      <c r="GR23" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="GS23" s="115" t="s">
+        <v>1054</v>
+      </c>
+      <c r="GT23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="GU23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="GV23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="GW23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="GX23" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="GY23" s="115" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="24" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="92">
         <v>21</v>
       </c>
@@ -27304,8 +28304,35 @@
       <c r="GP24" s="183">
         <v>32</v>
       </c>
+      <c r="GQ24" s="208">
+        <v>25</v>
+      </c>
+      <c r="GR24" s="183">
+        <v>36</v>
+      </c>
+      <c r="GS24" s="115">
+        <v>45</v>
+      </c>
+      <c r="GT24" s="69">
+        <v>419</v>
+      </c>
+      <c r="GU24" s="115">
+        <v>94</v>
+      </c>
+      <c r="GV24" s="115">
+        <v>134</v>
+      </c>
+      <c r="GW24" s="115">
+        <v>105</v>
+      </c>
+      <c r="GX24" s="115">
+        <v>549</v>
+      </c>
+      <c r="GY24" s="115">
+        <v>59</v>
+      </c>
     </row>
-    <row r="25" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="92">
         <v>22</v>
       </c>
@@ -27874,16 +28901,16 @@
         <v>11</v>
       </c>
       <c r="GK25" s="159" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="GL25" s="115" t="s">
         <v>11</v>
       </c>
       <c r="GM25" s="115" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="GN25" s="217" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="GO25" s="115" t="s">
         <v>11</v>
@@ -27891,8 +28918,35 @@
       <c r="GP25" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ25" s="208" t="s">
+        <v>3127</v>
+      </c>
+      <c r="GR25" s="115" t="s">
+        <v>3143</v>
+      </c>
+      <c r="GS25" s="115" t="s">
+        <v>3157</v>
+      </c>
+      <c r="GT25" s="115" t="s">
+        <v>3173</v>
+      </c>
+      <c r="GU25" s="115" t="s">
+        <v>3189</v>
+      </c>
+      <c r="GV25" s="115" t="s">
+        <v>3208</v>
+      </c>
+      <c r="GW25" s="115" t="s">
+        <v>3225</v>
+      </c>
+      <c r="GX25" s="115" t="s">
+        <v>3239</v>
+      </c>
+      <c r="GY25" s="115" t="s">
+        <v>3208</v>
+      </c>
     </row>
-    <row r="26" spans="1:198" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:207" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="92">
         <v>23</v>
       </c>
@@ -28487,8 +29541,35 @@
       <c r="GP26" s="115" t="s">
         <v>849</v>
       </c>
+      <c r="GQ26" s="208" t="s">
+        <v>849</v>
+      </c>
+      <c r="GR26" s="115" t="s">
+        <v>696</v>
+      </c>
+      <c r="GS26" s="159" t="s">
+        <v>698</v>
+      </c>
+      <c r="GT26" s="159" t="s">
+        <v>849</v>
+      </c>
+      <c r="GU26" s="159" t="s">
+        <v>698</v>
+      </c>
+      <c r="GV26" s="159" t="s">
+        <v>849</v>
+      </c>
+      <c r="GW26" s="159" t="s">
+        <v>849</v>
+      </c>
+      <c r="GX26" s="159" t="s">
+        <v>849</v>
+      </c>
+      <c r="GY26" s="115" t="s">
+        <v>849</v>
+      </c>
     </row>
-    <row r="27" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="92">
         <v>24</v>
       </c>
@@ -29081,8 +30162,35 @@
       <c r="GP27" s="115">
         <v>4</v>
       </c>
+      <c r="GQ27" s="210">
+        <v>4</v>
+      </c>
+      <c r="GR27" s="115">
+        <v>7</v>
+      </c>
+      <c r="GS27" s="159">
+        <v>2</v>
+      </c>
+      <c r="GT27" s="159">
+        <v>4</v>
+      </c>
+      <c r="GU27" s="159">
+        <v>2</v>
+      </c>
+      <c r="GV27" s="159">
+        <v>4</v>
+      </c>
+      <c r="GW27" s="159">
+        <v>4</v>
+      </c>
+      <c r="GX27" s="159">
+        <v>4</v>
+      </c>
+      <c r="GY27" s="115">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="92">
         <v>25</v>
       </c>
@@ -29673,8 +30781,35 @@
       <c r="GP28" s="115" t="s">
         <v>696</v>
       </c>
+      <c r="GQ28" s="208" t="s">
+        <v>707</v>
+      </c>
+      <c r="GR28" s="169" t="s">
+        <v>697</v>
+      </c>
+      <c r="GS28" s="159" t="s">
+        <v>851</v>
+      </c>
+      <c r="GT28" s="159" t="s">
+        <v>707</v>
+      </c>
+      <c r="GU28" s="159" t="s">
+        <v>851</v>
+      </c>
+      <c r="GV28" s="159" t="s">
+        <v>1640</v>
+      </c>
+      <c r="GW28" s="159" t="s">
+        <v>1640</v>
+      </c>
+      <c r="GX28" s="159" t="s">
+        <v>696</v>
+      </c>
+      <c r="GY28" s="115" t="s">
+        <v>1640</v>
+      </c>
     </row>
-    <row r="29" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="92">
         <v>26</v>
       </c>
@@ -30265,8 +31400,35 @@
       <c r="GP29" s="115">
         <v>7</v>
       </c>
+      <c r="GQ29" s="208">
+        <v>7</v>
+      </c>
+      <c r="GR29" s="184">
+        <v>6</v>
+      </c>
+      <c r="GS29" s="182">
+        <v>13</v>
+      </c>
+      <c r="GT29" s="159">
+        <v>7</v>
+      </c>
+      <c r="GU29" s="182">
+        <v>13</v>
+      </c>
+      <c r="GV29" s="184">
+        <v>90</v>
+      </c>
+      <c r="GW29" s="184">
+        <v>90</v>
+      </c>
+      <c r="GX29" s="184">
+        <v>7</v>
+      </c>
+      <c r="GY29" s="115">
+        <v>90</v>
+      </c>
     </row>
-    <row r="30" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="92">
         <v>27</v>
       </c>
@@ -30857,8 +32019,35 @@
       <c r="GP30" s="169" t="s">
         <v>697</v>
       </c>
+      <c r="GQ30" s="208" t="s">
+        <v>697</v>
+      </c>
+      <c r="GR30" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="GS30" s="159" t="s">
+        <v>704</v>
+      </c>
+      <c r="GT30" s="159" t="s">
+        <v>697</v>
+      </c>
+      <c r="GU30" s="159" t="s">
+        <v>704</v>
+      </c>
+      <c r="GV30" s="159" t="s">
+        <v>699</v>
+      </c>
+      <c r="GW30" s="159" t="s">
+        <v>696</v>
+      </c>
+      <c r="GX30" s="159" t="s">
+        <v>699</v>
+      </c>
+      <c r="GY30" s="115" t="s">
+        <v>697</v>
+      </c>
     </row>
-    <row r="31" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="92">
         <v>28</v>
       </c>
@@ -31449,8 +32638,35 @@
       <c r="GP31" s="184">
         <v>6</v>
       </c>
+      <c r="GQ31" s="209">
+        <v>6</v>
+      </c>
+      <c r="GR31" s="115">
+        <v>2</v>
+      </c>
+      <c r="GS31" s="159">
+        <v>14</v>
+      </c>
+      <c r="GT31" s="159">
+        <v>6</v>
+      </c>
+      <c r="GU31" s="159">
+        <v>14</v>
+      </c>
+      <c r="GV31" s="159">
+        <v>6</v>
+      </c>
+      <c r="GW31" s="159">
+        <v>7</v>
+      </c>
+      <c r="GX31" s="159">
+        <v>6</v>
+      </c>
+      <c r="GY31" s="184">
+        <v>6</v>
+      </c>
     </row>
-    <row r="32" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="92">
         <v>29</v>
       </c>
@@ -32041,8 +33257,35 @@
       <c r="GP32" s="115" t="s">
         <v>698</v>
       </c>
+      <c r="GQ32" s="208" t="s">
+        <v>799</v>
+      </c>
+      <c r="GR32" s="115" t="s">
+        <v>704</v>
+      </c>
+      <c r="GS32" s="184" t="s">
+        <v>1640</v>
+      </c>
+      <c r="GT32" s="159" t="s">
+        <v>799</v>
+      </c>
+      <c r="GU32" s="184" t="s">
+        <v>849</v>
+      </c>
+      <c r="GV32" s="159" t="s">
+        <v>697</v>
+      </c>
+      <c r="GW32" s="159" t="s">
+        <v>699</v>
+      </c>
+      <c r="GX32" s="159" t="s">
+        <v>700</v>
+      </c>
+      <c r="GY32" s="115" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="33" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92">
         <v>30</v>
       </c>
@@ -32633,8 +33876,35 @@
       <c r="GP33" s="115">
         <v>2</v>
       </c>
+      <c r="GQ33" s="208">
+        <v>7</v>
+      </c>
+      <c r="GR33" s="115">
+        <v>14</v>
+      </c>
+      <c r="GS33" s="159">
+        <v>81</v>
+      </c>
+      <c r="GT33" s="159">
+        <v>7</v>
+      </c>
+      <c r="GU33" s="159">
+        <v>4</v>
+      </c>
+      <c r="GV33" s="159">
+        <v>6</v>
+      </c>
+      <c r="GW33" s="159">
+        <v>6</v>
+      </c>
+      <c r="GX33" s="184">
+        <v>6</v>
+      </c>
+      <c r="GY33" s="115">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="92">
         <v>31</v>
       </c>
@@ -33225,8 +34495,35 @@
       <c r="GP34" s="115" t="s">
         <v>704</v>
       </c>
+      <c r="GQ34" s="208" t="s">
+        <v>1441</v>
+      </c>
+      <c r="GR34" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS34" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT34" s="184" t="s">
+        <v>698</v>
+      </c>
+      <c r="GU34" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV34" s="159" t="s">
+        <v>700</v>
+      </c>
+      <c r="GW34" s="184" t="s">
+        <v>804</v>
+      </c>
+      <c r="GX34" s="184" t="s">
+        <v>698</v>
+      </c>
+      <c r="GY34" s="184" t="s">
+        <v>704</v>
+      </c>
     </row>
-    <row r="35" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="92">
         <v>32</v>
       </c>
@@ -33817,8 +35114,35 @@
       <c r="GP35" s="115">
         <v>14</v>
       </c>
+      <c r="GQ35" s="209">
+        <v>86</v>
+      </c>
+      <c r="GR35" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS35" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT35" s="159">
+        <v>2</v>
+      </c>
+      <c r="GU35" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV35" s="184">
+        <v>6</v>
+      </c>
+      <c r="GW35" s="184">
+        <v>2</v>
+      </c>
+      <c r="GX35" s="184">
+        <v>2</v>
+      </c>
+      <c r="GY35" s="115">
+        <v>14</v>
+      </c>
     </row>
-    <row r="36" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="92">
         <v>33</v>
       </c>
@@ -34409,8 +35733,35 @@
       <c r="GP36" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ36" s="211" t="s">
+        <v>702</v>
+      </c>
+      <c r="GR36" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS36" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT36" s="184" t="s">
+        <v>702</v>
+      </c>
+      <c r="GU36" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV36" s="184" t="s">
+        <v>698</v>
+      </c>
+      <c r="GW36" s="159" t="s">
+        <v>700</v>
+      </c>
+      <c r="GX36" s="159" t="s">
+        <v>702</v>
+      </c>
+      <c r="GY36" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="92">
         <v>34</v>
       </c>
@@ -35001,8 +36352,35 @@
       <c r="GP37" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ37" s="210">
+        <v>14</v>
+      </c>
+      <c r="GR37" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS37" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT37" s="184">
+        <v>3</v>
+      </c>
+      <c r="GU37" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV37" s="184">
+        <v>2</v>
+      </c>
+      <c r="GW37" s="184">
+        <v>6</v>
+      </c>
+      <c r="GX37" s="159">
+        <v>3</v>
+      </c>
+      <c r="GY37" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="92">
         <v>35</v>
       </c>
@@ -35593,8 +36971,35 @@
       <c r="GP38" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ38" s="211" t="s">
+        <v>698</v>
+      </c>
+      <c r="GR38" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV38" s="159" t="s">
+        <v>702</v>
+      </c>
+      <c r="GW38" s="184" t="s">
+        <v>805</v>
+      </c>
+      <c r="GX38" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY38" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="39" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="92">
         <v>36</v>
       </c>
@@ -36185,8 +37590,35 @@
       <c r="GP39" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ39" s="210">
+        <v>2</v>
+      </c>
+      <c r="GR39" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV39" s="159">
+        <v>3</v>
+      </c>
+      <c r="GW39" s="184">
+        <v>2</v>
+      </c>
+      <c r="GX39" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY39" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="40" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="92">
         <v>37</v>
       </c>
@@ -36777,8 +38209,35 @@
       <c r="GP40" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ40" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR40" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW40" s="159" t="s">
+        <v>702</v>
+      </c>
+      <c r="GX40" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY40" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="92">
         <v>38</v>
       </c>
@@ -37369,8 +38828,35 @@
       <c r="GP41" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ41" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR41" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW41" s="159">
+        <v>3</v>
+      </c>
+      <c r="GX41" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY41" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="42" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="92">
         <v>39</v>
       </c>
@@ -37961,8 +39447,35 @@
       <c r="GP42" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ42" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR42" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GX42" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY42" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="92">
         <v>40</v>
       </c>
@@ -38553,8 +40066,35 @@
       <c r="GP43" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ43" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR43" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GX43" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY43" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="44" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="92">
         <v>41</v>
       </c>
@@ -39145,8 +40685,35 @@
       <c r="GP44" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ44" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR44" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GX44" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY44" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="92">
         <v>42</v>
       </c>
@@ -39737,8 +41304,35 @@
       <c r="GP45" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ45" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR45" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GX45" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY45" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="92">
         <v>43</v>
       </c>
@@ -40329,8 +41923,35 @@
       <c r="GP46" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ46" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR46" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GX46" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY46" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="92">
         <v>44</v>
       </c>
@@ -40921,8 +42542,35 @@
       <c r="GP47" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ47" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR47" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GX47" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY47" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="48" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="92">
         <v>45</v>
       </c>
@@ -41513,8 +43161,35 @@
       <c r="GP48" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ48" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR48" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GX48" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY48" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:198" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:207" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="92">
         <v>46</v>
       </c>
@@ -42105,8 +43780,35 @@
       <c r="GP49" s="115" t="s">
         <v>11</v>
       </c>
+      <c r="GQ49" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="GR49" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GU49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GV49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GX49" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="GY49" s="115" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="92">
         <v>47</v>
       </c>
@@ -42679,7 +44381,7 @@
         <v>3015</v>
       </c>
       <c r="GJ50" s="159" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="GK50" s="159" t="s">
         <v>1978</v>
@@ -42694,13 +44396,40 @@
         <v>2663</v>
       </c>
       <c r="GO50" s="115" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="GP50" s="115" t="s">
         <v>2807</v>
       </c>
+      <c r="GQ50" s="208" t="s">
+        <v>3128</v>
+      </c>
+      <c r="GR50" s="115" t="s">
+        <v>1978</v>
+      </c>
+      <c r="GS50" s="115" t="s">
+        <v>3158</v>
+      </c>
+      <c r="GT50" s="115" t="s">
+        <v>3174</v>
+      </c>
+      <c r="GU50" s="115" t="s">
+        <v>3190</v>
+      </c>
+      <c r="GV50" s="115" t="s">
+        <v>3209</v>
+      </c>
+      <c r="GW50" s="115" t="s">
+        <v>3226</v>
+      </c>
+      <c r="GX50" s="115" t="s">
+        <v>3240</v>
+      </c>
+      <c r="GY50" s="115" t="s">
+        <v>3252</v>
+      </c>
     </row>
-    <row r="51" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="92">
         <v>48</v>
       </c>
@@ -43273,28 +45002,55 @@
         <v>3016</v>
       </c>
       <c r="GJ51" s="159" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="GK51" s="159" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="GL51" s="216" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="GM51" s="115" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="GN51" s="115" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="GO51" s="115" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="GP51" s="216" t="s">
-        <v>3108</v>
+        <v>3107</v>
+      </c>
+      <c r="GQ51" s="208" t="s">
+        <v>3129</v>
+      </c>
+      <c r="GR51" s="216" t="s">
+        <v>3144</v>
+      </c>
+      <c r="GS51" s="115" t="s">
+        <v>3159</v>
+      </c>
+      <c r="GT51" s="115" t="s">
+        <v>3175</v>
+      </c>
+      <c r="GU51" s="115" t="s">
+        <v>3191</v>
+      </c>
+      <c r="GV51" s="159" t="s">
+        <v>3210</v>
+      </c>
+      <c r="GW51" s="159" t="s">
+        <v>3227</v>
+      </c>
+      <c r="GX51" s="115" t="s">
+        <v>3241</v>
+      </c>
+      <c r="GY51" s="115" t="s">
+        <v>3253</v>
       </c>
     </row>
-    <row r="52" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="92">
         <v>49</v>
       </c>
@@ -43867,28 +45623,55 @@
         <v>3017</v>
       </c>
       <c r="GJ52" s="159" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="GK52" s="159" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="GL52" s="115" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="GM52" s="115" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="GN52" s="115" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="GO52" s="115" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="GP52" s="115" t="s">
-        <v>3109</v>
+        <v>3108</v>
+      </c>
+      <c r="GQ52" s="208" t="s">
+        <v>3130</v>
+      </c>
+      <c r="GR52" s="115" t="s">
+        <v>3041</v>
+      </c>
+      <c r="GS52" s="115" t="s">
+        <v>3160</v>
+      </c>
+      <c r="GT52" s="115" t="s">
+        <v>3176</v>
+      </c>
+      <c r="GU52" s="115" t="s">
+        <v>3192</v>
+      </c>
+      <c r="GV52" s="159" t="s">
+        <v>3211</v>
+      </c>
+      <c r="GW52" s="159" t="s">
+        <v>3228</v>
+      </c>
+      <c r="GX52" s="115" t="s">
+        <v>3242</v>
+      </c>
+      <c r="GY52" s="115" t="s">
+        <v>3254</v>
       </c>
     </row>
-    <row r="53" spans="1:198" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:207" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="92">
         <v>50</v>
       </c>
@@ -44483,8 +46266,35 @@
       <c r="GP53" s="185" t="s">
         <v>206</v>
       </c>
+      <c r="GQ53" s="210" t="s">
+        <v>206</v>
+      </c>
+      <c r="GR53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GS53" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="GT53" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="GU53" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="GV53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GW53" s="185" t="s">
+        <v>206</v>
+      </c>
+      <c r="GX53" s="206" t="s">
+        <v>206</v>
+      </c>
+      <c r="GY53" s="185" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="54" spans="1:198" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:207" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A54" s="92">
         <v>51</v>
       </c>
@@ -45075,10 +46885,37 @@
         <v>61</v>
       </c>
       <c r="GP54" s="185" t="s">
-        <v>3110</v>
+        <v>3109</v>
+      </c>
+      <c r="GQ54" s="210" t="s">
+        <v>61</v>
+      </c>
+      <c r="GR54" s="185" t="s">
+        <v>61</v>
+      </c>
+      <c r="GS54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="GT54" s="183" t="s">
+        <v>61</v>
+      </c>
+      <c r="GU54" s="115" t="s">
+        <v>728</v>
+      </c>
+      <c r="GV54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="GW54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="GX54" s="185" t="s">
+        <v>61</v>
+      </c>
+      <c r="GY54" s="115" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:198" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:207" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A55" s="92">
         <v>52</v>
       </c>
@@ -45660,19 +47497,46 @@
         <v>2330</v>
       </c>
       <c r="GM55" s="115" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="GN55" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="GO55" s="115" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="GP55" s="185" t="s">
-        <v>3111</v>
+        <v>3110</v>
+      </c>
+      <c r="GQ55" s="210" t="s">
+        <v>3131</v>
+      </c>
+      <c r="GR55" s="185" t="s">
+        <v>3145</v>
+      </c>
+      <c r="GS55" s="159" t="s">
+        <v>3161</v>
+      </c>
+      <c r="GT55" s="183" t="s">
+        <v>3131</v>
+      </c>
+      <c r="GU55" s="159" t="s">
+        <v>3193</v>
+      </c>
+      <c r="GV55" s="115" t="s">
+        <v>3212</v>
+      </c>
+      <c r="GW55" s="115" t="s">
+        <v>3212</v>
+      </c>
+      <c r="GX55" s="185" t="s">
+        <v>3243</v>
+      </c>
+      <c r="GY55" s="115" t="s">
+        <v>3212</v>
       </c>
     </row>
-    <row r="56" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="92">
         <v>53</v>
       </c>
@@ -46252,19 +48116,46 @@
         <v>2330</v>
       </c>
       <c r="GM56" s="115" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="GN56" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="GO56" s="186" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="GP56" s="185" t="s">
-        <v>3112</v>
+        <v>3111</v>
+      </c>
+      <c r="GQ56" s="69" t="s">
+        <v>3132</v>
+      </c>
+      <c r="GR56" s="185" t="s">
+        <v>3146</v>
+      </c>
+      <c r="GS56" s="159" t="s">
+        <v>3162</v>
+      </c>
+      <c r="GT56" s="185" t="s">
+        <v>3177</v>
+      </c>
+      <c r="GU56" s="159" t="s">
+        <v>3194</v>
+      </c>
+      <c r="GV56" s="115" t="s">
+        <v>3213</v>
+      </c>
+      <c r="GW56" s="115" t="s">
+        <v>3229</v>
+      </c>
+      <c r="GX56" s="169" t="s">
+        <v>3244</v>
+      </c>
+      <c r="GY56" s="115" t="s">
+        <v>3213</v>
       </c>
     </row>
-    <row r="57" spans="1:198" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:207" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A57" s="92">
         <v>54</v>
       </c>
@@ -46849,16 +48740,43 @@
         <v>2083</v>
       </c>
       <c r="GN57" s="115" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="GO57" s="115" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="GP57" s="185" t="s">
-        <v>3113</v>
+        <v>3112</v>
+      </c>
+      <c r="GQ57" s="69" t="s">
+        <v>3133</v>
+      </c>
+      <c r="GR57" s="185" t="s">
+        <v>3147</v>
+      </c>
+      <c r="GS57" s="159" t="s">
+        <v>3163</v>
+      </c>
+      <c r="GT57" s="185" t="s">
+        <v>3178</v>
+      </c>
+      <c r="GU57" s="159" t="s">
+        <v>3195</v>
+      </c>
+      <c r="GV57" s="115" t="s">
+        <v>3214</v>
+      </c>
+      <c r="GW57" s="115" t="s">
+        <v>3230</v>
+      </c>
+      <c r="GX57" s="115" t="s">
+        <v>3245</v>
+      </c>
+      <c r="GY57" s="115" t="s">
+        <v>3214</v>
       </c>
     </row>
-    <row r="58" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="92">
         <v>55</v>
       </c>
@@ -47411,19 +49329,46 @@
         <v>2330</v>
       </c>
       <c r="GM58" s="206" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="GN58" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="GO58" s="186" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="GP58" s="185" t="s">
-        <v>3114</v>
+        <v>3113</v>
+      </c>
+      <c r="GQ58" s="186" t="s">
+        <v>3134</v>
+      </c>
+      <c r="GR58" s="185" t="s">
+        <v>3148</v>
+      </c>
+      <c r="GS58" s="159" t="s">
+        <v>3164</v>
+      </c>
+      <c r="GT58" s="194" t="s">
+        <v>3179</v>
+      </c>
+      <c r="GU58" s="159" t="s">
+        <v>3194</v>
+      </c>
+      <c r="GV58" s="115" t="s">
+        <v>3213</v>
+      </c>
+      <c r="GW58" s="115" t="s">
+        <v>3229</v>
+      </c>
+      <c r="GX58" s="169" t="s">
+        <v>3244</v>
+      </c>
+      <c r="GY58" s="115" t="s">
+        <v>3213</v>
       </c>
     </row>
-    <row r="59" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="92">
         <v>56</v>
       </c>
@@ -48005,19 +49950,46 @@
         <v>2330</v>
       </c>
       <c r="GM59" s="206" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="GN59" s="185" t="s">
         <v>2330</v>
       </c>
       <c r="GO59" s="186" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="GP59" s="185" t="s">
-        <v>3114</v>
+        <v>3113</v>
+      </c>
+      <c r="GQ59" s="69" t="s">
+        <v>3135</v>
+      </c>
+      <c r="GR59" s="185" t="s">
+        <v>3148</v>
+      </c>
+      <c r="GS59" s="159" t="s">
+        <v>3164</v>
+      </c>
+      <c r="GT59" s="194" t="s">
+        <v>3179</v>
+      </c>
+      <c r="GU59" s="159" t="s">
+        <v>3194</v>
+      </c>
+      <c r="GV59" s="115" t="s">
+        <v>3213</v>
+      </c>
+      <c r="GW59" s="115" t="s">
+        <v>3229</v>
+      </c>
+      <c r="GX59" s="169" t="s">
+        <v>3244</v>
+      </c>
+      <c r="GY59" s="115" t="s">
+        <v>3213</v>
       </c>
     </row>
-    <row r="60" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="92">
         <v>57</v>
       </c>
@@ -48610,8 +50582,35 @@
       <c r="GP60" s="184">
         <v>1</v>
       </c>
+      <c r="GQ60" s="188">
+        <v>1</v>
+      </c>
+      <c r="GR60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GS60" s="182">
+        <v>1</v>
+      </c>
+      <c r="GT60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GU60" s="182">
+        <v>1</v>
+      </c>
+      <c r="GV60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GW60" s="184">
+        <v>1</v>
+      </c>
+      <c r="GX60" s="65">
+        <v>1</v>
+      </c>
+      <c r="GY60" s="184">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:198" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:207" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="92">
         <v>58</v>
       </c>
@@ -49204,8 +51203,35 @@
       <c r="GP61" s="192">
         <v>45813</v>
       </c>
+      <c r="GQ61" s="205">
+        <v>45840</v>
+      </c>
+      <c r="GR61" s="192">
+        <v>45841</v>
+      </c>
+      <c r="GS61" s="157">
+        <v>45835</v>
+      </c>
+      <c r="GT61" s="192">
+        <v>45840</v>
+      </c>
+      <c r="GU61" s="157">
+        <v>45841</v>
+      </c>
+      <c r="GV61" s="157">
+        <v>45870</v>
+      </c>
+      <c r="GW61" s="157">
+        <v>45870</v>
+      </c>
+      <c r="GX61" s="193">
+        <v>45839</v>
+      </c>
+      <c r="GY61" s="157">
+        <v>45870</v>
+      </c>
     </row>
-    <row r="62" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="92">
         <v>59</v>
       </c>
@@ -49798,8 +51824,35 @@
       <c r="GP62" s="192">
         <v>45813</v>
       </c>
+      <c r="GQ62" s="205">
+        <v>45840</v>
+      </c>
+      <c r="GR62" s="192">
+        <v>45841</v>
+      </c>
+      <c r="GS62" s="157">
+        <v>45835</v>
+      </c>
+      <c r="GT62" s="192">
+        <v>45840</v>
+      </c>
+      <c r="GU62" s="157">
+        <v>45866</v>
+      </c>
+      <c r="GV62" s="157">
+        <v>45872</v>
+      </c>
+      <c r="GW62" s="157">
+        <v>45871</v>
+      </c>
+      <c r="GX62" s="193">
+        <v>45867</v>
+      </c>
+      <c r="GY62" s="157">
+        <v>45871</v>
+      </c>
     </row>
-    <row r="63" spans="1:198" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:207" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="92">
         <v>60</v>
       </c>
@@ -50381,10 +52434,10 @@
         <v>2331</v>
       </c>
       <c r="GM63" s="115" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="GN63" s="115" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="GO63" s="115" t="s">
         <v>2462</v>
@@ -50392,8 +52445,35 @@
       <c r="GP63" s="115" t="s">
         <v>30</v>
       </c>
+      <c r="GQ63" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="GR63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GS63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GT63" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="GU63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GV63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GW63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GX63" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GY63" s="115" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="64" spans="1:198" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:207" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A64" s="92">
         <v>61</v>
       </c>
@@ -50969,25 +53049,52 @@
         <v>72</v>
       </c>
       <c r="GK64" s="185" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="GL64" s="185" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="GM64" s="115" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="GN64" s="115" t="s">
         <v>2669</v>
       </c>
       <c r="GO64" s="115" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="GP64" s="185" t="s">
-        <v>3115</v>
+        <v>3114</v>
+      </c>
+      <c r="GQ64" s="69" t="s">
+        <v>2332</v>
+      </c>
+      <c r="GR64" s="185" t="s">
+        <v>3114</v>
+      </c>
+      <c r="GS64" s="115" t="s">
+        <v>3165</v>
+      </c>
+      <c r="GT64" s="185" t="s">
+        <v>2332</v>
+      </c>
+      <c r="GU64" s="115" t="s">
+        <v>3165</v>
+      </c>
+      <c r="GV64" s="115" t="s">
+        <v>2698</v>
+      </c>
+      <c r="GW64" s="115" t="s">
+        <v>2698</v>
+      </c>
+      <c r="GX64" s="115" t="s">
+        <v>3246</v>
+      </c>
+      <c r="GY64" s="115" t="s">
+        <v>2698</v>
       </c>
     </row>
-    <row r="65" spans="1:205" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:255" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="92">
         <v>62</v>
       </c>
@@ -51283,8 +53390,35 @@
       <c r="GP65" s="192">
         <v>45813</v>
       </c>
+      <c r="GQ65" s="205">
+        <v>45840</v>
+      </c>
+      <c r="GR65" s="192">
+        <v>45841</v>
+      </c>
+      <c r="GS65" s="157">
+        <v>45842</v>
+      </c>
+      <c r="GT65" s="192">
+        <v>45840</v>
+      </c>
+      <c r="GU65" s="157">
+        <v>45866</v>
+      </c>
+      <c r="GV65" s="157">
+        <v>45872</v>
+      </c>
+      <c r="GW65" s="157">
+        <v>45871</v>
+      </c>
+      <c r="GX65" s="193">
+        <v>45867</v>
+      </c>
+      <c r="GY65" s="157">
+        <v>45871</v>
+      </c>
     </row>
-    <row r="66" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:255" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A66" s="92">
         <v>63</v>
       </c>
@@ -51564,7 +53698,7 @@
         <v>30</v>
       </c>
       <c r="GL66" s="169" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="GM66" s="115" t="s">
         <v>30</v>
@@ -51578,8 +53712,35 @@
       <c r="GP66" s="115" t="s">
         <v>30</v>
       </c>
+      <c r="GQ66" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="GR66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GS66" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="GT66" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="GU66" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="GV66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GW66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GX66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="GY66" s="115" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="67" spans="1:205" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:255" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="92">
         <v>64</v>
       </c>
@@ -51701,8 +53862,17 @@
       <c r="GN67" s="206"/>
       <c r="GO67" s="169"/>
       <c r="GP67" s="169"/>
+      <c r="GQ67" s="191"/>
+      <c r="GR67" s="169"/>
+      <c r="GS67" s="169"/>
+      <c r="GT67" s="169"/>
+      <c r="GU67" s="169"/>
+      <c r="GV67" s="206"/>
+      <c r="GW67" s="206"/>
+      <c r="GX67" s="156"/>
+      <c r="GY67" s="156"/>
     </row>
-    <row r="68" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:255" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A68" s="92">
         <v>65</v>
       </c>
@@ -51774,8 +53944,12 @@
       <c r="GL68" s="169"/>
       <c r="GM68" s="169"/>
       <c r="GN68" s="206"/>
+      <c r="GU68" s="169"/>
+      <c r="GW68" s="206"/>
+      <c r="GX68" s="156"/>
+      <c r="GY68" s="156"/>
     </row>
-    <row r="69" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:255" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A69" s="92">
         <v>66</v>
       </c>
@@ -51823,8 +53997,9 @@
       <c r="EV69" s="196"/>
       <c r="FV69" s="196"/>
       <c r="GC69" s="156"/>
+      <c r="GW69" s="206"/>
     </row>
-    <row r="70" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:255" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A70" s="92">
         <v>67</v>
       </c>
@@ -51862,8 +54037,9 @@
       <c r="EN70" s="169"/>
       <c r="ER70" s="169"/>
       <c r="GC70" s="156"/>
+      <c r="GW70" s="206"/>
     </row>
-    <row r="71" spans="1:205" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:255" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A71" s="92">
         <v>68</v>
       </c>
@@ -51898,7 +54074,7 @@
       <c r="EG71" s="156"/>
       <c r="ER71" s="169"/>
     </row>
-    <row r="72" spans="1:205" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:255" x14ac:dyDescent="0.4">
       <c r="A72" s="92">
         <v>69</v>
       </c>
@@ -51930,7 +54106,7 @@
       <c r="BY72" s="158"/>
       <c r="BZ72" s="158"/>
     </row>
-    <row r="73" spans="1:205" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:255" x14ac:dyDescent="0.4">
       <c r="U73" s="12"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="49"/>
@@ -51952,7 +54128,7 @@
       <c r="BY73" s="90"/>
       <c r="BZ73" s="90"/>
     </row>
-    <row r="74" spans="1:205" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:255" x14ac:dyDescent="0.4">
       <c r="A74" s="37"/>
       <c r="D74" s="37"/>
       <c r="E74" s="105"/>
@@ -52429,6 +54605,156 @@
       </c>
       <c r="GW74" s="167">
         <v>200</v>
+      </c>
+      <c r="GX74" s="167">
+        <v>201</v>
+      </c>
+      <c r="GY74" s="168">
+        <v>202</v>
+      </c>
+      <c r="GZ74" s="167">
+        <v>203</v>
+      </c>
+      <c r="HA74" s="167">
+        <v>204</v>
+      </c>
+      <c r="HB74" s="168">
+        <v>205</v>
+      </c>
+      <c r="HC74" s="167">
+        <v>206</v>
+      </c>
+      <c r="HD74" s="167">
+        <v>207</v>
+      </c>
+      <c r="HE74" s="168">
+        <v>208</v>
+      </c>
+      <c r="HF74" s="167">
+        <v>209</v>
+      </c>
+      <c r="HG74" s="167">
+        <v>210</v>
+      </c>
+      <c r="HH74" s="168">
+        <v>211</v>
+      </c>
+      <c r="HI74" s="167">
+        <v>212</v>
+      </c>
+      <c r="HJ74" s="167">
+        <v>213</v>
+      </c>
+      <c r="HK74" s="168">
+        <v>214</v>
+      </c>
+      <c r="HL74" s="167">
+        <v>215</v>
+      </c>
+      <c r="HM74" s="167">
+        <v>216</v>
+      </c>
+      <c r="HN74" s="168">
+        <v>217</v>
+      </c>
+      <c r="HO74" s="167">
+        <v>218</v>
+      </c>
+      <c r="HP74" s="167">
+        <v>219</v>
+      </c>
+      <c r="HQ74" s="168">
+        <v>220</v>
+      </c>
+      <c r="HR74" s="167">
+        <v>221</v>
+      </c>
+      <c r="HS74" s="167">
+        <v>222</v>
+      </c>
+      <c r="HT74" s="168">
+        <v>223</v>
+      </c>
+      <c r="HU74" s="167">
+        <v>224</v>
+      </c>
+      <c r="HV74" s="167">
+        <v>225</v>
+      </c>
+      <c r="HW74" s="168">
+        <v>226</v>
+      </c>
+      <c r="HX74" s="167">
+        <v>227</v>
+      </c>
+      <c r="HY74" s="167">
+        <v>228</v>
+      </c>
+      <c r="HZ74" s="168">
+        <v>229</v>
+      </c>
+      <c r="IA74" s="167">
+        <v>230</v>
+      </c>
+      <c r="IB74" s="167">
+        <v>231</v>
+      </c>
+      <c r="IC74" s="168">
+        <v>232</v>
+      </c>
+      <c r="ID74" s="167">
+        <v>233</v>
+      </c>
+      <c r="IE74" s="168">
+        <v>234</v>
+      </c>
+      <c r="IF74" s="167">
+        <v>235</v>
+      </c>
+      <c r="IG74" s="168">
+        <v>236</v>
+      </c>
+      <c r="IH74" s="167">
+        <v>237</v>
+      </c>
+      <c r="II74" s="168">
+        <v>238</v>
+      </c>
+      <c r="IJ74" s="167">
+        <v>239</v>
+      </c>
+      <c r="IK74" s="168">
+        <v>240</v>
+      </c>
+      <c r="IL74" s="167">
+        <v>241</v>
+      </c>
+      <c r="IM74" s="168">
+        <v>242</v>
+      </c>
+      <c r="IN74" s="167">
+        <v>243</v>
+      </c>
+      <c r="IO74" s="168">
+        <v>244</v>
+      </c>
+      <c r="IP74" s="167">
+        <v>245</v>
+      </c>
+      <c r="IQ74" s="168">
+        <v>246</v>
+      </c>
+      <c r="IR74" s="167">
+        <v>247</v>
+      </c>
+      <c r="IS74" s="167">
+        <v>248</v>
+      </c>
+      <c r="IT74" s="168">
+        <v>249</v>
+      </c>
+      <c r="IU74" s="167">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
